--- a/doc/planning/Projektplanung_Spektrometer.xlsx
+++ b/doc/planning/Projektplanung_Spektrometer.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Dropbox\YARX\10_Projekte\20_Mobile\21_iOS\1610_Spektrometer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Daten/Spektrometer/portableSpectrometer/doc/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="18960" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
   </externalReferences>
   <definedNames>
     <definedName name="abc">[1]Stammdaten!$B$2:$B$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$GC$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$GC$79</definedName>
     <definedName name="Teammitglieder">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="120">
   <si>
     <t>Zeit</t>
   </si>
@@ -398,13 +398,19 @@
   <si>
     <t>​Proof of Concept</t>
   </si>
+  <si>
+    <t>Meeting Testflight</t>
+  </si>
+  <si>
+    <t>Meeting Prototyp 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1438,7 +1444,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1710,6 +1716,57 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1827,196 +1884,148 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="137">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2044,25 +2053,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Zeitplanung"/>
-      <sheetName val="Pendenzenliste"/>
       <sheetName val="Stammdaten"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>Andreas Lüscher</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Raphael Bolliger</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2355,38 +2349,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:GC78"/>
+  <dimension ref="A1:GC80"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="F33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="5" ySplit="8" topLeftCell="EZ39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomRight" activeCell="FX51" sqref="FX51:GB51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" style="34" customWidth="1"/>
-    <col min="6" max="109" width="2.5703125" style="4" customWidth="1"/>
-    <col min="110" max="185" width="2.5703125" style="10" customWidth="1"/>
-    <col min="186" max="16384" width="15.5703125" style="1"/>
+    <col min="1" max="1" width="7.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="34" customWidth="1"/>
+    <col min="6" max="109" width="2.5" style="4" customWidth="1"/>
+    <col min="110" max="185" width="2.5" style="10" customWidth="1"/>
+    <col min="186" max="16384" width="15.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:185" s="12" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:185" s="12" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="135"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -2568,12 +2562,12 @@
       <c r="GB1" s="3"/>
       <c r="GC1" s="6"/>
     </row>
-    <row r="2" spans="1:185" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="127"/>
+    <row r="2" spans="1:185" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
@@ -2755,7 +2749,7 @@
       <c r="GB2" s="50"/>
       <c r="GC2" s="13"/>
     </row>
-    <row r="3" spans="1:185" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:185" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>27</v>
       </c>
@@ -2954,852 +2948,852 @@
       <c r="GB3" s="15"/>
       <c r="GC3" s="18"/>
     </row>
-    <row r="4" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+    <row r="4" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="101" t="s">
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
-      <c r="V4" s="102"/>
-      <c r="W4" s="102"/>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="102"/>
-      <c r="Z4" s="102"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="102"/>
-      <c r="AC4" s="102"/>
-      <c r="AD4" s="102"/>
-      <c r="AE4" s="102"/>
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="102"/>
-      <c r="AI4" s="102"/>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="102"/>
-      <c r="AL4" s="102"/>
-      <c r="AM4" s="102"/>
-      <c r="AN4" s="102"/>
-      <c r="AO4" s="102" t="s">
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AP4" s="102"/>
-      <c r="AQ4" s="102"/>
-      <c r="AR4" s="102"/>
-      <c r="AS4" s="102"/>
-      <c r="AT4" s="102"/>
-      <c r="AU4" s="102"/>
-      <c r="AV4" s="102"/>
-      <c r="AW4" s="102"/>
-      <c r="AX4" s="102"/>
-      <c r="AY4" s="102"/>
-      <c r="AZ4" s="102"/>
-      <c r="BA4" s="102"/>
-      <c r="BB4" s="102"/>
-      <c r="BC4" s="102"/>
-      <c r="BD4" s="102"/>
-      <c r="BE4" s="102"/>
-      <c r="BF4" s="102"/>
-      <c r="BG4" s="102"/>
-      <c r="BH4" s="102"/>
-      <c r="BI4" s="102"/>
-      <c r="BJ4" s="102"/>
-      <c r="BK4" s="102"/>
-      <c r="BL4" s="102"/>
-      <c r="BM4" s="102"/>
-      <c r="BN4" s="102"/>
-      <c r="BO4" s="102"/>
-      <c r="BP4" s="102"/>
-      <c r="BQ4" s="102"/>
-      <c r="BR4" s="102"/>
-      <c r="BS4" s="102"/>
-      <c r="BT4" s="102"/>
-      <c r="BU4" s="102"/>
-      <c r="BV4" s="102"/>
-      <c r="BW4" s="102"/>
-      <c r="BX4" s="102"/>
-      <c r="BY4" s="102"/>
-      <c r="BZ4" s="102"/>
-      <c r="CA4" s="102" t="s">
+      <c r="AP4" s="119"/>
+      <c r="AQ4" s="119"/>
+      <c r="AR4" s="119"/>
+      <c r="AS4" s="119"/>
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="119"/>
+      <c r="AV4" s="119"/>
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="119"/>
+      <c r="AY4" s="119"/>
+      <c r="AZ4" s="119"/>
+      <c r="BA4" s="119"/>
+      <c r="BB4" s="119"/>
+      <c r="BC4" s="119"/>
+      <c r="BD4" s="119"/>
+      <c r="BE4" s="119"/>
+      <c r="BF4" s="119"/>
+      <c r="BG4" s="119"/>
+      <c r="BH4" s="119"/>
+      <c r="BI4" s="119"/>
+      <c r="BJ4" s="119"/>
+      <c r="BK4" s="119"/>
+      <c r="BL4" s="119"/>
+      <c r="BM4" s="119"/>
+      <c r="BN4" s="119"/>
+      <c r="BO4" s="119"/>
+      <c r="BP4" s="119"/>
+      <c r="BQ4" s="119"/>
+      <c r="BR4" s="119"/>
+      <c r="BS4" s="119"/>
+      <c r="BT4" s="119"/>
+      <c r="BU4" s="119"/>
+      <c r="BV4" s="119"/>
+      <c r="BW4" s="119"/>
+      <c r="BX4" s="119"/>
+      <c r="BY4" s="119"/>
+      <c r="BZ4" s="119"/>
+      <c r="CA4" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="CB4" s="102"/>
-      <c r="CC4" s="102"/>
-      <c r="CD4" s="102"/>
-      <c r="CE4" s="102"/>
-      <c r="CF4" s="102"/>
-      <c r="CG4" s="102"/>
-      <c r="CH4" s="102"/>
-      <c r="CI4" s="102"/>
-      <c r="CJ4" s="102"/>
-      <c r="CK4" s="102"/>
-      <c r="CL4" s="102"/>
-      <c r="CM4" s="102"/>
-      <c r="CN4" s="102"/>
-      <c r="CO4" s="102"/>
-      <c r="CP4" s="102"/>
-      <c r="CQ4" s="102"/>
-      <c r="CR4" s="102"/>
-      <c r="CS4" s="102"/>
-      <c r="CT4" s="102"/>
-      <c r="CU4" s="102"/>
-      <c r="CV4" s="102" t="s">
+      <c r="CB4" s="119"/>
+      <c r="CC4" s="119"/>
+      <c r="CD4" s="119"/>
+      <c r="CE4" s="119"/>
+      <c r="CF4" s="119"/>
+      <c r="CG4" s="119"/>
+      <c r="CH4" s="119"/>
+      <c r="CI4" s="119"/>
+      <c r="CJ4" s="119"/>
+      <c r="CK4" s="119"/>
+      <c r="CL4" s="119"/>
+      <c r="CM4" s="119"/>
+      <c r="CN4" s="119"/>
+      <c r="CO4" s="119"/>
+      <c r="CP4" s="119"/>
+      <c r="CQ4" s="119"/>
+      <c r="CR4" s="119"/>
+      <c r="CS4" s="119"/>
+      <c r="CT4" s="119"/>
+      <c r="CU4" s="119"/>
+      <c r="CV4" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="CW4" s="102"/>
-      <c r="CX4" s="102"/>
-      <c r="CY4" s="102"/>
-      <c r="CZ4" s="102"/>
-      <c r="DA4" s="102"/>
-      <c r="DB4" s="102"/>
-      <c r="DC4" s="102"/>
-      <c r="DD4" s="102"/>
-      <c r="DE4" s="102"/>
-      <c r="DF4" s="102"/>
-      <c r="DG4" s="102"/>
-      <c r="DH4" s="102"/>
-      <c r="DI4" s="102"/>
-      <c r="DJ4" s="102"/>
-      <c r="DK4" s="102"/>
-      <c r="DL4" s="102"/>
-      <c r="DM4" s="102"/>
-      <c r="DN4" s="102"/>
-      <c r="DO4" s="102"/>
-      <c r="DP4" s="102"/>
-      <c r="DQ4" s="102"/>
-      <c r="DR4" s="102"/>
-      <c r="DS4" s="102"/>
-      <c r="DT4" s="102"/>
-      <c r="DU4" s="102"/>
-      <c r="DV4" s="102"/>
-      <c r="DW4" s="102"/>
-      <c r="DX4" s="102"/>
-      <c r="DY4" s="102"/>
-      <c r="DZ4" s="102"/>
-      <c r="EA4" s="102"/>
-      <c r="EB4" s="102"/>
-      <c r="EC4" s="102"/>
-      <c r="ED4" s="102"/>
-      <c r="EE4" s="102" t="s">
+      <c r="CW4" s="119"/>
+      <c r="CX4" s="119"/>
+      <c r="CY4" s="119"/>
+      <c r="CZ4" s="119"/>
+      <c r="DA4" s="119"/>
+      <c r="DB4" s="119"/>
+      <c r="DC4" s="119"/>
+      <c r="DD4" s="119"/>
+      <c r="DE4" s="119"/>
+      <c r="DF4" s="119"/>
+      <c r="DG4" s="119"/>
+      <c r="DH4" s="119"/>
+      <c r="DI4" s="119"/>
+      <c r="DJ4" s="119"/>
+      <c r="DK4" s="119"/>
+      <c r="DL4" s="119"/>
+      <c r="DM4" s="119"/>
+      <c r="DN4" s="119"/>
+      <c r="DO4" s="119"/>
+      <c r="DP4" s="119"/>
+      <c r="DQ4" s="119"/>
+      <c r="DR4" s="119"/>
+      <c r="DS4" s="119"/>
+      <c r="DT4" s="119"/>
+      <c r="DU4" s="119"/>
+      <c r="DV4" s="119"/>
+      <c r="DW4" s="119"/>
+      <c r="DX4" s="119"/>
+      <c r="DY4" s="119"/>
+      <c r="DZ4" s="119"/>
+      <c r="EA4" s="119"/>
+      <c r="EB4" s="119"/>
+      <c r="EC4" s="119"/>
+      <c r="ED4" s="119"/>
+      <c r="EE4" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="EF4" s="102"/>
-      <c r="EG4" s="102"/>
-      <c r="EH4" s="102"/>
-      <c r="EI4" s="102"/>
-      <c r="EJ4" s="102"/>
-      <c r="EK4" s="102"/>
-      <c r="EL4" s="102"/>
-      <c r="EM4" s="102"/>
-      <c r="EN4" s="102"/>
-      <c r="EO4" s="102"/>
-      <c r="EP4" s="102"/>
-      <c r="EQ4" s="102"/>
-      <c r="ER4" s="102"/>
-      <c r="ES4" s="102"/>
-      <c r="ET4" s="102"/>
-      <c r="EU4" s="102"/>
-      <c r="EV4" s="102"/>
-      <c r="EW4" s="102"/>
-      <c r="EX4" s="102"/>
-      <c r="EY4" s="102"/>
-      <c r="EZ4" s="102"/>
-      <c r="FA4" s="102"/>
-      <c r="FB4" s="102"/>
-      <c r="FC4" s="102"/>
-      <c r="FD4" s="102"/>
-      <c r="FE4" s="102"/>
-      <c r="FF4" s="102"/>
-      <c r="FG4" s="102"/>
-      <c r="FH4" s="102"/>
-      <c r="FI4" s="102"/>
-      <c r="FJ4" s="102"/>
-      <c r="FK4" s="102"/>
-      <c r="FL4" s="102"/>
-      <c r="FM4" s="102" t="s">
+      <c r="EF4" s="119"/>
+      <c r="EG4" s="119"/>
+      <c r="EH4" s="119"/>
+      <c r="EI4" s="119"/>
+      <c r="EJ4" s="119"/>
+      <c r="EK4" s="119"/>
+      <c r="EL4" s="119"/>
+      <c r="EM4" s="119"/>
+      <c r="EN4" s="119"/>
+      <c r="EO4" s="119"/>
+      <c r="EP4" s="119"/>
+      <c r="EQ4" s="119"/>
+      <c r="ER4" s="119"/>
+      <c r="ES4" s="119"/>
+      <c r="ET4" s="119"/>
+      <c r="EU4" s="119"/>
+      <c r="EV4" s="119"/>
+      <c r="EW4" s="119"/>
+      <c r="EX4" s="119"/>
+      <c r="EY4" s="119"/>
+      <c r="EZ4" s="119"/>
+      <c r="FA4" s="119"/>
+      <c r="FB4" s="119"/>
+      <c r="FC4" s="119"/>
+      <c r="FD4" s="119"/>
+      <c r="FE4" s="119"/>
+      <c r="FF4" s="119"/>
+      <c r="FG4" s="119"/>
+      <c r="FH4" s="119"/>
+      <c r="FI4" s="119"/>
+      <c r="FJ4" s="119"/>
+      <c r="FK4" s="119"/>
+      <c r="FL4" s="119"/>
+      <c r="FM4" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="FN4" s="102"/>
-      <c r="FO4" s="102"/>
-      <c r="FP4" s="102"/>
-      <c r="FQ4" s="102"/>
-      <c r="FR4" s="102"/>
-      <c r="FS4" s="102"/>
-      <c r="FT4" s="102"/>
-      <c r="FU4" s="102"/>
-      <c r="FV4" s="102"/>
-      <c r="FW4" s="102"/>
-      <c r="FX4" s="102"/>
-      <c r="FY4" s="102"/>
-      <c r="FZ4" s="102"/>
-      <c r="GA4" s="102"/>
-      <c r="GB4" s="102"/>
-      <c r="GC4" s="103"/>
+      <c r="FN4" s="119"/>
+      <c r="FO4" s="119"/>
+      <c r="FP4" s="119"/>
+      <c r="FQ4" s="119"/>
+      <c r="FR4" s="119"/>
+      <c r="FS4" s="119"/>
+      <c r="FT4" s="119"/>
+      <c r="FU4" s="119"/>
+      <c r="FV4" s="119"/>
+      <c r="FW4" s="119"/>
+      <c r="FX4" s="119"/>
+      <c r="FY4" s="119"/>
+      <c r="FZ4" s="119"/>
+      <c r="GA4" s="119"/>
+      <c r="GB4" s="119"/>
+      <c r="GC4" s="120"/>
     </row>
-    <row r="5" spans="1:185" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+    <row r="5" spans="1:185" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="106">
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="123">
         <v>2016</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="107"/>
-      <c r="BA5" s="107"/>
-      <c r="BB5" s="107"/>
-      <c r="BC5" s="107"/>
-      <c r="BD5" s="107"/>
-      <c r="BE5" s="107"/>
-      <c r="BF5" s="107"/>
-      <c r="BG5" s="107"/>
-      <c r="BH5" s="107"/>
-      <c r="BI5" s="107"/>
-      <c r="BJ5" s="107"/>
-      <c r="BK5" s="107"/>
-      <c r="BL5" s="107"/>
-      <c r="BM5" s="107"/>
-      <c r="BN5" s="107"/>
-      <c r="BO5" s="107"/>
-      <c r="BP5" s="107"/>
-      <c r="BQ5" s="107"/>
-      <c r="BR5" s="107"/>
-      <c r="BS5" s="107"/>
-      <c r="BT5" s="107"/>
-      <c r="BU5" s="107"/>
-      <c r="BV5" s="107"/>
-      <c r="BW5" s="107"/>
-      <c r="BX5" s="107"/>
-      <c r="BY5" s="107"/>
-      <c r="BZ5" s="107"/>
-      <c r="CA5" s="107"/>
-      <c r="CB5" s="107"/>
-      <c r="CC5" s="107"/>
-      <c r="CD5" s="107"/>
-      <c r="CE5" s="107"/>
-      <c r="CF5" s="107"/>
-      <c r="CG5" s="107"/>
-      <c r="CH5" s="107"/>
-      <c r="CI5" s="107"/>
-      <c r="CJ5" s="107"/>
-      <c r="CK5" s="107"/>
-      <c r="CL5" s="107"/>
-      <c r="CM5" s="107"/>
-      <c r="CN5" s="107"/>
-      <c r="CO5" s="107"/>
-      <c r="CP5" s="107"/>
-      <c r="CQ5" s="107"/>
-      <c r="CR5" s="107"/>
-      <c r="CS5" s="107"/>
-      <c r="CT5" s="107"/>
-      <c r="CU5" s="107"/>
-      <c r="CV5" s="107"/>
-      <c r="CW5" s="107"/>
-      <c r="CX5" s="107"/>
-      <c r="CY5" s="107"/>
-      <c r="CZ5" s="107"/>
-      <c r="DA5" s="107"/>
-      <c r="DB5" s="107"/>
-      <c r="DC5" s="107"/>
-      <c r="DD5" s="107"/>
-      <c r="DE5" s="107"/>
-      <c r="DF5" s="107">
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="124"/>
+      <c r="Z5" s="124"/>
+      <c r="AA5" s="124"/>
+      <c r="AB5" s="124"/>
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="124"/>
+      <c r="AE5" s="124"/>
+      <c r="AF5" s="124"/>
+      <c r="AG5" s="124"/>
+      <c r="AH5" s="124"/>
+      <c r="AI5" s="124"/>
+      <c r="AJ5" s="124"/>
+      <c r="AK5" s="124"/>
+      <c r="AL5" s="124"/>
+      <c r="AM5" s="124"/>
+      <c r="AN5" s="124"/>
+      <c r="AO5" s="124"/>
+      <c r="AP5" s="124"/>
+      <c r="AQ5" s="124"/>
+      <c r="AR5" s="124"/>
+      <c r="AS5" s="124"/>
+      <c r="AT5" s="124"/>
+      <c r="AU5" s="124"/>
+      <c r="AV5" s="124"/>
+      <c r="AW5" s="124"/>
+      <c r="AX5" s="124"/>
+      <c r="AY5" s="124"/>
+      <c r="AZ5" s="124"/>
+      <c r="BA5" s="124"/>
+      <c r="BB5" s="124"/>
+      <c r="BC5" s="124"/>
+      <c r="BD5" s="124"/>
+      <c r="BE5" s="124"/>
+      <c r="BF5" s="124"/>
+      <c r="BG5" s="124"/>
+      <c r="BH5" s="124"/>
+      <c r="BI5" s="124"/>
+      <c r="BJ5" s="124"/>
+      <c r="BK5" s="124"/>
+      <c r="BL5" s="124"/>
+      <c r="BM5" s="124"/>
+      <c r="BN5" s="124"/>
+      <c r="BO5" s="124"/>
+      <c r="BP5" s="124"/>
+      <c r="BQ5" s="124"/>
+      <c r="BR5" s="124"/>
+      <c r="BS5" s="124"/>
+      <c r="BT5" s="124"/>
+      <c r="BU5" s="124"/>
+      <c r="BV5" s="124"/>
+      <c r="BW5" s="124"/>
+      <c r="BX5" s="124"/>
+      <c r="BY5" s="124"/>
+      <c r="BZ5" s="124"/>
+      <c r="CA5" s="124"/>
+      <c r="CB5" s="124"/>
+      <c r="CC5" s="124"/>
+      <c r="CD5" s="124"/>
+      <c r="CE5" s="124"/>
+      <c r="CF5" s="124"/>
+      <c r="CG5" s="124"/>
+      <c r="CH5" s="124"/>
+      <c r="CI5" s="124"/>
+      <c r="CJ5" s="124"/>
+      <c r="CK5" s="124"/>
+      <c r="CL5" s="124"/>
+      <c r="CM5" s="124"/>
+      <c r="CN5" s="124"/>
+      <c r="CO5" s="124"/>
+      <c r="CP5" s="124"/>
+      <c r="CQ5" s="124"/>
+      <c r="CR5" s="124"/>
+      <c r="CS5" s="124"/>
+      <c r="CT5" s="124"/>
+      <c r="CU5" s="124"/>
+      <c r="CV5" s="124"/>
+      <c r="CW5" s="124"/>
+      <c r="CX5" s="124"/>
+      <c r="CY5" s="124"/>
+      <c r="CZ5" s="124"/>
+      <c r="DA5" s="124"/>
+      <c r="DB5" s="124"/>
+      <c r="DC5" s="124"/>
+      <c r="DD5" s="124"/>
+      <c r="DE5" s="124"/>
+      <c r="DF5" s="124">
         <v>2017</v>
       </c>
-      <c r="DG5" s="107"/>
-      <c r="DH5" s="107"/>
-      <c r="DI5" s="107"/>
-      <c r="DJ5" s="107"/>
-      <c r="DK5" s="107"/>
-      <c r="DL5" s="107"/>
-      <c r="DM5" s="107"/>
-      <c r="DN5" s="107"/>
-      <c r="DO5" s="107"/>
-      <c r="DP5" s="107"/>
-      <c r="DQ5" s="107"/>
-      <c r="DR5" s="107"/>
-      <c r="DS5" s="107"/>
-      <c r="DT5" s="107"/>
-      <c r="DU5" s="107"/>
-      <c r="DV5" s="107"/>
-      <c r="DW5" s="107"/>
-      <c r="DX5" s="107"/>
-      <c r="DY5" s="107"/>
-      <c r="DZ5" s="107"/>
-      <c r="EA5" s="107"/>
-      <c r="EB5" s="107"/>
-      <c r="EC5" s="107"/>
-      <c r="ED5" s="107"/>
-      <c r="EE5" s="107"/>
-      <c r="EF5" s="107"/>
-      <c r="EG5" s="107"/>
-      <c r="EH5" s="107"/>
-      <c r="EI5" s="107"/>
-      <c r="EJ5" s="107"/>
-      <c r="EK5" s="107"/>
-      <c r="EL5" s="107"/>
-      <c r="EM5" s="107"/>
-      <c r="EN5" s="107"/>
-      <c r="EO5" s="107"/>
-      <c r="EP5" s="107"/>
-      <c r="EQ5" s="107"/>
-      <c r="ER5" s="107"/>
-      <c r="ES5" s="107"/>
-      <c r="ET5" s="107"/>
-      <c r="EU5" s="107"/>
-      <c r="EV5" s="107"/>
-      <c r="EW5" s="107"/>
-      <c r="EX5" s="107"/>
-      <c r="EY5" s="107"/>
-      <c r="EZ5" s="107"/>
-      <c r="FA5" s="107"/>
-      <c r="FB5" s="107"/>
-      <c r="FC5" s="107"/>
-      <c r="FD5" s="107"/>
-      <c r="FE5" s="107"/>
-      <c r="FF5" s="107"/>
-      <c r="FG5" s="107"/>
-      <c r="FH5" s="107"/>
-      <c r="FI5" s="107"/>
-      <c r="FJ5" s="107"/>
-      <c r="FK5" s="107"/>
-      <c r="FL5" s="107"/>
-      <c r="FM5" s="107"/>
-      <c r="FN5" s="107"/>
-      <c r="FO5" s="107"/>
-      <c r="FP5" s="107"/>
-      <c r="FQ5" s="107"/>
-      <c r="FR5" s="107"/>
-      <c r="FS5" s="107"/>
-      <c r="FT5" s="107"/>
-      <c r="FU5" s="107"/>
-      <c r="FV5" s="107"/>
-      <c r="FW5" s="107"/>
-      <c r="FX5" s="107"/>
-      <c r="FY5" s="107"/>
-      <c r="FZ5" s="107"/>
-      <c r="GA5" s="107"/>
-      <c r="GB5" s="107"/>
-      <c r="GC5" s="129"/>
+      <c r="DG5" s="124"/>
+      <c r="DH5" s="124"/>
+      <c r="DI5" s="124"/>
+      <c r="DJ5" s="124"/>
+      <c r="DK5" s="124"/>
+      <c r="DL5" s="124"/>
+      <c r="DM5" s="124"/>
+      <c r="DN5" s="124"/>
+      <c r="DO5" s="124"/>
+      <c r="DP5" s="124"/>
+      <c r="DQ5" s="124"/>
+      <c r="DR5" s="124"/>
+      <c r="DS5" s="124"/>
+      <c r="DT5" s="124"/>
+      <c r="DU5" s="124"/>
+      <c r="DV5" s="124"/>
+      <c r="DW5" s="124"/>
+      <c r="DX5" s="124"/>
+      <c r="DY5" s="124"/>
+      <c r="DZ5" s="124"/>
+      <c r="EA5" s="124"/>
+      <c r="EB5" s="124"/>
+      <c r="EC5" s="124"/>
+      <c r="ED5" s="124"/>
+      <c r="EE5" s="124"/>
+      <c r="EF5" s="124"/>
+      <c r="EG5" s="124"/>
+      <c r="EH5" s="124"/>
+      <c r="EI5" s="124"/>
+      <c r="EJ5" s="124"/>
+      <c r="EK5" s="124"/>
+      <c r="EL5" s="124"/>
+      <c r="EM5" s="124"/>
+      <c r="EN5" s="124"/>
+      <c r="EO5" s="124"/>
+      <c r="EP5" s="124"/>
+      <c r="EQ5" s="124"/>
+      <c r="ER5" s="124"/>
+      <c r="ES5" s="124"/>
+      <c r="ET5" s="124"/>
+      <c r="EU5" s="124"/>
+      <c r="EV5" s="124"/>
+      <c r="EW5" s="124"/>
+      <c r="EX5" s="124"/>
+      <c r="EY5" s="124"/>
+      <c r="EZ5" s="124"/>
+      <c r="FA5" s="124"/>
+      <c r="FB5" s="124"/>
+      <c r="FC5" s="124"/>
+      <c r="FD5" s="124"/>
+      <c r="FE5" s="124"/>
+      <c r="FF5" s="124"/>
+      <c r="FG5" s="124"/>
+      <c r="FH5" s="124"/>
+      <c r="FI5" s="124"/>
+      <c r="FJ5" s="124"/>
+      <c r="FK5" s="124"/>
+      <c r="FL5" s="124"/>
+      <c r="FM5" s="124"/>
+      <c r="FN5" s="124"/>
+      <c r="FO5" s="124"/>
+      <c r="FP5" s="124"/>
+      <c r="FQ5" s="124"/>
+      <c r="FR5" s="124"/>
+      <c r="FS5" s="124"/>
+      <c r="FT5" s="124"/>
+      <c r="FU5" s="124"/>
+      <c r="FV5" s="124"/>
+      <c r="FW5" s="124"/>
+      <c r="FX5" s="124"/>
+      <c r="FY5" s="124"/>
+      <c r="FZ5" s="124"/>
+      <c r="GA5" s="124"/>
+      <c r="GB5" s="124"/>
+      <c r="GC5" s="146"/>
     </row>
-    <row r="6" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+    <row r="6" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="104" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="105" t="s">
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="105"/>
-      <c r="T6" s="105"/>
-      <c r="U6" s="105"/>
-      <c r="V6" s="105"/>
-      <c r="W6" s="105"/>
-      <c r="X6" s="105"/>
-      <c r="Y6" s="105"/>
-      <c r="Z6" s="105"/>
-      <c r="AA6" s="105"/>
-      <c r="AB6" s="105"/>
-      <c r="AC6" s="105"/>
-      <c r="AD6" s="105"/>
-      <c r="AE6" s="105"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="105"/>
-      <c r="AM6" s="105"/>
-      <c r="AN6" s="105"/>
-      <c r="AO6" s="105"/>
-      <c r="AP6" s="105"/>
-      <c r="AQ6" s="105"/>
-      <c r="AR6" s="105"/>
-      <c r="AS6" s="105"/>
-      <c r="AT6" s="105"/>
-      <c r="AU6" s="105"/>
-      <c r="AV6" s="105"/>
-      <c r="AW6" s="105" t="s">
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="122"/>
+      <c r="AJ6" s="122"/>
+      <c r="AK6" s="122"/>
+      <c r="AL6" s="122"/>
+      <c r="AM6" s="122"/>
+      <c r="AN6" s="122"/>
+      <c r="AO6" s="122"/>
+      <c r="AP6" s="122"/>
+      <c r="AQ6" s="122"/>
+      <c r="AR6" s="122"/>
+      <c r="AS6" s="122"/>
+      <c r="AT6" s="122"/>
+      <c r="AU6" s="122"/>
+      <c r="AV6" s="122"/>
+      <c r="AW6" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="AX6" s="105"/>
-      <c r="AY6" s="105"/>
-      <c r="AZ6" s="105"/>
-      <c r="BA6" s="105"/>
-      <c r="BB6" s="105"/>
-      <c r="BC6" s="105"/>
-      <c r="BD6" s="105"/>
-      <c r="BE6" s="105"/>
-      <c r="BF6" s="105"/>
-      <c r="BG6" s="105"/>
-      <c r="BH6" s="105"/>
-      <c r="BI6" s="105"/>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="105"/>
-      <c r="BO6" s="105"/>
-      <c r="BP6" s="105"/>
-      <c r="BQ6" s="105"/>
-      <c r="BR6" s="105"/>
-      <c r="BS6" s="105"/>
-      <c r="BT6" s="105"/>
-      <c r="BU6" s="105"/>
-      <c r="BV6" s="105"/>
-      <c r="BW6" s="105"/>
-      <c r="BX6" s="105"/>
-      <c r="BY6" s="105"/>
-      <c r="BZ6" s="105"/>
-      <c r="CA6" s="105" t="s">
+      <c r="AX6" s="122"/>
+      <c r="AY6" s="122"/>
+      <c r="AZ6" s="122"/>
+      <c r="BA6" s="122"/>
+      <c r="BB6" s="122"/>
+      <c r="BC6" s="122"/>
+      <c r="BD6" s="122"/>
+      <c r="BE6" s="122"/>
+      <c r="BF6" s="122"/>
+      <c r="BG6" s="122"/>
+      <c r="BH6" s="122"/>
+      <c r="BI6" s="122"/>
+      <c r="BJ6" s="122"/>
+      <c r="BK6" s="122"/>
+      <c r="BL6" s="122"/>
+      <c r="BM6" s="122"/>
+      <c r="BN6" s="122"/>
+      <c r="BO6" s="122"/>
+      <c r="BP6" s="122"/>
+      <c r="BQ6" s="122"/>
+      <c r="BR6" s="122"/>
+      <c r="BS6" s="122"/>
+      <c r="BT6" s="122"/>
+      <c r="BU6" s="122"/>
+      <c r="BV6" s="122"/>
+      <c r="BW6" s="122"/>
+      <c r="BX6" s="122"/>
+      <c r="BY6" s="122"/>
+      <c r="BZ6" s="122"/>
+      <c r="CA6" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="CB6" s="105"/>
-      <c r="CC6" s="105"/>
-      <c r="CD6" s="105"/>
-      <c r="CE6" s="105"/>
-      <c r="CF6" s="105"/>
-      <c r="CG6" s="105"/>
-      <c r="CH6" s="105"/>
-      <c r="CI6" s="105"/>
-      <c r="CJ6" s="105"/>
-      <c r="CK6" s="105"/>
-      <c r="CL6" s="105"/>
-      <c r="CM6" s="105"/>
-      <c r="CN6" s="105"/>
-      <c r="CO6" s="105"/>
-      <c r="CP6" s="105"/>
-      <c r="CQ6" s="105"/>
-      <c r="CR6" s="105"/>
-      <c r="CS6" s="105"/>
-      <c r="CT6" s="105"/>
-      <c r="CU6" s="105"/>
-      <c r="CV6" s="105"/>
-      <c r="CW6" s="105"/>
-      <c r="CX6" s="105"/>
-      <c r="CY6" s="105"/>
-      <c r="CZ6" s="105"/>
-      <c r="DA6" s="105"/>
-      <c r="DB6" s="105"/>
-      <c r="DC6" s="105"/>
-      <c r="DD6" s="105"/>
-      <c r="DE6" s="105"/>
-      <c r="DF6" s="105" t="s">
+      <c r="CB6" s="122"/>
+      <c r="CC6" s="122"/>
+      <c r="CD6" s="122"/>
+      <c r="CE6" s="122"/>
+      <c r="CF6" s="122"/>
+      <c r="CG6" s="122"/>
+      <c r="CH6" s="122"/>
+      <c r="CI6" s="122"/>
+      <c r="CJ6" s="122"/>
+      <c r="CK6" s="122"/>
+      <c r="CL6" s="122"/>
+      <c r="CM6" s="122"/>
+      <c r="CN6" s="122"/>
+      <c r="CO6" s="122"/>
+      <c r="CP6" s="122"/>
+      <c r="CQ6" s="122"/>
+      <c r="CR6" s="122"/>
+      <c r="CS6" s="122"/>
+      <c r="CT6" s="122"/>
+      <c r="CU6" s="122"/>
+      <c r="CV6" s="122"/>
+      <c r="CW6" s="122"/>
+      <c r="CX6" s="122"/>
+      <c r="CY6" s="122"/>
+      <c r="CZ6" s="122"/>
+      <c r="DA6" s="122"/>
+      <c r="DB6" s="122"/>
+      <c r="DC6" s="122"/>
+      <c r="DD6" s="122"/>
+      <c r="DE6" s="122"/>
+      <c r="DF6" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="DG6" s="105"/>
-      <c r="DH6" s="105"/>
-      <c r="DI6" s="105"/>
-      <c r="DJ6" s="105"/>
-      <c r="DK6" s="105"/>
-      <c r="DL6" s="105"/>
-      <c r="DM6" s="105"/>
-      <c r="DN6" s="105"/>
-      <c r="DO6" s="105"/>
-      <c r="DP6" s="105"/>
-      <c r="DQ6" s="105"/>
-      <c r="DR6" s="105"/>
-      <c r="DS6" s="105"/>
-      <c r="DT6" s="105"/>
-      <c r="DU6" s="105"/>
-      <c r="DV6" s="105"/>
-      <c r="DW6" s="105"/>
-      <c r="DX6" s="105"/>
-      <c r="DY6" s="105"/>
-      <c r="DZ6" s="105"/>
-      <c r="EA6" s="105"/>
-      <c r="EB6" s="105"/>
-      <c r="EC6" s="105"/>
-      <c r="ED6" s="105"/>
-      <c r="EE6" s="105"/>
-      <c r="EF6" s="105"/>
-      <c r="EG6" s="105"/>
-      <c r="EH6" s="105"/>
-      <c r="EI6" s="105"/>
-      <c r="EJ6" s="105"/>
-      <c r="EK6" s="105" t="s">
+      <c r="DG6" s="122"/>
+      <c r="DH6" s="122"/>
+      <c r="DI6" s="122"/>
+      <c r="DJ6" s="122"/>
+      <c r="DK6" s="122"/>
+      <c r="DL6" s="122"/>
+      <c r="DM6" s="122"/>
+      <c r="DN6" s="122"/>
+      <c r="DO6" s="122"/>
+      <c r="DP6" s="122"/>
+      <c r="DQ6" s="122"/>
+      <c r="DR6" s="122"/>
+      <c r="DS6" s="122"/>
+      <c r="DT6" s="122"/>
+      <c r="DU6" s="122"/>
+      <c r="DV6" s="122"/>
+      <c r="DW6" s="122"/>
+      <c r="DX6" s="122"/>
+      <c r="DY6" s="122"/>
+      <c r="DZ6" s="122"/>
+      <c r="EA6" s="122"/>
+      <c r="EB6" s="122"/>
+      <c r="EC6" s="122"/>
+      <c r="ED6" s="122"/>
+      <c r="EE6" s="122"/>
+      <c r="EF6" s="122"/>
+      <c r="EG6" s="122"/>
+      <c r="EH6" s="122"/>
+      <c r="EI6" s="122"/>
+      <c r="EJ6" s="122"/>
+      <c r="EK6" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="EL6" s="105"/>
-      <c r="EM6" s="105"/>
-      <c r="EN6" s="105"/>
-      <c r="EO6" s="105"/>
-      <c r="EP6" s="105"/>
-      <c r="EQ6" s="105"/>
-      <c r="ER6" s="105"/>
-      <c r="ES6" s="105"/>
-      <c r="ET6" s="105"/>
-      <c r="EU6" s="105"/>
-      <c r="EV6" s="105"/>
-      <c r="EW6" s="105"/>
-      <c r="EX6" s="105"/>
-      <c r="EY6" s="105"/>
-      <c r="EZ6" s="105"/>
-      <c r="FA6" s="105"/>
-      <c r="FB6" s="105"/>
-      <c r="FC6" s="105"/>
-      <c r="FD6" s="105"/>
-      <c r="FE6" s="105"/>
-      <c r="FF6" s="105"/>
-      <c r="FG6" s="105"/>
-      <c r="FH6" s="105"/>
-      <c r="FI6" s="105"/>
-      <c r="FJ6" s="105"/>
-      <c r="FK6" s="105"/>
-      <c r="FL6" s="105"/>
-      <c r="FM6" s="105" t="s">
+      <c r="EL6" s="122"/>
+      <c r="EM6" s="122"/>
+      <c r="EN6" s="122"/>
+      <c r="EO6" s="122"/>
+      <c r="EP6" s="122"/>
+      <c r="EQ6" s="122"/>
+      <c r="ER6" s="122"/>
+      <c r="ES6" s="122"/>
+      <c r="ET6" s="122"/>
+      <c r="EU6" s="122"/>
+      <c r="EV6" s="122"/>
+      <c r="EW6" s="122"/>
+      <c r="EX6" s="122"/>
+      <c r="EY6" s="122"/>
+      <c r="EZ6" s="122"/>
+      <c r="FA6" s="122"/>
+      <c r="FB6" s="122"/>
+      <c r="FC6" s="122"/>
+      <c r="FD6" s="122"/>
+      <c r="FE6" s="122"/>
+      <c r="FF6" s="122"/>
+      <c r="FG6" s="122"/>
+      <c r="FH6" s="122"/>
+      <c r="FI6" s="122"/>
+      <c r="FJ6" s="122"/>
+      <c r="FK6" s="122"/>
+      <c r="FL6" s="122"/>
+      <c r="FM6" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="FN6" s="105"/>
-      <c r="FO6" s="105"/>
-      <c r="FP6" s="105"/>
-      <c r="FQ6" s="105"/>
-      <c r="FR6" s="105"/>
-      <c r="FS6" s="105"/>
-      <c r="FT6" s="105"/>
-      <c r="FU6" s="105"/>
-      <c r="FV6" s="105"/>
-      <c r="FW6" s="105"/>
-      <c r="FX6" s="105"/>
-      <c r="FY6" s="105"/>
-      <c r="FZ6" s="105"/>
-      <c r="GA6" s="105"/>
-      <c r="GB6" s="105"/>
-      <c r="GC6" s="128"/>
+      <c r="FN6" s="122"/>
+      <c r="FO6" s="122"/>
+      <c r="FP6" s="122"/>
+      <c r="FQ6" s="122"/>
+      <c r="FR6" s="122"/>
+      <c r="FS6" s="122"/>
+      <c r="FT6" s="122"/>
+      <c r="FU6" s="122"/>
+      <c r="FV6" s="122"/>
+      <c r="FW6" s="122"/>
+      <c r="FX6" s="122"/>
+      <c r="FY6" s="122"/>
+      <c r="FZ6" s="122"/>
+      <c r="GA6" s="122"/>
+      <c r="GB6" s="122"/>
+      <c r="GC6" s="145"/>
     </row>
-    <row r="7" spans="1:185" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="s">
+    <row r="7" spans="1:185" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="106" t="s">
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="111" t="s">
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="111" t="s">
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="111" t="s">
+      <c r="U7" s="124"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="124"/>
+      <c r="X7" s="124"/>
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="107"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="111" t="s">
+      <c r="AB7" s="124"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="124"/>
+      <c r="AE7" s="124"/>
+      <c r="AF7" s="124"/>
+      <c r="AG7" s="129"/>
+      <c r="AH7" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="AI7" s="107"/>
-      <c r="AJ7" s="107"/>
-      <c r="AK7" s="107"/>
-      <c r="AL7" s="107"/>
-      <c r="AM7" s="107"/>
-      <c r="AN7" s="112"/>
-      <c r="AO7" s="111" t="s">
+      <c r="AI7" s="124"/>
+      <c r="AJ7" s="124"/>
+      <c r="AK7" s="124"/>
+      <c r="AL7" s="124"/>
+      <c r="AM7" s="124"/>
+      <c r="AN7" s="129"/>
+      <c r="AO7" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="AP7" s="107"/>
-      <c r="AQ7" s="107"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="112"/>
-      <c r="AV7" s="111" t="s">
+      <c r="AP7" s="124"/>
+      <c r="AQ7" s="124"/>
+      <c r="AR7" s="124"/>
+      <c r="AS7" s="124"/>
+      <c r="AT7" s="124"/>
+      <c r="AU7" s="129"/>
+      <c r="AV7" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="AW7" s="107"/>
-      <c r="AX7" s="107"/>
-      <c r="AY7" s="107"/>
-      <c r="AZ7" s="107"/>
-      <c r="BA7" s="107"/>
-      <c r="BB7" s="112"/>
-      <c r="BC7" s="111" t="s">
+      <c r="AW7" s="124"/>
+      <c r="AX7" s="124"/>
+      <c r="AY7" s="124"/>
+      <c r="AZ7" s="124"/>
+      <c r="BA7" s="124"/>
+      <c r="BB7" s="129"/>
+      <c r="BC7" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="BD7" s="107"/>
-      <c r="BE7" s="107"/>
-      <c r="BF7" s="107"/>
-      <c r="BG7" s="107"/>
-      <c r="BH7" s="107"/>
-      <c r="BI7" s="112"/>
-      <c r="BJ7" s="111" t="s">
+      <c r="BD7" s="124"/>
+      <c r="BE7" s="124"/>
+      <c r="BF7" s="124"/>
+      <c r="BG7" s="124"/>
+      <c r="BH7" s="124"/>
+      <c r="BI7" s="129"/>
+      <c r="BJ7" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="BK7" s="107"/>
-      <c r="BL7" s="107"/>
-      <c r="BM7" s="107"/>
-      <c r="BN7" s="107"/>
-      <c r="BO7" s="107"/>
-      <c r="BP7" s="112"/>
-      <c r="BQ7" s="111" t="s">
+      <c r="BK7" s="124"/>
+      <c r="BL7" s="124"/>
+      <c r="BM7" s="124"/>
+      <c r="BN7" s="124"/>
+      <c r="BO7" s="124"/>
+      <c r="BP7" s="129"/>
+      <c r="BQ7" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="BR7" s="107"/>
-      <c r="BS7" s="107"/>
-      <c r="BT7" s="107"/>
-      <c r="BU7" s="107"/>
-      <c r="BV7" s="107"/>
-      <c r="BW7" s="112"/>
-      <c r="BX7" s="111" t="s">
+      <c r="BR7" s="124"/>
+      <c r="BS7" s="124"/>
+      <c r="BT7" s="124"/>
+      <c r="BU7" s="124"/>
+      <c r="BV7" s="124"/>
+      <c r="BW7" s="129"/>
+      <c r="BX7" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="BY7" s="107"/>
-      <c r="BZ7" s="107"/>
-      <c r="CA7" s="107"/>
-      <c r="CB7" s="107"/>
-      <c r="CC7" s="107"/>
-      <c r="CD7" s="112"/>
-      <c r="CE7" s="111" t="s">
+      <c r="BY7" s="124"/>
+      <c r="BZ7" s="124"/>
+      <c r="CA7" s="124"/>
+      <c r="CB7" s="124"/>
+      <c r="CC7" s="124"/>
+      <c r="CD7" s="129"/>
+      <c r="CE7" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="CF7" s="107"/>
-      <c r="CG7" s="107"/>
-      <c r="CH7" s="107"/>
-      <c r="CI7" s="107"/>
-      <c r="CJ7" s="107"/>
-      <c r="CK7" s="112"/>
-      <c r="CL7" s="111" t="s">
+      <c r="CF7" s="124"/>
+      <c r="CG7" s="124"/>
+      <c r="CH7" s="124"/>
+      <c r="CI7" s="124"/>
+      <c r="CJ7" s="124"/>
+      <c r="CK7" s="129"/>
+      <c r="CL7" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="CM7" s="107"/>
-      <c r="CN7" s="107"/>
-      <c r="CO7" s="107"/>
-      <c r="CP7" s="107"/>
-      <c r="CQ7" s="107"/>
-      <c r="CR7" s="112"/>
-      <c r="CS7" s="111" t="s">
+      <c r="CM7" s="124"/>
+      <c r="CN7" s="124"/>
+      <c r="CO7" s="124"/>
+      <c r="CP7" s="124"/>
+      <c r="CQ7" s="124"/>
+      <c r="CR7" s="129"/>
+      <c r="CS7" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="CT7" s="107"/>
-      <c r="CU7" s="107"/>
-      <c r="CV7" s="107"/>
-      <c r="CW7" s="107"/>
-      <c r="CX7" s="107"/>
-      <c r="CY7" s="112"/>
-      <c r="CZ7" s="111" t="s">
+      <c r="CT7" s="124"/>
+      <c r="CU7" s="124"/>
+      <c r="CV7" s="124"/>
+      <c r="CW7" s="124"/>
+      <c r="CX7" s="124"/>
+      <c r="CY7" s="129"/>
+      <c r="CZ7" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="DA7" s="107"/>
-      <c r="DB7" s="107"/>
-      <c r="DC7" s="107"/>
-      <c r="DD7" s="107"/>
-      <c r="DE7" s="107"/>
-      <c r="DF7" s="107"/>
-      <c r="DG7" s="111" t="s">
+      <c r="DA7" s="124"/>
+      <c r="DB7" s="124"/>
+      <c r="DC7" s="124"/>
+      <c r="DD7" s="124"/>
+      <c r="DE7" s="124"/>
+      <c r="DF7" s="124"/>
+      <c r="DG7" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="DH7" s="107"/>
-      <c r="DI7" s="107"/>
-      <c r="DJ7" s="107"/>
-      <c r="DK7" s="107"/>
-      <c r="DL7" s="107"/>
-      <c r="DM7" s="112"/>
-      <c r="DN7" s="107" t="s">
+      <c r="DH7" s="124"/>
+      <c r="DI7" s="124"/>
+      <c r="DJ7" s="124"/>
+      <c r="DK7" s="124"/>
+      <c r="DL7" s="124"/>
+      <c r="DM7" s="129"/>
+      <c r="DN7" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="DO7" s="107"/>
-      <c r="DP7" s="107"/>
-      <c r="DQ7" s="107"/>
-      <c r="DR7" s="107"/>
-      <c r="DS7" s="107"/>
-      <c r="DT7" s="107"/>
-      <c r="DU7" s="111" t="s">
+      <c r="DO7" s="124"/>
+      <c r="DP7" s="124"/>
+      <c r="DQ7" s="124"/>
+      <c r="DR7" s="124"/>
+      <c r="DS7" s="124"/>
+      <c r="DT7" s="124"/>
+      <c r="DU7" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="DV7" s="107"/>
-      <c r="DW7" s="107"/>
-      <c r="DX7" s="107"/>
-      <c r="DY7" s="107"/>
-      <c r="DZ7" s="107"/>
-      <c r="EA7" s="112"/>
-      <c r="EB7" s="107" t="s">
+      <c r="DV7" s="124"/>
+      <c r="DW7" s="124"/>
+      <c r="DX7" s="124"/>
+      <c r="DY7" s="124"/>
+      <c r="DZ7" s="124"/>
+      <c r="EA7" s="129"/>
+      <c r="EB7" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="EC7" s="107"/>
-      <c r="ED7" s="107"/>
-      <c r="EE7" s="107"/>
-      <c r="EF7" s="107"/>
-      <c r="EG7" s="107"/>
-      <c r="EH7" s="107"/>
-      <c r="EI7" s="111" t="s">
+      <c r="EC7" s="124"/>
+      <c r="ED7" s="124"/>
+      <c r="EE7" s="124"/>
+      <c r="EF7" s="124"/>
+      <c r="EG7" s="124"/>
+      <c r="EH7" s="124"/>
+      <c r="EI7" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="EJ7" s="107"/>
-      <c r="EK7" s="107"/>
-      <c r="EL7" s="107"/>
-      <c r="EM7" s="107"/>
-      <c r="EN7" s="107"/>
-      <c r="EO7" s="112"/>
-      <c r="EP7" s="107" t="s">
+      <c r="EJ7" s="124"/>
+      <c r="EK7" s="124"/>
+      <c r="EL7" s="124"/>
+      <c r="EM7" s="124"/>
+      <c r="EN7" s="124"/>
+      <c r="EO7" s="129"/>
+      <c r="EP7" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="EQ7" s="107"/>
-      <c r="ER7" s="107"/>
-      <c r="ES7" s="107"/>
-      <c r="ET7" s="107"/>
-      <c r="EU7" s="107"/>
-      <c r="EV7" s="107"/>
-      <c r="EW7" s="111" t="s">
+      <c r="EQ7" s="124"/>
+      <c r="ER7" s="124"/>
+      <c r="ES7" s="124"/>
+      <c r="ET7" s="124"/>
+      <c r="EU7" s="124"/>
+      <c r="EV7" s="124"/>
+      <c r="EW7" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="EX7" s="107"/>
-      <c r="EY7" s="107"/>
-      <c r="EZ7" s="107"/>
-      <c r="FA7" s="107"/>
-      <c r="FB7" s="107"/>
-      <c r="FC7" s="112"/>
-      <c r="FD7" s="107" t="s">
+      <c r="EX7" s="124"/>
+      <c r="EY7" s="124"/>
+      <c r="EZ7" s="124"/>
+      <c r="FA7" s="124"/>
+      <c r="FB7" s="124"/>
+      <c r="FC7" s="129"/>
+      <c r="FD7" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="FE7" s="107"/>
-      <c r="FF7" s="107"/>
-      <c r="FG7" s="107"/>
-      <c r="FH7" s="107"/>
-      <c r="FI7" s="107"/>
-      <c r="FJ7" s="107"/>
-      <c r="FK7" s="111" t="s">
+      <c r="FE7" s="124"/>
+      <c r="FF7" s="124"/>
+      <c r="FG7" s="124"/>
+      <c r="FH7" s="124"/>
+      <c r="FI7" s="124"/>
+      <c r="FJ7" s="124"/>
+      <c r="FK7" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="FL7" s="107"/>
-      <c r="FM7" s="107"/>
-      <c r="FN7" s="107"/>
-      <c r="FO7" s="107"/>
-      <c r="FP7" s="107"/>
-      <c r="FQ7" s="112"/>
-      <c r="FR7" s="107" t="s">
+      <c r="FL7" s="124"/>
+      <c r="FM7" s="124"/>
+      <c r="FN7" s="124"/>
+      <c r="FO7" s="124"/>
+      <c r="FP7" s="124"/>
+      <c r="FQ7" s="129"/>
+      <c r="FR7" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="FS7" s="107"/>
-      <c r="FT7" s="107"/>
-      <c r="FU7" s="107"/>
-      <c r="FV7" s="107"/>
-      <c r="FW7" s="107"/>
-      <c r="FX7" s="107"/>
-      <c r="FY7" s="111" t="s">
+      <c r="FS7" s="124"/>
+      <c r="FT7" s="124"/>
+      <c r="FU7" s="124"/>
+      <c r="FV7" s="124"/>
+      <c r="FW7" s="124"/>
+      <c r="FX7" s="124"/>
+      <c r="FY7" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="FZ7" s="107"/>
-      <c r="GA7" s="107"/>
-      <c r="GB7" s="107"/>
-      <c r="GC7" s="129"/>
+      <c r="FZ7" s="124"/>
+      <c r="GA7" s="124"/>
+      <c r="GB7" s="124"/>
+      <c r="GC7" s="146"/>
     </row>
-    <row r="8" spans="1:185" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="s">
+    <row r="8" spans="1:185" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="110"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="127"/>
       <c r="F8" s="25">
         <v>19</v>
       </c>
@@ -4341,7 +4335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
@@ -4527,7 +4521,7 @@
       <c r="GB9" s="7"/>
       <c r="GC9" s="8"/>
     </row>
-    <row r="10" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
         <v>32</v>
       </c>
@@ -4720,7 +4714,7 @@
       <c r="GB10" s="40"/>
       <c r="GC10" s="45"/>
     </row>
-    <row r="11" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
       <c r="B11" s="48" t="s">
         <v>96</v>
@@ -4911,7 +4905,7 @@
       <c r="GB11" s="11"/>
       <c r="GC11" s="24"/>
     </row>
-    <row r="12" spans="1:185" s="61" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:185" s="61" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53"/>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
@@ -5098,7 +5092,7 @@
       <c r="GB12" s="56"/>
       <c r="GC12" s="60"/>
     </row>
-    <row r="13" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
       <c r="B13" s="9" t="s">
         <v>68</v>
@@ -5288,7 +5282,7 @@
       <c r="GB13" s="11"/>
       <c r="GC13" s="24"/>
     </row>
-    <row r="14" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31"/>
       <c r="B14" s="48"/>
       <c r="C14" s="11"/>
@@ -5475,7 +5469,7 @@
       <c r="GB14" s="11"/>
       <c r="GC14" s="24"/>
     </row>
-    <row r="15" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
       <c r="B15" s="9" t="s">
         <v>69</v>
@@ -5665,7 +5659,7 @@
       <c r="GB15" s="11"/>
       <c r="GC15" s="24"/>
     </row>
-    <row r="16" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
       <c r="B16" s="48"/>
       <c r="C16" s="11"/>
@@ -5852,7 +5846,7 @@
       <c r="GB16" s="11"/>
       <c r="GC16" s="24"/>
     </row>
-    <row r="17" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="9" t="s">
         <v>70</v>
@@ -6042,7 +6036,7 @@
       <c r="GB17" s="11"/>
       <c r="GC17" s="24"/>
     </row>
-    <row r="18" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="9"/>
       <c r="C18" s="7"/>
@@ -6228,7 +6222,7 @@
       <c r="GB18" s="11"/>
       <c r="GC18" s="24"/>
     </row>
-    <row r="19" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>33</v>
       </c>
@@ -6421,7 +6415,7 @@
       <c r="GB19" s="40"/>
       <c r="GC19" s="45"/>
     </row>
-    <row r="20" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A20" s="46"/>
       <c r="B20" s="9" t="s">
         <v>71</v>
@@ -6611,7 +6605,7 @@
       <c r="GB20" s="11"/>
       <c r="GC20" s="24"/>
     </row>
-    <row r="21" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="9"/>
       <c r="C21" s="47"/>
@@ -6797,7 +6791,7 @@
       <c r="GB21" s="11"/>
       <c r="GC21" s="24"/>
     </row>
-    <row r="22" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
       <c r="B22" s="9" t="s">
         <v>73</v>
@@ -6987,7 +6981,7 @@
       <c r="GB22" s="11"/>
       <c r="GC22" s="24"/>
     </row>
-    <row r="23" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
       <c r="B23" s="9"/>
       <c r="C23" s="47"/>
@@ -7173,7 +7167,7 @@
       <c r="GB23" s="11"/>
       <c r="GC23" s="24"/>
     </row>
-    <row r="24" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A24" s="46"/>
       <c r="B24" s="9" t="s">
         <v>72</v>
@@ -7363,7 +7357,7 @@
       <c r="GB24" s="11"/>
       <c r="GC24" s="24"/>
     </row>
-    <row r="25" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="9"/>
       <c r="C25" s="7"/>
@@ -7549,7 +7543,7 @@
       <c r="GB25" s="11"/>
       <c r="GC25" s="24"/>
     </row>
-    <row r="26" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
         <v>34</v>
       </c>
@@ -7742,7 +7736,7 @@
       <c r="GB26" s="40"/>
       <c r="GC26" s="45"/>
     </row>
-    <row r="27" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27" s="48" t="s">
         <v>74</v>
@@ -7933,7 +7927,7 @@
       <c r="GB27" s="11"/>
       <c r="GC27" s="24"/>
     </row>
-    <row r="28" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="48"/>
       <c r="C28" s="11"/>
@@ -8120,7 +8114,7 @@
       <c r="GB28" s="11"/>
       <c r="GC28" s="24"/>
     </row>
-    <row r="29" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="48" t="s">
         <v>77</v>
@@ -8311,7 +8305,7 @@
       <c r="GB29" s="11"/>
       <c r="GC29" s="24"/>
     </row>
-    <row r="30" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="48"/>
       <c r="C30" s="11"/>
@@ -8498,7 +8492,7 @@
       <c r="GB30" s="11"/>
       <c r="GC30" s="24"/>
     </row>
-    <row r="31" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A31" s="46"/>
       <c r="B31" s="9" t="s">
         <v>91</v>
@@ -8688,7 +8682,7 @@
       <c r="GB31" s="11"/>
       <c r="GC31" s="24"/>
     </row>
-    <row r="32" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="9"/>
       <c r="C32" s="7"/>
@@ -8874,7 +8868,7 @@
       <c r="GB32" s="11"/>
       <c r="GC32" s="24"/>
     </row>
-    <row r="33" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="43" t="s">
         <v>35</v>
       </c>
@@ -9067,7 +9061,7 @@
       <c r="GB33" s="40"/>
       <c r="GC33" s="45"/>
     </row>
-    <row r="34" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="48" t="s">
         <v>78</v>
@@ -9258,7 +9252,7 @@
       <c r="GB34" s="11"/>
       <c r="GC34" s="24"/>
     </row>
-    <row r="35" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
       <c r="B35" s="48"/>
       <c r="C35" s="49"/>
@@ -9445,7 +9439,7 @@
       <c r="GB35" s="11"/>
       <c r="GC35" s="24"/>
     </row>
-    <row r="36" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
       <c r="B36" s="48" t="s">
         <v>88</v>
@@ -9636,7 +9630,7 @@
       <c r="GB36" s="11"/>
       <c r="GC36" s="24"/>
     </row>
-    <row r="37" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="48"/>
       <c r="C37" s="49"/>
@@ -9823,7 +9817,7 @@
       <c r="GB37" s="11"/>
       <c r="GC37" s="24"/>
     </row>
-    <row r="38" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="43" t="s">
         <v>36</v>
       </c>
@@ -10016,7 +10010,7 @@
       <c r="GB38" s="40"/>
       <c r="GC38" s="45"/>
     </row>
-    <row r="39" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="2" t="s">
         <v>87</v>
@@ -10207,7 +10201,7 @@
       <c r="GB39" s="11"/>
       <c r="GC39" s="24"/>
     </row>
-    <row r="40" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="C40" s="49"/>
       <c r="D40" s="11"/>
@@ -10393,7 +10387,7 @@
       <c r="GB40" s="11"/>
       <c r="GC40" s="24"/>
     </row>
-    <row r="41" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
       <c r="B41" s="48" t="s">
         <v>86</v>
@@ -10584,7 +10578,7 @@
       <c r="GB41" s="11"/>
       <c r="GC41" s="24"/>
     </row>
-    <row r="42" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
       <c r="B42" s="48"/>
       <c r="C42" s="49"/>
@@ -10771,7 +10765,7 @@
       <c r="GB42" s="11"/>
       <c r="GC42" s="24"/>
     </row>
-    <row r="43" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="43" t="s">
         <v>37</v>
       </c>
@@ -10964,7 +10958,7 @@
       <c r="GB43" s="40"/>
       <c r="GC43" s="45"/>
     </row>
-    <row r="44" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31"/>
       <c r="B44" s="48" t="s">
         <v>89</v>
@@ -11155,7 +11149,7 @@
       <c r="GB44" s="11"/>
       <c r="GC44" s="24"/>
     </row>
-    <row r="45" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
       <c r="B45" s="48"/>
       <c r="C45" s="49"/>
@@ -11342,7 +11336,7 @@
       <c r="GB45" s="11"/>
       <c r="GC45" s="24"/>
     </row>
-    <row r="46" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
       <c r="B46" s="48" t="s">
         <v>79</v>
@@ -11533,7 +11527,7 @@
       <c r="GB46" s="11"/>
       <c r="GC46" s="24"/>
     </row>
-    <row r="47" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="31"/>
       <c r="B47" s="48"/>
       <c r="C47" s="49"/>
@@ -11720,7 +11714,7 @@
       <c r="GB47" s="11"/>
       <c r="GC47" s="24"/>
     </row>
-    <row r="48" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="43" t="s">
         <v>83</v>
       </c>
@@ -11911,7 +11905,7 @@
       <c r="GB48" s="40"/>
       <c r="GC48" s="45"/>
     </row>
-    <row r="49" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
       <c r="B49" s="48" t="s">
         <v>85</v>
@@ -12102,7 +12096,7 @@
       <c r="GB49" s="11"/>
       <c r="GC49" s="24"/>
     </row>
-    <row r="50" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
       <c r="B50" s="48"/>
       <c r="C50" s="49"/>
@@ -12289,7 +12283,7 @@
       <c r="GB50" s="11"/>
       <c r="GC50" s="24"/>
     </row>
-    <row r="51" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
       <c r="B51" s="48" t="s">
         <v>90</v>
@@ -12480,7 +12474,7 @@
       <c r="GB51" s="83"/>
       <c r="GC51" s="89"/>
     </row>
-    <row r="52" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="9"/>
       <c r="C52" s="7"/>
@@ -12666,7 +12660,7 @@
       <c r="GB52" s="11"/>
       <c r="GC52" s="24"/>
     </row>
-    <row r="53" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="43" t="s">
         <v>36</v>
       </c>
@@ -12857,7 +12851,7 @@
       <c r="GB53" s="40"/>
       <c r="GC53" s="45"/>
     </row>
-    <row r="54" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="9" t="s">
         <v>38</v>
@@ -13047,7 +13041,7 @@
       <c r="GB54" s="11"/>
       <c r="GC54" s="24"/>
     </row>
-    <row r="55" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="9"/>
       <c r="C55" s="7"/>
@@ -13233,7 +13227,7 @@
       <c r="GB55" s="11"/>
       <c r="GC55" s="24"/>
     </row>
-    <row r="56" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="9" t="s">
         <v>44</v>
@@ -13423,7 +13417,7 @@
       <c r="GB56" s="11"/>
       <c r="GC56" s="24"/>
     </row>
-    <row r="57" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="9"/>
       <c r="C57" s="7"/>
@@ -13609,7 +13603,7 @@
       <c r="GB57" s="11"/>
       <c r="GC57" s="24"/>
     </row>
-    <row r="58" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="9" t="s">
         <v>46</v>
@@ -13799,7 +13793,7 @@
       <c r="GB58" s="11"/>
       <c r="GC58" s="24"/>
     </row>
-    <row r="59" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="9"/>
       <c r="C59" s="7"/>
@@ -13985,7 +13979,7 @@
       <c r="GB59" s="11"/>
       <c r="GC59" s="24"/>
     </row>
-    <row r="60" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="43" t="s">
         <v>37</v>
       </c>
@@ -14176,7 +14170,7 @@
       <c r="GB60" s="40"/>
       <c r="GC60" s="45"/>
     </row>
-    <row r="61" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="9" t="s">
         <v>61</v>
@@ -14366,7 +14360,7 @@
       <c r="GB61" s="11"/>
       <c r="GC61" s="24"/>
     </row>
-    <row r="62" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="32"/>
       <c r="B62" s="48"/>
       <c r="C62" s="11"/>
@@ -14553,7 +14547,7 @@
       <c r="GB62" s="11"/>
       <c r="GC62" s="24"/>
     </row>
-    <row r="63" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
       <c r="B63" s="9" t="s">
         <v>40</v>
@@ -14743,7 +14737,7 @@
       <c r="GB63" s="11"/>
       <c r="GC63" s="24"/>
     </row>
-    <row r="64" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="32"/>
       <c r="B64" s="48"/>
       <c r="C64" s="11"/>
@@ -14930,7 +14924,7 @@
       <c r="GB64" s="11"/>
       <c r="GC64" s="24"/>
     </row>
-    <row r="65" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="9" t="s">
         <v>62</v>
@@ -15120,7 +15114,7 @@
       <c r="GB65" s="11"/>
       <c r="GC65" s="24"/>
     </row>
-    <row r="66" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="32"/>
       <c r="B66" s="48"/>
       <c r="C66" s="11"/>
@@ -15307,7 +15301,7 @@
       <c r="GB66" s="11"/>
       <c r="GC66" s="24"/>
     </row>
-    <row r="67" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="9" t="s">
         <v>80</v>
@@ -15497,10 +15491,14 @@
       <c r="GB67" s="11"/>
       <c r="GC67" s="24"/>
     </row>
-    <row r="68" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="47">
+        <v>42720</v>
+      </c>
       <c r="D68" s="7"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
@@ -15596,7 +15594,7 @@
       <c r="CS68" s="23"/>
       <c r="CT68" s="11"/>
       <c r="CU68" s="11"/>
-      <c r="CV68" s="67"/>
+      <c r="CV68" s="90"/>
       <c r="CW68" s="11"/>
       <c r="CX68" s="11"/>
       <c r="CY68" s="22"/>
@@ -15683,12 +15681,14 @@
       <c r="GB68" s="11"/>
       <c r="GC68" s="24"/>
     </row>
-    <row r="69" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="C69" s="47">
+        <v>42776</v>
+      </c>
       <c r="D69" s="7"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
@@ -15784,24 +15784,24 @@
       <c r="CS69" s="23"/>
       <c r="CT69" s="11"/>
       <c r="CU69" s="11"/>
-      <c r="CV69" s="67"/>
+      <c r="CV69" s="90"/>
       <c r="CW69" s="11"/>
       <c r="CX69" s="11"/>
       <c r="CY69" s="22"/>
-      <c r="CZ69" s="51"/>
-      <c r="DA69" s="51"/>
-      <c r="DB69" s="51"/>
-      <c r="DC69" s="51"/>
-      <c r="DD69" s="51"/>
-      <c r="DE69" s="51"/>
-      <c r="DF69" s="51"/>
-      <c r="DG69" s="63"/>
-      <c r="DH69" s="51"/>
-      <c r="DI69" s="51"/>
-      <c r="DJ69" s="51"/>
-      <c r="DK69" s="51"/>
-      <c r="DL69" s="51"/>
-      <c r="DM69" s="64"/>
+      <c r="CZ69" s="11"/>
+      <c r="DA69" s="11"/>
+      <c r="DB69" s="11"/>
+      <c r="DC69" s="11"/>
+      <c r="DD69" s="11"/>
+      <c r="DE69" s="11"/>
+      <c r="DF69" s="11"/>
+      <c r="DG69" s="23"/>
+      <c r="DH69" s="11"/>
+      <c r="DI69" s="11"/>
+      <c r="DJ69" s="11"/>
+      <c r="DK69" s="11"/>
+      <c r="DL69" s="11"/>
+      <c r="DM69" s="22"/>
       <c r="DN69" s="11"/>
       <c r="DO69" s="11"/>
       <c r="DP69" s="11"/>
@@ -15871,7 +15871,7 @@
       <c r="GB69" s="11"/>
       <c r="GC69" s="24"/>
     </row>
-    <row r="70" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="9"/>
       <c r="C70" s="7"/>
@@ -16057,10 +16057,10 @@
       <c r="GB70" s="11"/>
       <c r="GC70" s="24"/>
     </row>
-    <row r="71" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -16162,20 +16162,20 @@
       <c r="CW71" s="11"/>
       <c r="CX71" s="11"/>
       <c r="CY71" s="22"/>
-      <c r="CZ71" s="11"/>
-      <c r="DA71" s="11"/>
-      <c r="DB71" s="11"/>
-      <c r="DC71" s="11"/>
-      <c r="DD71" s="11"/>
-      <c r="DE71" s="11"/>
-      <c r="DF71" s="11"/>
-      <c r="DG71" s="23"/>
-      <c r="DH71" s="11"/>
-      <c r="DI71" s="11"/>
-      <c r="DJ71" s="11"/>
-      <c r="DK71" s="11"/>
-      <c r="DL71" s="11"/>
-      <c r="DM71" s="22"/>
+      <c r="CZ71" s="51"/>
+      <c r="DA71" s="51"/>
+      <c r="DB71" s="51"/>
+      <c r="DC71" s="51"/>
+      <c r="DD71" s="51"/>
+      <c r="DE71" s="51"/>
+      <c r="DF71" s="51"/>
+      <c r="DG71" s="63"/>
+      <c r="DH71" s="51"/>
+      <c r="DI71" s="51"/>
+      <c r="DJ71" s="51"/>
+      <c r="DK71" s="51"/>
+      <c r="DL71" s="51"/>
+      <c r="DM71" s="64"/>
       <c r="DN71" s="11"/>
       <c r="DO71" s="11"/>
       <c r="DP71" s="11"/>
@@ -16245,7 +16245,7 @@
       <c r="GB71" s="11"/>
       <c r="GC71" s="24"/>
     </row>
-    <row r="72" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="9"/>
       <c r="C72" s="7"/>
@@ -16431,10 +16431,10 @@
       <c r="GB72" s="11"/>
       <c r="GC72" s="24"/>
     </row>
-    <row r="73" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -16529,13 +16529,13 @@
       <c r="CP73" s="11"/>
       <c r="CQ73" s="11"/>
       <c r="CR73" s="11"/>
-      <c r="CS73" s="23"/>
-      <c r="CT73" s="11"/>
-      <c r="CU73" s="11"/>
-      <c r="CV73" s="67"/>
-      <c r="CW73" s="11"/>
-      <c r="CX73" s="11"/>
-      <c r="CY73" s="22"/>
+      <c r="CS73" s="63"/>
+      <c r="CT73" s="51"/>
+      <c r="CU73" s="51"/>
+      <c r="CV73" s="90"/>
+      <c r="CW73" s="51"/>
+      <c r="CX73" s="51"/>
+      <c r="CY73" s="64"/>
       <c r="CZ73" s="51"/>
       <c r="DA73" s="51"/>
       <c r="DB73" s="51"/>
@@ -16550,36 +16550,36 @@
       <c r="DK73" s="51"/>
       <c r="DL73" s="51"/>
       <c r="DM73" s="64"/>
-      <c r="DN73" s="11"/>
-      <c r="DO73" s="11"/>
-      <c r="DP73" s="11"/>
-      <c r="DQ73" s="11"/>
-      <c r="DR73" s="11"/>
-      <c r="DS73" s="11"/>
-      <c r="DT73" s="11"/>
-      <c r="DU73" s="23"/>
-      <c r="DV73" s="11"/>
-      <c r="DW73" s="11"/>
-      <c r="DX73" s="11"/>
-      <c r="DY73" s="11"/>
-      <c r="DZ73" s="11"/>
-      <c r="EA73" s="22"/>
-      <c r="EB73" s="11"/>
-      <c r="EC73" s="11"/>
-      <c r="ED73" s="73"/>
-      <c r="EE73" s="11"/>
-      <c r="EF73" s="11"/>
-      <c r="EG73" s="11"/>
-      <c r="EH73" s="11"/>
-      <c r="EI73" s="23"/>
-      <c r="EJ73" s="11"/>
-      <c r="EK73" s="11"/>
-      <c r="EL73" s="11"/>
-      <c r="EM73" s="11"/>
-      <c r="EN73" s="11"/>
-      <c r="EO73" s="22"/>
-      <c r="EP73" s="11"/>
-      <c r="EQ73" s="11"/>
+      <c r="DN73" s="51"/>
+      <c r="DO73" s="51"/>
+      <c r="DP73" s="51"/>
+      <c r="DQ73" s="51"/>
+      <c r="DR73" s="51"/>
+      <c r="DS73" s="51"/>
+      <c r="DT73" s="51"/>
+      <c r="DU73" s="63"/>
+      <c r="DV73" s="51"/>
+      <c r="DW73" s="51"/>
+      <c r="DX73" s="51"/>
+      <c r="DY73" s="51"/>
+      <c r="DZ73" s="51"/>
+      <c r="EA73" s="64"/>
+      <c r="EB73" s="51"/>
+      <c r="EC73" s="51"/>
+      <c r="ED73" s="147"/>
+      <c r="EE73" s="51"/>
+      <c r="EF73" s="51"/>
+      <c r="EG73" s="51"/>
+      <c r="EH73" s="51"/>
+      <c r="EI73" s="63"/>
+      <c r="EJ73" s="51"/>
+      <c r="EK73" s="51"/>
+      <c r="EL73" s="51"/>
+      <c r="EM73" s="51"/>
+      <c r="EN73" s="51"/>
+      <c r="EO73" s="64"/>
+      <c r="EP73" s="51"/>
+      <c r="EQ73" s="51"/>
       <c r="ER73" s="11"/>
       <c r="ES73" s="11"/>
       <c r="ET73" s="11"/>
@@ -16619,7 +16619,7 @@
       <c r="GB73" s="11"/>
       <c r="GC73" s="24"/>
     </row>
-    <row r="74" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="9"/>
       <c r="C74" s="7"/>
@@ -16805,10 +16805,10 @@
       <c r="GB74" s="11"/>
       <c r="GC74" s="24"/>
     </row>
-    <row r="75" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -16910,20 +16910,20 @@
       <c r="CW75" s="11"/>
       <c r="CX75" s="11"/>
       <c r="CY75" s="22"/>
-      <c r="CZ75" s="11"/>
-      <c r="DA75" s="11"/>
-      <c r="DB75" s="11"/>
-      <c r="DC75" s="11"/>
-      <c r="DD75" s="11"/>
-      <c r="DE75" s="11"/>
-      <c r="DF75" s="11"/>
-      <c r="DG75" s="23"/>
-      <c r="DH75" s="11"/>
-      <c r="DI75" s="11"/>
-      <c r="DJ75" s="11"/>
-      <c r="DK75" s="11"/>
-      <c r="DL75" s="11"/>
-      <c r="DM75" s="22"/>
+      <c r="CZ75" s="51"/>
+      <c r="DA75" s="51"/>
+      <c r="DB75" s="51"/>
+      <c r="DC75" s="51"/>
+      <c r="DD75" s="51"/>
+      <c r="DE75" s="51"/>
+      <c r="DF75" s="51"/>
+      <c r="DG75" s="63"/>
+      <c r="DH75" s="51"/>
+      <c r="DI75" s="51"/>
+      <c r="DJ75" s="51"/>
+      <c r="DK75" s="51"/>
+      <c r="DL75" s="51"/>
+      <c r="DM75" s="64"/>
       <c r="DN75" s="11"/>
       <c r="DO75" s="11"/>
       <c r="DP75" s="11"/>
@@ -16993,7 +16993,7 @@
       <c r="GB75" s="11"/>
       <c r="GC75" s="24"/>
     </row>
-    <row r="76" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="9"/>
       <c r="C76" s="7"/>
@@ -17179,9 +17179,11 @@
       <c r="GB76" s="11"/>
       <c r="GC76" s="24"/>
     </row>
-    <row r="77" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
-      <c r="B77" s="9"/>
+      <c r="B77" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="F77" s="11"/>
@@ -17365,206 +17367,578 @@
       <c r="GB77" s="11"/>
       <c r="GC77" s="24"/>
     </row>
-    <row r="78" spans="1:185" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="95" t="s">
+    <row r="78" spans="1:185" x14ac:dyDescent="0.2">
+      <c r="A78" s="33"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="22"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
+      <c r="AA78" s="23"/>
+      <c r="AB78" s="11"/>
+      <c r="AC78" s="11"/>
+      <c r="AD78" s="11"/>
+      <c r="AE78" s="11"/>
+      <c r="AF78" s="11"/>
+      <c r="AG78" s="22"/>
+      <c r="AH78" s="11"/>
+      <c r="AI78" s="11"/>
+      <c r="AJ78" s="11"/>
+      <c r="AK78" s="11"/>
+      <c r="AL78" s="11"/>
+      <c r="AM78" s="11"/>
+      <c r="AN78" s="11"/>
+      <c r="AO78" s="76"/>
+      <c r="AP78" s="11"/>
+      <c r="AQ78" s="11"/>
+      <c r="AR78" s="11"/>
+      <c r="AS78" s="11"/>
+      <c r="AT78" s="11"/>
+      <c r="AU78" s="22"/>
+      <c r="AV78" s="11"/>
+      <c r="AW78" s="11"/>
+      <c r="AX78" s="11"/>
+      <c r="AY78" s="11"/>
+      <c r="AZ78" s="11"/>
+      <c r="BA78" s="11"/>
+      <c r="BB78" s="11"/>
+      <c r="BC78" s="23"/>
+      <c r="BD78" s="11"/>
+      <c r="BE78" s="11"/>
+      <c r="BF78" s="11"/>
+      <c r="BG78" s="11"/>
+      <c r="BH78" s="11"/>
+      <c r="BI78" s="22"/>
+      <c r="BJ78" s="11"/>
+      <c r="BK78" s="11"/>
+      <c r="BL78" s="11"/>
+      <c r="BM78" s="11"/>
+      <c r="BN78" s="11"/>
+      <c r="BO78" s="11"/>
+      <c r="BP78" s="11"/>
+      <c r="BQ78" s="23"/>
+      <c r="BR78" s="11"/>
+      <c r="BS78" s="11"/>
+      <c r="BT78" s="11"/>
+      <c r="BU78" s="11"/>
+      <c r="BV78" s="11"/>
+      <c r="BW78" s="22"/>
+      <c r="BX78" s="11"/>
+      <c r="BY78" s="11"/>
+      <c r="BZ78" s="73"/>
+      <c r="CA78" s="11"/>
+      <c r="CB78" s="11"/>
+      <c r="CC78" s="11"/>
+      <c r="CD78" s="11"/>
+      <c r="CE78" s="23"/>
+      <c r="CF78" s="11"/>
+      <c r="CG78" s="11"/>
+      <c r="CH78" s="11"/>
+      <c r="CI78" s="11"/>
+      <c r="CJ78" s="11"/>
+      <c r="CK78" s="22"/>
+      <c r="CL78" s="11"/>
+      <c r="CM78" s="11"/>
+      <c r="CN78" s="11"/>
+      <c r="CO78" s="11"/>
+      <c r="CP78" s="11"/>
+      <c r="CQ78" s="11"/>
+      <c r="CR78" s="11"/>
+      <c r="CS78" s="23"/>
+      <c r="CT78" s="11"/>
+      <c r="CU78" s="11"/>
+      <c r="CV78" s="67"/>
+      <c r="CW78" s="11"/>
+      <c r="CX78" s="11"/>
+      <c r="CY78" s="22"/>
+      <c r="CZ78" s="11"/>
+      <c r="DA78" s="11"/>
+      <c r="DB78" s="11"/>
+      <c r="DC78" s="11"/>
+      <c r="DD78" s="11"/>
+      <c r="DE78" s="11"/>
+      <c r="DF78" s="11"/>
+      <c r="DG78" s="23"/>
+      <c r="DH78" s="11"/>
+      <c r="DI78" s="11"/>
+      <c r="DJ78" s="11"/>
+      <c r="DK78" s="11"/>
+      <c r="DL78" s="11"/>
+      <c r="DM78" s="22"/>
+      <c r="DN78" s="11"/>
+      <c r="DO78" s="11"/>
+      <c r="DP78" s="11"/>
+      <c r="DQ78" s="11"/>
+      <c r="DR78" s="11"/>
+      <c r="DS78" s="11"/>
+      <c r="DT78" s="11"/>
+      <c r="DU78" s="23"/>
+      <c r="DV78" s="11"/>
+      <c r="DW78" s="11"/>
+      <c r="DX78" s="11"/>
+      <c r="DY78" s="11"/>
+      <c r="DZ78" s="11"/>
+      <c r="EA78" s="22"/>
+      <c r="EB78" s="11"/>
+      <c r="EC78" s="11"/>
+      <c r="ED78" s="73"/>
+      <c r="EE78" s="11"/>
+      <c r="EF78" s="11"/>
+      <c r="EG78" s="11"/>
+      <c r="EH78" s="11"/>
+      <c r="EI78" s="23"/>
+      <c r="EJ78" s="11"/>
+      <c r="EK78" s="11"/>
+      <c r="EL78" s="11"/>
+      <c r="EM78" s="11"/>
+      <c r="EN78" s="11"/>
+      <c r="EO78" s="22"/>
+      <c r="EP78" s="11"/>
+      <c r="EQ78" s="11"/>
+      <c r="ER78" s="11"/>
+      <c r="ES78" s="11"/>
+      <c r="ET78" s="11"/>
+      <c r="EU78" s="11"/>
+      <c r="EV78" s="11"/>
+      <c r="EW78" s="23"/>
+      <c r="EX78" s="11"/>
+      <c r="EY78" s="11"/>
+      <c r="EZ78" s="11"/>
+      <c r="FA78" s="11"/>
+      <c r="FB78" s="11"/>
+      <c r="FC78" s="22"/>
+      <c r="FD78" s="11"/>
+      <c r="FE78" s="11"/>
+      <c r="FF78" s="11"/>
+      <c r="FG78" s="11"/>
+      <c r="FH78" s="11"/>
+      <c r="FI78" s="11"/>
+      <c r="FJ78" s="11"/>
+      <c r="FK78" s="23"/>
+      <c r="FL78" s="11"/>
+      <c r="FM78" s="67"/>
+      <c r="FN78" s="11"/>
+      <c r="FO78" s="11"/>
+      <c r="FP78" s="11"/>
+      <c r="FQ78" s="22"/>
+      <c r="FR78" s="11"/>
+      <c r="FS78" s="11"/>
+      <c r="FT78" s="11"/>
+      <c r="FU78" s="11"/>
+      <c r="FV78" s="11"/>
+      <c r="FW78" s="11"/>
+      <c r="FX78" s="11"/>
+      <c r="FY78" s="23"/>
+      <c r="FZ78" s="11"/>
+      <c r="GA78" s="11"/>
+      <c r="GB78" s="11"/>
+      <c r="GC78" s="24"/>
+    </row>
+    <row r="79" spans="1:185" x14ac:dyDescent="0.2">
+      <c r="A79" s="33"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="22"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
+      <c r="AA79" s="23"/>
+      <c r="AB79" s="11"/>
+      <c r="AC79" s="11"/>
+      <c r="AD79" s="11"/>
+      <c r="AE79" s="11"/>
+      <c r="AF79" s="11"/>
+      <c r="AG79" s="22"/>
+      <c r="AH79" s="11"/>
+      <c r="AI79" s="11"/>
+      <c r="AJ79" s="11"/>
+      <c r="AK79" s="11"/>
+      <c r="AL79" s="11"/>
+      <c r="AM79" s="11"/>
+      <c r="AN79" s="11"/>
+      <c r="AO79" s="76"/>
+      <c r="AP79" s="11"/>
+      <c r="AQ79" s="11"/>
+      <c r="AR79" s="11"/>
+      <c r="AS79" s="11"/>
+      <c r="AT79" s="11"/>
+      <c r="AU79" s="22"/>
+      <c r="AV79" s="11"/>
+      <c r="AW79" s="11"/>
+      <c r="AX79" s="11"/>
+      <c r="AY79" s="11"/>
+      <c r="AZ79" s="11"/>
+      <c r="BA79" s="11"/>
+      <c r="BB79" s="11"/>
+      <c r="BC79" s="23"/>
+      <c r="BD79" s="11"/>
+      <c r="BE79" s="11"/>
+      <c r="BF79" s="11"/>
+      <c r="BG79" s="11"/>
+      <c r="BH79" s="11"/>
+      <c r="BI79" s="22"/>
+      <c r="BJ79" s="11"/>
+      <c r="BK79" s="11"/>
+      <c r="BL79" s="11"/>
+      <c r="BM79" s="11"/>
+      <c r="BN79" s="11"/>
+      <c r="BO79" s="11"/>
+      <c r="BP79" s="11"/>
+      <c r="BQ79" s="23"/>
+      <c r="BR79" s="11"/>
+      <c r="BS79" s="11"/>
+      <c r="BT79" s="11"/>
+      <c r="BU79" s="11"/>
+      <c r="BV79" s="11"/>
+      <c r="BW79" s="22"/>
+      <c r="BX79" s="11"/>
+      <c r="BY79" s="11"/>
+      <c r="BZ79" s="73"/>
+      <c r="CA79" s="11"/>
+      <c r="CB79" s="11"/>
+      <c r="CC79" s="11"/>
+      <c r="CD79" s="11"/>
+      <c r="CE79" s="23"/>
+      <c r="CF79" s="11"/>
+      <c r="CG79" s="11"/>
+      <c r="CH79" s="11"/>
+      <c r="CI79" s="11"/>
+      <c r="CJ79" s="11"/>
+      <c r="CK79" s="22"/>
+      <c r="CL79" s="11"/>
+      <c r="CM79" s="11"/>
+      <c r="CN79" s="11"/>
+      <c r="CO79" s="11"/>
+      <c r="CP79" s="11"/>
+      <c r="CQ79" s="11"/>
+      <c r="CR79" s="11"/>
+      <c r="CS79" s="23"/>
+      <c r="CT79" s="11"/>
+      <c r="CU79" s="11"/>
+      <c r="CV79" s="67"/>
+      <c r="CW79" s="11"/>
+      <c r="CX79" s="11"/>
+      <c r="CY79" s="22"/>
+      <c r="CZ79" s="11"/>
+      <c r="DA79" s="11"/>
+      <c r="DB79" s="11"/>
+      <c r="DC79" s="11"/>
+      <c r="DD79" s="11"/>
+      <c r="DE79" s="11"/>
+      <c r="DF79" s="11"/>
+      <c r="DG79" s="23"/>
+      <c r="DH79" s="11"/>
+      <c r="DI79" s="11"/>
+      <c r="DJ79" s="11"/>
+      <c r="DK79" s="11"/>
+      <c r="DL79" s="11"/>
+      <c r="DM79" s="22"/>
+      <c r="DN79" s="11"/>
+      <c r="DO79" s="11"/>
+      <c r="DP79" s="11"/>
+      <c r="DQ79" s="11"/>
+      <c r="DR79" s="11"/>
+      <c r="DS79" s="11"/>
+      <c r="DT79" s="11"/>
+      <c r="DU79" s="23"/>
+      <c r="DV79" s="11"/>
+      <c r="DW79" s="11"/>
+      <c r="DX79" s="11"/>
+      <c r="DY79" s="11"/>
+      <c r="DZ79" s="11"/>
+      <c r="EA79" s="22"/>
+      <c r="EB79" s="11"/>
+      <c r="EC79" s="11"/>
+      <c r="ED79" s="73"/>
+      <c r="EE79" s="11"/>
+      <c r="EF79" s="11"/>
+      <c r="EG79" s="11"/>
+      <c r="EH79" s="11"/>
+      <c r="EI79" s="23"/>
+      <c r="EJ79" s="11"/>
+      <c r="EK79" s="11"/>
+      <c r="EL79" s="11"/>
+      <c r="EM79" s="11"/>
+      <c r="EN79" s="11"/>
+      <c r="EO79" s="22"/>
+      <c r="EP79" s="11"/>
+      <c r="EQ79" s="11"/>
+      <c r="ER79" s="11"/>
+      <c r="ES79" s="11"/>
+      <c r="ET79" s="11"/>
+      <c r="EU79" s="11"/>
+      <c r="EV79" s="11"/>
+      <c r="EW79" s="23"/>
+      <c r="EX79" s="11"/>
+      <c r="EY79" s="11"/>
+      <c r="EZ79" s="11"/>
+      <c r="FA79" s="11"/>
+      <c r="FB79" s="11"/>
+      <c r="FC79" s="22"/>
+      <c r="FD79" s="11"/>
+      <c r="FE79" s="11"/>
+      <c r="FF79" s="11"/>
+      <c r="FG79" s="11"/>
+      <c r="FH79" s="11"/>
+      <c r="FI79" s="11"/>
+      <c r="FJ79" s="11"/>
+      <c r="FK79" s="23"/>
+      <c r="FL79" s="11"/>
+      <c r="FM79" s="67"/>
+      <c r="FN79" s="11"/>
+      <c r="FO79" s="11"/>
+      <c r="FP79" s="11"/>
+      <c r="FQ79" s="22"/>
+      <c r="FR79" s="11"/>
+      <c r="FS79" s="11"/>
+      <c r="FT79" s="11"/>
+      <c r="FU79" s="11"/>
+      <c r="FV79" s="11"/>
+      <c r="FW79" s="11"/>
+      <c r="FX79" s="11"/>
+      <c r="FY79" s="23"/>
+      <c r="FZ79" s="11"/>
+      <c r="GA79" s="11"/>
+      <c r="GB79" s="11"/>
+      <c r="GC79" s="24"/>
+    </row>
+    <row r="80" spans="1:185" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="96"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="96"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="98" t="s">
+      <c r="B80" s="113"/>
+      <c r="C80" s="113"/>
+      <c r="D80" s="113"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="G78" s="92"/>
-      <c r="H78" s="92"/>
-      <c r="I78" s="92"/>
-      <c r="J78" s="92"/>
-      <c r="K78" s="92"/>
-      <c r="L78" s="92"/>
-      <c r="M78" s="92"/>
-      <c r="N78" s="92"/>
-      <c r="O78" s="92"/>
-      <c r="P78" s="92"/>
-      <c r="Q78" s="92"/>
-      <c r="R78" s="92"/>
-      <c r="S78" s="92"/>
-      <c r="T78" s="92"/>
-      <c r="U78" s="92"/>
-      <c r="V78" s="92"/>
-      <c r="W78" s="92"/>
-      <c r="X78" s="92"/>
-      <c r="Y78" s="92"/>
-      <c r="Z78" s="92"/>
-      <c r="AA78" s="92"/>
-      <c r="AB78" s="92"/>
-      <c r="AC78" s="92"/>
-      <c r="AD78" s="92"/>
-      <c r="AE78" s="92"/>
-      <c r="AF78" s="92"/>
-      <c r="AG78" s="92"/>
-      <c r="AH78" s="92"/>
-      <c r="AI78" s="92"/>
-      <c r="AJ78" s="92"/>
-      <c r="AK78" s="92"/>
-      <c r="AL78" s="92"/>
-      <c r="AM78" s="92"/>
-      <c r="AN78" s="99"/>
-      <c r="AO78" s="100" t="s">
+      <c r="G80" s="109"/>
+      <c r="H80" s="109"/>
+      <c r="I80" s="109"/>
+      <c r="J80" s="109"/>
+      <c r="K80" s="109"/>
+      <c r="L80" s="109"/>
+      <c r="M80" s="109"/>
+      <c r="N80" s="109"/>
+      <c r="O80" s="109"/>
+      <c r="P80" s="109"/>
+      <c r="Q80" s="109"/>
+      <c r="R80" s="109"/>
+      <c r="S80" s="109"/>
+      <c r="T80" s="109"/>
+      <c r="U80" s="109"/>
+      <c r="V80" s="109"/>
+      <c r="W80" s="109"/>
+      <c r="X80" s="109"/>
+      <c r="Y80" s="109"/>
+      <c r="Z80" s="109"/>
+      <c r="AA80" s="109"/>
+      <c r="AB80" s="109"/>
+      <c r="AC80" s="109"/>
+      <c r="AD80" s="109"/>
+      <c r="AE80" s="109"/>
+      <c r="AF80" s="109"/>
+      <c r="AG80" s="109"/>
+      <c r="AH80" s="109"/>
+      <c r="AI80" s="109"/>
+      <c r="AJ80" s="109"/>
+      <c r="AK80" s="109"/>
+      <c r="AL80" s="109"/>
+      <c r="AM80" s="109"/>
+      <c r="AN80" s="116"/>
+      <c r="AO80" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="AP78" s="92"/>
-      <c r="AQ78" s="92"/>
-      <c r="AR78" s="92"/>
-      <c r="AS78" s="92"/>
-      <c r="AT78" s="92"/>
-      <c r="AU78" s="92"/>
-      <c r="AV78" s="92"/>
-      <c r="AW78" s="92"/>
-      <c r="AX78" s="92"/>
-      <c r="AY78" s="92"/>
-      <c r="AZ78" s="92"/>
-      <c r="BA78" s="92"/>
-      <c r="BB78" s="92"/>
-      <c r="BC78" s="92"/>
-      <c r="BD78" s="92"/>
-      <c r="BE78" s="92"/>
-      <c r="BF78" s="92"/>
-      <c r="BG78" s="92"/>
-      <c r="BH78" s="92"/>
-      <c r="BI78" s="92"/>
-      <c r="BJ78" s="92"/>
-      <c r="BK78" s="92"/>
-      <c r="BL78" s="92"/>
-      <c r="BM78" s="92"/>
-      <c r="BN78" s="92"/>
-      <c r="BO78" s="92"/>
-      <c r="BP78" s="92"/>
-      <c r="BQ78" s="92"/>
-      <c r="BR78" s="92"/>
-      <c r="BS78" s="92"/>
-      <c r="BT78" s="92"/>
-      <c r="BU78" s="92"/>
-      <c r="BV78" s="92"/>
-      <c r="BW78" s="92"/>
-      <c r="BX78" s="92"/>
-      <c r="BY78" s="92"/>
-      <c r="BZ78" s="93"/>
-      <c r="CA78" s="91" t="s">
+      <c r="AP80" s="109"/>
+      <c r="AQ80" s="109"/>
+      <c r="AR80" s="109"/>
+      <c r="AS80" s="109"/>
+      <c r="AT80" s="109"/>
+      <c r="AU80" s="109"/>
+      <c r="AV80" s="109"/>
+      <c r="AW80" s="109"/>
+      <c r="AX80" s="109"/>
+      <c r="AY80" s="109"/>
+      <c r="AZ80" s="109"/>
+      <c r="BA80" s="109"/>
+      <c r="BB80" s="109"/>
+      <c r="BC80" s="109"/>
+      <c r="BD80" s="109"/>
+      <c r="BE80" s="109"/>
+      <c r="BF80" s="109"/>
+      <c r="BG80" s="109"/>
+      <c r="BH80" s="109"/>
+      <c r="BI80" s="109"/>
+      <c r="BJ80" s="109"/>
+      <c r="BK80" s="109"/>
+      <c r="BL80" s="109"/>
+      <c r="BM80" s="109"/>
+      <c r="BN80" s="109"/>
+      <c r="BO80" s="109"/>
+      <c r="BP80" s="109"/>
+      <c r="BQ80" s="109"/>
+      <c r="BR80" s="109"/>
+      <c r="BS80" s="109"/>
+      <c r="BT80" s="109"/>
+      <c r="BU80" s="109"/>
+      <c r="BV80" s="109"/>
+      <c r="BW80" s="109"/>
+      <c r="BX80" s="109"/>
+      <c r="BY80" s="109"/>
+      <c r="BZ80" s="110"/>
+      <c r="CA80" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="CB78" s="92"/>
-      <c r="CC78" s="92"/>
-      <c r="CD78" s="92"/>
-      <c r="CE78" s="92"/>
-      <c r="CF78" s="92"/>
-      <c r="CG78" s="92"/>
-      <c r="CH78" s="92"/>
-      <c r="CI78" s="92"/>
-      <c r="CJ78" s="92"/>
-      <c r="CK78" s="92"/>
-      <c r="CL78" s="92"/>
-      <c r="CM78" s="92"/>
-      <c r="CN78" s="92"/>
-      <c r="CO78" s="92"/>
-      <c r="CP78" s="92"/>
-      <c r="CQ78" s="92"/>
-      <c r="CR78" s="92"/>
-      <c r="CS78" s="92"/>
-      <c r="CT78" s="92"/>
-      <c r="CU78" s="93"/>
-      <c r="CV78" s="91" t="s">
+      <c r="CB80" s="109"/>
+      <c r="CC80" s="109"/>
+      <c r="CD80" s="109"/>
+      <c r="CE80" s="109"/>
+      <c r="CF80" s="109"/>
+      <c r="CG80" s="109"/>
+      <c r="CH80" s="109"/>
+      <c r="CI80" s="109"/>
+      <c r="CJ80" s="109"/>
+      <c r="CK80" s="109"/>
+      <c r="CL80" s="109"/>
+      <c r="CM80" s="109"/>
+      <c r="CN80" s="109"/>
+      <c r="CO80" s="109"/>
+      <c r="CP80" s="109"/>
+      <c r="CQ80" s="109"/>
+      <c r="CR80" s="109"/>
+      <c r="CS80" s="109"/>
+      <c r="CT80" s="109"/>
+      <c r="CU80" s="110"/>
+      <c r="CV80" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="CW78" s="92"/>
-      <c r="CX78" s="92"/>
-      <c r="CY78" s="92"/>
-      <c r="CZ78" s="92"/>
-      <c r="DA78" s="92"/>
-      <c r="DB78" s="92"/>
-      <c r="DC78" s="92"/>
-      <c r="DD78" s="92"/>
-      <c r="DE78" s="92"/>
-      <c r="DF78" s="92"/>
-      <c r="DG78" s="92"/>
-      <c r="DH78" s="92"/>
-      <c r="DI78" s="92"/>
-      <c r="DJ78" s="92"/>
-      <c r="DK78" s="92"/>
-      <c r="DL78" s="92"/>
-      <c r="DM78" s="92"/>
-      <c r="DN78" s="92"/>
-      <c r="DO78" s="92"/>
-      <c r="DP78" s="92"/>
-      <c r="DQ78" s="92"/>
-      <c r="DR78" s="92"/>
-      <c r="DS78" s="92"/>
-      <c r="DT78" s="92"/>
-      <c r="DU78" s="92"/>
-      <c r="DV78" s="92"/>
-      <c r="DW78" s="92"/>
-      <c r="DX78" s="92"/>
-      <c r="DY78" s="92"/>
-      <c r="DZ78" s="92"/>
-      <c r="EA78" s="92"/>
-      <c r="EB78" s="92"/>
-      <c r="EC78" s="92"/>
-      <c r="ED78" s="93"/>
-      <c r="EE78" s="91" t="s">
+      <c r="CW80" s="109"/>
+      <c r="CX80" s="109"/>
+      <c r="CY80" s="109"/>
+      <c r="CZ80" s="109"/>
+      <c r="DA80" s="109"/>
+      <c r="DB80" s="109"/>
+      <c r="DC80" s="109"/>
+      <c r="DD80" s="109"/>
+      <c r="DE80" s="109"/>
+      <c r="DF80" s="109"/>
+      <c r="DG80" s="109"/>
+      <c r="DH80" s="109"/>
+      <c r="DI80" s="109"/>
+      <c r="DJ80" s="109"/>
+      <c r="DK80" s="109"/>
+      <c r="DL80" s="109"/>
+      <c r="DM80" s="109"/>
+      <c r="DN80" s="109"/>
+      <c r="DO80" s="109"/>
+      <c r="DP80" s="109"/>
+      <c r="DQ80" s="109"/>
+      <c r="DR80" s="109"/>
+      <c r="DS80" s="109"/>
+      <c r="DT80" s="109"/>
+      <c r="DU80" s="109"/>
+      <c r="DV80" s="109"/>
+      <c r="DW80" s="109"/>
+      <c r="DX80" s="109"/>
+      <c r="DY80" s="109"/>
+      <c r="DZ80" s="109"/>
+      <c r="EA80" s="109"/>
+      <c r="EB80" s="109"/>
+      <c r="EC80" s="109"/>
+      <c r="ED80" s="110"/>
+      <c r="EE80" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="EF78" s="92"/>
-      <c r="EG78" s="92"/>
-      <c r="EH78" s="92"/>
-      <c r="EI78" s="92"/>
-      <c r="EJ78" s="92"/>
-      <c r="EK78" s="92"/>
-      <c r="EL78" s="92"/>
-      <c r="EM78" s="92"/>
-      <c r="EN78" s="92"/>
-      <c r="EO78" s="92"/>
-      <c r="EP78" s="92"/>
-      <c r="EQ78" s="92"/>
-      <c r="ER78" s="92"/>
-      <c r="ES78" s="92"/>
-      <c r="ET78" s="92"/>
-      <c r="EU78" s="92"/>
-      <c r="EV78" s="92"/>
-      <c r="EW78" s="92"/>
-      <c r="EX78" s="92"/>
-      <c r="EY78" s="92"/>
-      <c r="EZ78" s="92"/>
-      <c r="FA78" s="92"/>
-      <c r="FB78" s="92"/>
-      <c r="FC78" s="92"/>
-      <c r="FD78" s="92"/>
-      <c r="FE78" s="92"/>
-      <c r="FF78" s="92"/>
-      <c r="FG78" s="92"/>
-      <c r="FH78" s="92"/>
-      <c r="FI78" s="92"/>
-      <c r="FJ78" s="92"/>
-      <c r="FK78" s="92"/>
-      <c r="FL78" s="93"/>
-      <c r="FM78" s="91" t="s">
+      <c r="EF80" s="109"/>
+      <c r="EG80" s="109"/>
+      <c r="EH80" s="109"/>
+      <c r="EI80" s="109"/>
+      <c r="EJ80" s="109"/>
+      <c r="EK80" s="109"/>
+      <c r="EL80" s="109"/>
+      <c r="EM80" s="109"/>
+      <c r="EN80" s="109"/>
+      <c r="EO80" s="109"/>
+      <c r="EP80" s="109"/>
+      <c r="EQ80" s="109"/>
+      <c r="ER80" s="109"/>
+      <c r="ES80" s="109"/>
+      <c r="ET80" s="109"/>
+      <c r="EU80" s="109"/>
+      <c r="EV80" s="109"/>
+      <c r="EW80" s="109"/>
+      <c r="EX80" s="109"/>
+      <c r="EY80" s="109"/>
+      <c r="EZ80" s="109"/>
+      <c r="FA80" s="109"/>
+      <c r="FB80" s="109"/>
+      <c r="FC80" s="109"/>
+      <c r="FD80" s="109"/>
+      <c r="FE80" s="109"/>
+      <c r="FF80" s="109"/>
+      <c r="FG80" s="109"/>
+      <c r="FH80" s="109"/>
+      <c r="FI80" s="109"/>
+      <c r="FJ80" s="109"/>
+      <c r="FK80" s="109"/>
+      <c r="FL80" s="110"/>
+      <c r="FM80" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="FN78" s="92"/>
-      <c r="FO78" s="92"/>
-      <c r="FP78" s="92"/>
-      <c r="FQ78" s="92"/>
-      <c r="FR78" s="92"/>
-      <c r="FS78" s="92"/>
-      <c r="FT78" s="92"/>
-      <c r="FU78" s="92"/>
-      <c r="FV78" s="92"/>
-      <c r="FW78" s="92"/>
-      <c r="FX78" s="92"/>
-      <c r="FY78" s="92"/>
-      <c r="FZ78" s="92"/>
-      <c r="GA78" s="92"/>
-      <c r="GB78" s="92"/>
-      <c r="GC78" s="94"/>
+      <c r="FN80" s="109"/>
+      <c r="FO80" s="109"/>
+      <c r="FP80" s="109"/>
+      <c r="FQ80" s="109"/>
+      <c r="FR80" s="109"/>
+      <c r="FS80" s="109"/>
+      <c r="FT80" s="109"/>
+      <c r="FU80" s="109"/>
+      <c r="FV80" s="109"/>
+      <c r="FW80" s="109"/>
+      <c r="FX80" s="109"/>
+      <c r="FY80" s="109"/>
+      <c r="FZ80" s="109"/>
+      <c r="GA80" s="109"/>
+      <c r="GB80" s="109"/>
+      <c r="GC80" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -17616,13 +17990,13 @@
     <mergeCell ref="CA4:CU4"/>
     <mergeCell ref="CV4:ED4"/>
     <mergeCell ref="EE4:FL4"/>
-    <mergeCell ref="EE78:FL78"/>
-    <mergeCell ref="FM78:GC78"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="F78:AN78"/>
-    <mergeCell ref="AO78:BZ78"/>
-    <mergeCell ref="CA78:CU78"/>
-    <mergeCell ref="CV78:ED78"/>
+    <mergeCell ref="EE80:FL80"/>
+    <mergeCell ref="FM80:GC80"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="F80:AN80"/>
+    <mergeCell ref="AO80:BZ80"/>
+    <mergeCell ref="CA80:CU80"/>
+    <mergeCell ref="CV80:ED80"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -17634,176 +18008,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="128.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="128.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="131" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:5" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="134" t="s">
+      <c r="E3" s="95" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="141">
+      <c r="C4" s="102">
         <v>42666</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="144" t="s">
+      <c r="E4" s="105" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A5" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="142">
+      <c r="C5" s="103">
         <v>42704</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="145" t="s">
+      <c r="E5" s="106" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="139" t="s">
+    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A6" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="142">
+      <c r="C6" s="103">
         <v>42704</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="145" t="s">
+      <c r="E6" s="106" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="139" t="s">
+    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A7" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="142">
+      <c r="C7" s="103">
         <v>42725</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="145" t="s">
+      <c r="E7" s="106" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="139" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="142">
+      <c r="C8" s="103">
         <v>42760</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="144" t="s">
+      <c r="E8" s="105" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="139" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="142">
+      <c r="C9" s="103">
         <v>42795</v>
       </c>
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="144" t="s">
+      <c r="E9" s="105" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="139" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="142">
+      <c r="C10" s="103">
         <v>42810</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="144" t="s">
+      <c r="E10" s="105" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="139" t="s">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="142">
+      <c r="C11" s="103">
         <v>42810</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="144" t="s">
+      <c r="E11" s="105" t="s">
         <v>113</v>
       </c>
     </row>

--- a/doc/planning/Projektplanung_Spektrometer.xlsx
+++ b/doc/planning/Projektplanung_Spektrometer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="39940" windowHeight="24080"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="abc">[1]Stammdaten!$B$2:$B$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$GC$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$GC$81</definedName>
     <definedName name="Teammitglieder">#REF!</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -1767,6 +1767,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1795,96 +1885,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2352,13 +2352,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:GC80"/>
+  <dimension ref="A1:GC82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="EZ39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="8" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="FX51" sqref="FX51:GB51"/>
+      <selection pane="bottomRight" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2374,13 +2374,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:185" s="12" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="135"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -2563,11 +2563,11 @@
       <c r="GC1" s="6"/>
     </row>
     <row r="2" spans="1:185" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="144"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="129"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
@@ -2949,851 +2949,851 @@
       <c r="GC3" s="18"/>
     </row>
     <row r="4" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="118" t="s">
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="119"/>
-      <c r="AO4" s="119" t="s">
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="136"/>
+      <c r="AM4" s="136"/>
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="AP4" s="119"/>
-      <c r="AQ4" s="119"/>
-      <c r="AR4" s="119"/>
-      <c r="AS4" s="119"/>
-      <c r="AT4" s="119"/>
-      <c r="AU4" s="119"/>
-      <c r="AV4" s="119"/>
-      <c r="AW4" s="119"/>
-      <c r="AX4" s="119"/>
-      <c r="AY4" s="119"/>
-      <c r="AZ4" s="119"/>
-      <c r="BA4" s="119"/>
-      <c r="BB4" s="119"/>
-      <c r="BC4" s="119"/>
-      <c r="BD4" s="119"/>
-      <c r="BE4" s="119"/>
-      <c r="BF4" s="119"/>
-      <c r="BG4" s="119"/>
-      <c r="BH4" s="119"/>
-      <c r="BI4" s="119"/>
-      <c r="BJ4" s="119"/>
-      <c r="BK4" s="119"/>
-      <c r="BL4" s="119"/>
-      <c r="BM4" s="119"/>
-      <c r="BN4" s="119"/>
-      <c r="BO4" s="119"/>
-      <c r="BP4" s="119"/>
-      <c r="BQ4" s="119"/>
-      <c r="BR4" s="119"/>
-      <c r="BS4" s="119"/>
-      <c r="BT4" s="119"/>
-      <c r="BU4" s="119"/>
-      <c r="BV4" s="119"/>
-      <c r="BW4" s="119"/>
-      <c r="BX4" s="119"/>
-      <c r="BY4" s="119"/>
-      <c r="BZ4" s="119"/>
-      <c r="CA4" s="119" t="s">
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="136"/>
+      <c r="AT4" s="136"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
+      <c r="AX4" s="136"/>
+      <c r="AY4" s="136"/>
+      <c r="AZ4" s="136"/>
+      <c r="BA4" s="136"/>
+      <c r="BB4" s="136"/>
+      <c r="BC4" s="136"/>
+      <c r="BD4" s="136"/>
+      <c r="BE4" s="136"/>
+      <c r="BF4" s="136"/>
+      <c r="BG4" s="136"/>
+      <c r="BH4" s="136"/>
+      <c r="BI4" s="136"/>
+      <c r="BJ4" s="136"/>
+      <c r="BK4" s="136"/>
+      <c r="BL4" s="136"/>
+      <c r="BM4" s="136"/>
+      <c r="BN4" s="136"/>
+      <c r="BO4" s="136"/>
+      <c r="BP4" s="136"/>
+      <c r="BQ4" s="136"/>
+      <c r="BR4" s="136"/>
+      <c r="BS4" s="136"/>
+      <c r="BT4" s="136"/>
+      <c r="BU4" s="136"/>
+      <c r="BV4" s="136"/>
+      <c r="BW4" s="136"/>
+      <c r="BX4" s="136"/>
+      <c r="BY4" s="136"/>
+      <c r="BZ4" s="136"/>
+      <c r="CA4" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="CB4" s="119"/>
-      <c r="CC4" s="119"/>
-      <c r="CD4" s="119"/>
-      <c r="CE4" s="119"/>
-      <c r="CF4" s="119"/>
-      <c r="CG4" s="119"/>
-      <c r="CH4" s="119"/>
-      <c r="CI4" s="119"/>
-      <c r="CJ4" s="119"/>
-      <c r="CK4" s="119"/>
-      <c r="CL4" s="119"/>
-      <c r="CM4" s="119"/>
-      <c r="CN4" s="119"/>
-      <c r="CO4" s="119"/>
-      <c r="CP4" s="119"/>
-      <c r="CQ4" s="119"/>
-      <c r="CR4" s="119"/>
-      <c r="CS4" s="119"/>
-      <c r="CT4" s="119"/>
-      <c r="CU4" s="119"/>
-      <c r="CV4" s="119" t="s">
+      <c r="CB4" s="136"/>
+      <c r="CC4" s="136"/>
+      <c r="CD4" s="136"/>
+      <c r="CE4" s="136"/>
+      <c r="CF4" s="136"/>
+      <c r="CG4" s="136"/>
+      <c r="CH4" s="136"/>
+      <c r="CI4" s="136"/>
+      <c r="CJ4" s="136"/>
+      <c r="CK4" s="136"/>
+      <c r="CL4" s="136"/>
+      <c r="CM4" s="136"/>
+      <c r="CN4" s="136"/>
+      <c r="CO4" s="136"/>
+      <c r="CP4" s="136"/>
+      <c r="CQ4" s="136"/>
+      <c r="CR4" s="136"/>
+      <c r="CS4" s="136"/>
+      <c r="CT4" s="136"/>
+      <c r="CU4" s="136"/>
+      <c r="CV4" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="CW4" s="119"/>
-      <c r="CX4" s="119"/>
-      <c r="CY4" s="119"/>
-      <c r="CZ4" s="119"/>
-      <c r="DA4" s="119"/>
-      <c r="DB4" s="119"/>
-      <c r="DC4" s="119"/>
-      <c r="DD4" s="119"/>
-      <c r="DE4" s="119"/>
-      <c r="DF4" s="119"/>
-      <c r="DG4" s="119"/>
-      <c r="DH4" s="119"/>
-      <c r="DI4" s="119"/>
-      <c r="DJ4" s="119"/>
-      <c r="DK4" s="119"/>
-      <c r="DL4" s="119"/>
-      <c r="DM4" s="119"/>
-      <c r="DN4" s="119"/>
-      <c r="DO4" s="119"/>
-      <c r="DP4" s="119"/>
-      <c r="DQ4" s="119"/>
-      <c r="DR4" s="119"/>
-      <c r="DS4" s="119"/>
-      <c r="DT4" s="119"/>
-      <c r="DU4" s="119"/>
-      <c r="DV4" s="119"/>
-      <c r="DW4" s="119"/>
-      <c r="DX4" s="119"/>
-      <c r="DY4" s="119"/>
-      <c r="DZ4" s="119"/>
-      <c r="EA4" s="119"/>
-      <c r="EB4" s="119"/>
-      <c r="EC4" s="119"/>
-      <c r="ED4" s="119"/>
-      <c r="EE4" s="119" t="s">
+      <c r="CW4" s="136"/>
+      <c r="CX4" s="136"/>
+      <c r="CY4" s="136"/>
+      <c r="CZ4" s="136"/>
+      <c r="DA4" s="136"/>
+      <c r="DB4" s="136"/>
+      <c r="DC4" s="136"/>
+      <c r="DD4" s="136"/>
+      <c r="DE4" s="136"/>
+      <c r="DF4" s="136"/>
+      <c r="DG4" s="136"/>
+      <c r="DH4" s="136"/>
+      <c r="DI4" s="136"/>
+      <c r="DJ4" s="136"/>
+      <c r="DK4" s="136"/>
+      <c r="DL4" s="136"/>
+      <c r="DM4" s="136"/>
+      <c r="DN4" s="136"/>
+      <c r="DO4" s="136"/>
+      <c r="DP4" s="136"/>
+      <c r="DQ4" s="136"/>
+      <c r="DR4" s="136"/>
+      <c r="DS4" s="136"/>
+      <c r="DT4" s="136"/>
+      <c r="DU4" s="136"/>
+      <c r="DV4" s="136"/>
+      <c r="DW4" s="136"/>
+      <c r="DX4" s="136"/>
+      <c r="DY4" s="136"/>
+      <c r="DZ4" s="136"/>
+      <c r="EA4" s="136"/>
+      <c r="EB4" s="136"/>
+      <c r="EC4" s="136"/>
+      <c r="ED4" s="136"/>
+      <c r="EE4" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="EF4" s="119"/>
-      <c r="EG4" s="119"/>
-      <c r="EH4" s="119"/>
-      <c r="EI4" s="119"/>
-      <c r="EJ4" s="119"/>
-      <c r="EK4" s="119"/>
-      <c r="EL4" s="119"/>
-      <c r="EM4" s="119"/>
-      <c r="EN4" s="119"/>
-      <c r="EO4" s="119"/>
-      <c r="EP4" s="119"/>
-      <c r="EQ4" s="119"/>
-      <c r="ER4" s="119"/>
-      <c r="ES4" s="119"/>
-      <c r="ET4" s="119"/>
-      <c r="EU4" s="119"/>
-      <c r="EV4" s="119"/>
-      <c r="EW4" s="119"/>
-      <c r="EX4" s="119"/>
-      <c r="EY4" s="119"/>
-      <c r="EZ4" s="119"/>
-      <c r="FA4" s="119"/>
-      <c r="FB4" s="119"/>
-      <c r="FC4" s="119"/>
-      <c r="FD4" s="119"/>
-      <c r="FE4" s="119"/>
-      <c r="FF4" s="119"/>
-      <c r="FG4" s="119"/>
-      <c r="FH4" s="119"/>
-      <c r="FI4" s="119"/>
-      <c r="FJ4" s="119"/>
-      <c r="FK4" s="119"/>
-      <c r="FL4" s="119"/>
-      <c r="FM4" s="119" t="s">
+      <c r="EF4" s="136"/>
+      <c r="EG4" s="136"/>
+      <c r="EH4" s="136"/>
+      <c r="EI4" s="136"/>
+      <c r="EJ4" s="136"/>
+      <c r="EK4" s="136"/>
+      <c r="EL4" s="136"/>
+      <c r="EM4" s="136"/>
+      <c r="EN4" s="136"/>
+      <c r="EO4" s="136"/>
+      <c r="EP4" s="136"/>
+      <c r="EQ4" s="136"/>
+      <c r="ER4" s="136"/>
+      <c r="ES4" s="136"/>
+      <c r="ET4" s="136"/>
+      <c r="EU4" s="136"/>
+      <c r="EV4" s="136"/>
+      <c r="EW4" s="136"/>
+      <c r="EX4" s="136"/>
+      <c r="EY4" s="136"/>
+      <c r="EZ4" s="136"/>
+      <c r="FA4" s="136"/>
+      <c r="FB4" s="136"/>
+      <c r="FC4" s="136"/>
+      <c r="FD4" s="136"/>
+      <c r="FE4" s="136"/>
+      <c r="FF4" s="136"/>
+      <c r="FG4" s="136"/>
+      <c r="FH4" s="136"/>
+      <c r="FI4" s="136"/>
+      <c r="FJ4" s="136"/>
+      <c r="FK4" s="136"/>
+      <c r="FL4" s="136"/>
+      <c r="FM4" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="FN4" s="119"/>
-      <c r="FO4" s="119"/>
-      <c r="FP4" s="119"/>
-      <c r="FQ4" s="119"/>
-      <c r="FR4" s="119"/>
-      <c r="FS4" s="119"/>
-      <c r="FT4" s="119"/>
-      <c r="FU4" s="119"/>
-      <c r="FV4" s="119"/>
-      <c r="FW4" s="119"/>
-      <c r="FX4" s="119"/>
-      <c r="FY4" s="119"/>
-      <c r="FZ4" s="119"/>
-      <c r="GA4" s="119"/>
-      <c r="GB4" s="119"/>
-      <c r="GC4" s="120"/>
+      <c r="FN4" s="136"/>
+      <c r="FO4" s="136"/>
+      <c r="FP4" s="136"/>
+      <c r="FQ4" s="136"/>
+      <c r="FR4" s="136"/>
+      <c r="FS4" s="136"/>
+      <c r="FT4" s="136"/>
+      <c r="FU4" s="136"/>
+      <c r="FV4" s="136"/>
+      <c r="FW4" s="136"/>
+      <c r="FX4" s="136"/>
+      <c r="FY4" s="136"/>
+      <c r="FZ4" s="136"/>
+      <c r="GA4" s="136"/>
+      <c r="GB4" s="136"/>
+      <c r="GC4" s="137"/>
     </row>
     <row r="5" spans="1:185" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="123">
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="133">
         <v>2016</v>
       </c>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="124"/>
-      <c r="X5" s="124"/>
-      <c r="Y5" s="124"/>
-      <c r="Z5" s="124"/>
-      <c r="AA5" s="124"/>
-      <c r="AB5" s="124"/>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="124"/>
-      <c r="AE5" s="124"/>
-      <c r="AF5" s="124"/>
-      <c r="AG5" s="124"/>
-      <c r="AH5" s="124"/>
-      <c r="AI5" s="124"/>
-      <c r="AJ5" s="124"/>
-      <c r="AK5" s="124"/>
-      <c r="AL5" s="124"/>
-      <c r="AM5" s="124"/>
-      <c r="AN5" s="124"/>
-      <c r="AO5" s="124"/>
-      <c r="AP5" s="124"/>
-      <c r="AQ5" s="124"/>
-      <c r="AR5" s="124"/>
-      <c r="AS5" s="124"/>
-      <c r="AT5" s="124"/>
-      <c r="AU5" s="124"/>
-      <c r="AV5" s="124"/>
-      <c r="AW5" s="124"/>
-      <c r="AX5" s="124"/>
-      <c r="AY5" s="124"/>
-      <c r="AZ5" s="124"/>
-      <c r="BA5" s="124"/>
-      <c r="BB5" s="124"/>
-      <c r="BC5" s="124"/>
-      <c r="BD5" s="124"/>
-      <c r="BE5" s="124"/>
-      <c r="BF5" s="124"/>
-      <c r="BG5" s="124"/>
-      <c r="BH5" s="124"/>
-      <c r="BI5" s="124"/>
-      <c r="BJ5" s="124"/>
-      <c r="BK5" s="124"/>
-      <c r="BL5" s="124"/>
-      <c r="BM5" s="124"/>
-      <c r="BN5" s="124"/>
-      <c r="BO5" s="124"/>
-      <c r="BP5" s="124"/>
-      <c r="BQ5" s="124"/>
-      <c r="BR5" s="124"/>
-      <c r="BS5" s="124"/>
-      <c r="BT5" s="124"/>
-      <c r="BU5" s="124"/>
-      <c r="BV5" s="124"/>
-      <c r="BW5" s="124"/>
-      <c r="BX5" s="124"/>
-      <c r="BY5" s="124"/>
-      <c r="BZ5" s="124"/>
-      <c r="CA5" s="124"/>
-      <c r="CB5" s="124"/>
-      <c r="CC5" s="124"/>
-      <c r="CD5" s="124"/>
-      <c r="CE5" s="124"/>
-      <c r="CF5" s="124"/>
-      <c r="CG5" s="124"/>
-      <c r="CH5" s="124"/>
-      <c r="CI5" s="124"/>
-      <c r="CJ5" s="124"/>
-      <c r="CK5" s="124"/>
-      <c r="CL5" s="124"/>
-      <c r="CM5" s="124"/>
-      <c r="CN5" s="124"/>
-      <c r="CO5" s="124"/>
-      <c r="CP5" s="124"/>
-      <c r="CQ5" s="124"/>
-      <c r="CR5" s="124"/>
-      <c r="CS5" s="124"/>
-      <c r="CT5" s="124"/>
-      <c r="CU5" s="124"/>
-      <c r="CV5" s="124"/>
-      <c r="CW5" s="124"/>
-      <c r="CX5" s="124"/>
-      <c r="CY5" s="124"/>
-      <c r="CZ5" s="124"/>
-      <c r="DA5" s="124"/>
-      <c r="DB5" s="124"/>
-      <c r="DC5" s="124"/>
-      <c r="DD5" s="124"/>
-      <c r="DE5" s="124"/>
-      <c r="DF5" s="124">
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="111"/>
+      <c r="AA5" s="111"/>
+      <c r="AB5" s="111"/>
+      <c r="AC5" s="111"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="111"/>
+      <c r="AG5" s="111"/>
+      <c r="AH5" s="111"/>
+      <c r="AI5" s="111"/>
+      <c r="AJ5" s="111"/>
+      <c r="AK5" s="111"/>
+      <c r="AL5" s="111"/>
+      <c r="AM5" s="111"/>
+      <c r="AN5" s="111"/>
+      <c r="AO5" s="111"/>
+      <c r="AP5" s="111"/>
+      <c r="AQ5" s="111"/>
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="111"/>
+      <c r="AT5" s="111"/>
+      <c r="AU5" s="111"/>
+      <c r="AV5" s="111"/>
+      <c r="AW5" s="111"/>
+      <c r="AX5" s="111"/>
+      <c r="AY5" s="111"/>
+      <c r="AZ5" s="111"/>
+      <c r="BA5" s="111"/>
+      <c r="BB5" s="111"/>
+      <c r="BC5" s="111"/>
+      <c r="BD5" s="111"/>
+      <c r="BE5" s="111"/>
+      <c r="BF5" s="111"/>
+      <c r="BG5" s="111"/>
+      <c r="BH5" s="111"/>
+      <c r="BI5" s="111"/>
+      <c r="BJ5" s="111"/>
+      <c r="BK5" s="111"/>
+      <c r="BL5" s="111"/>
+      <c r="BM5" s="111"/>
+      <c r="BN5" s="111"/>
+      <c r="BO5" s="111"/>
+      <c r="BP5" s="111"/>
+      <c r="BQ5" s="111"/>
+      <c r="BR5" s="111"/>
+      <c r="BS5" s="111"/>
+      <c r="BT5" s="111"/>
+      <c r="BU5" s="111"/>
+      <c r="BV5" s="111"/>
+      <c r="BW5" s="111"/>
+      <c r="BX5" s="111"/>
+      <c r="BY5" s="111"/>
+      <c r="BZ5" s="111"/>
+      <c r="CA5" s="111"/>
+      <c r="CB5" s="111"/>
+      <c r="CC5" s="111"/>
+      <c r="CD5" s="111"/>
+      <c r="CE5" s="111"/>
+      <c r="CF5" s="111"/>
+      <c r="CG5" s="111"/>
+      <c r="CH5" s="111"/>
+      <c r="CI5" s="111"/>
+      <c r="CJ5" s="111"/>
+      <c r="CK5" s="111"/>
+      <c r="CL5" s="111"/>
+      <c r="CM5" s="111"/>
+      <c r="CN5" s="111"/>
+      <c r="CO5" s="111"/>
+      <c r="CP5" s="111"/>
+      <c r="CQ5" s="111"/>
+      <c r="CR5" s="111"/>
+      <c r="CS5" s="111"/>
+      <c r="CT5" s="111"/>
+      <c r="CU5" s="111"/>
+      <c r="CV5" s="111"/>
+      <c r="CW5" s="111"/>
+      <c r="CX5" s="111"/>
+      <c r="CY5" s="111"/>
+      <c r="CZ5" s="111"/>
+      <c r="DA5" s="111"/>
+      <c r="DB5" s="111"/>
+      <c r="DC5" s="111"/>
+      <c r="DD5" s="111"/>
+      <c r="DE5" s="111"/>
+      <c r="DF5" s="111">
         <v>2017</v>
       </c>
-      <c r="DG5" s="124"/>
-      <c r="DH5" s="124"/>
-      <c r="DI5" s="124"/>
-      <c r="DJ5" s="124"/>
-      <c r="DK5" s="124"/>
-      <c r="DL5" s="124"/>
-      <c r="DM5" s="124"/>
-      <c r="DN5" s="124"/>
-      <c r="DO5" s="124"/>
-      <c r="DP5" s="124"/>
-      <c r="DQ5" s="124"/>
-      <c r="DR5" s="124"/>
-      <c r="DS5" s="124"/>
-      <c r="DT5" s="124"/>
-      <c r="DU5" s="124"/>
-      <c r="DV5" s="124"/>
-      <c r="DW5" s="124"/>
-      <c r="DX5" s="124"/>
-      <c r="DY5" s="124"/>
-      <c r="DZ5" s="124"/>
-      <c r="EA5" s="124"/>
-      <c r="EB5" s="124"/>
-      <c r="EC5" s="124"/>
-      <c r="ED5" s="124"/>
-      <c r="EE5" s="124"/>
-      <c r="EF5" s="124"/>
-      <c r="EG5" s="124"/>
-      <c r="EH5" s="124"/>
-      <c r="EI5" s="124"/>
-      <c r="EJ5" s="124"/>
-      <c r="EK5" s="124"/>
-      <c r="EL5" s="124"/>
-      <c r="EM5" s="124"/>
-      <c r="EN5" s="124"/>
-      <c r="EO5" s="124"/>
-      <c r="EP5" s="124"/>
-      <c r="EQ5" s="124"/>
-      <c r="ER5" s="124"/>
-      <c r="ES5" s="124"/>
-      <c r="ET5" s="124"/>
-      <c r="EU5" s="124"/>
-      <c r="EV5" s="124"/>
-      <c r="EW5" s="124"/>
-      <c r="EX5" s="124"/>
-      <c r="EY5" s="124"/>
-      <c r="EZ5" s="124"/>
-      <c r="FA5" s="124"/>
-      <c r="FB5" s="124"/>
-      <c r="FC5" s="124"/>
-      <c r="FD5" s="124"/>
-      <c r="FE5" s="124"/>
-      <c r="FF5" s="124"/>
-      <c r="FG5" s="124"/>
-      <c r="FH5" s="124"/>
-      <c r="FI5" s="124"/>
-      <c r="FJ5" s="124"/>
-      <c r="FK5" s="124"/>
-      <c r="FL5" s="124"/>
-      <c r="FM5" s="124"/>
-      <c r="FN5" s="124"/>
-      <c r="FO5" s="124"/>
-      <c r="FP5" s="124"/>
-      <c r="FQ5" s="124"/>
-      <c r="FR5" s="124"/>
-      <c r="FS5" s="124"/>
-      <c r="FT5" s="124"/>
-      <c r="FU5" s="124"/>
-      <c r="FV5" s="124"/>
-      <c r="FW5" s="124"/>
-      <c r="FX5" s="124"/>
-      <c r="FY5" s="124"/>
-      <c r="FZ5" s="124"/>
-      <c r="GA5" s="124"/>
-      <c r="GB5" s="124"/>
-      <c r="GC5" s="146"/>
+      <c r="DG5" s="111"/>
+      <c r="DH5" s="111"/>
+      <c r="DI5" s="111"/>
+      <c r="DJ5" s="111"/>
+      <c r="DK5" s="111"/>
+      <c r="DL5" s="111"/>
+      <c r="DM5" s="111"/>
+      <c r="DN5" s="111"/>
+      <c r="DO5" s="111"/>
+      <c r="DP5" s="111"/>
+      <c r="DQ5" s="111"/>
+      <c r="DR5" s="111"/>
+      <c r="DS5" s="111"/>
+      <c r="DT5" s="111"/>
+      <c r="DU5" s="111"/>
+      <c r="DV5" s="111"/>
+      <c r="DW5" s="111"/>
+      <c r="DX5" s="111"/>
+      <c r="DY5" s="111"/>
+      <c r="DZ5" s="111"/>
+      <c r="EA5" s="111"/>
+      <c r="EB5" s="111"/>
+      <c r="EC5" s="111"/>
+      <c r="ED5" s="111"/>
+      <c r="EE5" s="111"/>
+      <c r="EF5" s="111"/>
+      <c r="EG5" s="111"/>
+      <c r="EH5" s="111"/>
+      <c r="EI5" s="111"/>
+      <c r="EJ5" s="111"/>
+      <c r="EK5" s="111"/>
+      <c r="EL5" s="111"/>
+      <c r="EM5" s="111"/>
+      <c r="EN5" s="111"/>
+      <c r="EO5" s="111"/>
+      <c r="EP5" s="111"/>
+      <c r="EQ5" s="111"/>
+      <c r="ER5" s="111"/>
+      <c r="ES5" s="111"/>
+      <c r="ET5" s="111"/>
+      <c r="EU5" s="111"/>
+      <c r="EV5" s="111"/>
+      <c r="EW5" s="111"/>
+      <c r="EX5" s="111"/>
+      <c r="EY5" s="111"/>
+      <c r="EZ5" s="111"/>
+      <c r="FA5" s="111"/>
+      <c r="FB5" s="111"/>
+      <c r="FC5" s="111"/>
+      <c r="FD5" s="111"/>
+      <c r="FE5" s="111"/>
+      <c r="FF5" s="111"/>
+      <c r="FG5" s="111"/>
+      <c r="FH5" s="111"/>
+      <c r="FI5" s="111"/>
+      <c r="FJ5" s="111"/>
+      <c r="FK5" s="111"/>
+      <c r="FL5" s="111"/>
+      <c r="FM5" s="111"/>
+      <c r="FN5" s="111"/>
+      <c r="FO5" s="111"/>
+      <c r="FP5" s="111"/>
+      <c r="FQ5" s="111"/>
+      <c r="FR5" s="111"/>
+      <c r="FS5" s="111"/>
+      <c r="FT5" s="111"/>
+      <c r="FU5" s="111"/>
+      <c r="FV5" s="111"/>
+      <c r="FW5" s="111"/>
+      <c r="FX5" s="111"/>
+      <c r="FY5" s="111"/>
+      <c r="FZ5" s="111"/>
+      <c r="GA5" s="111"/>
+      <c r="GB5" s="111"/>
+      <c r="GC5" s="112"/>
     </row>
     <row r="6" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="121" t="s">
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="122" t="s">
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="122"/>
-      <c r="AJ6" s="122"/>
-      <c r="AK6" s="122"/>
-      <c r="AL6" s="122"/>
-      <c r="AM6" s="122"/>
-      <c r="AN6" s="122"/>
-      <c r="AO6" s="122"/>
-      <c r="AP6" s="122"/>
-      <c r="AQ6" s="122"/>
-      <c r="AR6" s="122"/>
-      <c r="AS6" s="122"/>
-      <c r="AT6" s="122"/>
-      <c r="AU6" s="122"/>
-      <c r="AV6" s="122"/>
-      <c r="AW6" s="122" t="s">
+      <c r="S6" s="109"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="109"/>
+      <c r="AA6" s="109"/>
+      <c r="AB6" s="109"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="109"/>
+      <c r="AE6" s="109"/>
+      <c r="AF6" s="109"/>
+      <c r="AG6" s="109"/>
+      <c r="AH6" s="109"/>
+      <c r="AI6" s="109"/>
+      <c r="AJ6" s="109"/>
+      <c r="AK6" s="109"/>
+      <c r="AL6" s="109"/>
+      <c r="AM6" s="109"/>
+      <c r="AN6" s="109"/>
+      <c r="AO6" s="109"/>
+      <c r="AP6" s="109"/>
+      <c r="AQ6" s="109"/>
+      <c r="AR6" s="109"/>
+      <c r="AS6" s="109"/>
+      <c r="AT6" s="109"/>
+      <c r="AU6" s="109"/>
+      <c r="AV6" s="109"/>
+      <c r="AW6" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="AX6" s="122"/>
-      <c r="AY6" s="122"/>
-      <c r="AZ6" s="122"/>
-      <c r="BA6" s="122"/>
-      <c r="BB6" s="122"/>
-      <c r="BC6" s="122"/>
-      <c r="BD6" s="122"/>
-      <c r="BE6" s="122"/>
-      <c r="BF6" s="122"/>
-      <c r="BG6" s="122"/>
-      <c r="BH6" s="122"/>
-      <c r="BI6" s="122"/>
-      <c r="BJ6" s="122"/>
-      <c r="BK6" s="122"/>
-      <c r="BL6" s="122"/>
-      <c r="BM6" s="122"/>
-      <c r="BN6" s="122"/>
-      <c r="BO6" s="122"/>
-      <c r="BP6" s="122"/>
-      <c r="BQ6" s="122"/>
-      <c r="BR6" s="122"/>
-      <c r="BS6" s="122"/>
-      <c r="BT6" s="122"/>
-      <c r="BU6" s="122"/>
-      <c r="BV6" s="122"/>
-      <c r="BW6" s="122"/>
-      <c r="BX6" s="122"/>
-      <c r="BY6" s="122"/>
-      <c r="BZ6" s="122"/>
-      <c r="CA6" s="122" t="s">
+      <c r="AX6" s="109"/>
+      <c r="AY6" s="109"/>
+      <c r="AZ6" s="109"/>
+      <c r="BA6" s="109"/>
+      <c r="BB6" s="109"/>
+      <c r="BC6" s="109"/>
+      <c r="BD6" s="109"/>
+      <c r="BE6" s="109"/>
+      <c r="BF6" s="109"/>
+      <c r="BG6" s="109"/>
+      <c r="BH6" s="109"/>
+      <c r="BI6" s="109"/>
+      <c r="BJ6" s="109"/>
+      <c r="BK6" s="109"/>
+      <c r="BL6" s="109"/>
+      <c r="BM6" s="109"/>
+      <c r="BN6" s="109"/>
+      <c r="BO6" s="109"/>
+      <c r="BP6" s="109"/>
+      <c r="BQ6" s="109"/>
+      <c r="BR6" s="109"/>
+      <c r="BS6" s="109"/>
+      <c r="BT6" s="109"/>
+      <c r="BU6" s="109"/>
+      <c r="BV6" s="109"/>
+      <c r="BW6" s="109"/>
+      <c r="BX6" s="109"/>
+      <c r="BY6" s="109"/>
+      <c r="BZ6" s="109"/>
+      <c r="CA6" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="CB6" s="122"/>
-      <c r="CC6" s="122"/>
-      <c r="CD6" s="122"/>
-      <c r="CE6" s="122"/>
-      <c r="CF6" s="122"/>
-      <c r="CG6" s="122"/>
-      <c r="CH6" s="122"/>
-      <c r="CI6" s="122"/>
-      <c r="CJ6" s="122"/>
-      <c r="CK6" s="122"/>
-      <c r="CL6" s="122"/>
-      <c r="CM6" s="122"/>
-      <c r="CN6" s="122"/>
-      <c r="CO6" s="122"/>
-      <c r="CP6" s="122"/>
-      <c r="CQ6" s="122"/>
-      <c r="CR6" s="122"/>
-      <c r="CS6" s="122"/>
-      <c r="CT6" s="122"/>
-      <c r="CU6" s="122"/>
-      <c r="CV6" s="122"/>
-      <c r="CW6" s="122"/>
-      <c r="CX6" s="122"/>
-      <c r="CY6" s="122"/>
-      <c r="CZ6" s="122"/>
-      <c r="DA6" s="122"/>
-      <c r="DB6" s="122"/>
-      <c r="DC6" s="122"/>
-      <c r="DD6" s="122"/>
-      <c r="DE6" s="122"/>
-      <c r="DF6" s="122" t="s">
+      <c r="CB6" s="109"/>
+      <c r="CC6" s="109"/>
+      <c r="CD6" s="109"/>
+      <c r="CE6" s="109"/>
+      <c r="CF6" s="109"/>
+      <c r="CG6" s="109"/>
+      <c r="CH6" s="109"/>
+      <c r="CI6" s="109"/>
+      <c r="CJ6" s="109"/>
+      <c r="CK6" s="109"/>
+      <c r="CL6" s="109"/>
+      <c r="CM6" s="109"/>
+      <c r="CN6" s="109"/>
+      <c r="CO6" s="109"/>
+      <c r="CP6" s="109"/>
+      <c r="CQ6" s="109"/>
+      <c r="CR6" s="109"/>
+      <c r="CS6" s="109"/>
+      <c r="CT6" s="109"/>
+      <c r="CU6" s="109"/>
+      <c r="CV6" s="109"/>
+      <c r="CW6" s="109"/>
+      <c r="CX6" s="109"/>
+      <c r="CY6" s="109"/>
+      <c r="CZ6" s="109"/>
+      <c r="DA6" s="109"/>
+      <c r="DB6" s="109"/>
+      <c r="DC6" s="109"/>
+      <c r="DD6" s="109"/>
+      <c r="DE6" s="109"/>
+      <c r="DF6" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="DG6" s="122"/>
-      <c r="DH6" s="122"/>
-      <c r="DI6" s="122"/>
-      <c r="DJ6" s="122"/>
-      <c r="DK6" s="122"/>
-      <c r="DL6" s="122"/>
-      <c r="DM6" s="122"/>
-      <c r="DN6" s="122"/>
-      <c r="DO6" s="122"/>
-      <c r="DP6" s="122"/>
-      <c r="DQ6" s="122"/>
-      <c r="DR6" s="122"/>
-      <c r="DS6" s="122"/>
-      <c r="DT6" s="122"/>
-      <c r="DU6" s="122"/>
-      <c r="DV6" s="122"/>
-      <c r="DW6" s="122"/>
-      <c r="DX6" s="122"/>
-      <c r="DY6" s="122"/>
-      <c r="DZ6" s="122"/>
-      <c r="EA6" s="122"/>
-      <c r="EB6" s="122"/>
-      <c r="EC6" s="122"/>
-      <c r="ED6" s="122"/>
-      <c r="EE6" s="122"/>
-      <c r="EF6" s="122"/>
-      <c r="EG6" s="122"/>
-      <c r="EH6" s="122"/>
-      <c r="EI6" s="122"/>
-      <c r="EJ6" s="122"/>
-      <c r="EK6" s="122" t="s">
+      <c r="DG6" s="109"/>
+      <c r="DH6" s="109"/>
+      <c r="DI6" s="109"/>
+      <c r="DJ6" s="109"/>
+      <c r="DK6" s="109"/>
+      <c r="DL6" s="109"/>
+      <c r="DM6" s="109"/>
+      <c r="DN6" s="109"/>
+      <c r="DO6" s="109"/>
+      <c r="DP6" s="109"/>
+      <c r="DQ6" s="109"/>
+      <c r="DR6" s="109"/>
+      <c r="DS6" s="109"/>
+      <c r="DT6" s="109"/>
+      <c r="DU6" s="109"/>
+      <c r="DV6" s="109"/>
+      <c r="DW6" s="109"/>
+      <c r="DX6" s="109"/>
+      <c r="DY6" s="109"/>
+      <c r="DZ6" s="109"/>
+      <c r="EA6" s="109"/>
+      <c r="EB6" s="109"/>
+      <c r="EC6" s="109"/>
+      <c r="ED6" s="109"/>
+      <c r="EE6" s="109"/>
+      <c r="EF6" s="109"/>
+      <c r="EG6" s="109"/>
+      <c r="EH6" s="109"/>
+      <c r="EI6" s="109"/>
+      <c r="EJ6" s="109"/>
+      <c r="EK6" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="EL6" s="122"/>
-      <c r="EM6" s="122"/>
-      <c r="EN6" s="122"/>
-      <c r="EO6" s="122"/>
-      <c r="EP6" s="122"/>
-      <c r="EQ6" s="122"/>
-      <c r="ER6" s="122"/>
-      <c r="ES6" s="122"/>
-      <c r="ET6" s="122"/>
-      <c r="EU6" s="122"/>
-      <c r="EV6" s="122"/>
-      <c r="EW6" s="122"/>
-      <c r="EX6" s="122"/>
-      <c r="EY6" s="122"/>
-      <c r="EZ6" s="122"/>
-      <c r="FA6" s="122"/>
-      <c r="FB6" s="122"/>
-      <c r="FC6" s="122"/>
-      <c r="FD6" s="122"/>
-      <c r="FE6" s="122"/>
-      <c r="FF6" s="122"/>
-      <c r="FG6" s="122"/>
-      <c r="FH6" s="122"/>
-      <c r="FI6" s="122"/>
-      <c r="FJ6" s="122"/>
-      <c r="FK6" s="122"/>
-      <c r="FL6" s="122"/>
-      <c r="FM6" s="122" t="s">
+      <c r="EL6" s="109"/>
+      <c r="EM6" s="109"/>
+      <c r="EN6" s="109"/>
+      <c r="EO6" s="109"/>
+      <c r="EP6" s="109"/>
+      <c r="EQ6" s="109"/>
+      <c r="ER6" s="109"/>
+      <c r="ES6" s="109"/>
+      <c r="ET6" s="109"/>
+      <c r="EU6" s="109"/>
+      <c r="EV6" s="109"/>
+      <c r="EW6" s="109"/>
+      <c r="EX6" s="109"/>
+      <c r="EY6" s="109"/>
+      <c r="EZ6" s="109"/>
+      <c r="FA6" s="109"/>
+      <c r="FB6" s="109"/>
+      <c r="FC6" s="109"/>
+      <c r="FD6" s="109"/>
+      <c r="FE6" s="109"/>
+      <c r="FF6" s="109"/>
+      <c r="FG6" s="109"/>
+      <c r="FH6" s="109"/>
+      <c r="FI6" s="109"/>
+      <c r="FJ6" s="109"/>
+      <c r="FK6" s="109"/>
+      <c r="FL6" s="109"/>
+      <c r="FM6" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="FN6" s="122"/>
-      <c r="FO6" s="122"/>
-      <c r="FP6" s="122"/>
-      <c r="FQ6" s="122"/>
-      <c r="FR6" s="122"/>
-      <c r="FS6" s="122"/>
-      <c r="FT6" s="122"/>
-      <c r="FU6" s="122"/>
-      <c r="FV6" s="122"/>
-      <c r="FW6" s="122"/>
-      <c r="FX6" s="122"/>
-      <c r="FY6" s="122"/>
-      <c r="FZ6" s="122"/>
-      <c r="GA6" s="122"/>
-      <c r="GB6" s="122"/>
-      <c r="GC6" s="145"/>
+      <c r="FN6" s="109"/>
+      <c r="FO6" s="109"/>
+      <c r="FP6" s="109"/>
+      <c r="FQ6" s="109"/>
+      <c r="FR6" s="109"/>
+      <c r="FS6" s="109"/>
+      <c r="FT6" s="109"/>
+      <c r="FU6" s="109"/>
+      <c r="FV6" s="109"/>
+      <c r="FW6" s="109"/>
+      <c r="FX6" s="109"/>
+      <c r="FY6" s="109"/>
+      <c r="FZ6" s="109"/>
+      <c r="GA6" s="109"/>
+      <c r="GB6" s="109"/>
+      <c r="GC6" s="110"/>
     </row>
     <row r="7" spans="1:185" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="123" t="s">
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="128" t="s">
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="128" t="s">
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="128" t="s">
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="124"/>
-      <c r="AG7" s="129"/>
-      <c r="AH7" s="128" t="s">
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="111"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="AI7" s="124"/>
-      <c r="AJ7" s="124"/>
-      <c r="AK7" s="124"/>
-      <c r="AL7" s="124"/>
-      <c r="AM7" s="124"/>
-      <c r="AN7" s="129"/>
-      <c r="AO7" s="128" t="s">
+      <c r="AI7" s="111"/>
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="111"/>
+      <c r="AL7" s="111"/>
+      <c r="AM7" s="111"/>
+      <c r="AN7" s="114"/>
+      <c r="AO7" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="AP7" s="124"/>
-      <c r="AQ7" s="124"/>
-      <c r="AR7" s="124"/>
-      <c r="AS7" s="124"/>
-      <c r="AT7" s="124"/>
-      <c r="AU7" s="129"/>
-      <c r="AV7" s="128" t="s">
+      <c r="AP7" s="111"/>
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="114"/>
+      <c r="AV7" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="AW7" s="124"/>
-      <c r="AX7" s="124"/>
-      <c r="AY7" s="124"/>
-      <c r="AZ7" s="124"/>
-      <c r="BA7" s="124"/>
-      <c r="BB7" s="129"/>
-      <c r="BC7" s="128" t="s">
+      <c r="AW7" s="111"/>
+      <c r="AX7" s="111"/>
+      <c r="AY7" s="111"/>
+      <c r="AZ7" s="111"/>
+      <c r="BA7" s="111"/>
+      <c r="BB7" s="114"/>
+      <c r="BC7" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="BD7" s="124"/>
-      <c r="BE7" s="124"/>
-      <c r="BF7" s="124"/>
-      <c r="BG7" s="124"/>
-      <c r="BH7" s="124"/>
-      <c r="BI7" s="129"/>
-      <c r="BJ7" s="128" t="s">
+      <c r="BD7" s="111"/>
+      <c r="BE7" s="111"/>
+      <c r="BF7" s="111"/>
+      <c r="BG7" s="111"/>
+      <c r="BH7" s="111"/>
+      <c r="BI7" s="114"/>
+      <c r="BJ7" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="BK7" s="124"/>
-      <c r="BL7" s="124"/>
-      <c r="BM7" s="124"/>
-      <c r="BN7" s="124"/>
-      <c r="BO7" s="124"/>
-      <c r="BP7" s="129"/>
-      <c r="BQ7" s="128" t="s">
+      <c r="BK7" s="111"/>
+      <c r="BL7" s="111"/>
+      <c r="BM7" s="111"/>
+      <c r="BN7" s="111"/>
+      <c r="BO7" s="111"/>
+      <c r="BP7" s="114"/>
+      <c r="BQ7" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="BR7" s="124"/>
-      <c r="BS7" s="124"/>
-      <c r="BT7" s="124"/>
-      <c r="BU7" s="124"/>
-      <c r="BV7" s="124"/>
-      <c r="BW7" s="129"/>
-      <c r="BX7" s="128" t="s">
+      <c r="BR7" s="111"/>
+      <c r="BS7" s="111"/>
+      <c r="BT7" s="111"/>
+      <c r="BU7" s="111"/>
+      <c r="BV7" s="111"/>
+      <c r="BW7" s="114"/>
+      <c r="BX7" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="BY7" s="124"/>
-      <c r="BZ7" s="124"/>
-      <c r="CA7" s="124"/>
-      <c r="CB7" s="124"/>
-      <c r="CC7" s="124"/>
-      <c r="CD7" s="129"/>
-      <c r="CE7" s="128" t="s">
+      <c r="BY7" s="111"/>
+      <c r="BZ7" s="111"/>
+      <c r="CA7" s="111"/>
+      <c r="CB7" s="111"/>
+      <c r="CC7" s="111"/>
+      <c r="CD7" s="114"/>
+      <c r="CE7" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="CF7" s="124"/>
-      <c r="CG7" s="124"/>
-      <c r="CH7" s="124"/>
-      <c r="CI7" s="124"/>
-      <c r="CJ7" s="124"/>
-      <c r="CK7" s="129"/>
-      <c r="CL7" s="128" t="s">
+      <c r="CF7" s="111"/>
+      <c r="CG7" s="111"/>
+      <c r="CH7" s="111"/>
+      <c r="CI7" s="111"/>
+      <c r="CJ7" s="111"/>
+      <c r="CK7" s="114"/>
+      <c r="CL7" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="CM7" s="124"/>
-      <c r="CN7" s="124"/>
-      <c r="CO7" s="124"/>
-      <c r="CP7" s="124"/>
-      <c r="CQ7" s="124"/>
-      <c r="CR7" s="129"/>
-      <c r="CS7" s="128" t="s">
+      <c r="CM7" s="111"/>
+      <c r="CN7" s="111"/>
+      <c r="CO7" s="111"/>
+      <c r="CP7" s="111"/>
+      <c r="CQ7" s="111"/>
+      <c r="CR7" s="114"/>
+      <c r="CS7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="CT7" s="124"/>
-      <c r="CU7" s="124"/>
-      <c r="CV7" s="124"/>
-      <c r="CW7" s="124"/>
-      <c r="CX7" s="124"/>
-      <c r="CY7" s="129"/>
-      <c r="CZ7" s="128" t="s">
+      <c r="CT7" s="111"/>
+      <c r="CU7" s="111"/>
+      <c r="CV7" s="111"/>
+      <c r="CW7" s="111"/>
+      <c r="CX7" s="111"/>
+      <c r="CY7" s="114"/>
+      <c r="CZ7" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="DA7" s="124"/>
-      <c r="DB7" s="124"/>
-      <c r="DC7" s="124"/>
-      <c r="DD7" s="124"/>
-      <c r="DE7" s="124"/>
-      <c r="DF7" s="124"/>
-      <c r="DG7" s="128" t="s">
+      <c r="DA7" s="111"/>
+      <c r="DB7" s="111"/>
+      <c r="DC7" s="111"/>
+      <c r="DD7" s="111"/>
+      <c r="DE7" s="111"/>
+      <c r="DF7" s="111"/>
+      <c r="DG7" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="DH7" s="124"/>
-      <c r="DI7" s="124"/>
-      <c r="DJ7" s="124"/>
-      <c r="DK7" s="124"/>
-      <c r="DL7" s="124"/>
-      <c r="DM7" s="129"/>
-      <c r="DN7" s="124" t="s">
+      <c r="DH7" s="111"/>
+      <c r="DI7" s="111"/>
+      <c r="DJ7" s="111"/>
+      <c r="DK7" s="111"/>
+      <c r="DL7" s="111"/>
+      <c r="DM7" s="114"/>
+      <c r="DN7" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="DO7" s="124"/>
-      <c r="DP7" s="124"/>
-      <c r="DQ7" s="124"/>
-      <c r="DR7" s="124"/>
-      <c r="DS7" s="124"/>
-      <c r="DT7" s="124"/>
-      <c r="DU7" s="128" t="s">
+      <c r="DO7" s="111"/>
+      <c r="DP7" s="111"/>
+      <c r="DQ7" s="111"/>
+      <c r="DR7" s="111"/>
+      <c r="DS7" s="111"/>
+      <c r="DT7" s="111"/>
+      <c r="DU7" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="DV7" s="124"/>
-      <c r="DW7" s="124"/>
-      <c r="DX7" s="124"/>
-      <c r="DY7" s="124"/>
-      <c r="DZ7" s="124"/>
-      <c r="EA7" s="129"/>
-      <c r="EB7" s="124" t="s">
+      <c r="DV7" s="111"/>
+      <c r="DW7" s="111"/>
+      <c r="DX7" s="111"/>
+      <c r="DY7" s="111"/>
+      <c r="DZ7" s="111"/>
+      <c r="EA7" s="114"/>
+      <c r="EB7" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="EC7" s="124"/>
-      <c r="ED7" s="124"/>
-      <c r="EE7" s="124"/>
-      <c r="EF7" s="124"/>
-      <c r="EG7" s="124"/>
-      <c r="EH7" s="124"/>
-      <c r="EI7" s="128" t="s">
+      <c r="EC7" s="111"/>
+      <c r="ED7" s="111"/>
+      <c r="EE7" s="111"/>
+      <c r="EF7" s="111"/>
+      <c r="EG7" s="111"/>
+      <c r="EH7" s="111"/>
+      <c r="EI7" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="EJ7" s="124"/>
-      <c r="EK7" s="124"/>
-      <c r="EL7" s="124"/>
-      <c r="EM7" s="124"/>
-      <c r="EN7" s="124"/>
-      <c r="EO7" s="129"/>
-      <c r="EP7" s="124" t="s">
+      <c r="EJ7" s="111"/>
+      <c r="EK7" s="111"/>
+      <c r="EL7" s="111"/>
+      <c r="EM7" s="111"/>
+      <c r="EN7" s="111"/>
+      <c r="EO7" s="114"/>
+      <c r="EP7" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="EQ7" s="124"/>
-      <c r="ER7" s="124"/>
-      <c r="ES7" s="124"/>
-      <c r="ET7" s="124"/>
-      <c r="EU7" s="124"/>
-      <c r="EV7" s="124"/>
-      <c r="EW7" s="128" t="s">
+      <c r="EQ7" s="111"/>
+      <c r="ER7" s="111"/>
+      <c r="ES7" s="111"/>
+      <c r="ET7" s="111"/>
+      <c r="EU7" s="111"/>
+      <c r="EV7" s="111"/>
+      <c r="EW7" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="EX7" s="124"/>
-      <c r="EY7" s="124"/>
-      <c r="EZ7" s="124"/>
-      <c r="FA7" s="124"/>
-      <c r="FB7" s="124"/>
-      <c r="FC7" s="129"/>
-      <c r="FD7" s="124" t="s">
+      <c r="EX7" s="111"/>
+      <c r="EY7" s="111"/>
+      <c r="EZ7" s="111"/>
+      <c r="FA7" s="111"/>
+      <c r="FB7" s="111"/>
+      <c r="FC7" s="114"/>
+      <c r="FD7" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="FE7" s="124"/>
-      <c r="FF7" s="124"/>
-      <c r="FG7" s="124"/>
-      <c r="FH7" s="124"/>
-      <c r="FI7" s="124"/>
-      <c r="FJ7" s="124"/>
-      <c r="FK7" s="128" t="s">
+      <c r="FE7" s="111"/>
+      <c r="FF7" s="111"/>
+      <c r="FG7" s="111"/>
+      <c r="FH7" s="111"/>
+      <c r="FI7" s="111"/>
+      <c r="FJ7" s="111"/>
+      <c r="FK7" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="FL7" s="124"/>
-      <c r="FM7" s="124"/>
-      <c r="FN7" s="124"/>
-      <c r="FO7" s="124"/>
-      <c r="FP7" s="124"/>
-      <c r="FQ7" s="129"/>
-      <c r="FR7" s="124" t="s">
+      <c r="FL7" s="111"/>
+      <c r="FM7" s="111"/>
+      <c r="FN7" s="111"/>
+      <c r="FO7" s="111"/>
+      <c r="FP7" s="111"/>
+      <c r="FQ7" s="114"/>
+      <c r="FR7" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="FS7" s="124"/>
-      <c r="FT7" s="124"/>
-      <c r="FU7" s="124"/>
-      <c r="FV7" s="124"/>
-      <c r="FW7" s="124"/>
-      <c r="FX7" s="124"/>
-      <c r="FY7" s="128" t="s">
+      <c r="FS7" s="111"/>
+      <c r="FT7" s="111"/>
+      <c r="FU7" s="111"/>
+      <c r="FV7" s="111"/>
+      <c r="FW7" s="111"/>
+      <c r="FX7" s="111"/>
+      <c r="FY7" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="FZ7" s="124"/>
-      <c r="GA7" s="124"/>
-      <c r="GB7" s="124"/>
-      <c r="GC7" s="146"/>
+      <c r="FZ7" s="111"/>
+      <c r="GA7" s="111"/>
+      <c r="GB7" s="111"/>
+      <c r="GC7" s="112"/>
     </row>
     <row r="8" spans="1:185" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="127"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
       <c r="F8" s="25">
         <v>19</v>
       </c>
@@ -15491,15 +15491,12 @@
       <c r="GB67" s="11"/>
       <c r="GC67" s="24"/>
     </row>
-    <row r="68" spans="1:185" x14ac:dyDescent="0.2">
-      <c r="A68" s="33"/>
-      <c r="B68" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="47">
-        <v>42720</v>
-      </c>
-      <c r="D68" s="7"/>
+    <row r="68" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="32"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="42"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
@@ -15594,7 +15591,7 @@
       <c r="CS68" s="23"/>
       <c r="CT68" s="11"/>
       <c r="CU68" s="11"/>
-      <c r="CV68" s="90"/>
+      <c r="CV68" s="67"/>
       <c r="CW68" s="11"/>
       <c r="CX68" s="11"/>
       <c r="CY68" s="22"/>
@@ -15684,10 +15681,10 @@
     <row r="69" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="47">
-        <v>42776</v>
+        <v>42720</v>
       </c>
       <c r="D69" s="7"/>
       <c r="F69" s="11"/>
@@ -15778,13 +15775,13 @@
       <c r="CM69" s="11"/>
       <c r="CN69" s="11"/>
       <c r="CO69" s="11"/>
-      <c r="CP69" s="11"/>
+      <c r="CP69" s="51"/>
       <c r="CQ69" s="11"/>
       <c r="CR69" s="11"/>
       <c r="CS69" s="23"/>
       <c r="CT69" s="11"/>
       <c r="CU69" s="11"/>
-      <c r="CV69" s="90"/>
+      <c r="CV69" s="67"/>
       <c r="CW69" s="11"/>
       <c r="CX69" s="11"/>
       <c r="CY69" s="22"/>
@@ -15871,11 +15868,12 @@
       <c r="GB69" s="11"/>
       <c r="GC69" s="24"/>
     </row>
-    <row r="70" spans="1:185" x14ac:dyDescent="0.2">
-      <c r="A70" s="33"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
+    <row r="70" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="32"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="42"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -16060,9 +16058,11 @@
     <row r="71" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="C71" s="47">
+        <v>42776</v>
+      </c>
       <c r="D71" s="7"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
@@ -16162,20 +16162,20 @@
       <c r="CW71" s="11"/>
       <c r="CX71" s="11"/>
       <c r="CY71" s="22"/>
-      <c r="CZ71" s="51"/>
-      <c r="DA71" s="51"/>
-      <c r="DB71" s="51"/>
-      <c r="DC71" s="51"/>
-      <c r="DD71" s="51"/>
-      <c r="DE71" s="51"/>
-      <c r="DF71" s="51"/>
-      <c r="DG71" s="63"/>
-      <c r="DH71" s="51"/>
-      <c r="DI71" s="51"/>
-      <c r="DJ71" s="51"/>
-      <c r="DK71" s="51"/>
-      <c r="DL71" s="51"/>
-      <c r="DM71" s="64"/>
+      <c r="CZ71" s="11"/>
+      <c r="DA71" s="11"/>
+      <c r="DB71" s="11"/>
+      <c r="DC71" s="11"/>
+      <c r="DD71" s="11"/>
+      <c r="DE71" s="11"/>
+      <c r="DF71" s="11"/>
+      <c r="DG71" s="23"/>
+      <c r="DH71" s="11"/>
+      <c r="DI71" s="11"/>
+      <c r="DJ71" s="11"/>
+      <c r="DK71" s="11"/>
+      <c r="DL71" s="11"/>
+      <c r="DM71" s="22"/>
       <c r="DN71" s="11"/>
       <c r="DO71" s="11"/>
       <c r="DP71" s="11"/>
@@ -16208,7 +16208,7 @@
       <c r="EQ71" s="11"/>
       <c r="ER71" s="11"/>
       <c r="ES71" s="11"/>
-      <c r="ET71" s="11"/>
+      <c r="ET71" s="51"/>
       <c r="EU71" s="11"/>
       <c r="EV71" s="11"/>
       <c r="EW71" s="23"/>
@@ -16245,7 +16245,7 @@
       <c r="GB71" s="11"/>
       <c r="GC71" s="24"/>
     </row>
-    <row r="72" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="9"/>
       <c r="C72" s="7"/>
@@ -16434,7 +16434,7 @@
     <row r="73" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -16529,13 +16529,13 @@
       <c r="CP73" s="11"/>
       <c r="CQ73" s="11"/>
       <c r="CR73" s="11"/>
-      <c r="CS73" s="63"/>
-      <c r="CT73" s="51"/>
-      <c r="CU73" s="51"/>
-      <c r="CV73" s="90"/>
-      <c r="CW73" s="51"/>
-      <c r="CX73" s="51"/>
-      <c r="CY73" s="64"/>
+      <c r="CS73" s="23"/>
+      <c r="CT73" s="11"/>
+      <c r="CU73" s="11"/>
+      <c r="CV73" s="67"/>
+      <c r="CW73" s="11"/>
+      <c r="CX73" s="11"/>
+      <c r="CY73" s="22"/>
       <c r="CZ73" s="51"/>
       <c r="DA73" s="51"/>
       <c r="DB73" s="51"/>
@@ -16550,36 +16550,36 @@
       <c r="DK73" s="51"/>
       <c r="DL73" s="51"/>
       <c r="DM73" s="64"/>
-      <c r="DN73" s="51"/>
-      <c r="DO73" s="51"/>
-      <c r="DP73" s="51"/>
-      <c r="DQ73" s="51"/>
-      <c r="DR73" s="51"/>
-      <c r="DS73" s="51"/>
-      <c r="DT73" s="51"/>
-      <c r="DU73" s="63"/>
-      <c r="DV73" s="51"/>
-      <c r="DW73" s="51"/>
-      <c r="DX73" s="51"/>
-      <c r="DY73" s="51"/>
-      <c r="DZ73" s="51"/>
-      <c r="EA73" s="64"/>
-      <c r="EB73" s="51"/>
-      <c r="EC73" s="51"/>
-      <c r="ED73" s="147"/>
-      <c r="EE73" s="51"/>
-      <c r="EF73" s="51"/>
-      <c r="EG73" s="51"/>
-      <c r="EH73" s="51"/>
-      <c r="EI73" s="63"/>
-      <c r="EJ73" s="51"/>
-      <c r="EK73" s="51"/>
-      <c r="EL73" s="51"/>
-      <c r="EM73" s="51"/>
-      <c r="EN73" s="51"/>
-      <c r="EO73" s="64"/>
-      <c r="EP73" s="51"/>
-      <c r="EQ73" s="51"/>
+      <c r="DN73" s="11"/>
+      <c r="DO73" s="11"/>
+      <c r="DP73" s="11"/>
+      <c r="DQ73" s="11"/>
+      <c r="DR73" s="11"/>
+      <c r="DS73" s="11"/>
+      <c r="DT73" s="11"/>
+      <c r="DU73" s="23"/>
+      <c r="DV73" s="11"/>
+      <c r="DW73" s="11"/>
+      <c r="DX73" s="11"/>
+      <c r="DY73" s="11"/>
+      <c r="DZ73" s="11"/>
+      <c r="EA73" s="22"/>
+      <c r="EB73" s="11"/>
+      <c r="EC73" s="11"/>
+      <c r="ED73" s="73"/>
+      <c r="EE73" s="11"/>
+      <c r="EF73" s="11"/>
+      <c r="EG73" s="11"/>
+      <c r="EH73" s="11"/>
+      <c r="EI73" s="23"/>
+      <c r="EJ73" s="11"/>
+      <c r="EK73" s="11"/>
+      <c r="EL73" s="11"/>
+      <c r="EM73" s="11"/>
+      <c r="EN73" s="11"/>
+      <c r="EO73" s="22"/>
+      <c r="EP73" s="11"/>
+      <c r="EQ73" s="11"/>
       <c r="ER73" s="11"/>
       <c r="ES73" s="11"/>
       <c r="ET73" s="11"/>
@@ -16808,7 +16808,7 @@
     <row r="75" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -16903,13 +16903,13 @@
       <c r="CP75" s="11"/>
       <c r="CQ75" s="11"/>
       <c r="CR75" s="11"/>
-      <c r="CS75" s="23"/>
-      <c r="CT75" s="11"/>
-      <c r="CU75" s="11"/>
-      <c r="CV75" s="67"/>
-      <c r="CW75" s="11"/>
-      <c r="CX75" s="11"/>
-      <c r="CY75" s="22"/>
+      <c r="CS75" s="63"/>
+      <c r="CT75" s="51"/>
+      <c r="CU75" s="51"/>
+      <c r="CV75" s="90"/>
+      <c r="CW75" s="51"/>
+      <c r="CX75" s="51"/>
+      <c r="CY75" s="64"/>
       <c r="CZ75" s="51"/>
       <c r="DA75" s="51"/>
       <c r="DB75" s="51"/>
@@ -16924,36 +16924,36 @@
       <c r="DK75" s="51"/>
       <c r="DL75" s="51"/>
       <c r="DM75" s="64"/>
-      <c r="DN75" s="11"/>
-      <c r="DO75" s="11"/>
-      <c r="DP75" s="11"/>
-      <c r="DQ75" s="11"/>
-      <c r="DR75" s="11"/>
-      <c r="DS75" s="11"/>
-      <c r="DT75" s="11"/>
-      <c r="DU75" s="23"/>
-      <c r="DV75" s="11"/>
-      <c r="DW75" s="11"/>
-      <c r="DX75" s="11"/>
-      <c r="DY75" s="11"/>
-      <c r="DZ75" s="11"/>
-      <c r="EA75" s="22"/>
-      <c r="EB75" s="11"/>
-      <c r="EC75" s="11"/>
-      <c r="ED75" s="73"/>
-      <c r="EE75" s="11"/>
-      <c r="EF75" s="11"/>
-      <c r="EG75" s="11"/>
-      <c r="EH75" s="11"/>
-      <c r="EI75" s="23"/>
-      <c r="EJ75" s="11"/>
-      <c r="EK75" s="11"/>
-      <c r="EL75" s="11"/>
-      <c r="EM75" s="11"/>
-      <c r="EN75" s="11"/>
-      <c r="EO75" s="22"/>
-      <c r="EP75" s="11"/>
-      <c r="EQ75" s="11"/>
+      <c r="DN75" s="51"/>
+      <c r="DO75" s="51"/>
+      <c r="DP75" s="51"/>
+      <c r="DQ75" s="51"/>
+      <c r="DR75" s="51"/>
+      <c r="DS75" s="51"/>
+      <c r="DT75" s="51"/>
+      <c r="DU75" s="63"/>
+      <c r="DV75" s="51"/>
+      <c r="DW75" s="51"/>
+      <c r="DX75" s="51"/>
+      <c r="DY75" s="51"/>
+      <c r="DZ75" s="51"/>
+      <c r="EA75" s="64"/>
+      <c r="EB75" s="51"/>
+      <c r="EC75" s="51"/>
+      <c r="ED75" s="108"/>
+      <c r="EE75" s="51"/>
+      <c r="EF75" s="51"/>
+      <c r="EG75" s="51"/>
+      <c r="EH75" s="51"/>
+      <c r="EI75" s="63"/>
+      <c r="EJ75" s="51"/>
+      <c r="EK75" s="51"/>
+      <c r="EL75" s="51"/>
+      <c r="EM75" s="51"/>
+      <c r="EN75" s="51"/>
+      <c r="EO75" s="64"/>
+      <c r="EP75" s="51"/>
+      <c r="EQ75" s="51"/>
       <c r="ER75" s="11"/>
       <c r="ES75" s="11"/>
       <c r="ET75" s="11"/>
@@ -17182,7 +17182,7 @@
     <row r="77" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -17284,20 +17284,20 @@
       <c r="CW77" s="11"/>
       <c r="CX77" s="11"/>
       <c r="CY77" s="22"/>
-      <c r="CZ77" s="11"/>
-      <c r="DA77" s="11"/>
-      <c r="DB77" s="11"/>
-      <c r="DC77" s="11"/>
-      <c r="DD77" s="11"/>
-      <c r="DE77" s="11"/>
-      <c r="DF77" s="11"/>
-      <c r="DG77" s="23"/>
-      <c r="DH77" s="11"/>
-      <c r="DI77" s="11"/>
-      <c r="DJ77" s="11"/>
-      <c r="DK77" s="11"/>
-      <c r="DL77" s="11"/>
-      <c r="DM77" s="22"/>
+      <c r="CZ77" s="51"/>
+      <c r="DA77" s="51"/>
+      <c r="DB77" s="51"/>
+      <c r="DC77" s="51"/>
+      <c r="DD77" s="51"/>
+      <c r="DE77" s="51"/>
+      <c r="DF77" s="51"/>
+      <c r="DG77" s="63"/>
+      <c r="DH77" s="51"/>
+      <c r="DI77" s="51"/>
+      <c r="DJ77" s="51"/>
+      <c r="DK77" s="51"/>
+      <c r="DL77" s="51"/>
+      <c r="DM77" s="64"/>
       <c r="DN77" s="11"/>
       <c r="DO77" s="11"/>
       <c r="DP77" s="11"/>
@@ -17367,7 +17367,7 @@
       <c r="GB77" s="11"/>
       <c r="GC77" s="24"/>
     </row>
-    <row r="78" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="9"/>
       <c r="C78" s="7"/>
@@ -17555,7 +17555,9 @@
     </row>
     <row r="79" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
-      <c r="B79" s="9"/>
+      <c r="B79" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="F79" s="11"/>
@@ -17739,209 +17741,622 @@
       <c r="GB79" s="11"/>
       <c r="GC79" s="24"/>
     </row>
-    <row r="80" spans="1:185" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="112" t="s">
+    <row r="80" spans="1:185" x14ac:dyDescent="0.2">
+      <c r="A80" s="33"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="22"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
+      <c r="AA80" s="23"/>
+      <c r="AB80" s="11"/>
+      <c r="AC80" s="11"/>
+      <c r="AD80" s="11"/>
+      <c r="AE80" s="11"/>
+      <c r="AF80" s="11"/>
+      <c r="AG80" s="22"/>
+      <c r="AH80" s="11"/>
+      <c r="AI80" s="11"/>
+      <c r="AJ80" s="11"/>
+      <c r="AK80" s="11"/>
+      <c r="AL80" s="11"/>
+      <c r="AM80" s="11"/>
+      <c r="AN80" s="11"/>
+      <c r="AO80" s="76"/>
+      <c r="AP80" s="11"/>
+      <c r="AQ80" s="11"/>
+      <c r="AR80" s="11"/>
+      <c r="AS80" s="11"/>
+      <c r="AT80" s="11"/>
+      <c r="AU80" s="22"/>
+      <c r="AV80" s="11"/>
+      <c r="AW80" s="11"/>
+      <c r="AX80" s="11"/>
+      <c r="AY80" s="11"/>
+      <c r="AZ80" s="11"/>
+      <c r="BA80" s="11"/>
+      <c r="BB80" s="11"/>
+      <c r="BC80" s="23"/>
+      <c r="BD80" s="11"/>
+      <c r="BE80" s="11"/>
+      <c r="BF80" s="11"/>
+      <c r="BG80" s="11"/>
+      <c r="BH80" s="11"/>
+      <c r="BI80" s="22"/>
+      <c r="BJ80" s="11"/>
+      <c r="BK80" s="11"/>
+      <c r="BL80" s="11"/>
+      <c r="BM80" s="11"/>
+      <c r="BN80" s="11"/>
+      <c r="BO80" s="11"/>
+      <c r="BP80" s="11"/>
+      <c r="BQ80" s="23"/>
+      <c r="BR80" s="11"/>
+      <c r="BS80" s="11"/>
+      <c r="BT80" s="11"/>
+      <c r="BU80" s="11"/>
+      <c r="BV80" s="11"/>
+      <c r="BW80" s="22"/>
+      <c r="BX80" s="11"/>
+      <c r="BY80" s="11"/>
+      <c r="BZ80" s="73"/>
+      <c r="CA80" s="11"/>
+      <c r="CB80" s="11"/>
+      <c r="CC80" s="11"/>
+      <c r="CD80" s="11"/>
+      <c r="CE80" s="23"/>
+      <c r="CF80" s="11"/>
+      <c r="CG80" s="11"/>
+      <c r="CH80" s="11"/>
+      <c r="CI80" s="11"/>
+      <c r="CJ80" s="11"/>
+      <c r="CK80" s="22"/>
+      <c r="CL80" s="11"/>
+      <c r="CM80" s="11"/>
+      <c r="CN80" s="11"/>
+      <c r="CO80" s="11"/>
+      <c r="CP80" s="11"/>
+      <c r="CQ80" s="11"/>
+      <c r="CR80" s="11"/>
+      <c r="CS80" s="23"/>
+      <c r="CT80" s="11"/>
+      <c r="CU80" s="11"/>
+      <c r="CV80" s="67"/>
+      <c r="CW80" s="11"/>
+      <c r="CX80" s="11"/>
+      <c r="CY80" s="22"/>
+      <c r="CZ80" s="11"/>
+      <c r="DA80" s="11"/>
+      <c r="DB80" s="11"/>
+      <c r="DC80" s="11"/>
+      <c r="DD80" s="11"/>
+      <c r="DE80" s="11"/>
+      <c r="DF80" s="11"/>
+      <c r="DG80" s="23"/>
+      <c r="DH80" s="11"/>
+      <c r="DI80" s="11"/>
+      <c r="DJ80" s="11"/>
+      <c r="DK80" s="11"/>
+      <c r="DL80" s="11"/>
+      <c r="DM80" s="22"/>
+      <c r="DN80" s="11"/>
+      <c r="DO80" s="11"/>
+      <c r="DP80" s="11"/>
+      <c r="DQ80" s="11"/>
+      <c r="DR80" s="11"/>
+      <c r="DS80" s="11"/>
+      <c r="DT80" s="11"/>
+      <c r="DU80" s="23"/>
+      <c r="DV80" s="11"/>
+      <c r="DW80" s="11"/>
+      <c r="DX80" s="11"/>
+      <c r="DY80" s="11"/>
+      <c r="DZ80" s="11"/>
+      <c r="EA80" s="22"/>
+      <c r="EB80" s="11"/>
+      <c r="EC80" s="11"/>
+      <c r="ED80" s="73"/>
+      <c r="EE80" s="11"/>
+      <c r="EF80" s="11"/>
+      <c r="EG80" s="11"/>
+      <c r="EH80" s="11"/>
+      <c r="EI80" s="23"/>
+      <c r="EJ80" s="11"/>
+      <c r="EK80" s="11"/>
+      <c r="EL80" s="11"/>
+      <c r="EM80" s="11"/>
+      <c r="EN80" s="11"/>
+      <c r="EO80" s="22"/>
+      <c r="EP80" s="11"/>
+      <c r="EQ80" s="11"/>
+      <c r="ER80" s="11"/>
+      <c r="ES80" s="11"/>
+      <c r="ET80" s="11"/>
+      <c r="EU80" s="11"/>
+      <c r="EV80" s="11"/>
+      <c r="EW80" s="23"/>
+      <c r="EX80" s="11"/>
+      <c r="EY80" s="11"/>
+      <c r="EZ80" s="11"/>
+      <c r="FA80" s="11"/>
+      <c r="FB80" s="11"/>
+      <c r="FC80" s="22"/>
+      <c r="FD80" s="11"/>
+      <c r="FE80" s="11"/>
+      <c r="FF80" s="11"/>
+      <c r="FG80" s="11"/>
+      <c r="FH80" s="11"/>
+      <c r="FI80" s="11"/>
+      <c r="FJ80" s="11"/>
+      <c r="FK80" s="23"/>
+      <c r="FL80" s="11"/>
+      <c r="FM80" s="67"/>
+      <c r="FN80" s="11"/>
+      <c r="FO80" s="11"/>
+      <c r="FP80" s="11"/>
+      <c r="FQ80" s="22"/>
+      <c r="FR80" s="11"/>
+      <c r="FS80" s="11"/>
+      <c r="FT80" s="11"/>
+      <c r="FU80" s="11"/>
+      <c r="FV80" s="11"/>
+      <c r="FW80" s="11"/>
+      <c r="FX80" s="11"/>
+      <c r="FY80" s="23"/>
+      <c r="FZ80" s="11"/>
+      <c r="GA80" s="11"/>
+      <c r="GB80" s="11"/>
+      <c r="GC80" s="24"/>
+    </row>
+    <row r="81" spans="1:185" x14ac:dyDescent="0.2">
+      <c r="A81" s="33"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="22"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+      <c r="AA81" s="23"/>
+      <c r="AB81" s="11"/>
+      <c r="AC81" s="11"/>
+      <c r="AD81" s="11"/>
+      <c r="AE81" s="11"/>
+      <c r="AF81" s="11"/>
+      <c r="AG81" s="22"/>
+      <c r="AH81" s="11"/>
+      <c r="AI81" s="11"/>
+      <c r="AJ81" s="11"/>
+      <c r="AK81" s="11"/>
+      <c r="AL81" s="11"/>
+      <c r="AM81" s="11"/>
+      <c r="AN81" s="11"/>
+      <c r="AO81" s="76"/>
+      <c r="AP81" s="11"/>
+      <c r="AQ81" s="11"/>
+      <c r="AR81" s="11"/>
+      <c r="AS81" s="11"/>
+      <c r="AT81" s="11"/>
+      <c r="AU81" s="22"/>
+      <c r="AV81" s="11"/>
+      <c r="AW81" s="11"/>
+      <c r="AX81" s="11"/>
+      <c r="AY81" s="11"/>
+      <c r="AZ81" s="11"/>
+      <c r="BA81" s="11"/>
+      <c r="BB81" s="11"/>
+      <c r="BC81" s="23"/>
+      <c r="BD81" s="11"/>
+      <c r="BE81" s="11"/>
+      <c r="BF81" s="11"/>
+      <c r="BG81" s="11"/>
+      <c r="BH81" s="11"/>
+      <c r="BI81" s="22"/>
+      <c r="BJ81" s="11"/>
+      <c r="BK81" s="11"/>
+      <c r="BL81" s="11"/>
+      <c r="BM81" s="11"/>
+      <c r="BN81" s="11"/>
+      <c r="BO81" s="11"/>
+      <c r="BP81" s="11"/>
+      <c r="BQ81" s="23"/>
+      <c r="BR81" s="11"/>
+      <c r="BS81" s="11"/>
+      <c r="BT81" s="11"/>
+      <c r="BU81" s="11"/>
+      <c r="BV81" s="11"/>
+      <c r="BW81" s="22"/>
+      <c r="BX81" s="11"/>
+      <c r="BY81" s="11"/>
+      <c r="BZ81" s="73"/>
+      <c r="CA81" s="11"/>
+      <c r="CB81" s="11"/>
+      <c r="CC81" s="11"/>
+      <c r="CD81" s="11"/>
+      <c r="CE81" s="23"/>
+      <c r="CF81" s="11"/>
+      <c r="CG81" s="11"/>
+      <c r="CH81" s="11"/>
+      <c r="CI81" s="11"/>
+      <c r="CJ81" s="11"/>
+      <c r="CK81" s="22"/>
+      <c r="CL81" s="11"/>
+      <c r="CM81" s="11"/>
+      <c r="CN81" s="11"/>
+      <c r="CO81" s="11"/>
+      <c r="CP81" s="11"/>
+      <c r="CQ81" s="11"/>
+      <c r="CR81" s="11"/>
+      <c r="CS81" s="23"/>
+      <c r="CT81" s="11"/>
+      <c r="CU81" s="11"/>
+      <c r="CV81" s="67"/>
+      <c r="CW81" s="11"/>
+      <c r="CX81" s="11"/>
+      <c r="CY81" s="22"/>
+      <c r="CZ81" s="11"/>
+      <c r="DA81" s="11"/>
+      <c r="DB81" s="11"/>
+      <c r="DC81" s="11"/>
+      <c r="DD81" s="11"/>
+      <c r="DE81" s="11"/>
+      <c r="DF81" s="11"/>
+      <c r="DG81" s="23"/>
+      <c r="DH81" s="11"/>
+      <c r="DI81" s="11"/>
+      <c r="DJ81" s="11"/>
+      <c r="DK81" s="11"/>
+      <c r="DL81" s="11"/>
+      <c r="DM81" s="22"/>
+      <c r="DN81" s="11"/>
+      <c r="DO81" s="11"/>
+      <c r="DP81" s="11"/>
+      <c r="DQ81" s="11"/>
+      <c r="DR81" s="11"/>
+      <c r="DS81" s="11"/>
+      <c r="DT81" s="11"/>
+      <c r="DU81" s="23"/>
+      <c r="DV81" s="11"/>
+      <c r="DW81" s="11"/>
+      <c r="DX81" s="11"/>
+      <c r="DY81" s="11"/>
+      <c r="DZ81" s="11"/>
+      <c r="EA81" s="22"/>
+      <c r="EB81" s="11"/>
+      <c r="EC81" s="11"/>
+      <c r="ED81" s="73"/>
+      <c r="EE81" s="11"/>
+      <c r="EF81" s="11"/>
+      <c r="EG81" s="11"/>
+      <c r="EH81" s="11"/>
+      <c r="EI81" s="23"/>
+      <c r="EJ81" s="11"/>
+      <c r="EK81" s="11"/>
+      <c r="EL81" s="11"/>
+      <c r="EM81" s="11"/>
+      <c r="EN81" s="11"/>
+      <c r="EO81" s="22"/>
+      <c r="EP81" s="11"/>
+      <c r="EQ81" s="11"/>
+      <c r="ER81" s="11"/>
+      <c r="ES81" s="11"/>
+      <c r="ET81" s="11"/>
+      <c r="EU81" s="11"/>
+      <c r="EV81" s="11"/>
+      <c r="EW81" s="23"/>
+      <c r="EX81" s="11"/>
+      <c r="EY81" s="11"/>
+      <c r="EZ81" s="11"/>
+      <c r="FA81" s="11"/>
+      <c r="FB81" s="11"/>
+      <c r="FC81" s="22"/>
+      <c r="FD81" s="11"/>
+      <c r="FE81" s="11"/>
+      <c r="FF81" s="11"/>
+      <c r="FG81" s="11"/>
+      <c r="FH81" s="11"/>
+      <c r="FI81" s="11"/>
+      <c r="FJ81" s="11"/>
+      <c r="FK81" s="23"/>
+      <c r="FL81" s="11"/>
+      <c r="FM81" s="67"/>
+      <c r="FN81" s="11"/>
+      <c r="FO81" s="11"/>
+      <c r="FP81" s="11"/>
+      <c r="FQ81" s="22"/>
+      <c r="FR81" s="11"/>
+      <c r="FS81" s="11"/>
+      <c r="FT81" s="11"/>
+      <c r="FU81" s="11"/>
+      <c r="FV81" s="11"/>
+      <c r="FW81" s="11"/>
+      <c r="FX81" s="11"/>
+      <c r="FY81" s="23"/>
+      <c r="FZ81" s="11"/>
+      <c r="GA81" s="11"/>
+      <c r="GB81" s="11"/>
+      <c r="GC81" s="24"/>
+    </row>
+    <row r="82" spans="1:185" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="113"/>
-      <c r="C80" s="113"/>
-      <c r="D80" s="113"/>
-      <c r="E80" s="114"/>
-      <c r="F80" s="115" t="s">
+      <c r="B82" s="143"/>
+      <c r="C82" s="143"/>
+      <c r="D82" s="143"/>
+      <c r="E82" s="144"/>
+      <c r="F82" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="G80" s="109"/>
-      <c r="H80" s="109"/>
-      <c r="I80" s="109"/>
-      <c r="J80" s="109"/>
-      <c r="K80" s="109"/>
-      <c r="L80" s="109"/>
-      <c r="M80" s="109"/>
-      <c r="N80" s="109"/>
-      <c r="O80" s="109"/>
-      <c r="P80" s="109"/>
-      <c r="Q80" s="109"/>
-      <c r="R80" s="109"/>
-      <c r="S80" s="109"/>
-      <c r="T80" s="109"/>
-      <c r="U80" s="109"/>
-      <c r="V80" s="109"/>
-      <c r="W80" s="109"/>
-      <c r="X80" s="109"/>
-      <c r="Y80" s="109"/>
-      <c r="Z80" s="109"/>
-      <c r="AA80" s="109"/>
-      <c r="AB80" s="109"/>
-      <c r="AC80" s="109"/>
-      <c r="AD80" s="109"/>
-      <c r="AE80" s="109"/>
-      <c r="AF80" s="109"/>
-      <c r="AG80" s="109"/>
-      <c r="AH80" s="109"/>
-      <c r="AI80" s="109"/>
-      <c r="AJ80" s="109"/>
-      <c r="AK80" s="109"/>
-      <c r="AL80" s="109"/>
-      <c r="AM80" s="109"/>
-      <c r="AN80" s="116"/>
-      <c r="AO80" s="117" t="s">
+      <c r="G82" s="139"/>
+      <c r="H82" s="139"/>
+      <c r="I82" s="139"/>
+      <c r="J82" s="139"/>
+      <c r="K82" s="139"/>
+      <c r="L82" s="139"/>
+      <c r="M82" s="139"/>
+      <c r="N82" s="139"/>
+      <c r="O82" s="139"/>
+      <c r="P82" s="139"/>
+      <c r="Q82" s="139"/>
+      <c r="R82" s="139"/>
+      <c r="S82" s="139"/>
+      <c r="T82" s="139"/>
+      <c r="U82" s="139"/>
+      <c r="V82" s="139"/>
+      <c r="W82" s="139"/>
+      <c r="X82" s="139"/>
+      <c r="Y82" s="139"/>
+      <c r="Z82" s="139"/>
+      <c r="AA82" s="139"/>
+      <c r="AB82" s="139"/>
+      <c r="AC82" s="139"/>
+      <c r="AD82" s="139"/>
+      <c r="AE82" s="139"/>
+      <c r="AF82" s="139"/>
+      <c r="AG82" s="139"/>
+      <c r="AH82" s="139"/>
+      <c r="AI82" s="139"/>
+      <c r="AJ82" s="139"/>
+      <c r="AK82" s="139"/>
+      <c r="AL82" s="139"/>
+      <c r="AM82" s="139"/>
+      <c r="AN82" s="146"/>
+      <c r="AO82" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="AP80" s="109"/>
-      <c r="AQ80" s="109"/>
-      <c r="AR80" s="109"/>
-      <c r="AS80" s="109"/>
-      <c r="AT80" s="109"/>
-      <c r="AU80" s="109"/>
-      <c r="AV80" s="109"/>
-      <c r="AW80" s="109"/>
-      <c r="AX80" s="109"/>
-      <c r="AY80" s="109"/>
-      <c r="AZ80" s="109"/>
-      <c r="BA80" s="109"/>
-      <c r="BB80" s="109"/>
-      <c r="BC80" s="109"/>
-      <c r="BD80" s="109"/>
-      <c r="BE80" s="109"/>
-      <c r="BF80" s="109"/>
-      <c r="BG80" s="109"/>
-      <c r="BH80" s="109"/>
-      <c r="BI80" s="109"/>
-      <c r="BJ80" s="109"/>
-      <c r="BK80" s="109"/>
-      <c r="BL80" s="109"/>
-      <c r="BM80" s="109"/>
-      <c r="BN80" s="109"/>
-      <c r="BO80" s="109"/>
-      <c r="BP80" s="109"/>
-      <c r="BQ80" s="109"/>
-      <c r="BR80" s="109"/>
-      <c r="BS80" s="109"/>
-      <c r="BT80" s="109"/>
-      <c r="BU80" s="109"/>
-      <c r="BV80" s="109"/>
-      <c r="BW80" s="109"/>
-      <c r="BX80" s="109"/>
-      <c r="BY80" s="109"/>
-      <c r="BZ80" s="110"/>
-      <c r="CA80" s="108" t="s">
+      <c r="AP82" s="139"/>
+      <c r="AQ82" s="139"/>
+      <c r="AR82" s="139"/>
+      <c r="AS82" s="139"/>
+      <c r="AT82" s="139"/>
+      <c r="AU82" s="139"/>
+      <c r="AV82" s="139"/>
+      <c r="AW82" s="139"/>
+      <c r="AX82" s="139"/>
+      <c r="AY82" s="139"/>
+      <c r="AZ82" s="139"/>
+      <c r="BA82" s="139"/>
+      <c r="BB82" s="139"/>
+      <c r="BC82" s="139"/>
+      <c r="BD82" s="139"/>
+      <c r="BE82" s="139"/>
+      <c r="BF82" s="139"/>
+      <c r="BG82" s="139"/>
+      <c r="BH82" s="139"/>
+      <c r="BI82" s="139"/>
+      <c r="BJ82" s="139"/>
+      <c r="BK82" s="139"/>
+      <c r="BL82" s="139"/>
+      <c r="BM82" s="139"/>
+      <c r="BN82" s="139"/>
+      <c r="BO82" s="139"/>
+      <c r="BP82" s="139"/>
+      <c r="BQ82" s="139"/>
+      <c r="BR82" s="139"/>
+      <c r="BS82" s="139"/>
+      <c r="BT82" s="139"/>
+      <c r="BU82" s="139"/>
+      <c r="BV82" s="139"/>
+      <c r="BW82" s="139"/>
+      <c r="BX82" s="139"/>
+      <c r="BY82" s="139"/>
+      <c r="BZ82" s="140"/>
+      <c r="CA82" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="CB80" s="109"/>
-      <c r="CC80" s="109"/>
-      <c r="CD80" s="109"/>
-      <c r="CE80" s="109"/>
-      <c r="CF80" s="109"/>
-      <c r="CG80" s="109"/>
-      <c r="CH80" s="109"/>
-      <c r="CI80" s="109"/>
-      <c r="CJ80" s="109"/>
-      <c r="CK80" s="109"/>
-      <c r="CL80" s="109"/>
-      <c r="CM80" s="109"/>
-      <c r="CN80" s="109"/>
-      <c r="CO80" s="109"/>
-      <c r="CP80" s="109"/>
-      <c r="CQ80" s="109"/>
-      <c r="CR80" s="109"/>
-      <c r="CS80" s="109"/>
-      <c r="CT80" s="109"/>
-      <c r="CU80" s="110"/>
-      <c r="CV80" s="108" t="s">
+      <c r="CB82" s="139"/>
+      <c r="CC82" s="139"/>
+      <c r="CD82" s="139"/>
+      <c r="CE82" s="139"/>
+      <c r="CF82" s="139"/>
+      <c r="CG82" s="139"/>
+      <c r="CH82" s="139"/>
+      <c r="CI82" s="139"/>
+      <c r="CJ82" s="139"/>
+      <c r="CK82" s="139"/>
+      <c r="CL82" s="139"/>
+      <c r="CM82" s="139"/>
+      <c r="CN82" s="139"/>
+      <c r="CO82" s="139"/>
+      <c r="CP82" s="139"/>
+      <c r="CQ82" s="139"/>
+      <c r="CR82" s="139"/>
+      <c r="CS82" s="139"/>
+      <c r="CT82" s="139"/>
+      <c r="CU82" s="140"/>
+      <c r="CV82" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="CW80" s="109"/>
-      <c r="CX80" s="109"/>
-      <c r="CY80" s="109"/>
-      <c r="CZ80" s="109"/>
-      <c r="DA80" s="109"/>
-      <c r="DB80" s="109"/>
-      <c r="DC80" s="109"/>
-      <c r="DD80" s="109"/>
-      <c r="DE80" s="109"/>
-      <c r="DF80" s="109"/>
-      <c r="DG80" s="109"/>
-      <c r="DH80" s="109"/>
-      <c r="DI80" s="109"/>
-      <c r="DJ80" s="109"/>
-      <c r="DK80" s="109"/>
-      <c r="DL80" s="109"/>
-      <c r="DM80" s="109"/>
-      <c r="DN80" s="109"/>
-      <c r="DO80" s="109"/>
-      <c r="DP80" s="109"/>
-      <c r="DQ80" s="109"/>
-      <c r="DR80" s="109"/>
-      <c r="DS80" s="109"/>
-      <c r="DT80" s="109"/>
-      <c r="DU80" s="109"/>
-      <c r="DV80" s="109"/>
-      <c r="DW80" s="109"/>
-      <c r="DX80" s="109"/>
-      <c r="DY80" s="109"/>
-      <c r="DZ80" s="109"/>
-      <c r="EA80" s="109"/>
-      <c r="EB80" s="109"/>
-      <c r="EC80" s="109"/>
-      <c r="ED80" s="110"/>
-      <c r="EE80" s="108" t="s">
+      <c r="CW82" s="139"/>
+      <c r="CX82" s="139"/>
+      <c r="CY82" s="139"/>
+      <c r="CZ82" s="139"/>
+      <c r="DA82" s="139"/>
+      <c r="DB82" s="139"/>
+      <c r="DC82" s="139"/>
+      <c r="DD82" s="139"/>
+      <c r="DE82" s="139"/>
+      <c r="DF82" s="139"/>
+      <c r="DG82" s="139"/>
+      <c r="DH82" s="139"/>
+      <c r="DI82" s="139"/>
+      <c r="DJ82" s="139"/>
+      <c r="DK82" s="139"/>
+      <c r="DL82" s="139"/>
+      <c r="DM82" s="139"/>
+      <c r="DN82" s="139"/>
+      <c r="DO82" s="139"/>
+      <c r="DP82" s="139"/>
+      <c r="DQ82" s="139"/>
+      <c r="DR82" s="139"/>
+      <c r="DS82" s="139"/>
+      <c r="DT82" s="139"/>
+      <c r="DU82" s="139"/>
+      <c r="DV82" s="139"/>
+      <c r="DW82" s="139"/>
+      <c r="DX82" s="139"/>
+      <c r="DY82" s="139"/>
+      <c r="DZ82" s="139"/>
+      <c r="EA82" s="139"/>
+      <c r="EB82" s="139"/>
+      <c r="EC82" s="139"/>
+      <c r="ED82" s="140"/>
+      <c r="EE82" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="EF80" s="109"/>
-      <c r="EG80" s="109"/>
-      <c r="EH80" s="109"/>
-      <c r="EI80" s="109"/>
-      <c r="EJ80" s="109"/>
-      <c r="EK80" s="109"/>
-      <c r="EL80" s="109"/>
-      <c r="EM80" s="109"/>
-      <c r="EN80" s="109"/>
-      <c r="EO80" s="109"/>
-      <c r="EP80" s="109"/>
-      <c r="EQ80" s="109"/>
-      <c r="ER80" s="109"/>
-      <c r="ES80" s="109"/>
-      <c r="ET80" s="109"/>
-      <c r="EU80" s="109"/>
-      <c r="EV80" s="109"/>
-      <c r="EW80" s="109"/>
-      <c r="EX80" s="109"/>
-      <c r="EY80" s="109"/>
-      <c r="EZ80" s="109"/>
-      <c r="FA80" s="109"/>
-      <c r="FB80" s="109"/>
-      <c r="FC80" s="109"/>
-      <c r="FD80" s="109"/>
-      <c r="FE80" s="109"/>
-      <c r="FF80" s="109"/>
-      <c r="FG80" s="109"/>
-      <c r="FH80" s="109"/>
-      <c r="FI80" s="109"/>
-      <c r="FJ80" s="109"/>
-      <c r="FK80" s="109"/>
-      <c r="FL80" s="110"/>
-      <c r="FM80" s="108" t="s">
+      <c r="EF82" s="139"/>
+      <c r="EG82" s="139"/>
+      <c r="EH82" s="139"/>
+      <c r="EI82" s="139"/>
+      <c r="EJ82" s="139"/>
+      <c r="EK82" s="139"/>
+      <c r="EL82" s="139"/>
+      <c r="EM82" s="139"/>
+      <c r="EN82" s="139"/>
+      <c r="EO82" s="139"/>
+      <c r="EP82" s="139"/>
+      <c r="EQ82" s="139"/>
+      <c r="ER82" s="139"/>
+      <c r="ES82" s="139"/>
+      <c r="ET82" s="139"/>
+      <c r="EU82" s="139"/>
+      <c r="EV82" s="139"/>
+      <c r="EW82" s="139"/>
+      <c r="EX82" s="139"/>
+      <c r="EY82" s="139"/>
+      <c r="EZ82" s="139"/>
+      <c r="FA82" s="139"/>
+      <c r="FB82" s="139"/>
+      <c r="FC82" s="139"/>
+      <c r="FD82" s="139"/>
+      <c r="FE82" s="139"/>
+      <c r="FF82" s="139"/>
+      <c r="FG82" s="139"/>
+      <c r="FH82" s="139"/>
+      <c r="FI82" s="139"/>
+      <c r="FJ82" s="139"/>
+      <c r="FK82" s="139"/>
+      <c r="FL82" s="140"/>
+      <c r="FM82" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="FN80" s="109"/>
-      <c r="FO80" s="109"/>
-      <c r="FP80" s="109"/>
-      <c r="FQ80" s="109"/>
-      <c r="FR80" s="109"/>
-      <c r="FS80" s="109"/>
-      <c r="FT80" s="109"/>
-      <c r="FU80" s="109"/>
-      <c r="FV80" s="109"/>
-      <c r="FW80" s="109"/>
-      <c r="FX80" s="109"/>
-      <c r="FY80" s="109"/>
-      <c r="FZ80" s="109"/>
-      <c r="GA80" s="109"/>
-      <c r="GB80" s="109"/>
-      <c r="GC80" s="111"/>
+      <c r="FN82" s="139"/>
+      <c r="FO82" s="139"/>
+      <c r="FP82" s="139"/>
+      <c r="FQ82" s="139"/>
+      <c r="FR82" s="139"/>
+      <c r="FS82" s="139"/>
+      <c r="FT82" s="139"/>
+      <c r="FU82" s="139"/>
+      <c r="FV82" s="139"/>
+      <c r="FW82" s="139"/>
+      <c r="FX82" s="139"/>
+      <c r="FY82" s="139"/>
+      <c r="FZ82" s="139"/>
+      <c r="GA82" s="139"/>
+      <c r="GB82" s="139"/>
+      <c r="GC82" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="EE82:FL82"/>
+    <mergeCell ref="FM82:GC82"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="F82:AN82"/>
+    <mergeCell ref="AO82:BZ82"/>
+    <mergeCell ref="CA82:CU82"/>
+    <mergeCell ref="CV82:ED82"/>
+    <mergeCell ref="F4:AN4"/>
+    <mergeCell ref="AO4:BZ4"/>
+    <mergeCell ref="FM4:GC4"/>
+    <mergeCell ref="CA4:CU4"/>
+    <mergeCell ref="CV4:ED4"/>
+    <mergeCell ref="EE4:FL4"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="R6:AV6"/>
+    <mergeCell ref="AW6:BZ6"/>
+    <mergeCell ref="CA6:DE6"/>
+    <mergeCell ref="F5:DE5"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="BQ7:BW7"/>
+    <mergeCell ref="BX7:CD7"/>
+    <mergeCell ref="CE7:CK7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="T7:Z7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="CL7:CR7"/>
+    <mergeCell ref="CS7:CY7"/>
+    <mergeCell ref="CZ7:DF7"/>
+    <mergeCell ref="DG7:DM7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="AH7:AN7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BB7"/>
+    <mergeCell ref="BC7:BI7"/>
+    <mergeCell ref="BJ7:BP7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="EK6:FL6"/>
     <mergeCell ref="FM6:GC6"/>
     <mergeCell ref="DF5:GC5"/>
@@ -17956,47 +18371,6 @@
     <mergeCell ref="FY7:GC7"/>
     <mergeCell ref="DN7:DT7"/>
     <mergeCell ref="DF6:EJ6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="CL7:CR7"/>
-    <mergeCell ref="CS7:CY7"/>
-    <mergeCell ref="CZ7:DF7"/>
-    <mergeCell ref="DG7:DM7"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="AH7:AN7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BB7"/>
-    <mergeCell ref="BC7:BI7"/>
-    <mergeCell ref="BJ7:BP7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="BQ7:BW7"/>
-    <mergeCell ref="BX7:CD7"/>
-    <mergeCell ref="CE7:CK7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="T7:Z7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="R6:AV6"/>
-    <mergeCell ref="AW6:BZ6"/>
-    <mergeCell ref="CA6:DE6"/>
-    <mergeCell ref="F5:DE5"/>
-    <mergeCell ref="F4:AN4"/>
-    <mergeCell ref="AO4:BZ4"/>
-    <mergeCell ref="FM4:GC4"/>
-    <mergeCell ref="CA4:CU4"/>
-    <mergeCell ref="CV4:ED4"/>
-    <mergeCell ref="EE4:FL4"/>
-    <mergeCell ref="EE80:FL80"/>
-    <mergeCell ref="FM80:GC80"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="F80:AN80"/>
-    <mergeCell ref="AO80:BZ80"/>
-    <mergeCell ref="CA80:CU80"/>
-    <mergeCell ref="CV80:ED80"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/doc/planning/Projektplanung_Spektrometer.xlsx
+++ b/doc/planning/Projektplanung_Spektrometer.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Daten/Spektrometer/portableSpectrometer/doc/planning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\Spektrometer\portableSpectrometer\doc\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="39940" windowHeight="24080"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="39945" windowHeight="24075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
-    <sheet name="Meilensteine" sheetId="2" r:id="rId2"/>
+    <sheet name="Ziele" sheetId="3" r:id="rId2"/>
+    <sheet name="Meilensteine" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="abc">[1]Stammdaten!$B$2:$B$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$GC$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$GC$79</definedName>
     <definedName name="Teammitglieder">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="158">
   <si>
     <t>Zeit</t>
   </si>
@@ -278,9 +279,6 @@
     <t>Umsetzen aller Anforderungen</t>
   </si>
   <si>
-    <t>Meeting zwischenstand Entwicklung</t>
-  </si>
-  <si>
     <t>wiederholend</t>
   </si>
   <si>
@@ -404,11 +402,128 @@
   <si>
     <t>Meeting Prototyp 2</t>
   </si>
+  <si>
+    <t>Ziele</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>Pflichtenheft unterschrieben</t>
+  </si>
+  <si>
+    <t>TCP Protokoll implementiert</t>
+  </si>
+  <si>
+    <t>Rückgabedaten abgebildet</t>
+  </si>
+  <si>
+    <t>Rückgabedaten ausgewertet</t>
+  </si>
+  <si>
+    <t>Grundfunktionen (Prio 1) umgesetzt</t>
+  </si>
+  <si>
+    <t>Beta-Zugang (TestFlight) eingerichtet</t>
+  </si>
+  <si>
+    <t>Grundfunktionen verbessert</t>
+  </si>
+  <si>
+    <t>Anforderungen (Prio 2) implementiert</t>
+  </si>
+  <si>
+    <t>Alle Anforderungen umgesetzt</t>
+  </si>
+  <si>
+    <t>Alle bekannten Fehler behoben</t>
+  </si>
+  <si>
+    <t>App für die AppStore Freigabe eingereicht</t>
+  </si>
+  <si>
+    <t>Dokumentation abgeschlossen</t>
+  </si>
+  <si>
+    <t>Startmeeting abgehalten</t>
+  </si>
+  <si>
+    <t>Statusmeeting abgehalten</t>
+  </si>
+  <si>
+    <t>Anforderungsmeeting abgehalten</t>
+  </si>
+  <si>
+    <t>Meeting Testflight abgehalten</t>
+  </si>
+  <si>
+    <t>Meeting Prototyp 2 abgehalten</t>
+  </si>
+  <si>
+    <t>Kommunikationstest erfolgreich abgeschlossen</t>
+  </si>
+  <si>
+    <t>Spektrometer inbetriebnahme abgeschlossen</t>
+  </si>
+  <si>
+    <t>Spektrometer abgeholt</t>
+  </si>
+  <si>
+    <t>In Dokumentation eingelesen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -1444,7 +1559,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1770,6 +1885,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1889,143 +2007,143 @@
     </xf>
   </cellXfs>
   <cellStyles count="137">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2349,38 +2467,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:GC82"/>
+  <dimension ref="A1:GC80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="5" ySplit="8" topLeftCell="DW33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B71" sqref="B71"/>
+      <selection pane="bottomRight" activeCell="A67" sqref="A67:XFD68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.42578125" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="34" customWidth="1"/>
-    <col min="6" max="109" width="2.5" style="4" customWidth="1"/>
-    <col min="110" max="185" width="2.5" style="10" customWidth="1"/>
-    <col min="186" max="16384" width="15.5" style="1"/>
+    <col min="1" max="1" width="7.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="34" customWidth="1"/>
+    <col min="6" max="109" width="2.42578125" style="4" customWidth="1"/>
+    <col min="110" max="185" width="2.42578125" style="10" customWidth="1"/>
+    <col min="186" max="16384" width="15.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:185" s="12" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:185" s="12" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -2562,12 +2680,12 @@
       <c r="GB1" s="3"/>
       <c r="GC1" s="6"/>
     </row>
-    <row r="2" spans="1:185" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129"/>
+    <row r="2" spans="1:185" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
@@ -2749,7 +2867,7 @@
       <c r="GB2" s="50"/>
       <c r="GC2" s="13"/>
     </row>
-    <row r="3" spans="1:185" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:185" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>27</v>
       </c>
@@ -2948,852 +3066,852 @@
       <c r="GB3" s="15"/>
       <c r="GC3" s="18"/>
     </row>
-    <row r="4" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="118" t="s">
+    <row r="4" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="135" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="136"/>
-      <c r="AM4" s="136"/>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136" t="s">
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="137"/>
+      <c r="AH4" s="137"/>
+      <c r="AI4" s="137"/>
+      <c r="AJ4" s="137"/>
+      <c r="AK4" s="137"/>
+      <c r="AL4" s="137"/>
+      <c r="AM4" s="137"/>
+      <c r="AN4" s="137"/>
+      <c r="AO4" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="136"/>
-      <c r="AR4" s="136"/>
-      <c r="AS4" s="136"/>
-      <c r="AT4" s="136"/>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
-      <c r="AX4" s="136"/>
-      <c r="AY4" s="136"/>
-      <c r="AZ4" s="136"/>
-      <c r="BA4" s="136"/>
-      <c r="BB4" s="136"/>
-      <c r="BC4" s="136"/>
-      <c r="BD4" s="136"/>
-      <c r="BE4" s="136"/>
-      <c r="BF4" s="136"/>
-      <c r="BG4" s="136"/>
-      <c r="BH4" s="136"/>
-      <c r="BI4" s="136"/>
-      <c r="BJ4" s="136"/>
-      <c r="BK4" s="136"/>
-      <c r="BL4" s="136"/>
-      <c r="BM4" s="136"/>
-      <c r="BN4" s="136"/>
-      <c r="BO4" s="136"/>
-      <c r="BP4" s="136"/>
-      <c r="BQ4" s="136"/>
-      <c r="BR4" s="136"/>
-      <c r="BS4" s="136"/>
-      <c r="BT4" s="136"/>
-      <c r="BU4" s="136"/>
-      <c r="BV4" s="136"/>
-      <c r="BW4" s="136"/>
-      <c r="BX4" s="136"/>
-      <c r="BY4" s="136"/>
-      <c r="BZ4" s="136"/>
-      <c r="CA4" s="136" t="s">
+      <c r="AP4" s="137"/>
+      <c r="AQ4" s="137"/>
+      <c r="AR4" s="137"/>
+      <c r="AS4" s="137"/>
+      <c r="AT4" s="137"/>
+      <c r="AU4" s="137"/>
+      <c r="AV4" s="137"/>
+      <c r="AW4" s="137"/>
+      <c r="AX4" s="137"/>
+      <c r="AY4" s="137"/>
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="137"/>
+      <c r="BB4" s="137"/>
+      <c r="BC4" s="137"/>
+      <c r="BD4" s="137"/>
+      <c r="BE4" s="137"/>
+      <c r="BF4" s="137"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="137"/>
+      <c r="BI4" s="137"/>
+      <c r="BJ4" s="137"/>
+      <c r="BK4" s="137"/>
+      <c r="BL4" s="137"/>
+      <c r="BM4" s="137"/>
+      <c r="BN4" s="137"/>
+      <c r="BO4" s="137"/>
+      <c r="BP4" s="137"/>
+      <c r="BQ4" s="137"/>
+      <c r="BR4" s="137"/>
+      <c r="BS4" s="137"/>
+      <c r="BT4" s="137"/>
+      <c r="BU4" s="137"/>
+      <c r="BV4" s="137"/>
+      <c r="BW4" s="137"/>
+      <c r="BX4" s="137"/>
+      <c r="BY4" s="137"/>
+      <c r="BZ4" s="137"/>
+      <c r="CA4" s="137" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB4" s="137"/>
+      <c r="CC4" s="137"/>
+      <c r="CD4" s="137"/>
+      <c r="CE4" s="137"/>
+      <c r="CF4" s="137"/>
+      <c r="CG4" s="137"/>
+      <c r="CH4" s="137"/>
+      <c r="CI4" s="137"/>
+      <c r="CJ4" s="137"/>
+      <c r="CK4" s="137"/>
+      <c r="CL4" s="137"/>
+      <c r="CM4" s="137"/>
+      <c r="CN4" s="137"/>
+      <c r="CO4" s="137"/>
+      <c r="CP4" s="137"/>
+      <c r="CQ4" s="137"/>
+      <c r="CR4" s="137"/>
+      <c r="CS4" s="137"/>
+      <c r="CT4" s="137"/>
+      <c r="CU4" s="137"/>
+      <c r="CV4" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="CB4" s="136"/>
-      <c r="CC4" s="136"/>
-      <c r="CD4" s="136"/>
-      <c r="CE4" s="136"/>
-      <c r="CF4" s="136"/>
-      <c r="CG4" s="136"/>
-      <c r="CH4" s="136"/>
-      <c r="CI4" s="136"/>
-      <c r="CJ4" s="136"/>
-      <c r="CK4" s="136"/>
-      <c r="CL4" s="136"/>
-      <c r="CM4" s="136"/>
-      <c r="CN4" s="136"/>
-      <c r="CO4" s="136"/>
-      <c r="CP4" s="136"/>
-      <c r="CQ4" s="136"/>
-      <c r="CR4" s="136"/>
-      <c r="CS4" s="136"/>
-      <c r="CT4" s="136"/>
-      <c r="CU4" s="136"/>
-      <c r="CV4" s="136" t="s">
+      <c r="CW4" s="137"/>
+      <c r="CX4" s="137"/>
+      <c r="CY4" s="137"/>
+      <c r="CZ4" s="137"/>
+      <c r="DA4" s="137"/>
+      <c r="DB4" s="137"/>
+      <c r="DC4" s="137"/>
+      <c r="DD4" s="137"/>
+      <c r="DE4" s="137"/>
+      <c r="DF4" s="137"/>
+      <c r="DG4" s="137"/>
+      <c r="DH4" s="137"/>
+      <c r="DI4" s="137"/>
+      <c r="DJ4" s="137"/>
+      <c r="DK4" s="137"/>
+      <c r="DL4" s="137"/>
+      <c r="DM4" s="137"/>
+      <c r="DN4" s="137"/>
+      <c r="DO4" s="137"/>
+      <c r="DP4" s="137"/>
+      <c r="DQ4" s="137"/>
+      <c r="DR4" s="137"/>
+      <c r="DS4" s="137"/>
+      <c r="DT4" s="137"/>
+      <c r="DU4" s="137"/>
+      <c r="DV4" s="137"/>
+      <c r="DW4" s="137"/>
+      <c r="DX4" s="137"/>
+      <c r="DY4" s="137"/>
+      <c r="DZ4" s="137"/>
+      <c r="EA4" s="137"/>
+      <c r="EB4" s="137"/>
+      <c r="EC4" s="137"/>
+      <c r="ED4" s="137"/>
+      <c r="EE4" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="CW4" s="136"/>
-      <c r="CX4" s="136"/>
-      <c r="CY4" s="136"/>
-      <c r="CZ4" s="136"/>
-      <c r="DA4" s="136"/>
-      <c r="DB4" s="136"/>
-      <c r="DC4" s="136"/>
-      <c r="DD4" s="136"/>
-      <c r="DE4" s="136"/>
-      <c r="DF4" s="136"/>
-      <c r="DG4" s="136"/>
-      <c r="DH4" s="136"/>
-      <c r="DI4" s="136"/>
-      <c r="DJ4" s="136"/>
-      <c r="DK4" s="136"/>
-      <c r="DL4" s="136"/>
-      <c r="DM4" s="136"/>
-      <c r="DN4" s="136"/>
-      <c r="DO4" s="136"/>
-      <c r="DP4" s="136"/>
-      <c r="DQ4" s="136"/>
-      <c r="DR4" s="136"/>
-      <c r="DS4" s="136"/>
-      <c r="DT4" s="136"/>
-      <c r="DU4" s="136"/>
-      <c r="DV4" s="136"/>
-      <c r="DW4" s="136"/>
-      <c r="DX4" s="136"/>
-      <c r="DY4" s="136"/>
-      <c r="DZ4" s="136"/>
-      <c r="EA4" s="136"/>
-      <c r="EB4" s="136"/>
-      <c r="EC4" s="136"/>
-      <c r="ED4" s="136"/>
-      <c r="EE4" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="EF4" s="136"/>
-      <c r="EG4" s="136"/>
-      <c r="EH4" s="136"/>
-      <c r="EI4" s="136"/>
-      <c r="EJ4" s="136"/>
-      <c r="EK4" s="136"/>
-      <c r="EL4" s="136"/>
-      <c r="EM4" s="136"/>
-      <c r="EN4" s="136"/>
-      <c r="EO4" s="136"/>
-      <c r="EP4" s="136"/>
-      <c r="EQ4" s="136"/>
-      <c r="ER4" s="136"/>
-      <c r="ES4" s="136"/>
-      <c r="ET4" s="136"/>
-      <c r="EU4" s="136"/>
-      <c r="EV4" s="136"/>
-      <c r="EW4" s="136"/>
-      <c r="EX4" s="136"/>
-      <c r="EY4" s="136"/>
-      <c r="EZ4" s="136"/>
-      <c r="FA4" s="136"/>
-      <c r="FB4" s="136"/>
-      <c r="FC4" s="136"/>
-      <c r="FD4" s="136"/>
-      <c r="FE4" s="136"/>
-      <c r="FF4" s="136"/>
-      <c r="FG4" s="136"/>
-      <c r="FH4" s="136"/>
-      <c r="FI4" s="136"/>
-      <c r="FJ4" s="136"/>
-      <c r="FK4" s="136"/>
-      <c r="FL4" s="136"/>
-      <c r="FM4" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="FN4" s="136"/>
-      <c r="FO4" s="136"/>
-      <c r="FP4" s="136"/>
-      <c r="FQ4" s="136"/>
-      <c r="FR4" s="136"/>
-      <c r="FS4" s="136"/>
-      <c r="FT4" s="136"/>
-      <c r="FU4" s="136"/>
-      <c r="FV4" s="136"/>
-      <c r="FW4" s="136"/>
-      <c r="FX4" s="136"/>
-      <c r="FY4" s="136"/>
-      <c r="FZ4" s="136"/>
-      <c r="GA4" s="136"/>
-      <c r="GB4" s="136"/>
-      <c r="GC4" s="137"/>
+      <c r="EF4" s="137"/>
+      <c r="EG4" s="137"/>
+      <c r="EH4" s="137"/>
+      <c r="EI4" s="137"/>
+      <c r="EJ4" s="137"/>
+      <c r="EK4" s="137"/>
+      <c r="EL4" s="137"/>
+      <c r="EM4" s="137"/>
+      <c r="EN4" s="137"/>
+      <c r="EO4" s="137"/>
+      <c r="EP4" s="137"/>
+      <c r="EQ4" s="137"/>
+      <c r="ER4" s="137"/>
+      <c r="ES4" s="137"/>
+      <c r="ET4" s="137"/>
+      <c r="EU4" s="137"/>
+      <c r="EV4" s="137"/>
+      <c r="EW4" s="137"/>
+      <c r="EX4" s="137"/>
+      <c r="EY4" s="137"/>
+      <c r="EZ4" s="137"/>
+      <c r="FA4" s="137"/>
+      <c r="FB4" s="137"/>
+      <c r="FC4" s="137"/>
+      <c r="FD4" s="137"/>
+      <c r="FE4" s="137"/>
+      <c r="FF4" s="137"/>
+      <c r="FG4" s="137"/>
+      <c r="FH4" s="137"/>
+      <c r="FI4" s="137"/>
+      <c r="FJ4" s="137"/>
+      <c r="FK4" s="137"/>
+      <c r="FL4" s="137"/>
+      <c r="FM4" s="137" t="s">
+        <v>91</v>
+      </c>
+      <c r="FN4" s="137"/>
+      <c r="FO4" s="137"/>
+      <c r="FP4" s="137"/>
+      <c r="FQ4" s="137"/>
+      <c r="FR4" s="137"/>
+      <c r="FS4" s="137"/>
+      <c r="FT4" s="137"/>
+      <c r="FU4" s="137"/>
+      <c r="FV4" s="137"/>
+      <c r="FW4" s="137"/>
+      <c r="FX4" s="137"/>
+      <c r="FY4" s="137"/>
+      <c r="FZ4" s="137"/>
+      <c r="GA4" s="137"/>
+      <c r="GB4" s="137"/>
+      <c r="GC4" s="138"/>
     </row>
-    <row r="5" spans="1:185" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="121" t="s">
+    <row r="5" spans="1:185" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="133">
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="134">
         <v>2016</v>
       </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="111"/>
-      <c r="W5" s="111"/>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="111"/>
-      <c r="AB5" s="111"/>
-      <c r="AC5" s="111"/>
-      <c r="AD5" s="111"/>
-      <c r="AE5" s="111"/>
-      <c r="AF5" s="111"/>
-      <c r="AG5" s="111"/>
-      <c r="AH5" s="111"/>
-      <c r="AI5" s="111"/>
-      <c r="AJ5" s="111"/>
-      <c r="AK5" s="111"/>
-      <c r="AL5" s="111"/>
-      <c r="AM5" s="111"/>
-      <c r="AN5" s="111"/>
-      <c r="AO5" s="111"/>
-      <c r="AP5" s="111"/>
-      <c r="AQ5" s="111"/>
-      <c r="AR5" s="111"/>
-      <c r="AS5" s="111"/>
-      <c r="AT5" s="111"/>
-      <c r="AU5" s="111"/>
-      <c r="AV5" s="111"/>
-      <c r="AW5" s="111"/>
-      <c r="AX5" s="111"/>
-      <c r="AY5" s="111"/>
-      <c r="AZ5" s="111"/>
-      <c r="BA5" s="111"/>
-      <c r="BB5" s="111"/>
-      <c r="BC5" s="111"/>
-      <c r="BD5" s="111"/>
-      <c r="BE5" s="111"/>
-      <c r="BF5" s="111"/>
-      <c r="BG5" s="111"/>
-      <c r="BH5" s="111"/>
-      <c r="BI5" s="111"/>
-      <c r="BJ5" s="111"/>
-      <c r="BK5" s="111"/>
-      <c r="BL5" s="111"/>
-      <c r="BM5" s="111"/>
-      <c r="BN5" s="111"/>
-      <c r="BO5" s="111"/>
-      <c r="BP5" s="111"/>
-      <c r="BQ5" s="111"/>
-      <c r="BR5" s="111"/>
-      <c r="BS5" s="111"/>
-      <c r="BT5" s="111"/>
-      <c r="BU5" s="111"/>
-      <c r="BV5" s="111"/>
-      <c r="BW5" s="111"/>
-      <c r="BX5" s="111"/>
-      <c r="BY5" s="111"/>
-      <c r="BZ5" s="111"/>
-      <c r="CA5" s="111"/>
-      <c r="CB5" s="111"/>
-      <c r="CC5" s="111"/>
-      <c r="CD5" s="111"/>
-      <c r="CE5" s="111"/>
-      <c r="CF5" s="111"/>
-      <c r="CG5" s="111"/>
-      <c r="CH5" s="111"/>
-      <c r="CI5" s="111"/>
-      <c r="CJ5" s="111"/>
-      <c r="CK5" s="111"/>
-      <c r="CL5" s="111"/>
-      <c r="CM5" s="111"/>
-      <c r="CN5" s="111"/>
-      <c r="CO5" s="111"/>
-      <c r="CP5" s="111"/>
-      <c r="CQ5" s="111"/>
-      <c r="CR5" s="111"/>
-      <c r="CS5" s="111"/>
-      <c r="CT5" s="111"/>
-      <c r="CU5" s="111"/>
-      <c r="CV5" s="111"/>
-      <c r="CW5" s="111"/>
-      <c r="CX5" s="111"/>
-      <c r="CY5" s="111"/>
-      <c r="CZ5" s="111"/>
-      <c r="DA5" s="111"/>
-      <c r="DB5" s="111"/>
-      <c r="DC5" s="111"/>
-      <c r="DD5" s="111"/>
-      <c r="DE5" s="111"/>
-      <c r="DF5" s="111">
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="112"/>
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="112"/>
+      <c r="BA5" s="112"/>
+      <c r="BB5" s="112"/>
+      <c r="BC5" s="112"/>
+      <c r="BD5" s="112"/>
+      <c r="BE5" s="112"/>
+      <c r="BF5" s="112"/>
+      <c r="BG5" s="112"/>
+      <c r="BH5" s="112"/>
+      <c r="BI5" s="112"/>
+      <c r="BJ5" s="112"/>
+      <c r="BK5" s="112"/>
+      <c r="BL5" s="112"/>
+      <c r="BM5" s="112"/>
+      <c r="BN5" s="112"/>
+      <c r="BO5" s="112"/>
+      <c r="BP5" s="112"/>
+      <c r="BQ5" s="112"/>
+      <c r="BR5" s="112"/>
+      <c r="BS5" s="112"/>
+      <c r="BT5" s="112"/>
+      <c r="BU5" s="112"/>
+      <c r="BV5" s="112"/>
+      <c r="BW5" s="112"/>
+      <c r="BX5" s="112"/>
+      <c r="BY5" s="112"/>
+      <c r="BZ5" s="112"/>
+      <c r="CA5" s="112"/>
+      <c r="CB5" s="112"/>
+      <c r="CC5" s="112"/>
+      <c r="CD5" s="112"/>
+      <c r="CE5" s="112"/>
+      <c r="CF5" s="112"/>
+      <c r="CG5" s="112"/>
+      <c r="CH5" s="112"/>
+      <c r="CI5" s="112"/>
+      <c r="CJ5" s="112"/>
+      <c r="CK5" s="112"/>
+      <c r="CL5" s="112"/>
+      <c r="CM5" s="112"/>
+      <c r="CN5" s="112"/>
+      <c r="CO5" s="112"/>
+      <c r="CP5" s="112"/>
+      <c r="CQ5" s="112"/>
+      <c r="CR5" s="112"/>
+      <c r="CS5" s="112"/>
+      <c r="CT5" s="112"/>
+      <c r="CU5" s="112"/>
+      <c r="CV5" s="112"/>
+      <c r="CW5" s="112"/>
+      <c r="CX5" s="112"/>
+      <c r="CY5" s="112"/>
+      <c r="CZ5" s="112"/>
+      <c r="DA5" s="112"/>
+      <c r="DB5" s="112"/>
+      <c r="DC5" s="112"/>
+      <c r="DD5" s="112"/>
+      <c r="DE5" s="112"/>
+      <c r="DF5" s="112">
         <v>2017</v>
       </c>
-      <c r="DG5" s="111"/>
-      <c r="DH5" s="111"/>
-      <c r="DI5" s="111"/>
-      <c r="DJ5" s="111"/>
-      <c r="DK5" s="111"/>
-      <c r="DL5" s="111"/>
-      <c r="DM5" s="111"/>
-      <c r="DN5" s="111"/>
-      <c r="DO5" s="111"/>
-      <c r="DP5" s="111"/>
-      <c r="DQ5" s="111"/>
-      <c r="DR5" s="111"/>
-      <c r="DS5" s="111"/>
-      <c r="DT5" s="111"/>
-      <c r="DU5" s="111"/>
-      <c r="DV5" s="111"/>
-      <c r="DW5" s="111"/>
-      <c r="DX5" s="111"/>
-      <c r="DY5" s="111"/>
-      <c r="DZ5" s="111"/>
-      <c r="EA5" s="111"/>
-      <c r="EB5" s="111"/>
-      <c r="EC5" s="111"/>
-      <c r="ED5" s="111"/>
-      <c r="EE5" s="111"/>
-      <c r="EF5" s="111"/>
-      <c r="EG5" s="111"/>
-      <c r="EH5" s="111"/>
-      <c r="EI5" s="111"/>
-      <c r="EJ5" s="111"/>
-      <c r="EK5" s="111"/>
-      <c r="EL5" s="111"/>
-      <c r="EM5" s="111"/>
-      <c r="EN5" s="111"/>
-      <c r="EO5" s="111"/>
-      <c r="EP5" s="111"/>
-      <c r="EQ5" s="111"/>
-      <c r="ER5" s="111"/>
-      <c r="ES5" s="111"/>
-      <c r="ET5" s="111"/>
-      <c r="EU5" s="111"/>
-      <c r="EV5" s="111"/>
-      <c r="EW5" s="111"/>
-      <c r="EX5" s="111"/>
-      <c r="EY5" s="111"/>
-      <c r="EZ5" s="111"/>
-      <c r="FA5" s="111"/>
-      <c r="FB5" s="111"/>
-      <c r="FC5" s="111"/>
-      <c r="FD5" s="111"/>
-      <c r="FE5" s="111"/>
-      <c r="FF5" s="111"/>
-      <c r="FG5" s="111"/>
-      <c r="FH5" s="111"/>
-      <c r="FI5" s="111"/>
-      <c r="FJ5" s="111"/>
-      <c r="FK5" s="111"/>
-      <c r="FL5" s="111"/>
-      <c r="FM5" s="111"/>
-      <c r="FN5" s="111"/>
-      <c r="FO5" s="111"/>
-      <c r="FP5" s="111"/>
-      <c r="FQ5" s="111"/>
-      <c r="FR5" s="111"/>
-      <c r="FS5" s="111"/>
-      <c r="FT5" s="111"/>
-      <c r="FU5" s="111"/>
-      <c r="FV5" s="111"/>
-      <c r="FW5" s="111"/>
-      <c r="FX5" s="111"/>
-      <c r="FY5" s="111"/>
-      <c r="FZ5" s="111"/>
-      <c r="GA5" s="111"/>
-      <c r="GB5" s="111"/>
-      <c r="GC5" s="112"/>
+      <c r="DG5" s="112"/>
+      <c r="DH5" s="112"/>
+      <c r="DI5" s="112"/>
+      <c r="DJ5" s="112"/>
+      <c r="DK5" s="112"/>
+      <c r="DL5" s="112"/>
+      <c r="DM5" s="112"/>
+      <c r="DN5" s="112"/>
+      <c r="DO5" s="112"/>
+      <c r="DP5" s="112"/>
+      <c r="DQ5" s="112"/>
+      <c r="DR5" s="112"/>
+      <c r="DS5" s="112"/>
+      <c r="DT5" s="112"/>
+      <c r="DU5" s="112"/>
+      <c r="DV5" s="112"/>
+      <c r="DW5" s="112"/>
+      <c r="DX5" s="112"/>
+      <c r="DY5" s="112"/>
+      <c r="DZ5" s="112"/>
+      <c r="EA5" s="112"/>
+      <c r="EB5" s="112"/>
+      <c r="EC5" s="112"/>
+      <c r="ED5" s="112"/>
+      <c r="EE5" s="112"/>
+      <c r="EF5" s="112"/>
+      <c r="EG5" s="112"/>
+      <c r="EH5" s="112"/>
+      <c r="EI5" s="112"/>
+      <c r="EJ5" s="112"/>
+      <c r="EK5" s="112"/>
+      <c r="EL5" s="112"/>
+      <c r="EM5" s="112"/>
+      <c r="EN5" s="112"/>
+      <c r="EO5" s="112"/>
+      <c r="EP5" s="112"/>
+      <c r="EQ5" s="112"/>
+      <c r="ER5" s="112"/>
+      <c r="ES5" s="112"/>
+      <c r="ET5" s="112"/>
+      <c r="EU5" s="112"/>
+      <c r="EV5" s="112"/>
+      <c r="EW5" s="112"/>
+      <c r="EX5" s="112"/>
+      <c r="EY5" s="112"/>
+      <c r="EZ5" s="112"/>
+      <c r="FA5" s="112"/>
+      <c r="FB5" s="112"/>
+      <c r="FC5" s="112"/>
+      <c r="FD5" s="112"/>
+      <c r="FE5" s="112"/>
+      <c r="FF5" s="112"/>
+      <c r="FG5" s="112"/>
+      <c r="FH5" s="112"/>
+      <c r="FI5" s="112"/>
+      <c r="FJ5" s="112"/>
+      <c r="FK5" s="112"/>
+      <c r="FL5" s="112"/>
+      <c r="FM5" s="112"/>
+      <c r="FN5" s="112"/>
+      <c r="FO5" s="112"/>
+      <c r="FP5" s="112"/>
+      <c r="FQ5" s="112"/>
+      <c r="FR5" s="112"/>
+      <c r="FS5" s="112"/>
+      <c r="FT5" s="112"/>
+      <c r="FU5" s="112"/>
+      <c r="FV5" s="112"/>
+      <c r="FW5" s="112"/>
+      <c r="FX5" s="112"/>
+      <c r="FY5" s="112"/>
+      <c r="FZ5" s="112"/>
+      <c r="GA5" s="112"/>
+      <c r="GB5" s="112"/>
+      <c r="GC5" s="113"/>
     </row>
-    <row r="6" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="124" t="s">
+    <row r="6" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="134" t="s">
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109" t="s">
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="109"/>
-      <c r="AA6" s="109"/>
-      <c r="AB6" s="109"/>
-      <c r="AC6" s="109"/>
-      <c r="AD6" s="109"/>
-      <c r="AE6" s="109"/>
-      <c r="AF6" s="109"/>
-      <c r="AG6" s="109"/>
-      <c r="AH6" s="109"/>
-      <c r="AI6" s="109"/>
-      <c r="AJ6" s="109"/>
-      <c r="AK6" s="109"/>
-      <c r="AL6" s="109"/>
-      <c r="AM6" s="109"/>
-      <c r="AN6" s="109"/>
-      <c r="AO6" s="109"/>
-      <c r="AP6" s="109"/>
-      <c r="AQ6" s="109"/>
-      <c r="AR6" s="109"/>
-      <c r="AS6" s="109"/>
-      <c r="AT6" s="109"/>
-      <c r="AU6" s="109"/>
-      <c r="AV6" s="109"/>
-      <c r="AW6" s="109" t="s">
+      <c r="S6" s="110"/>
+      <c r="T6" s="110"/>
+      <c r="U6" s="110"/>
+      <c r="V6" s="110"/>
+      <c r="W6" s="110"/>
+      <c r="X6" s="110"/>
+      <c r="Y6" s="110"/>
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="110"/>
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="110"/>
+      <c r="AD6" s="110"/>
+      <c r="AE6" s="110"/>
+      <c r="AF6" s="110"/>
+      <c r="AG6" s="110"/>
+      <c r="AH6" s="110"/>
+      <c r="AI6" s="110"/>
+      <c r="AJ6" s="110"/>
+      <c r="AK6" s="110"/>
+      <c r="AL6" s="110"/>
+      <c r="AM6" s="110"/>
+      <c r="AN6" s="110"/>
+      <c r="AO6" s="110"/>
+      <c r="AP6" s="110"/>
+      <c r="AQ6" s="110"/>
+      <c r="AR6" s="110"/>
+      <c r="AS6" s="110"/>
+      <c r="AT6" s="110"/>
+      <c r="AU6" s="110"/>
+      <c r="AV6" s="110"/>
+      <c r="AW6" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AX6" s="109"/>
-      <c r="AY6" s="109"/>
-      <c r="AZ6" s="109"/>
-      <c r="BA6" s="109"/>
-      <c r="BB6" s="109"/>
-      <c r="BC6" s="109"/>
-      <c r="BD6" s="109"/>
-      <c r="BE6" s="109"/>
-      <c r="BF6" s="109"/>
-      <c r="BG6" s="109"/>
-      <c r="BH6" s="109"/>
-      <c r="BI6" s="109"/>
-      <c r="BJ6" s="109"/>
-      <c r="BK6" s="109"/>
-      <c r="BL6" s="109"/>
-      <c r="BM6" s="109"/>
-      <c r="BN6" s="109"/>
-      <c r="BO6" s="109"/>
-      <c r="BP6" s="109"/>
-      <c r="BQ6" s="109"/>
-      <c r="BR6" s="109"/>
-      <c r="BS6" s="109"/>
-      <c r="BT6" s="109"/>
-      <c r="BU6" s="109"/>
-      <c r="BV6" s="109"/>
-      <c r="BW6" s="109"/>
-      <c r="BX6" s="109"/>
-      <c r="BY6" s="109"/>
-      <c r="BZ6" s="109"/>
-      <c r="CA6" s="109" t="s">
+      <c r="AX6" s="110"/>
+      <c r="AY6" s="110"/>
+      <c r="AZ6" s="110"/>
+      <c r="BA6" s="110"/>
+      <c r="BB6" s="110"/>
+      <c r="BC6" s="110"/>
+      <c r="BD6" s="110"/>
+      <c r="BE6" s="110"/>
+      <c r="BF6" s="110"/>
+      <c r="BG6" s="110"/>
+      <c r="BH6" s="110"/>
+      <c r="BI6" s="110"/>
+      <c r="BJ6" s="110"/>
+      <c r="BK6" s="110"/>
+      <c r="BL6" s="110"/>
+      <c r="BM6" s="110"/>
+      <c r="BN6" s="110"/>
+      <c r="BO6" s="110"/>
+      <c r="BP6" s="110"/>
+      <c r="BQ6" s="110"/>
+      <c r="BR6" s="110"/>
+      <c r="BS6" s="110"/>
+      <c r="BT6" s="110"/>
+      <c r="BU6" s="110"/>
+      <c r="BV6" s="110"/>
+      <c r="BW6" s="110"/>
+      <c r="BX6" s="110"/>
+      <c r="BY6" s="110"/>
+      <c r="BZ6" s="110"/>
+      <c r="CA6" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="CB6" s="109"/>
-      <c r="CC6" s="109"/>
-      <c r="CD6" s="109"/>
-      <c r="CE6" s="109"/>
-      <c r="CF6" s="109"/>
-      <c r="CG6" s="109"/>
-      <c r="CH6" s="109"/>
-      <c r="CI6" s="109"/>
-      <c r="CJ6" s="109"/>
-      <c r="CK6" s="109"/>
-      <c r="CL6" s="109"/>
-      <c r="CM6" s="109"/>
-      <c r="CN6" s="109"/>
-      <c r="CO6" s="109"/>
-      <c r="CP6" s="109"/>
-      <c r="CQ6" s="109"/>
-      <c r="CR6" s="109"/>
-      <c r="CS6" s="109"/>
-      <c r="CT6" s="109"/>
-      <c r="CU6" s="109"/>
-      <c r="CV6" s="109"/>
-      <c r="CW6" s="109"/>
-      <c r="CX6" s="109"/>
-      <c r="CY6" s="109"/>
-      <c r="CZ6" s="109"/>
-      <c r="DA6" s="109"/>
-      <c r="DB6" s="109"/>
-      <c r="DC6" s="109"/>
-      <c r="DD6" s="109"/>
-      <c r="DE6" s="109"/>
-      <c r="DF6" s="109" t="s">
+      <c r="CB6" s="110"/>
+      <c r="CC6" s="110"/>
+      <c r="CD6" s="110"/>
+      <c r="CE6" s="110"/>
+      <c r="CF6" s="110"/>
+      <c r="CG6" s="110"/>
+      <c r="CH6" s="110"/>
+      <c r="CI6" s="110"/>
+      <c r="CJ6" s="110"/>
+      <c r="CK6" s="110"/>
+      <c r="CL6" s="110"/>
+      <c r="CM6" s="110"/>
+      <c r="CN6" s="110"/>
+      <c r="CO6" s="110"/>
+      <c r="CP6" s="110"/>
+      <c r="CQ6" s="110"/>
+      <c r="CR6" s="110"/>
+      <c r="CS6" s="110"/>
+      <c r="CT6" s="110"/>
+      <c r="CU6" s="110"/>
+      <c r="CV6" s="110"/>
+      <c r="CW6" s="110"/>
+      <c r="CX6" s="110"/>
+      <c r="CY6" s="110"/>
+      <c r="CZ6" s="110"/>
+      <c r="DA6" s="110"/>
+      <c r="DB6" s="110"/>
+      <c r="DC6" s="110"/>
+      <c r="DD6" s="110"/>
+      <c r="DE6" s="110"/>
+      <c r="DF6" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="DG6" s="109"/>
-      <c r="DH6" s="109"/>
-      <c r="DI6" s="109"/>
-      <c r="DJ6" s="109"/>
-      <c r="DK6" s="109"/>
-      <c r="DL6" s="109"/>
-      <c r="DM6" s="109"/>
-      <c r="DN6" s="109"/>
-      <c r="DO6" s="109"/>
-      <c r="DP6" s="109"/>
-      <c r="DQ6" s="109"/>
-      <c r="DR6" s="109"/>
-      <c r="DS6" s="109"/>
-      <c r="DT6" s="109"/>
-      <c r="DU6" s="109"/>
-      <c r="DV6" s="109"/>
-      <c r="DW6" s="109"/>
-      <c r="DX6" s="109"/>
-      <c r="DY6" s="109"/>
-      <c r="DZ6" s="109"/>
-      <c r="EA6" s="109"/>
-      <c r="EB6" s="109"/>
-      <c r="EC6" s="109"/>
-      <c r="ED6" s="109"/>
-      <c r="EE6" s="109"/>
-      <c r="EF6" s="109"/>
-      <c r="EG6" s="109"/>
-      <c r="EH6" s="109"/>
-      <c r="EI6" s="109"/>
-      <c r="EJ6" s="109"/>
-      <c r="EK6" s="109" t="s">
+      <c r="DG6" s="110"/>
+      <c r="DH6" s="110"/>
+      <c r="DI6" s="110"/>
+      <c r="DJ6" s="110"/>
+      <c r="DK6" s="110"/>
+      <c r="DL6" s="110"/>
+      <c r="DM6" s="110"/>
+      <c r="DN6" s="110"/>
+      <c r="DO6" s="110"/>
+      <c r="DP6" s="110"/>
+      <c r="DQ6" s="110"/>
+      <c r="DR6" s="110"/>
+      <c r="DS6" s="110"/>
+      <c r="DT6" s="110"/>
+      <c r="DU6" s="110"/>
+      <c r="DV6" s="110"/>
+      <c r="DW6" s="110"/>
+      <c r="DX6" s="110"/>
+      <c r="DY6" s="110"/>
+      <c r="DZ6" s="110"/>
+      <c r="EA6" s="110"/>
+      <c r="EB6" s="110"/>
+      <c r="EC6" s="110"/>
+      <c r="ED6" s="110"/>
+      <c r="EE6" s="110"/>
+      <c r="EF6" s="110"/>
+      <c r="EG6" s="110"/>
+      <c r="EH6" s="110"/>
+      <c r="EI6" s="110"/>
+      <c r="EJ6" s="110"/>
+      <c r="EK6" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="EL6" s="109"/>
-      <c r="EM6" s="109"/>
-      <c r="EN6" s="109"/>
-      <c r="EO6" s="109"/>
-      <c r="EP6" s="109"/>
-      <c r="EQ6" s="109"/>
-      <c r="ER6" s="109"/>
-      <c r="ES6" s="109"/>
-      <c r="ET6" s="109"/>
-      <c r="EU6" s="109"/>
-      <c r="EV6" s="109"/>
-      <c r="EW6" s="109"/>
-      <c r="EX6" s="109"/>
-      <c r="EY6" s="109"/>
-      <c r="EZ6" s="109"/>
-      <c r="FA6" s="109"/>
-      <c r="FB6" s="109"/>
-      <c r="FC6" s="109"/>
-      <c r="FD6" s="109"/>
-      <c r="FE6" s="109"/>
-      <c r="FF6" s="109"/>
-      <c r="FG6" s="109"/>
-      <c r="FH6" s="109"/>
-      <c r="FI6" s="109"/>
-      <c r="FJ6" s="109"/>
-      <c r="FK6" s="109"/>
-      <c r="FL6" s="109"/>
-      <c r="FM6" s="109" t="s">
+      <c r="EL6" s="110"/>
+      <c r="EM6" s="110"/>
+      <c r="EN6" s="110"/>
+      <c r="EO6" s="110"/>
+      <c r="EP6" s="110"/>
+      <c r="EQ6" s="110"/>
+      <c r="ER6" s="110"/>
+      <c r="ES6" s="110"/>
+      <c r="ET6" s="110"/>
+      <c r="EU6" s="110"/>
+      <c r="EV6" s="110"/>
+      <c r="EW6" s="110"/>
+      <c r="EX6" s="110"/>
+      <c r="EY6" s="110"/>
+      <c r="EZ6" s="110"/>
+      <c r="FA6" s="110"/>
+      <c r="FB6" s="110"/>
+      <c r="FC6" s="110"/>
+      <c r="FD6" s="110"/>
+      <c r="FE6" s="110"/>
+      <c r="FF6" s="110"/>
+      <c r="FG6" s="110"/>
+      <c r="FH6" s="110"/>
+      <c r="FI6" s="110"/>
+      <c r="FJ6" s="110"/>
+      <c r="FK6" s="110"/>
+      <c r="FL6" s="110"/>
+      <c r="FM6" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="FN6" s="109"/>
-      <c r="FO6" s="109"/>
-      <c r="FP6" s="109"/>
-      <c r="FQ6" s="109"/>
-      <c r="FR6" s="109"/>
-      <c r="FS6" s="109"/>
-      <c r="FT6" s="109"/>
-      <c r="FU6" s="109"/>
-      <c r="FV6" s="109"/>
-      <c r="FW6" s="109"/>
-      <c r="FX6" s="109"/>
-      <c r="FY6" s="109"/>
-      <c r="FZ6" s="109"/>
-      <c r="GA6" s="109"/>
-      <c r="GB6" s="109"/>
-      <c r="GC6" s="110"/>
+      <c r="FN6" s="110"/>
+      <c r="FO6" s="110"/>
+      <c r="FP6" s="110"/>
+      <c r="FQ6" s="110"/>
+      <c r="FR6" s="110"/>
+      <c r="FS6" s="110"/>
+      <c r="FT6" s="110"/>
+      <c r="FU6" s="110"/>
+      <c r="FV6" s="110"/>
+      <c r="FW6" s="110"/>
+      <c r="FX6" s="110"/>
+      <c r="FY6" s="110"/>
+      <c r="FZ6" s="110"/>
+      <c r="GA6" s="110"/>
+      <c r="GB6" s="110"/>
+      <c r="GC6" s="111"/>
     </row>
-    <row r="7" spans="1:185" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="121" t="s">
+    <row r="7" spans="1:185" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="133" t="s">
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="113" t="s">
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="113" t="s">
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="113" t="s">
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="111"/>
-      <c r="AF7" s="111"/>
-      <c r="AG7" s="114"/>
-      <c r="AH7" s="113" t="s">
+      <c r="AB7" s="112"/>
+      <c r="AC7" s="112"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="112"/>
+      <c r="AF7" s="112"/>
+      <c r="AG7" s="115"/>
+      <c r="AH7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="AI7" s="111"/>
-      <c r="AJ7" s="111"/>
-      <c r="AK7" s="111"/>
-      <c r="AL7" s="111"/>
-      <c r="AM7" s="111"/>
-      <c r="AN7" s="114"/>
-      <c r="AO7" s="113" t="s">
+      <c r="AI7" s="112"/>
+      <c r="AJ7" s="112"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="112"/>
+      <c r="AM7" s="112"/>
+      <c r="AN7" s="115"/>
+      <c r="AO7" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="AP7" s="111"/>
-      <c r="AQ7" s="111"/>
-      <c r="AR7" s="111"/>
-      <c r="AS7" s="111"/>
-      <c r="AT7" s="111"/>
-      <c r="AU7" s="114"/>
-      <c r="AV7" s="113" t="s">
+      <c r="AP7" s="112"/>
+      <c r="AQ7" s="112"/>
+      <c r="AR7" s="112"/>
+      <c r="AS7" s="112"/>
+      <c r="AT7" s="112"/>
+      <c r="AU7" s="115"/>
+      <c r="AV7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="AW7" s="111"/>
-      <c r="AX7" s="111"/>
-      <c r="AY7" s="111"/>
-      <c r="AZ7" s="111"/>
-      <c r="BA7" s="111"/>
-      <c r="BB7" s="114"/>
-      <c r="BC7" s="113" t="s">
+      <c r="AW7" s="112"/>
+      <c r="AX7" s="112"/>
+      <c r="AY7" s="112"/>
+      <c r="AZ7" s="112"/>
+      <c r="BA7" s="112"/>
+      <c r="BB7" s="115"/>
+      <c r="BC7" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="BD7" s="111"/>
-      <c r="BE7" s="111"/>
-      <c r="BF7" s="111"/>
-      <c r="BG7" s="111"/>
-      <c r="BH7" s="111"/>
-      <c r="BI7" s="114"/>
-      <c r="BJ7" s="113" t="s">
+      <c r="BD7" s="112"/>
+      <c r="BE7" s="112"/>
+      <c r="BF7" s="112"/>
+      <c r="BG7" s="112"/>
+      <c r="BH7" s="112"/>
+      <c r="BI7" s="115"/>
+      <c r="BJ7" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="BK7" s="111"/>
-      <c r="BL7" s="111"/>
-      <c r="BM7" s="111"/>
-      <c r="BN7" s="111"/>
-      <c r="BO7" s="111"/>
-      <c r="BP7" s="114"/>
-      <c r="BQ7" s="113" t="s">
+      <c r="BK7" s="112"/>
+      <c r="BL7" s="112"/>
+      <c r="BM7" s="112"/>
+      <c r="BN7" s="112"/>
+      <c r="BO7" s="112"/>
+      <c r="BP7" s="115"/>
+      <c r="BQ7" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="BR7" s="111"/>
-      <c r="BS7" s="111"/>
-      <c r="BT7" s="111"/>
-      <c r="BU7" s="111"/>
-      <c r="BV7" s="111"/>
-      <c r="BW7" s="114"/>
-      <c r="BX7" s="113" t="s">
+      <c r="BR7" s="112"/>
+      <c r="BS7" s="112"/>
+      <c r="BT7" s="112"/>
+      <c r="BU7" s="112"/>
+      <c r="BV7" s="112"/>
+      <c r="BW7" s="115"/>
+      <c r="BX7" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="BY7" s="111"/>
-      <c r="BZ7" s="111"/>
-      <c r="CA7" s="111"/>
-      <c r="CB7" s="111"/>
-      <c r="CC7" s="111"/>
-      <c r="CD7" s="114"/>
-      <c r="CE7" s="113" t="s">
+      <c r="BY7" s="112"/>
+      <c r="BZ7" s="112"/>
+      <c r="CA7" s="112"/>
+      <c r="CB7" s="112"/>
+      <c r="CC7" s="112"/>
+      <c r="CD7" s="115"/>
+      <c r="CE7" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="CF7" s="111"/>
-      <c r="CG7" s="111"/>
-      <c r="CH7" s="111"/>
-      <c r="CI7" s="111"/>
-      <c r="CJ7" s="111"/>
-      <c r="CK7" s="114"/>
-      <c r="CL7" s="113" t="s">
+      <c r="CF7" s="112"/>
+      <c r="CG7" s="112"/>
+      <c r="CH7" s="112"/>
+      <c r="CI7" s="112"/>
+      <c r="CJ7" s="112"/>
+      <c r="CK7" s="115"/>
+      <c r="CL7" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="CM7" s="111"/>
-      <c r="CN7" s="111"/>
-      <c r="CO7" s="111"/>
-      <c r="CP7" s="111"/>
-      <c r="CQ7" s="111"/>
-      <c r="CR7" s="114"/>
-      <c r="CS7" s="113" t="s">
+      <c r="CM7" s="112"/>
+      <c r="CN7" s="112"/>
+      <c r="CO7" s="112"/>
+      <c r="CP7" s="112"/>
+      <c r="CQ7" s="112"/>
+      <c r="CR7" s="115"/>
+      <c r="CS7" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="CT7" s="111"/>
-      <c r="CU7" s="111"/>
-      <c r="CV7" s="111"/>
-      <c r="CW7" s="111"/>
-      <c r="CX7" s="111"/>
-      <c r="CY7" s="114"/>
-      <c r="CZ7" s="113" t="s">
+      <c r="CT7" s="112"/>
+      <c r="CU7" s="112"/>
+      <c r="CV7" s="112"/>
+      <c r="CW7" s="112"/>
+      <c r="CX7" s="112"/>
+      <c r="CY7" s="115"/>
+      <c r="CZ7" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="DA7" s="111"/>
-      <c r="DB7" s="111"/>
-      <c r="DC7" s="111"/>
-      <c r="DD7" s="111"/>
-      <c r="DE7" s="111"/>
-      <c r="DF7" s="111"/>
-      <c r="DG7" s="113" t="s">
+      <c r="DA7" s="112"/>
+      <c r="DB7" s="112"/>
+      <c r="DC7" s="112"/>
+      <c r="DD7" s="112"/>
+      <c r="DE7" s="112"/>
+      <c r="DF7" s="112"/>
+      <c r="DG7" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="DH7" s="111"/>
-      <c r="DI7" s="111"/>
-      <c r="DJ7" s="111"/>
-      <c r="DK7" s="111"/>
-      <c r="DL7" s="111"/>
-      <c r="DM7" s="114"/>
-      <c r="DN7" s="111" t="s">
+      <c r="DH7" s="112"/>
+      <c r="DI7" s="112"/>
+      <c r="DJ7" s="112"/>
+      <c r="DK7" s="112"/>
+      <c r="DL7" s="112"/>
+      <c r="DM7" s="115"/>
+      <c r="DN7" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="DO7" s="111"/>
-      <c r="DP7" s="111"/>
-      <c r="DQ7" s="111"/>
-      <c r="DR7" s="111"/>
-      <c r="DS7" s="111"/>
-      <c r="DT7" s="111"/>
-      <c r="DU7" s="113" t="s">
+      <c r="DO7" s="112"/>
+      <c r="DP7" s="112"/>
+      <c r="DQ7" s="112"/>
+      <c r="DR7" s="112"/>
+      <c r="DS7" s="112"/>
+      <c r="DT7" s="112"/>
+      <c r="DU7" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="DV7" s="111"/>
-      <c r="DW7" s="111"/>
-      <c r="DX7" s="111"/>
-      <c r="DY7" s="111"/>
-      <c r="DZ7" s="111"/>
-      <c r="EA7" s="114"/>
-      <c r="EB7" s="111" t="s">
+      <c r="DV7" s="112"/>
+      <c r="DW7" s="112"/>
+      <c r="DX7" s="112"/>
+      <c r="DY7" s="112"/>
+      <c r="DZ7" s="112"/>
+      <c r="EA7" s="115"/>
+      <c r="EB7" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="EC7" s="111"/>
-      <c r="ED7" s="111"/>
-      <c r="EE7" s="111"/>
-      <c r="EF7" s="111"/>
-      <c r="EG7" s="111"/>
-      <c r="EH7" s="111"/>
-      <c r="EI7" s="113" t="s">
+      <c r="EC7" s="112"/>
+      <c r="ED7" s="112"/>
+      <c r="EE7" s="112"/>
+      <c r="EF7" s="112"/>
+      <c r="EG7" s="112"/>
+      <c r="EH7" s="112"/>
+      <c r="EI7" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="EJ7" s="111"/>
-      <c r="EK7" s="111"/>
-      <c r="EL7" s="111"/>
-      <c r="EM7" s="111"/>
-      <c r="EN7" s="111"/>
-      <c r="EO7" s="114"/>
-      <c r="EP7" s="111" t="s">
+      <c r="EJ7" s="112"/>
+      <c r="EK7" s="112"/>
+      <c r="EL7" s="112"/>
+      <c r="EM7" s="112"/>
+      <c r="EN7" s="112"/>
+      <c r="EO7" s="115"/>
+      <c r="EP7" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="EQ7" s="111"/>
-      <c r="ER7" s="111"/>
-      <c r="ES7" s="111"/>
-      <c r="ET7" s="111"/>
-      <c r="EU7" s="111"/>
-      <c r="EV7" s="111"/>
-      <c r="EW7" s="113" t="s">
+      <c r="EQ7" s="112"/>
+      <c r="ER7" s="112"/>
+      <c r="ES7" s="112"/>
+      <c r="ET7" s="112"/>
+      <c r="EU7" s="112"/>
+      <c r="EV7" s="112"/>
+      <c r="EW7" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="EX7" s="111"/>
-      <c r="EY7" s="111"/>
-      <c r="EZ7" s="111"/>
-      <c r="FA7" s="111"/>
-      <c r="FB7" s="111"/>
-      <c r="FC7" s="114"/>
-      <c r="FD7" s="111" t="s">
+      <c r="EX7" s="112"/>
+      <c r="EY7" s="112"/>
+      <c r="EZ7" s="112"/>
+      <c r="FA7" s="112"/>
+      <c r="FB7" s="112"/>
+      <c r="FC7" s="115"/>
+      <c r="FD7" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="FE7" s="111"/>
-      <c r="FF7" s="111"/>
-      <c r="FG7" s="111"/>
-      <c r="FH7" s="111"/>
-      <c r="FI7" s="111"/>
-      <c r="FJ7" s="111"/>
-      <c r="FK7" s="113" t="s">
+      <c r="FE7" s="112"/>
+      <c r="FF7" s="112"/>
+      <c r="FG7" s="112"/>
+      <c r="FH7" s="112"/>
+      <c r="FI7" s="112"/>
+      <c r="FJ7" s="112"/>
+      <c r="FK7" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="FL7" s="111"/>
-      <c r="FM7" s="111"/>
-      <c r="FN7" s="111"/>
-      <c r="FO7" s="111"/>
-      <c r="FP7" s="111"/>
-      <c r="FQ7" s="114"/>
-      <c r="FR7" s="111" t="s">
+      <c r="FL7" s="112"/>
+      <c r="FM7" s="112"/>
+      <c r="FN7" s="112"/>
+      <c r="FO7" s="112"/>
+      <c r="FP7" s="112"/>
+      <c r="FQ7" s="115"/>
+      <c r="FR7" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="FS7" s="111"/>
-      <c r="FT7" s="111"/>
-      <c r="FU7" s="111"/>
-      <c r="FV7" s="111"/>
-      <c r="FW7" s="111"/>
-      <c r="FX7" s="111"/>
-      <c r="FY7" s="113" t="s">
+      <c r="FS7" s="112"/>
+      <c r="FT7" s="112"/>
+      <c r="FU7" s="112"/>
+      <c r="FV7" s="112"/>
+      <c r="FW7" s="112"/>
+      <c r="FX7" s="112"/>
+      <c r="FY7" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="FZ7" s="111"/>
-      <c r="GA7" s="111"/>
-      <c r="GB7" s="111"/>
-      <c r="GC7" s="112"/>
+      <c r="FZ7" s="112"/>
+      <c r="GA7" s="112"/>
+      <c r="GB7" s="112"/>
+      <c r="GC7" s="113"/>
     </row>
-    <row r="8" spans="1:185" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="130" t="s">
+    <row r="8" spans="1:185" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
       <c r="F8" s="25">
         <v>19</v>
       </c>
@@ -4335,7 +4453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
@@ -4521,7 +4639,7 @@
       <c r="GB9" s="7"/>
       <c r="GC9" s="8"/>
     </row>
-    <row r="10" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>32</v>
       </c>
@@ -4714,10 +4832,10 @@
       <c r="GB10" s="40"/>
       <c r="GC10" s="45"/>
     </row>
-    <row r="11" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="49">
         <v>42654</v>
@@ -4905,7 +5023,7 @@
       <c r="GB11" s="11"/>
       <c r="GC11" s="24"/>
     </row>
-    <row r="12" spans="1:185" s="61" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:185" s="61" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
@@ -5092,7 +5210,7 @@
       <c r="GB12" s="56"/>
       <c r="GC12" s="60"/>
     </row>
-    <row r="13" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="9" t="s">
         <v>68</v>
@@ -5282,7 +5400,7 @@
       <c r="GB13" s="11"/>
       <c r="GC13" s="24"/>
     </row>
-    <row r="14" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="48"/>
       <c r="C14" s="11"/>
@@ -5469,7 +5587,7 @@
       <c r="GB14" s="11"/>
       <c r="GC14" s="24"/>
     </row>
-    <row r="15" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
       <c r="B15" s="9" t="s">
         <v>69</v>
@@ -5659,7 +5777,7 @@
       <c r="GB15" s="11"/>
       <c r="GC15" s="24"/>
     </row>
-    <row r="16" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="48"/>
       <c r="C16" s="11"/>
@@ -5846,7 +5964,7 @@
       <c r="GB16" s="11"/>
       <c r="GC16" s="24"/>
     </row>
-    <row r="17" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="9" t="s">
         <v>70</v>
@@ -6036,7 +6154,7 @@
       <c r="GB17" s="11"/>
       <c r="GC17" s="24"/>
     </row>
-    <row r="18" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
       <c r="B18" s="9"/>
       <c r="C18" s="7"/>
@@ -6222,7 +6340,7 @@
       <c r="GB18" s="11"/>
       <c r="GC18" s="24"/>
     </row>
-    <row r="19" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>33</v>
       </c>
@@ -6415,7 +6533,7 @@
       <c r="GB19" s="40"/>
       <c r="GC19" s="45"/>
     </row>
-    <row r="20" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
       <c r="B20" s="9" t="s">
         <v>71</v>
@@ -6605,7 +6723,7 @@
       <c r="GB20" s="11"/>
       <c r="GC20" s="24"/>
     </row>
-    <row r="21" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
       <c r="B21" s="9"/>
       <c r="C21" s="47"/>
@@ -6791,7 +6909,7 @@
       <c r="GB21" s="11"/>
       <c r="GC21" s="24"/>
     </row>
-    <row r="22" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A22" s="46"/>
       <c r="B22" s="9" t="s">
         <v>73</v>
@@ -6981,7 +7099,7 @@
       <c r="GB22" s="11"/>
       <c r="GC22" s="24"/>
     </row>
-    <row r="23" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
       <c r="B23" s="9"/>
       <c r="C23" s="47"/>
@@ -7167,7 +7285,7 @@
       <c r="GB23" s="11"/>
       <c r="GC23" s="24"/>
     </row>
-    <row r="24" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
       <c r="B24" s="9" t="s">
         <v>72</v>
@@ -7357,7 +7475,7 @@
       <c r="GB24" s="11"/>
       <c r="GC24" s="24"/>
     </row>
-    <row r="25" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="9"/>
       <c r="C25" s="7"/>
@@ -7543,7 +7661,7 @@
       <c r="GB25" s="11"/>
       <c r="GC25" s="24"/>
     </row>
-    <row r="26" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>34</v>
       </c>
@@ -7736,7 +7854,7 @@
       <c r="GB26" s="40"/>
       <c r="GC26" s="45"/>
     </row>
-    <row r="27" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="48" t="s">
         <v>74</v>
@@ -7927,7 +8045,7 @@
       <c r="GB27" s="11"/>
       <c r="GC27" s="24"/>
     </row>
-    <row r="28" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="48"/>
       <c r="C28" s="11"/>
@@ -8114,7 +8232,7 @@
       <c r="GB28" s="11"/>
       <c r="GC28" s="24"/>
     </row>
-    <row r="29" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="48" t="s">
         <v>77</v>
@@ -8305,7 +8423,7 @@
       <c r="GB29" s="11"/>
       <c r="GC29" s="24"/>
     </row>
-    <row r="30" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="48"/>
       <c r="C30" s="11"/>
@@ -8492,10 +8610,10 @@
       <c r="GB30" s="11"/>
       <c r="GC30" s="24"/>
     </row>
-    <row r="31" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="47">
         <v>42704</v>
@@ -8682,7 +8800,7 @@
       <c r="GB31" s="11"/>
       <c r="GC31" s="24"/>
     </row>
-    <row r="32" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="9"/>
       <c r="C32" s="7"/>
@@ -8868,7 +8986,7 @@
       <c r="GB32" s="11"/>
       <c r="GC32" s="24"/>
     </row>
-    <row r="33" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>35</v>
       </c>
@@ -9061,7 +9179,7 @@
       <c r="GB33" s="40"/>
       <c r="GC33" s="45"/>
     </row>
-    <row r="34" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="48" t="s">
         <v>78</v>
@@ -9252,7 +9370,7 @@
       <c r="GB34" s="11"/>
       <c r="GC34" s="24"/>
     </row>
-    <row r="35" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="48"/>
       <c r="C35" s="49"/>
@@ -9439,10 +9557,10 @@
       <c r="GB35" s="11"/>
       <c r="GC35" s="24"/>
     </row>
-    <row r="36" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="49">
         <v>42725</v>
@@ -9630,7 +9748,7 @@
       <c r="GB36" s="11"/>
       <c r="GC36" s="24"/>
     </row>
-    <row r="37" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="48"/>
       <c r="C37" s="49"/>
@@ -9817,7 +9935,7 @@
       <c r="GB37" s="11"/>
       <c r="GC37" s="24"/>
     </row>
-    <row r="38" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>36</v>
       </c>
@@ -10010,10 +10128,10 @@
       <c r="GB38" s="40"/>
       <c r="GC38" s="45"/>
     </row>
-    <row r="39" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="49">
         <v>42760</v>
@@ -10201,7 +10319,7 @@
       <c r="GB39" s="11"/>
       <c r="GC39" s="24"/>
     </row>
-    <row r="40" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
       <c r="C40" s="49"/>
       <c r="D40" s="11"/>
@@ -10387,10 +10505,10 @@
       <c r="GB40" s="11"/>
       <c r="GC40" s="24"/>
     </row>
-    <row r="41" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
       <c r="B41" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="49">
         <v>42760</v>
@@ -10578,7 +10696,7 @@
       <c r="GB41" s="11"/>
       <c r="GC41" s="24"/>
     </row>
-    <row r="42" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="48"/>
       <c r="C42" s="49"/>
@@ -10765,12 +10883,12 @@
       <c r="GB42" s="11"/>
       <c r="GC42" s="24"/>
     </row>
-    <row r="43" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="52">
         <v>42795</v>
@@ -10958,10 +11076,10 @@
       <c r="GB43" s="40"/>
       <c r="GC43" s="45"/>
     </row>
-    <row r="44" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" s="49">
         <v>42795</v>
@@ -11149,7 +11267,7 @@
       <c r="GB44" s="11"/>
       <c r="GC44" s="24"/>
     </row>
-    <row r="45" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
       <c r="B45" s="48"/>
       <c r="C45" s="49"/>
@@ -11336,7 +11454,7 @@
       <c r="GB45" s="11"/>
       <c r="GC45" s="24"/>
     </row>
-    <row r="46" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
       <c r="B46" s="48" t="s">
         <v>79</v>
@@ -11527,7 +11645,7 @@
       <c r="GB46" s="11"/>
       <c r="GC46" s="24"/>
     </row>
-    <row r="47" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="48"/>
       <c r="C47" s="49"/>
@@ -11714,12 +11832,12 @@
       <c r="GB47" s="11"/>
       <c r="GC47" s="24"/>
     </row>
-    <row r="48" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="44" t="s">
         <v>83</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>84</v>
       </c>
       <c r="C48" s="52"/>
       <c r="D48" s="40"/>
@@ -11905,10 +12023,10 @@
       <c r="GB48" s="40"/>
       <c r="GC48" s="45"/>
     </row>
-    <row r="49" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
       <c r="B49" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="49">
         <v>42804</v>
@@ -12096,7 +12214,7 @@
       <c r="GB49" s="11"/>
       <c r="GC49" s="24"/>
     </row>
-    <row r="50" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="48"/>
       <c r="C50" s="49"/>
@@ -12283,10 +12401,10 @@
       <c r="GB50" s="11"/>
       <c r="GC50" s="24"/>
     </row>
-    <row r="51" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
       <c r="B51" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" s="49">
         <v>42810</v>
@@ -12474,7 +12592,7 @@
       <c r="GB51" s="83"/>
       <c r="GC51" s="89"/>
     </row>
-    <row r="52" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A52" s="33"/>
       <c r="B52" s="9"/>
       <c r="C52" s="7"/>
@@ -12660,7 +12778,7 @@
       <c r="GB52" s="11"/>
       <c r="GC52" s="24"/>
     </row>
-    <row r="53" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
         <v>36</v>
       </c>
@@ -12851,13 +12969,13 @@
       <c r="GB53" s="40"/>
       <c r="GC53" s="45"/>
     </row>
-    <row r="54" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A54" s="33"/>
       <c r="B54" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D54" s="7"/>
       <c r="F54" s="11"/>
@@ -13041,7 +13159,7 @@
       <c r="GB54" s="11"/>
       <c r="GC54" s="24"/>
     </row>
-    <row r="55" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="33"/>
       <c r="B55" s="9"/>
       <c r="C55" s="7"/>
@@ -13227,7 +13345,7 @@
       <c r="GB55" s="11"/>
       <c r="GC55" s="24"/>
     </row>
-    <row r="56" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A56" s="33"/>
       <c r="B56" s="9" t="s">
         <v>44</v>
@@ -13417,7 +13535,7 @@
       <c r="GB56" s="11"/>
       <c r="GC56" s="24"/>
     </row>
-    <row r="57" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="33"/>
       <c r="B57" s="9"/>
       <c r="C57" s="7"/>
@@ -13603,7 +13721,7 @@
       <c r="GB57" s="11"/>
       <c r="GC57" s="24"/>
     </row>
-    <row r="58" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A58" s="33"/>
       <c r="B58" s="9" t="s">
         <v>46</v>
@@ -13793,7 +13911,7 @@
       <c r="GB58" s="11"/>
       <c r="GC58" s="24"/>
     </row>
-    <row r="59" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A59" s="33"/>
       <c r="B59" s="9"/>
       <c r="C59" s="7"/>
@@ -13979,7 +14097,7 @@
       <c r="GB59" s="11"/>
       <c r="GC59" s="24"/>
     </row>
-    <row r="60" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
         <v>37</v>
       </c>
@@ -14170,7 +14288,7 @@
       <c r="GB60" s="40"/>
       <c r="GC60" s="45"/>
     </row>
-    <row r="61" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A61" s="33"/>
       <c r="B61" s="9" t="s">
         <v>61</v>
@@ -14360,7 +14478,7 @@
       <c r="GB61" s="11"/>
       <c r="GC61" s="24"/>
     </row>
-    <row r="62" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
       <c r="B62" s="48"/>
       <c r="C62" s="11"/>
@@ -14547,7 +14665,7 @@
       <c r="GB62" s="11"/>
       <c r="GC62" s="24"/>
     </row>
-    <row r="63" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A63" s="33"/>
       <c r="B63" s="9" t="s">
         <v>40</v>
@@ -14737,7 +14855,7 @@
       <c r="GB63" s="11"/>
       <c r="GC63" s="24"/>
     </row>
-    <row r="64" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
       <c r="B64" s="48"/>
       <c r="C64" s="11"/>
@@ -14924,7 +15042,7 @@
       <c r="GB64" s="11"/>
       <c r="GC64" s="24"/>
     </row>
-    <row r="65" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A65" s="33"/>
       <c r="B65" s="9" t="s">
         <v>62</v>
@@ -15114,7 +15232,7 @@
       <c r="GB65" s="11"/>
       <c r="GC65" s="24"/>
     </row>
-    <row r="66" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="48"/>
       <c r="C66" s="11"/>
@@ -15301,13 +15419,13 @@
       <c r="GB66" s="11"/>
       <c r="GC66" s="24"/>
     </row>
-    <row r="67" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A67" s="33"/>
       <c r="B67" s="9" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C67" s="47">
-        <v>42726</v>
+        <v>42720</v>
       </c>
       <c r="D67" s="7"/>
       <c r="F67" s="11"/>
@@ -15398,13 +15516,13 @@
       <c r="CM67" s="11"/>
       <c r="CN67" s="11"/>
       <c r="CO67" s="11"/>
-      <c r="CP67" s="11"/>
+      <c r="CP67" s="51"/>
       <c r="CQ67" s="11"/>
       <c r="CR67" s="11"/>
       <c r="CS67" s="23"/>
       <c r="CT67" s="11"/>
       <c r="CU67" s="11"/>
-      <c r="CV67" s="90"/>
+      <c r="CV67" s="67"/>
       <c r="CW67" s="11"/>
       <c r="CX67" s="11"/>
       <c r="CY67" s="22"/>
@@ -15491,7 +15609,7 @@
       <c r="GB67" s="11"/>
       <c r="GC67" s="24"/>
     </row>
-    <row r="68" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
       <c r="B68" s="48"/>
       <c r="C68" s="49"/>
@@ -15678,13 +15796,13 @@
       <c r="GB68" s="11"/>
       <c r="GC68" s="24"/>
     </row>
-    <row r="69" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A69" s="33"/>
       <c r="B69" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C69" s="47">
-        <v>42720</v>
+        <v>42776</v>
       </c>
       <c r="D69" s="7"/>
       <c r="F69" s="11"/>
@@ -15775,7 +15893,7 @@
       <c r="CM69" s="11"/>
       <c r="CN69" s="11"/>
       <c r="CO69" s="11"/>
-      <c r="CP69" s="51"/>
+      <c r="CP69" s="11"/>
       <c r="CQ69" s="11"/>
       <c r="CR69" s="11"/>
       <c r="CS69" s="23"/>
@@ -15831,7 +15949,7 @@
       <c r="EQ69" s="11"/>
       <c r="ER69" s="11"/>
       <c r="ES69" s="11"/>
-      <c r="ET69" s="11"/>
+      <c r="ET69" s="51"/>
       <c r="EU69" s="11"/>
       <c r="EV69" s="11"/>
       <c r="EW69" s="23"/>
@@ -15868,12 +15986,11 @@
       <c r="GB69" s="11"/>
       <c r="GC69" s="24"/>
     </row>
-    <row r="70" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="32"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="42"/>
+    <row r="70" spans="1:185" x14ac:dyDescent="0.25">
+      <c r="A70" s="33"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -16055,14 +16172,12 @@
       <c r="GB70" s="11"/>
       <c r="GC70" s="24"/>
     </row>
-    <row r="71" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A71" s="33"/>
       <c r="B71" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" s="47">
-        <v>42776</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
@@ -16162,20 +16277,20 @@
       <c r="CW71" s="11"/>
       <c r="CX71" s="11"/>
       <c r="CY71" s="22"/>
-      <c r="CZ71" s="11"/>
-      <c r="DA71" s="11"/>
-      <c r="DB71" s="11"/>
-      <c r="DC71" s="11"/>
-      <c r="DD71" s="11"/>
-      <c r="DE71" s="11"/>
-      <c r="DF71" s="11"/>
-      <c r="DG71" s="23"/>
-      <c r="DH71" s="11"/>
-      <c r="DI71" s="11"/>
-      <c r="DJ71" s="11"/>
-      <c r="DK71" s="11"/>
-      <c r="DL71" s="11"/>
-      <c r="DM71" s="22"/>
+      <c r="CZ71" s="51"/>
+      <c r="DA71" s="51"/>
+      <c r="DB71" s="51"/>
+      <c r="DC71" s="51"/>
+      <c r="DD71" s="51"/>
+      <c r="DE71" s="51"/>
+      <c r="DF71" s="51"/>
+      <c r="DG71" s="63"/>
+      <c r="DH71" s="51"/>
+      <c r="DI71" s="51"/>
+      <c r="DJ71" s="51"/>
+      <c r="DK71" s="51"/>
+      <c r="DL71" s="51"/>
+      <c r="DM71" s="64"/>
       <c r="DN71" s="11"/>
       <c r="DO71" s="11"/>
       <c r="DP71" s="11"/>
@@ -16208,7 +16323,7 @@
       <c r="EQ71" s="11"/>
       <c r="ER71" s="11"/>
       <c r="ES71" s="11"/>
-      <c r="ET71" s="51"/>
+      <c r="ET71" s="11"/>
       <c r="EU71" s="11"/>
       <c r="EV71" s="11"/>
       <c r="EW71" s="23"/>
@@ -16245,7 +16360,7 @@
       <c r="GB71" s="11"/>
       <c r="GC71" s="24"/>
     </row>
-    <row r="72" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="33"/>
       <c r="B72" s="9"/>
       <c r="C72" s="7"/>
@@ -16431,10 +16546,10 @@
       <c r="GB72" s="11"/>
       <c r="GC72" s="24"/>
     </row>
-    <row r="73" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A73" s="33"/>
       <c r="B73" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -16529,13 +16644,13 @@
       <c r="CP73" s="11"/>
       <c r="CQ73" s="11"/>
       <c r="CR73" s="11"/>
-      <c r="CS73" s="23"/>
-      <c r="CT73" s="11"/>
-      <c r="CU73" s="11"/>
-      <c r="CV73" s="67"/>
-      <c r="CW73" s="11"/>
-      <c r="CX73" s="11"/>
-      <c r="CY73" s="22"/>
+      <c r="CS73" s="63"/>
+      <c r="CT73" s="51"/>
+      <c r="CU73" s="51"/>
+      <c r="CV73" s="90"/>
+      <c r="CW73" s="51"/>
+      <c r="CX73" s="51"/>
+      <c r="CY73" s="64"/>
       <c r="CZ73" s="51"/>
       <c r="DA73" s="51"/>
       <c r="DB73" s="51"/>
@@ -16550,36 +16665,36 @@
       <c r="DK73" s="51"/>
       <c r="DL73" s="51"/>
       <c r="DM73" s="64"/>
-      <c r="DN73" s="11"/>
-      <c r="DO73" s="11"/>
-      <c r="DP73" s="11"/>
-      <c r="DQ73" s="11"/>
-      <c r="DR73" s="11"/>
-      <c r="DS73" s="11"/>
-      <c r="DT73" s="11"/>
-      <c r="DU73" s="23"/>
-      <c r="DV73" s="11"/>
-      <c r="DW73" s="11"/>
-      <c r="DX73" s="11"/>
-      <c r="DY73" s="11"/>
-      <c r="DZ73" s="11"/>
-      <c r="EA73" s="22"/>
-      <c r="EB73" s="11"/>
-      <c r="EC73" s="11"/>
-      <c r="ED73" s="73"/>
-      <c r="EE73" s="11"/>
-      <c r="EF73" s="11"/>
-      <c r="EG73" s="11"/>
-      <c r="EH73" s="11"/>
-      <c r="EI73" s="23"/>
-      <c r="EJ73" s="11"/>
-      <c r="EK73" s="11"/>
-      <c r="EL73" s="11"/>
-      <c r="EM73" s="11"/>
-      <c r="EN73" s="11"/>
-      <c r="EO73" s="22"/>
-      <c r="EP73" s="11"/>
-      <c r="EQ73" s="11"/>
+      <c r="DN73" s="51"/>
+      <c r="DO73" s="51"/>
+      <c r="DP73" s="51"/>
+      <c r="DQ73" s="51"/>
+      <c r="DR73" s="51"/>
+      <c r="DS73" s="51"/>
+      <c r="DT73" s="51"/>
+      <c r="DU73" s="63"/>
+      <c r="DV73" s="51"/>
+      <c r="DW73" s="51"/>
+      <c r="DX73" s="51"/>
+      <c r="DY73" s="51"/>
+      <c r="DZ73" s="51"/>
+      <c r="EA73" s="64"/>
+      <c r="EB73" s="51"/>
+      <c r="EC73" s="51"/>
+      <c r="ED73" s="108"/>
+      <c r="EE73" s="51"/>
+      <c r="EF73" s="51"/>
+      <c r="EG73" s="51"/>
+      <c r="EH73" s="51"/>
+      <c r="EI73" s="63"/>
+      <c r="EJ73" s="51"/>
+      <c r="EK73" s="51"/>
+      <c r="EL73" s="51"/>
+      <c r="EM73" s="51"/>
+      <c r="EN73" s="51"/>
+      <c r="EO73" s="64"/>
+      <c r="EP73" s="51"/>
+      <c r="EQ73" s="51"/>
       <c r="ER73" s="11"/>
       <c r="ES73" s="11"/>
       <c r="ET73" s="11"/>
@@ -16619,7 +16734,7 @@
       <c r="GB73" s="11"/>
       <c r="GC73" s="24"/>
     </row>
-    <row r="74" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="33"/>
       <c r="B74" s="9"/>
       <c r="C74" s="7"/>
@@ -16805,10 +16920,10 @@
       <c r="GB74" s="11"/>
       <c r="GC74" s="24"/>
     </row>
-    <row r="75" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A75" s="33"/>
       <c r="B75" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -16903,13 +17018,13 @@
       <c r="CP75" s="11"/>
       <c r="CQ75" s="11"/>
       <c r="CR75" s="11"/>
-      <c r="CS75" s="63"/>
-      <c r="CT75" s="51"/>
-      <c r="CU75" s="51"/>
-      <c r="CV75" s="90"/>
-      <c r="CW75" s="51"/>
-      <c r="CX75" s="51"/>
-      <c r="CY75" s="64"/>
+      <c r="CS75" s="23"/>
+      <c r="CT75" s="11"/>
+      <c r="CU75" s="11"/>
+      <c r="CV75" s="67"/>
+      <c r="CW75" s="11"/>
+      <c r="CX75" s="11"/>
+      <c r="CY75" s="22"/>
       <c r="CZ75" s="51"/>
       <c r="DA75" s="51"/>
       <c r="DB75" s="51"/>
@@ -16924,36 +17039,36 @@
       <c r="DK75" s="51"/>
       <c r="DL75" s="51"/>
       <c r="DM75" s="64"/>
-      <c r="DN75" s="51"/>
-      <c r="DO75" s="51"/>
-      <c r="DP75" s="51"/>
-      <c r="DQ75" s="51"/>
-      <c r="DR75" s="51"/>
-      <c r="DS75" s="51"/>
-      <c r="DT75" s="51"/>
-      <c r="DU75" s="63"/>
-      <c r="DV75" s="51"/>
-      <c r="DW75" s="51"/>
-      <c r="DX75" s="51"/>
-      <c r="DY75" s="51"/>
-      <c r="DZ75" s="51"/>
-      <c r="EA75" s="64"/>
-      <c r="EB75" s="51"/>
-      <c r="EC75" s="51"/>
-      <c r="ED75" s="108"/>
-      <c r="EE75" s="51"/>
-      <c r="EF75" s="51"/>
-      <c r="EG75" s="51"/>
-      <c r="EH75" s="51"/>
-      <c r="EI75" s="63"/>
-      <c r="EJ75" s="51"/>
-      <c r="EK75" s="51"/>
-      <c r="EL75" s="51"/>
-      <c r="EM75" s="51"/>
-      <c r="EN75" s="51"/>
-      <c r="EO75" s="64"/>
-      <c r="EP75" s="51"/>
-      <c r="EQ75" s="51"/>
+      <c r="DN75" s="11"/>
+      <c r="DO75" s="11"/>
+      <c r="DP75" s="11"/>
+      <c r="DQ75" s="11"/>
+      <c r="DR75" s="11"/>
+      <c r="DS75" s="11"/>
+      <c r="DT75" s="11"/>
+      <c r="DU75" s="23"/>
+      <c r="DV75" s="11"/>
+      <c r="DW75" s="11"/>
+      <c r="DX75" s="11"/>
+      <c r="DY75" s="11"/>
+      <c r="DZ75" s="11"/>
+      <c r="EA75" s="22"/>
+      <c r="EB75" s="11"/>
+      <c r="EC75" s="11"/>
+      <c r="ED75" s="73"/>
+      <c r="EE75" s="11"/>
+      <c r="EF75" s="11"/>
+      <c r="EG75" s="11"/>
+      <c r="EH75" s="11"/>
+      <c r="EI75" s="23"/>
+      <c r="EJ75" s="11"/>
+      <c r="EK75" s="11"/>
+      <c r="EL75" s="11"/>
+      <c r="EM75" s="11"/>
+      <c r="EN75" s="11"/>
+      <c r="EO75" s="22"/>
+      <c r="EP75" s="11"/>
+      <c r="EQ75" s="11"/>
       <c r="ER75" s="11"/>
       <c r="ES75" s="11"/>
       <c r="ET75" s="11"/>
@@ -16993,7 +17108,7 @@
       <c r="GB75" s="11"/>
       <c r="GC75" s="24"/>
     </row>
-    <row r="76" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="33"/>
       <c r="B76" s="9"/>
       <c r="C76" s="7"/>
@@ -17179,10 +17294,10 @@
       <c r="GB76" s="11"/>
       <c r="GC76" s="24"/>
     </row>
-    <row r="77" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A77" s="33"/>
       <c r="B77" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -17284,20 +17399,20 @@
       <c r="CW77" s="11"/>
       <c r="CX77" s="11"/>
       <c r="CY77" s="22"/>
-      <c r="CZ77" s="51"/>
-      <c r="DA77" s="51"/>
-      <c r="DB77" s="51"/>
-      <c r="DC77" s="51"/>
-      <c r="DD77" s="51"/>
-      <c r="DE77" s="51"/>
-      <c r="DF77" s="51"/>
-      <c r="DG77" s="63"/>
-      <c r="DH77" s="51"/>
-      <c r="DI77" s="51"/>
-      <c r="DJ77" s="51"/>
-      <c r="DK77" s="51"/>
-      <c r="DL77" s="51"/>
-      <c r="DM77" s="64"/>
+      <c r="CZ77" s="11"/>
+      <c r="DA77" s="11"/>
+      <c r="DB77" s="11"/>
+      <c r="DC77" s="11"/>
+      <c r="DD77" s="11"/>
+      <c r="DE77" s="11"/>
+      <c r="DF77" s="11"/>
+      <c r="DG77" s="23"/>
+      <c r="DH77" s="11"/>
+      <c r="DI77" s="11"/>
+      <c r="DJ77" s="11"/>
+      <c r="DK77" s="11"/>
+      <c r="DL77" s="11"/>
+      <c r="DM77" s="22"/>
       <c r="DN77" s="11"/>
       <c r="DO77" s="11"/>
       <c r="DP77" s="11"/>
@@ -17367,7 +17482,7 @@
       <c r="GB77" s="11"/>
       <c r="GC77" s="24"/>
     </row>
-    <row r="78" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A78" s="33"/>
       <c r="B78" s="9"/>
       <c r="C78" s="7"/>
@@ -17553,11 +17668,9 @@
       <c r="GB78" s="11"/>
       <c r="GC78" s="24"/>
     </row>
-    <row r="79" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A79" s="33"/>
-      <c r="B79" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="B79" s="9"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="F79" s="11"/>
@@ -17741,588 +17854,216 @@
       <c r="GB79" s="11"/>
       <c r="GC79" s="24"/>
     </row>
-    <row r="80" spans="1:185" x14ac:dyDescent="0.2">
-      <c r="A80" s="33"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="23"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="22"/>
-      <c r="T80" s="11"/>
-      <c r="U80" s="11"/>
-      <c r="V80" s="11"/>
-      <c r="W80" s="11"/>
-      <c r="X80" s="11"/>
-      <c r="Y80" s="11"/>
-      <c r="Z80" s="11"/>
-      <c r="AA80" s="23"/>
-      <c r="AB80" s="11"/>
-      <c r="AC80" s="11"/>
-      <c r="AD80" s="11"/>
-      <c r="AE80" s="11"/>
-      <c r="AF80" s="11"/>
-      <c r="AG80" s="22"/>
-      <c r="AH80" s="11"/>
-      <c r="AI80" s="11"/>
-      <c r="AJ80" s="11"/>
-      <c r="AK80" s="11"/>
-      <c r="AL80" s="11"/>
-      <c r="AM80" s="11"/>
-      <c r="AN80" s="11"/>
-      <c r="AO80" s="76"/>
-      <c r="AP80" s="11"/>
-      <c r="AQ80" s="11"/>
-      <c r="AR80" s="11"/>
-      <c r="AS80" s="11"/>
-      <c r="AT80" s="11"/>
-      <c r="AU80" s="22"/>
-      <c r="AV80" s="11"/>
-      <c r="AW80" s="11"/>
-      <c r="AX80" s="11"/>
-      <c r="AY80" s="11"/>
-      <c r="AZ80" s="11"/>
-      <c r="BA80" s="11"/>
-      <c r="BB80" s="11"/>
-      <c r="BC80" s="23"/>
-      <c r="BD80" s="11"/>
-      <c r="BE80" s="11"/>
-      <c r="BF80" s="11"/>
-      <c r="BG80" s="11"/>
-      <c r="BH80" s="11"/>
-      <c r="BI80" s="22"/>
-      <c r="BJ80" s="11"/>
-      <c r="BK80" s="11"/>
-      <c r="BL80" s="11"/>
-      <c r="BM80" s="11"/>
-      <c r="BN80" s="11"/>
-      <c r="BO80" s="11"/>
-      <c r="BP80" s="11"/>
-      <c r="BQ80" s="23"/>
-      <c r="BR80" s="11"/>
-      <c r="BS80" s="11"/>
-      <c r="BT80" s="11"/>
-      <c r="BU80" s="11"/>
-      <c r="BV80" s="11"/>
-      <c r="BW80" s="22"/>
-      <c r="BX80" s="11"/>
-      <c r="BY80" s="11"/>
-      <c r="BZ80" s="73"/>
-      <c r="CA80" s="11"/>
-      <c r="CB80" s="11"/>
-      <c r="CC80" s="11"/>
-      <c r="CD80" s="11"/>
-      <c r="CE80" s="23"/>
-      <c r="CF80" s="11"/>
-      <c r="CG80" s="11"/>
-      <c r="CH80" s="11"/>
-      <c r="CI80" s="11"/>
-      <c r="CJ80" s="11"/>
-      <c r="CK80" s="22"/>
-      <c r="CL80" s="11"/>
-      <c r="CM80" s="11"/>
-      <c r="CN80" s="11"/>
-      <c r="CO80" s="11"/>
-      <c r="CP80" s="11"/>
-      <c r="CQ80" s="11"/>
-      <c r="CR80" s="11"/>
-      <c r="CS80" s="23"/>
-      <c r="CT80" s="11"/>
-      <c r="CU80" s="11"/>
-      <c r="CV80" s="67"/>
-      <c r="CW80" s="11"/>
-      <c r="CX80" s="11"/>
-      <c r="CY80" s="22"/>
-      <c r="CZ80" s="11"/>
-      <c r="DA80" s="11"/>
-      <c r="DB80" s="11"/>
-      <c r="DC80" s="11"/>
-      <c r="DD80" s="11"/>
-      <c r="DE80" s="11"/>
-      <c r="DF80" s="11"/>
-      <c r="DG80" s="23"/>
-      <c r="DH80" s="11"/>
-      <c r="DI80" s="11"/>
-      <c r="DJ80" s="11"/>
-      <c r="DK80" s="11"/>
-      <c r="DL80" s="11"/>
-      <c r="DM80" s="22"/>
-      <c r="DN80" s="11"/>
-      <c r="DO80" s="11"/>
-      <c r="DP80" s="11"/>
-      <c r="DQ80" s="11"/>
-      <c r="DR80" s="11"/>
-      <c r="DS80" s="11"/>
-      <c r="DT80" s="11"/>
-      <c r="DU80" s="23"/>
-      <c r="DV80" s="11"/>
-      <c r="DW80" s="11"/>
-      <c r="DX80" s="11"/>
-      <c r="DY80" s="11"/>
-      <c r="DZ80" s="11"/>
-      <c r="EA80" s="22"/>
-      <c r="EB80" s="11"/>
-      <c r="EC80" s="11"/>
-      <c r="ED80" s="73"/>
-      <c r="EE80" s="11"/>
-      <c r="EF80" s="11"/>
-      <c r="EG80" s="11"/>
-      <c r="EH80" s="11"/>
-      <c r="EI80" s="23"/>
-      <c r="EJ80" s="11"/>
-      <c r="EK80" s="11"/>
-      <c r="EL80" s="11"/>
-      <c r="EM80" s="11"/>
-      <c r="EN80" s="11"/>
-      <c r="EO80" s="22"/>
-      <c r="EP80" s="11"/>
-      <c r="EQ80" s="11"/>
-      <c r="ER80" s="11"/>
-      <c r="ES80" s="11"/>
-      <c r="ET80" s="11"/>
-      <c r="EU80" s="11"/>
-      <c r="EV80" s="11"/>
-      <c r="EW80" s="23"/>
-      <c r="EX80" s="11"/>
-      <c r="EY80" s="11"/>
-      <c r="EZ80" s="11"/>
-      <c r="FA80" s="11"/>
-      <c r="FB80" s="11"/>
-      <c r="FC80" s="22"/>
-      <c r="FD80" s="11"/>
-      <c r="FE80" s="11"/>
-      <c r="FF80" s="11"/>
-      <c r="FG80" s="11"/>
-      <c r="FH80" s="11"/>
-      <c r="FI80" s="11"/>
-      <c r="FJ80" s="11"/>
-      <c r="FK80" s="23"/>
-      <c r="FL80" s="11"/>
-      <c r="FM80" s="67"/>
-      <c r="FN80" s="11"/>
-      <c r="FO80" s="11"/>
-      <c r="FP80" s="11"/>
-      <c r="FQ80" s="22"/>
-      <c r="FR80" s="11"/>
-      <c r="FS80" s="11"/>
-      <c r="FT80" s="11"/>
-      <c r="FU80" s="11"/>
-      <c r="FV80" s="11"/>
-      <c r="FW80" s="11"/>
-      <c r="FX80" s="11"/>
-      <c r="FY80" s="23"/>
-      <c r="FZ80" s="11"/>
-      <c r="GA80" s="11"/>
-      <c r="GB80" s="11"/>
-      <c r="GC80" s="24"/>
-    </row>
-    <row r="81" spans="1:185" x14ac:dyDescent="0.2">
-      <c r="A81" s="33"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="22"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="11"/>
-      <c r="V81" s="11"/>
-      <c r="W81" s="11"/>
-      <c r="X81" s="11"/>
-      <c r="Y81" s="11"/>
-      <c r="Z81" s="11"/>
-      <c r="AA81" s="23"/>
-      <c r="AB81" s="11"/>
-      <c r="AC81" s="11"/>
-      <c r="AD81" s="11"/>
-      <c r="AE81" s="11"/>
-      <c r="AF81" s="11"/>
-      <c r="AG81" s="22"/>
-      <c r="AH81" s="11"/>
-      <c r="AI81" s="11"/>
-      <c r="AJ81" s="11"/>
-      <c r="AK81" s="11"/>
-      <c r="AL81" s="11"/>
-      <c r="AM81" s="11"/>
-      <c r="AN81" s="11"/>
-      <c r="AO81" s="76"/>
-      <c r="AP81" s="11"/>
-      <c r="AQ81" s="11"/>
-      <c r="AR81" s="11"/>
-      <c r="AS81" s="11"/>
-      <c r="AT81" s="11"/>
-      <c r="AU81" s="22"/>
-      <c r="AV81" s="11"/>
-      <c r="AW81" s="11"/>
-      <c r="AX81" s="11"/>
-      <c r="AY81" s="11"/>
-      <c r="AZ81" s="11"/>
-      <c r="BA81" s="11"/>
-      <c r="BB81" s="11"/>
-      <c r="BC81" s="23"/>
-      <c r="BD81" s="11"/>
-      <c r="BE81" s="11"/>
-      <c r="BF81" s="11"/>
-      <c r="BG81" s="11"/>
-      <c r="BH81" s="11"/>
-      <c r="BI81" s="22"/>
-      <c r="BJ81" s="11"/>
-      <c r="BK81" s="11"/>
-      <c r="BL81" s="11"/>
-      <c r="BM81" s="11"/>
-      <c r="BN81" s="11"/>
-      <c r="BO81" s="11"/>
-      <c r="BP81" s="11"/>
-      <c r="BQ81" s="23"/>
-      <c r="BR81" s="11"/>
-      <c r="BS81" s="11"/>
-      <c r="BT81" s="11"/>
-      <c r="BU81" s="11"/>
-      <c r="BV81" s="11"/>
-      <c r="BW81" s="22"/>
-      <c r="BX81" s="11"/>
-      <c r="BY81" s="11"/>
-      <c r="BZ81" s="73"/>
-      <c r="CA81" s="11"/>
-      <c r="CB81" s="11"/>
-      <c r="CC81" s="11"/>
-      <c r="CD81" s="11"/>
-      <c r="CE81" s="23"/>
-      <c r="CF81" s="11"/>
-      <c r="CG81" s="11"/>
-      <c r="CH81" s="11"/>
-      <c r="CI81" s="11"/>
-      <c r="CJ81" s="11"/>
-      <c r="CK81" s="22"/>
-      <c r="CL81" s="11"/>
-      <c r="CM81" s="11"/>
-      <c r="CN81" s="11"/>
-      <c r="CO81" s="11"/>
-      <c r="CP81" s="11"/>
-      <c r="CQ81" s="11"/>
-      <c r="CR81" s="11"/>
-      <c r="CS81" s="23"/>
-      <c r="CT81" s="11"/>
-      <c r="CU81" s="11"/>
-      <c r="CV81" s="67"/>
-      <c r="CW81" s="11"/>
-      <c r="CX81" s="11"/>
-      <c r="CY81" s="22"/>
-      <c r="CZ81" s="11"/>
-      <c r="DA81" s="11"/>
-      <c r="DB81" s="11"/>
-      <c r="DC81" s="11"/>
-      <c r="DD81" s="11"/>
-      <c r="DE81" s="11"/>
-      <c r="DF81" s="11"/>
-      <c r="DG81" s="23"/>
-      <c r="DH81" s="11"/>
-      <c r="DI81" s="11"/>
-      <c r="DJ81" s="11"/>
-      <c r="DK81" s="11"/>
-      <c r="DL81" s="11"/>
-      <c r="DM81" s="22"/>
-      <c r="DN81" s="11"/>
-      <c r="DO81" s="11"/>
-      <c r="DP81" s="11"/>
-      <c r="DQ81" s="11"/>
-      <c r="DR81" s="11"/>
-      <c r="DS81" s="11"/>
-      <c r="DT81" s="11"/>
-      <c r="DU81" s="23"/>
-      <c r="DV81" s="11"/>
-      <c r="DW81" s="11"/>
-      <c r="DX81" s="11"/>
-      <c r="DY81" s="11"/>
-      <c r="DZ81" s="11"/>
-      <c r="EA81" s="22"/>
-      <c r="EB81" s="11"/>
-      <c r="EC81" s="11"/>
-      <c r="ED81" s="73"/>
-      <c r="EE81" s="11"/>
-      <c r="EF81" s="11"/>
-      <c r="EG81" s="11"/>
-      <c r="EH81" s="11"/>
-      <c r="EI81" s="23"/>
-      <c r="EJ81" s="11"/>
-      <c r="EK81" s="11"/>
-      <c r="EL81" s="11"/>
-      <c r="EM81" s="11"/>
-      <c r="EN81" s="11"/>
-      <c r="EO81" s="22"/>
-      <c r="EP81" s="11"/>
-      <c r="EQ81" s="11"/>
-      <c r="ER81" s="11"/>
-      <c r="ES81" s="11"/>
-      <c r="ET81" s="11"/>
-      <c r="EU81" s="11"/>
-      <c r="EV81" s="11"/>
-      <c r="EW81" s="23"/>
-      <c r="EX81" s="11"/>
-      <c r="EY81" s="11"/>
-      <c r="EZ81" s="11"/>
-      <c r="FA81" s="11"/>
-      <c r="FB81" s="11"/>
-      <c r="FC81" s="22"/>
-      <c r="FD81" s="11"/>
-      <c r="FE81" s="11"/>
-      <c r="FF81" s="11"/>
-      <c r="FG81" s="11"/>
-      <c r="FH81" s="11"/>
-      <c r="FI81" s="11"/>
-      <c r="FJ81" s="11"/>
-      <c r="FK81" s="23"/>
-      <c r="FL81" s="11"/>
-      <c r="FM81" s="67"/>
-      <c r="FN81" s="11"/>
-      <c r="FO81" s="11"/>
-      <c r="FP81" s="11"/>
-      <c r="FQ81" s="22"/>
-      <c r="FR81" s="11"/>
-      <c r="FS81" s="11"/>
-      <c r="FT81" s="11"/>
-      <c r="FU81" s="11"/>
-      <c r="FV81" s="11"/>
-      <c r="FW81" s="11"/>
-      <c r="FX81" s="11"/>
-      <c r="FY81" s="23"/>
-      <c r="FZ81" s="11"/>
-      <c r="GA81" s="11"/>
-      <c r="GB81" s="11"/>
-      <c r="GC81" s="24"/>
-    </row>
-    <row r="82" spans="1:185" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="142" t="s">
+    <row r="80" spans="1:185" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="143"/>
-      <c r="C82" s="143"/>
-      <c r="D82" s="143"/>
-      <c r="E82" s="144"/>
-      <c r="F82" s="145" t="s">
+      <c r="B80" s="144"/>
+      <c r="C80" s="144"/>
+      <c r="D80" s="144"/>
+      <c r="E80" s="145"/>
+      <c r="F80" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="G82" s="139"/>
-      <c r="H82" s="139"/>
-      <c r="I82" s="139"/>
-      <c r="J82" s="139"/>
-      <c r="K82" s="139"/>
-      <c r="L82" s="139"/>
-      <c r="M82" s="139"/>
-      <c r="N82" s="139"/>
-      <c r="O82" s="139"/>
-      <c r="P82" s="139"/>
-      <c r="Q82" s="139"/>
-      <c r="R82" s="139"/>
-      <c r="S82" s="139"/>
-      <c r="T82" s="139"/>
-      <c r="U82" s="139"/>
-      <c r="V82" s="139"/>
-      <c r="W82" s="139"/>
-      <c r="X82" s="139"/>
-      <c r="Y82" s="139"/>
-      <c r="Z82" s="139"/>
-      <c r="AA82" s="139"/>
-      <c r="AB82" s="139"/>
-      <c r="AC82" s="139"/>
-      <c r="AD82" s="139"/>
-      <c r="AE82" s="139"/>
-      <c r="AF82" s="139"/>
-      <c r="AG82" s="139"/>
-      <c r="AH82" s="139"/>
-      <c r="AI82" s="139"/>
-      <c r="AJ82" s="139"/>
-      <c r="AK82" s="139"/>
-      <c r="AL82" s="139"/>
-      <c r="AM82" s="139"/>
-      <c r="AN82" s="146"/>
-      <c r="AO82" s="147" t="s">
+      <c r="G80" s="140"/>
+      <c r="H80" s="140"/>
+      <c r="I80" s="140"/>
+      <c r="J80" s="140"/>
+      <c r="K80" s="140"/>
+      <c r="L80" s="140"/>
+      <c r="M80" s="140"/>
+      <c r="N80" s="140"/>
+      <c r="O80" s="140"/>
+      <c r="P80" s="140"/>
+      <c r="Q80" s="140"/>
+      <c r="R80" s="140"/>
+      <c r="S80" s="140"/>
+      <c r="T80" s="140"/>
+      <c r="U80" s="140"/>
+      <c r="V80" s="140"/>
+      <c r="W80" s="140"/>
+      <c r="X80" s="140"/>
+      <c r="Y80" s="140"/>
+      <c r="Z80" s="140"/>
+      <c r="AA80" s="140"/>
+      <c r="AB80" s="140"/>
+      <c r="AC80" s="140"/>
+      <c r="AD80" s="140"/>
+      <c r="AE80" s="140"/>
+      <c r="AF80" s="140"/>
+      <c r="AG80" s="140"/>
+      <c r="AH80" s="140"/>
+      <c r="AI80" s="140"/>
+      <c r="AJ80" s="140"/>
+      <c r="AK80" s="140"/>
+      <c r="AL80" s="140"/>
+      <c r="AM80" s="140"/>
+      <c r="AN80" s="147"/>
+      <c r="AO80" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="AP82" s="139"/>
-      <c r="AQ82" s="139"/>
-      <c r="AR82" s="139"/>
-      <c r="AS82" s="139"/>
-      <c r="AT82" s="139"/>
-      <c r="AU82" s="139"/>
-      <c r="AV82" s="139"/>
-      <c r="AW82" s="139"/>
-      <c r="AX82" s="139"/>
-      <c r="AY82" s="139"/>
-      <c r="AZ82" s="139"/>
-      <c r="BA82" s="139"/>
-      <c r="BB82" s="139"/>
-      <c r="BC82" s="139"/>
-      <c r="BD82" s="139"/>
-      <c r="BE82" s="139"/>
-      <c r="BF82" s="139"/>
-      <c r="BG82" s="139"/>
-      <c r="BH82" s="139"/>
-      <c r="BI82" s="139"/>
-      <c r="BJ82" s="139"/>
-      <c r="BK82" s="139"/>
-      <c r="BL82" s="139"/>
-      <c r="BM82" s="139"/>
-      <c r="BN82" s="139"/>
-      <c r="BO82" s="139"/>
-      <c r="BP82" s="139"/>
-      <c r="BQ82" s="139"/>
-      <c r="BR82" s="139"/>
-      <c r="BS82" s="139"/>
-      <c r="BT82" s="139"/>
-      <c r="BU82" s="139"/>
-      <c r="BV82" s="139"/>
-      <c r="BW82" s="139"/>
-      <c r="BX82" s="139"/>
-      <c r="BY82" s="139"/>
-      <c r="BZ82" s="140"/>
-      <c r="CA82" s="138" t="s">
+      <c r="AP80" s="140"/>
+      <c r="AQ80" s="140"/>
+      <c r="AR80" s="140"/>
+      <c r="AS80" s="140"/>
+      <c r="AT80" s="140"/>
+      <c r="AU80" s="140"/>
+      <c r="AV80" s="140"/>
+      <c r="AW80" s="140"/>
+      <c r="AX80" s="140"/>
+      <c r="AY80" s="140"/>
+      <c r="AZ80" s="140"/>
+      <c r="BA80" s="140"/>
+      <c r="BB80" s="140"/>
+      <c r="BC80" s="140"/>
+      <c r="BD80" s="140"/>
+      <c r="BE80" s="140"/>
+      <c r="BF80" s="140"/>
+      <c r="BG80" s="140"/>
+      <c r="BH80" s="140"/>
+      <c r="BI80" s="140"/>
+      <c r="BJ80" s="140"/>
+      <c r="BK80" s="140"/>
+      <c r="BL80" s="140"/>
+      <c r="BM80" s="140"/>
+      <c r="BN80" s="140"/>
+      <c r="BO80" s="140"/>
+      <c r="BP80" s="140"/>
+      <c r="BQ80" s="140"/>
+      <c r="BR80" s="140"/>
+      <c r="BS80" s="140"/>
+      <c r="BT80" s="140"/>
+      <c r="BU80" s="140"/>
+      <c r="BV80" s="140"/>
+      <c r="BW80" s="140"/>
+      <c r="BX80" s="140"/>
+      <c r="BY80" s="140"/>
+      <c r="BZ80" s="141"/>
+      <c r="CA80" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB80" s="140"/>
+      <c r="CC80" s="140"/>
+      <c r="CD80" s="140"/>
+      <c r="CE80" s="140"/>
+      <c r="CF80" s="140"/>
+      <c r="CG80" s="140"/>
+      <c r="CH80" s="140"/>
+      <c r="CI80" s="140"/>
+      <c r="CJ80" s="140"/>
+      <c r="CK80" s="140"/>
+      <c r="CL80" s="140"/>
+      <c r="CM80" s="140"/>
+      <c r="CN80" s="140"/>
+      <c r="CO80" s="140"/>
+      <c r="CP80" s="140"/>
+      <c r="CQ80" s="140"/>
+      <c r="CR80" s="140"/>
+      <c r="CS80" s="140"/>
+      <c r="CT80" s="140"/>
+      <c r="CU80" s="141"/>
+      <c r="CV80" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="CB82" s="139"/>
-      <c r="CC82" s="139"/>
-      <c r="CD82" s="139"/>
-      <c r="CE82" s="139"/>
-      <c r="CF82" s="139"/>
-      <c r="CG82" s="139"/>
-      <c r="CH82" s="139"/>
-      <c r="CI82" s="139"/>
-      <c r="CJ82" s="139"/>
-      <c r="CK82" s="139"/>
-      <c r="CL82" s="139"/>
-      <c r="CM82" s="139"/>
-      <c r="CN82" s="139"/>
-      <c r="CO82" s="139"/>
-      <c r="CP82" s="139"/>
-      <c r="CQ82" s="139"/>
-      <c r="CR82" s="139"/>
-      <c r="CS82" s="139"/>
-      <c r="CT82" s="139"/>
-      <c r="CU82" s="140"/>
-      <c r="CV82" s="138" t="s">
+      <c r="CW80" s="140"/>
+      <c r="CX80" s="140"/>
+      <c r="CY80" s="140"/>
+      <c r="CZ80" s="140"/>
+      <c r="DA80" s="140"/>
+      <c r="DB80" s="140"/>
+      <c r="DC80" s="140"/>
+      <c r="DD80" s="140"/>
+      <c r="DE80" s="140"/>
+      <c r="DF80" s="140"/>
+      <c r="DG80" s="140"/>
+      <c r="DH80" s="140"/>
+      <c r="DI80" s="140"/>
+      <c r="DJ80" s="140"/>
+      <c r="DK80" s="140"/>
+      <c r="DL80" s="140"/>
+      <c r="DM80" s="140"/>
+      <c r="DN80" s="140"/>
+      <c r="DO80" s="140"/>
+      <c r="DP80" s="140"/>
+      <c r="DQ80" s="140"/>
+      <c r="DR80" s="140"/>
+      <c r="DS80" s="140"/>
+      <c r="DT80" s="140"/>
+      <c r="DU80" s="140"/>
+      <c r="DV80" s="140"/>
+      <c r="DW80" s="140"/>
+      <c r="DX80" s="140"/>
+      <c r="DY80" s="140"/>
+      <c r="DZ80" s="140"/>
+      <c r="EA80" s="140"/>
+      <c r="EB80" s="140"/>
+      <c r="EC80" s="140"/>
+      <c r="ED80" s="141"/>
+      <c r="EE80" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="CW82" s="139"/>
-      <c r="CX82" s="139"/>
-      <c r="CY82" s="139"/>
-      <c r="CZ82" s="139"/>
-      <c r="DA82" s="139"/>
-      <c r="DB82" s="139"/>
-      <c r="DC82" s="139"/>
-      <c r="DD82" s="139"/>
-      <c r="DE82" s="139"/>
-      <c r="DF82" s="139"/>
-      <c r="DG82" s="139"/>
-      <c r="DH82" s="139"/>
-      <c r="DI82" s="139"/>
-      <c r="DJ82" s="139"/>
-      <c r="DK82" s="139"/>
-      <c r="DL82" s="139"/>
-      <c r="DM82" s="139"/>
-      <c r="DN82" s="139"/>
-      <c r="DO82" s="139"/>
-      <c r="DP82" s="139"/>
-      <c r="DQ82" s="139"/>
-      <c r="DR82" s="139"/>
-      <c r="DS82" s="139"/>
-      <c r="DT82" s="139"/>
-      <c r="DU82" s="139"/>
-      <c r="DV82" s="139"/>
-      <c r="DW82" s="139"/>
-      <c r="DX82" s="139"/>
-      <c r="DY82" s="139"/>
-      <c r="DZ82" s="139"/>
-      <c r="EA82" s="139"/>
-      <c r="EB82" s="139"/>
-      <c r="EC82" s="139"/>
-      <c r="ED82" s="140"/>
-      <c r="EE82" s="138" t="s">
-        <v>95</v>
-      </c>
-      <c r="EF82" s="139"/>
-      <c r="EG82" s="139"/>
-      <c r="EH82" s="139"/>
-      <c r="EI82" s="139"/>
-      <c r="EJ82" s="139"/>
-      <c r="EK82" s="139"/>
-      <c r="EL82" s="139"/>
-      <c r="EM82" s="139"/>
-      <c r="EN82" s="139"/>
-      <c r="EO82" s="139"/>
-      <c r="EP82" s="139"/>
-      <c r="EQ82" s="139"/>
-      <c r="ER82" s="139"/>
-      <c r="ES82" s="139"/>
-      <c r="ET82" s="139"/>
-      <c r="EU82" s="139"/>
-      <c r="EV82" s="139"/>
-      <c r="EW82" s="139"/>
-      <c r="EX82" s="139"/>
-      <c r="EY82" s="139"/>
-      <c r="EZ82" s="139"/>
-      <c r="FA82" s="139"/>
-      <c r="FB82" s="139"/>
-      <c r="FC82" s="139"/>
-      <c r="FD82" s="139"/>
-      <c r="FE82" s="139"/>
-      <c r="FF82" s="139"/>
-      <c r="FG82" s="139"/>
-      <c r="FH82" s="139"/>
-      <c r="FI82" s="139"/>
-      <c r="FJ82" s="139"/>
-      <c r="FK82" s="139"/>
-      <c r="FL82" s="140"/>
-      <c r="FM82" s="138" t="s">
-        <v>92</v>
-      </c>
-      <c r="FN82" s="139"/>
-      <c r="FO82" s="139"/>
-      <c r="FP82" s="139"/>
-      <c r="FQ82" s="139"/>
-      <c r="FR82" s="139"/>
-      <c r="FS82" s="139"/>
-      <c r="FT82" s="139"/>
-      <c r="FU82" s="139"/>
-      <c r="FV82" s="139"/>
-      <c r="FW82" s="139"/>
-      <c r="FX82" s="139"/>
-      <c r="FY82" s="139"/>
-      <c r="FZ82" s="139"/>
-      <c r="GA82" s="139"/>
-      <c r="GB82" s="139"/>
-      <c r="GC82" s="141"/>
+      <c r="EF80" s="140"/>
+      <c r="EG80" s="140"/>
+      <c r="EH80" s="140"/>
+      <c r="EI80" s="140"/>
+      <c r="EJ80" s="140"/>
+      <c r="EK80" s="140"/>
+      <c r="EL80" s="140"/>
+      <c r="EM80" s="140"/>
+      <c r="EN80" s="140"/>
+      <c r="EO80" s="140"/>
+      <c r="EP80" s="140"/>
+      <c r="EQ80" s="140"/>
+      <c r="ER80" s="140"/>
+      <c r="ES80" s="140"/>
+      <c r="ET80" s="140"/>
+      <c r="EU80" s="140"/>
+      <c r="EV80" s="140"/>
+      <c r="EW80" s="140"/>
+      <c r="EX80" s="140"/>
+      <c r="EY80" s="140"/>
+      <c r="EZ80" s="140"/>
+      <c r="FA80" s="140"/>
+      <c r="FB80" s="140"/>
+      <c r="FC80" s="140"/>
+      <c r="FD80" s="140"/>
+      <c r="FE80" s="140"/>
+      <c r="FF80" s="140"/>
+      <c r="FG80" s="140"/>
+      <c r="FH80" s="140"/>
+      <c r="FI80" s="140"/>
+      <c r="FJ80" s="140"/>
+      <c r="FK80" s="140"/>
+      <c r="FL80" s="141"/>
+      <c r="FM80" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="FN80" s="140"/>
+      <c r="FO80" s="140"/>
+      <c r="FP80" s="140"/>
+      <c r="FQ80" s="140"/>
+      <c r="FR80" s="140"/>
+      <c r="FS80" s="140"/>
+      <c r="FT80" s="140"/>
+      <c r="FU80" s="140"/>
+      <c r="FV80" s="140"/>
+      <c r="FW80" s="140"/>
+      <c r="FX80" s="140"/>
+      <c r="FY80" s="140"/>
+      <c r="FZ80" s="140"/>
+      <c r="GA80" s="140"/>
+      <c r="GB80" s="140"/>
+      <c r="GC80" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="EE82:FL82"/>
-    <mergeCell ref="FM82:GC82"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="F82:AN82"/>
-    <mergeCell ref="AO82:BZ82"/>
-    <mergeCell ref="CA82:CU82"/>
-    <mergeCell ref="CV82:ED82"/>
+    <mergeCell ref="EE80:FL80"/>
+    <mergeCell ref="FM80:GC80"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="F80:AN80"/>
+    <mergeCell ref="AO80:BZ80"/>
+    <mergeCell ref="CA80:CU80"/>
+    <mergeCell ref="CV80:ED80"/>
     <mergeCell ref="F4:AN4"/>
     <mergeCell ref="AO4:BZ4"/>
     <mergeCell ref="FM4:GC4"/>
@@ -18374,55 +18115,447 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="33" orientation="landscape"/>
+  <pageSetup paperSize="8" scale="33" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="128.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="91" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
       <c r="D1" s="91"/>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="99" t="s">
+      <c r="D3" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="95" t="s">
-        <v>104</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>32</v>
       </c>
+      <c r="B4" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="102">
+        <v>42654</v>
+      </c>
+      <c r="D4" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="103">
+        <v>42654</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="103">
+        <v>42661</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="103">
+        <v>42666</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="103">
+        <v>42688</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="103">
+        <v>42698</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="103">
+        <v>42704</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="103">
+        <v>42694</v>
+      </c>
+      <c r="D11" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="103">
+        <v>42701</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="100" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="109" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="103">
+        <v>42704</v>
+      </c>
+      <c r="D13" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="103">
+        <v>42725</v>
+      </c>
+      <c r="D14" s="96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="103">
+        <v>42725</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="103">
+        <v>42760</v>
+      </c>
+      <c r="D16" s="96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="103">
+        <v>42760</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="103">
+        <v>42795</v>
+      </c>
+      <c r="D18" s="96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="103">
+        <v>42795</v>
+      </c>
+      <c r="D19" s="96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="103">
+        <v>42804</v>
+      </c>
+      <c r="D20" s="96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="103">
+        <v>42810</v>
+      </c>
+      <c r="D21" s="96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="103">
+        <v>42810</v>
+      </c>
+      <c r="D22" s="96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="103">
+        <v>42633</v>
+      </c>
+      <c r="D24" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="103">
+        <v>42677</v>
+      </c>
+      <c r="D25" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="103">
+        <v>42691</v>
+      </c>
+      <c r="D26" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="103">
+        <v>42720</v>
+      </c>
+      <c r="D27" s="96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="103">
+        <v>42776</v>
+      </c>
+      <c r="D28" s="96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="128.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="100" t="s">
+        <v>32</v>
+      </c>
       <c r="B4" s="101" t="s">
         <v>67</v>
       </c>
@@ -18430,47 +18563,47 @@
         <v>42666</v>
       </c>
       <c r="D4" s="96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="103">
         <v>42704</v>
       </c>
       <c r="D5" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="100" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="103">
         <v>42704</v>
       </c>
       <c r="D6" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
         <v>35</v>
       </c>
@@ -18481,66 +18614,66 @@
         <v>42725</v>
       </c>
       <c r="D7" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="103">
         <v>42760</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="100" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="103">
         <v>42795</v>
       </c>
       <c r="D9" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="104" t="s">
         <v>83</v>
-      </c>
-      <c r="B10" s="104" t="s">
-        <v>84</v>
       </c>
       <c r="C10" s="103">
         <v>42810</v>
       </c>
       <c r="D10" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="100" t="s">
         <v>101</v>
-      </c>
-      <c r="E10" s="105" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="100" t="s">
-        <v>102</v>
       </c>
       <c r="B11" s="104" t="s">
         <v>44</v>
@@ -18549,10 +18682,10 @@
         <v>42810</v>
       </c>
       <c r="D11" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/doc/planning/Projektplanung_Spektrometer.xlsx
+++ b/doc/planning/Projektplanung_Spektrometer.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28016"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\Spektrometer\portableSpectrometer\doc\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Daten/Spektrometer/portableSpectrometer/doc/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="39945" windowHeight="24075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="48720" windowHeight="25420"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,10 @@
   </externalReferences>
   <definedNames>
     <definedName name="abc">[1]Stammdaten!$B$2:$B$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$GC$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$GC$81</definedName>
     <definedName name="Teammitglieder">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="163">
   <si>
     <t>Zeit</t>
   </si>
@@ -380,11 +380,6 @@
     <t>​Die App im Appstore eingereicht ist</t>
   </si>
   <si>
-    <t>​Statusberichte regelmässig an den betreuenden Coach versendet wurden.
-Eine Dokumentation anhand des Leitfadens IP6 erstellt wurde.
-Eine Presentation mit anschliessender Verteidigung gehalten wurde.</t>
-  </si>
-  <si>
     <t>abgeschlossen</t>
   </si>
   <si>
@@ -395,9 +390,6 @@
   </si>
   <si>
     <t>​Proof of Concept</t>
-  </si>
-  <si>
-    <t>Meeting Testflight</t>
   </si>
   <si>
     <t>Meeting Prototyp 2</t>
@@ -519,11 +511,33 @@
   <si>
     <t>In Dokumentation eingelesen</t>
   </si>
+  <si>
+    <t>Meeting Prototpy 3</t>
+  </si>
+  <si>
+    <t>Meeting Prototyp 1 mit TestFligth</t>
+  </si>
+  <si>
+    <t>Plakat</t>
+  </si>
+  <si>
+    <t>Verteidigung</t>
+  </si>
+  <si>
+    <t>Das Plakat wurde an Andreas Hueni übergeben.</t>
+  </si>
+  <si>
+    <t>Die Verteidigung wurde in Zürich durchgeführt.</t>
+  </si>
+  <si>
+    <t>​Statusberichte regelmässig an den betreuenden Coach versendet wurden.
+Eine Dokumentation anhand des Leitfadens IP6 erstellt wurde.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -607,8 +621,8 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1559,7 +1573,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1849,20 +1863,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1870,110 +1875,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2005,145 +1911,271 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="137">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2467,38 +2499,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:GC80"/>
+  <dimension ref="A1:GC82"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="DW33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="5" ySplit="8" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A67" sqref="A67:XFD68"/>
+      <selection pane="bottomRight" activeCell="FV46" sqref="FV46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.42578125" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" style="34" customWidth="1"/>
-    <col min="6" max="109" width="2.42578125" style="4" customWidth="1"/>
-    <col min="110" max="185" width="2.42578125" style="10" customWidth="1"/>
-    <col min="186" max="16384" width="15.42578125" style="1"/>
+    <col min="1" max="1" width="7.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="34" customWidth="1"/>
+    <col min="6" max="109" width="2.5" style="4" customWidth="1"/>
+    <col min="110" max="185" width="2.5" style="10" customWidth="1"/>
+    <col min="186" max="16384" width="15.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:185" s="12" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:185" s="12" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -2680,12 +2712,12 @@
       <c r="GB1" s="3"/>
       <c r="GC1" s="6"/>
     </row>
-    <row r="2" spans="1:185" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
+    <row r="2" spans="1:185" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
@@ -2867,7 +2899,7 @@
       <c r="GB2" s="50"/>
       <c r="GC2" s="13"/>
     </row>
-    <row r="3" spans="1:185" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:185" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>27</v>
       </c>
@@ -3066,852 +3098,852 @@
       <c r="GB3" s="15"/>
       <c r="GC3" s="18"/>
     </row>
-    <row r="4" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+    <row r="4" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="136" t="s">
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="137"/>
-      <c r="S4" s="137"/>
-      <c r="T4" s="137"/>
-      <c r="U4" s="137"/>
-      <c r="V4" s="137"/>
-      <c r="W4" s="137"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="137"/>
-      <c r="Z4" s="137"/>
-      <c r="AA4" s="137"/>
-      <c r="AB4" s="137"/>
-      <c r="AC4" s="137"/>
-      <c r="AD4" s="137"/>
-      <c r="AE4" s="137"/>
-      <c r="AF4" s="137"/>
-      <c r="AG4" s="137"/>
-      <c r="AH4" s="137"/>
-      <c r="AI4" s="137"/>
-      <c r="AJ4" s="137"/>
-      <c r="AK4" s="137"/>
-      <c r="AL4" s="137"/>
-      <c r="AM4" s="137"/>
-      <c r="AN4" s="137"/>
-      <c r="AO4" s="137" t="s">
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="114"/>
+      <c r="AN4" s="114"/>
+      <c r="AO4" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="AP4" s="137"/>
-      <c r="AQ4" s="137"/>
-      <c r="AR4" s="137"/>
-      <c r="AS4" s="137"/>
-      <c r="AT4" s="137"/>
-      <c r="AU4" s="137"/>
-      <c r="AV4" s="137"/>
-      <c r="AW4" s="137"/>
-      <c r="AX4" s="137"/>
-      <c r="AY4" s="137"/>
-      <c r="AZ4" s="137"/>
-      <c r="BA4" s="137"/>
-      <c r="BB4" s="137"/>
-      <c r="BC4" s="137"/>
-      <c r="BD4" s="137"/>
-      <c r="BE4" s="137"/>
-      <c r="BF4" s="137"/>
-      <c r="BG4" s="137"/>
-      <c r="BH4" s="137"/>
-      <c r="BI4" s="137"/>
-      <c r="BJ4" s="137"/>
-      <c r="BK4" s="137"/>
-      <c r="BL4" s="137"/>
-      <c r="BM4" s="137"/>
-      <c r="BN4" s="137"/>
-      <c r="BO4" s="137"/>
-      <c r="BP4" s="137"/>
-      <c r="BQ4" s="137"/>
-      <c r="BR4" s="137"/>
-      <c r="BS4" s="137"/>
-      <c r="BT4" s="137"/>
-      <c r="BU4" s="137"/>
-      <c r="BV4" s="137"/>
-      <c r="BW4" s="137"/>
-      <c r="BX4" s="137"/>
-      <c r="BY4" s="137"/>
-      <c r="BZ4" s="137"/>
-      <c r="CA4" s="137" t="s">
+      <c r="AP4" s="114"/>
+      <c r="AQ4" s="114"/>
+      <c r="AR4" s="114"/>
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="114"/>
+      <c r="AU4" s="114"/>
+      <c r="AV4" s="114"/>
+      <c r="AW4" s="114"/>
+      <c r="AX4" s="114"/>
+      <c r="AY4" s="114"/>
+      <c r="AZ4" s="114"/>
+      <c r="BA4" s="114"/>
+      <c r="BB4" s="114"/>
+      <c r="BC4" s="114"/>
+      <c r="BD4" s="114"/>
+      <c r="BE4" s="114"/>
+      <c r="BF4" s="114"/>
+      <c r="BG4" s="114"/>
+      <c r="BH4" s="114"/>
+      <c r="BI4" s="114"/>
+      <c r="BJ4" s="114"/>
+      <c r="BK4" s="114"/>
+      <c r="BL4" s="114"/>
+      <c r="BM4" s="114"/>
+      <c r="BN4" s="114"/>
+      <c r="BO4" s="114"/>
+      <c r="BP4" s="114"/>
+      <c r="BQ4" s="114"/>
+      <c r="BR4" s="114"/>
+      <c r="BS4" s="114"/>
+      <c r="BT4" s="114"/>
+      <c r="BU4" s="114"/>
+      <c r="BV4" s="114"/>
+      <c r="BW4" s="114"/>
+      <c r="BX4" s="114"/>
+      <c r="BY4" s="114"/>
+      <c r="BZ4" s="114"/>
+      <c r="CA4" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="CB4" s="137"/>
-      <c r="CC4" s="137"/>
-      <c r="CD4" s="137"/>
-      <c r="CE4" s="137"/>
-      <c r="CF4" s="137"/>
-      <c r="CG4" s="137"/>
-      <c r="CH4" s="137"/>
-      <c r="CI4" s="137"/>
-      <c r="CJ4" s="137"/>
-      <c r="CK4" s="137"/>
-      <c r="CL4" s="137"/>
-      <c r="CM4" s="137"/>
-      <c r="CN4" s="137"/>
-      <c r="CO4" s="137"/>
-      <c r="CP4" s="137"/>
-      <c r="CQ4" s="137"/>
-      <c r="CR4" s="137"/>
-      <c r="CS4" s="137"/>
-      <c r="CT4" s="137"/>
-      <c r="CU4" s="137"/>
-      <c r="CV4" s="137" t="s">
+      <c r="CB4" s="114"/>
+      <c r="CC4" s="114"/>
+      <c r="CD4" s="114"/>
+      <c r="CE4" s="114"/>
+      <c r="CF4" s="114"/>
+      <c r="CG4" s="114"/>
+      <c r="CH4" s="114"/>
+      <c r="CI4" s="114"/>
+      <c r="CJ4" s="114"/>
+      <c r="CK4" s="114"/>
+      <c r="CL4" s="114"/>
+      <c r="CM4" s="114"/>
+      <c r="CN4" s="114"/>
+      <c r="CO4" s="114"/>
+      <c r="CP4" s="114"/>
+      <c r="CQ4" s="114"/>
+      <c r="CR4" s="114"/>
+      <c r="CS4" s="114"/>
+      <c r="CT4" s="114"/>
+      <c r="CU4" s="114"/>
+      <c r="CV4" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="CW4" s="137"/>
-      <c r="CX4" s="137"/>
-      <c r="CY4" s="137"/>
-      <c r="CZ4" s="137"/>
-      <c r="DA4" s="137"/>
-      <c r="DB4" s="137"/>
-      <c r="DC4" s="137"/>
-      <c r="DD4" s="137"/>
-      <c r="DE4" s="137"/>
-      <c r="DF4" s="137"/>
-      <c r="DG4" s="137"/>
-      <c r="DH4" s="137"/>
-      <c r="DI4" s="137"/>
-      <c r="DJ4" s="137"/>
-      <c r="DK4" s="137"/>
-      <c r="DL4" s="137"/>
-      <c r="DM4" s="137"/>
-      <c r="DN4" s="137"/>
-      <c r="DO4" s="137"/>
-      <c r="DP4" s="137"/>
-      <c r="DQ4" s="137"/>
-      <c r="DR4" s="137"/>
-      <c r="DS4" s="137"/>
-      <c r="DT4" s="137"/>
-      <c r="DU4" s="137"/>
-      <c r="DV4" s="137"/>
-      <c r="DW4" s="137"/>
-      <c r="DX4" s="137"/>
-      <c r="DY4" s="137"/>
-      <c r="DZ4" s="137"/>
-      <c r="EA4" s="137"/>
-      <c r="EB4" s="137"/>
-      <c r="EC4" s="137"/>
-      <c r="ED4" s="137"/>
-      <c r="EE4" s="137" t="s">
+      <c r="CW4" s="114"/>
+      <c r="CX4" s="114"/>
+      <c r="CY4" s="114"/>
+      <c r="CZ4" s="114"/>
+      <c r="DA4" s="114"/>
+      <c r="DB4" s="114"/>
+      <c r="DC4" s="114"/>
+      <c r="DD4" s="114"/>
+      <c r="DE4" s="114"/>
+      <c r="DF4" s="114"/>
+      <c r="DG4" s="114"/>
+      <c r="DH4" s="114"/>
+      <c r="DI4" s="114"/>
+      <c r="DJ4" s="114"/>
+      <c r="DK4" s="114"/>
+      <c r="DL4" s="114"/>
+      <c r="DM4" s="114"/>
+      <c r="DN4" s="114"/>
+      <c r="DO4" s="114"/>
+      <c r="DP4" s="114"/>
+      <c r="DQ4" s="114"/>
+      <c r="DR4" s="114"/>
+      <c r="DS4" s="114"/>
+      <c r="DT4" s="114"/>
+      <c r="DU4" s="114"/>
+      <c r="DV4" s="114"/>
+      <c r="DW4" s="114"/>
+      <c r="DX4" s="114"/>
+      <c r="DY4" s="114"/>
+      <c r="DZ4" s="114"/>
+      <c r="EA4" s="114"/>
+      <c r="EB4" s="114"/>
+      <c r="EC4" s="114"/>
+      <c r="ED4" s="114"/>
+      <c r="EE4" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="EF4" s="137"/>
-      <c r="EG4" s="137"/>
-      <c r="EH4" s="137"/>
-      <c r="EI4" s="137"/>
-      <c r="EJ4" s="137"/>
-      <c r="EK4" s="137"/>
-      <c r="EL4" s="137"/>
-      <c r="EM4" s="137"/>
-      <c r="EN4" s="137"/>
-      <c r="EO4" s="137"/>
-      <c r="EP4" s="137"/>
-      <c r="EQ4" s="137"/>
-      <c r="ER4" s="137"/>
-      <c r="ES4" s="137"/>
-      <c r="ET4" s="137"/>
-      <c r="EU4" s="137"/>
-      <c r="EV4" s="137"/>
-      <c r="EW4" s="137"/>
-      <c r="EX4" s="137"/>
-      <c r="EY4" s="137"/>
-      <c r="EZ4" s="137"/>
-      <c r="FA4" s="137"/>
-      <c r="FB4" s="137"/>
-      <c r="FC4" s="137"/>
-      <c r="FD4" s="137"/>
-      <c r="FE4" s="137"/>
-      <c r="FF4" s="137"/>
-      <c r="FG4" s="137"/>
-      <c r="FH4" s="137"/>
-      <c r="FI4" s="137"/>
-      <c r="FJ4" s="137"/>
-      <c r="FK4" s="137"/>
-      <c r="FL4" s="137"/>
-      <c r="FM4" s="137" t="s">
+      <c r="EF4" s="114"/>
+      <c r="EG4" s="114"/>
+      <c r="EH4" s="114"/>
+      <c r="EI4" s="114"/>
+      <c r="EJ4" s="114"/>
+      <c r="EK4" s="114"/>
+      <c r="EL4" s="114"/>
+      <c r="EM4" s="114"/>
+      <c r="EN4" s="114"/>
+      <c r="EO4" s="114"/>
+      <c r="EP4" s="114"/>
+      <c r="EQ4" s="114"/>
+      <c r="ER4" s="114"/>
+      <c r="ES4" s="114"/>
+      <c r="ET4" s="114"/>
+      <c r="EU4" s="114"/>
+      <c r="EV4" s="114"/>
+      <c r="EW4" s="114"/>
+      <c r="EX4" s="114"/>
+      <c r="EY4" s="114"/>
+      <c r="EZ4" s="114"/>
+      <c r="FA4" s="114"/>
+      <c r="FB4" s="114"/>
+      <c r="FC4" s="114"/>
+      <c r="FD4" s="114"/>
+      <c r="FE4" s="114"/>
+      <c r="FF4" s="114"/>
+      <c r="FG4" s="114"/>
+      <c r="FH4" s="114"/>
+      <c r="FI4" s="114"/>
+      <c r="FJ4" s="114"/>
+      <c r="FK4" s="114"/>
+      <c r="FL4" s="114"/>
+      <c r="FM4" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="FN4" s="137"/>
-      <c r="FO4" s="137"/>
-      <c r="FP4" s="137"/>
-      <c r="FQ4" s="137"/>
-      <c r="FR4" s="137"/>
-      <c r="FS4" s="137"/>
-      <c r="FT4" s="137"/>
-      <c r="FU4" s="137"/>
-      <c r="FV4" s="137"/>
-      <c r="FW4" s="137"/>
-      <c r="FX4" s="137"/>
-      <c r="FY4" s="137"/>
-      <c r="FZ4" s="137"/>
-      <c r="GA4" s="137"/>
-      <c r="GB4" s="137"/>
-      <c r="GC4" s="138"/>
+      <c r="FN4" s="114"/>
+      <c r="FO4" s="114"/>
+      <c r="FP4" s="114"/>
+      <c r="FQ4" s="114"/>
+      <c r="FR4" s="114"/>
+      <c r="FS4" s="114"/>
+      <c r="FT4" s="114"/>
+      <c r="FU4" s="114"/>
+      <c r="FV4" s="114"/>
+      <c r="FW4" s="114"/>
+      <c r="FX4" s="114"/>
+      <c r="FY4" s="114"/>
+      <c r="FZ4" s="114"/>
+      <c r="GA4" s="114"/>
+      <c r="GB4" s="114"/>
+      <c r="GC4" s="115"/>
     </row>
-    <row r="5" spans="1:185" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+    <row r="5" spans="1:185" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="134">
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="118">
         <v>2016</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="112"/>
-      <c r="BD5" s="112"/>
-      <c r="BE5" s="112"/>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="112"/>
-      <c r="BJ5" s="112"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="112"/>
-      <c r="BM5" s="112"/>
-      <c r="BN5" s="112"/>
-      <c r="BO5" s="112"/>
-      <c r="BP5" s="112"/>
-      <c r="BQ5" s="112"/>
-      <c r="BR5" s="112"/>
-      <c r="BS5" s="112"/>
-      <c r="BT5" s="112"/>
-      <c r="BU5" s="112"/>
-      <c r="BV5" s="112"/>
-      <c r="BW5" s="112"/>
-      <c r="BX5" s="112"/>
-      <c r="BY5" s="112"/>
-      <c r="BZ5" s="112"/>
-      <c r="CA5" s="112"/>
-      <c r="CB5" s="112"/>
-      <c r="CC5" s="112"/>
-      <c r="CD5" s="112"/>
-      <c r="CE5" s="112"/>
-      <c r="CF5" s="112"/>
-      <c r="CG5" s="112"/>
-      <c r="CH5" s="112"/>
-      <c r="CI5" s="112"/>
-      <c r="CJ5" s="112"/>
-      <c r="CK5" s="112"/>
-      <c r="CL5" s="112"/>
-      <c r="CM5" s="112"/>
-      <c r="CN5" s="112"/>
-      <c r="CO5" s="112"/>
-      <c r="CP5" s="112"/>
-      <c r="CQ5" s="112"/>
-      <c r="CR5" s="112"/>
-      <c r="CS5" s="112"/>
-      <c r="CT5" s="112"/>
-      <c r="CU5" s="112"/>
-      <c r="CV5" s="112"/>
-      <c r="CW5" s="112"/>
-      <c r="CX5" s="112"/>
-      <c r="CY5" s="112"/>
-      <c r="CZ5" s="112"/>
-      <c r="DA5" s="112"/>
-      <c r="DB5" s="112"/>
-      <c r="DC5" s="112"/>
-      <c r="DD5" s="112"/>
-      <c r="DE5" s="112"/>
-      <c r="DF5" s="112">
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="119"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="119"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="119"/>
+      <c r="AL5" s="119"/>
+      <c r="AM5" s="119"/>
+      <c r="AN5" s="119"/>
+      <c r="AO5" s="119"/>
+      <c r="AP5" s="119"/>
+      <c r="AQ5" s="119"/>
+      <c r="AR5" s="119"/>
+      <c r="AS5" s="119"/>
+      <c r="AT5" s="119"/>
+      <c r="AU5" s="119"/>
+      <c r="AV5" s="119"/>
+      <c r="AW5" s="119"/>
+      <c r="AX5" s="119"/>
+      <c r="AY5" s="119"/>
+      <c r="AZ5" s="119"/>
+      <c r="BA5" s="119"/>
+      <c r="BB5" s="119"/>
+      <c r="BC5" s="119"/>
+      <c r="BD5" s="119"/>
+      <c r="BE5" s="119"/>
+      <c r="BF5" s="119"/>
+      <c r="BG5" s="119"/>
+      <c r="BH5" s="119"/>
+      <c r="BI5" s="119"/>
+      <c r="BJ5" s="119"/>
+      <c r="BK5" s="119"/>
+      <c r="BL5" s="119"/>
+      <c r="BM5" s="119"/>
+      <c r="BN5" s="119"/>
+      <c r="BO5" s="119"/>
+      <c r="BP5" s="119"/>
+      <c r="BQ5" s="119"/>
+      <c r="BR5" s="119"/>
+      <c r="BS5" s="119"/>
+      <c r="BT5" s="119"/>
+      <c r="BU5" s="119"/>
+      <c r="BV5" s="119"/>
+      <c r="BW5" s="119"/>
+      <c r="BX5" s="119"/>
+      <c r="BY5" s="119"/>
+      <c r="BZ5" s="119"/>
+      <c r="CA5" s="119"/>
+      <c r="CB5" s="119"/>
+      <c r="CC5" s="119"/>
+      <c r="CD5" s="119"/>
+      <c r="CE5" s="119"/>
+      <c r="CF5" s="119"/>
+      <c r="CG5" s="119"/>
+      <c r="CH5" s="119"/>
+      <c r="CI5" s="119"/>
+      <c r="CJ5" s="119"/>
+      <c r="CK5" s="119"/>
+      <c r="CL5" s="119"/>
+      <c r="CM5" s="119"/>
+      <c r="CN5" s="119"/>
+      <c r="CO5" s="119"/>
+      <c r="CP5" s="119"/>
+      <c r="CQ5" s="119"/>
+      <c r="CR5" s="119"/>
+      <c r="CS5" s="119"/>
+      <c r="CT5" s="119"/>
+      <c r="CU5" s="119"/>
+      <c r="CV5" s="119"/>
+      <c r="CW5" s="119"/>
+      <c r="CX5" s="119"/>
+      <c r="CY5" s="119"/>
+      <c r="CZ5" s="119"/>
+      <c r="DA5" s="119"/>
+      <c r="DB5" s="119"/>
+      <c r="DC5" s="119"/>
+      <c r="DD5" s="119"/>
+      <c r="DE5" s="119"/>
+      <c r="DF5" s="119">
         <v>2017</v>
       </c>
-      <c r="DG5" s="112"/>
-      <c r="DH5" s="112"/>
-      <c r="DI5" s="112"/>
-      <c r="DJ5" s="112"/>
-      <c r="DK5" s="112"/>
-      <c r="DL5" s="112"/>
-      <c r="DM5" s="112"/>
-      <c r="DN5" s="112"/>
-      <c r="DO5" s="112"/>
-      <c r="DP5" s="112"/>
-      <c r="DQ5" s="112"/>
-      <c r="DR5" s="112"/>
-      <c r="DS5" s="112"/>
-      <c r="DT5" s="112"/>
-      <c r="DU5" s="112"/>
-      <c r="DV5" s="112"/>
-      <c r="DW5" s="112"/>
-      <c r="DX5" s="112"/>
-      <c r="DY5" s="112"/>
-      <c r="DZ5" s="112"/>
-      <c r="EA5" s="112"/>
-      <c r="EB5" s="112"/>
-      <c r="EC5" s="112"/>
-      <c r="ED5" s="112"/>
-      <c r="EE5" s="112"/>
-      <c r="EF5" s="112"/>
-      <c r="EG5" s="112"/>
-      <c r="EH5" s="112"/>
-      <c r="EI5" s="112"/>
-      <c r="EJ5" s="112"/>
-      <c r="EK5" s="112"/>
-      <c r="EL5" s="112"/>
-      <c r="EM5" s="112"/>
-      <c r="EN5" s="112"/>
-      <c r="EO5" s="112"/>
-      <c r="EP5" s="112"/>
-      <c r="EQ5" s="112"/>
-      <c r="ER5" s="112"/>
-      <c r="ES5" s="112"/>
-      <c r="ET5" s="112"/>
-      <c r="EU5" s="112"/>
-      <c r="EV5" s="112"/>
-      <c r="EW5" s="112"/>
-      <c r="EX5" s="112"/>
-      <c r="EY5" s="112"/>
-      <c r="EZ5" s="112"/>
-      <c r="FA5" s="112"/>
-      <c r="FB5" s="112"/>
-      <c r="FC5" s="112"/>
-      <c r="FD5" s="112"/>
-      <c r="FE5" s="112"/>
-      <c r="FF5" s="112"/>
-      <c r="FG5" s="112"/>
-      <c r="FH5" s="112"/>
-      <c r="FI5" s="112"/>
-      <c r="FJ5" s="112"/>
-      <c r="FK5" s="112"/>
-      <c r="FL5" s="112"/>
-      <c r="FM5" s="112"/>
-      <c r="FN5" s="112"/>
-      <c r="FO5" s="112"/>
-      <c r="FP5" s="112"/>
-      <c r="FQ5" s="112"/>
-      <c r="FR5" s="112"/>
-      <c r="FS5" s="112"/>
-      <c r="FT5" s="112"/>
-      <c r="FU5" s="112"/>
-      <c r="FV5" s="112"/>
-      <c r="FW5" s="112"/>
-      <c r="FX5" s="112"/>
-      <c r="FY5" s="112"/>
-      <c r="FZ5" s="112"/>
-      <c r="GA5" s="112"/>
-      <c r="GB5" s="112"/>
-      <c r="GC5" s="113"/>
+      <c r="DG5" s="119"/>
+      <c r="DH5" s="119"/>
+      <c r="DI5" s="119"/>
+      <c r="DJ5" s="119"/>
+      <c r="DK5" s="119"/>
+      <c r="DL5" s="119"/>
+      <c r="DM5" s="119"/>
+      <c r="DN5" s="119"/>
+      <c r="DO5" s="119"/>
+      <c r="DP5" s="119"/>
+      <c r="DQ5" s="119"/>
+      <c r="DR5" s="119"/>
+      <c r="DS5" s="119"/>
+      <c r="DT5" s="119"/>
+      <c r="DU5" s="119"/>
+      <c r="DV5" s="119"/>
+      <c r="DW5" s="119"/>
+      <c r="DX5" s="119"/>
+      <c r="DY5" s="119"/>
+      <c r="DZ5" s="119"/>
+      <c r="EA5" s="119"/>
+      <c r="EB5" s="119"/>
+      <c r="EC5" s="119"/>
+      <c r="ED5" s="119"/>
+      <c r="EE5" s="119"/>
+      <c r="EF5" s="119"/>
+      <c r="EG5" s="119"/>
+      <c r="EH5" s="119"/>
+      <c r="EI5" s="119"/>
+      <c r="EJ5" s="119"/>
+      <c r="EK5" s="119"/>
+      <c r="EL5" s="119"/>
+      <c r="EM5" s="119"/>
+      <c r="EN5" s="119"/>
+      <c r="EO5" s="119"/>
+      <c r="EP5" s="119"/>
+      <c r="EQ5" s="119"/>
+      <c r="ER5" s="119"/>
+      <c r="ES5" s="119"/>
+      <c r="ET5" s="119"/>
+      <c r="EU5" s="119"/>
+      <c r="EV5" s="119"/>
+      <c r="EW5" s="119"/>
+      <c r="EX5" s="119"/>
+      <c r="EY5" s="119"/>
+      <c r="EZ5" s="119"/>
+      <c r="FA5" s="119"/>
+      <c r="FB5" s="119"/>
+      <c r="FC5" s="119"/>
+      <c r="FD5" s="119"/>
+      <c r="FE5" s="119"/>
+      <c r="FF5" s="119"/>
+      <c r="FG5" s="119"/>
+      <c r="FH5" s="119"/>
+      <c r="FI5" s="119"/>
+      <c r="FJ5" s="119"/>
+      <c r="FK5" s="119"/>
+      <c r="FL5" s="119"/>
+      <c r="FM5" s="119"/>
+      <c r="FN5" s="119"/>
+      <c r="FO5" s="119"/>
+      <c r="FP5" s="119"/>
+      <c r="FQ5" s="119"/>
+      <c r="FR5" s="119"/>
+      <c r="FS5" s="119"/>
+      <c r="FT5" s="119"/>
+      <c r="FU5" s="119"/>
+      <c r="FV5" s="119"/>
+      <c r="FW5" s="119"/>
+      <c r="FX5" s="119"/>
+      <c r="FY5" s="119"/>
+      <c r="FZ5" s="119"/>
+      <c r="GA5" s="119"/>
+      <c r="GB5" s="119"/>
+      <c r="GC5" s="141"/>
     </row>
-    <row r="6" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="125" t="s">
+    <row r="6" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="135" t="s">
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110" t="s">
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110"/>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="110"/>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="110"/>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="110"/>
-      <c r="AF6" s="110"/>
-      <c r="AG6" s="110"/>
-      <c r="AH6" s="110"/>
-      <c r="AI6" s="110"/>
-      <c r="AJ6" s="110"/>
-      <c r="AK6" s="110"/>
-      <c r="AL6" s="110"/>
-      <c r="AM6" s="110"/>
-      <c r="AN6" s="110"/>
-      <c r="AO6" s="110"/>
-      <c r="AP6" s="110"/>
-      <c r="AQ6" s="110"/>
-      <c r="AR6" s="110"/>
-      <c r="AS6" s="110"/>
-      <c r="AT6" s="110"/>
-      <c r="AU6" s="110"/>
-      <c r="AV6" s="110"/>
-      <c r="AW6" s="110" t="s">
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="117"/>
+      <c r="AA6" s="117"/>
+      <c r="AB6" s="117"/>
+      <c r="AC6" s="117"/>
+      <c r="AD6" s="117"/>
+      <c r="AE6" s="117"/>
+      <c r="AF6" s="117"/>
+      <c r="AG6" s="117"/>
+      <c r="AH6" s="117"/>
+      <c r="AI6" s="117"/>
+      <c r="AJ6" s="117"/>
+      <c r="AK6" s="117"/>
+      <c r="AL6" s="117"/>
+      <c r="AM6" s="117"/>
+      <c r="AN6" s="117"/>
+      <c r="AO6" s="117"/>
+      <c r="AP6" s="117"/>
+      <c r="AQ6" s="117"/>
+      <c r="AR6" s="117"/>
+      <c r="AS6" s="117"/>
+      <c r="AT6" s="117"/>
+      <c r="AU6" s="117"/>
+      <c r="AV6" s="117"/>
+      <c r="AW6" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="AX6" s="110"/>
-      <c r="AY6" s="110"/>
-      <c r="AZ6" s="110"/>
-      <c r="BA6" s="110"/>
-      <c r="BB6" s="110"/>
-      <c r="BC6" s="110"/>
-      <c r="BD6" s="110"/>
-      <c r="BE6" s="110"/>
-      <c r="BF6" s="110"/>
-      <c r="BG6" s="110"/>
-      <c r="BH6" s="110"/>
-      <c r="BI6" s="110"/>
-      <c r="BJ6" s="110"/>
-      <c r="BK6" s="110"/>
-      <c r="BL6" s="110"/>
-      <c r="BM6" s="110"/>
-      <c r="BN6" s="110"/>
-      <c r="BO6" s="110"/>
-      <c r="BP6" s="110"/>
-      <c r="BQ6" s="110"/>
-      <c r="BR6" s="110"/>
-      <c r="BS6" s="110"/>
-      <c r="BT6" s="110"/>
-      <c r="BU6" s="110"/>
-      <c r="BV6" s="110"/>
-      <c r="BW6" s="110"/>
-      <c r="BX6" s="110"/>
-      <c r="BY6" s="110"/>
-      <c r="BZ6" s="110"/>
-      <c r="CA6" s="110" t="s">
+      <c r="AX6" s="117"/>
+      <c r="AY6" s="117"/>
+      <c r="AZ6" s="117"/>
+      <c r="BA6" s="117"/>
+      <c r="BB6" s="117"/>
+      <c r="BC6" s="117"/>
+      <c r="BD6" s="117"/>
+      <c r="BE6" s="117"/>
+      <c r="BF6" s="117"/>
+      <c r="BG6" s="117"/>
+      <c r="BH6" s="117"/>
+      <c r="BI6" s="117"/>
+      <c r="BJ6" s="117"/>
+      <c r="BK6" s="117"/>
+      <c r="BL6" s="117"/>
+      <c r="BM6" s="117"/>
+      <c r="BN6" s="117"/>
+      <c r="BO6" s="117"/>
+      <c r="BP6" s="117"/>
+      <c r="BQ6" s="117"/>
+      <c r="BR6" s="117"/>
+      <c r="BS6" s="117"/>
+      <c r="BT6" s="117"/>
+      <c r="BU6" s="117"/>
+      <c r="BV6" s="117"/>
+      <c r="BW6" s="117"/>
+      <c r="BX6" s="117"/>
+      <c r="BY6" s="117"/>
+      <c r="BZ6" s="117"/>
+      <c r="CA6" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="CB6" s="110"/>
-      <c r="CC6" s="110"/>
-      <c r="CD6" s="110"/>
-      <c r="CE6" s="110"/>
-      <c r="CF6" s="110"/>
-      <c r="CG6" s="110"/>
-      <c r="CH6" s="110"/>
-      <c r="CI6" s="110"/>
-      <c r="CJ6" s="110"/>
-      <c r="CK6" s="110"/>
-      <c r="CL6" s="110"/>
-      <c r="CM6" s="110"/>
-      <c r="CN6" s="110"/>
-      <c r="CO6" s="110"/>
-      <c r="CP6" s="110"/>
-      <c r="CQ6" s="110"/>
-      <c r="CR6" s="110"/>
-      <c r="CS6" s="110"/>
-      <c r="CT6" s="110"/>
-      <c r="CU6" s="110"/>
-      <c r="CV6" s="110"/>
-      <c r="CW6" s="110"/>
-      <c r="CX6" s="110"/>
-      <c r="CY6" s="110"/>
-      <c r="CZ6" s="110"/>
-      <c r="DA6" s="110"/>
-      <c r="DB6" s="110"/>
-      <c r="DC6" s="110"/>
-      <c r="DD6" s="110"/>
-      <c r="DE6" s="110"/>
-      <c r="DF6" s="110" t="s">
+      <c r="CB6" s="117"/>
+      <c r="CC6" s="117"/>
+      <c r="CD6" s="117"/>
+      <c r="CE6" s="117"/>
+      <c r="CF6" s="117"/>
+      <c r="CG6" s="117"/>
+      <c r="CH6" s="117"/>
+      <c r="CI6" s="117"/>
+      <c r="CJ6" s="117"/>
+      <c r="CK6" s="117"/>
+      <c r="CL6" s="117"/>
+      <c r="CM6" s="117"/>
+      <c r="CN6" s="117"/>
+      <c r="CO6" s="117"/>
+      <c r="CP6" s="117"/>
+      <c r="CQ6" s="117"/>
+      <c r="CR6" s="117"/>
+      <c r="CS6" s="117"/>
+      <c r="CT6" s="117"/>
+      <c r="CU6" s="117"/>
+      <c r="CV6" s="117"/>
+      <c r="CW6" s="117"/>
+      <c r="CX6" s="117"/>
+      <c r="CY6" s="117"/>
+      <c r="CZ6" s="117"/>
+      <c r="DA6" s="117"/>
+      <c r="DB6" s="117"/>
+      <c r="DC6" s="117"/>
+      <c r="DD6" s="117"/>
+      <c r="DE6" s="117"/>
+      <c r="DF6" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="DG6" s="110"/>
-      <c r="DH6" s="110"/>
-      <c r="DI6" s="110"/>
-      <c r="DJ6" s="110"/>
-      <c r="DK6" s="110"/>
-      <c r="DL6" s="110"/>
-      <c r="DM6" s="110"/>
-      <c r="DN6" s="110"/>
-      <c r="DO6" s="110"/>
-      <c r="DP6" s="110"/>
-      <c r="DQ6" s="110"/>
-      <c r="DR6" s="110"/>
-      <c r="DS6" s="110"/>
-      <c r="DT6" s="110"/>
-      <c r="DU6" s="110"/>
-      <c r="DV6" s="110"/>
-      <c r="DW6" s="110"/>
-      <c r="DX6" s="110"/>
-      <c r="DY6" s="110"/>
-      <c r="DZ6" s="110"/>
-      <c r="EA6" s="110"/>
-      <c r="EB6" s="110"/>
-      <c r="EC6" s="110"/>
-      <c r="ED6" s="110"/>
-      <c r="EE6" s="110"/>
-      <c r="EF6" s="110"/>
-      <c r="EG6" s="110"/>
-      <c r="EH6" s="110"/>
-      <c r="EI6" s="110"/>
-      <c r="EJ6" s="110"/>
-      <c r="EK6" s="110" t="s">
+      <c r="DG6" s="117"/>
+      <c r="DH6" s="117"/>
+      <c r="DI6" s="117"/>
+      <c r="DJ6" s="117"/>
+      <c r="DK6" s="117"/>
+      <c r="DL6" s="117"/>
+      <c r="DM6" s="117"/>
+      <c r="DN6" s="117"/>
+      <c r="DO6" s="117"/>
+      <c r="DP6" s="117"/>
+      <c r="DQ6" s="117"/>
+      <c r="DR6" s="117"/>
+      <c r="DS6" s="117"/>
+      <c r="DT6" s="117"/>
+      <c r="DU6" s="117"/>
+      <c r="DV6" s="117"/>
+      <c r="DW6" s="117"/>
+      <c r="DX6" s="117"/>
+      <c r="DY6" s="117"/>
+      <c r="DZ6" s="117"/>
+      <c r="EA6" s="117"/>
+      <c r="EB6" s="117"/>
+      <c r="EC6" s="117"/>
+      <c r="ED6" s="117"/>
+      <c r="EE6" s="117"/>
+      <c r="EF6" s="117"/>
+      <c r="EG6" s="117"/>
+      <c r="EH6" s="117"/>
+      <c r="EI6" s="117"/>
+      <c r="EJ6" s="117"/>
+      <c r="EK6" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="EL6" s="110"/>
-      <c r="EM6" s="110"/>
-      <c r="EN6" s="110"/>
-      <c r="EO6" s="110"/>
-      <c r="EP6" s="110"/>
-      <c r="EQ6" s="110"/>
-      <c r="ER6" s="110"/>
-      <c r="ES6" s="110"/>
-      <c r="ET6" s="110"/>
-      <c r="EU6" s="110"/>
-      <c r="EV6" s="110"/>
-      <c r="EW6" s="110"/>
-      <c r="EX6" s="110"/>
-      <c r="EY6" s="110"/>
-      <c r="EZ6" s="110"/>
-      <c r="FA6" s="110"/>
-      <c r="FB6" s="110"/>
-      <c r="FC6" s="110"/>
-      <c r="FD6" s="110"/>
-      <c r="FE6" s="110"/>
-      <c r="FF6" s="110"/>
-      <c r="FG6" s="110"/>
-      <c r="FH6" s="110"/>
-      <c r="FI6" s="110"/>
-      <c r="FJ6" s="110"/>
-      <c r="FK6" s="110"/>
-      <c r="FL6" s="110"/>
-      <c r="FM6" s="110" t="s">
+      <c r="EL6" s="117"/>
+      <c r="EM6" s="117"/>
+      <c r="EN6" s="117"/>
+      <c r="EO6" s="117"/>
+      <c r="EP6" s="117"/>
+      <c r="EQ6" s="117"/>
+      <c r="ER6" s="117"/>
+      <c r="ES6" s="117"/>
+      <c r="ET6" s="117"/>
+      <c r="EU6" s="117"/>
+      <c r="EV6" s="117"/>
+      <c r="EW6" s="117"/>
+      <c r="EX6" s="117"/>
+      <c r="EY6" s="117"/>
+      <c r="EZ6" s="117"/>
+      <c r="FA6" s="117"/>
+      <c r="FB6" s="117"/>
+      <c r="FC6" s="117"/>
+      <c r="FD6" s="117"/>
+      <c r="FE6" s="117"/>
+      <c r="FF6" s="117"/>
+      <c r="FG6" s="117"/>
+      <c r="FH6" s="117"/>
+      <c r="FI6" s="117"/>
+      <c r="FJ6" s="117"/>
+      <c r="FK6" s="117"/>
+      <c r="FL6" s="117"/>
+      <c r="FM6" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="FN6" s="110"/>
-      <c r="FO6" s="110"/>
-      <c r="FP6" s="110"/>
-      <c r="FQ6" s="110"/>
-      <c r="FR6" s="110"/>
-      <c r="FS6" s="110"/>
-      <c r="FT6" s="110"/>
-      <c r="FU6" s="110"/>
-      <c r="FV6" s="110"/>
-      <c r="FW6" s="110"/>
-      <c r="FX6" s="110"/>
-      <c r="FY6" s="110"/>
-      <c r="FZ6" s="110"/>
-      <c r="GA6" s="110"/>
-      <c r="GB6" s="110"/>
-      <c r="GC6" s="111"/>
+      <c r="FN6" s="117"/>
+      <c r="FO6" s="117"/>
+      <c r="FP6" s="117"/>
+      <c r="FQ6" s="117"/>
+      <c r="FR6" s="117"/>
+      <c r="FS6" s="117"/>
+      <c r="FT6" s="117"/>
+      <c r="FU6" s="117"/>
+      <c r="FV6" s="117"/>
+      <c r="FW6" s="117"/>
+      <c r="FX6" s="117"/>
+      <c r="FY6" s="117"/>
+      <c r="FZ6" s="117"/>
+      <c r="GA6" s="117"/>
+      <c r="GB6" s="117"/>
+      <c r="GC6" s="140"/>
     </row>
-    <row r="7" spans="1:185" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+    <row r="7" spans="1:185" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="134" t="s">
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="114" t="s">
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="114" t="s">
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="114" t="s">
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="112"/>
-      <c r="AC7" s="112"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="112"/>
-      <c r="AG7" s="115"/>
-      <c r="AH7" s="114" t="s">
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="124"/>
+      <c r="AH7" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="AI7" s="112"/>
-      <c r="AJ7" s="112"/>
-      <c r="AK7" s="112"/>
-      <c r="AL7" s="112"/>
-      <c r="AM7" s="112"/>
-      <c r="AN7" s="115"/>
-      <c r="AO7" s="114" t="s">
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="124"/>
+      <c r="AO7" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="AP7" s="112"/>
-      <c r="AQ7" s="112"/>
-      <c r="AR7" s="112"/>
-      <c r="AS7" s="112"/>
-      <c r="AT7" s="112"/>
-      <c r="AU7" s="115"/>
-      <c r="AV7" s="114" t="s">
+      <c r="AP7" s="119"/>
+      <c r="AQ7" s="119"/>
+      <c r="AR7" s="119"/>
+      <c r="AS7" s="119"/>
+      <c r="AT7" s="119"/>
+      <c r="AU7" s="124"/>
+      <c r="AV7" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="AW7" s="112"/>
-      <c r="AX7" s="112"/>
-      <c r="AY7" s="112"/>
-      <c r="AZ7" s="112"/>
-      <c r="BA7" s="112"/>
-      <c r="BB7" s="115"/>
-      <c r="BC7" s="114" t="s">
+      <c r="AW7" s="119"/>
+      <c r="AX7" s="119"/>
+      <c r="AY7" s="119"/>
+      <c r="AZ7" s="119"/>
+      <c r="BA7" s="119"/>
+      <c r="BB7" s="124"/>
+      <c r="BC7" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="BD7" s="112"/>
-      <c r="BE7" s="112"/>
-      <c r="BF7" s="112"/>
-      <c r="BG7" s="112"/>
-      <c r="BH7" s="112"/>
-      <c r="BI7" s="115"/>
-      <c r="BJ7" s="114" t="s">
+      <c r="BD7" s="119"/>
+      <c r="BE7" s="119"/>
+      <c r="BF7" s="119"/>
+      <c r="BG7" s="119"/>
+      <c r="BH7" s="119"/>
+      <c r="BI7" s="124"/>
+      <c r="BJ7" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="BK7" s="112"/>
-      <c r="BL7" s="112"/>
-      <c r="BM7" s="112"/>
-      <c r="BN7" s="112"/>
-      <c r="BO7" s="112"/>
-      <c r="BP7" s="115"/>
-      <c r="BQ7" s="114" t="s">
+      <c r="BK7" s="119"/>
+      <c r="BL7" s="119"/>
+      <c r="BM7" s="119"/>
+      <c r="BN7" s="119"/>
+      <c r="BO7" s="119"/>
+      <c r="BP7" s="124"/>
+      <c r="BQ7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="BR7" s="112"/>
-      <c r="BS7" s="112"/>
-      <c r="BT7" s="112"/>
-      <c r="BU7" s="112"/>
-      <c r="BV7" s="112"/>
-      <c r="BW7" s="115"/>
-      <c r="BX7" s="114" t="s">
+      <c r="BR7" s="119"/>
+      <c r="BS7" s="119"/>
+      <c r="BT7" s="119"/>
+      <c r="BU7" s="119"/>
+      <c r="BV7" s="119"/>
+      <c r="BW7" s="124"/>
+      <c r="BX7" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="BY7" s="112"/>
-      <c r="BZ7" s="112"/>
-      <c r="CA7" s="112"/>
-      <c r="CB7" s="112"/>
-      <c r="CC7" s="112"/>
-      <c r="CD7" s="115"/>
-      <c r="CE7" s="114" t="s">
+      <c r="BY7" s="119"/>
+      <c r="BZ7" s="119"/>
+      <c r="CA7" s="119"/>
+      <c r="CB7" s="119"/>
+      <c r="CC7" s="119"/>
+      <c r="CD7" s="124"/>
+      <c r="CE7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="CF7" s="112"/>
-      <c r="CG7" s="112"/>
-      <c r="CH7" s="112"/>
-      <c r="CI7" s="112"/>
-      <c r="CJ7" s="112"/>
-      <c r="CK7" s="115"/>
-      <c r="CL7" s="114" t="s">
+      <c r="CF7" s="119"/>
+      <c r="CG7" s="119"/>
+      <c r="CH7" s="119"/>
+      <c r="CI7" s="119"/>
+      <c r="CJ7" s="119"/>
+      <c r="CK7" s="124"/>
+      <c r="CL7" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="CM7" s="112"/>
-      <c r="CN7" s="112"/>
-      <c r="CO7" s="112"/>
-      <c r="CP7" s="112"/>
-      <c r="CQ7" s="112"/>
-      <c r="CR7" s="115"/>
-      <c r="CS7" s="114" t="s">
+      <c r="CM7" s="119"/>
+      <c r="CN7" s="119"/>
+      <c r="CO7" s="119"/>
+      <c r="CP7" s="119"/>
+      <c r="CQ7" s="119"/>
+      <c r="CR7" s="124"/>
+      <c r="CS7" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="CT7" s="112"/>
-      <c r="CU7" s="112"/>
-      <c r="CV7" s="112"/>
-      <c r="CW7" s="112"/>
-      <c r="CX7" s="112"/>
-      <c r="CY7" s="115"/>
-      <c r="CZ7" s="114" t="s">
+      <c r="CT7" s="119"/>
+      <c r="CU7" s="119"/>
+      <c r="CV7" s="119"/>
+      <c r="CW7" s="119"/>
+      <c r="CX7" s="119"/>
+      <c r="CY7" s="124"/>
+      <c r="CZ7" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="DA7" s="112"/>
-      <c r="DB7" s="112"/>
-      <c r="DC7" s="112"/>
-      <c r="DD7" s="112"/>
-      <c r="DE7" s="112"/>
-      <c r="DF7" s="112"/>
-      <c r="DG7" s="114" t="s">
+      <c r="DA7" s="119"/>
+      <c r="DB7" s="119"/>
+      <c r="DC7" s="119"/>
+      <c r="DD7" s="119"/>
+      <c r="DE7" s="119"/>
+      <c r="DF7" s="119"/>
+      <c r="DG7" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="DH7" s="112"/>
-      <c r="DI7" s="112"/>
-      <c r="DJ7" s="112"/>
-      <c r="DK7" s="112"/>
-      <c r="DL7" s="112"/>
-      <c r="DM7" s="115"/>
-      <c r="DN7" s="112" t="s">
+      <c r="DH7" s="119"/>
+      <c r="DI7" s="119"/>
+      <c r="DJ7" s="119"/>
+      <c r="DK7" s="119"/>
+      <c r="DL7" s="119"/>
+      <c r="DM7" s="124"/>
+      <c r="DN7" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="DO7" s="112"/>
-      <c r="DP7" s="112"/>
-      <c r="DQ7" s="112"/>
-      <c r="DR7" s="112"/>
-      <c r="DS7" s="112"/>
-      <c r="DT7" s="112"/>
-      <c r="DU7" s="114" t="s">
+      <c r="DO7" s="119"/>
+      <c r="DP7" s="119"/>
+      <c r="DQ7" s="119"/>
+      <c r="DR7" s="119"/>
+      <c r="DS7" s="119"/>
+      <c r="DT7" s="119"/>
+      <c r="DU7" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="DV7" s="112"/>
-      <c r="DW7" s="112"/>
-      <c r="DX7" s="112"/>
-      <c r="DY7" s="112"/>
-      <c r="DZ7" s="112"/>
-      <c r="EA7" s="115"/>
-      <c r="EB7" s="112" t="s">
+      <c r="DV7" s="119"/>
+      <c r="DW7" s="119"/>
+      <c r="DX7" s="119"/>
+      <c r="DY7" s="119"/>
+      <c r="DZ7" s="119"/>
+      <c r="EA7" s="124"/>
+      <c r="EB7" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="EC7" s="112"/>
-      <c r="ED7" s="112"/>
-      <c r="EE7" s="112"/>
-      <c r="EF7" s="112"/>
-      <c r="EG7" s="112"/>
-      <c r="EH7" s="112"/>
-      <c r="EI7" s="114" t="s">
+      <c r="EC7" s="119"/>
+      <c r="ED7" s="119"/>
+      <c r="EE7" s="119"/>
+      <c r="EF7" s="119"/>
+      <c r="EG7" s="119"/>
+      <c r="EH7" s="119"/>
+      <c r="EI7" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="EJ7" s="112"/>
-      <c r="EK7" s="112"/>
-      <c r="EL7" s="112"/>
-      <c r="EM7" s="112"/>
-      <c r="EN7" s="112"/>
-      <c r="EO7" s="115"/>
-      <c r="EP7" s="112" t="s">
+      <c r="EJ7" s="119"/>
+      <c r="EK7" s="119"/>
+      <c r="EL7" s="119"/>
+      <c r="EM7" s="119"/>
+      <c r="EN7" s="119"/>
+      <c r="EO7" s="124"/>
+      <c r="EP7" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="EQ7" s="112"/>
-      <c r="ER7" s="112"/>
-      <c r="ES7" s="112"/>
-      <c r="ET7" s="112"/>
-      <c r="EU7" s="112"/>
-      <c r="EV7" s="112"/>
-      <c r="EW7" s="114" t="s">
+      <c r="EQ7" s="119"/>
+      <c r="ER7" s="119"/>
+      <c r="ES7" s="119"/>
+      <c r="ET7" s="119"/>
+      <c r="EU7" s="119"/>
+      <c r="EV7" s="119"/>
+      <c r="EW7" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="EX7" s="112"/>
-      <c r="EY7" s="112"/>
-      <c r="EZ7" s="112"/>
-      <c r="FA7" s="112"/>
-      <c r="FB7" s="112"/>
-      <c r="FC7" s="115"/>
-      <c r="FD7" s="112" t="s">
+      <c r="EX7" s="119"/>
+      <c r="EY7" s="119"/>
+      <c r="EZ7" s="119"/>
+      <c r="FA7" s="119"/>
+      <c r="FB7" s="119"/>
+      <c r="FC7" s="124"/>
+      <c r="FD7" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="FE7" s="112"/>
-      <c r="FF7" s="112"/>
-      <c r="FG7" s="112"/>
-      <c r="FH7" s="112"/>
-      <c r="FI7" s="112"/>
-      <c r="FJ7" s="112"/>
-      <c r="FK7" s="114" t="s">
+      <c r="FE7" s="119"/>
+      <c r="FF7" s="119"/>
+      <c r="FG7" s="119"/>
+      <c r="FH7" s="119"/>
+      <c r="FI7" s="119"/>
+      <c r="FJ7" s="119"/>
+      <c r="FK7" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="FL7" s="112"/>
-      <c r="FM7" s="112"/>
-      <c r="FN7" s="112"/>
-      <c r="FO7" s="112"/>
-      <c r="FP7" s="112"/>
-      <c r="FQ7" s="115"/>
-      <c r="FR7" s="112" t="s">
+      <c r="FL7" s="119"/>
+      <c r="FM7" s="119"/>
+      <c r="FN7" s="119"/>
+      <c r="FO7" s="119"/>
+      <c r="FP7" s="119"/>
+      <c r="FQ7" s="124"/>
+      <c r="FR7" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="FS7" s="112"/>
-      <c r="FT7" s="112"/>
-      <c r="FU7" s="112"/>
-      <c r="FV7" s="112"/>
-      <c r="FW7" s="112"/>
-      <c r="FX7" s="112"/>
-      <c r="FY7" s="114" t="s">
+      <c r="FS7" s="119"/>
+      <c r="FT7" s="119"/>
+      <c r="FU7" s="119"/>
+      <c r="FV7" s="119"/>
+      <c r="FW7" s="119"/>
+      <c r="FX7" s="119"/>
+      <c r="FY7" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="FZ7" s="112"/>
-      <c r="GA7" s="112"/>
-      <c r="GB7" s="112"/>
-      <c r="GC7" s="113"/>
+      <c r="FZ7" s="119"/>
+      <c r="GA7" s="119"/>
+      <c r="GB7" s="119"/>
+      <c r="GC7" s="141"/>
     </row>
-    <row r="8" spans="1:185" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+    <row r="8" spans="1:185" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="25">
         <v>19</v>
       </c>
@@ -4453,7 +4485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
@@ -4639,7 +4671,7 @@
       <c r="GB9" s="7"/>
       <c r="GC9" s="8"/>
     </row>
-    <row r="10" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
         <v>32</v>
       </c>
@@ -4832,7 +4864,7 @@
       <c r="GB10" s="40"/>
       <c r="GC10" s="45"/>
     </row>
-    <row r="11" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
       <c r="B11" s="48" t="s">
         <v>95</v>
@@ -5023,7 +5055,7 @@
       <c r="GB11" s="11"/>
       <c r="GC11" s="24"/>
     </row>
-    <row r="12" spans="1:185" s="61" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:185" s="61" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53"/>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
@@ -5210,7 +5242,7 @@
       <c r="GB12" s="56"/>
       <c r="GC12" s="60"/>
     </row>
-    <row r="13" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
       <c r="B13" s="9" t="s">
         <v>68</v>
@@ -5400,7 +5432,7 @@
       <c r="GB13" s="11"/>
       <c r="GC13" s="24"/>
     </row>
-    <row r="14" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31"/>
       <c r="B14" s="48"/>
       <c r="C14" s="11"/>
@@ -5587,7 +5619,7 @@
       <c r="GB14" s="11"/>
       <c r="GC14" s="24"/>
     </row>
-    <row r="15" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
       <c r="B15" s="9" t="s">
         <v>69</v>
@@ -5777,7 +5809,7 @@
       <c r="GB15" s="11"/>
       <c r="GC15" s="24"/>
     </row>
-    <row r="16" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
       <c r="B16" s="48"/>
       <c r="C16" s="11"/>
@@ -5964,7 +5996,7 @@
       <c r="GB16" s="11"/>
       <c r="GC16" s="24"/>
     </row>
-    <row r="17" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="9" t="s">
         <v>70</v>
@@ -6154,7 +6186,7 @@
       <c r="GB17" s="11"/>
       <c r="GC17" s="24"/>
     </row>
-    <row r="18" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="9"/>
       <c r="C18" s="7"/>
@@ -6340,7 +6372,7 @@
       <c r="GB18" s="11"/>
       <c r="GC18" s="24"/>
     </row>
-    <row r="19" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>33</v>
       </c>
@@ -6533,7 +6565,7 @@
       <c r="GB19" s="40"/>
       <c r="GC19" s="45"/>
     </row>
-    <row r="20" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A20" s="46"/>
       <c r="B20" s="9" t="s">
         <v>71</v>
@@ -6723,7 +6755,7 @@
       <c r="GB20" s="11"/>
       <c r="GC20" s="24"/>
     </row>
-    <row r="21" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="9"/>
       <c r="C21" s="47"/>
@@ -6909,7 +6941,7 @@
       <c r="GB21" s="11"/>
       <c r="GC21" s="24"/>
     </row>
-    <row r="22" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
       <c r="B22" s="9" t="s">
         <v>73</v>
@@ -7099,7 +7131,7 @@
       <c r="GB22" s="11"/>
       <c r="GC22" s="24"/>
     </row>
-    <row r="23" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
       <c r="B23" s="9"/>
       <c r="C23" s="47"/>
@@ -7285,7 +7317,7 @@
       <c r="GB23" s="11"/>
       <c r="GC23" s="24"/>
     </row>
-    <row r="24" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A24" s="46"/>
       <c r="B24" s="9" t="s">
         <v>72</v>
@@ -7475,7 +7507,7 @@
       <c r="GB24" s="11"/>
       <c r="GC24" s="24"/>
     </row>
-    <row r="25" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="9"/>
       <c r="C25" s="7"/>
@@ -7661,7 +7693,7 @@
       <c r="GB25" s="11"/>
       <c r="GC25" s="24"/>
     </row>
-    <row r="26" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
         <v>34</v>
       </c>
@@ -7854,7 +7886,7 @@
       <c r="GB26" s="40"/>
       <c r="GC26" s="45"/>
     </row>
-    <row r="27" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27" s="48" t="s">
         <v>74</v>
@@ -8045,7 +8077,7 @@
       <c r="GB27" s="11"/>
       <c r="GC27" s="24"/>
     </row>
-    <row r="28" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="48"/>
       <c r="C28" s="11"/>
@@ -8232,7 +8264,7 @@
       <c r="GB28" s="11"/>
       <c r="GC28" s="24"/>
     </row>
-    <row r="29" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="48" t="s">
         <v>77</v>
@@ -8423,7 +8455,7 @@
       <c r="GB29" s="11"/>
       <c r="GC29" s="24"/>
     </row>
-    <row r="30" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="48"/>
       <c r="C30" s="11"/>
@@ -8610,7 +8642,7 @@
       <c r="GB30" s="11"/>
       <c r="GC30" s="24"/>
     </row>
-    <row r="31" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A31" s="46"/>
       <c r="B31" s="9" t="s">
         <v>90</v>
@@ -8800,7 +8832,7 @@
       <c r="GB31" s="11"/>
       <c r="GC31" s="24"/>
     </row>
-    <row r="32" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="9"/>
       <c r="C32" s="7"/>
@@ -8986,7 +9018,7 @@
       <c r="GB32" s="11"/>
       <c r="GC32" s="24"/>
     </row>
-    <row r="33" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="43" t="s">
         <v>35</v>
       </c>
@@ -9179,7 +9211,7 @@
       <c r="GB33" s="40"/>
       <c r="GC33" s="45"/>
     </row>
-    <row r="34" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="48" t="s">
         <v>78</v>
@@ -9370,7 +9402,7 @@
       <c r="GB34" s="11"/>
       <c r="GC34" s="24"/>
     </row>
-    <row r="35" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
       <c r="B35" s="48"/>
       <c r="C35" s="49"/>
@@ -9557,7 +9589,7 @@
       <c r="GB35" s="11"/>
       <c r="GC35" s="24"/>
     </row>
-    <row r="36" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
       <c r="B36" s="48" t="s">
         <v>87</v>
@@ -9748,7 +9780,7 @@
       <c r="GB36" s="11"/>
       <c r="GC36" s="24"/>
     </row>
-    <row r="37" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="48"/>
       <c r="C37" s="49"/>
@@ -9935,7 +9967,7 @@
       <c r="GB37" s="11"/>
       <c r="GC37" s="24"/>
     </row>
-    <row r="38" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="43" t="s">
         <v>36</v>
       </c>
@@ -10128,7 +10160,7 @@
       <c r="GB38" s="40"/>
       <c r="GC38" s="45"/>
     </row>
-    <row r="39" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="2" t="s">
         <v>86</v>
@@ -10319,7 +10351,7 @@
       <c r="GB39" s="11"/>
       <c r="GC39" s="24"/>
     </row>
-    <row r="40" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="C40" s="49"/>
       <c r="D40" s="11"/>
@@ -10505,7 +10537,7 @@
       <c r="GB40" s="11"/>
       <c r="GC40" s="24"/>
     </row>
-    <row r="41" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
       <c r="B41" s="48" t="s">
         <v>85</v>
@@ -10696,7 +10728,7 @@
       <c r="GB41" s="11"/>
       <c r="GC41" s="24"/>
     </row>
-    <row r="42" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
       <c r="B42" s="48"/>
       <c r="C42" s="49"/>
@@ -10883,7 +10915,7 @@
       <c r="GB42" s="11"/>
       <c r="GC42" s="24"/>
     </row>
-    <row r="43" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="43" t="s">
         <v>37</v>
       </c>
@@ -11076,7 +11108,7 @@
       <c r="GB43" s="40"/>
       <c r="GC43" s="45"/>
     </row>
-    <row r="44" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31"/>
       <c r="B44" s="48" t="s">
         <v>88</v>
@@ -11267,7 +11299,7 @@
       <c r="GB44" s="11"/>
       <c r="GC44" s="24"/>
     </row>
-    <row r="45" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
       <c r="B45" s="48"/>
       <c r="C45" s="49"/>
@@ -11454,7 +11486,7 @@
       <c r="GB45" s="11"/>
       <c r="GC45" s="24"/>
     </row>
-    <row r="46" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
       <c r="B46" s="48" t="s">
         <v>79</v>
@@ -11645,7 +11677,7 @@
       <c r="GB46" s="11"/>
       <c r="GC46" s="24"/>
     </row>
-    <row r="47" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="31"/>
       <c r="B47" s="48"/>
       <c r="C47" s="49"/>
@@ -11832,7 +11864,7 @@
       <c r="GB47" s="11"/>
       <c r="GC47" s="24"/>
     </row>
-    <row r="48" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="43" t="s">
         <v>82</v>
       </c>
@@ -12023,7 +12055,7 @@
       <c r="GB48" s="40"/>
       <c r="GC48" s="45"/>
     </row>
-    <row r="49" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
       <c r="B49" s="48" t="s">
         <v>84</v>
@@ -12214,7 +12246,7 @@
       <c r="GB49" s="11"/>
       <c r="GC49" s="24"/>
     </row>
-    <row r="50" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
       <c r="B50" s="48"/>
       <c r="C50" s="49"/>
@@ -12401,7 +12433,7 @@
       <c r="GB50" s="11"/>
       <c r="GC50" s="24"/>
     </row>
-    <row r="51" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
       <c r="B51" s="48" t="s">
         <v>89</v>
@@ -12592,7 +12624,7 @@
       <c r="GB51" s="83"/>
       <c r="GC51" s="89"/>
     </row>
-    <row r="52" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="9"/>
       <c r="C52" s="7"/>
@@ -12778,7 +12810,7 @@
       <c r="GB52" s="11"/>
       <c r="GC52" s="24"/>
     </row>
-    <row r="53" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="43" t="s">
         <v>36</v>
       </c>
@@ -12969,7 +13001,7 @@
       <c r="GB53" s="40"/>
       <c r="GC53" s="45"/>
     </row>
-    <row r="54" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="9" t="s">
         <v>38</v>
@@ -13159,7 +13191,7 @@
       <c r="GB54" s="11"/>
       <c r="GC54" s="24"/>
     </row>
-    <row r="55" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="9"/>
       <c r="C55" s="7"/>
@@ -13345,7 +13377,7 @@
       <c r="GB55" s="11"/>
       <c r="GC55" s="24"/>
     </row>
-    <row r="56" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="9" t="s">
         <v>44</v>
@@ -13535,7 +13567,7 @@
       <c r="GB56" s="11"/>
       <c r="GC56" s="24"/>
     </row>
-    <row r="57" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="9"/>
       <c r="C57" s="7"/>
@@ -13721,7 +13753,7 @@
       <c r="GB57" s="11"/>
       <c r="GC57" s="24"/>
     </row>
-    <row r="58" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="9" t="s">
         <v>46</v>
@@ -13911,7 +13943,7 @@
       <c r="GB58" s="11"/>
       <c r="GC58" s="24"/>
     </row>
-    <row r="59" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="9"/>
       <c r="C59" s="7"/>
@@ -14097,7 +14129,7 @@
       <c r="GB59" s="11"/>
       <c r="GC59" s="24"/>
     </row>
-    <row r="60" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:185" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="43" t="s">
         <v>37</v>
       </c>
@@ -14288,7 +14320,7 @@
       <c r="GB60" s="40"/>
       <c r="GC60" s="45"/>
     </row>
-    <row r="61" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="9" t="s">
         <v>61</v>
@@ -14478,7 +14510,7 @@
       <c r="GB61" s="11"/>
       <c r="GC61" s="24"/>
     </row>
-    <row r="62" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="32"/>
       <c r="B62" s="48"/>
       <c r="C62" s="11"/>
@@ -14665,7 +14697,7 @@
       <c r="GB62" s="11"/>
       <c r="GC62" s="24"/>
     </row>
-    <row r="63" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
       <c r="B63" s="9" t="s">
         <v>40</v>
@@ -14855,7 +14887,7 @@
       <c r="GB63" s="11"/>
       <c r="GC63" s="24"/>
     </row>
-    <row r="64" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="32"/>
       <c r="B64" s="48"/>
       <c r="C64" s="11"/>
@@ -15042,7 +15074,7 @@
       <c r="GB64" s="11"/>
       <c r="GC64" s="24"/>
     </row>
-    <row r="65" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="9" t="s">
         <v>62</v>
@@ -15232,7 +15264,7 @@
       <c r="GB65" s="11"/>
       <c r="GC65" s="24"/>
     </row>
-    <row r="66" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="32"/>
       <c r="B66" s="48"/>
       <c r="C66" s="11"/>
@@ -15419,10 +15451,10 @@
       <c r="GB66" s="11"/>
       <c r="GC66" s="24"/>
     </row>
-    <row r="67" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="9" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="C67" s="47">
         <v>42720</v>
@@ -15609,7 +15641,7 @@
       <c r="GB67" s="11"/>
       <c r="GC67" s="24"/>
     </row>
-    <row r="68" spans="1:185" s="2" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="32"/>
       <c r="B68" s="48"/>
       <c r="C68" s="49"/>
@@ -15796,10 +15828,10 @@
       <c r="GB68" s="11"/>
       <c r="GC68" s="24"/>
     </row>
-    <row r="69" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C69" s="47">
         <v>42776</v>
@@ -15986,10 +16018,10 @@
       <c r="GB69" s="11"/>
       <c r="GC69" s="24"/>
     </row>
-    <row r="70" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="9"/>
-      <c r="C70" s="7"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="7"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
@@ -16135,7 +16167,7 @@
       <c r="EQ70" s="11"/>
       <c r="ER70" s="11"/>
       <c r="ES70" s="11"/>
-      <c r="ET70" s="11"/>
+      <c r="ET70" s="51"/>
       <c r="EU70" s="11"/>
       <c r="EV70" s="11"/>
       <c r="EW70" s="23"/>
@@ -16172,12 +16204,14 @@
       <c r="GB70" s="11"/>
       <c r="GC70" s="24"/>
     </row>
-    <row r="71" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="C71" s="47">
+        <v>42793</v>
+      </c>
       <c r="D71" s="7"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
@@ -16277,20 +16311,20 @@
       <c r="CW71" s="11"/>
       <c r="CX71" s="11"/>
       <c r="CY71" s="22"/>
-      <c r="CZ71" s="51"/>
-      <c r="DA71" s="51"/>
-      <c r="DB71" s="51"/>
-      <c r="DC71" s="51"/>
-      <c r="DD71" s="51"/>
-      <c r="DE71" s="51"/>
-      <c r="DF71" s="51"/>
-      <c r="DG71" s="63"/>
-      <c r="DH71" s="51"/>
-      <c r="DI71" s="51"/>
-      <c r="DJ71" s="51"/>
-      <c r="DK71" s="51"/>
-      <c r="DL71" s="51"/>
-      <c r="DM71" s="64"/>
+      <c r="CZ71" s="11"/>
+      <c r="DA71" s="11"/>
+      <c r="DB71" s="11"/>
+      <c r="DC71" s="11"/>
+      <c r="DD71" s="11"/>
+      <c r="DE71" s="11"/>
+      <c r="DF71" s="11"/>
+      <c r="DG71" s="23"/>
+      <c r="DH71" s="11"/>
+      <c r="DI71" s="11"/>
+      <c r="DJ71" s="11"/>
+      <c r="DK71" s="11"/>
+      <c r="DL71" s="11"/>
+      <c r="DM71" s="22"/>
       <c r="DN71" s="11"/>
       <c r="DO71" s="11"/>
       <c r="DP71" s="11"/>
@@ -16323,7 +16357,7 @@
       <c r="EQ71" s="11"/>
       <c r="ER71" s="11"/>
       <c r="ES71" s="11"/>
-      <c r="ET71" s="11"/>
+      <c r="ET71" s="51"/>
       <c r="EU71" s="11"/>
       <c r="EV71" s="11"/>
       <c r="EW71" s="23"/>
@@ -16360,7 +16394,7 @@
       <c r="GB71" s="11"/>
       <c r="GC71" s="24"/>
     </row>
-    <row r="72" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="9"/>
       <c r="C72" s="7"/>
@@ -16546,10 +16580,10 @@
       <c r="GB72" s="11"/>
       <c r="GC72" s="24"/>
     </row>
-    <row r="73" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -16644,13 +16678,13 @@
       <c r="CP73" s="11"/>
       <c r="CQ73" s="11"/>
       <c r="CR73" s="11"/>
-      <c r="CS73" s="63"/>
-      <c r="CT73" s="51"/>
-      <c r="CU73" s="51"/>
-      <c r="CV73" s="90"/>
-      <c r="CW73" s="51"/>
-      <c r="CX73" s="51"/>
-      <c r="CY73" s="64"/>
+      <c r="CS73" s="23"/>
+      <c r="CT73" s="11"/>
+      <c r="CU73" s="11"/>
+      <c r="CV73" s="67"/>
+      <c r="CW73" s="11"/>
+      <c r="CX73" s="11"/>
+      <c r="CY73" s="22"/>
       <c r="CZ73" s="51"/>
       <c r="DA73" s="51"/>
       <c r="DB73" s="51"/>
@@ -16665,36 +16699,36 @@
       <c r="DK73" s="51"/>
       <c r="DL73" s="51"/>
       <c r="DM73" s="64"/>
-      <c r="DN73" s="51"/>
-      <c r="DO73" s="51"/>
-      <c r="DP73" s="51"/>
-      <c r="DQ73" s="51"/>
-      <c r="DR73" s="51"/>
-      <c r="DS73" s="51"/>
-      <c r="DT73" s="51"/>
-      <c r="DU73" s="63"/>
-      <c r="DV73" s="51"/>
-      <c r="DW73" s="51"/>
-      <c r="DX73" s="51"/>
-      <c r="DY73" s="51"/>
-      <c r="DZ73" s="51"/>
-      <c r="EA73" s="64"/>
-      <c r="EB73" s="51"/>
-      <c r="EC73" s="51"/>
-      <c r="ED73" s="108"/>
-      <c r="EE73" s="51"/>
-      <c r="EF73" s="51"/>
-      <c r="EG73" s="51"/>
-      <c r="EH73" s="51"/>
-      <c r="EI73" s="63"/>
-      <c r="EJ73" s="51"/>
-      <c r="EK73" s="51"/>
-      <c r="EL73" s="51"/>
-      <c r="EM73" s="51"/>
-      <c r="EN73" s="51"/>
-      <c r="EO73" s="64"/>
-      <c r="EP73" s="51"/>
-      <c r="EQ73" s="51"/>
+      <c r="DN73" s="11"/>
+      <c r="DO73" s="11"/>
+      <c r="DP73" s="11"/>
+      <c r="DQ73" s="11"/>
+      <c r="DR73" s="11"/>
+      <c r="DS73" s="11"/>
+      <c r="DT73" s="11"/>
+      <c r="DU73" s="23"/>
+      <c r="DV73" s="11"/>
+      <c r="DW73" s="11"/>
+      <c r="DX73" s="11"/>
+      <c r="DY73" s="11"/>
+      <c r="DZ73" s="11"/>
+      <c r="EA73" s="22"/>
+      <c r="EB73" s="11"/>
+      <c r="EC73" s="11"/>
+      <c r="ED73" s="73"/>
+      <c r="EE73" s="11"/>
+      <c r="EF73" s="11"/>
+      <c r="EG73" s="11"/>
+      <c r="EH73" s="11"/>
+      <c r="EI73" s="23"/>
+      <c r="EJ73" s="11"/>
+      <c r="EK73" s="11"/>
+      <c r="EL73" s="11"/>
+      <c r="EM73" s="11"/>
+      <c r="EN73" s="11"/>
+      <c r="EO73" s="22"/>
+      <c r="EP73" s="11"/>
+      <c r="EQ73" s="11"/>
       <c r="ER73" s="11"/>
       <c r="ES73" s="11"/>
       <c r="ET73" s="11"/>
@@ -16734,7 +16768,7 @@
       <c r="GB73" s="11"/>
       <c r="GC73" s="24"/>
     </row>
-    <row r="74" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="9"/>
       <c r="C74" s="7"/>
@@ -16920,10 +16954,10 @@
       <c r="GB74" s="11"/>
       <c r="GC74" s="24"/>
     </row>
-    <row r="75" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -17018,13 +17052,13 @@
       <c r="CP75" s="11"/>
       <c r="CQ75" s="11"/>
       <c r="CR75" s="11"/>
-      <c r="CS75" s="23"/>
-      <c r="CT75" s="11"/>
-      <c r="CU75" s="11"/>
-      <c r="CV75" s="67"/>
-      <c r="CW75" s="11"/>
-      <c r="CX75" s="11"/>
-      <c r="CY75" s="22"/>
+      <c r="CS75" s="63"/>
+      <c r="CT75" s="51"/>
+      <c r="CU75" s="51"/>
+      <c r="CV75" s="90"/>
+      <c r="CW75" s="51"/>
+      <c r="CX75" s="51"/>
+      <c r="CY75" s="64"/>
       <c r="CZ75" s="51"/>
       <c r="DA75" s="51"/>
       <c r="DB75" s="51"/>
@@ -17039,36 +17073,36 @@
       <c r="DK75" s="51"/>
       <c r="DL75" s="51"/>
       <c r="DM75" s="64"/>
-      <c r="DN75" s="11"/>
-      <c r="DO75" s="11"/>
-      <c r="DP75" s="11"/>
-      <c r="DQ75" s="11"/>
-      <c r="DR75" s="11"/>
-      <c r="DS75" s="11"/>
-      <c r="DT75" s="11"/>
-      <c r="DU75" s="23"/>
-      <c r="DV75" s="11"/>
-      <c r="DW75" s="11"/>
-      <c r="DX75" s="11"/>
-      <c r="DY75" s="11"/>
-      <c r="DZ75" s="11"/>
-      <c r="EA75" s="22"/>
-      <c r="EB75" s="11"/>
-      <c r="EC75" s="11"/>
-      <c r="ED75" s="73"/>
-      <c r="EE75" s="11"/>
-      <c r="EF75" s="11"/>
-      <c r="EG75" s="11"/>
-      <c r="EH75" s="11"/>
-      <c r="EI75" s="23"/>
-      <c r="EJ75" s="11"/>
-      <c r="EK75" s="11"/>
-      <c r="EL75" s="11"/>
-      <c r="EM75" s="11"/>
-      <c r="EN75" s="11"/>
-      <c r="EO75" s="22"/>
-      <c r="EP75" s="11"/>
-      <c r="EQ75" s="11"/>
+      <c r="DN75" s="51"/>
+      <c r="DO75" s="51"/>
+      <c r="DP75" s="51"/>
+      <c r="DQ75" s="51"/>
+      <c r="DR75" s="51"/>
+      <c r="DS75" s="51"/>
+      <c r="DT75" s="51"/>
+      <c r="DU75" s="63"/>
+      <c r="DV75" s="51"/>
+      <c r="DW75" s="51"/>
+      <c r="DX75" s="51"/>
+      <c r="DY75" s="51"/>
+      <c r="DZ75" s="51"/>
+      <c r="EA75" s="64"/>
+      <c r="EB75" s="51"/>
+      <c r="EC75" s="51"/>
+      <c r="ED75" s="101"/>
+      <c r="EE75" s="51"/>
+      <c r="EF75" s="51"/>
+      <c r="EG75" s="51"/>
+      <c r="EH75" s="51"/>
+      <c r="EI75" s="63"/>
+      <c r="EJ75" s="51"/>
+      <c r="EK75" s="51"/>
+      <c r="EL75" s="51"/>
+      <c r="EM75" s="51"/>
+      <c r="EN75" s="51"/>
+      <c r="EO75" s="64"/>
+      <c r="EP75" s="51"/>
+      <c r="EQ75" s="51"/>
       <c r="ER75" s="11"/>
       <c r="ES75" s="11"/>
       <c r="ET75" s="11"/>
@@ -17108,7 +17142,7 @@
       <c r="GB75" s="11"/>
       <c r="GC75" s="24"/>
     </row>
-    <row r="76" spans="1:185" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="9"/>
       <c r="C76" s="7"/>
@@ -17294,10 +17328,10 @@
       <c r="GB76" s="11"/>
       <c r="GC76" s="24"/>
     </row>
-    <row r="77" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -17399,20 +17433,20 @@
       <c r="CW77" s="11"/>
       <c r="CX77" s="11"/>
       <c r="CY77" s="22"/>
-      <c r="CZ77" s="11"/>
-      <c r="DA77" s="11"/>
-      <c r="DB77" s="11"/>
-      <c r="DC77" s="11"/>
-      <c r="DD77" s="11"/>
-      <c r="DE77" s="11"/>
-      <c r="DF77" s="11"/>
-      <c r="DG77" s="23"/>
-      <c r="DH77" s="11"/>
-      <c r="DI77" s="11"/>
-      <c r="DJ77" s="11"/>
-      <c r="DK77" s="11"/>
-      <c r="DL77" s="11"/>
-      <c r="DM77" s="22"/>
+      <c r="CZ77" s="51"/>
+      <c r="DA77" s="51"/>
+      <c r="DB77" s="51"/>
+      <c r="DC77" s="51"/>
+      <c r="DD77" s="51"/>
+      <c r="DE77" s="51"/>
+      <c r="DF77" s="51"/>
+      <c r="DG77" s="63"/>
+      <c r="DH77" s="51"/>
+      <c r="DI77" s="51"/>
+      <c r="DJ77" s="51"/>
+      <c r="DK77" s="51"/>
+      <c r="DL77" s="51"/>
+      <c r="DM77" s="64"/>
       <c r="DN77" s="11"/>
       <c r="DO77" s="11"/>
       <c r="DP77" s="11"/>
@@ -17482,7 +17516,7 @@
       <c r="GB77" s="11"/>
       <c r="GC77" s="24"/>
     </row>
-    <row r="78" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:185" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="9"/>
       <c r="C78" s="7"/>
@@ -17668,9 +17702,11 @@
       <c r="GB78" s="11"/>
       <c r="GC78" s="24"/>
     </row>
-    <row r="79" spans="1:185" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
-      <c r="B79" s="9"/>
+      <c r="B79" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="F79" s="11"/>
@@ -17854,250 +17890,581 @@
       <c r="GB79" s="11"/>
       <c r="GC79" s="24"/>
     </row>
-    <row r="80" spans="1:185" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="143" t="s">
+    <row r="80" spans="1:185" x14ac:dyDescent="0.2">
+      <c r="A80" s="33"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="22"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
+      <c r="AA80" s="23"/>
+      <c r="AB80" s="11"/>
+      <c r="AC80" s="11"/>
+      <c r="AD80" s="11"/>
+      <c r="AE80" s="11"/>
+      <c r="AF80" s="11"/>
+      <c r="AG80" s="22"/>
+      <c r="AH80" s="11"/>
+      <c r="AI80" s="11"/>
+      <c r="AJ80" s="11"/>
+      <c r="AK80" s="11"/>
+      <c r="AL80" s="11"/>
+      <c r="AM80" s="11"/>
+      <c r="AN80" s="11"/>
+      <c r="AO80" s="76"/>
+      <c r="AP80" s="11"/>
+      <c r="AQ80" s="11"/>
+      <c r="AR80" s="11"/>
+      <c r="AS80" s="11"/>
+      <c r="AT80" s="11"/>
+      <c r="AU80" s="22"/>
+      <c r="AV80" s="11"/>
+      <c r="AW80" s="11"/>
+      <c r="AX80" s="11"/>
+      <c r="AY80" s="11"/>
+      <c r="AZ80" s="11"/>
+      <c r="BA80" s="11"/>
+      <c r="BB80" s="11"/>
+      <c r="BC80" s="23"/>
+      <c r="BD80" s="11"/>
+      <c r="BE80" s="11"/>
+      <c r="BF80" s="11"/>
+      <c r="BG80" s="11"/>
+      <c r="BH80" s="11"/>
+      <c r="BI80" s="22"/>
+      <c r="BJ80" s="11"/>
+      <c r="BK80" s="11"/>
+      <c r="BL80" s="11"/>
+      <c r="BM80" s="11"/>
+      <c r="BN80" s="11"/>
+      <c r="BO80" s="11"/>
+      <c r="BP80" s="11"/>
+      <c r="BQ80" s="23"/>
+      <c r="BR80" s="11"/>
+      <c r="BS80" s="11"/>
+      <c r="BT80" s="11"/>
+      <c r="BU80" s="11"/>
+      <c r="BV80" s="11"/>
+      <c r="BW80" s="22"/>
+      <c r="BX80" s="11"/>
+      <c r="BY80" s="11"/>
+      <c r="BZ80" s="73"/>
+      <c r="CA80" s="11"/>
+      <c r="CB80" s="11"/>
+      <c r="CC80" s="11"/>
+      <c r="CD80" s="11"/>
+      <c r="CE80" s="23"/>
+      <c r="CF80" s="11"/>
+      <c r="CG80" s="11"/>
+      <c r="CH80" s="11"/>
+      <c r="CI80" s="11"/>
+      <c r="CJ80" s="11"/>
+      <c r="CK80" s="22"/>
+      <c r="CL80" s="11"/>
+      <c r="CM80" s="11"/>
+      <c r="CN80" s="11"/>
+      <c r="CO80" s="11"/>
+      <c r="CP80" s="11"/>
+      <c r="CQ80" s="11"/>
+      <c r="CR80" s="11"/>
+      <c r="CS80" s="23"/>
+      <c r="CT80" s="11"/>
+      <c r="CU80" s="11"/>
+      <c r="CV80" s="67"/>
+      <c r="CW80" s="11"/>
+      <c r="CX80" s="11"/>
+      <c r="CY80" s="22"/>
+      <c r="CZ80" s="11"/>
+      <c r="DA80" s="11"/>
+      <c r="DB80" s="11"/>
+      <c r="DC80" s="11"/>
+      <c r="DD80" s="11"/>
+      <c r="DE80" s="11"/>
+      <c r="DF80" s="11"/>
+      <c r="DG80" s="23"/>
+      <c r="DH80" s="11"/>
+      <c r="DI80" s="11"/>
+      <c r="DJ80" s="11"/>
+      <c r="DK80" s="11"/>
+      <c r="DL80" s="11"/>
+      <c r="DM80" s="22"/>
+      <c r="DN80" s="11"/>
+      <c r="DO80" s="11"/>
+      <c r="DP80" s="11"/>
+      <c r="DQ80" s="11"/>
+      <c r="DR80" s="11"/>
+      <c r="DS80" s="11"/>
+      <c r="DT80" s="11"/>
+      <c r="DU80" s="23"/>
+      <c r="DV80" s="11"/>
+      <c r="DW80" s="11"/>
+      <c r="DX80" s="11"/>
+      <c r="DY80" s="11"/>
+      <c r="DZ80" s="11"/>
+      <c r="EA80" s="22"/>
+      <c r="EB80" s="11"/>
+      <c r="EC80" s="11"/>
+      <c r="ED80" s="73"/>
+      <c r="EE80" s="11"/>
+      <c r="EF80" s="11"/>
+      <c r="EG80" s="11"/>
+      <c r="EH80" s="11"/>
+      <c r="EI80" s="23"/>
+      <c r="EJ80" s="11"/>
+      <c r="EK80" s="11"/>
+      <c r="EL80" s="11"/>
+      <c r="EM80" s="11"/>
+      <c r="EN80" s="11"/>
+      <c r="EO80" s="22"/>
+      <c r="EP80" s="11"/>
+      <c r="EQ80" s="11"/>
+      <c r="ER80" s="11"/>
+      <c r="ES80" s="11"/>
+      <c r="ET80" s="11"/>
+      <c r="EU80" s="11"/>
+      <c r="EV80" s="11"/>
+      <c r="EW80" s="23"/>
+      <c r="EX80" s="11"/>
+      <c r="EY80" s="11"/>
+      <c r="EZ80" s="11"/>
+      <c r="FA80" s="11"/>
+      <c r="FB80" s="11"/>
+      <c r="FC80" s="22"/>
+      <c r="FD80" s="11"/>
+      <c r="FE80" s="11"/>
+      <c r="FF80" s="11"/>
+      <c r="FG80" s="11"/>
+      <c r="FH80" s="11"/>
+      <c r="FI80" s="11"/>
+      <c r="FJ80" s="11"/>
+      <c r="FK80" s="23"/>
+      <c r="FL80" s="11"/>
+      <c r="FM80" s="67"/>
+      <c r="FN80" s="11"/>
+      <c r="FO80" s="11"/>
+      <c r="FP80" s="11"/>
+      <c r="FQ80" s="22"/>
+      <c r="FR80" s="11"/>
+      <c r="FS80" s="11"/>
+      <c r="FT80" s="11"/>
+      <c r="FU80" s="11"/>
+      <c r="FV80" s="11"/>
+      <c r="FW80" s="11"/>
+      <c r="FX80" s="11"/>
+      <c r="FY80" s="23"/>
+      <c r="FZ80" s="11"/>
+      <c r="GA80" s="11"/>
+      <c r="GB80" s="11"/>
+      <c r="GC80" s="24"/>
+    </row>
+    <row r="81" spans="1:185" x14ac:dyDescent="0.2">
+      <c r="A81" s="33"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="22"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+      <c r="AA81" s="23"/>
+      <c r="AB81" s="11"/>
+      <c r="AC81" s="11"/>
+      <c r="AD81" s="11"/>
+      <c r="AE81" s="11"/>
+      <c r="AF81" s="11"/>
+      <c r="AG81" s="22"/>
+      <c r="AH81" s="11"/>
+      <c r="AI81" s="11"/>
+      <c r="AJ81" s="11"/>
+      <c r="AK81" s="11"/>
+      <c r="AL81" s="11"/>
+      <c r="AM81" s="11"/>
+      <c r="AN81" s="11"/>
+      <c r="AO81" s="76"/>
+      <c r="AP81" s="11"/>
+      <c r="AQ81" s="11"/>
+      <c r="AR81" s="11"/>
+      <c r="AS81" s="11"/>
+      <c r="AT81" s="11"/>
+      <c r="AU81" s="22"/>
+      <c r="AV81" s="11"/>
+      <c r="AW81" s="11"/>
+      <c r="AX81" s="11"/>
+      <c r="AY81" s="11"/>
+      <c r="AZ81" s="11"/>
+      <c r="BA81" s="11"/>
+      <c r="BB81" s="11"/>
+      <c r="BC81" s="23"/>
+      <c r="BD81" s="11"/>
+      <c r="BE81" s="11"/>
+      <c r="BF81" s="11"/>
+      <c r="BG81" s="11"/>
+      <c r="BH81" s="11"/>
+      <c r="BI81" s="22"/>
+      <c r="BJ81" s="11"/>
+      <c r="BK81" s="11"/>
+      <c r="BL81" s="11"/>
+      <c r="BM81" s="11"/>
+      <c r="BN81" s="11"/>
+      <c r="BO81" s="11"/>
+      <c r="BP81" s="11"/>
+      <c r="BQ81" s="23"/>
+      <c r="BR81" s="11"/>
+      <c r="BS81" s="11"/>
+      <c r="BT81" s="11"/>
+      <c r="BU81" s="11"/>
+      <c r="BV81" s="11"/>
+      <c r="BW81" s="22"/>
+      <c r="BX81" s="11"/>
+      <c r="BY81" s="11"/>
+      <c r="BZ81" s="73"/>
+      <c r="CA81" s="11"/>
+      <c r="CB81" s="11"/>
+      <c r="CC81" s="11"/>
+      <c r="CD81" s="11"/>
+      <c r="CE81" s="23"/>
+      <c r="CF81" s="11"/>
+      <c r="CG81" s="11"/>
+      <c r="CH81" s="11"/>
+      <c r="CI81" s="11"/>
+      <c r="CJ81" s="11"/>
+      <c r="CK81" s="22"/>
+      <c r="CL81" s="11"/>
+      <c r="CM81" s="11"/>
+      <c r="CN81" s="11"/>
+      <c r="CO81" s="11"/>
+      <c r="CP81" s="11"/>
+      <c r="CQ81" s="11"/>
+      <c r="CR81" s="11"/>
+      <c r="CS81" s="23"/>
+      <c r="CT81" s="11"/>
+      <c r="CU81" s="11"/>
+      <c r="CV81" s="67"/>
+      <c r="CW81" s="11"/>
+      <c r="CX81" s="11"/>
+      <c r="CY81" s="22"/>
+      <c r="CZ81" s="11"/>
+      <c r="DA81" s="11"/>
+      <c r="DB81" s="11"/>
+      <c r="DC81" s="11"/>
+      <c r="DD81" s="11"/>
+      <c r="DE81" s="11"/>
+      <c r="DF81" s="11"/>
+      <c r="DG81" s="23"/>
+      <c r="DH81" s="11"/>
+      <c r="DI81" s="11"/>
+      <c r="DJ81" s="11"/>
+      <c r="DK81" s="11"/>
+      <c r="DL81" s="11"/>
+      <c r="DM81" s="22"/>
+      <c r="DN81" s="11"/>
+      <c r="DO81" s="11"/>
+      <c r="DP81" s="11"/>
+      <c r="DQ81" s="11"/>
+      <c r="DR81" s="11"/>
+      <c r="DS81" s="11"/>
+      <c r="DT81" s="11"/>
+      <c r="DU81" s="23"/>
+      <c r="DV81" s="11"/>
+      <c r="DW81" s="11"/>
+      <c r="DX81" s="11"/>
+      <c r="DY81" s="11"/>
+      <c r="DZ81" s="11"/>
+      <c r="EA81" s="22"/>
+      <c r="EB81" s="11"/>
+      <c r="EC81" s="11"/>
+      <c r="ED81" s="73"/>
+      <c r="EE81" s="11"/>
+      <c r="EF81" s="11"/>
+      <c r="EG81" s="11"/>
+      <c r="EH81" s="11"/>
+      <c r="EI81" s="23"/>
+      <c r="EJ81" s="11"/>
+      <c r="EK81" s="11"/>
+      <c r="EL81" s="11"/>
+      <c r="EM81" s="11"/>
+      <c r="EN81" s="11"/>
+      <c r="EO81" s="22"/>
+      <c r="EP81" s="11"/>
+      <c r="EQ81" s="11"/>
+      <c r="ER81" s="11"/>
+      <c r="ES81" s="11"/>
+      <c r="ET81" s="11"/>
+      <c r="EU81" s="11"/>
+      <c r="EV81" s="11"/>
+      <c r="EW81" s="23"/>
+      <c r="EX81" s="11"/>
+      <c r="EY81" s="11"/>
+      <c r="EZ81" s="11"/>
+      <c r="FA81" s="11"/>
+      <c r="FB81" s="11"/>
+      <c r="FC81" s="22"/>
+      <c r="FD81" s="11"/>
+      <c r="FE81" s="11"/>
+      <c r="FF81" s="11"/>
+      <c r="FG81" s="11"/>
+      <c r="FH81" s="11"/>
+      <c r="FI81" s="11"/>
+      <c r="FJ81" s="11"/>
+      <c r="FK81" s="23"/>
+      <c r="FL81" s="11"/>
+      <c r="FM81" s="67"/>
+      <c r="FN81" s="11"/>
+      <c r="FO81" s="11"/>
+      <c r="FP81" s="11"/>
+      <c r="FQ81" s="22"/>
+      <c r="FR81" s="11"/>
+      <c r="FS81" s="11"/>
+      <c r="FT81" s="11"/>
+      <c r="FU81" s="11"/>
+      <c r="FV81" s="11"/>
+      <c r="FW81" s="11"/>
+      <c r="FX81" s="11"/>
+      <c r="FY81" s="23"/>
+      <c r="FZ81" s="11"/>
+      <c r="GA81" s="11"/>
+      <c r="GB81" s="11"/>
+      <c r="GC81" s="24"/>
+    </row>
+    <row r="82" spans="1:185" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="144"/>
-      <c r="C80" s="144"/>
-      <c r="D80" s="144"/>
-      <c r="E80" s="145"/>
-      <c r="F80" s="146" t="s">
+      <c r="B82" s="108"/>
+      <c r="C82" s="108"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="109"/>
+      <c r="F82" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="G80" s="140"/>
-      <c r="H80" s="140"/>
-      <c r="I80" s="140"/>
-      <c r="J80" s="140"/>
-      <c r="K80" s="140"/>
-      <c r="L80" s="140"/>
-      <c r="M80" s="140"/>
-      <c r="N80" s="140"/>
-      <c r="O80" s="140"/>
-      <c r="P80" s="140"/>
-      <c r="Q80" s="140"/>
-      <c r="R80" s="140"/>
-      <c r="S80" s="140"/>
-      <c r="T80" s="140"/>
-      <c r="U80" s="140"/>
-      <c r="V80" s="140"/>
-      <c r="W80" s="140"/>
-      <c r="X80" s="140"/>
-      <c r="Y80" s="140"/>
-      <c r="Z80" s="140"/>
-      <c r="AA80" s="140"/>
-      <c r="AB80" s="140"/>
-      <c r="AC80" s="140"/>
-      <c r="AD80" s="140"/>
-      <c r="AE80" s="140"/>
-      <c r="AF80" s="140"/>
-      <c r="AG80" s="140"/>
-      <c r="AH80" s="140"/>
-      <c r="AI80" s="140"/>
-      <c r="AJ80" s="140"/>
-      <c r="AK80" s="140"/>
-      <c r="AL80" s="140"/>
-      <c r="AM80" s="140"/>
-      <c r="AN80" s="147"/>
-      <c r="AO80" s="148" t="s">
+      <c r="G82" s="104"/>
+      <c r="H82" s="104"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="104"/>
+      <c r="K82" s="104"/>
+      <c r="L82" s="104"/>
+      <c r="M82" s="104"/>
+      <c r="N82" s="104"/>
+      <c r="O82" s="104"/>
+      <c r="P82" s="104"/>
+      <c r="Q82" s="104"/>
+      <c r="R82" s="104"/>
+      <c r="S82" s="104"/>
+      <c r="T82" s="104"/>
+      <c r="U82" s="104"/>
+      <c r="V82" s="104"/>
+      <c r="W82" s="104"/>
+      <c r="X82" s="104"/>
+      <c r="Y82" s="104"/>
+      <c r="Z82" s="104"/>
+      <c r="AA82" s="104"/>
+      <c r="AB82" s="104"/>
+      <c r="AC82" s="104"/>
+      <c r="AD82" s="104"/>
+      <c r="AE82" s="104"/>
+      <c r="AF82" s="104"/>
+      <c r="AG82" s="104"/>
+      <c r="AH82" s="104"/>
+      <c r="AI82" s="104"/>
+      <c r="AJ82" s="104"/>
+      <c r="AK82" s="104"/>
+      <c r="AL82" s="104"/>
+      <c r="AM82" s="104"/>
+      <c r="AN82" s="111"/>
+      <c r="AO82" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="AP80" s="140"/>
-      <c r="AQ80" s="140"/>
-      <c r="AR80" s="140"/>
-      <c r="AS80" s="140"/>
-      <c r="AT80" s="140"/>
-      <c r="AU80" s="140"/>
-      <c r="AV80" s="140"/>
-      <c r="AW80" s="140"/>
-      <c r="AX80" s="140"/>
-      <c r="AY80" s="140"/>
-      <c r="AZ80" s="140"/>
-      <c r="BA80" s="140"/>
-      <c r="BB80" s="140"/>
-      <c r="BC80" s="140"/>
-      <c r="BD80" s="140"/>
-      <c r="BE80" s="140"/>
-      <c r="BF80" s="140"/>
-      <c r="BG80" s="140"/>
-      <c r="BH80" s="140"/>
-      <c r="BI80" s="140"/>
-      <c r="BJ80" s="140"/>
-      <c r="BK80" s="140"/>
-      <c r="BL80" s="140"/>
-      <c r="BM80" s="140"/>
-      <c r="BN80" s="140"/>
-      <c r="BO80" s="140"/>
-      <c r="BP80" s="140"/>
-      <c r="BQ80" s="140"/>
-      <c r="BR80" s="140"/>
-      <c r="BS80" s="140"/>
-      <c r="BT80" s="140"/>
-      <c r="BU80" s="140"/>
-      <c r="BV80" s="140"/>
-      <c r="BW80" s="140"/>
-      <c r="BX80" s="140"/>
-      <c r="BY80" s="140"/>
-      <c r="BZ80" s="141"/>
-      <c r="CA80" s="139" t="s">
+      <c r="AP82" s="104"/>
+      <c r="AQ82" s="104"/>
+      <c r="AR82" s="104"/>
+      <c r="AS82" s="104"/>
+      <c r="AT82" s="104"/>
+      <c r="AU82" s="104"/>
+      <c r="AV82" s="104"/>
+      <c r="AW82" s="104"/>
+      <c r="AX82" s="104"/>
+      <c r="AY82" s="104"/>
+      <c r="AZ82" s="104"/>
+      <c r="BA82" s="104"/>
+      <c r="BB82" s="104"/>
+      <c r="BC82" s="104"/>
+      <c r="BD82" s="104"/>
+      <c r="BE82" s="104"/>
+      <c r="BF82" s="104"/>
+      <c r="BG82" s="104"/>
+      <c r="BH82" s="104"/>
+      <c r="BI82" s="104"/>
+      <c r="BJ82" s="104"/>
+      <c r="BK82" s="104"/>
+      <c r="BL82" s="104"/>
+      <c r="BM82" s="104"/>
+      <c r="BN82" s="104"/>
+      <c r="BO82" s="104"/>
+      <c r="BP82" s="104"/>
+      <c r="BQ82" s="104"/>
+      <c r="BR82" s="104"/>
+      <c r="BS82" s="104"/>
+      <c r="BT82" s="104"/>
+      <c r="BU82" s="104"/>
+      <c r="BV82" s="104"/>
+      <c r="BW82" s="104"/>
+      <c r="BX82" s="104"/>
+      <c r="BY82" s="104"/>
+      <c r="BZ82" s="105"/>
+      <c r="CA82" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="CB80" s="140"/>
-      <c r="CC80" s="140"/>
-      <c r="CD80" s="140"/>
-      <c r="CE80" s="140"/>
-      <c r="CF80" s="140"/>
-      <c r="CG80" s="140"/>
-      <c r="CH80" s="140"/>
-      <c r="CI80" s="140"/>
-      <c r="CJ80" s="140"/>
-      <c r="CK80" s="140"/>
-      <c r="CL80" s="140"/>
-      <c r="CM80" s="140"/>
-      <c r="CN80" s="140"/>
-      <c r="CO80" s="140"/>
-      <c r="CP80" s="140"/>
-      <c r="CQ80" s="140"/>
-      <c r="CR80" s="140"/>
-      <c r="CS80" s="140"/>
-      <c r="CT80" s="140"/>
-      <c r="CU80" s="141"/>
-      <c r="CV80" s="139" t="s">
+      <c r="CB82" s="104"/>
+      <c r="CC82" s="104"/>
+      <c r="CD82" s="104"/>
+      <c r="CE82" s="104"/>
+      <c r="CF82" s="104"/>
+      <c r="CG82" s="104"/>
+      <c r="CH82" s="104"/>
+      <c r="CI82" s="104"/>
+      <c r="CJ82" s="104"/>
+      <c r="CK82" s="104"/>
+      <c r="CL82" s="104"/>
+      <c r="CM82" s="104"/>
+      <c r="CN82" s="104"/>
+      <c r="CO82" s="104"/>
+      <c r="CP82" s="104"/>
+      <c r="CQ82" s="104"/>
+      <c r="CR82" s="104"/>
+      <c r="CS82" s="104"/>
+      <c r="CT82" s="104"/>
+      <c r="CU82" s="105"/>
+      <c r="CV82" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="CW80" s="140"/>
-      <c r="CX80" s="140"/>
-      <c r="CY80" s="140"/>
-      <c r="CZ80" s="140"/>
-      <c r="DA80" s="140"/>
-      <c r="DB80" s="140"/>
-      <c r="DC80" s="140"/>
-      <c r="DD80" s="140"/>
-      <c r="DE80" s="140"/>
-      <c r="DF80" s="140"/>
-      <c r="DG80" s="140"/>
-      <c r="DH80" s="140"/>
-      <c r="DI80" s="140"/>
-      <c r="DJ80" s="140"/>
-      <c r="DK80" s="140"/>
-      <c r="DL80" s="140"/>
-      <c r="DM80" s="140"/>
-      <c r="DN80" s="140"/>
-      <c r="DO80" s="140"/>
-      <c r="DP80" s="140"/>
-      <c r="DQ80" s="140"/>
-      <c r="DR80" s="140"/>
-      <c r="DS80" s="140"/>
-      <c r="DT80" s="140"/>
-      <c r="DU80" s="140"/>
-      <c r="DV80" s="140"/>
-      <c r="DW80" s="140"/>
-      <c r="DX80" s="140"/>
-      <c r="DY80" s="140"/>
-      <c r="DZ80" s="140"/>
-      <c r="EA80" s="140"/>
-      <c r="EB80" s="140"/>
-      <c r="EC80" s="140"/>
-      <c r="ED80" s="141"/>
-      <c r="EE80" s="139" t="s">
+      <c r="CW82" s="104"/>
+      <c r="CX82" s="104"/>
+      <c r="CY82" s="104"/>
+      <c r="CZ82" s="104"/>
+      <c r="DA82" s="104"/>
+      <c r="DB82" s="104"/>
+      <c r="DC82" s="104"/>
+      <c r="DD82" s="104"/>
+      <c r="DE82" s="104"/>
+      <c r="DF82" s="104"/>
+      <c r="DG82" s="104"/>
+      <c r="DH82" s="104"/>
+      <c r="DI82" s="104"/>
+      <c r="DJ82" s="104"/>
+      <c r="DK82" s="104"/>
+      <c r="DL82" s="104"/>
+      <c r="DM82" s="104"/>
+      <c r="DN82" s="104"/>
+      <c r="DO82" s="104"/>
+      <c r="DP82" s="104"/>
+      <c r="DQ82" s="104"/>
+      <c r="DR82" s="104"/>
+      <c r="DS82" s="104"/>
+      <c r="DT82" s="104"/>
+      <c r="DU82" s="104"/>
+      <c r="DV82" s="104"/>
+      <c r="DW82" s="104"/>
+      <c r="DX82" s="104"/>
+      <c r="DY82" s="104"/>
+      <c r="DZ82" s="104"/>
+      <c r="EA82" s="104"/>
+      <c r="EB82" s="104"/>
+      <c r="EC82" s="104"/>
+      <c r="ED82" s="105"/>
+      <c r="EE82" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="EF80" s="140"/>
-      <c r="EG80" s="140"/>
-      <c r="EH80" s="140"/>
-      <c r="EI80" s="140"/>
-      <c r="EJ80" s="140"/>
-      <c r="EK80" s="140"/>
-      <c r="EL80" s="140"/>
-      <c r="EM80" s="140"/>
-      <c r="EN80" s="140"/>
-      <c r="EO80" s="140"/>
-      <c r="EP80" s="140"/>
-      <c r="EQ80" s="140"/>
-      <c r="ER80" s="140"/>
-      <c r="ES80" s="140"/>
-      <c r="ET80" s="140"/>
-      <c r="EU80" s="140"/>
-      <c r="EV80" s="140"/>
-      <c r="EW80" s="140"/>
-      <c r="EX80" s="140"/>
-      <c r="EY80" s="140"/>
-      <c r="EZ80" s="140"/>
-      <c r="FA80" s="140"/>
-      <c r="FB80" s="140"/>
-      <c r="FC80" s="140"/>
-      <c r="FD80" s="140"/>
-      <c r="FE80" s="140"/>
-      <c r="FF80" s="140"/>
-      <c r="FG80" s="140"/>
-      <c r="FH80" s="140"/>
-      <c r="FI80" s="140"/>
-      <c r="FJ80" s="140"/>
-      <c r="FK80" s="140"/>
-      <c r="FL80" s="141"/>
-      <c r="FM80" s="139" t="s">
+      <c r="EF82" s="104"/>
+      <c r="EG82" s="104"/>
+      <c r="EH82" s="104"/>
+      <c r="EI82" s="104"/>
+      <c r="EJ82" s="104"/>
+      <c r="EK82" s="104"/>
+      <c r="EL82" s="104"/>
+      <c r="EM82" s="104"/>
+      <c r="EN82" s="104"/>
+      <c r="EO82" s="104"/>
+      <c r="EP82" s="104"/>
+      <c r="EQ82" s="104"/>
+      <c r="ER82" s="104"/>
+      <c r="ES82" s="104"/>
+      <c r="ET82" s="104"/>
+      <c r="EU82" s="104"/>
+      <c r="EV82" s="104"/>
+      <c r="EW82" s="104"/>
+      <c r="EX82" s="104"/>
+      <c r="EY82" s="104"/>
+      <c r="EZ82" s="104"/>
+      <c r="FA82" s="104"/>
+      <c r="FB82" s="104"/>
+      <c r="FC82" s="104"/>
+      <c r="FD82" s="104"/>
+      <c r="FE82" s="104"/>
+      <c r="FF82" s="104"/>
+      <c r="FG82" s="104"/>
+      <c r="FH82" s="104"/>
+      <c r="FI82" s="104"/>
+      <c r="FJ82" s="104"/>
+      <c r="FK82" s="104"/>
+      <c r="FL82" s="105"/>
+      <c r="FM82" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="FN80" s="140"/>
-      <c r="FO80" s="140"/>
-      <c r="FP80" s="140"/>
-      <c r="FQ80" s="140"/>
-      <c r="FR80" s="140"/>
-      <c r="FS80" s="140"/>
-      <c r="FT80" s="140"/>
-      <c r="FU80" s="140"/>
-      <c r="FV80" s="140"/>
-      <c r="FW80" s="140"/>
-      <c r="FX80" s="140"/>
-      <c r="FY80" s="140"/>
-      <c r="FZ80" s="140"/>
-      <c r="GA80" s="140"/>
-      <c r="GB80" s="140"/>
-      <c r="GC80" s="142"/>
+      <c r="FN82" s="104"/>
+      <c r="FO82" s="104"/>
+      <c r="FP82" s="104"/>
+      <c r="FQ82" s="104"/>
+      <c r="FR82" s="104"/>
+      <c r="FS82" s="104"/>
+      <c r="FT82" s="104"/>
+      <c r="FU82" s="104"/>
+      <c r="FV82" s="104"/>
+      <c r="FW82" s="104"/>
+      <c r="FX82" s="104"/>
+      <c r="FY82" s="104"/>
+      <c r="FZ82" s="104"/>
+      <c r="GA82" s="104"/>
+      <c r="GB82" s="104"/>
+      <c r="GC82" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="EE80:FL80"/>
-    <mergeCell ref="FM80:GC80"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="F80:AN80"/>
-    <mergeCell ref="AO80:BZ80"/>
-    <mergeCell ref="CA80:CU80"/>
-    <mergeCell ref="CV80:ED80"/>
-    <mergeCell ref="F4:AN4"/>
-    <mergeCell ref="AO4:BZ4"/>
-    <mergeCell ref="FM4:GC4"/>
-    <mergeCell ref="CA4:CU4"/>
-    <mergeCell ref="CV4:ED4"/>
-    <mergeCell ref="EE4:FL4"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="R6:AV6"/>
-    <mergeCell ref="AW6:BZ6"/>
-    <mergeCell ref="CA6:DE6"/>
-    <mergeCell ref="F5:DE5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="BQ7:BW7"/>
-    <mergeCell ref="BX7:CD7"/>
-    <mergeCell ref="CE7:CK7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="T7:Z7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="CL7:CR7"/>
-    <mergeCell ref="CS7:CY7"/>
-    <mergeCell ref="CZ7:DF7"/>
-    <mergeCell ref="DG7:DM7"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="AH7:AN7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BB7"/>
-    <mergeCell ref="BC7:BI7"/>
-    <mergeCell ref="BJ7:BP7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="EK6:FL6"/>
     <mergeCell ref="FM6:GC6"/>
     <mergeCell ref="DF5:GC5"/>
@@ -18112,10 +18479,51 @@
     <mergeCell ref="FY7:GC7"/>
     <mergeCell ref="DN7:DT7"/>
     <mergeCell ref="DF6:EJ6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="CL7:CR7"/>
+    <mergeCell ref="CS7:CY7"/>
+    <mergeCell ref="CZ7:DF7"/>
+    <mergeCell ref="DG7:DM7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="AH7:AN7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BB7"/>
+    <mergeCell ref="BC7:BI7"/>
+    <mergeCell ref="BJ7:BP7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="BQ7:BW7"/>
+    <mergeCell ref="BX7:CD7"/>
+    <mergeCell ref="CE7:CK7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="T7:Z7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="R6:AV6"/>
+    <mergeCell ref="AW6:BZ6"/>
+    <mergeCell ref="CA6:DE6"/>
+    <mergeCell ref="F5:DE5"/>
+    <mergeCell ref="F4:AN4"/>
+    <mergeCell ref="AO4:BZ4"/>
+    <mergeCell ref="FM4:GC4"/>
+    <mergeCell ref="CA4:CU4"/>
+    <mergeCell ref="CV4:ED4"/>
+    <mergeCell ref="EE4:FL4"/>
+    <mergeCell ref="EE82:FL82"/>
+    <mergeCell ref="FM82:GC82"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="F82:AN82"/>
+    <mergeCell ref="AO82:BZ82"/>
+    <mergeCell ref="CA82:CU82"/>
+    <mergeCell ref="CV82:ED82"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="33" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="35" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18123,383 +18531,383 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.5" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
       <c r="D1" s="91"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="93" t="s">
         <v>97</v>
       </c>
       <c r="B3" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="97" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="94" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="109" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="102">
+      <c r="B4" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="99">
         <v>42654</v>
       </c>
       <c r="D4" s="96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="109" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="103">
+      <c r="B5" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="100">
         <v>42654</v>
       </c>
       <c r="D5" s="96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="109" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="103">
+      <c r="B6" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="100">
         <v>42661</v>
       </c>
       <c r="D6" s="96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="109" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="103">
+      <c r="B7" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="100">
         <v>42666</v>
       </c>
       <c r="D7" s="96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="103">
+      <c r="C8" s="100">
         <v>42688</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="103">
+      <c r="C9" s="100">
         <v>42698</v>
       </c>
       <c r="D9" s="96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="100" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="100">
+        <v>42704</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="100">
+        <v>42694</v>
+      </c>
+      <c r="D11" s="96" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="103">
+      <c r="C12" s="100">
+        <v>42701</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="100">
         <v>42704</v>
       </c>
-      <c r="D10" s="96" t="s">
-        <v>113</v>
+      <c r="D13" s="96" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="109" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="103">
-        <v>42694</v>
-      </c>
-      <c r="D11" s="96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="100" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="109" t="s">
+      <c r="B14" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="103">
-        <v>42701</v>
-      </c>
-      <c r="D12" s="96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="103">
-        <v>42704</v>
-      </c>
-      <c r="D13" s="96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="103">
+      <c r="C14" s="100">
         <v>42725</v>
       </c>
       <c r="D14" s="96" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="100" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="109" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="103">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="100">
         <v>42725</v>
       </c>
       <c r="D15" s="96" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="100" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="109" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="103">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="100">
         <v>42760</v>
       </c>
       <c r="D16" s="96" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="109" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="103">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="100">
         <v>42760</v>
       </c>
       <c r="D17" s="96" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="109" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="103">
+      <c r="C18" s="100">
         <v>42795</v>
       </c>
       <c r="D18" s="96" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="109" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="103">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="100">
         <v>42795</v>
       </c>
       <c r="D19" s="96" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="100" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="103">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="100">
         <v>42804</v>
       </c>
       <c r="D20" s="96" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="100" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="103">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="100">
         <v>42810</v>
       </c>
       <c r="D21" s="96" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="103">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="100">
         <v>42810</v>
       </c>
       <c r="D22" s="96" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="100" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="109" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="100" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="96" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="100" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="100">
+        <v>42633</v>
+      </c>
+      <c r="D24" s="96" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="102" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="100">
+        <v>42677</v>
+      </c>
+      <c r="D25" s="96" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B26" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="103">
-        <v>42633</v>
-      </c>
-      <c r="D24" s="96" t="s">
-        <v>113</v>
+      <c r="C26" s="100">
+        <v>42691</v>
+      </c>
+      <c r="D26" s="96" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="100" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="109" t="s">
+      <c r="B27" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="103">
-        <v>42677</v>
-      </c>
-      <c r="D25" s="96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="103">
-        <v>42691</v>
-      </c>
-      <c r="D26" s="96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="100" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="109" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="103">
+      <c r="C27" s="100">
         <v>42720</v>
       </c>
       <c r="D27" s="96" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="109" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="103">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="100">
         <v>42776</v>
       </c>
       <c r="D28" s="96" t="s">
@@ -18513,21 +18921,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="128.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="128.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>96</v>
       </c>
@@ -18535,14 +18943,14 @@
       <c r="C1" s="91"/>
       <c r="D1" s="91"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="93" t="s">
         <v>97</v>
       </c>
       <c r="B3" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="97" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="94" t="s">
@@ -18552,140 +18960,174 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="102">
+      <c r="C4" s="144">
         <v>42666</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="146" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="142" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="148">
+        <v>42704</v>
+      </c>
+      <c r="D5" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="149" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="150" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="148">
+        <v>42704</v>
+      </c>
+      <c r="D6" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="149" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="142" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="151" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="148">
+        <v>42725</v>
+      </c>
+      <c r="D7" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="149" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="142" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="152" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="105" t="s">
-        <v>105</v>
+      <c r="C8" s="148">
+        <v>42760</v>
+      </c>
+      <c r="D8" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="146" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="103">
-        <v>42704</v>
-      </c>
-      <c r="D5" s="96" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="142" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="152" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="148">
+        <v>42795</v>
+      </c>
+      <c r="D9" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="146" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="142" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="152" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="148">
+        <v>42810</v>
+      </c>
+      <c r="D10" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="106" t="s">
-        <v>106</v>
+      <c r="E10" s="146" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="103">
-        <v>42704</v>
-      </c>
-      <c r="D6" s="96" t="s">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="142" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="152" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="148">
+        <v>42810</v>
+      </c>
+      <c r="D11" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="106" t="s">
-        <v>107</v>
+      <c r="E11" s="146" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="107" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="103">
-        <v>42725</v>
-      </c>
-      <c r="D7" s="96" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="148">
+        <v>42843</v>
+      </c>
+      <c r="D12" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="106" t="s">
-        <v>108</v>
+      <c r="E12" s="146" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="103">
-        <v>42760</v>
-      </c>
-      <c r="D8" s="96" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="152" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="148">
+        <v>42843</v>
+      </c>
+      <c r="D13" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="105" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="104" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="103">
-        <v>42795</v>
-      </c>
-      <c r="D9" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="105" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="103">
-        <v>42810</v>
-      </c>
-      <c r="D10" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="105" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="103">
-        <v>42810</v>
-      </c>
-      <c r="D11" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="105" t="s">
-        <v>112</v>
+      <c r="E13" s="146" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/doc/planning/Projektplanung_Spektrometer.xlsx
+++ b/doc/planning/Projektplanung_Spektrometer.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="48720" windowHeight="25420"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
-    <sheet name="Ziele" sheetId="3" r:id="rId2"/>
-    <sheet name="Meilensteine" sheetId="2" r:id="rId3"/>
+    <sheet name="Zeitauswertung" sheetId="4" r:id="rId2"/>
+    <sheet name="Ziele" sheetId="3" r:id="rId3"/>
+    <sheet name="Meilensteine" sheetId="2" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="abc">[1]Stammdaten!$B$2:$B$9</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="174">
   <si>
     <t>Zeit</t>
   </si>
@@ -533,6 +534,39 @@
     <t>​Statusberichte regelmässig an den betreuenden Coach versendet wurden.
 Eine Dokumentation anhand des Leitfadens IP6 erstellt wurde.</t>
   </si>
+  <si>
+    <t>Zeitaufteilung prozentual gerechnet</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>bis 30.11.16</t>
+  </si>
+  <si>
+    <t>bis 23.10.16</t>
+  </si>
+  <si>
+    <t>bis 21.12.16</t>
+  </si>
+  <si>
+    <t>bis 25.01.17</t>
+  </si>
+  <si>
+    <t>bis 28.02.17</t>
+  </si>
+  <si>
+    <t>bis 23.03.17</t>
+  </si>
 </sst>
 </file>
 
@@ -541,7 +575,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,8 +658,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,8 +709,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="65">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1433,6 +1480,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dashDotDot">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1573,7 +1672,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1720,9 +1819,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1881,6 +1977,94 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1996,45 +2180,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2197,6 +2342,1000 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Open Sans" charset="0"/>
+                <a:ea typeface="Open Sans" charset="0"/>
+                <a:cs typeface="Open Sans" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" b="1">
+                <a:latin typeface="Open Sans" charset="0"/>
+                <a:ea typeface="Open Sans" charset="0"/>
+                <a:cs typeface="Open Sans" charset="0"/>
+              </a:rPr>
+              <a:t>Ist</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" b="1" baseline="0">
+                <a:latin typeface="Open Sans" charset="0"/>
+                <a:ea typeface="Open Sans" charset="0"/>
+                <a:cs typeface="Open Sans" charset="0"/>
+              </a:rPr>
+              <a:t> / Soll Vergleich</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" b="1">
+              <a:latin typeface="Open Sans" charset="0"/>
+              <a:ea typeface="Open Sans" charset="0"/>
+              <a:cs typeface="Open Sans" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Open Sans" charset="0"/>
+              <a:ea typeface="Open Sans" charset="0"/>
+              <a:cs typeface="Open Sans" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Zeitauswertung!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Zeitauswertung!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Inception</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elaboration</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Construction 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Construction 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Construction 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Zeitauswertung!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Zeitauswertung!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Zeitauswertung!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Inception</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elaboration</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Construction 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Construction 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Construction 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Zeitauswertung!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="873481120"/>
+        <c:axId val="873482896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="873481120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873482896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="873482896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873481120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2502,13 +3641,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:GC82"/>
+  <dimension ref="A1:GE86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="8" topLeftCell="DP58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="FV46" sqref="FV46"/>
+      <selection pane="bottomRight" activeCell="ED8" sqref="ED8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2524,13 +3663,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:185" s="12" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="157" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="159"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -2713,190 +3852,190 @@
       <c r="GC1" s="6"/>
     </row>
     <row r="2" spans="1:185" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="50"/>
-      <c r="BI2" s="50"/>
-      <c r="BJ2" s="50"/>
-      <c r="BK2" s="50"/>
-      <c r="BL2" s="50"/>
-      <c r="BM2" s="50"/>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="50"/>
-      <c r="BP2" s="50"/>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="50"/>
-      <c r="BS2" s="50"/>
-      <c r="BT2" s="50"/>
-      <c r="BU2" s="50"/>
-      <c r="BV2" s="50"/>
-      <c r="BW2" s="50"/>
-      <c r="BX2" s="50"/>
-      <c r="BY2" s="50"/>
-      <c r="BZ2" s="50"/>
-      <c r="CA2" s="50"/>
-      <c r="CB2" s="50"/>
-      <c r="CC2" s="50"/>
-      <c r="CD2" s="50"/>
-      <c r="CE2" s="50"/>
-      <c r="CF2" s="50"/>
-      <c r="CG2" s="50"/>
-      <c r="CH2" s="50"/>
-      <c r="CI2" s="50"/>
-      <c r="CJ2" s="50"/>
-      <c r="CK2" s="50"/>
-      <c r="CL2" s="50"/>
-      <c r="CM2" s="50"/>
-      <c r="CN2" s="50"/>
-      <c r="CO2" s="50"/>
-      <c r="CP2" s="50"/>
-      <c r="CQ2" s="50"/>
-      <c r="CR2" s="50"/>
-      <c r="CS2" s="50"/>
-      <c r="CT2" s="50"/>
-      <c r="CU2" s="50"/>
-      <c r="CV2" s="50"/>
-      <c r="CW2" s="50"/>
-      <c r="CX2" s="50"/>
-      <c r="CY2" s="50"/>
-      <c r="CZ2" s="50"/>
-      <c r="DA2" s="50"/>
-      <c r="DB2" s="50"/>
-      <c r="DC2" s="50"/>
-      <c r="DD2" s="50"/>
-      <c r="DE2" s="50"/>
-      <c r="DF2" s="50"/>
-      <c r="DG2" s="50"/>
-      <c r="DH2" s="50"/>
-      <c r="DI2" s="50"/>
-      <c r="DJ2" s="50"/>
-      <c r="DK2" s="50"/>
-      <c r="DL2" s="50"/>
-      <c r="DM2" s="50"/>
-      <c r="DN2" s="50"/>
-      <c r="DO2" s="50"/>
-      <c r="DP2" s="50"/>
-      <c r="DQ2" s="50"/>
-      <c r="DR2" s="50"/>
-      <c r="DS2" s="50"/>
-      <c r="DT2" s="50"/>
-      <c r="DU2" s="50"/>
-      <c r="DV2" s="50"/>
-      <c r="DW2" s="50"/>
-      <c r="DX2" s="50"/>
-      <c r="DY2" s="50"/>
-      <c r="DZ2" s="50"/>
-      <c r="EA2" s="50"/>
-      <c r="EB2" s="50"/>
-      <c r="EC2" s="50"/>
-      <c r="ED2" s="50"/>
-      <c r="EE2" s="50"/>
-      <c r="EF2" s="50"/>
-      <c r="EG2" s="50"/>
-      <c r="EH2" s="50"/>
-      <c r="EI2" s="50"/>
-      <c r="EJ2" s="50"/>
-      <c r="EK2" s="50"/>
-      <c r="EL2" s="50"/>
-      <c r="EM2" s="50"/>
-      <c r="EN2" s="50"/>
-      <c r="EO2" s="50"/>
-      <c r="EP2" s="50"/>
-      <c r="EQ2" s="50"/>
-      <c r="ER2" s="50"/>
-      <c r="ES2" s="50"/>
-      <c r="ET2" s="50"/>
-      <c r="EU2" s="50"/>
-      <c r="EV2" s="50"/>
-      <c r="EW2" s="50"/>
-      <c r="EX2" s="50"/>
-      <c r="EY2" s="50"/>
-      <c r="EZ2" s="50"/>
-      <c r="FA2" s="50"/>
-      <c r="FB2" s="50"/>
-      <c r="FC2" s="50"/>
-      <c r="FD2" s="50"/>
-      <c r="FE2" s="50"/>
-      <c r="FF2" s="50"/>
-      <c r="FG2" s="50"/>
-      <c r="FH2" s="50"/>
-      <c r="FI2" s="50"/>
-      <c r="FJ2" s="50"/>
-      <c r="FK2" s="50"/>
-      <c r="FL2" s="50"/>
-      <c r="FM2" s="50"/>
-      <c r="FN2" s="50"/>
-      <c r="FO2" s="50"/>
-      <c r="FP2" s="50"/>
-      <c r="FQ2" s="50"/>
-      <c r="FR2" s="50"/>
-      <c r="FS2" s="50"/>
-      <c r="FT2" s="50"/>
-      <c r="FU2" s="50"/>
-      <c r="FV2" s="50"/>
-      <c r="FW2" s="50"/>
-      <c r="FX2" s="50"/>
-      <c r="FY2" s="50"/>
-      <c r="FZ2" s="50"/>
-      <c r="GA2" s="50"/>
-      <c r="GB2" s="50"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="102"/>
+      <c r="AY2" s="102"/>
+      <c r="AZ2" s="102"/>
+      <c r="BA2" s="102"/>
+      <c r="BB2" s="102"/>
+      <c r="BC2" s="102"/>
+      <c r="BD2" s="102"/>
+      <c r="BE2" s="102"/>
+      <c r="BF2" s="102"/>
+      <c r="BG2" s="102"/>
+      <c r="BH2" s="102"/>
+      <c r="BI2" s="102"/>
+      <c r="BJ2" s="102"/>
+      <c r="BK2" s="102"/>
+      <c r="BL2" s="102"/>
+      <c r="BM2" s="102"/>
+      <c r="BN2" s="102"/>
+      <c r="BO2" s="102"/>
+      <c r="BP2" s="102"/>
+      <c r="BQ2" s="102"/>
+      <c r="BR2" s="102"/>
+      <c r="BS2" s="102"/>
+      <c r="BT2" s="102"/>
+      <c r="BU2" s="102"/>
+      <c r="BV2" s="102"/>
+      <c r="BW2" s="102"/>
+      <c r="BX2" s="102"/>
+      <c r="BY2" s="102"/>
+      <c r="BZ2" s="102"/>
+      <c r="CA2" s="102"/>
+      <c r="CB2" s="102"/>
+      <c r="CC2" s="102"/>
+      <c r="CD2" s="102"/>
+      <c r="CE2" s="102"/>
+      <c r="CF2" s="102"/>
+      <c r="CG2" s="102"/>
+      <c r="CH2" s="102"/>
+      <c r="CI2" s="102"/>
+      <c r="CJ2" s="102"/>
+      <c r="CK2" s="102"/>
+      <c r="CL2" s="102"/>
+      <c r="CM2" s="102"/>
+      <c r="CN2" s="102"/>
+      <c r="CO2" s="102"/>
+      <c r="CP2" s="102"/>
+      <c r="CQ2" s="102"/>
+      <c r="CR2" s="102"/>
+      <c r="CS2" s="102"/>
+      <c r="CT2" s="102"/>
+      <c r="CU2" s="102"/>
+      <c r="CV2" s="102"/>
+      <c r="CW2" s="102"/>
+      <c r="CX2" s="102"/>
+      <c r="CY2" s="102"/>
+      <c r="CZ2" s="102"/>
+      <c r="DA2" s="102"/>
+      <c r="DB2" s="102"/>
+      <c r="DC2" s="102"/>
+      <c r="DD2" s="102"/>
+      <c r="DE2" s="102"/>
+      <c r="DF2" s="102"/>
+      <c r="DG2" s="102"/>
+      <c r="DH2" s="102"/>
+      <c r="DI2" s="102"/>
+      <c r="DJ2" s="102"/>
+      <c r="DK2" s="102"/>
+      <c r="DL2" s="102"/>
+      <c r="DM2" s="102"/>
+      <c r="DN2" s="102"/>
+      <c r="DO2" s="102"/>
+      <c r="DP2" s="102"/>
+      <c r="DQ2" s="102"/>
+      <c r="DR2" s="102"/>
+      <c r="DS2" s="102"/>
+      <c r="DT2" s="102"/>
+      <c r="DU2" s="102"/>
+      <c r="DV2" s="102"/>
+      <c r="DW2" s="102"/>
+      <c r="DX2" s="102"/>
+      <c r="DY2" s="102"/>
+      <c r="DZ2" s="102"/>
+      <c r="EA2" s="102"/>
+      <c r="EB2" s="102"/>
+      <c r="EC2" s="102"/>
+      <c r="ED2" s="102"/>
+      <c r="EE2" s="102"/>
+      <c r="EF2" s="102"/>
+      <c r="EG2" s="102"/>
+      <c r="EH2" s="102"/>
+      <c r="EI2" s="102"/>
+      <c r="EJ2" s="102"/>
+      <c r="EK2" s="102"/>
+      <c r="EL2" s="102"/>
+      <c r="EM2" s="102"/>
+      <c r="EN2" s="102"/>
+      <c r="EO2" s="102"/>
+      <c r="EP2" s="102"/>
+      <c r="EQ2" s="102"/>
+      <c r="ER2" s="102"/>
+      <c r="ES2" s="102"/>
+      <c r="ET2" s="102"/>
+      <c r="EU2" s="102"/>
+      <c r="EV2" s="102"/>
+      <c r="EW2" s="102"/>
+      <c r="EX2" s="102"/>
+      <c r="EY2" s="102"/>
+      <c r="EZ2" s="102"/>
+      <c r="FA2" s="102"/>
+      <c r="FB2" s="102"/>
+      <c r="FC2" s="102"/>
+      <c r="FD2" s="102"/>
+      <c r="FE2" s="102"/>
+      <c r="FF2" s="102"/>
+      <c r="FG2" s="102"/>
+      <c r="FH2" s="102"/>
+      <c r="FI2" s="102"/>
+      <c r="FJ2" s="102"/>
+      <c r="FK2" s="102"/>
+      <c r="FL2" s="102"/>
+      <c r="FM2" s="102"/>
+      <c r="FN2" s="102"/>
+      <c r="FO2" s="102"/>
+      <c r="FP2" s="102"/>
+      <c r="FQ2" s="102"/>
+      <c r="FR2" s="102"/>
+      <c r="FS2" s="102"/>
+      <c r="FT2" s="102"/>
+      <c r="FU2" s="102"/>
+      <c r="FV2" s="102"/>
+      <c r="FW2" s="102"/>
+      <c r="FX2" s="102"/>
+      <c r="FY2" s="102"/>
+      <c r="FZ2" s="102"/>
+      <c r="GA2" s="102"/>
+      <c r="GB2" s="102"/>
       <c r="GC2" s="13"/>
     </row>
     <row r="3" spans="1:185" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3099,851 +4238,851 @@
       <c r="GC3" s="18"/>
     </row>
     <row r="4" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="113" t="s">
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="114"/>
-      <c r="AJ4" s="114"/>
-      <c r="AK4" s="114"/>
-      <c r="AL4" s="114"/>
-      <c r="AM4" s="114"/>
-      <c r="AN4" s="114"/>
-      <c r="AO4" s="114" t="s">
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="143"/>
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="143"/>
+      <c r="AB4" s="143"/>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="143"/>
+      <c r="AE4" s="143"/>
+      <c r="AF4" s="143"/>
+      <c r="AG4" s="143"/>
+      <c r="AH4" s="143"/>
+      <c r="AI4" s="143"/>
+      <c r="AJ4" s="143"/>
+      <c r="AK4" s="143"/>
+      <c r="AL4" s="143"/>
+      <c r="AM4" s="143"/>
+      <c r="AN4" s="143"/>
+      <c r="AO4" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="AP4" s="114"/>
-      <c r="AQ4" s="114"/>
-      <c r="AR4" s="114"/>
-      <c r="AS4" s="114"/>
-      <c r="AT4" s="114"/>
-      <c r="AU4" s="114"/>
-      <c r="AV4" s="114"/>
-      <c r="AW4" s="114"/>
-      <c r="AX4" s="114"/>
-      <c r="AY4" s="114"/>
-      <c r="AZ4" s="114"/>
-      <c r="BA4" s="114"/>
-      <c r="BB4" s="114"/>
-      <c r="BC4" s="114"/>
-      <c r="BD4" s="114"/>
-      <c r="BE4" s="114"/>
-      <c r="BF4" s="114"/>
-      <c r="BG4" s="114"/>
-      <c r="BH4" s="114"/>
-      <c r="BI4" s="114"/>
-      <c r="BJ4" s="114"/>
-      <c r="BK4" s="114"/>
-      <c r="BL4" s="114"/>
-      <c r="BM4" s="114"/>
-      <c r="BN4" s="114"/>
-      <c r="BO4" s="114"/>
-      <c r="BP4" s="114"/>
-      <c r="BQ4" s="114"/>
-      <c r="BR4" s="114"/>
-      <c r="BS4" s="114"/>
-      <c r="BT4" s="114"/>
-      <c r="BU4" s="114"/>
-      <c r="BV4" s="114"/>
-      <c r="BW4" s="114"/>
-      <c r="BX4" s="114"/>
-      <c r="BY4" s="114"/>
-      <c r="BZ4" s="114"/>
-      <c r="CA4" s="114" t="s">
+      <c r="AP4" s="143"/>
+      <c r="AQ4" s="143"/>
+      <c r="AR4" s="143"/>
+      <c r="AS4" s="143"/>
+      <c r="AT4" s="143"/>
+      <c r="AU4" s="143"/>
+      <c r="AV4" s="143"/>
+      <c r="AW4" s="143"/>
+      <c r="AX4" s="143"/>
+      <c r="AY4" s="143"/>
+      <c r="AZ4" s="143"/>
+      <c r="BA4" s="143"/>
+      <c r="BB4" s="143"/>
+      <c r="BC4" s="143"/>
+      <c r="BD4" s="143"/>
+      <c r="BE4" s="143"/>
+      <c r="BF4" s="143"/>
+      <c r="BG4" s="143"/>
+      <c r="BH4" s="143"/>
+      <c r="BI4" s="143"/>
+      <c r="BJ4" s="143"/>
+      <c r="BK4" s="143"/>
+      <c r="BL4" s="143"/>
+      <c r="BM4" s="143"/>
+      <c r="BN4" s="143"/>
+      <c r="BO4" s="143"/>
+      <c r="BP4" s="143"/>
+      <c r="BQ4" s="143"/>
+      <c r="BR4" s="143"/>
+      <c r="BS4" s="143"/>
+      <c r="BT4" s="143"/>
+      <c r="BU4" s="143"/>
+      <c r="BV4" s="143"/>
+      <c r="BW4" s="143"/>
+      <c r="BX4" s="143"/>
+      <c r="BY4" s="143"/>
+      <c r="BZ4" s="143"/>
+      <c r="CA4" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="CB4" s="114"/>
-      <c r="CC4" s="114"/>
-      <c r="CD4" s="114"/>
-      <c r="CE4" s="114"/>
-      <c r="CF4" s="114"/>
-      <c r="CG4" s="114"/>
-      <c r="CH4" s="114"/>
-      <c r="CI4" s="114"/>
-      <c r="CJ4" s="114"/>
-      <c r="CK4" s="114"/>
-      <c r="CL4" s="114"/>
-      <c r="CM4" s="114"/>
-      <c r="CN4" s="114"/>
-      <c r="CO4" s="114"/>
-      <c r="CP4" s="114"/>
-      <c r="CQ4" s="114"/>
-      <c r="CR4" s="114"/>
-      <c r="CS4" s="114"/>
-      <c r="CT4" s="114"/>
-      <c r="CU4" s="114"/>
-      <c r="CV4" s="114" t="s">
+      <c r="CB4" s="143"/>
+      <c r="CC4" s="143"/>
+      <c r="CD4" s="143"/>
+      <c r="CE4" s="143"/>
+      <c r="CF4" s="143"/>
+      <c r="CG4" s="143"/>
+      <c r="CH4" s="143"/>
+      <c r="CI4" s="143"/>
+      <c r="CJ4" s="143"/>
+      <c r="CK4" s="143"/>
+      <c r="CL4" s="143"/>
+      <c r="CM4" s="143"/>
+      <c r="CN4" s="143"/>
+      <c r="CO4" s="143"/>
+      <c r="CP4" s="143"/>
+      <c r="CQ4" s="143"/>
+      <c r="CR4" s="143"/>
+      <c r="CS4" s="143"/>
+      <c r="CT4" s="143"/>
+      <c r="CU4" s="143"/>
+      <c r="CV4" s="143" t="s">
         <v>93</v>
       </c>
-      <c r="CW4" s="114"/>
-      <c r="CX4" s="114"/>
-      <c r="CY4" s="114"/>
-      <c r="CZ4" s="114"/>
-      <c r="DA4" s="114"/>
-      <c r="DB4" s="114"/>
-      <c r="DC4" s="114"/>
-      <c r="DD4" s="114"/>
-      <c r="DE4" s="114"/>
-      <c r="DF4" s="114"/>
-      <c r="DG4" s="114"/>
-      <c r="DH4" s="114"/>
-      <c r="DI4" s="114"/>
-      <c r="DJ4" s="114"/>
-      <c r="DK4" s="114"/>
-      <c r="DL4" s="114"/>
-      <c r="DM4" s="114"/>
-      <c r="DN4" s="114"/>
-      <c r="DO4" s="114"/>
-      <c r="DP4" s="114"/>
-      <c r="DQ4" s="114"/>
-      <c r="DR4" s="114"/>
-      <c r="DS4" s="114"/>
-      <c r="DT4" s="114"/>
-      <c r="DU4" s="114"/>
-      <c r="DV4" s="114"/>
-      <c r="DW4" s="114"/>
-      <c r="DX4" s="114"/>
-      <c r="DY4" s="114"/>
-      <c r="DZ4" s="114"/>
-      <c r="EA4" s="114"/>
-      <c r="EB4" s="114"/>
-      <c r="EC4" s="114"/>
-      <c r="ED4" s="114"/>
-      <c r="EE4" s="114" t="s">
+      <c r="CW4" s="143"/>
+      <c r="CX4" s="143"/>
+      <c r="CY4" s="143"/>
+      <c r="CZ4" s="143"/>
+      <c r="DA4" s="143"/>
+      <c r="DB4" s="143"/>
+      <c r="DC4" s="143"/>
+      <c r="DD4" s="143"/>
+      <c r="DE4" s="143"/>
+      <c r="DF4" s="143"/>
+      <c r="DG4" s="143"/>
+      <c r="DH4" s="143"/>
+      <c r="DI4" s="143"/>
+      <c r="DJ4" s="143"/>
+      <c r="DK4" s="143"/>
+      <c r="DL4" s="143"/>
+      <c r="DM4" s="143"/>
+      <c r="DN4" s="143"/>
+      <c r="DO4" s="143"/>
+      <c r="DP4" s="143"/>
+      <c r="DQ4" s="143"/>
+      <c r="DR4" s="143"/>
+      <c r="DS4" s="143"/>
+      <c r="DT4" s="143"/>
+      <c r="DU4" s="143"/>
+      <c r="DV4" s="143"/>
+      <c r="DW4" s="143"/>
+      <c r="DX4" s="143"/>
+      <c r="DY4" s="143"/>
+      <c r="DZ4" s="143"/>
+      <c r="EA4" s="143"/>
+      <c r="EB4" s="143"/>
+      <c r="EC4" s="143"/>
+      <c r="ED4" s="143"/>
+      <c r="EE4" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="EF4" s="114"/>
-      <c r="EG4" s="114"/>
-      <c r="EH4" s="114"/>
-      <c r="EI4" s="114"/>
-      <c r="EJ4" s="114"/>
-      <c r="EK4" s="114"/>
-      <c r="EL4" s="114"/>
-      <c r="EM4" s="114"/>
-      <c r="EN4" s="114"/>
-      <c r="EO4" s="114"/>
-      <c r="EP4" s="114"/>
-      <c r="EQ4" s="114"/>
-      <c r="ER4" s="114"/>
-      <c r="ES4" s="114"/>
-      <c r="ET4" s="114"/>
-      <c r="EU4" s="114"/>
-      <c r="EV4" s="114"/>
-      <c r="EW4" s="114"/>
-      <c r="EX4" s="114"/>
-      <c r="EY4" s="114"/>
-      <c r="EZ4" s="114"/>
-      <c r="FA4" s="114"/>
-      <c r="FB4" s="114"/>
-      <c r="FC4" s="114"/>
-      <c r="FD4" s="114"/>
-      <c r="FE4" s="114"/>
-      <c r="FF4" s="114"/>
-      <c r="FG4" s="114"/>
-      <c r="FH4" s="114"/>
-      <c r="FI4" s="114"/>
-      <c r="FJ4" s="114"/>
-      <c r="FK4" s="114"/>
-      <c r="FL4" s="114"/>
-      <c r="FM4" s="114" t="s">
+      <c r="EF4" s="143"/>
+      <c r="EG4" s="143"/>
+      <c r="EH4" s="143"/>
+      <c r="EI4" s="143"/>
+      <c r="EJ4" s="143"/>
+      <c r="EK4" s="143"/>
+      <c r="EL4" s="143"/>
+      <c r="EM4" s="143"/>
+      <c r="EN4" s="143"/>
+      <c r="EO4" s="143"/>
+      <c r="EP4" s="143"/>
+      <c r="EQ4" s="143"/>
+      <c r="ER4" s="143"/>
+      <c r="ES4" s="143"/>
+      <c r="ET4" s="143"/>
+      <c r="EU4" s="143"/>
+      <c r="EV4" s="143"/>
+      <c r="EW4" s="143"/>
+      <c r="EX4" s="143"/>
+      <c r="EY4" s="143"/>
+      <c r="EZ4" s="143"/>
+      <c r="FA4" s="143"/>
+      <c r="FB4" s="143"/>
+      <c r="FC4" s="143"/>
+      <c r="FD4" s="143"/>
+      <c r="FE4" s="143"/>
+      <c r="FF4" s="143"/>
+      <c r="FG4" s="143"/>
+      <c r="FH4" s="143"/>
+      <c r="FI4" s="143"/>
+      <c r="FJ4" s="143"/>
+      <c r="FK4" s="143"/>
+      <c r="FL4" s="143"/>
+      <c r="FM4" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="FN4" s="114"/>
-      <c r="FO4" s="114"/>
-      <c r="FP4" s="114"/>
-      <c r="FQ4" s="114"/>
-      <c r="FR4" s="114"/>
-      <c r="FS4" s="114"/>
-      <c r="FT4" s="114"/>
-      <c r="FU4" s="114"/>
-      <c r="FV4" s="114"/>
-      <c r="FW4" s="114"/>
-      <c r="FX4" s="114"/>
-      <c r="FY4" s="114"/>
-      <c r="FZ4" s="114"/>
-      <c r="GA4" s="114"/>
-      <c r="GB4" s="114"/>
-      <c r="GC4" s="115"/>
+      <c r="FN4" s="143"/>
+      <c r="FO4" s="143"/>
+      <c r="FP4" s="143"/>
+      <c r="FQ4" s="143"/>
+      <c r="FR4" s="143"/>
+      <c r="FS4" s="143"/>
+      <c r="FT4" s="143"/>
+      <c r="FU4" s="143"/>
+      <c r="FV4" s="143"/>
+      <c r="FW4" s="143"/>
+      <c r="FX4" s="143"/>
+      <c r="FY4" s="143"/>
+      <c r="FZ4" s="143"/>
+      <c r="GA4" s="143"/>
+      <c r="GB4" s="143"/>
+      <c r="GC4" s="144"/>
     </row>
     <row r="5" spans="1:185" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="118">
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="147">
         <v>2016</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="119"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="119"/>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="119"/>
-      <c r="AH5" s="119"/>
-      <c r="AI5" s="119"/>
-      <c r="AJ5" s="119"/>
-      <c r="AK5" s="119"/>
-      <c r="AL5" s="119"/>
-      <c r="AM5" s="119"/>
-      <c r="AN5" s="119"/>
-      <c r="AO5" s="119"/>
-      <c r="AP5" s="119"/>
-      <c r="AQ5" s="119"/>
-      <c r="AR5" s="119"/>
-      <c r="AS5" s="119"/>
-      <c r="AT5" s="119"/>
-      <c r="AU5" s="119"/>
-      <c r="AV5" s="119"/>
-      <c r="AW5" s="119"/>
-      <c r="AX5" s="119"/>
-      <c r="AY5" s="119"/>
-      <c r="AZ5" s="119"/>
-      <c r="BA5" s="119"/>
-      <c r="BB5" s="119"/>
-      <c r="BC5" s="119"/>
-      <c r="BD5" s="119"/>
-      <c r="BE5" s="119"/>
-      <c r="BF5" s="119"/>
-      <c r="BG5" s="119"/>
-      <c r="BH5" s="119"/>
-      <c r="BI5" s="119"/>
-      <c r="BJ5" s="119"/>
-      <c r="BK5" s="119"/>
-      <c r="BL5" s="119"/>
-      <c r="BM5" s="119"/>
-      <c r="BN5" s="119"/>
-      <c r="BO5" s="119"/>
-      <c r="BP5" s="119"/>
-      <c r="BQ5" s="119"/>
-      <c r="BR5" s="119"/>
-      <c r="BS5" s="119"/>
-      <c r="BT5" s="119"/>
-      <c r="BU5" s="119"/>
-      <c r="BV5" s="119"/>
-      <c r="BW5" s="119"/>
-      <c r="BX5" s="119"/>
-      <c r="BY5" s="119"/>
-      <c r="BZ5" s="119"/>
-      <c r="CA5" s="119"/>
-      <c r="CB5" s="119"/>
-      <c r="CC5" s="119"/>
-      <c r="CD5" s="119"/>
-      <c r="CE5" s="119"/>
-      <c r="CF5" s="119"/>
-      <c r="CG5" s="119"/>
-      <c r="CH5" s="119"/>
-      <c r="CI5" s="119"/>
-      <c r="CJ5" s="119"/>
-      <c r="CK5" s="119"/>
-      <c r="CL5" s="119"/>
-      <c r="CM5" s="119"/>
-      <c r="CN5" s="119"/>
-      <c r="CO5" s="119"/>
-      <c r="CP5" s="119"/>
-      <c r="CQ5" s="119"/>
-      <c r="CR5" s="119"/>
-      <c r="CS5" s="119"/>
-      <c r="CT5" s="119"/>
-      <c r="CU5" s="119"/>
-      <c r="CV5" s="119"/>
-      <c r="CW5" s="119"/>
-      <c r="CX5" s="119"/>
-      <c r="CY5" s="119"/>
-      <c r="CZ5" s="119"/>
-      <c r="DA5" s="119"/>
-      <c r="DB5" s="119"/>
-      <c r="DC5" s="119"/>
-      <c r="DD5" s="119"/>
-      <c r="DE5" s="119"/>
-      <c r="DF5" s="119">
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="148"/>
+      <c r="W5" s="148"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="148"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="148"/>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="148"/>
+      <c r="AG5" s="148"/>
+      <c r="AH5" s="148"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="148"/>
+      <c r="AK5" s="148"/>
+      <c r="AL5" s="148"/>
+      <c r="AM5" s="148"/>
+      <c r="AN5" s="148"/>
+      <c r="AO5" s="148"/>
+      <c r="AP5" s="148"/>
+      <c r="AQ5" s="148"/>
+      <c r="AR5" s="148"/>
+      <c r="AS5" s="148"/>
+      <c r="AT5" s="148"/>
+      <c r="AU5" s="148"/>
+      <c r="AV5" s="148"/>
+      <c r="AW5" s="148"/>
+      <c r="AX5" s="148"/>
+      <c r="AY5" s="148"/>
+      <c r="AZ5" s="148"/>
+      <c r="BA5" s="148"/>
+      <c r="BB5" s="148"/>
+      <c r="BC5" s="148"/>
+      <c r="BD5" s="148"/>
+      <c r="BE5" s="148"/>
+      <c r="BF5" s="148"/>
+      <c r="BG5" s="148"/>
+      <c r="BH5" s="148"/>
+      <c r="BI5" s="148"/>
+      <c r="BJ5" s="148"/>
+      <c r="BK5" s="148"/>
+      <c r="BL5" s="148"/>
+      <c r="BM5" s="148"/>
+      <c r="BN5" s="148"/>
+      <c r="BO5" s="148"/>
+      <c r="BP5" s="148"/>
+      <c r="BQ5" s="148"/>
+      <c r="BR5" s="148"/>
+      <c r="BS5" s="148"/>
+      <c r="BT5" s="148"/>
+      <c r="BU5" s="148"/>
+      <c r="BV5" s="148"/>
+      <c r="BW5" s="148"/>
+      <c r="BX5" s="148"/>
+      <c r="BY5" s="148"/>
+      <c r="BZ5" s="148"/>
+      <c r="CA5" s="148"/>
+      <c r="CB5" s="148"/>
+      <c r="CC5" s="148"/>
+      <c r="CD5" s="148"/>
+      <c r="CE5" s="148"/>
+      <c r="CF5" s="148"/>
+      <c r="CG5" s="148"/>
+      <c r="CH5" s="148"/>
+      <c r="CI5" s="148"/>
+      <c r="CJ5" s="148"/>
+      <c r="CK5" s="148"/>
+      <c r="CL5" s="148"/>
+      <c r="CM5" s="148"/>
+      <c r="CN5" s="148"/>
+      <c r="CO5" s="148"/>
+      <c r="CP5" s="148"/>
+      <c r="CQ5" s="148"/>
+      <c r="CR5" s="148"/>
+      <c r="CS5" s="148"/>
+      <c r="CT5" s="148"/>
+      <c r="CU5" s="148"/>
+      <c r="CV5" s="148"/>
+      <c r="CW5" s="148"/>
+      <c r="CX5" s="148"/>
+      <c r="CY5" s="148"/>
+      <c r="CZ5" s="148"/>
+      <c r="DA5" s="148"/>
+      <c r="DB5" s="148"/>
+      <c r="DC5" s="148"/>
+      <c r="DD5" s="148"/>
+      <c r="DE5" s="148"/>
+      <c r="DF5" s="148">
         <v>2017</v>
       </c>
-      <c r="DG5" s="119"/>
-      <c r="DH5" s="119"/>
-      <c r="DI5" s="119"/>
-      <c r="DJ5" s="119"/>
-      <c r="DK5" s="119"/>
-      <c r="DL5" s="119"/>
-      <c r="DM5" s="119"/>
-      <c r="DN5" s="119"/>
-      <c r="DO5" s="119"/>
-      <c r="DP5" s="119"/>
-      <c r="DQ5" s="119"/>
-      <c r="DR5" s="119"/>
-      <c r="DS5" s="119"/>
-      <c r="DT5" s="119"/>
-      <c r="DU5" s="119"/>
-      <c r="DV5" s="119"/>
-      <c r="DW5" s="119"/>
-      <c r="DX5" s="119"/>
-      <c r="DY5" s="119"/>
-      <c r="DZ5" s="119"/>
-      <c r="EA5" s="119"/>
-      <c r="EB5" s="119"/>
-      <c r="EC5" s="119"/>
-      <c r="ED5" s="119"/>
-      <c r="EE5" s="119"/>
-      <c r="EF5" s="119"/>
-      <c r="EG5" s="119"/>
-      <c r="EH5" s="119"/>
-      <c r="EI5" s="119"/>
-      <c r="EJ5" s="119"/>
-      <c r="EK5" s="119"/>
-      <c r="EL5" s="119"/>
-      <c r="EM5" s="119"/>
-      <c r="EN5" s="119"/>
-      <c r="EO5" s="119"/>
-      <c r="EP5" s="119"/>
-      <c r="EQ5" s="119"/>
-      <c r="ER5" s="119"/>
-      <c r="ES5" s="119"/>
-      <c r="ET5" s="119"/>
-      <c r="EU5" s="119"/>
-      <c r="EV5" s="119"/>
-      <c r="EW5" s="119"/>
-      <c r="EX5" s="119"/>
-      <c r="EY5" s="119"/>
-      <c r="EZ5" s="119"/>
-      <c r="FA5" s="119"/>
-      <c r="FB5" s="119"/>
-      <c r="FC5" s="119"/>
-      <c r="FD5" s="119"/>
-      <c r="FE5" s="119"/>
-      <c r="FF5" s="119"/>
-      <c r="FG5" s="119"/>
-      <c r="FH5" s="119"/>
-      <c r="FI5" s="119"/>
-      <c r="FJ5" s="119"/>
-      <c r="FK5" s="119"/>
-      <c r="FL5" s="119"/>
-      <c r="FM5" s="119"/>
-      <c r="FN5" s="119"/>
-      <c r="FO5" s="119"/>
-      <c r="FP5" s="119"/>
-      <c r="FQ5" s="119"/>
-      <c r="FR5" s="119"/>
-      <c r="FS5" s="119"/>
-      <c r="FT5" s="119"/>
-      <c r="FU5" s="119"/>
-      <c r="FV5" s="119"/>
-      <c r="FW5" s="119"/>
-      <c r="FX5" s="119"/>
-      <c r="FY5" s="119"/>
-      <c r="FZ5" s="119"/>
-      <c r="GA5" s="119"/>
-      <c r="GB5" s="119"/>
-      <c r="GC5" s="141"/>
+      <c r="DG5" s="148"/>
+      <c r="DH5" s="148"/>
+      <c r="DI5" s="148"/>
+      <c r="DJ5" s="148"/>
+      <c r="DK5" s="148"/>
+      <c r="DL5" s="148"/>
+      <c r="DM5" s="148"/>
+      <c r="DN5" s="148"/>
+      <c r="DO5" s="148"/>
+      <c r="DP5" s="148"/>
+      <c r="DQ5" s="148"/>
+      <c r="DR5" s="148"/>
+      <c r="DS5" s="148"/>
+      <c r="DT5" s="148"/>
+      <c r="DU5" s="148"/>
+      <c r="DV5" s="148"/>
+      <c r="DW5" s="148"/>
+      <c r="DX5" s="148"/>
+      <c r="DY5" s="148"/>
+      <c r="DZ5" s="148"/>
+      <c r="EA5" s="148"/>
+      <c r="EB5" s="148"/>
+      <c r="EC5" s="148"/>
+      <c r="ED5" s="148"/>
+      <c r="EE5" s="148"/>
+      <c r="EF5" s="148"/>
+      <c r="EG5" s="148"/>
+      <c r="EH5" s="148"/>
+      <c r="EI5" s="148"/>
+      <c r="EJ5" s="148"/>
+      <c r="EK5" s="148"/>
+      <c r="EL5" s="148"/>
+      <c r="EM5" s="148"/>
+      <c r="EN5" s="148"/>
+      <c r="EO5" s="148"/>
+      <c r="EP5" s="148"/>
+      <c r="EQ5" s="148"/>
+      <c r="ER5" s="148"/>
+      <c r="ES5" s="148"/>
+      <c r="ET5" s="148"/>
+      <c r="EU5" s="148"/>
+      <c r="EV5" s="148"/>
+      <c r="EW5" s="148"/>
+      <c r="EX5" s="148"/>
+      <c r="EY5" s="148"/>
+      <c r="EZ5" s="148"/>
+      <c r="FA5" s="148"/>
+      <c r="FB5" s="148"/>
+      <c r="FC5" s="148"/>
+      <c r="FD5" s="148"/>
+      <c r="FE5" s="148"/>
+      <c r="FF5" s="148"/>
+      <c r="FG5" s="148"/>
+      <c r="FH5" s="148"/>
+      <c r="FI5" s="148"/>
+      <c r="FJ5" s="148"/>
+      <c r="FK5" s="148"/>
+      <c r="FL5" s="148"/>
+      <c r="FM5" s="148"/>
+      <c r="FN5" s="148"/>
+      <c r="FO5" s="148"/>
+      <c r="FP5" s="148"/>
+      <c r="FQ5" s="148"/>
+      <c r="FR5" s="148"/>
+      <c r="FS5" s="148"/>
+      <c r="FT5" s="148"/>
+      <c r="FU5" s="148"/>
+      <c r="FV5" s="148"/>
+      <c r="FW5" s="148"/>
+      <c r="FX5" s="148"/>
+      <c r="FY5" s="148"/>
+      <c r="FZ5" s="148"/>
+      <c r="GA5" s="148"/>
+      <c r="GB5" s="148"/>
+      <c r="GC5" s="170"/>
     </row>
     <row r="6" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="116" t="s">
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117" t="s">
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117"/>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="117"/>
-      <c r="AA6" s="117"/>
-      <c r="AB6" s="117"/>
-      <c r="AC6" s="117"/>
-      <c r="AD6" s="117"/>
-      <c r="AE6" s="117"/>
-      <c r="AF6" s="117"/>
-      <c r="AG6" s="117"/>
-      <c r="AH6" s="117"/>
-      <c r="AI6" s="117"/>
-      <c r="AJ6" s="117"/>
-      <c r="AK6" s="117"/>
-      <c r="AL6" s="117"/>
-      <c r="AM6" s="117"/>
-      <c r="AN6" s="117"/>
-      <c r="AO6" s="117"/>
-      <c r="AP6" s="117"/>
-      <c r="AQ6" s="117"/>
-      <c r="AR6" s="117"/>
-      <c r="AS6" s="117"/>
-      <c r="AT6" s="117"/>
-      <c r="AU6" s="117"/>
-      <c r="AV6" s="117"/>
-      <c r="AW6" s="117" t="s">
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="146"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="146"/>
+      <c r="AF6" s="146"/>
+      <c r="AG6" s="146"/>
+      <c r="AH6" s="146"/>
+      <c r="AI6" s="146"/>
+      <c r="AJ6" s="146"/>
+      <c r="AK6" s="146"/>
+      <c r="AL6" s="146"/>
+      <c r="AM6" s="146"/>
+      <c r="AN6" s="146"/>
+      <c r="AO6" s="146"/>
+      <c r="AP6" s="146"/>
+      <c r="AQ6" s="146"/>
+      <c r="AR6" s="146"/>
+      <c r="AS6" s="146"/>
+      <c r="AT6" s="146"/>
+      <c r="AU6" s="146"/>
+      <c r="AV6" s="146"/>
+      <c r="AW6" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="AX6" s="117"/>
-      <c r="AY6" s="117"/>
-      <c r="AZ6" s="117"/>
-      <c r="BA6" s="117"/>
-      <c r="BB6" s="117"/>
-      <c r="BC6" s="117"/>
-      <c r="BD6" s="117"/>
-      <c r="BE6" s="117"/>
-      <c r="BF6" s="117"/>
-      <c r="BG6" s="117"/>
-      <c r="BH6" s="117"/>
-      <c r="BI6" s="117"/>
-      <c r="BJ6" s="117"/>
-      <c r="BK6" s="117"/>
-      <c r="BL6" s="117"/>
-      <c r="BM6" s="117"/>
-      <c r="BN6" s="117"/>
-      <c r="BO6" s="117"/>
-      <c r="BP6" s="117"/>
-      <c r="BQ6" s="117"/>
-      <c r="BR6" s="117"/>
-      <c r="BS6" s="117"/>
-      <c r="BT6" s="117"/>
-      <c r="BU6" s="117"/>
-      <c r="BV6" s="117"/>
-      <c r="BW6" s="117"/>
-      <c r="BX6" s="117"/>
-      <c r="BY6" s="117"/>
-      <c r="BZ6" s="117"/>
-      <c r="CA6" s="117" t="s">
+      <c r="AX6" s="146"/>
+      <c r="AY6" s="146"/>
+      <c r="AZ6" s="146"/>
+      <c r="BA6" s="146"/>
+      <c r="BB6" s="146"/>
+      <c r="BC6" s="146"/>
+      <c r="BD6" s="146"/>
+      <c r="BE6" s="146"/>
+      <c r="BF6" s="146"/>
+      <c r="BG6" s="146"/>
+      <c r="BH6" s="146"/>
+      <c r="BI6" s="146"/>
+      <c r="BJ6" s="146"/>
+      <c r="BK6" s="146"/>
+      <c r="BL6" s="146"/>
+      <c r="BM6" s="146"/>
+      <c r="BN6" s="146"/>
+      <c r="BO6" s="146"/>
+      <c r="BP6" s="146"/>
+      <c r="BQ6" s="146"/>
+      <c r="BR6" s="146"/>
+      <c r="BS6" s="146"/>
+      <c r="BT6" s="146"/>
+      <c r="BU6" s="146"/>
+      <c r="BV6" s="146"/>
+      <c r="BW6" s="146"/>
+      <c r="BX6" s="146"/>
+      <c r="BY6" s="146"/>
+      <c r="BZ6" s="146"/>
+      <c r="CA6" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="CB6" s="117"/>
-      <c r="CC6" s="117"/>
-      <c r="CD6" s="117"/>
-      <c r="CE6" s="117"/>
-      <c r="CF6" s="117"/>
-      <c r="CG6" s="117"/>
-      <c r="CH6" s="117"/>
-      <c r="CI6" s="117"/>
-      <c r="CJ6" s="117"/>
-      <c r="CK6" s="117"/>
-      <c r="CL6" s="117"/>
-      <c r="CM6" s="117"/>
-      <c r="CN6" s="117"/>
-      <c r="CO6" s="117"/>
-      <c r="CP6" s="117"/>
-      <c r="CQ6" s="117"/>
-      <c r="CR6" s="117"/>
-      <c r="CS6" s="117"/>
-      <c r="CT6" s="117"/>
-      <c r="CU6" s="117"/>
-      <c r="CV6" s="117"/>
-      <c r="CW6" s="117"/>
-      <c r="CX6" s="117"/>
-      <c r="CY6" s="117"/>
-      <c r="CZ6" s="117"/>
-      <c r="DA6" s="117"/>
-      <c r="DB6" s="117"/>
-      <c r="DC6" s="117"/>
-      <c r="DD6" s="117"/>
-      <c r="DE6" s="117"/>
-      <c r="DF6" s="117" t="s">
+      <c r="CB6" s="146"/>
+      <c r="CC6" s="146"/>
+      <c r="CD6" s="146"/>
+      <c r="CE6" s="146"/>
+      <c r="CF6" s="146"/>
+      <c r="CG6" s="146"/>
+      <c r="CH6" s="146"/>
+      <c r="CI6" s="146"/>
+      <c r="CJ6" s="146"/>
+      <c r="CK6" s="146"/>
+      <c r="CL6" s="146"/>
+      <c r="CM6" s="146"/>
+      <c r="CN6" s="146"/>
+      <c r="CO6" s="146"/>
+      <c r="CP6" s="146"/>
+      <c r="CQ6" s="146"/>
+      <c r="CR6" s="146"/>
+      <c r="CS6" s="146"/>
+      <c r="CT6" s="146"/>
+      <c r="CU6" s="146"/>
+      <c r="CV6" s="146"/>
+      <c r="CW6" s="146"/>
+      <c r="CX6" s="146"/>
+      <c r="CY6" s="146"/>
+      <c r="CZ6" s="146"/>
+      <c r="DA6" s="146"/>
+      <c r="DB6" s="146"/>
+      <c r="DC6" s="146"/>
+      <c r="DD6" s="146"/>
+      <c r="DE6" s="146"/>
+      <c r="DF6" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="DG6" s="117"/>
-      <c r="DH6" s="117"/>
-      <c r="DI6" s="117"/>
-      <c r="DJ6" s="117"/>
-      <c r="DK6" s="117"/>
-      <c r="DL6" s="117"/>
-      <c r="DM6" s="117"/>
-      <c r="DN6" s="117"/>
-      <c r="DO6" s="117"/>
-      <c r="DP6" s="117"/>
-      <c r="DQ6" s="117"/>
-      <c r="DR6" s="117"/>
-      <c r="DS6" s="117"/>
-      <c r="DT6" s="117"/>
-      <c r="DU6" s="117"/>
-      <c r="DV6" s="117"/>
-      <c r="DW6" s="117"/>
-      <c r="DX6" s="117"/>
-      <c r="DY6" s="117"/>
-      <c r="DZ6" s="117"/>
-      <c r="EA6" s="117"/>
-      <c r="EB6" s="117"/>
-      <c r="EC6" s="117"/>
-      <c r="ED6" s="117"/>
-      <c r="EE6" s="117"/>
-      <c r="EF6" s="117"/>
-      <c r="EG6" s="117"/>
-      <c r="EH6" s="117"/>
-      <c r="EI6" s="117"/>
-      <c r="EJ6" s="117"/>
-      <c r="EK6" s="117" t="s">
+      <c r="DG6" s="146"/>
+      <c r="DH6" s="146"/>
+      <c r="DI6" s="146"/>
+      <c r="DJ6" s="146"/>
+      <c r="DK6" s="146"/>
+      <c r="DL6" s="146"/>
+      <c r="DM6" s="146"/>
+      <c r="DN6" s="146"/>
+      <c r="DO6" s="146"/>
+      <c r="DP6" s="146"/>
+      <c r="DQ6" s="146"/>
+      <c r="DR6" s="146"/>
+      <c r="DS6" s="146"/>
+      <c r="DT6" s="146"/>
+      <c r="DU6" s="146"/>
+      <c r="DV6" s="146"/>
+      <c r="DW6" s="146"/>
+      <c r="DX6" s="146"/>
+      <c r="DY6" s="146"/>
+      <c r="DZ6" s="146"/>
+      <c r="EA6" s="146"/>
+      <c r="EB6" s="146"/>
+      <c r="EC6" s="146"/>
+      <c r="ED6" s="146"/>
+      <c r="EE6" s="146"/>
+      <c r="EF6" s="146"/>
+      <c r="EG6" s="146"/>
+      <c r="EH6" s="146"/>
+      <c r="EI6" s="146"/>
+      <c r="EJ6" s="146"/>
+      <c r="EK6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="EL6" s="117"/>
-      <c r="EM6" s="117"/>
-      <c r="EN6" s="117"/>
-      <c r="EO6" s="117"/>
-      <c r="EP6" s="117"/>
-      <c r="EQ6" s="117"/>
-      <c r="ER6" s="117"/>
-      <c r="ES6" s="117"/>
-      <c r="ET6" s="117"/>
-      <c r="EU6" s="117"/>
-      <c r="EV6" s="117"/>
-      <c r="EW6" s="117"/>
-      <c r="EX6" s="117"/>
-      <c r="EY6" s="117"/>
-      <c r="EZ6" s="117"/>
-      <c r="FA6" s="117"/>
-      <c r="FB6" s="117"/>
-      <c r="FC6" s="117"/>
-      <c r="FD6" s="117"/>
-      <c r="FE6" s="117"/>
-      <c r="FF6" s="117"/>
-      <c r="FG6" s="117"/>
-      <c r="FH6" s="117"/>
-      <c r="FI6" s="117"/>
-      <c r="FJ6" s="117"/>
-      <c r="FK6" s="117"/>
-      <c r="FL6" s="117"/>
-      <c r="FM6" s="117" t="s">
+      <c r="EL6" s="146"/>
+      <c r="EM6" s="146"/>
+      <c r="EN6" s="146"/>
+      <c r="EO6" s="146"/>
+      <c r="EP6" s="146"/>
+      <c r="EQ6" s="146"/>
+      <c r="ER6" s="146"/>
+      <c r="ES6" s="146"/>
+      <c r="ET6" s="146"/>
+      <c r="EU6" s="146"/>
+      <c r="EV6" s="146"/>
+      <c r="EW6" s="146"/>
+      <c r="EX6" s="146"/>
+      <c r="EY6" s="146"/>
+      <c r="EZ6" s="146"/>
+      <c r="FA6" s="146"/>
+      <c r="FB6" s="146"/>
+      <c r="FC6" s="146"/>
+      <c r="FD6" s="146"/>
+      <c r="FE6" s="146"/>
+      <c r="FF6" s="146"/>
+      <c r="FG6" s="146"/>
+      <c r="FH6" s="146"/>
+      <c r="FI6" s="146"/>
+      <c r="FJ6" s="146"/>
+      <c r="FK6" s="146"/>
+      <c r="FL6" s="146"/>
+      <c r="FM6" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="FN6" s="117"/>
-      <c r="FO6" s="117"/>
-      <c r="FP6" s="117"/>
-      <c r="FQ6" s="117"/>
-      <c r="FR6" s="117"/>
-      <c r="FS6" s="117"/>
-      <c r="FT6" s="117"/>
-      <c r="FU6" s="117"/>
-      <c r="FV6" s="117"/>
-      <c r="FW6" s="117"/>
-      <c r="FX6" s="117"/>
-      <c r="FY6" s="117"/>
-      <c r="FZ6" s="117"/>
-      <c r="GA6" s="117"/>
-      <c r="GB6" s="117"/>
-      <c r="GC6" s="140"/>
+      <c r="FN6" s="146"/>
+      <c r="FO6" s="146"/>
+      <c r="FP6" s="146"/>
+      <c r="FQ6" s="146"/>
+      <c r="FR6" s="146"/>
+      <c r="FS6" s="146"/>
+      <c r="FT6" s="146"/>
+      <c r="FU6" s="146"/>
+      <c r="FV6" s="146"/>
+      <c r="FW6" s="146"/>
+      <c r="FX6" s="146"/>
+      <c r="FY6" s="146"/>
+      <c r="FZ6" s="146"/>
+      <c r="GA6" s="146"/>
+      <c r="GB6" s="146"/>
+      <c r="GC6" s="169"/>
     </row>
     <row r="7" spans="1:185" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="118" t="s">
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="123" t="s">
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="123" t="s">
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
+      <c r="R7" s="148"/>
+      <c r="S7" s="153"/>
+      <c r="T7" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="119"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="123" t="s">
+      <c r="U7" s="148"/>
+      <c r="V7" s="148"/>
+      <c r="W7" s="148"/>
+      <c r="X7" s="148"/>
+      <c r="Y7" s="148"/>
+      <c r="Z7" s="153"/>
+      <c r="AA7" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="123" t="s">
+      <c r="AB7" s="148"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="148"/>
+      <c r="AF7" s="148"/>
+      <c r="AG7" s="153"/>
+      <c r="AH7" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="119"/>
-      <c r="AK7" s="119"/>
-      <c r="AL7" s="119"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="124"/>
-      <c r="AO7" s="123" t="s">
+      <c r="AI7" s="148"/>
+      <c r="AJ7" s="148"/>
+      <c r="AK7" s="148"/>
+      <c r="AL7" s="148"/>
+      <c r="AM7" s="148"/>
+      <c r="AN7" s="153"/>
+      <c r="AO7" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="AP7" s="119"/>
-      <c r="AQ7" s="119"/>
-      <c r="AR7" s="119"/>
-      <c r="AS7" s="119"/>
-      <c r="AT7" s="119"/>
-      <c r="AU7" s="124"/>
-      <c r="AV7" s="123" t="s">
+      <c r="AP7" s="148"/>
+      <c r="AQ7" s="148"/>
+      <c r="AR7" s="148"/>
+      <c r="AS7" s="148"/>
+      <c r="AT7" s="148"/>
+      <c r="AU7" s="153"/>
+      <c r="AV7" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="AW7" s="119"/>
-      <c r="AX7" s="119"/>
-      <c r="AY7" s="119"/>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="119"/>
-      <c r="BB7" s="124"/>
-      <c r="BC7" s="123" t="s">
+      <c r="AW7" s="148"/>
+      <c r="AX7" s="148"/>
+      <c r="AY7" s="148"/>
+      <c r="AZ7" s="148"/>
+      <c r="BA7" s="148"/>
+      <c r="BB7" s="153"/>
+      <c r="BC7" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="BD7" s="119"/>
-      <c r="BE7" s="119"/>
-      <c r="BF7" s="119"/>
-      <c r="BG7" s="119"/>
-      <c r="BH7" s="119"/>
-      <c r="BI7" s="124"/>
-      <c r="BJ7" s="123" t="s">
+      <c r="BD7" s="148"/>
+      <c r="BE7" s="148"/>
+      <c r="BF7" s="148"/>
+      <c r="BG7" s="148"/>
+      <c r="BH7" s="148"/>
+      <c r="BI7" s="153"/>
+      <c r="BJ7" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="BK7" s="119"/>
-      <c r="BL7" s="119"/>
-      <c r="BM7" s="119"/>
-      <c r="BN7" s="119"/>
-      <c r="BO7" s="119"/>
-      <c r="BP7" s="124"/>
-      <c r="BQ7" s="123" t="s">
+      <c r="BK7" s="148"/>
+      <c r="BL7" s="148"/>
+      <c r="BM7" s="148"/>
+      <c r="BN7" s="148"/>
+      <c r="BO7" s="148"/>
+      <c r="BP7" s="153"/>
+      <c r="BQ7" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="BR7" s="119"/>
-      <c r="BS7" s="119"/>
-      <c r="BT7" s="119"/>
-      <c r="BU7" s="119"/>
-      <c r="BV7" s="119"/>
-      <c r="BW7" s="124"/>
-      <c r="BX7" s="123" t="s">
+      <c r="BR7" s="148"/>
+      <c r="BS7" s="148"/>
+      <c r="BT7" s="148"/>
+      <c r="BU7" s="148"/>
+      <c r="BV7" s="148"/>
+      <c r="BW7" s="153"/>
+      <c r="BX7" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="BY7" s="119"/>
-      <c r="BZ7" s="119"/>
-      <c r="CA7" s="119"/>
-      <c r="CB7" s="119"/>
-      <c r="CC7" s="119"/>
-      <c r="CD7" s="124"/>
-      <c r="CE7" s="123" t="s">
+      <c r="BY7" s="148"/>
+      <c r="BZ7" s="148"/>
+      <c r="CA7" s="148"/>
+      <c r="CB7" s="148"/>
+      <c r="CC7" s="148"/>
+      <c r="CD7" s="153"/>
+      <c r="CE7" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="CF7" s="119"/>
-      <c r="CG7" s="119"/>
-      <c r="CH7" s="119"/>
-      <c r="CI7" s="119"/>
-      <c r="CJ7" s="119"/>
-      <c r="CK7" s="124"/>
-      <c r="CL7" s="123" t="s">
+      <c r="CF7" s="148"/>
+      <c r="CG7" s="148"/>
+      <c r="CH7" s="148"/>
+      <c r="CI7" s="148"/>
+      <c r="CJ7" s="148"/>
+      <c r="CK7" s="153"/>
+      <c r="CL7" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="CM7" s="119"/>
-      <c r="CN7" s="119"/>
-      <c r="CO7" s="119"/>
-      <c r="CP7" s="119"/>
-      <c r="CQ7" s="119"/>
-      <c r="CR7" s="124"/>
-      <c r="CS7" s="123" t="s">
+      <c r="CM7" s="148"/>
+      <c r="CN7" s="148"/>
+      <c r="CO7" s="148"/>
+      <c r="CP7" s="148"/>
+      <c r="CQ7" s="148"/>
+      <c r="CR7" s="153"/>
+      <c r="CS7" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="CT7" s="119"/>
-      <c r="CU7" s="119"/>
-      <c r="CV7" s="119"/>
-      <c r="CW7" s="119"/>
-      <c r="CX7" s="119"/>
-      <c r="CY7" s="124"/>
-      <c r="CZ7" s="123" t="s">
+      <c r="CT7" s="148"/>
+      <c r="CU7" s="148"/>
+      <c r="CV7" s="148"/>
+      <c r="CW7" s="148"/>
+      <c r="CX7" s="148"/>
+      <c r="CY7" s="153"/>
+      <c r="CZ7" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="DA7" s="119"/>
-      <c r="DB7" s="119"/>
-      <c r="DC7" s="119"/>
-      <c r="DD7" s="119"/>
-      <c r="DE7" s="119"/>
-      <c r="DF7" s="119"/>
-      <c r="DG7" s="123" t="s">
+      <c r="DA7" s="148"/>
+      <c r="DB7" s="148"/>
+      <c r="DC7" s="148"/>
+      <c r="DD7" s="148"/>
+      <c r="DE7" s="148"/>
+      <c r="DF7" s="148"/>
+      <c r="DG7" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="DH7" s="119"/>
-      <c r="DI7" s="119"/>
-      <c r="DJ7" s="119"/>
-      <c r="DK7" s="119"/>
-      <c r="DL7" s="119"/>
-      <c r="DM7" s="124"/>
-      <c r="DN7" s="119" t="s">
+      <c r="DH7" s="148"/>
+      <c r="DI7" s="148"/>
+      <c r="DJ7" s="148"/>
+      <c r="DK7" s="148"/>
+      <c r="DL7" s="148"/>
+      <c r="DM7" s="153"/>
+      <c r="DN7" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="DO7" s="119"/>
-      <c r="DP7" s="119"/>
-      <c r="DQ7" s="119"/>
-      <c r="DR7" s="119"/>
-      <c r="DS7" s="119"/>
-      <c r="DT7" s="119"/>
-      <c r="DU7" s="123" t="s">
+      <c r="DO7" s="148"/>
+      <c r="DP7" s="148"/>
+      <c r="DQ7" s="148"/>
+      <c r="DR7" s="148"/>
+      <c r="DS7" s="148"/>
+      <c r="DT7" s="148"/>
+      <c r="DU7" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="DV7" s="119"/>
-      <c r="DW7" s="119"/>
-      <c r="DX7" s="119"/>
-      <c r="DY7" s="119"/>
-      <c r="DZ7" s="119"/>
-      <c r="EA7" s="124"/>
-      <c r="EB7" s="119" t="s">
+      <c r="DV7" s="148"/>
+      <c r="DW7" s="148"/>
+      <c r="DX7" s="148"/>
+      <c r="DY7" s="148"/>
+      <c r="DZ7" s="148"/>
+      <c r="EA7" s="153"/>
+      <c r="EB7" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="EC7" s="119"/>
-      <c r="ED7" s="119"/>
-      <c r="EE7" s="119"/>
-      <c r="EF7" s="119"/>
-      <c r="EG7" s="119"/>
-      <c r="EH7" s="119"/>
-      <c r="EI7" s="123" t="s">
+      <c r="EC7" s="148"/>
+      <c r="ED7" s="148"/>
+      <c r="EE7" s="148"/>
+      <c r="EF7" s="148"/>
+      <c r="EG7" s="148"/>
+      <c r="EH7" s="148"/>
+      <c r="EI7" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="EJ7" s="119"/>
-      <c r="EK7" s="119"/>
-      <c r="EL7" s="119"/>
-      <c r="EM7" s="119"/>
-      <c r="EN7" s="119"/>
-      <c r="EO7" s="124"/>
-      <c r="EP7" s="119" t="s">
+      <c r="EJ7" s="148"/>
+      <c r="EK7" s="148"/>
+      <c r="EL7" s="148"/>
+      <c r="EM7" s="148"/>
+      <c r="EN7" s="148"/>
+      <c r="EO7" s="153"/>
+      <c r="EP7" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="EQ7" s="119"/>
-      <c r="ER7" s="119"/>
-      <c r="ES7" s="119"/>
-      <c r="ET7" s="119"/>
-      <c r="EU7" s="119"/>
-      <c r="EV7" s="119"/>
-      <c r="EW7" s="123" t="s">
+      <c r="EQ7" s="148"/>
+      <c r="ER7" s="148"/>
+      <c r="ES7" s="148"/>
+      <c r="ET7" s="148"/>
+      <c r="EU7" s="148"/>
+      <c r="EV7" s="148"/>
+      <c r="EW7" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="EX7" s="119"/>
-      <c r="EY7" s="119"/>
-      <c r="EZ7" s="119"/>
-      <c r="FA7" s="119"/>
-      <c r="FB7" s="119"/>
-      <c r="FC7" s="124"/>
-      <c r="FD7" s="119" t="s">
+      <c r="EX7" s="148"/>
+      <c r="EY7" s="148"/>
+      <c r="EZ7" s="148"/>
+      <c r="FA7" s="148"/>
+      <c r="FB7" s="148"/>
+      <c r="FC7" s="153"/>
+      <c r="FD7" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="FE7" s="119"/>
-      <c r="FF7" s="119"/>
-      <c r="FG7" s="119"/>
-      <c r="FH7" s="119"/>
-      <c r="FI7" s="119"/>
-      <c r="FJ7" s="119"/>
-      <c r="FK7" s="123" t="s">
+      <c r="FE7" s="148"/>
+      <c r="FF7" s="148"/>
+      <c r="FG7" s="148"/>
+      <c r="FH7" s="148"/>
+      <c r="FI7" s="148"/>
+      <c r="FJ7" s="148"/>
+      <c r="FK7" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="FL7" s="119"/>
-      <c r="FM7" s="119"/>
-      <c r="FN7" s="119"/>
-      <c r="FO7" s="119"/>
-      <c r="FP7" s="119"/>
-      <c r="FQ7" s="124"/>
-      <c r="FR7" s="119" t="s">
+      <c r="FL7" s="148"/>
+      <c r="FM7" s="148"/>
+      <c r="FN7" s="148"/>
+      <c r="FO7" s="148"/>
+      <c r="FP7" s="148"/>
+      <c r="FQ7" s="153"/>
+      <c r="FR7" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="FS7" s="119"/>
-      <c r="FT7" s="119"/>
-      <c r="FU7" s="119"/>
-      <c r="FV7" s="119"/>
-      <c r="FW7" s="119"/>
-      <c r="FX7" s="119"/>
-      <c r="FY7" s="123" t="s">
+      <c r="FS7" s="148"/>
+      <c r="FT7" s="148"/>
+      <c r="FU7" s="148"/>
+      <c r="FV7" s="148"/>
+      <c r="FW7" s="148"/>
+      <c r="FX7" s="148"/>
+      <c r="FY7" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="FZ7" s="119"/>
-      <c r="GA7" s="119"/>
-      <c r="GB7" s="119"/>
-      <c r="GC7" s="141"/>
+      <c r="FZ7" s="148"/>
+      <c r="GA7" s="148"/>
+      <c r="GB7" s="148"/>
+      <c r="GC7" s="170"/>
     </row>
     <row r="8" spans="1:185" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="151"/>
       <c r="F8" s="25">
         <v>19</v>
       </c>
@@ -4277,7 +5416,7 @@
       <c r="DL8" s="25">
         <v>7</v>
       </c>
-      <c r="DM8" s="62">
+      <c r="DM8" s="61">
         <v>8</v>
       </c>
       <c r="DN8" s="25">
@@ -4319,7 +5458,7 @@
       <c r="DZ8" s="25">
         <v>21</v>
       </c>
-      <c r="EA8" s="62">
+      <c r="EA8" s="61">
         <v>22</v>
       </c>
       <c r="EB8" s="25">
@@ -4361,7 +5500,7 @@
       <c r="EN8" s="25">
         <v>4</v>
       </c>
-      <c r="EO8" s="62">
+      <c r="EO8" s="61">
         <v>5</v>
       </c>
       <c r="EP8" s="25">
@@ -4403,7 +5542,7 @@
       <c r="FB8" s="25">
         <v>18</v>
       </c>
-      <c r="FC8" s="62">
+      <c r="FC8" s="61">
         <v>19</v>
       </c>
       <c r="FD8" s="25">
@@ -4445,7 +5584,7 @@
       <c r="FP8" s="25">
         <v>4</v>
       </c>
-      <c r="FQ8" s="62">
+      <c r="FQ8" s="61">
         <v>5</v>
       </c>
       <c r="FR8" s="25">
@@ -4525,44 +5664,44 @@
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="7"/>
-      <c r="AO9" s="74"/>
-      <c r="AP9" s="68"/>
-      <c r="AQ9" s="68"/>
-      <c r="AR9" s="68"/>
-      <c r="AS9" s="68"/>
-      <c r="AT9" s="68"/>
-      <c r="AU9" s="69"/>
-      <c r="AV9" s="68"/>
-      <c r="AW9" s="68"/>
-      <c r="AX9" s="68"/>
-      <c r="AY9" s="68"/>
-      <c r="AZ9" s="68"/>
-      <c r="BA9" s="68"/>
-      <c r="BB9" s="68"/>
-      <c r="BC9" s="70"/>
-      <c r="BD9" s="68"/>
-      <c r="BE9" s="68"/>
-      <c r="BF9" s="68"/>
-      <c r="BG9" s="68"/>
-      <c r="BH9" s="68"/>
-      <c r="BI9" s="69"/>
-      <c r="BJ9" s="68"/>
-      <c r="BK9" s="68"/>
-      <c r="BL9" s="68"/>
-      <c r="BM9" s="68"/>
-      <c r="BN9" s="68"/>
-      <c r="BO9" s="68"/>
-      <c r="BP9" s="68"/>
-      <c r="BQ9" s="70"/>
-      <c r="BR9" s="68"/>
-      <c r="BS9" s="68"/>
-      <c r="BT9" s="68"/>
-      <c r="BU9" s="68"/>
-      <c r="BV9" s="68"/>
-      <c r="BW9" s="69"/>
-      <c r="BX9" s="68"/>
-      <c r="BY9" s="68"/>
-      <c r="BZ9" s="71"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="67"/>
+      <c r="AQ9" s="67"/>
+      <c r="AR9" s="67"/>
+      <c r="AS9" s="67"/>
+      <c r="AT9" s="67"/>
+      <c r="AU9" s="68"/>
+      <c r="AV9" s="67"/>
+      <c r="AW9" s="67"/>
+      <c r="AX9" s="67"/>
+      <c r="AY9" s="67"/>
+      <c r="AZ9" s="67"/>
+      <c r="BA9" s="67"/>
+      <c r="BB9" s="67"/>
+      <c r="BC9" s="69"/>
+      <c r="BD9" s="67"/>
+      <c r="BE9" s="67"/>
+      <c r="BF9" s="67"/>
+      <c r="BG9" s="67"/>
+      <c r="BH9" s="67"/>
+      <c r="BI9" s="68"/>
+      <c r="BJ9" s="67"/>
+      <c r="BK9" s="67"/>
+      <c r="BL9" s="67"/>
+      <c r="BM9" s="67"/>
+      <c r="BN9" s="67"/>
+      <c r="BO9" s="67"/>
+      <c r="BP9" s="67"/>
+      <c r="BQ9" s="69"/>
+      <c r="BR9" s="67"/>
+      <c r="BS9" s="67"/>
+      <c r="BT9" s="67"/>
+      <c r="BU9" s="67"/>
+      <c r="BV9" s="67"/>
+      <c r="BW9" s="68"/>
+      <c r="BX9" s="67"/>
+      <c r="BY9" s="67"/>
+      <c r="BZ9" s="70"/>
       <c r="CA9" s="7"/>
       <c r="CB9" s="7"/>
       <c r="CC9" s="7"/>
@@ -4584,41 +5723,41 @@
       <c r="CS9" s="35"/>
       <c r="CT9" s="7"/>
       <c r="CU9" s="7"/>
-      <c r="CV9" s="65"/>
-      <c r="CW9" s="68"/>
-      <c r="CX9" s="68"/>
-      <c r="CY9" s="69"/>
-      <c r="CZ9" s="68"/>
-      <c r="DA9" s="68"/>
-      <c r="DB9" s="68"/>
-      <c r="DC9" s="68"/>
-      <c r="DD9" s="68"/>
-      <c r="DE9" s="68"/>
-      <c r="DF9" s="68"/>
-      <c r="DG9" s="70"/>
-      <c r="DH9" s="68"/>
-      <c r="DI9" s="68"/>
-      <c r="DJ9" s="68"/>
-      <c r="DK9" s="68"/>
-      <c r="DL9" s="68"/>
-      <c r="DM9" s="69"/>
-      <c r="DN9" s="68"/>
-      <c r="DO9" s="68"/>
-      <c r="DP9" s="68"/>
-      <c r="DQ9" s="68"/>
-      <c r="DR9" s="68"/>
-      <c r="DS9" s="68"/>
-      <c r="DT9" s="68"/>
-      <c r="DU9" s="70"/>
-      <c r="DV9" s="68"/>
-      <c r="DW9" s="68"/>
-      <c r="DX9" s="68"/>
-      <c r="DY9" s="68"/>
-      <c r="DZ9" s="68"/>
-      <c r="EA9" s="69"/>
-      <c r="EB9" s="68"/>
-      <c r="EC9" s="68"/>
-      <c r="ED9" s="71"/>
+      <c r="CV9" s="64"/>
+      <c r="CW9" s="67"/>
+      <c r="CX9" s="67"/>
+      <c r="CY9" s="68"/>
+      <c r="CZ9" s="67"/>
+      <c r="DA9" s="67"/>
+      <c r="DB9" s="67"/>
+      <c r="DC9" s="67"/>
+      <c r="DD9" s="67"/>
+      <c r="DE9" s="67"/>
+      <c r="DF9" s="67"/>
+      <c r="DG9" s="69"/>
+      <c r="DH9" s="67"/>
+      <c r="DI9" s="67"/>
+      <c r="DJ9" s="67"/>
+      <c r="DK9" s="67"/>
+      <c r="DL9" s="67"/>
+      <c r="DM9" s="68"/>
+      <c r="DN9" s="67"/>
+      <c r="DO9" s="67"/>
+      <c r="DP9" s="67"/>
+      <c r="DQ9" s="67"/>
+      <c r="DR9" s="67"/>
+      <c r="DS9" s="67"/>
+      <c r="DT9" s="67"/>
+      <c r="DU9" s="69"/>
+      <c r="DV9" s="67"/>
+      <c r="DW9" s="67"/>
+      <c r="DX9" s="67"/>
+      <c r="DY9" s="67"/>
+      <c r="DZ9" s="67"/>
+      <c r="EA9" s="68"/>
+      <c r="EB9" s="67"/>
+      <c r="EC9" s="67"/>
+      <c r="ED9" s="70"/>
       <c r="EE9" s="7"/>
       <c r="EF9" s="7"/>
       <c r="EG9" s="7"/>
@@ -4653,7 +5792,7 @@
       <c r="FJ9" s="7"/>
       <c r="FK9" s="35"/>
       <c r="FL9" s="7"/>
-      <c r="FM9" s="65"/>
+      <c r="FM9" s="64"/>
       <c r="FN9" s="7"/>
       <c r="FO9" s="7"/>
       <c r="FP9" s="7"/>
@@ -4678,7 +5817,7 @@
       <c r="B10" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="51">
         <v>42666</v>
       </c>
       <c r="D10" s="40"/>
@@ -4718,7 +5857,7 @@
       <c r="AL10" s="40"/>
       <c r="AM10" s="40"/>
       <c r="AN10" s="40"/>
-      <c r="AO10" s="75"/>
+      <c r="AO10" s="74"/>
       <c r="AP10" s="40"/>
       <c r="AQ10" s="40"/>
       <c r="AR10" s="40"/>
@@ -4755,7 +5894,7 @@
       <c r="BW10" s="41"/>
       <c r="BX10" s="40"/>
       <c r="BY10" s="40"/>
-      <c r="BZ10" s="72"/>
+      <c r="BZ10" s="71"/>
       <c r="CA10" s="40"/>
       <c r="CB10" s="40"/>
       <c r="CC10" s="40"/>
@@ -4777,7 +5916,7 @@
       <c r="CS10" s="39"/>
       <c r="CT10" s="40"/>
       <c r="CU10" s="40"/>
-      <c r="CV10" s="66"/>
+      <c r="CV10" s="65"/>
       <c r="CW10" s="40"/>
       <c r="CX10" s="40"/>
       <c r="CY10" s="41"/>
@@ -4811,7 +5950,7 @@
       <c r="EA10" s="41"/>
       <c r="EB10" s="40"/>
       <c r="EC10" s="40"/>
-      <c r="ED10" s="72"/>
+      <c r="ED10" s="71"/>
       <c r="EE10" s="40"/>
       <c r="EF10" s="40"/>
       <c r="EG10" s="40"/>
@@ -4846,7 +5985,7 @@
       <c r="FJ10" s="40"/>
       <c r="FK10" s="39"/>
       <c r="FL10" s="40"/>
-      <c r="FM10" s="66"/>
+      <c r="FM10" s="65"/>
       <c r="FN10" s="40"/>
       <c r="FO10" s="40"/>
       <c r="FP10" s="40"/>
@@ -4874,29 +6013,29 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="42"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="83"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="82"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
@@ -4909,7 +6048,7 @@
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
-      <c r="AO11" s="76"/>
+      <c r="AO11" s="75"/>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11"/>
@@ -4946,7 +6085,7 @@
       <c r="BW11" s="22"/>
       <c r="BX11" s="11"/>
       <c r="BY11" s="11"/>
-      <c r="BZ11" s="73"/>
+      <c r="BZ11" s="72"/>
       <c r="CA11" s="11"/>
       <c r="CB11" s="11"/>
       <c r="CC11" s="11"/>
@@ -4968,7 +6107,7 @@
       <c r="CS11" s="23"/>
       <c r="CT11" s="11"/>
       <c r="CU11" s="11"/>
-      <c r="CV11" s="67"/>
+      <c r="CV11" s="66"/>
       <c r="CW11" s="11"/>
       <c r="CX11" s="11"/>
       <c r="CY11" s="22"/>
@@ -5002,7 +6141,7 @@
       <c r="EA11" s="22"/>
       <c r="EB11" s="11"/>
       <c r="EC11" s="11"/>
-      <c r="ED11" s="73"/>
+      <c r="ED11" s="72"/>
       <c r="EE11" s="11"/>
       <c r="EF11" s="11"/>
       <c r="EG11" s="11"/>
@@ -5037,7 +6176,7 @@
       <c r="FJ11" s="11"/>
       <c r="FK11" s="23"/>
       <c r="FL11" s="11"/>
-      <c r="FM11" s="67"/>
+      <c r="FM11" s="66"/>
       <c r="FN11" s="11"/>
       <c r="FO11" s="11"/>
       <c r="FP11" s="11"/>
@@ -5055,192 +6194,192 @@
       <c r="GB11" s="11"/>
       <c r="GC11" s="24"/>
     </row>
-    <row r="12" spans="1:185" s="61" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="80"/>
-      <c r="AP12" s="56"/>
-      <c r="AQ12" s="56"/>
-      <c r="AR12" s="56"/>
-      <c r="AS12" s="56"/>
-      <c r="AT12" s="56"/>
-      <c r="AU12" s="59"/>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="56"/>
-      <c r="AY12" s="56"/>
-      <c r="AZ12" s="56"/>
-      <c r="BA12" s="56"/>
-      <c r="BB12" s="56"/>
-      <c r="BC12" s="58"/>
-      <c r="BD12" s="56"/>
-      <c r="BE12" s="56"/>
-      <c r="BF12" s="56"/>
-      <c r="BG12" s="56"/>
-      <c r="BH12" s="56"/>
-      <c r="BI12" s="59"/>
-      <c r="BJ12" s="56"/>
-      <c r="BK12" s="56"/>
-      <c r="BL12" s="56"/>
-      <c r="BM12" s="56"/>
-      <c r="BN12" s="56"/>
-      <c r="BO12" s="56"/>
-      <c r="BP12" s="56"/>
-      <c r="BQ12" s="58"/>
-      <c r="BR12" s="56"/>
-      <c r="BS12" s="56"/>
-      <c r="BT12" s="56"/>
-      <c r="BU12" s="56"/>
-      <c r="BV12" s="56"/>
-      <c r="BW12" s="59"/>
-      <c r="BX12" s="56"/>
-      <c r="BY12" s="56"/>
-      <c r="BZ12" s="81"/>
-      <c r="CA12" s="56"/>
-      <c r="CB12" s="56"/>
-      <c r="CC12" s="56"/>
-      <c r="CD12" s="56"/>
-      <c r="CE12" s="58"/>
-      <c r="CF12" s="56"/>
-      <c r="CG12" s="56"/>
-      <c r="CH12" s="56"/>
-      <c r="CI12" s="56"/>
-      <c r="CJ12" s="56"/>
-      <c r="CK12" s="59"/>
-      <c r="CL12" s="56"/>
-      <c r="CM12" s="56"/>
-      <c r="CN12" s="56"/>
-      <c r="CO12" s="56"/>
-      <c r="CP12" s="56"/>
-      <c r="CQ12" s="56"/>
-      <c r="CR12" s="56"/>
-      <c r="CS12" s="58"/>
-      <c r="CT12" s="56"/>
-      <c r="CU12" s="56"/>
-      <c r="CV12" s="82"/>
-      <c r="CW12" s="56"/>
-      <c r="CX12" s="56"/>
-      <c r="CY12" s="59"/>
-      <c r="CZ12" s="56"/>
-      <c r="DA12" s="56"/>
-      <c r="DB12" s="56"/>
-      <c r="DC12" s="56"/>
-      <c r="DD12" s="56"/>
-      <c r="DE12" s="56"/>
-      <c r="DF12" s="56"/>
-      <c r="DG12" s="58"/>
-      <c r="DH12" s="56"/>
-      <c r="DI12" s="56"/>
-      <c r="DJ12" s="56"/>
-      <c r="DK12" s="56"/>
-      <c r="DL12" s="56"/>
-      <c r="DM12" s="59"/>
-      <c r="DN12" s="56"/>
-      <c r="DO12" s="56"/>
-      <c r="DP12" s="56"/>
-      <c r="DQ12" s="56"/>
-      <c r="DR12" s="56"/>
-      <c r="DS12" s="56"/>
-      <c r="DT12" s="56"/>
-      <c r="DU12" s="58"/>
-      <c r="DV12" s="56"/>
-      <c r="DW12" s="56"/>
-      <c r="DX12" s="56"/>
-      <c r="DY12" s="56"/>
-      <c r="DZ12" s="56"/>
-      <c r="EA12" s="59"/>
-      <c r="EB12" s="56"/>
-      <c r="EC12" s="56"/>
-      <c r="ED12" s="81"/>
-      <c r="EE12" s="56"/>
-      <c r="EF12" s="56"/>
-      <c r="EG12" s="56"/>
-      <c r="EH12" s="56"/>
-      <c r="EI12" s="58"/>
-      <c r="EJ12" s="56"/>
-      <c r="EK12" s="56"/>
-      <c r="EL12" s="56"/>
-      <c r="EM12" s="56"/>
-      <c r="EN12" s="56"/>
-      <c r="EO12" s="59"/>
-      <c r="EP12" s="56"/>
-      <c r="EQ12" s="56"/>
-      <c r="ER12" s="56"/>
-      <c r="ES12" s="56"/>
-      <c r="ET12" s="56"/>
-      <c r="EU12" s="56"/>
-      <c r="EV12" s="56"/>
-      <c r="EW12" s="58"/>
-      <c r="EX12" s="56"/>
-      <c r="EY12" s="56"/>
-      <c r="EZ12" s="56"/>
-      <c r="FA12" s="56"/>
-      <c r="FB12" s="56"/>
-      <c r="FC12" s="59"/>
-      <c r="FD12" s="56"/>
-      <c r="FE12" s="56"/>
-      <c r="FF12" s="56"/>
-      <c r="FG12" s="56"/>
-      <c r="FH12" s="56"/>
-      <c r="FI12" s="56"/>
-      <c r="FJ12" s="56"/>
-      <c r="FK12" s="58"/>
-      <c r="FL12" s="56"/>
-      <c r="FM12" s="82"/>
-      <c r="FN12" s="56"/>
-      <c r="FO12" s="56"/>
-      <c r="FP12" s="56"/>
-      <c r="FQ12" s="59"/>
-      <c r="FR12" s="56"/>
-      <c r="FS12" s="56"/>
-      <c r="FT12" s="56"/>
-      <c r="FU12" s="56"/>
-      <c r="FV12" s="56"/>
-      <c r="FW12" s="56"/>
-      <c r="FX12" s="56"/>
-      <c r="FY12" s="58"/>
-      <c r="FZ12" s="56"/>
-      <c r="GA12" s="56"/>
-      <c r="GB12" s="56"/>
-      <c r="GC12" s="60"/>
+    <row r="12" spans="1:185" s="60" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="79"/>
+      <c r="AP12" s="55"/>
+      <c r="AQ12" s="55"/>
+      <c r="AR12" s="55"/>
+      <c r="AS12" s="55"/>
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="58"/>
+      <c r="AV12" s="55"/>
+      <c r="AW12" s="55"/>
+      <c r="AX12" s="55"/>
+      <c r="AY12" s="55"/>
+      <c r="AZ12" s="55"/>
+      <c r="BA12" s="55"/>
+      <c r="BB12" s="55"/>
+      <c r="BC12" s="57"/>
+      <c r="BD12" s="55"/>
+      <c r="BE12" s="55"/>
+      <c r="BF12" s="55"/>
+      <c r="BG12" s="55"/>
+      <c r="BH12" s="55"/>
+      <c r="BI12" s="58"/>
+      <c r="BJ12" s="55"/>
+      <c r="BK12" s="55"/>
+      <c r="BL12" s="55"/>
+      <c r="BM12" s="55"/>
+      <c r="BN12" s="55"/>
+      <c r="BO12" s="55"/>
+      <c r="BP12" s="55"/>
+      <c r="BQ12" s="57"/>
+      <c r="BR12" s="55"/>
+      <c r="BS12" s="55"/>
+      <c r="BT12" s="55"/>
+      <c r="BU12" s="55"/>
+      <c r="BV12" s="55"/>
+      <c r="BW12" s="58"/>
+      <c r="BX12" s="55"/>
+      <c r="BY12" s="55"/>
+      <c r="BZ12" s="80"/>
+      <c r="CA12" s="55"/>
+      <c r="CB12" s="55"/>
+      <c r="CC12" s="55"/>
+      <c r="CD12" s="55"/>
+      <c r="CE12" s="57"/>
+      <c r="CF12" s="55"/>
+      <c r="CG12" s="55"/>
+      <c r="CH12" s="55"/>
+      <c r="CI12" s="55"/>
+      <c r="CJ12" s="55"/>
+      <c r="CK12" s="58"/>
+      <c r="CL12" s="55"/>
+      <c r="CM12" s="55"/>
+      <c r="CN12" s="55"/>
+      <c r="CO12" s="55"/>
+      <c r="CP12" s="55"/>
+      <c r="CQ12" s="55"/>
+      <c r="CR12" s="55"/>
+      <c r="CS12" s="57"/>
+      <c r="CT12" s="55"/>
+      <c r="CU12" s="55"/>
+      <c r="CV12" s="81"/>
+      <c r="CW12" s="55"/>
+      <c r="CX12" s="55"/>
+      <c r="CY12" s="58"/>
+      <c r="CZ12" s="55"/>
+      <c r="DA12" s="55"/>
+      <c r="DB12" s="55"/>
+      <c r="DC12" s="55"/>
+      <c r="DD12" s="55"/>
+      <c r="DE12" s="55"/>
+      <c r="DF12" s="55"/>
+      <c r="DG12" s="57"/>
+      <c r="DH12" s="55"/>
+      <c r="DI12" s="55"/>
+      <c r="DJ12" s="55"/>
+      <c r="DK12" s="55"/>
+      <c r="DL12" s="55"/>
+      <c r="DM12" s="58"/>
+      <c r="DN12" s="55"/>
+      <c r="DO12" s="55"/>
+      <c r="DP12" s="55"/>
+      <c r="DQ12" s="55"/>
+      <c r="DR12" s="55"/>
+      <c r="DS12" s="55"/>
+      <c r="DT12" s="55"/>
+      <c r="DU12" s="57"/>
+      <c r="DV12" s="55"/>
+      <c r="DW12" s="55"/>
+      <c r="DX12" s="55"/>
+      <c r="DY12" s="55"/>
+      <c r="DZ12" s="55"/>
+      <c r="EA12" s="58"/>
+      <c r="EB12" s="55"/>
+      <c r="EC12" s="55"/>
+      <c r="ED12" s="80"/>
+      <c r="EE12" s="55"/>
+      <c r="EF12" s="55"/>
+      <c r="EG12" s="55"/>
+      <c r="EH12" s="55"/>
+      <c r="EI12" s="57"/>
+      <c r="EJ12" s="55"/>
+      <c r="EK12" s="55"/>
+      <c r="EL12" s="55"/>
+      <c r="EM12" s="55"/>
+      <c r="EN12" s="55"/>
+      <c r="EO12" s="58"/>
+      <c r="EP12" s="55"/>
+      <c r="EQ12" s="55"/>
+      <c r="ER12" s="55"/>
+      <c r="ES12" s="55"/>
+      <c r="ET12" s="55"/>
+      <c r="EU12" s="55"/>
+      <c r="EV12" s="55"/>
+      <c r="EW12" s="57"/>
+      <c r="EX12" s="55"/>
+      <c r="EY12" s="55"/>
+      <c r="EZ12" s="55"/>
+      <c r="FA12" s="55"/>
+      <c r="FB12" s="55"/>
+      <c r="FC12" s="58"/>
+      <c r="FD12" s="55"/>
+      <c r="FE12" s="55"/>
+      <c r="FF12" s="55"/>
+      <c r="FG12" s="55"/>
+      <c r="FH12" s="55"/>
+      <c r="FI12" s="55"/>
+      <c r="FJ12" s="55"/>
+      <c r="FK12" s="57"/>
+      <c r="FL12" s="55"/>
+      <c r="FM12" s="81"/>
+      <c r="FN12" s="55"/>
+      <c r="FO12" s="55"/>
+      <c r="FP12" s="55"/>
+      <c r="FQ12" s="58"/>
+      <c r="FR12" s="55"/>
+      <c r="FS12" s="55"/>
+      <c r="FT12" s="55"/>
+      <c r="FU12" s="55"/>
+      <c r="FV12" s="55"/>
+      <c r="FW12" s="55"/>
+      <c r="FX12" s="55"/>
+      <c r="FY12" s="57"/>
+      <c r="FZ12" s="55"/>
+      <c r="GA12" s="55"/>
+      <c r="GB12" s="55"/>
+      <c r="GC12" s="59"/>
     </row>
     <row r="13" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
@@ -5273,7 +6412,7 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
       <c r="AA13" s="23"/>
-      <c r="AB13" s="83"/>
+      <c r="AB13" s="82"/>
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
@@ -5286,7 +6425,7 @@
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
-      <c r="AO13" s="76"/>
+      <c r="AO13" s="75"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="11"/>
       <c r="AR13" s="11"/>
@@ -5323,7 +6462,7 @@
       <c r="BW13" s="22"/>
       <c r="BX13" s="11"/>
       <c r="BY13" s="11"/>
-      <c r="BZ13" s="73"/>
+      <c r="BZ13" s="72"/>
       <c r="CA13" s="11"/>
       <c r="CB13" s="11"/>
       <c r="CC13" s="11"/>
@@ -5345,7 +6484,7 @@
       <c r="CS13" s="23"/>
       <c r="CT13" s="11"/>
       <c r="CU13" s="11"/>
-      <c r="CV13" s="67"/>
+      <c r="CV13" s="66"/>
       <c r="CW13" s="11"/>
       <c r="CX13" s="11"/>
       <c r="CY13" s="22"/>
@@ -5379,7 +6518,7 @@
       <c r="EA13" s="22"/>
       <c r="EB13" s="11"/>
       <c r="EC13" s="11"/>
-      <c r="ED13" s="73"/>
+      <c r="ED13" s="72"/>
       <c r="EE13" s="11"/>
       <c r="EF13" s="11"/>
       <c r="EG13" s="11"/>
@@ -5414,7 +6553,7 @@
       <c r="FJ13" s="11"/>
       <c r="FK13" s="23"/>
       <c r="FL13" s="11"/>
-      <c r="FM13" s="67"/>
+      <c r="FM13" s="66"/>
       <c r="FN13" s="11"/>
       <c r="FO13" s="11"/>
       <c r="FP13" s="11"/>
@@ -5473,7 +6612,7 @@
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
-      <c r="AO14" s="76"/>
+      <c r="AO14" s="75"/>
       <c r="AP14" s="11"/>
       <c r="AQ14" s="11"/>
       <c r="AR14" s="11"/>
@@ -5510,7 +6649,7 @@
       <c r="BW14" s="22"/>
       <c r="BX14" s="11"/>
       <c r="BY14" s="11"/>
-      <c r="BZ14" s="73"/>
+      <c r="BZ14" s="72"/>
       <c r="CA14" s="11"/>
       <c r="CB14" s="11"/>
       <c r="CC14" s="11"/>
@@ -5532,7 +6671,7 @@
       <c r="CS14" s="23"/>
       <c r="CT14" s="11"/>
       <c r="CU14" s="11"/>
-      <c r="CV14" s="67"/>
+      <c r="CV14" s="66"/>
       <c r="CW14" s="11"/>
       <c r="CX14" s="11"/>
       <c r="CY14" s="22"/>
@@ -5566,7 +6705,7 @@
       <c r="EA14" s="22"/>
       <c r="EB14" s="11"/>
       <c r="EC14" s="11"/>
-      <c r="ED14" s="73"/>
+      <c r="ED14" s="72"/>
       <c r="EE14" s="11"/>
       <c r="EF14" s="11"/>
       <c r="EG14" s="11"/>
@@ -5601,7 +6740,7 @@
       <c r="FJ14" s="11"/>
       <c r="FK14" s="23"/>
       <c r="FL14" s="11"/>
-      <c r="FM14" s="67"/>
+      <c r="FM14" s="66"/>
       <c r="FN14" s="11"/>
       <c r="FO14" s="11"/>
       <c r="FP14" s="11"/>
@@ -5651,19 +6790,19 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="23"/>
       <c r="AB15" s="11"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="83"/>
-      <c r="AE15" s="83"/>
-      <c r="AF15" s="83"/>
-      <c r="AG15" s="85"/>
-      <c r="AH15" s="83"/>
-      <c r="AI15" s="83"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
       <c r="AJ15" s="11"/>
       <c r="AK15" s="11"/>
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
-      <c r="AO15" s="76"/>
+      <c r="AO15" s="75"/>
       <c r="AP15" s="11"/>
       <c r="AQ15" s="11"/>
       <c r="AR15" s="11"/>
@@ -5700,7 +6839,7 @@
       <c r="BW15" s="22"/>
       <c r="BX15" s="11"/>
       <c r="BY15" s="11"/>
-      <c r="BZ15" s="73"/>
+      <c r="BZ15" s="72"/>
       <c r="CA15" s="11"/>
       <c r="CB15" s="11"/>
       <c r="CC15" s="11"/>
@@ -5722,7 +6861,7 @@
       <c r="CS15" s="23"/>
       <c r="CT15" s="11"/>
       <c r="CU15" s="11"/>
-      <c r="CV15" s="67"/>
+      <c r="CV15" s="66"/>
       <c r="CW15" s="11"/>
       <c r="CX15" s="11"/>
       <c r="CY15" s="22"/>
@@ -5756,7 +6895,7 @@
       <c r="EA15" s="22"/>
       <c r="EB15" s="11"/>
       <c r="EC15" s="11"/>
-      <c r="ED15" s="73"/>
+      <c r="ED15" s="72"/>
       <c r="EE15" s="11"/>
       <c r="EF15" s="11"/>
       <c r="EG15" s="11"/>
@@ -5791,7 +6930,7 @@
       <c r="FJ15" s="11"/>
       <c r="FK15" s="23"/>
       <c r="FL15" s="11"/>
-      <c r="FM15" s="67"/>
+      <c r="FM15" s="66"/>
       <c r="FN15" s="11"/>
       <c r="FO15" s="11"/>
       <c r="FP15" s="11"/>
@@ -5850,7 +6989,7 @@
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
-      <c r="AO16" s="76"/>
+      <c r="AO16" s="75"/>
       <c r="AP16" s="11"/>
       <c r="AQ16" s="11"/>
       <c r="AR16" s="11"/>
@@ -5887,7 +7026,7 @@
       <c r="BW16" s="22"/>
       <c r="BX16" s="11"/>
       <c r="BY16" s="11"/>
-      <c r="BZ16" s="73"/>
+      <c r="BZ16" s="72"/>
       <c r="CA16" s="11"/>
       <c r="CB16" s="11"/>
       <c r="CC16" s="11"/>
@@ -5909,7 +7048,7 @@
       <c r="CS16" s="23"/>
       <c r="CT16" s="11"/>
       <c r="CU16" s="11"/>
-      <c r="CV16" s="67"/>
+      <c r="CV16" s="66"/>
       <c r="CW16" s="11"/>
       <c r="CX16" s="11"/>
       <c r="CY16" s="22"/>
@@ -5943,7 +7082,7 @@
       <c r="EA16" s="22"/>
       <c r="EB16" s="11"/>
       <c r="EC16" s="11"/>
-      <c r="ED16" s="73"/>
+      <c r="ED16" s="72"/>
       <c r="EE16" s="11"/>
       <c r="EF16" s="11"/>
       <c r="EG16" s="11"/>
@@ -5978,7 +7117,7 @@
       <c r="FJ16" s="11"/>
       <c r="FK16" s="23"/>
       <c r="FL16" s="11"/>
-      <c r="FM16" s="67"/>
+      <c r="FM16" s="66"/>
       <c r="FN16" s="11"/>
       <c r="FO16" s="11"/>
       <c r="FP16" s="11"/>
@@ -6035,12 +7174,12 @@
       <c r="AG17" s="22"/>
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
-      <c r="AJ17" s="83"/>
-      <c r="AK17" s="83"/>
-      <c r="AL17" s="83"/>
-      <c r="AM17" s="83"/>
-      <c r="AN17" s="83"/>
-      <c r="AO17" s="76"/>
+      <c r="AJ17" s="82"/>
+      <c r="AK17" s="82"/>
+      <c r="AL17" s="82"/>
+      <c r="AM17" s="82"/>
+      <c r="AN17" s="82"/>
+      <c r="AO17" s="75"/>
       <c r="AP17" s="11"/>
       <c r="AQ17" s="11"/>
       <c r="AR17" s="11"/>
@@ -6077,7 +7216,7 @@
       <c r="BW17" s="22"/>
       <c r="BX17" s="11"/>
       <c r="BY17" s="11"/>
-      <c r="BZ17" s="73"/>
+      <c r="BZ17" s="72"/>
       <c r="CA17" s="11"/>
       <c r="CB17" s="11"/>
       <c r="CC17" s="11"/>
@@ -6099,7 +7238,7 @@
       <c r="CS17" s="23"/>
       <c r="CT17" s="11"/>
       <c r="CU17" s="11"/>
-      <c r="CV17" s="67"/>
+      <c r="CV17" s="66"/>
       <c r="CW17" s="11"/>
       <c r="CX17" s="11"/>
       <c r="CY17" s="22"/>
@@ -6133,7 +7272,7 @@
       <c r="EA17" s="22"/>
       <c r="EB17" s="11"/>
       <c r="EC17" s="11"/>
-      <c r="ED17" s="73"/>
+      <c r="ED17" s="72"/>
       <c r="EE17" s="11"/>
       <c r="EF17" s="11"/>
       <c r="EG17" s="11"/>
@@ -6168,7 +7307,7 @@
       <c r="FJ17" s="11"/>
       <c r="FK17" s="23"/>
       <c r="FL17" s="11"/>
-      <c r="FM17" s="67"/>
+      <c r="FM17" s="66"/>
       <c r="FN17" s="11"/>
       <c r="FO17" s="11"/>
       <c r="FP17" s="11"/>
@@ -6226,7 +7365,7 @@
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
-      <c r="AO18" s="76"/>
+      <c r="AO18" s="75"/>
       <c r="AP18" s="11"/>
       <c r="AQ18" s="11"/>
       <c r="AR18" s="11"/>
@@ -6263,7 +7402,7 @@
       <c r="BW18" s="22"/>
       <c r="BX18" s="11"/>
       <c r="BY18" s="11"/>
-      <c r="BZ18" s="73"/>
+      <c r="BZ18" s="72"/>
       <c r="CA18" s="11"/>
       <c r="CB18" s="11"/>
       <c r="CC18" s="11"/>
@@ -6285,7 +7424,7 @@
       <c r="CS18" s="23"/>
       <c r="CT18" s="11"/>
       <c r="CU18" s="11"/>
-      <c r="CV18" s="67"/>
+      <c r="CV18" s="66"/>
       <c r="CW18" s="11"/>
       <c r="CX18" s="11"/>
       <c r="CY18" s="22"/>
@@ -6319,7 +7458,7 @@
       <c r="EA18" s="22"/>
       <c r="EB18" s="11"/>
       <c r="EC18" s="11"/>
-      <c r="ED18" s="73"/>
+      <c r="ED18" s="72"/>
       <c r="EE18" s="11"/>
       <c r="EF18" s="11"/>
       <c r="EG18" s="11"/>
@@ -6354,7 +7493,7 @@
       <c r="FJ18" s="11"/>
       <c r="FK18" s="23"/>
       <c r="FL18" s="11"/>
-      <c r="FM18" s="67"/>
+      <c r="FM18" s="66"/>
       <c r="FN18" s="11"/>
       <c r="FO18" s="11"/>
       <c r="FP18" s="11"/>
@@ -6379,7 +7518,7 @@
       <c r="B19" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="51">
         <v>42704</v>
       </c>
       <c r="D19" s="40"/>
@@ -6419,7 +7558,7 @@
       <c r="AL19" s="40"/>
       <c r="AM19" s="40"/>
       <c r="AN19" s="40"/>
-      <c r="AO19" s="75"/>
+      <c r="AO19" s="74"/>
       <c r="AP19" s="40"/>
       <c r="AQ19" s="40"/>
       <c r="AR19" s="40"/>
@@ -6456,7 +7595,7 @@
       <c r="BW19" s="41"/>
       <c r="BX19" s="40"/>
       <c r="BY19" s="40"/>
-      <c r="BZ19" s="72"/>
+      <c r="BZ19" s="71"/>
       <c r="CA19" s="40"/>
       <c r="CB19" s="40"/>
       <c r="CC19" s="40"/>
@@ -6478,7 +7617,7 @@
       <c r="CS19" s="39"/>
       <c r="CT19" s="40"/>
       <c r="CU19" s="40"/>
-      <c r="CV19" s="66"/>
+      <c r="CV19" s="65"/>
       <c r="CW19" s="40"/>
       <c r="CX19" s="40"/>
       <c r="CY19" s="41"/>
@@ -6512,7 +7651,7 @@
       <c r="EA19" s="41"/>
       <c r="EB19" s="40"/>
       <c r="EC19" s="40"/>
-      <c r="ED19" s="72"/>
+      <c r="ED19" s="71"/>
       <c r="EE19" s="40"/>
       <c r="EF19" s="40"/>
       <c r="EG19" s="40"/>
@@ -6547,7 +7686,7 @@
       <c r="FJ19" s="40"/>
       <c r="FK19" s="39"/>
       <c r="FL19" s="40"/>
-      <c r="FM19" s="66"/>
+      <c r="FM19" s="65"/>
       <c r="FN19" s="40"/>
       <c r="FO19" s="40"/>
       <c r="FP19" s="40"/>
@@ -6609,28 +7748,28 @@
       <c r="AL20" s="11"/>
       <c r="AM20" s="11"/>
       <c r="AN20" s="11"/>
-      <c r="AO20" s="86"/>
-      <c r="AP20" s="83"/>
-      <c r="AQ20" s="83"/>
-      <c r="AR20" s="83"/>
-      <c r="AS20" s="83"/>
-      <c r="AT20" s="83"/>
-      <c r="AU20" s="85"/>
-      <c r="AV20" s="83"/>
-      <c r="AW20" s="83"/>
-      <c r="AX20" s="83"/>
-      <c r="AY20" s="83"/>
-      <c r="AZ20" s="83"/>
-      <c r="BA20" s="83"/>
-      <c r="BB20" s="83"/>
-      <c r="BC20" s="84"/>
-      <c r="BD20" s="83"/>
-      <c r="BE20" s="83"/>
-      <c r="BF20" s="83"/>
-      <c r="BG20" s="83"/>
-      <c r="BH20" s="83"/>
-      <c r="BI20" s="85"/>
-      <c r="BJ20" s="83"/>
+      <c r="AO20" s="85"/>
+      <c r="AP20" s="82"/>
+      <c r="AQ20" s="82"/>
+      <c r="AR20" s="82"/>
+      <c r="AS20" s="82"/>
+      <c r="AT20" s="82"/>
+      <c r="AU20" s="84"/>
+      <c r="AV20" s="82"/>
+      <c r="AW20" s="82"/>
+      <c r="AX20" s="82"/>
+      <c r="AY20" s="82"/>
+      <c r="AZ20" s="82"/>
+      <c r="BA20" s="82"/>
+      <c r="BB20" s="82"/>
+      <c r="BC20" s="83"/>
+      <c r="BD20" s="82"/>
+      <c r="BE20" s="82"/>
+      <c r="BF20" s="82"/>
+      <c r="BG20" s="82"/>
+      <c r="BH20" s="82"/>
+      <c r="BI20" s="84"/>
+      <c r="BJ20" s="82"/>
       <c r="BK20" s="11"/>
       <c r="BL20" s="11"/>
       <c r="BM20" s="11"/>
@@ -6646,7 +7785,7 @@
       <c r="BW20" s="22"/>
       <c r="BX20" s="11"/>
       <c r="BY20" s="11"/>
-      <c r="BZ20" s="73"/>
+      <c r="BZ20" s="72"/>
       <c r="CA20" s="11"/>
       <c r="CB20" s="11"/>
       <c r="CC20" s="11"/>
@@ -6668,7 +7807,7 @@
       <c r="CS20" s="23"/>
       <c r="CT20" s="11"/>
       <c r="CU20" s="11"/>
-      <c r="CV20" s="67"/>
+      <c r="CV20" s="66"/>
       <c r="CW20" s="11"/>
       <c r="CX20" s="11"/>
       <c r="CY20" s="22"/>
@@ -6702,7 +7841,7 @@
       <c r="EA20" s="22"/>
       <c r="EB20" s="11"/>
       <c r="EC20" s="11"/>
-      <c r="ED20" s="73"/>
+      <c r="ED20" s="72"/>
       <c r="EE20" s="11"/>
       <c r="EF20" s="11"/>
       <c r="EG20" s="11"/>
@@ -6737,7 +7876,7 @@
       <c r="FJ20" s="11"/>
       <c r="FK20" s="23"/>
       <c r="FL20" s="11"/>
-      <c r="FM20" s="67"/>
+      <c r="FM20" s="66"/>
       <c r="FN20" s="11"/>
       <c r="FO20" s="11"/>
       <c r="FP20" s="11"/>
@@ -6795,7 +7934,7 @@
       <c r="AL21" s="11"/>
       <c r="AM21" s="11"/>
       <c r="AN21" s="11"/>
-      <c r="AO21" s="76"/>
+      <c r="AO21" s="75"/>
       <c r="AP21" s="11"/>
       <c r="AQ21" s="11"/>
       <c r="AR21" s="11"/>
@@ -6832,7 +7971,7 @@
       <c r="BW21" s="22"/>
       <c r="BX21" s="11"/>
       <c r="BY21" s="11"/>
-      <c r="BZ21" s="73"/>
+      <c r="BZ21" s="72"/>
       <c r="CA21" s="11"/>
       <c r="CB21" s="11"/>
       <c r="CC21" s="11"/>
@@ -6854,7 +7993,7 @@
       <c r="CS21" s="23"/>
       <c r="CT21" s="11"/>
       <c r="CU21" s="11"/>
-      <c r="CV21" s="67"/>
+      <c r="CV21" s="66"/>
       <c r="CW21" s="11"/>
       <c r="CX21" s="11"/>
       <c r="CY21" s="22"/>
@@ -6888,7 +8027,7 @@
       <c r="EA21" s="22"/>
       <c r="EB21" s="11"/>
       <c r="EC21" s="11"/>
-      <c r="ED21" s="73"/>
+      <c r="ED21" s="72"/>
       <c r="EE21" s="11"/>
       <c r="EF21" s="11"/>
       <c r="EG21" s="11"/>
@@ -6923,7 +8062,7 @@
       <c r="FJ21" s="11"/>
       <c r="FK21" s="23"/>
       <c r="FL21" s="11"/>
-      <c r="FM21" s="67"/>
+      <c r="FM21" s="66"/>
       <c r="FN21" s="11"/>
       <c r="FO21" s="11"/>
       <c r="FP21" s="11"/>
@@ -6985,7 +8124,7 @@
       <c r="AL22" s="11"/>
       <c r="AM22" s="11"/>
       <c r="AN22" s="11"/>
-      <c r="AO22" s="76"/>
+      <c r="AO22" s="75"/>
       <c r="AP22" s="11"/>
       <c r="AQ22" s="11"/>
       <c r="AR22" s="11"/>
@@ -7007,22 +8146,22 @@
       <c r="BH22" s="11"/>
       <c r="BI22" s="22"/>
       <c r="BJ22" s="11"/>
-      <c r="BK22" s="83"/>
-      <c r="BL22" s="83"/>
-      <c r="BM22" s="83"/>
-      <c r="BN22" s="83"/>
-      <c r="BO22" s="83"/>
-      <c r="BP22" s="83"/>
-      <c r="BQ22" s="84"/>
-      <c r="BR22" s="83"/>
-      <c r="BS22" s="83"/>
-      <c r="BT22" s="83"/>
+      <c r="BK22" s="82"/>
+      <c r="BL22" s="82"/>
+      <c r="BM22" s="82"/>
+      <c r="BN22" s="82"/>
+      <c r="BO22" s="82"/>
+      <c r="BP22" s="82"/>
+      <c r="BQ22" s="83"/>
+      <c r="BR22" s="82"/>
+      <c r="BS22" s="82"/>
+      <c r="BT22" s="82"/>
       <c r="BU22" s="11"/>
       <c r="BV22" s="11"/>
       <c r="BW22" s="22"/>
       <c r="BX22" s="11"/>
       <c r="BY22" s="11"/>
-      <c r="BZ22" s="73"/>
+      <c r="BZ22" s="72"/>
       <c r="CA22" s="11"/>
       <c r="CB22" s="11"/>
       <c r="CC22" s="11"/>
@@ -7044,7 +8183,7 @@
       <c r="CS22" s="23"/>
       <c r="CT22" s="11"/>
       <c r="CU22" s="11"/>
-      <c r="CV22" s="67"/>
+      <c r="CV22" s="66"/>
       <c r="CW22" s="11"/>
       <c r="CX22" s="11"/>
       <c r="CY22" s="22"/>
@@ -7078,7 +8217,7 @@
       <c r="EA22" s="22"/>
       <c r="EB22" s="11"/>
       <c r="EC22" s="11"/>
-      <c r="ED22" s="73"/>
+      <c r="ED22" s="72"/>
       <c r="EE22" s="11"/>
       <c r="EF22" s="11"/>
       <c r="EG22" s="11"/>
@@ -7113,7 +8252,7 @@
       <c r="FJ22" s="11"/>
       <c r="FK22" s="23"/>
       <c r="FL22" s="11"/>
-      <c r="FM22" s="67"/>
+      <c r="FM22" s="66"/>
       <c r="FN22" s="11"/>
       <c r="FO22" s="11"/>
       <c r="FP22" s="11"/>
@@ -7171,7 +8310,7 @@
       <c r="AL23" s="11"/>
       <c r="AM23" s="11"/>
       <c r="AN23" s="11"/>
-      <c r="AO23" s="76"/>
+      <c r="AO23" s="75"/>
       <c r="AP23" s="11"/>
       <c r="AQ23" s="11"/>
       <c r="AR23" s="11"/>
@@ -7208,7 +8347,7 @@
       <c r="BW23" s="22"/>
       <c r="BX23" s="11"/>
       <c r="BY23" s="11"/>
-      <c r="BZ23" s="73"/>
+      <c r="BZ23" s="72"/>
       <c r="CA23" s="11"/>
       <c r="CB23" s="11"/>
       <c r="CC23" s="11"/>
@@ -7230,7 +8369,7 @@
       <c r="CS23" s="23"/>
       <c r="CT23" s="11"/>
       <c r="CU23" s="11"/>
-      <c r="CV23" s="67"/>
+      <c r="CV23" s="66"/>
       <c r="CW23" s="11"/>
       <c r="CX23" s="11"/>
       <c r="CY23" s="22"/>
@@ -7264,7 +8403,7 @@
       <c r="EA23" s="22"/>
       <c r="EB23" s="11"/>
       <c r="EC23" s="11"/>
-      <c r="ED23" s="73"/>
+      <c r="ED23" s="72"/>
       <c r="EE23" s="11"/>
       <c r="EF23" s="11"/>
       <c r="EG23" s="11"/>
@@ -7299,7 +8438,7 @@
       <c r="FJ23" s="11"/>
       <c r="FK23" s="23"/>
       <c r="FL23" s="11"/>
-      <c r="FM23" s="67"/>
+      <c r="FM23" s="66"/>
       <c r="FN23" s="11"/>
       <c r="FO23" s="11"/>
       <c r="FP23" s="11"/>
@@ -7361,7 +8500,7 @@
       <c r="AL24" s="11"/>
       <c r="AM24" s="11"/>
       <c r="AN24" s="11"/>
-      <c r="AO24" s="76"/>
+      <c r="AO24" s="75"/>
       <c r="AP24" s="11"/>
       <c r="AQ24" s="11"/>
       <c r="AR24" s="11"/>
@@ -7393,12 +8532,12 @@
       <c r="BR24" s="11"/>
       <c r="BS24" s="11"/>
       <c r="BT24" s="11"/>
-      <c r="BU24" s="83"/>
-      <c r="BV24" s="83"/>
-      <c r="BW24" s="85"/>
-      <c r="BX24" s="83"/>
-      <c r="BY24" s="83"/>
-      <c r="BZ24" s="87"/>
+      <c r="BU24" s="82"/>
+      <c r="BV24" s="82"/>
+      <c r="BW24" s="84"/>
+      <c r="BX24" s="82"/>
+      <c r="BY24" s="82"/>
+      <c r="BZ24" s="86"/>
       <c r="CA24" s="11"/>
       <c r="CB24" s="11"/>
       <c r="CC24" s="11"/>
@@ -7420,7 +8559,7 @@
       <c r="CS24" s="23"/>
       <c r="CT24" s="11"/>
       <c r="CU24" s="11"/>
-      <c r="CV24" s="67"/>
+      <c r="CV24" s="66"/>
       <c r="CW24" s="11"/>
       <c r="CX24" s="11"/>
       <c r="CY24" s="22"/>
@@ -7454,7 +8593,7 @@
       <c r="EA24" s="22"/>
       <c r="EB24" s="11"/>
       <c r="EC24" s="11"/>
-      <c r="ED24" s="73"/>
+      <c r="ED24" s="72"/>
       <c r="EE24" s="11"/>
       <c r="EF24" s="11"/>
       <c r="EG24" s="11"/>
@@ -7489,7 +8628,7 @@
       <c r="FJ24" s="11"/>
       <c r="FK24" s="23"/>
       <c r="FL24" s="11"/>
-      <c r="FM24" s="67"/>
+      <c r="FM24" s="66"/>
       <c r="FN24" s="11"/>
       <c r="FO24" s="11"/>
       <c r="FP24" s="11"/>
@@ -7547,7 +8686,7 @@
       <c r="AL25" s="11"/>
       <c r="AM25" s="11"/>
       <c r="AN25" s="11"/>
-      <c r="AO25" s="76"/>
+      <c r="AO25" s="75"/>
       <c r="AP25" s="11"/>
       <c r="AQ25" s="11"/>
       <c r="AR25" s="11"/>
@@ -7584,7 +8723,7 @@
       <c r="BW25" s="22"/>
       <c r="BX25" s="11"/>
       <c r="BY25" s="11"/>
-      <c r="BZ25" s="73"/>
+      <c r="BZ25" s="72"/>
       <c r="CA25" s="11"/>
       <c r="CB25" s="11"/>
       <c r="CC25" s="11"/>
@@ -7606,7 +8745,7 @@
       <c r="CS25" s="23"/>
       <c r="CT25" s="11"/>
       <c r="CU25" s="11"/>
-      <c r="CV25" s="67"/>
+      <c r="CV25" s="66"/>
       <c r="CW25" s="11"/>
       <c r="CX25" s="11"/>
       <c r="CY25" s="22"/>
@@ -7640,7 +8779,7 @@
       <c r="EA25" s="22"/>
       <c r="EB25" s="11"/>
       <c r="EC25" s="11"/>
-      <c r="ED25" s="73"/>
+      <c r="ED25" s="72"/>
       <c r="EE25" s="11"/>
       <c r="EF25" s="11"/>
       <c r="EG25" s="11"/>
@@ -7675,7 +8814,7 @@
       <c r="FJ25" s="11"/>
       <c r="FK25" s="23"/>
       <c r="FL25" s="11"/>
-      <c r="FM25" s="67"/>
+      <c r="FM25" s="66"/>
       <c r="FN25" s="11"/>
       <c r="FO25" s="11"/>
       <c r="FP25" s="11"/>
@@ -7700,7 +8839,7 @@
       <c r="B26" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="51">
         <v>42704</v>
       </c>
       <c r="D26" s="40"/>
@@ -7740,7 +8879,7 @@
       <c r="AL26" s="40"/>
       <c r="AM26" s="40"/>
       <c r="AN26" s="40"/>
-      <c r="AO26" s="75"/>
+      <c r="AO26" s="74"/>
       <c r="AP26" s="40"/>
       <c r="AQ26" s="40"/>
       <c r="AR26" s="40"/>
@@ -7777,7 +8916,7 @@
       <c r="BW26" s="41"/>
       <c r="BX26" s="40"/>
       <c r="BY26" s="40"/>
-      <c r="BZ26" s="72"/>
+      <c r="BZ26" s="71"/>
       <c r="CA26" s="40"/>
       <c r="CB26" s="40"/>
       <c r="CC26" s="40"/>
@@ -7799,7 +8938,7 @@
       <c r="CS26" s="39"/>
       <c r="CT26" s="40"/>
       <c r="CU26" s="40"/>
-      <c r="CV26" s="66"/>
+      <c r="CV26" s="65"/>
       <c r="CW26" s="40"/>
       <c r="CX26" s="40"/>
       <c r="CY26" s="41"/>
@@ -7833,7 +8972,7 @@
       <c r="EA26" s="41"/>
       <c r="EB26" s="40"/>
       <c r="EC26" s="40"/>
-      <c r="ED26" s="72"/>
+      <c r="ED26" s="71"/>
       <c r="EE26" s="40"/>
       <c r="EF26" s="40"/>
       <c r="EG26" s="40"/>
@@ -7868,7 +9007,7 @@
       <c r="FJ26" s="40"/>
       <c r="FK26" s="39"/>
       <c r="FL26" s="40"/>
-      <c r="FM26" s="66"/>
+      <c r="FM26" s="65"/>
       <c r="FN26" s="40"/>
       <c r="FO26" s="40"/>
       <c r="FP26" s="40"/>
@@ -7931,34 +9070,34 @@
       <c r="AL27" s="11"/>
       <c r="AM27" s="11"/>
       <c r="AN27" s="11"/>
-      <c r="AO27" s="86"/>
-      <c r="AP27" s="83"/>
-      <c r="AQ27" s="83"/>
-      <c r="AR27" s="83"/>
-      <c r="AS27" s="83"/>
-      <c r="AT27" s="83"/>
-      <c r="AU27" s="85"/>
-      <c r="AV27" s="83"/>
-      <c r="AW27" s="83"/>
-      <c r="AX27" s="83"/>
-      <c r="AY27" s="83"/>
-      <c r="AZ27" s="83"/>
-      <c r="BA27" s="83"/>
-      <c r="BB27" s="83"/>
-      <c r="BC27" s="84"/>
-      <c r="BD27" s="83"/>
-      <c r="BE27" s="83"/>
-      <c r="BF27" s="83"/>
-      <c r="BG27" s="83"/>
-      <c r="BH27" s="83"/>
-      <c r="BI27" s="85"/>
-      <c r="BJ27" s="83"/>
-      <c r="BK27" s="83"/>
-      <c r="BL27" s="83"/>
-      <c r="BM27" s="83"/>
-      <c r="BN27" s="83"/>
-      <c r="BO27" s="83"/>
-      <c r="BP27" s="83"/>
+      <c r="AO27" s="85"/>
+      <c r="AP27" s="82"/>
+      <c r="AQ27" s="82"/>
+      <c r="AR27" s="82"/>
+      <c r="AS27" s="82"/>
+      <c r="AT27" s="82"/>
+      <c r="AU27" s="84"/>
+      <c r="AV27" s="82"/>
+      <c r="AW27" s="82"/>
+      <c r="AX27" s="82"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="82"/>
+      <c r="BA27" s="82"/>
+      <c r="BB27" s="82"/>
+      <c r="BC27" s="83"/>
+      <c r="BD27" s="82"/>
+      <c r="BE27" s="82"/>
+      <c r="BF27" s="82"/>
+      <c r="BG27" s="82"/>
+      <c r="BH27" s="82"/>
+      <c r="BI27" s="84"/>
+      <c r="BJ27" s="82"/>
+      <c r="BK27" s="82"/>
+      <c r="BL27" s="82"/>
+      <c r="BM27" s="82"/>
+      <c r="BN27" s="82"/>
+      <c r="BO27" s="82"/>
+      <c r="BP27" s="82"/>
       <c r="BQ27" s="23"/>
       <c r="BR27" s="11"/>
       <c r="BS27" s="11"/>
@@ -7968,7 +9107,7 @@
       <c r="BW27" s="22"/>
       <c r="BX27" s="11"/>
       <c r="BY27" s="11"/>
-      <c r="BZ27" s="73"/>
+      <c r="BZ27" s="72"/>
       <c r="CA27" s="11"/>
       <c r="CB27" s="11"/>
       <c r="CC27" s="11"/>
@@ -7990,7 +9129,7 @@
       <c r="CS27" s="23"/>
       <c r="CT27" s="11"/>
       <c r="CU27" s="11"/>
-      <c r="CV27" s="67"/>
+      <c r="CV27" s="66"/>
       <c r="CW27" s="11"/>
       <c r="CX27" s="11"/>
       <c r="CY27" s="22"/>
@@ -8024,7 +9163,7 @@
       <c r="EA27" s="22"/>
       <c r="EB27" s="11"/>
       <c r="EC27" s="11"/>
-      <c r="ED27" s="73"/>
+      <c r="ED27" s="72"/>
       <c r="EE27" s="11"/>
       <c r="EF27" s="11"/>
       <c r="EG27" s="11"/>
@@ -8059,7 +9198,7 @@
       <c r="FJ27" s="11"/>
       <c r="FK27" s="23"/>
       <c r="FL27" s="11"/>
-      <c r="FM27" s="67"/>
+      <c r="FM27" s="66"/>
       <c r="FN27" s="11"/>
       <c r="FO27" s="11"/>
       <c r="FP27" s="11"/>
@@ -8118,7 +9257,7 @@
       <c r="AL28" s="11"/>
       <c r="AM28" s="11"/>
       <c r="AN28" s="11"/>
-      <c r="AO28" s="76"/>
+      <c r="AO28" s="75"/>
       <c r="AP28" s="11"/>
       <c r="AQ28" s="11"/>
       <c r="AR28" s="11"/>
@@ -8155,7 +9294,7 @@
       <c r="BW28" s="22"/>
       <c r="BX28" s="11"/>
       <c r="BY28" s="11"/>
-      <c r="BZ28" s="73"/>
+      <c r="BZ28" s="72"/>
       <c r="CA28" s="11"/>
       <c r="CB28" s="11"/>
       <c r="CC28" s="11"/>
@@ -8177,7 +9316,7 @@
       <c r="CS28" s="23"/>
       <c r="CT28" s="11"/>
       <c r="CU28" s="11"/>
-      <c r="CV28" s="67"/>
+      <c r="CV28" s="66"/>
       <c r="CW28" s="11"/>
       <c r="CX28" s="11"/>
       <c r="CY28" s="22"/>
@@ -8211,7 +9350,7 @@
       <c r="EA28" s="22"/>
       <c r="EB28" s="11"/>
       <c r="EC28" s="11"/>
-      <c r="ED28" s="73"/>
+      <c r="ED28" s="72"/>
       <c r="EE28" s="11"/>
       <c r="EF28" s="11"/>
       <c r="EG28" s="11"/>
@@ -8246,7 +9385,7 @@
       <c r="FJ28" s="11"/>
       <c r="FK28" s="23"/>
       <c r="FL28" s="11"/>
-      <c r="FM28" s="67"/>
+      <c r="FM28" s="66"/>
       <c r="FN28" s="11"/>
       <c r="FO28" s="11"/>
       <c r="FP28" s="11"/>
@@ -8309,7 +9448,7 @@
       <c r="AL29" s="11"/>
       <c r="AM29" s="11"/>
       <c r="AN29" s="11"/>
-      <c r="AO29" s="76"/>
+      <c r="AO29" s="75"/>
       <c r="AP29" s="11"/>
       <c r="AQ29" s="11"/>
       <c r="AR29" s="11"/>
@@ -8337,16 +9476,16 @@
       <c r="BN29" s="11"/>
       <c r="BO29" s="11"/>
       <c r="BP29" s="11"/>
-      <c r="BQ29" s="84"/>
-      <c r="BR29" s="83"/>
-      <c r="BS29" s="83"/>
-      <c r="BT29" s="83"/>
-      <c r="BU29" s="83"/>
-      <c r="BV29" s="83"/>
-      <c r="BW29" s="85"/>
+      <c r="BQ29" s="83"/>
+      <c r="BR29" s="82"/>
+      <c r="BS29" s="82"/>
+      <c r="BT29" s="82"/>
+      <c r="BU29" s="82"/>
+      <c r="BV29" s="82"/>
+      <c r="BW29" s="84"/>
       <c r="BX29" s="11"/>
       <c r="BY29" s="11"/>
-      <c r="BZ29" s="73"/>
+      <c r="BZ29" s="72"/>
       <c r="CA29" s="11"/>
       <c r="CB29" s="11"/>
       <c r="CC29" s="11"/>
@@ -8368,7 +9507,7 @@
       <c r="CS29" s="23"/>
       <c r="CT29" s="11"/>
       <c r="CU29" s="11"/>
-      <c r="CV29" s="67"/>
+      <c r="CV29" s="66"/>
       <c r="CW29" s="11"/>
       <c r="CX29" s="11"/>
       <c r="CY29" s="22"/>
@@ -8402,7 +9541,7 @@
       <c r="EA29" s="22"/>
       <c r="EB29" s="11"/>
       <c r="EC29" s="11"/>
-      <c r="ED29" s="73"/>
+      <c r="ED29" s="72"/>
       <c r="EE29" s="11"/>
       <c r="EF29" s="11"/>
       <c r="EG29" s="11"/>
@@ -8437,7 +9576,7 @@
       <c r="FJ29" s="11"/>
       <c r="FK29" s="23"/>
       <c r="FL29" s="11"/>
-      <c r="FM29" s="67"/>
+      <c r="FM29" s="66"/>
       <c r="FN29" s="11"/>
       <c r="FO29" s="11"/>
       <c r="FP29" s="11"/>
@@ -8496,7 +9635,7 @@
       <c r="AL30" s="11"/>
       <c r="AM30" s="11"/>
       <c r="AN30" s="11"/>
-      <c r="AO30" s="76"/>
+      <c r="AO30" s="75"/>
       <c r="AP30" s="11"/>
       <c r="AQ30" s="11"/>
       <c r="AR30" s="11"/>
@@ -8533,7 +9672,7 @@
       <c r="BW30" s="22"/>
       <c r="BX30" s="11"/>
       <c r="BY30" s="11"/>
-      <c r="BZ30" s="73"/>
+      <c r="BZ30" s="72"/>
       <c r="CA30" s="11"/>
       <c r="CB30" s="11"/>
       <c r="CC30" s="11"/>
@@ -8555,7 +9694,7 @@
       <c r="CS30" s="23"/>
       <c r="CT30" s="11"/>
       <c r="CU30" s="11"/>
-      <c r="CV30" s="67"/>
+      <c r="CV30" s="66"/>
       <c r="CW30" s="11"/>
       <c r="CX30" s="11"/>
       <c r="CY30" s="22"/>
@@ -8589,7 +9728,7 @@
       <c r="EA30" s="22"/>
       <c r="EB30" s="11"/>
       <c r="EC30" s="11"/>
-      <c r="ED30" s="73"/>
+      <c r="ED30" s="72"/>
       <c r="EE30" s="11"/>
       <c r="EF30" s="11"/>
       <c r="EG30" s="11"/>
@@ -8624,7 +9763,7 @@
       <c r="FJ30" s="11"/>
       <c r="FK30" s="23"/>
       <c r="FL30" s="11"/>
-      <c r="FM30" s="67"/>
+      <c r="FM30" s="66"/>
       <c r="FN30" s="11"/>
       <c r="FO30" s="11"/>
       <c r="FP30" s="11"/>
@@ -8686,7 +9825,7 @@
       <c r="AL31" s="11"/>
       <c r="AM31" s="11"/>
       <c r="AN31" s="11"/>
-      <c r="AO31" s="76"/>
+      <c r="AO31" s="75"/>
       <c r="AP31" s="11"/>
       <c r="AQ31" s="11"/>
       <c r="AR31" s="11"/>
@@ -8721,9 +9860,9 @@
       <c r="BU31" s="11"/>
       <c r="BV31" s="11"/>
       <c r="BW31" s="22"/>
-      <c r="BX31" s="83"/>
-      <c r="BY31" s="83"/>
-      <c r="BZ31" s="87"/>
+      <c r="BX31" s="82"/>
+      <c r="BY31" s="82"/>
+      <c r="BZ31" s="86"/>
       <c r="CA31" s="11"/>
       <c r="CB31" s="11"/>
       <c r="CC31" s="11"/>
@@ -8745,7 +9884,7 @@
       <c r="CS31" s="23"/>
       <c r="CT31" s="11"/>
       <c r="CU31" s="11"/>
-      <c r="CV31" s="67"/>
+      <c r="CV31" s="66"/>
       <c r="CW31" s="11"/>
       <c r="CX31" s="11"/>
       <c r="CY31" s="22"/>
@@ -8779,7 +9918,7 @@
       <c r="EA31" s="22"/>
       <c r="EB31" s="11"/>
       <c r="EC31" s="11"/>
-      <c r="ED31" s="73"/>
+      <c r="ED31" s="72"/>
       <c r="EE31" s="11"/>
       <c r="EF31" s="11"/>
       <c r="EG31" s="11"/>
@@ -8814,7 +9953,7 @@
       <c r="FJ31" s="11"/>
       <c r="FK31" s="23"/>
       <c r="FL31" s="11"/>
-      <c r="FM31" s="67"/>
+      <c r="FM31" s="66"/>
       <c r="FN31" s="11"/>
       <c r="FO31" s="11"/>
       <c r="FP31" s="11"/>
@@ -8872,7 +10011,7 @@
       <c r="AL32" s="11"/>
       <c r="AM32" s="11"/>
       <c r="AN32" s="11"/>
-      <c r="AO32" s="76"/>
+      <c r="AO32" s="75"/>
       <c r="AP32" s="11"/>
       <c r="AQ32" s="11"/>
       <c r="AR32" s="11"/>
@@ -8909,7 +10048,7 @@
       <c r="BW32" s="22"/>
       <c r="BX32" s="11"/>
       <c r="BY32" s="11"/>
-      <c r="BZ32" s="73"/>
+      <c r="BZ32" s="72"/>
       <c r="CA32" s="11"/>
       <c r="CB32" s="11"/>
       <c r="CC32" s="11"/>
@@ -8931,7 +10070,7 @@
       <c r="CS32" s="23"/>
       <c r="CT32" s="11"/>
       <c r="CU32" s="11"/>
-      <c r="CV32" s="67"/>
+      <c r="CV32" s="66"/>
       <c r="CW32" s="11"/>
       <c r="CX32" s="11"/>
       <c r="CY32" s="22"/>
@@ -8965,7 +10104,7 @@
       <c r="EA32" s="22"/>
       <c r="EB32" s="11"/>
       <c r="EC32" s="11"/>
-      <c r="ED32" s="73"/>
+      <c r="ED32" s="72"/>
       <c r="EE32" s="11"/>
       <c r="EF32" s="11"/>
       <c r="EG32" s="11"/>
@@ -9000,7 +10139,7 @@
       <c r="FJ32" s="11"/>
       <c r="FK32" s="23"/>
       <c r="FL32" s="11"/>
-      <c r="FM32" s="67"/>
+      <c r="FM32" s="66"/>
       <c r="FN32" s="11"/>
       <c r="FO32" s="11"/>
       <c r="FP32" s="11"/>
@@ -9025,7 +10164,7 @@
       <c r="B33" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="51">
         <v>42725</v>
       </c>
       <c r="D33" s="40"/>
@@ -9065,7 +10204,7 @@
       <c r="AL33" s="40"/>
       <c r="AM33" s="40"/>
       <c r="AN33" s="40"/>
-      <c r="AO33" s="75"/>
+      <c r="AO33" s="74"/>
       <c r="AP33" s="40"/>
       <c r="AQ33" s="40"/>
       <c r="AR33" s="40"/>
@@ -9102,7 +10241,7 @@
       <c r="BW33" s="41"/>
       <c r="BX33" s="40"/>
       <c r="BY33" s="40"/>
-      <c r="BZ33" s="72"/>
+      <c r="BZ33" s="71"/>
       <c r="CA33" s="40"/>
       <c r="CB33" s="40"/>
       <c r="CC33" s="40"/>
@@ -9124,7 +10263,7 @@
       <c r="CS33" s="39"/>
       <c r="CT33" s="40"/>
       <c r="CU33" s="40"/>
-      <c r="CV33" s="66"/>
+      <c r="CV33" s="65"/>
       <c r="CW33" s="40"/>
       <c r="CX33" s="40"/>
       <c r="CY33" s="41"/>
@@ -9158,7 +10297,7 @@
       <c r="EA33" s="41"/>
       <c r="EB33" s="40"/>
       <c r="EC33" s="40"/>
-      <c r="ED33" s="72"/>
+      <c r="ED33" s="71"/>
       <c r="EE33" s="40"/>
       <c r="EF33" s="40"/>
       <c r="EG33" s="40"/>
@@ -9193,7 +10332,7 @@
       <c r="FJ33" s="40"/>
       <c r="FK33" s="39"/>
       <c r="FL33" s="40"/>
-      <c r="FM33" s="66"/>
+      <c r="FM33" s="65"/>
       <c r="FN33" s="40"/>
       <c r="FO33" s="40"/>
       <c r="FP33" s="40"/>
@@ -9256,7 +10395,7 @@
       <c r="AL34" s="11"/>
       <c r="AM34" s="11"/>
       <c r="AN34" s="11"/>
-      <c r="AO34" s="76"/>
+      <c r="AO34" s="75"/>
       <c r="AP34" s="11"/>
       <c r="AQ34" s="11"/>
       <c r="AR34" s="11"/>
@@ -9293,29 +10432,29 @@
       <c r="BW34" s="22"/>
       <c r="BX34" s="11"/>
       <c r="BY34" s="11"/>
-      <c r="BZ34" s="73"/>
-      <c r="CA34" s="83"/>
-      <c r="CB34" s="83"/>
-      <c r="CC34" s="83"/>
-      <c r="CD34" s="83"/>
-      <c r="CE34" s="84"/>
-      <c r="CF34" s="83"/>
-      <c r="CG34" s="83"/>
-      <c r="CH34" s="83"/>
-      <c r="CI34" s="83"/>
-      <c r="CJ34" s="83"/>
-      <c r="CK34" s="85"/>
-      <c r="CL34" s="83"/>
-      <c r="CM34" s="83"/>
-      <c r="CN34" s="83"/>
-      <c r="CO34" s="83"/>
-      <c r="CP34" s="83"/>
-      <c r="CQ34" s="83"/>
-      <c r="CR34" s="83"/>
-      <c r="CS34" s="84"/>
-      <c r="CT34" s="83"/>
-      <c r="CU34" s="83"/>
-      <c r="CV34" s="67"/>
+      <c r="BZ34" s="72"/>
+      <c r="CA34" s="82"/>
+      <c r="CB34" s="82"/>
+      <c r="CC34" s="82"/>
+      <c r="CD34" s="82"/>
+      <c r="CE34" s="83"/>
+      <c r="CF34" s="82"/>
+      <c r="CG34" s="82"/>
+      <c r="CH34" s="82"/>
+      <c r="CI34" s="82"/>
+      <c r="CJ34" s="82"/>
+      <c r="CK34" s="84"/>
+      <c r="CL34" s="82"/>
+      <c r="CM34" s="82"/>
+      <c r="CN34" s="82"/>
+      <c r="CO34" s="82"/>
+      <c r="CP34" s="82"/>
+      <c r="CQ34" s="82"/>
+      <c r="CR34" s="82"/>
+      <c r="CS34" s="83"/>
+      <c r="CT34" s="82"/>
+      <c r="CU34" s="82"/>
+      <c r="CV34" s="66"/>
       <c r="CW34" s="11"/>
       <c r="CX34" s="11"/>
       <c r="CY34" s="22"/>
@@ -9349,7 +10488,7 @@
       <c r="EA34" s="22"/>
       <c r="EB34" s="11"/>
       <c r="EC34" s="11"/>
-      <c r="ED34" s="73"/>
+      <c r="ED34" s="72"/>
       <c r="EE34" s="11"/>
       <c r="EF34" s="11"/>
       <c r="EG34" s="11"/>
@@ -9384,7 +10523,7 @@
       <c r="FJ34" s="11"/>
       <c r="FK34" s="23"/>
       <c r="FL34" s="11"/>
-      <c r="FM34" s="67"/>
+      <c r="FM34" s="66"/>
       <c r="FN34" s="11"/>
       <c r="FO34" s="11"/>
       <c r="FP34" s="11"/>
@@ -9443,7 +10582,7 @@
       <c r="AL35" s="11"/>
       <c r="AM35" s="11"/>
       <c r="AN35" s="11"/>
-      <c r="AO35" s="76"/>
+      <c r="AO35" s="75"/>
       <c r="AP35" s="11"/>
       <c r="AQ35" s="11"/>
       <c r="AR35" s="11"/>
@@ -9480,7 +10619,7 @@
       <c r="BW35" s="22"/>
       <c r="BX35" s="11"/>
       <c r="BY35" s="11"/>
-      <c r="BZ35" s="73"/>
+      <c r="BZ35" s="72"/>
       <c r="CA35" s="11"/>
       <c r="CB35" s="11"/>
       <c r="CC35" s="11"/>
@@ -9502,7 +10641,7 @@
       <c r="CS35" s="23"/>
       <c r="CT35" s="11"/>
       <c r="CU35" s="11"/>
-      <c r="CV35" s="67"/>
+      <c r="CV35" s="66"/>
       <c r="CW35" s="11"/>
       <c r="CX35" s="11"/>
       <c r="CY35" s="22"/>
@@ -9536,7 +10675,7 @@
       <c r="EA35" s="22"/>
       <c r="EB35" s="11"/>
       <c r="EC35" s="11"/>
-      <c r="ED35" s="73"/>
+      <c r="ED35" s="72"/>
       <c r="EE35" s="11"/>
       <c r="EF35" s="11"/>
       <c r="EG35" s="11"/>
@@ -9571,7 +10710,7 @@
       <c r="FJ35" s="11"/>
       <c r="FK35" s="23"/>
       <c r="FL35" s="11"/>
-      <c r="FM35" s="67"/>
+      <c r="FM35" s="66"/>
       <c r="FN35" s="11"/>
       <c r="FO35" s="11"/>
       <c r="FP35" s="11"/>
@@ -9634,7 +10773,7 @@
       <c r="AL36" s="11"/>
       <c r="AM36" s="11"/>
       <c r="AN36" s="11"/>
-      <c r="AO36" s="76"/>
+      <c r="AO36" s="75"/>
       <c r="AP36" s="11"/>
       <c r="AQ36" s="11"/>
       <c r="AR36" s="11"/>
@@ -9671,7 +10810,7 @@
       <c r="BW36" s="22"/>
       <c r="BX36" s="11"/>
       <c r="BY36" s="11"/>
-      <c r="BZ36" s="73"/>
+      <c r="BZ36" s="72"/>
       <c r="CA36" s="11"/>
       <c r="CB36" s="11"/>
       <c r="CC36" s="11"/>
@@ -9687,13 +10826,13 @@
       <c r="CM36" s="11"/>
       <c r="CN36" s="11"/>
       <c r="CO36" s="11"/>
-      <c r="CP36" s="83"/>
-      <c r="CQ36" s="83"/>
-      <c r="CR36" s="83"/>
-      <c r="CS36" s="84"/>
-      <c r="CT36" s="83"/>
-      <c r="CU36" s="83"/>
-      <c r="CV36" s="67"/>
+      <c r="CP36" s="82"/>
+      <c r="CQ36" s="82"/>
+      <c r="CR36" s="82"/>
+      <c r="CS36" s="83"/>
+      <c r="CT36" s="82"/>
+      <c r="CU36" s="82"/>
+      <c r="CV36" s="66"/>
       <c r="CW36" s="11"/>
       <c r="CX36" s="11"/>
       <c r="CY36" s="22"/>
@@ -9727,7 +10866,7 @@
       <c r="EA36" s="22"/>
       <c r="EB36" s="11"/>
       <c r="EC36" s="11"/>
-      <c r="ED36" s="73"/>
+      <c r="ED36" s="72"/>
       <c r="EE36" s="11"/>
       <c r="EF36" s="11"/>
       <c r="EG36" s="11"/>
@@ -9762,7 +10901,7 @@
       <c r="FJ36" s="11"/>
       <c r="FK36" s="23"/>
       <c r="FL36" s="11"/>
-      <c r="FM36" s="67"/>
+      <c r="FM36" s="66"/>
       <c r="FN36" s="11"/>
       <c r="FO36" s="11"/>
       <c r="FP36" s="11"/>
@@ -9821,7 +10960,7 @@
       <c r="AL37" s="11"/>
       <c r="AM37" s="11"/>
       <c r="AN37" s="11"/>
-      <c r="AO37" s="76"/>
+      <c r="AO37" s="75"/>
       <c r="AP37" s="11"/>
       <c r="AQ37" s="11"/>
       <c r="AR37" s="11"/>
@@ -9858,7 +10997,7 @@
       <c r="BW37" s="22"/>
       <c r="BX37" s="11"/>
       <c r="BY37" s="11"/>
-      <c r="BZ37" s="73"/>
+      <c r="BZ37" s="72"/>
       <c r="CA37" s="11"/>
       <c r="CB37" s="11"/>
       <c r="CC37" s="11"/>
@@ -9880,7 +11019,7 @@
       <c r="CS37" s="23"/>
       <c r="CT37" s="11"/>
       <c r="CU37" s="11"/>
-      <c r="CV37" s="67"/>
+      <c r="CV37" s="66"/>
       <c r="CW37" s="11"/>
       <c r="CX37" s="11"/>
       <c r="CY37" s="22"/>
@@ -9914,7 +11053,7 @@
       <c r="EA37" s="22"/>
       <c r="EB37" s="11"/>
       <c r="EC37" s="11"/>
-      <c r="ED37" s="73"/>
+      <c r="ED37" s="72"/>
       <c r="EE37" s="11"/>
       <c r="EF37" s="11"/>
       <c r="EG37" s="11"/>
@@ -9949,7 +11088,7 @@
       <c r="FJ37" s="11"/>
       <c r="FK37" s="23"/>
       <c r="FL37" s="11"/>
-      <c r="FM37" s="67"/>
+      <c r="FM37" s="66"/>
       <c r="FN37" s="11"/>
       <c r="FO37" s="11"/>
       <c r="FP37" s="11"/>
@@ -9974,7 +11113,7 @@
       <c r="B38" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="52">
+      <c r="C38" s="51">
         <v>42760</v>
       </c>
       <c r="D38" s="40"/>
@@ -10014,7 +11153,7 @@
       <c r="AL38" s="40"/>
       <c r="AM38" s="40"/>
       <c r="AN38" s="40"/>
-      <c r="AO38" s="75"/>
+      <c r="AO38" s="74"/>
       <c r="AP38" s="40"/>
       <c r="AQ38" s="40"/>
       <c r="AR38" s="40"/>
@@ -10051,7 +11190,7 @@
       <c r="BW38" s="41"/>
       <c r="BX38" s="40"/>
       <c r="BY38" s="40"/>
-      <c r="BZ38" s="72"/>
+      <c r="BZ38" s="71"/>
       <c r="CA38" s="40"/>
       <c r="CB38" s="40"/>
       <c r="CC38" s="40"/>
@@ -10073,7 +11212,7 @@
       <c r="CS38" s="39"/>
       <c r="CT38" s="40"/>
       <c r="CU38" s="40"/>
-      <c r="CV38" s="66"/>
+      <c r="CV38" s="65"/>
       <c r="CW38" s="40"/>
       <c r="CX38" s="40"/>
       <c r="CY38" s="41"/>
@@ -10107,7 +11246,7 @@
       <c r="EA38" s="41"/>
       <c r="EB38" s="40"/>
       <c r="EC38" s="40"/>
-      <c r="ED38" s="72"/>
+      <c r="ED38" s="71"/>
       <c r="EE38" s="40"/>
       <c r="EF38" s="40"/>
       <c r="EG38" s="40"/>
@@ -10142,7 +11281,7 @@
       <c r="FJ38" s="40"/>
       <c r="FK38" s="39"/>
       <c r="FL38" s="40"/>
-      <c r="FM38" s="66"/>
+      <c r="FM38" s="65"/>
       <c r="FN38" s="40"/>
       <c r="FO38" s="40"/>
       <c r="FP38" s="40"/>
@@ -10162,7 +11301,7 @@
     </row>
     <row r="39" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="48" t="s">
         <v>86</v>
       </c>
       <c r="C39" s="49">
@@ -10205,7 +11344,7 @@
       <c r="AL39" s="11"/>
       <c r="AM39" s="11"/>
       <c r="AN39" s="11"/>
-      <c r="AO39" s="76"/>
+      <c r="AO39" s="75"/>
       <c r="AP39" s="11"/>
       <c r="AQ39" s="11"/>
       <c r="AR39" s="11"/>
@@ -10242,7 +11381,7 @@
       <c r="BW39" s="22"/>
       <c r="BX39" s="11"/>
       <c r="BY39" s="11"/>
-      <c r="BZ39" s="73"/>
+      <c r="BZ39" s="72"/>
       <c r="CA39" s="11"/>
       <c r="CB39" s="11"/>
       <c r="CC39" s="11"/>
@@ -10264,10 +11403,10 @@
       <c r="CS39" s="23"/>
       <c r="CT39" s="11"/>
       <c r="CU39" s="11"/>
-      <c r="CV39" s="88"/>
-      <c r="CW39" s="83"/>
-      <c r="CX39" s="83"/>
-      <c r="CY39" s="85"/>
+      <c r="CV39" s="87"/>
+      <c r="CW39" s="82"/>
+      <c r="CX39" s="82"/>
+      <c r="CY39" s="84"/>
       <c r="CZ39" s="11"/>
       <c r="DA39" s="11"/>
       <c r="DB39" s="11"/>
@@ -10282,23 +11421,23 @@
       <c r="DK39" s="11"/>
       <c r="DL39" s="11"/>
       <c r="DM39" s="22"/>
-      <c r="DN39" s="83"/>
-      <c r="DO39" s="83"/>
-      <c r="DP39" s="83"/>
-      <c r="DQ39" s="83"/>
-      <c r="DR39" s="83"/>
-      <c r="DS39" s="83"/>
-      <c r="DT39" s="83"/>
-      <c r="DU39" s="84"/>
-      <c r="DV39" s="83"/>
-      <c r="DW39" s="83"/>
-      <c r="DX39" s="83"/>
-      <c r="DY39" s="83"/>
-      <c r="DZ39" s="83"/>
-      <c r="EA39" s="85"/>
-      <c r="EB39" s="83"/>
-      <c r="EC39" s="83"/>
-      <c r="ED39" s="87"/>
+      <c r="DN39" s="82"/>
+      <c r="DO39" s="82"/>
+      <c r="DP39" s="82"/>
+      <c r="DQ39" s="82"/>
+      <c r="DR39" s="82"/>
+      <c r="DS39" s="82"/>
+      <c r="DT39" s="82"/>
+      <c r="DU39" s="83"/>
+      <c r="DV39" s="82"/>
+      <c r="DW39" s="82"/>
+      <c r="DX39" s="82"/>
+      <c r="DY39" s="82"/>
+      <c r="DZ39" s="82"/>
+      <c r="EA39" s="84"/>
+      <c r="EB39" s="82"/>
+      <c r="EC39" s="82"/>
+      <c r="ED39" s="86"/>
       <c r="EE39" s="11"/>
       <c r="EF39" s="11"/>
       <c r="EG39" s="11"/>
@@ -10333,7 +11472,7 @@
       <c r="FJ39" s="11"/>
       <c r="FK39" s="23"/>
       <c r="FL39" s="11"/>
-      <c r="FM39" s="67"/>
+      <c r="FM39" s="66"/>
       <c r="FN39" s="11"/>
       <c r="FO39" s="11"/>
       <c r="FP39" s="11"/>
@@ -10353,6 +11492,7 @@
     </row>
     <row r="40" spans="1:185" s="2" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="49"/>
       <c r="D40" s="11"/>
       <c r="E40" s="42"/>
@@ -10391,7 +11531,7 @@
       <c r="AL40" s="11"/>
       <c r="AM40" s="11"/>
       <c r="AN40" s="11"/>
-      <c r="AO40" s="76"/>
+      <c r="AO40" s="75"/>
       <c r="AP40" s="11"/>
       <c r="AQ40" s="11"/>
       <c r="AR40" s="11"/>
@@ -10428,7 +11568,7 @@
       <c r="BW40" s="22"/>
       <c r="BX40" s="11"/>
       <c r="BY40" s="11"/>
-      <c r="BZ40" s="73"/>
+      <c r="BZ40" s="72"/>
       <c r="CA40" s="11"/>
       <c r="CB40" s="11"/>
       <c r="CC40" s="11"/>
@@ -10450,7 +11590,7 @@
       <c r="CS40" s="23"/>
       <c r="CT40" s="11"/>
       <c r="CU40" s="11"/>
-      <c r="CV40" s="67"/>
+      <c r="CV40" s="66"/>
       <c r="CW40" s="11"/>
       <c r="CX40" s="11"/>
       <c r="CY40" s="22"/>
@@ -10484,7 +11624,7 @@
       <c r="EA40" s="22"/>
       <c r="EB40" s="11"/>
       <c r="EC40" s="11"/>
-      <c r="ED40" s="73"/>
+      <c r="ED40" s="72"/>
       <c r="EE40" s="11"/>
       <c r="EF40" s="11"/>
       <c r="EG40" s="11"/>
@@ -10519,7 +11659,7 @@
       <c r="FJ40" s="11"/>
       <c r="FK40" s="23"/>
       <c r="FL40" s="11"/>
-      <c r="FM40" s="67"/>
+      <c r="FM40" s="66"/>
       <c r="FN40" s="11"/>
       <c r="FO40" s="11"/>
       <c r="FP40" s="11"/>
@@ -10582,7 +11722,7 @@
       <c r="AL41" s="11"/>
       <c r="AM41" s="11"/>
       <c r="AN41" s="11"/>
-      <c r="AO41" s="76"/>
+      <c r="AO41" s="75"/>
       <c r="AP41" s="11"/>
       <c r="AQ41" s="11"/>
       <c r="AR41" s="11"/>
@@ -10619,7 +11759,7 @@
       <c r="BW41" s="22"/>
       <c r="BX41" s="11"/>
       <c r="BY41" s="11"/>
-      <c r="BZ41" s="73"/>
+      <c r="BZ41" s="72"/>
       <c r="CA41" s="11"/>
       <c r="CB41" s="11"/>
       <c r="CC41" s="11"/>
@@ -10641,10 +11781,10 @@
       <c r="CS41" s="23"/>
       <c r="CT41" s="11"/>
       <c r="CU41" s="11"/>
-      <c r="CV41" s="88"/>
-      <c r="CW41" s="83"/>
-      <c r="CX41" s="83"/>
-      <c r="CY41" s="85"/>
+      <c r="CV41" s="87"/>
+      <c r="CW41" s="82"/>
+      <c r="CX41" s="82"/>
+      <c r="CY41" s="84"/>
       <c r="CZ41" s="11"/>
       <c r="DA41" s="11"/>
       <c r="DB41" s="11"/>
@@ -10659,23 +11799,23 @@
       <c r="DK41" s="11"/>
       <c r="DL41" s="11"/>
       <c r="DM41" s="22"/>
-      <c r="DN41" s="83"/>
-      <c r="DO41" s="83"/>
-      <c r="DP41" s="83"/>
-      <c r="DQ41" s="83"/>
-      <c r="DR41" s="83"/>
-      <c r="DS41" s="83"/>
-      <c r="DT41" s="83"/>
-      <c r="DU41" s="84"/>
-      <c r="DV41" s="83"/>
-      <c r="DW41" s="83"/>
-      <c r="DX41" s="83"/>
-      <c r="DY41" s="83"/>
-      <c r="DZ41" s="83"/>
-      <c r="EA41" s="85"/>
-      <c r="EB41" s="83"/>
-      <c r="EC41" s="83"/>
-      <c r="ED41" s="87"/>
+      <c r="DN41" s="82"/>
+      <c r="DO41" s="82"/>
+      <c r="DP41" s="82"/>
+      <c r="DQ41" s="82"/>
+      <c r="DR41" s="82"/>
+      <c r="DS41" s="82"/>
+      <c r="DT41" s="82"/>
+      <c r="DU41" s="83"/>
+      <c r="DV41" s="82"/>
+      <c r="DW41" s="82"/>
+      <c r="DX41" s="82"/>
+      <c r="DY41" s="82"/>
+      <c r="DZ41" s="82"/>
+      <c r="EA41" s="84"/>
+      <c r="EB41" s="82"/>
+      <c r="EC41" s="82"/>
+      <c r="ED41" s="86"/>
       <c r="EE41" s="11"/>
       <c r="EF41" s="11"/>
       <c r="EG41" s="11"/>
@@ -10710,7 +11850,7 @@
       <c r="FJ41" s="11"/>
       <c r="FK41" s="23"/>
       <c r="FL41" s="11"/>
-      <c r="FM41" s="67"/>
+      <c r="FM41" s="66"/>
       <c r="FN41" s="11"/>
       <c r="FO41" s="11"/>
       <c r="FP41" s="11"/>
@@ -10769,7 +11909,7 @@
       <c r="AL42" s="11"/>
       <c r="AM42" s="11"/>
       <c r="AN42" s="11"/>
-      <c r="AO42" s="76"/>
+      <c r="AO42" s="75"/>
       <c r="AP42" s="11"/>
       <c r="AQ42" s="11"/>
       <c r="AR42" s="11"/>
@@ -10806,7 +11946,7 @@
       <c r="BW42" s="22"/>
       <c r="BX42" s="11"/>
       <c r="BY42" s="11"/>
-      <c r="BZ42" s="73"/>
+      <c r="BZ42" s="72"/>
       <c r="CA42" s="11"/>
       <c r="CB42" s="11"/>
       <c r="CC42" s="11"/>
@@ -10828,7 +11968,7 @@
       <c r="CS42" s="23"/>
       <c r="CT42" s="11"/>
       <c r="CU42" s="11"/>
-      <c r="CV42" s="67"/>
+      <c r="CV42" s="66"/>
       <c r="CW42" s="11"/>
       <c r="CX42" s="11"/>
       <c r="CY42" s="22"/>
@@ -10862,7 +12002,7 @@
       <c r="EA42" s="22"/>
       <c r="EB42" s="11"/>
       <c r="EC42" s="11"/>
-      <c r="ED42" s="73"/>
+      <c r="ED42" s="72"/>
       <c r="EE42" s="11"/>
       <c r="EF42" s="11"/>
       <c r="EG42" s="11"/>
@@ -10897,7 +12037,7 @@
       <c r="FJ42" s="11"/>
       <c r="FK42" s="23"/>
       <c r="FL42" s="11"/>
-      <c r="FM42" s="67"/>
+      <c r="FM42" s="66"/>
       <c r="FN42" s="11"/>
       <c r="FO42" s="11"/>
       <c r="FP42" s="11"/>
@@ -10922,7 +12062,7 @@
       <c r="B43" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="52">
+      <c r="C43" s="51">
         <v>42795</v>
       </c>
       <c r="D43" s="40"/>
@@ -10962,7 +12102,7 @@
       <c r="AL43" s="40"/>
       <c r="AM43" s="40"/>
       <c r="AN43" s="40"/>
-      <c r="AO43" s="75"/>
+      <c r="AO43" s="74"/>
       <c r="AP43" s="40"/>
       <c r="AQ43" s="40"/>
       <c r="AR43" s="40"/>
@@ -10999,7 +12139,7 @@
       <c r="BW43" s="41"/>
       <c r="BX43" s="40"/>
       <c r="BY43" s="40"/>
-      <c r="BZ43" s="72"/>
+      <c r="BZ43" s="71"/>
       <c r="CA43" s="40"/>
       <c r="CB43" s="40"/>
       <c r="CC43" s="40"/>
@@ -11021,7 +12161,7 @@
       <c r="CS43" s="39"/>
       <c r="CT43" s="40"/>
       <c r="CU43" s="40"/>
-      <c r="CV43" s="66"/>
+      <c r="CV43" s="65"/>
       <c r="CW43" s="40"/>
       <c r="CX43" s="40"/>
       <c r="CY43" s="41"/>
@@ -11055,7 +12195,7 @@
       <c r="EA43" s="41"/>
       <c r="EB43" s="40"/>
       <c r="EC43" s="40"/>
-      <c r="ED43" s="72"/>
+      <c r="ED43" s="71"/>
       <c r="EE43" s="40"/>
       <c r="EF43" s="40"/>
       <c r="EG43" s="40"/>
@@ -11090,7 +12230,7 @@
       <c r="FJ43" s="40"/>
       <c r="FK43" s="39"/>
       <c r="FL43" s="40"/>
-      <c r="FM43" s="66"/>
+      <c r="FM43" s="65"/>
       <c r="FN43" s="40"/>
       <c r="FO43" s="40"/>
       <c r="FP43" s="40"/>
@@ -11153,7 +12293,7 @@
       <c r="AL44" s="11"/>
       <c r="AM44" s="11"/>
       <c r="AN44" s="11"/>
-      <c r="AO44" s="76"/>
+      <c r="AO44" s="75"/>
       <c r="AP44" s="11"/>
       <c r="AQ44" s="11"/>
       <c r="AR44" s="11"/>
@@ -11190,7 +12330,7 @@
       <c r="BW44" s="22"/>
       <c r="BX44" s="11"/>
       <c r="BY44" s="11"/>
-      <c r="BZ44" s="73"/>
+      <c r="BZ44" s="72"/>
       <c r="CA44" s="11"/>
       <c r="CB44" s="11"/>
       <c r="CC44" s="11"/>
@@ -11212,7 +12352,7 @@
       <c r="CS44" s="23"/>
       <c r="CT44" s="11"/>
       <c r="CU44" s="11"/>
-      <c r="CV44" s="67"/>
+      <c r="CV44" s="66"/>
       <c r="CW44" s="11"/>
       <c r="CX44" s="11"/>
       <c r="CY44" s="22"/>
@@ -11246,42 +12386,42 @@
       <c r="EA44" s="22"/>
       <c r="EB44" s="11"/>
       <c r="EC44" s="11"/>
-      <c r="ED44" s="73"/>
-      <c r="EE44" s="83"/>
-      <c r="EF44" s="83"/>
-      <c r="EG44" s="83"/>
-      <c r="EH44" s="83"/>
-      <c r="EI44" s="84"/>
-      <c r="EJ44" s="83"/>
-      <c r="EK44" s="83"/>
-      <c r="EL44" s="83"/>
-      <c r="EM44" s="83"/>
-      <c r="EN44" s="83"/>
-      <c r="EO44" s="85"/>
-      <c r="EP44" s="83"/>
-      <c r="EQ44" s="83"/>
-      <c r="ER44" s="83"/>
-      <c r="ES44" s="83"/>
-      <c r="ET44" s="83"/>
-      <c r="EU44" s="83"/>
-      <c r="EV44" s="83"/>
-      <c r="EW44" s="84"/>
-      <c r="EX44" s="83"/>
-      <c r="EY44" s="83"/>
-      <c r="EZ44" s="83"/>
-      <c r="FA44" s="83"/>
-      <c r="FB44" s="83"/>
-      <c r="FC44" s="85"/>
-      <c r="FD44" s="83"/>
-      <c r="FE44" s="83"/>
-      <c r="FF44" s="83"/>
-      <c r="FG44" s="83"/>
-      <c r="FH44" s="83"/>
-      <c r="FI44" s="83"/>
-      <c r="FJ44" s="83"/>
-      <c r="FK44" s="84"/>
-      <c r="FL44" s="83"/>
-      <c r="FM44" s="67"/>
+      <c r="ED44" s="72"/>
+      <c r="EE44" s="82"/>
+      <c r="EF44" s="82"/>
+      <c r="EG44" s="82"/>
+      <c r="EH44" s="82"/>
+      <c r="EI44" s="83"/>
+      <c r="EJ44" s="82"/>
+      <c r="EK44" s="82"/>
+      <c r="EL44" s="82"/>
+      <c r="EM44" s="82"/>
+      <c r="EN44" s="82"/>
+      <c r="EO44" s="84"/>
+      <c r="EP44" s="82"/>
+      <c r="EQ44" s="82"/>
+      <c r="ER44" s="82"/>
+      <c r="ES44" s="82"/>
+      <c r="ET44" s="82"/>
+      <c r="EU44" s="82"/>
+      <c r="EV44" s="82"/>
+      <c r="EW44" s="83"/>
+      <c r="EX44" s="82"/>
+      <c r="EY44" s="82"/>
+      <c r="EZ44" s="82"/>
+      <c r="FA44" s="82"/>
+      <c r="FB44" s="82"/>
+      <c r="FC44" s="84"/>
+      <c r="FD44" s="82"/>
+      <c r="FE44" s="82"/>
+      <c r="FF44" s="82"/>
+      <c r="FG44" s="82"/>
+      <c r="FH44" s="82"/>
+      <c r="FI44" s="82"/>
+      <c r="FJ44" s="82"/>
+      <c r="FK44" s="83"/>
+      <c r="FL44" s="82"/>
+      <c r="FM44" s="66"/>
       <c r="FN44" s="11"/>
       <c r="FO44" s="11"/>
       <c r="FP44" s="11"/>
@@ -11340,7 +12480,7 @@
       <c r="AL45" s="11"/>
       <c r="AM45" s="11"/>
       <c r="AN45" s="11"/>
-      <c r="AO45" s="76"/>
+      <c r="AO45" s="75"/>
       <c r="AP45" s="11"/>
       <c r="AQ45" s="11"/>
       <c r="AR45" s="11"/>
@@ -11377,7 +12517,7 @@
       <c r="BW45" s="22"/>
       <c r="BX45" s="11"/>
       <c r="BY45" s="11"/>
-      <c r="BZ45" s="73"/>
+      <c r="BZ45" s="72"/>
       <c r="CA45" s="11"/>
       <c r="CB45" s="11"/>
       <c r="CC45" s="11"/>
@@ -11399,7 +12539,7 @@
       <c r="CS45" s="23"/>
       <c r="CT45" s="11"/>
       <c r="CU45" s="11"/>
-      <c r="CV45" s="67"/>
+      <c r="CV45" s="66"/>
       <c r="CW45" s="11"/>
       <c r="CX45" s="11"/>
       <c r="CY45" s="22"/>
@@ -11433,7 +12573,7 @@
       <c r="EA45" s="22"/>
       <c r="EB45" s="11"/>
       <c r="EC45" s="11"/>
-      <c r="ED45" s="73"/>
+      <c r="ED45" s="72"/>
       <c r="EE45" s="11"/>
       <c r="EF45" s="11"/>
       <c r="EG45" s="11"/>
@@ -11468,7 +12608,7 @@
       <c r="FJ45" s="11"/>
       <c r="FK45" s="23"/>
       <c r="FL45" s="11"/>
-      <c r="FM45" s="67"/>
+      <c r="FM45" s="66"/>
       <c r="FN45" s="11"/>
       <c r="FO45" s="11"/>
       <c r="FP45" s="11"/>
@@ -11531,7 +12671,7 @@
       <c r="AL46" s="11"/>
       <c r="AM46" s="11"/>
       <c r="AN46" s="11"/>
-      <c r="AO46" s="76"/>
+      <c r="AO46" s="75"/>
       <c r="AP46" s="11"/>
       <c r="AQ46" s="11"/>
       <c r="AR46" s="11"/>
@@ -11568,7 +12708,7 @@
       <c r="BW46" s="22"/>
       <c r="BX46" s="11"/>
       <c r="BY46" s="11"/>
-      <c r="BZ46" s="73"/>
+      <c r="BZ46" s="72"/>
       <c r="CA46" s="11"/>
       <c r="CB46" s="11"/>
       <c r="CC46" s="11"/>
@@ -11590,7 +12730,7 @@
       <c r="CS46" s="23"/>
       <c r="CT46" s="11"/>
       <c r="CU46" s="11"/>
-      <c r="CV46" s="67"/>
+      <c r="CV46" s="66"/>
       <c r="CW46" s="11"/>
       <c r="CX46" s="11"/>
       <c r="CY46" s="22"/>
@@ -11624,42 +12764,42 @@
       <c r="EA46" s="22"/>
       <c r="EB46" s="11"/>
       <c r="EC46" s="11"/>
-      <c r="ED46" s="73"/>
-      <c r="EE46" s="83"/>
-      <c r="EF46" s="83"/>
-      <c r="EG46" s="83"/>
-      <c r="EH46" s="83"/>
-      <c r="EI46" s="84"/>
-      <c r="EJ46" s="83"/>
-      <c r="EK46" s="83"/>
-      <c r="EL46" s="83"/>
-      <c r="EM46" s="83"/>
-      <c r="EN46" s="83"/>
-      <c r="EO46" s="85"/>
-      <c r="EP46" s="83"/>
-      <c r="EQ46" s="83"/>
-      <c r="ER46" s="83"/>
-      <c r="ES46" s="83"/>
-      <c r="ET46" s="83"/>
-      <c r="EU46" s="83"/>
-      <c r="EV46" s="83"/>
-      <c r="EW46" s="84"/>
-      <c r="EX46" s="83"/>
-      <c r="EY46" s="83"/>
-      <c r="EZ46" s="83"/>
-      <c r="FA46" s="83"/>
-      <c r="FB46" s="83"/>
-      <c r="FC46" s="85"/>
-      <c r="FD46" s="83"/>
-      <c r="FE46" s="83"/>
-      <c r="FF46" s="83"/>
-      <c r="FG46" s="83"/>
-      <c r="FH46" s="83"/>
-      <c r="FI46" s="83"/>
-      <c r="FJ46" s="83"/>
-      <c r="FK46" s="84"/>
-      <c r="FL46" s="83"/>
-      <c r="FM46" s="67"/>
+      <c r="ED46" s="72"/>
+      <c r="EE46" s="82"/>
+      <c r="EF46" s="82"/>
+      <c r="EG46" s="82"/>
+      <c r="EH46" s="82"/>
+      <c r="EI46" s="83"/>
+      <c r="EJ46" s="82"/>
+      <c r="EK46" s="82"/>
+      <c r="EL46" s="82"/>
+      <c r="EM46" s="82"/>
+      <c r="EN46" s="82"/>
+      <c r="EO46" s="84"/>
+      <c r="EP46" s="82"/>
+      <c r="EQ46" s="82"/>
+      <c r="ER46" s="82"/>
+      <c r="ES46" s="82"/>
+      <c r="ET46" s="82"/>
+      <c r="EU46" s="82"/>
+      <c r="EV46" s="82"/>
+      <c r="EW46" s="83"/>
+      <c r="EX46" s="82"/>
+      <c r="EY46" s="82"/>
+      <c r="EZ46" s="82"/>
+      <c r="FA46" s="82"/>
+      <c r="FB46" s="82"/>
+      <c r="FC46" s="84"/>
+      <c r="FD46" s="82"/>
+      <c r="FE46" s="82"/>
+      <c r="FF46" s="82"/>
+      <c r="FG46" s="82"/>
+      <c r="FH46" s="82"/>
+      <c r="FI46" s="82"/>
+      <c r="FJ46" s="82"/>
+      <c r="FK46" s="83"/>
+      <c r="FL46" s="82"/>
+      <c r="FM46" s="66"/>
       <c r="FN46" s="11"/>
       <c r="FO46" s="11"/>
       <c r="FP46" s="11"/>
@@ -11718,7 +12858,7 @@
       <c r="AL47" s="11"/>
       <c r="AM47" s="11"/>
       <c r="AN47" s="11"/>
-      <c r="AO47" s="76"/>
+      <c r="AO47" s="75"/>
       <c r="AP47" s="11"/>
       <c r="AQ47" s="11"/>
       <c r="AR47" s="11"/>
@@ -11755,7 +12895,7 @@
       <c r="BW47" s="22"/>
       <c r="BX47" s="11"/>
       <c r="BY47" s="11"/>
-      <c r="BZ47" s="73"/>
+      <c r="BZ47" s="72"/>
       <c r="CA47" s="11"/>
       <c r="CB47" s="11"/>
       <c r="CC47" s="11"/>
@@ -11777,7 +12917,7 @@
       <c r="CS47" s="23"/>
       <c r="CT47" s="11"/>
       <c r="CU47" s="11"/>
-      <c r="CV47" s="67"/>
+      <c r="CV47" s="66"/>
       <c r="CW47" s="11"/>
       <c r="CX47" s="11"/>
       <c r="CY47" s="22"/>
@@ -11811,7 +12951,7 @@
       <c r="EA47" s="22"/>
       <c r="EB47" s="11"/>
       <c r="EC47" s="11"/>
-      <c r="ED47" s="73"/>
+      <c r="ED47" s="72"/>
       <c r="EE47" s="11"/>
       <c r="EF47" s="11"/>
       <c r="EG47" s="11"/>
@@ -11846,7 +12986,7 @@
       <c r="FJ47" s="11"/>
       <c r="FK47" s="23"/>
       <c r="FL47" s="11"/>
-      <c r="FM47" s="67"/>
+      <c r="FM47" s="66"/>
       <c r="FN47" s="11"/>
       <c r="FO47" s="11"/>
       <c r="FP47" s="11"/>
@@ -11871,7 +13011,7 @@
       <c r="B48" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="52"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="40"/>
       <c r="E48" s="38"/>
       <c r="F48" s="40"/>
@@ -11909,7 +13049,7 @@
       <c r="AL48" s="40"/>
       <c r="AM48" s="40"/>
       <c r="AN48" s="40"/>
-      <c r="AO48" s="75"/>
+      <c r="AO48" s="74"/>
       <c r="AP48" s="40"/>
       <c r="AQ48" s="40"/>
       <c r="AR48" s="40"/>
@@ -11946,7 +13086,7 @@
       <c r="BW48" s="41"/>
       <c r="BX48" s="40"/>
       <c r="BY48" s="40"/>
-      <c r="BZ48" s="72"/>
+      <c r="BZ48" s="71"/>
       <c r="CA48" s="40"/>
       <c r="CB48" s="40"/>
       <c r="CC48" s="40"/>
@@ -11968,7 +13108,7 @@
       <c r="CS48" s="39"/>
       <c r="CT48" s="40"/>
       <c r="CU48" s="40"/>
-      <c r="CV48" s="66"/>
+      <c r="CV48" s="65"/>
       <c r="CW48" s="40"/>
       <c r="CX48" s="40"/>
       <c r="CY48" s="41"/>
@@ -12002,7 +13142,7 @@
       <c r="EA48" s="41"/>
       <c r="EB48" s="40"/>
       <c r="EC48" s="40"/>
-      <c r="ED48" s="72"/>
+      <c r="ED48" s="71"/>
       <c r="EE48" s="40"/>
       <c r="EF48" s="40"/>
       <c r="EG48" s="40"/>
@@ -12037,7 +13177,7 @@
       <c r="FJ48" s="40"/>
       <c r="FK48" s="39"/>
       <c r="FL48" s="40"/>
-      <c r="FM48" s="66"/>
+      <c r="FM48" s="65"/>
       <c r="FN48" s="40"/>
       <c r="FO48" s="40"/>
       <c r="FP48" s="40"/>
@@ -12100,7 +13240,7 @@
       <c r="AL49" s="11"/>
       <c r="AM49" s="11"/>
       <c r="AN49" s="11"/>
-      <c r="AO49" s="76"/>
+      <c r="AO49" s="75"/>
       <c r="AP49" s="11"/>
       <c r="AQ49" s="11"/>
       <c r="AR49" s="11"/>
@@ -12137,7 +13277,7 @@
       <c r="BW49" s="22"/>
       <c r="BX49" s="11"/>
       <c r="BY49" s="11"/>
-      <c r="BZ49" s="73"/>
+      <c r="BZ49" s="72"/>
       <c r="CA49" s="11"/>
       <c r="CB49" s="11"/>
       <c r="CC49" s="11"/>
@@ -12159,7 +13299,7 @@
       <c r="CS49" s="23"/>
       <c r="CT49" s="11"/>
       <c r="CU49" s="11"/>
-      <c r="CV49" s="67"/>
+      <c r="CV49" s="66"/>
       <c r="CW49" s="11"/>
       <c r="CX49" s="11"/>
       <c r="CY49" s="22"/>
@@ -12193,7 +13333,7 @@
       <c r="EA49" s="22"/>
       <c r="EB49" s="11"/>
       <c r="EC49" s="11"/>
-      <c r="ED49" s="73"/>
+      <c r="ED49" s="72"/>
       <c r="EE49" s="11"/>
       <c r="EF49" s="11"/>
       <c r="EG49" s="11"/>
@@ -12228,16 +13368,16 @@
       <c r="FJ49" s="11"/>
       <c r="FK49" s="23"/>
       <c r="FL49" s="11"/>
-      <c r="FM49" s="88"/>
-      <c r="FN49" s="83"/>
-      <c r="FO49" s="83"/>
-      <c r="FP49" s="83"/>
-      <c r="FQ49" s="85"/>
-      <c r="FR49" s="83"/>
-      <c r="FS49" s="83"/>
-      <c r="FT49" s="83"/>
-      <c r="FU49" s="83"/>
-      <c r="FV49" s="83"/>
+      <c r="FM49" s="87"/>
+      <c r="FN49" s="82"/>
+      <c r="FO49" s="82"/>
+      <c r="FP49" s="82"/>
+      <c r="FQ49" s="84"/>
+      <c r="FR49" s="82"/>
+      <c r="FS49" s="82"/>
+      <c r="FT49" s="82"/>
+      <c r="FU49" s="82"/>
+      <c r="FV49" s="82"/>
       <c r="FW49" s="11"/>
       <c r="FX49" s="11"/>
       <c r="FY49" s="23"/>
@@ -12287,7 +13427,7 @@
       <c r="AL50" s="11"/>
       <c r="AM50" s="11"/>
       <c r="AN50" s="11"/>
-      <c r="AO50" s="76"/>
+      <c r="AO50" s="75"/>
       <c r="AP50" s="11"/>
       <c r="AQ50" s="11"/>
       <c r="AR50" s="11"/>
@@ -12324,7 +13464,7 @@
       <c r="BW50" s="22"/>
       <c r="BX50" s="11"/>
       <c r="BY50" s="11"/>
-      <c r="BZ50" s="73"/>
+      <c r="BZ50" s="72"/>
       <c r="CA50" s="11"/>
       <c r="CB50" s="11"/>
       <c r="CC50" s="11"/>
@@ -12346,7 +13486,7 @@
       <c r="CS50" s="23"/>
       <c r="CT50" s="11"/>
       <c r="CU50" s="11"/>
-      <c r="CV50" s="67"/>
+      <c r="CV50" s="66"/>
       <c r="CW50" s="11"/>
       <c r="CX50" s="11"/>
       <c r="CY50" s="22"/>
@@ -12380,7 +13520,7 @@
       <c r="EA50" s="22"/>
       <c r="EB50" s="11"/>
       <c r="EC50" s="11"/>
-      <c r="ED50" s="73"/>
+      <c r="ED50" s="72"/>
       <c r="EE50" s="11"/>
       <c r="EF50" s="11"/>
       <c r="EG50" s="11"/>
@@ -12415,7 +13555,7 @@
       <c r="FJ50" s="11"/>
       <c r="FK50" s="23"/>
       <c r="FL50" s="11"/>
-      <c r="FM50" s="67"/>
+      <c r="FM50" s="66"/>
       <c r="FN50" s="11"/>
       <c r="FO50" s="11"/>
       <c r="FP50" s="11"/>
@@ -12478,7 +13618,7 @@
       <c r="AL51" s="11"/>
       <c r="AM51" s="11"/>
       <c r="AN51" s="11"/>
-      <c r="AO51" s="76"/>
+      <c r="AO51" s="75"/>
       <c r="AP51" s="11"/>
       <c r="AQ51" s="11"/>
       <c r="AR51" s="11"/>
@@ -12515,7 +13655,7 @@
       <c r="BW51" s="22"/>
       <c r="BX51" s="11"/>
       <c r="BY51" s="11"/>
-      <c r="BZ51" s="73"/>
+      <c r="BZ51" s="72"/>
       <c r="CA51" s="11"/>
       <c r="CB51" s="11"/>
       <c r="CC51" s="11"/>
@@ -12537,7 +13677,7 @@
       <c r="CS51" s="23"/>
       <c r="CT51" s="11"/>
       <c r="CU51" s="11"/>
-      <c r="CV51" s="67"/>
+      <c r="CV51" s="66"/>
       <c r="CW51" s="11"/>
       <c r="CX51" s="11"/>
       <c r="CY51" s="22"/>
@@ -12571,7 +13711,7 @@
       <c r="EA51" s="22"/>
       <c r="EB51" s="11"/>
       <c r="EC51" s="11"/>
-      <c r="ED51" s="73"/>
+      <c r="ED51" s="72"/>
       <c r="EE51" s="11"/>
       <c r="EF51" s="11"/>
       <c r="EG51" s="11"/>
@@ -12606,7 +13746,7 @@
       <c r="FJ51" s="11"/>
       <c r="FK51" s="23"/>
       <c r="FL51" s="11"/>
-      <c r="FM51" s="67"/>
+      <c r="FM51" s="66"/>
       <c r="FN51" s="11"/>
       <c r="FO51" s="11"/>
       <c r="FP51" s="11"/>
@@ -12616,13 +13756,13 @@
       <c r="FT51" s="11"/>
       <c r="FU51" s="11"/>
       <c r="FV51" s="11"/>
-      <c r="FW51" s="83"/>
-      <c r="FX51" s="83"/>
-      <c r="FY51" s="84"/>
-      <c r="FZ51" s="83"/>
-      <c r="GA51" s="83"/>
-      <c r="GB51" s="83"/>
-      <c r="GC51" s="89"/>
+      <c r="FW51" s="82"/>
+      <c r="FX51" s="82"/>
+      <c r="FY51" s="83"/>
+      <c r="FZ51" s="82"/>
+      <c r="GA51" s="82"/>
+      <c r="GB51" s="82"/>
+      <c r="GC51" s="88"/>
     </row>
     <row r="52" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
@@ -12664,7 +13804,7 @@
       <c r="AL52" s="11"/>
       <c r="AM52" s="11"/>
       <c r="AN52" s="11"/>
-      <c r="AO52" s="76"/>
+      <c r="AO52" s="75"/>
       <c r="AP52" s="11"/>
       <c r="AQ52" s="11"/>
       <c r="AR52" s="11"/>
@@ -12701,7 +13841,7 @@
       <c r="BW52" s="22"/>
       <c r="BX52" s="11"/>
       <c r="BY52" s="11"/>
-      <c r="BZ52" s="73"/>
+      <c r="BZ52" s="72"/>
       <c r="CA52" s="11"/>
       <c r="CB52" s="11"/>
       <c r="CC52" s="11"/>
@@ -12723,7 +13863,7 @@
       <c r="CS52" s="23"/>
       <c r="CT52" s="11"/>
       <c r="CU52" s="11"/>
-      <c r="CV52" s="67"/>
+      <c r="CV52" s="66"/>
       <c r="CW52" s="11"/>
       <c r="CX52" s="11"/>
       <c r="CY52" s="22"/>
@@ -12757,7 +13897,7 @@
       <c r="EA52" s="22"/>
       <c r="EB52" s="11"/>
       <c r="EC52" s="11"/>
-      <c r="ED52" s="73"/>
+      <c r="ED52" s="72"/>
       <c r="EE52" s="11"/>
       <c r="EF52" s="11"/>
       <c r="EG52" s="11"/>
@@ -12792,7 +13932,7 @@
       <c r="FJ52" s="11"/>
       <c r="FK52" s="23"/>
       <c r="FL52" s="11"/>
-      <c r="FM52" s="67"/>
+      <c r="FM52" s="66"/>
       <c r="FN52" s="11"/>
       <c r="FO52" s="11"/>
       <c r="FP52" s="11"/>
@@ -12855,7 +13995,7 @@
       <c r="AL53" s="40"/>
       <c r="AM53" s="40"/>
       <c r="AN53" s="40"/>
-      <c r="AO53" s="75"/>
+      <c r="AO53" s="74"/>
       <c r="AP53" s="40"/>
       <c r="AQ53" s="40"/>
       <c r="AR53" s="40"/>
@@ -12892,7 +14032,7 @@
       <c r="BW53" s="41"/>
       <c r="BX53" s="40"/>
       <c r="BY53" s="40"/>
-      <c r="BZ53" s="72"/>
+      <c r="BZ53" s="71"/>
       <c r="CA53" s="40"/>
       <c r="CB53" s="40"/>
       <c r="CC53" s="40"/>
@@ -12914,7 +14054,7 @@
       <c r="CS53" s="39"/>
       <c r="CT53" s="40"/>
       <c r="CU53" s="40"/>
-      <c r="CV53" s="66"/>
+      <c r="CV53" s="65"/>
       <c r="CW53" s="40"/>
       <c r="CX53" s="40"/>
       <c r="CY53" s="41"/>
@@ -12948,7 +14088,7 @@
       <c r="EA53" s="41"/>
       <c r="EB53" s="40"/>
       <c r="EC53" s="40"/>
-      <c r="ED53" s="72"/>
+      <c r="ED53" s="71"/>
       <c r="EE53" s="40"/>
       <c r="EF53" s="40"/>
       <c r="EG53" s="40"/>
@@ -12983,7 +14123,7 @@
       <c r="FJ53" s="40"/>
       <c r="FK53" s="39"/>
       <c r="FL53" s="40"/>
-      <c r="FM53" s="66"/>
+      <c r="FM53" s="65"/>
       <c r="FN53" s="40"/>
       <c r="FO53" s="40"/>
       <c r="FP53" s="40"/>
@@ -13022,7 +14162,7 @@
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
-      <c r="R54" s="77"/>
+      <c r="R54" s="76"/>
       <c r="S54" s="22"/>
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
@@ -13035,7 +14175,7 @@
       <c r="AB54" s="11"/>
       <c r="AC54" s="11"/>
       <c r="AD54" s="11"/>
-      <c r="AE54" s="77"/>
+      <c r="AE54" s="76"/>
       <c r="AF54" s="11"/>
       <c r="AG54" s="22"/>
       <c r="AH54" s="11"/>
@@ -13045,7 +14185,7 @@
       <c r="AL54" s="11"/>
       <c r="AM54" s="11"/>
       <c r="AN54" s="11"/>
-      <c r="AO54" s="76"/>
+      <c r="AO54" s="75"/>
       <c r="AP54" s="11"/>
       <c r="AQ54" s="11"/>
       <c r="AR54" s="11"/>
@@ -13053,7 +14193,7 @@
       <c r="AT54" s="11"/>
       <c r="AU54" s="22"/>
       <c r="AV54" s="11"/>
-      <c r="AW54" s="77"/>
+      <c r="AW54" s="76"/>
       <c r="AX54" s="11"/>
       <c r="AY54" s="11"/>
       <c r="AZ54" s="11"/>
@@ -13067,7 +14207,7 @@
       <c r="BH54" s="11"/>
       <c r="BI54" s="22"/>
       <c r="BJ54" s="11"/>
-      <c r="BK54" s="77"/>
+      <c r="BK54" s="76"/>
       <c r="BL54" s="11"/>
       <c r="BM54" s="11"/>
       <c r="BN54" s="11"/>
@@ -13082,8 +14222,8 @@
       <c r="BW54" s="22"/>
       <c r="BX54" s="11"/>
       <c r="BY54" s="11"/>
-      <c r="BZ54" s="73"/>
-      <c r="CA54" s="77"/>
+      <c r="BZ54" s="72"/>
+      <c r="CA54" s="76"/>
       <c r="CB54" s="11"/>
       <c r="CC54" s="11"/>
       <c r="CD54" s="11"/>
@@ -13097,14 +14237,14 @@
       <c r="CL54" s="11"/>
       <c r="CM54" s="11"/>
       <c r="CN54" s="11"/>
-      <c r="CO54" s="77"/>
+      <c r="CO54" s="76"/>
       <c r="CP54" s="11"/>
       <c r="CQ54" s="11"/>
       <c r="CR54" s="11"/>
       <c r="CS54" s="23"/>
       <c r="CT54" s="11"/>
       <c r="CU54" s="11"/>
-      <c r="CV54" s="67"/>
+      <c r="CV54" s="66"/>
       <c r="CW54" s="11"/>
       <c r="CX54" s="11"/>
       <c r="CY54" s="22"/>
@@ -13113,7 +14253,7 @@
       <c r="DB54" s="11"/>
       <c r="DC54" s="11"/>
       <c r="DD54" s="11"/>
-      <c r="DE54" s="77"/>
+      <c r="DE54" s="76"/>
       <c r="DF54" s="11"/>
       <c r="DG54" s="23"/>
       <c r="DH54" s="11"/>
@@ -13129,7 +14269,7 @@
       <c r="DR54" s="11"/>
       <c r="DS54" s="11"/>
       <c r="DT54" s="11"/>
-      <c r="DU54" s="78"/>
+      <c r="DU54" s="77"/>
       <c r="DV54" s="11"/>
       <c r="DW54" s="11"/>
       <c r="DX54" s="11"/>
@@ -13138,14 +14278,14 @@
       <c r="EA54" s="22"/>
       <c r="EB54" s="11"/>
       <c r="EC54" s="11"/>
-      <c r="ED54" s="73"/>
+      <c r="ED54" s="72"/>
       <c r="EE54" s="11"/>
       <c r="EF54" s="11"/>
       <c r="EG54" s="11"/>
       <c r="EH54" s="11"/>
       <c r="EI54" s="23"/>
       <c r="EJ54" s="11"/>
-      <c r="EK54" s="77"/>
+      <c r="EK54" s="76"/>
       <c r="EL54" s="11"/>
       <c r="EM54" s="11"/>
       <c r="EN54" s="11"/>
@@ -13159,7 +14299,7 @@
       <c r="EV54" s="11"/>
       <c r="EW54" s="23"/>
       <c r="EX54" s="11"/>
-      <c r="EY54" s="77"/>
+      <c r="EY54" s="76"/>
       <c r="EZ54" s="11"/>
       <c r="FA54" s="11"/>
       <c r="FB54" s="11"/>
@@ -13173,7 +14313,7 @@
       <c r="FJ54" s="11"/>
       <c r="FK54" s="23"/>
       <c r="FL54" s="11"/>
-      <c r="FM54" s="79"/>
+      <c r="FM54" s="78"/>
       <c r="FN54" s="11"/>
       <c r="FO54" s="11"/>
       <c r="FP54" s="11"/>
@@ -13187,7 +14327,7 @@
       <c r="FX54" s="11"/>
       <c r="FY54" s="23"/>
       <c r="FZ54" s="11"/>
-      <c r="GA54" s="77"/>
+      <c r="GA54" s="76"/>
       <c r="GB54" s="11"/>
       <c r="GC54" s="24"/>
     </row>
@@ -13231,7 +14371,7 @@
       <c r="AL55" s="11"/>
       <c r="AM55" s="11"/>
       <c r="AN55" s="11"/>
-      <c r="AO55" s="76"/>
+      <c r="AO55" s="75"/>
       <c r="AP55" s="11"/>
       <c r="AQ55" s="11"/>
       <c r="AR55" s="11"/>
@@ -13268,7 +14408,7 @@
       <c r="BW55" s="22"/>
       <c r="BX55" s="11"/>
       <c r="BY55" s="11"/>
-      <c r="BZ55" s="73"/>
+      <c r="BZ55" s="72"/>
       <c r="CA55" s="11"/>
       <c r="CB55" s="11"/>
       <c r="CC55" s="11"/>
@@ -13290,7 +14430,7 @@
       <c r="CS55" s="23"/>
       <c r="CT55" s="11"/>
       <c r="CU55" s="11"/>
-      <c r="CV55" s="67"/>
+      <c r="CV55" s="66"/>
       <c r="CW55" s="11"/>
       <c r="CX55" s="11"/>
       <c r="CY55" s="22"/>
@@ -13324,7 +14464,7 @@
       <c r="EA55" s="22"/>
       <c r="EB55" s="11"/>
       <c r="EC55" s="11"/>
-      <c r="ED55" s="73"/>
+      <c r="ED55" s="72"/>
       <c r="EE55" s="11"/>
       <c r="EF55" s="11"/>
       <c r="EG55" s="11"/>
@@ -13359,7 +14499,7 @@
       <c r="FJ55" s="11"/>
       <c r="FK55" s="23"/>
       <c r="FL55" s="11"/>
-      <c r="FM55" s="67"/>
+      <c r="FM55" s="66"/>
       <c r="FN55" s="11"/>
       <c r="FO55" s="11"/>
       <c r="FP55" s="11"/>
@@ -13421,7 +14561,7 @@
       <c r="AL56" s="11"/>
       <c r="AM56" s="11"/>
       <c r="AN56" s="11"/>
-      <c r="AO56" s="76"/>
+      <c r="AO56" s="75"/>
       <c r="AP56" s="11"/>
       <c r="AQ56" s="11"/>
       <c r="AR56" s="11"/>
@@ -13458,7 +14598,7 @@
       <c r="BW56" s="22"/>
       <c r="BX56" s="11"/>
       <c r="BY56" s="11"/>
-      <c r="BZ56" s="73"/>
+      <c r="BZ56" s="72"/>
       <c r="CA56" s="11"/>
       <c r="CB56" s="11"/>
       <c r="CC56" s="11"/>
@@ -13480,7 +14620,7 @@
       <c r="CS56" s="23"/>
       <c r="CT56" s="11"/>
       <c r="CU56" s="11"/>
-      <c r="CV56" s="67"/>
+      <c r="CV56" s="66"/>
       <c r="CW56" s="11"/>
       <c r="CX56" s="11"/>
       <c r="CY56" s="22"/>
@@ -13514,7 +14654,7 @@
       <c r="EA56" s="22"/>
       <c r="EB56" s="11"/>
       <c r="EC56" s="11"/>
-      <c r="ED56" s="73"/>
+      <c r="ED56" s="72"/>
       <c r="EE56" s="11"/>
       <c r="EF56" s="11"/>
       <c r="EG56" s="11"/>
@@ -13549,7 +14689,7 @@
       <c r="FJ56" s="11"/>
       <c r="FK56" s="23"/>
       <c r="FL56" s="11"/>
-      <c r="FM56" s="67"/>
+      <c r="FM56" s="66"/>
       <c r="FN56" s="11"/>
       <c r="FO56" s="11"/>
       <c r="FP56" s="11"/>
@@ -13607,7 +14747,7 @@
       <c r="AL57" s="11"/>
       <c r="AM57" s="11"/>
       <c r="AN57" s="11"/>
-      <c r="AO57" s="76"/>
+      <c r="AO57" s="75"/>
       <c r="AP57" s="11"/>
       <c r="AQ57" s="11"/>
       <c r="AR57" s="11"/>
@@ -13644,7 +14784,7 @@
       <c r="BW57" s="22"/>
       <c r="BX57" s="11"/>
       <c r="BY57" s="11"/>
-      <c r="BZ57" s="73"/>
+      <c r="BZ57" s="72"/>
       <c r="CA57" s="11"/>
       <c r="CB57" s="11"/>
       <c r="CC57" s="11"/>
@@ -13666,7 +14806,7 @@
       <c r="CS57" s="23"/>
       <c r="CT57" s="11"/>
       <c r="CU57" s="11"/>
-      <c r="CV57" s="67"/>
+      <c r="CV57" s="66"/>
       <c r="CW57" s="11"/>
       <c r="CX57" s="11"/>
       <c r="CY57" s="22"/>
@@ -13700,7 +14840,7 @@
       <c r="EA57" s="22"/>
       <c r="EB57" s="11"/>
       <c r="EC57" s="11"/>
-      <c r="ED57" s="73"/>
+      <c r="ED57" s="72"/>
       <c r="EE57" s="11"/>
       <c r="EF57" s="11"/>
       <c r="EG57" s="11"/>
@@ -13735,7 +14875,7 @@
       <c r="FJ57" s="11"/>
       <c r="FK57" s="23"/>
       <c r="FL57" s="11"/>
-      <c r="FM57" s="67"/>
+      <c r="FM57" s="66"/>
       <c r="FN57" s="11"/>
       <c r="FO57" s="11"/>
       <c r="FP57" s="11"/>
@@ -13797,7 +14937,7 @@
       <c r="AL58" s="11"/>
       <c r="AM58" s="11"/>
       <c r="AN58" s="11"/>
-      <c r="AO58" s="76"/>
+      <c r="AO58" s="75"/>
       <c r="AP58" s="11"/>
       <c r="AQ58" s="11"/>
       <c r="AR58" s="11"/>
@@ -13834,7 +14974,7 @@
       <c r="BW58" s="22"/>
       <c r="BX58" s="11"/>
       <c r="BY58" s="11"/>
-      <c r="BZ58" s="73"/>
+      <c r="BZ58" s="72"/>
       <c r="CA58" s="11"/>
       <c r="CB58" s="11"/>
       <c r="CC58" s="11"/>
@@ -13856,7 +14996,7 @@
       <c r="CS58" s="23"/>
       <c r="CT58" s="11"/>
       <c r="CU58" s="11"/>
-      <c r="CV58" s="67"/>
+      <c r="CV58" s="66"/>
       <c r="CW58" s="11"/>
       <c r="CX58" s="11"/>
       <c r="CY58" s="22"/>
@@ -13890,7 +15030,7 @@
       <c r="EA58" s="22"/>
       <c r="EB58" s="11"/>
       <c r="EC58" s="11"/>
-      <c r="ED58" s="73"/>
+      <c r="ED58" s="72"/>
       <c r="EE58" s="11"/>
       <c r="EF58" s="11"/>
       <c r="EG58" s="11"/>
@@ -13925,7 +15065,7 @@
       <c r="FJ58" s="11"/>
       <c r="FK58" s="23"/>
       <c r="FL58" s="11"/>
-      <c r="FM58" s="67"/>
+      <c r="FM58" s="66"/>
       <c r="FN58" s="11"/>
       <c r="FO58" s="11"/>
       <c r="FP58" s="11"/>
@@ -13983,7 +15123,7 @@
       <c r="AL59" s="11"/>
       <c r="AM59" s="11"/>
       <c r="AN59" s="11"/>
-      <c r="AO59" s="76"/>
+      <c r="AO59" s="75"/>
       <c r="AP59" s="11"/>
       <c r="AQ59" s="11"/>
       <c r="AR59" s="11"/>
@@ -14020,7 +15160,7 @@
       <c r="BW59" s="22"/>
       <c r="BX59" s="11"/>
       <c r="BY59" s="11"/>
-      <c r="BZ59" s="73"/>
+      <c r="BZ59" s="72"/>
       <c r="CA59" s="11"/>
       <c r="CB59" s="11"/>
       <c r="CC59" s="11"/>
@@ -14042,7 +15182,7 @@
       <c r="CS59" s="23"/>
       <c r="CT59" s="11"/>
       <c r="CU59" s="11"/>
-      <c r="CV59" s="67"/>
+      <c r="CV59" s="66"/>
       <c r="CW59" s="11"/>
       <c r="CX59" s="11"/>
       <c r="CY59" s="22"/>
@@ -14076,7 +15216,7 @@
       <c r="EA59" s="22"/>
       <c r="EB59" s="11"/>
       <c r="EC59" s="11"/>
-      <c r="ED59" s="73"/>
+      <c r="ED59" s="72"/>
       <c r="EE59" s="11"/>
       <c r="EF59" s="11"/>
       <c r="EG59" s="11"/>
@@ -14111,7 +15251,7 @@
       <c r="FJ59" s="11"/>
       <c r="FK59" s="23"/>
       <c r="FL59" s="11"/>
-      <c r="FM59" s="67"/>
+      <c r="FM59" s="66"/>
       <c r="FN59" s="11"/>
       <c r="FO59" s="11"/>
       <c r="FP59" s="11"/>
@@ -14174,7 +15314,7 @@
       <c r="AL60" s="40"/>
       <c r="AM60" s="40"/>
       <c r="AN60" s="40"/>
-      <c r="AO60" s="75"/>
+      <c r="AO60" s="74"/>
       <c r="AP60" s="40"/>
       <c r="AQ60" s="40"/>
       <c r="AR60" s="40"/>
@@ -14211,7 +15351,7 @@
       <c r="BW60" s="41"/>
       <c r="BX60" s="40"/>
       <c r="BY60" s="40"/>
-      <c r="BZ60" s="72"/>
+      <c r="BZ60" s="71"/>
       <c r="CA60" s="40"/>
       <c r="CB60" s="40"/>
       <c r="CC60" s="40"/>
@@ -14233,7 +15373,7 @@
       <c r="CS60" s="39"/>
       <c r="CT60" s="40"/>
       <c r="CU60" s="40"/>
-      <c r="CV60" s="66"/>
+      <c r="CV60" s="65"/>
       <c r="CW60" s="40"/>
       <c r="CX60" s="40"/>
       <c r="CY60" s="41"/>
@@ -14267,7 +15407,7 @@
       <c r="EA60" s="41"/>
       <c r="EB60" s="40"/>
       <c r="EC60" s="40"/>
-      <c r="ED60" s="72"/>
+      <c r="ED60" s="71"/>
       <c r="EE60" s="40"/>
       <c r="EF60" s="40"/>
       <c r="EG60" s="40"/>
@@ -14302,7 +15442,7 @@
       <c r="FJ60" s="40"/>
       <c r="FK60" s="39"/>
       <c r="FL60" s="40"/>
-      <c r="FM60" s="66"/>
+      <c r="FM60" s="65"/>
       <c r="FN60" s="40"/>
       <c r="FO60" s="40"/>
       <c r="FP60" s="40"/>
@@ -14330,7 +15470,7 @@
       </c>
       <c r="D61" s="7"/>
       <c r="F61" s="11"/>
-      <c r="G61" s="51"/>
+      <c r="G61" s="50"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
@@ -14364,7 +15504,7 @@
       <c r="AL61" s="11"/>
       <c r="AM61" s="11"/>
       <c r="AN61" s="11"/>
-      <c r="AO61" s="76"/>
+      <c r="AO61" s="75"/>
       <c r="AP61" s="11"/>
       <c r="AQ61" s="11"/>
       <c r="AR61" s="11"/>
@@ -14401,7 +15541,7 @@
       <c r="BW61" s="22"/>
       <c r="BX61" s="11"/>
       <c r="BY61" s="11"/>
-      <c r="BZ61" s="73"/>
+      <c r="BZ61" s="72"/>
       <c r="CA61" s="11"/>
       <c r="CB61" s="11"/>
       <c r="CC61" s="11"/>
@@ -14423,7 +15563,7 @@
       <c r="CS61" s="23"/>
       <c r="CT61" s="11"/>
       <c r="CU61" s="11"/>
-      <c r="CV61" s="67"/>
+      <c r="CV61" s="66"/>
       <c r="CW61" s="11"/>
       <c r="CX61" s="11"/>
       <c r="CY61" s="22"/>
@@ -14457,7 +15597,7 @@
       <c r="EA61" s="22"/>
       <c r="EB61" s="11"/>
       <c r="EC61" s="11"/>
-      <c r="ED61" s="73"/>
+      <c r="ED61" s="72"/>
       <c r="EE61" s="11"/>
       <c r="EF61" s="11"/>
       <c r="EG61" s="11"/>
@@ -14492,7 +15632,7 @@
       <c r="FJ61" s="11"/>
       <c r="FK61" s="23"/>
       <c r="FL61" s="11"/>
-      <c r="FM61" s="67"/>
+      <c r="FM61" s="66"/>
       <c r="FN61" s="11"/>
       <c r="FO61" s="11"/>
       <c r="FP61" s="11"/>
@@ -14551,7 +15691,7 @@
       <c r="AL62" s="11"/>
       <c r="AM62" s="11"/>
       <c r="AN62" s="11"/>
-      <c r="AO62" s="76"/>
+      <c r="AO62" s="75"/>
       <c r="AP62" s="11"/>
       <c r="AQ62" s="11"/>
       <c r="AR62" s="11"/>
@@ -14588,7 +15728,7 @@
       <c r="BW62" s="22"/>
       <c r="BX62" s="11"/>
       <c r="BY62" s="11"/>
-      <c r="BZ62" s="73"/>
+      <c r="BZ62" s="72"/>
       <c r="CA62" s="11"/>
       <c r="CB62" s="11"/>
       <c r="CC62" s="11"/>
@@ -14610,7 +15750,7 @@
       <c r="CS62" s="23"/>
       <c r="CT62" s="11"/>
       <c r="CU62" s="11"/>
-      <c r="CV62" s="67"/>
+      <c r="CV62" s="66"/>
       <c r="CW62" s="11"/>
       <c r="CX62" s="11"/>
       <c r="CY62" s="22"/>
@@ -14644,7 +15784,7 @@
       <c r="EA62" s="22"/>
       <c r="EB62" s="11"/>
       <c r="EC62" s="11"/>
-      <c r="ED62" s="73"/>
+      <c r="ED62" s="72"/>
       <c r="EE62" s="11"/>
       <c r="EF62" s="11"/>
       <c r="EG62" s="11"/>
@@ -14679,7 +15819,7 @@
       <c r="FJ62" s="11"/>
       <c r="FK62" s="23"/>
       <c r="FL62" s="11"/>
-      <c r="FM62" s="67"/>
+      <c r="FM62" s="66"/>
       <c r="FN62" s="11"/>
       <c r="FO62" s="11"/>
       <c r="FP62" s="11"/>
@@ -14741,7 +15881,7 @@
       <c r="AL63" s="11"/>
       <c r="AM63" s="11"/>
       <c r="AN63" s="11"/>
-      <c r="AO63" s="76"/>
+      <c r="AO63" s="75"/>
       <c r="AP63" s="11"/>
       <c r="AQ63" s="11"/>
       <c r="AR63" s="11"/>
@@ -14751,7 +15891,7 @@
       <c r="AV63" s="11"/>
       <c r="AW63" s="11"/>
       <c r="AX63" s="11"/>
-      <c r="AY63" s="51"/>
+      <c r="AY63" s="50"/>
       <c r="AZ63" s="11"/>
       <c r="BA63" s="11"/>
       <c r="BB63" s="11"/>
@@ -14778,7 +15918,7 @@
       <c r="BW63" s="22"/>
       <c r="BX63" s="11"/>
       <c r="BY63" s="11"/>
-      <c r="BZ63" s="73"/>
+      <c r="BZ63" s="72"/>
       <c r="CA63" s="11"/>
       <c r="CB63" s="11"/>
       <c r="CC63" s="11"/>
@@ -14800,7 +15940,7 @@
       <c r="CS63" s="23"/>
       <c r="CT63" s="11"/>
       <c r="CU63" s="11"/>
-      <c r="CV63" s="67"/>
+      <c r="CV63" s="66"/>
       <c r="CW63" s="11"/>
       <c r="CX63" s="11"/>
       <c r="CY63" s="22"/>
@@ -14834,7 +15974,7 @@
       <c r="EA63" s="22"/>
       <c r="EB63" s="11"/>
       <c r="EC63" s="11"/>
-      <c r="ED63" s="73"/>
+      <c r="ED63" s="72"/>
       <c r="EE63" s="11"/>
       <c r="EF63" s="11"/>
       <c r="EG63" s="11"/>
@@ -14869,7 +16009,7 @@
       <c r="FJ63" s="11"/>
       <c r="FK63" s="23"/>
       <c r="FL63" s="11"/>
-      <c r="FM63" s="67"/>
+      <c r="FM63" s="66"/>
       <c r="FN63" s="11"/>
       <c r="FO63" s="11"/>
       <c r="FP63" s="11"/>
@@ -14928,7 +16068,7 @@
       <c r="AL64" s="11"/>
       <c r="AM64" s="11"/>
       <c r="AN64" s="11"/>
-      <c r="AO64" s="76"/>
+      <c r="AO64" s="75"/>
       <c r="AP64" s="11"/>
       <c r="AQ64" s="11"/>
       <c r="AR64" s="11"/>
@@ -14965,7 +16105,7 @@
       <c r="BW64" s="22"/>
       <c r="BX64" s="11"/>
       <c r="BY64" s="11"/>
-      <c r="BZ64" s="73"/>
+      <c r="BZ64" s="72"/>
       <c r="CA64" s="11"/>
       <c r="CB64" s="11"/>
       <c r="CC64" s="11"/>
@@ -14987,7 +16127,7 @@
       <c r="CS64" s="23"/>
       <c r="CT64" s="11"/>
       <c r="CU64" s="11"/>
-      <c r="CV64" s="67"/>
+      <c r="CV64" s="66"/>
       <c r="CW64" s="11"/>
       <c r="CX64" s="11"/>
       <c r="CY64" s="22"/>
@@ -15021,7 +16161,7 @@
       <c r="EA64" s="22"/>
       <c r="EB64" s="11"/>
       <c r="EC64" s="11"/>
-      <c r="ED64" s="73"/>
+      <c r="ED64" s="72"/>
       <c r="EE64" s="11"/>
       <c r="EF64" s="11"/>
       <c r="EG64" s="11"/>
@@ -15056,7 +16196,7 @@
       <c r="FJ64" s="11"/>
       <c r="FK64" s="23"/>
       <c r="FL64" s="11"/>
-      <c r="FM64" s="67"/>
+      <c r="FM64" s="66"/>
       <c r="FN64" s="11"/>
       <c r="FO64" s="11"/>
       <c r="FP64" s="11"/>
@@ -15118,7 +16258,7 @@
       <c r="AL65" s="11"/>
       <c r="AM65" s="11"/>
       <c r="AN65" s="11"/>
-      <c r="AO65" s="76"/>
+      <c r="AO65" s="75"/>
       <c r="AP65" s="11"/>
       <c r="AQ65" s="11"/>
       <c r="AR65" s="11"/>
@@ -15142,7 +16282,7 @@
       <c r="BJ65" s="11"/>
       <c r="BK65" s="11"/>
       <c r="BL65" s="11"/>
-      <c r="BM65" s="51"/>
+      <c r="BM65" s="50"/>
       <c r="BN65" s="11"/>
       <c r="BO65" s="11"/>
       <c r="BP65" s="11"/>
@@ -15155,7 +16295,7 @@
       <c r="BW65" s="22"/>
       <c r="BX65" s="11"/>
       <c r="BY65" s="11"/>
-      <c r="BZ65" s="73"/>
+      <c r="BZ65" s="72"/>
       <c r="CA65" s="11"/>
       <c r="CB65" s="11"/>
       <c r="CC65" s="11"/>
@@ -15177,7 +16317,7 @@
       <c r="CS65" s="23"/>
       <c r="CT65" s="11"/>
       <c r="CU65" s="11"/>
-      <c r="CV65" s="67"/>
+      <c r="CV65" s="66"/>
       <c r="CW65" s="11"/>
       <c r="CX65" s="11"/>
       <c r="CY65" s="22"/>
@@ -15211,7 +16351,7 @@
       <c r="EA65" s="22"/>
       <c r="EB65" s="11"/>
       <c r="EC65" s="11"/>
-      <c r="ED65" s="73"/>
+      <c r="ED65" s="72"/>
       <c r="EE65" s="11"/>
       <c r="EF65" s="11"/>
       <c r="EG65" s="11"/>
@@ -15246,7 +16386,7 @@
       <c r="FJ65" s="11"/>
       <c r="FK65" s="23"/>
       <c r="FL65" s="11"/>
-      <c r="FM65" s="67"/>
+      <c r="FM65" s="66"/>
       <c r="FN65" s="11"/>
       <c r="FO65" s="11"/>
       <c r="FP65" s="11"/>
@@ -15305,7 +16445,7 @@
       <c r="AL66" s="11"/>
       <c r="AM66" s="11"/>
       <c r="AN66" s="11"/>
-      <c r="AO66" s="76"/>
+      <c r="AO66" s="75"/>
       <c r="AP66" s="11"/>
       <c r="AQ66" s="11"/>
       <c r="AR66" s="11"/>
@@ -15342,7 +16482,7 @@
       <c r="BW66" s="22"/>
       <c r="BX66" s="11"/>
       <c r="BY66" s="11"/>
-      <c r="BZ66" s="73"/>
+      <c r="BZ66" s="72"/>
       <c r="CA66" s="11"/>
       <c r="CB66" s="11"/>
       <c r="CC66" s="11"/>
@@ -15364,7 +16504,7 @@
       <c r="CS66" s="23"/>
       <c r="CT66" s="11"/>
       <c r="CU66" s="11"/>
-      <c r="CV66" s="67"/>
+      <c r="CV66" s="66"/>
       <c r="CW66" s="11"/>
       <c r="CX66" s="11"/>
       <c r="CY66" s="22"/>
@@ -15398,7 +16538,7 @@
       <c r="EA66" s="22"/>
       <c r="EB66" s="11"/>
       <c r="EC66" s="11"/>
-      <c r="ED66" s="73"/>
+      <c r="ED66" s="72"/>
       <c r="EE66" s="11"/>
       <c r="EF66" s="11"/>
       <c r="EG66" s="11"/>
@@ -15433,7 +16573,7 @@
       <c r="FJ66" s="11"/>
       <c r="FK66" s="23"/>
       <c r="FL66" s="11"/>
-      <c r="FM66" s="67"/>
+      <c r="FM66" s="66"/>
       <c r="FN66" s="11"/>
       <c r="FO66" s="11"/>
       <c r="FP66" s="11"/>
@@ -15495,7 +16635,7 @@
       <c r="AL67" s="11"/>
       <c r="AM67" s="11"/>
       <c r="AN67" s="11"/>
-      <c r="AO67" s="76"/>
+      <c r="AO67" s="75"/>
       <c r="AP67" s="11"/>
       <c r="AQ67" s="11"/>
       <c r="AR67" s="11"/>
@@ -15532,7 +16672,7 @@
       <c r="BW67" s="22"/>
       <c r="BX67" s="11"/>
       <c r="BY67" s="11"/>
-      <c r="BZ67" s="73"/>
+      <c r="BZ67" s="72"/>
       <c r="CA67" s="11"/>
       <c r="CB67" s="11"/>
       <c r="CC67" s="11"/>
@@ -15548,13 +16688,13 @@
       <c r="CM67" s="11"/>
       <c r="CN67" s="11"/>
       <c r="CO67" s="11"/>
-      <c r="CP67" s="51"/>
+      <c r="CP67" s="50"/>
       <c r="CQ67" s="11"/>
       <c r="CR67" s="11"/>
       <c r="CS67" s="23"/>
       <c r="CT67" s="11"/>
       <c r="CU67" s="11"/>
-      <c r="CV67" s="67"/>
+      <c r="CV67" s="66"/>
       <c r="CW67" s="11"/>
       <c r="CX67" s="11"/>
       <c r="CY67" s="22"/>
@@ -15588,7 +16728,7 @@
       <c r="EA67" s="22"/>
       <c r="EB67" s="11"/>
       <c r="EC67" s="11"/>
-      <c r="ED67" s="73"/>
+      <c r="ED67" s="72"/>
       <c r="EE67" s="11"/>
       <c r="EF67" s="11"/>
       <c r="EG67" s="11"/>
@@ -15623,7 +16763,7 @@
       <c r="FJ67" s="11"/>
       <c r="FK67" s="23"/>
       <c r="FL67" s="11"/>
-      <c r="FM67" s="67"/>
+      <c r="FM67" s="66"/>
       <c r="FN67" s="11"/>
       <c r="FO67" s="11"/>
       <c r="FP67" s="11"/>
@@ -15682,7 +16822,7 @@
       <c r="AL68" s="11"/>
       <c r="AM68" s="11"/>
       <c r="AN68" s="11"/>
-      <c r="AO68" s="76"/>
+      <c r="AO68" s="75"/>
       <c r="AP68" s="11"/>
       <c r="AQ68" s="11"/>
       <c r="AR68" s="11"/>
@@ -15719,7 +16859,7 @@
       <c r="BW68" s="22"/>
       <c r="BX68" s="11"/>
       <c r="BY68" s="11"/>
-      <c r="BZ68" s="73"/>
+      <c r="BZ68" s="72"/>
       <c r="CA68" s="11"/>
       <c r="CB68" s="11"/>
       <c r="CC68" s="11"/>
@@ -15741,7 +16881,7 @@
       <c r="CS68" s="23"/>
       <c r="CT68" s="11"/>
       <c r="CU68" s="11"/>
-      <c r="CV68" s="67"/>
+      <c r="CV68" s="66"/>
       <c r="CW68" s="11"/>
       <c r="CX68" s="11"/>
       <c r="CY68" s="22"/>
@@ -15775,7 +16915,7 @@
       <c r="EA68" s="22"/>
       <c r="EB68" s="11"/>
       <c r="EC68" s="11"/>
-      <c r="ED68" s="73"/>
+      <c r="ED68" s="72"/>
       <c r="EE68" s="11"/>
       <c r="EF68" s="11"/>
       <c r="EG68" s="11"/>
@@ -15810,7 +16950,7 @@
       <c r="FJ68" s="11"/>
       <c r="FK68" s="23"/>
       <c r="FL68" s="11"/>
-      <c r="FM68" s="67"/>
+      <c r="FM68" s="66"/>
       <c r="FN68" s="11"/>
       <c r="FO68" s="11"/>
       <c r="FP68" s="11"/>
@@ -15872,7 +17012,7 @@
       <c r="AL69" s="11"/>
       <c r="AM69" s="11"/>
       <c r="AN69" s="11"/>
-      <c r="AO69" s="76"/>
+      <c r="AO69" s="75"/>
       <c r="AP69" s="11"/>
       <c r="AQ69" s="11"/>
       <c r="AR69" s="11"/>
@@ -15909,7 +17049,7 @@
       <c r="BW69" s="22"/>
       <c r="BX69" s="11"/>
       <c r="BY69" s="11"/>
-      <c r="BZ69" s="73"/>
+      <c r="BZ69" s="72"/>
       <c r="CA69" s="11"/>
       <c r="CB69" s="11"/>
       <c r="CC69" s="11"/>
@@ -15931,7 +17071,7 @@
       <c r="CS69" s="23"/>
       <c r="CT69" s="11"/>
       <c r="CU69" s="11"/>
-      <c r="CV69" s="67"/>
+      <c r="CV69" s="66"/>
       <c r="CW69" s="11"/>
       <c r="CX69" s="11"/>
       <c r="CY69" s="22"/>
@@ -15965,7 +17105,7 @@
       <c r="EA69" s="22"/>
       <c r="EB69" s="11"/>
       <c r="EC69" s="11"/>
-      <c r="ED69" s="73"/>
+      <c r="ED69" s="72"/>
       <c r="EE69" s="11"/>
       <c r="EF69" s="11"/>
       <c r="EG69" s="11"/>
@@ -15981,7 +17121,7 @@
       <c r="EQ69" s="11"/>
       <c r="ER69" s="11"/>
       <c r="ES69" s="11"/>
-      <c r="ET69" s="51"/>
+      <c r="ET69" s="50"/>
       <c r="EU69" s="11"/>
       <c r="EV69" s="11"/>
       <c r="EW69" s="23"/>
@@ -16000,7 +17140,7 @@
       <c r="FJ69" s="11"/>
       <c r="FK69" s="23"/>
       <c r="FL69" s="11"/>
-      <c r="FM69" s="67"/>
+      <c r="FM69" s="66"/>
       <c r="FN69" s="11"/>
       <c r="FO69" s="11"/>
       <c r="FP69" s="11"/>
@@ -16058,7 +17198,7 @@
       <c r="AL70" s="11"/>
       <c r="AM70" s="11"/>
       <c r="AN70" s="11"/>
-      <c r="AO70" s="76"/>
+      <c r="AO70" s="75"/>
       <c r="AP70" s="11"/>
       <c r="AQ70" s="11"/>
       <c r="AR70" s="11"/>
@@ -16095,7 +17235,7 @@
       <c r="BW70" s="22"/>
       <c r="BX70" s="11"/>
       <c r="BY70" s="11"/>
-      <c r="BZ70" s="73"/>
+      <c r="BZ70" s="72"/>
       <c r="CA70" s="11"/>
       <c r="CB70" s="11"/>
       <c r="CC70" s="11"/>
@@ -16117,7 +17257,7 @@
       <c r="CS70" s="23"/>
       <c r="CT70" s="11"/>
       <c r="CU70" s="11"/>
-      <c r="CV70" s="67"/>
+      <c r="CV70" s="66"/>
       <c r="CW70" s="11"/>
       <c r="CX70" s="11"/>
       <c r="CY70" s="22"/>
@@ -16151,7 +17291,7 @@
       <c r="EA70" s="22"/>
       <c r="EB70" s="11"/>
       <c r="EC70" s="11"/>
-      <c r="ED70" s="73"/>
+      <c r="ED70" s="72"/>
       <c r="EE70" s="11"/>
       <c r="EF70" s="11"/>
       <c r="EG70" s="11"/>
@@ -16167,7 +17307,7 @@
       <c r="EQ70" s="11"/>
       <c r="ER70" s="11"/>
       <c r="ES70" s="11"/>
-      <c r="ET70" s="51"/>
+      <c r="ET70" s="50"/>
       <c r="EU70" s="11"/>
       <c r="EV70" s="11"/>
       <c r="EW70" s="23"/>
@@ -16186,7 +17326,7 @@
       <c r="FJ70" s="11"/>
       <c r="FK70" s="23"/>
       <c r="FL70" s="11"/>
-      <c r="FM70" s="67"/>
+      <c r="FM70" s="66"/>
       <c r="FN70" s="11"/>
       <c r="FO70" s="11"/>
       <c r="FP70" s="11"/>
@@ -16248,7 +17388,7 @@
       <c r="AL71" s="11"/>
       <c r="AM71" s="11"/>
       <c r="AN71" s="11"/>
-      <c r="AO71" s="76"/>
+      <c r="AO71" s="75"/>
       <c r="AP71" s="11"/>
       <c r="AQ71" s="11"/>
       <c r="AR71" s="11"/>
@@ -16285,7 +17425,7 @@
       <c r="BW71" s="22"/>
       <c r="BX71" s="11"/>
       <c r="BY71" s="11"/>
-      <c r="BZ71" s="73"/>
+      <c r="BZ71" s="72"/>
       <c r="CA71" s="11"/>
       <c r="CB71" s="11"/>
       <c r="CC71" s="11"/>
@@ -16307,7 +17447,7 @@
       <c r="CS71" s="23"/>
       <c r="CT71" s="11"/>
       <c r="CU71" s="11"/>
-      <c r="CV71" s="67"/>
+      <c r="CV71" s="66"/>
       <c r="CW71" s="11"/>
       <c r="CX71" s="11"/>
       <c r="CY71" s="22"/>
@@ -16341,7 +17481,7 @@
       <c r="EA71" s="22"/>
       <c r="EB71" s="11"/>
       <c r="EC71" s="11"/>
-      <c r="ED71" s="73"/>
+      <c r="ED71" s="72"/>
       <c r="EE71" s="11"/>
       <c r="EF71" s="11"/>
       <c r="EG71" s="11"/>
@@ -16357,7 +17497,7 @@
       <c r="EQ71" s="11"/>
       <c r="ER71" s="11"/>
       <c r="ES71" s="11"/>
-      <c r="ET71" s="51"/>
+      <c r="ET71" s="50"/>
       <c r="EU71" s="11"/>
       <c r="EV71" s="11"/>
       <c r="EW71" s="23"/>
@@ -16376,7 +17516,7 @@
       <c r="FJ71" s="11"/>
       <c r="FK71" s="23"/>
       <c r="FL71" s="11"/>
-      <c r="FM71" s="67"/>
+      <c r="FM71" s="66"/>
       <c r="FN71" s="11"/>
       <c r="FO71" s="11"/>
       <c r="FP71" s="11"/>
@@ -16434,7 +17574,7 @@
       <c r="AL72" s="11"/>
       <c r="AM72" s="11"/>
       <c r="AN72" s="11"/>
-      <c r="AO72" s="76"/>
+      <c r="AO72" s="75"/>
       <c r="AP72" s="11"/>
       <c r="AQ72" s="11"/>
       <c r="AR72" s="11"/>
@@ -16471,7 +17611,7 @@
       <c r="BW72" s="22"/>
       <c r="BX72" s="11"/>
       <c r="BY72" s="11"/>
-      <c r="BZ72" s="73"/>
+      <c r="BZ72" s="72"/>
       <c r="CA72" s="11"/>
       <c r="CB72" s="11"/>
       <c r="CC72" s="11"/>
@@ -16493,7 +17633,7 @@
       <c r="CS72" s="23"/>
       <c r="CT72" s="11"/>
       <c r="CU72" s="11"/>
-      <c r="CV72" s="67"/>
+      <c r="CV72" s="66"/>
       <c r="CW72" s="11"/>
       <c r="CX72" s="11"/>
       <c r="CY72" s="22"/>
@@ -16527,7 +17667,7 @@
       <c r="EA72" s="22"/>
       <c r="EB72" s="11"/>
       <c r="EC72" s="11"/>
-      <c r="ED72" s="73"/>
+      <c r="ED72" s="72"/>
       <c r="EE72" s="11"/>
       <c r="EF72" s="11"/>
       <c r="EG72" s="11"/>
@@ -16562,7 +17702,7 @@
       <c r="FJ72" s="11"/>
       <c r="FK72" s="23"/>
       <c r="FL72" s="11"/>
-      <c r="FM72" s="67"/>
+      <c r="FM72" s="66"/>
       <c r="FN72" s="11"/>
       <c r="FO72" s="11"/>
       <c r="FP72" s="11"/>
@@ -16622,7 +17762,7 @@
       <c r="AL73" s="11"/>
       <c r="AM73" s="11"/>
       <c r="AN73" s="11"/>
-      <c r="AO73" s="76"/>
+      <c r="AO73" s="75"/>
       <c r="AP73" s="11"/>
       <c r="AQ73" s="11"/>
       <c r="AR73" s="11"/>
@@ -16659,7 +17799,7 @@
       <c r="BW73" s="22"/>
       <c r="BX73" s="11"/>
       <c r="BY73" s="11"/>
-      <c r="BZ73" s="73"/>
+      <c r="BZ73" s="72"/>
       <c r="CA73" s="11"/>
       <c r="CB73" s="11"/>
       <c r="CC73" s="11"/>
@@ -16681,24 +17821,24 @@
       <c r="CS73" s="23"/>
       <c r="CT73" s="11"/>
       <c r="CU73" s="11"/>
-      <c r="CV73" s="67"/>
+      <c r="CV73" s="66"/>
       <c r="CW73" s="11"/>
       <c r="CX73" s="11"/>
       <c r="CY73" s="22"/>
-      <c r="CZ73" s="51"/>
-      <c r="DA73" s="51"/>
-      <c r="DB73" s="51"/>
-      <c r="DC73" s="51"/>
-      <c r="DD73" s="51"/>
-      <c r="DE73" s="51"/>
-      <c r="DF73" s="51"/>
-      <c r="DG73" s="63"/>
-      <c r="DH73" s="51"/>
-      <c r="DI73" s="51"/>
-      <c r="DJ73" s="51"/>
-      <c r="DK73" s="51"/>
-      <c r="DL73" s="51"/>
-      <c r="DM73" s="64"/>
+      <c r="CZ73" s="50"/>
+      <c r="DA73" s="50"/>
+      <c r="DB73" s="50"/>
+      <c r="DC73" s="50"/>
+      <c r="DD73" s="50"/>
+      <c r="DE73" s="50"/>
+      <c r="DF73" s="50"/>
+      <c r="DG73" s="62"/>
+      <c r="DH73" s="50"/>
+      <c r="DI73" s="50"/>
+      <c r="DJ73" s="50"/>
+      <c r="DK73" s="50"/>
+      <c r="DL73" s="50"/>
+      <c r="DM73" s="63"/>
       <c r="DN73" s="11"/>
       <c r="DO73" s="11"/>
       <c r="DP73" s="11"/>
@@ -16715,7 +17855,7 @@
       <c r="EA73" s="22"/>
       <c r="EB73" s="11"/>
       <c r="EC73" s="11"/>
-      <c r="ED73" s="73"/>
+      <c r="ED73" s="72"/>
       <c r="EE73" s="11"/>
       <c r="EF73" s="11"/>
       <c r="EG73" s="11"/>
@@ -16750,7 +17890,7 @@
       <c r="FJ73" s="11"/>
       <c r="FK73" s="23"/>
       <c r="FL73" s="11"/>
-      <c r="FM73" s="67"/>
+      <c r="FM73" s="66"/>
       <c r="FN73" s="11"/>
       <c r="FO73" s="11"/>
       <c r="FP73" s="11"/>
@@ -16808,7 +17948,7 @@
       <c r="AL74" s="11"/>
       <c r="AM74" s="11"/>
       <c r="AN74" s="11"/>
-      <c r="AO74" s="76"/>
+      <c r="AO74" s="75"/>
       <c r="AP74" s="11"/>
       <c r="AQ74" s="11"/>
       <c r="AR74" s="11"/>
@@ -16845,7 +17985,7 @@
       <c r="BW74" s="22"/>
       <c r="BX74" s="11"/>
       <c r="BY74" s="11"/>
-      <c r="BZ74" s="73"/>
+      <c r="BZ74" s="72"/>
       <c r="CA74" s="11"/>
       <c r="CB74" s="11"/>
       <c r="CC74" s="11"/>
@@ -16867,7 +18007,7 @@
       <c r="CS74" s="23"/>
       <c r="CT74" s="11"/>
       <c r="CU74" s="11"/>
-      <c r="CV74" s="67"/>
+      <c r="CV74" s="66"/>
       <c r="CW74" s="11"/>
       <c r="CX74" s="11"/>
       <c r="CY74" s="22"/>
@@ -16901,7 +18041,7 @@
       <c r="EA74" s="22"/>
       <c r="EB74" s="11"/>
       <c r="EC74" s="11"/>
-      <c r="ED74" s="73"/>
+      <c r="ED74" s="72"/>
       <c r="EE74" s="11"/>
       <c r="EF74" s="11"/>
       <c r="EG74" s="11"/>
@@ -16936,7 +18076,7 @@
       <c r="FJ74" s="11"/>
       <c r="FK74" s="23"/>
       <c r="FL74" s="11"/>
-      <c r="FM74" s="67"/>
+      <c r="FM74" s="66"/>
       <c r="FN74" s="11"/>
       <c r="FO74" s="11"/>
       <c r="FP74" s="11"/>
@@ -16996,7 +18136,7 @@
       <c r="AL75" s="11"/>
       <c r="AM75" s="11"/>
       <c r="AN75" s="11"/>
-      <c r="AO75" s="76"/>
+      <c r="AO75" s="75"/>
       <c r="AP75" s="11"/>
       <c r="AQ75" s="11"/>
       <c r="AR75" s="11"/>
@@ -17033,7 +18173,7 @@
       <c r="BW75" s="22"/>
       <c r="BX75" s="11"/>
       <c r="BY75" s="11"/>
-      <c r="BZ75" s="73"/>
+      <c r="BZ75" s="72"/>
       <c r="CA75" s="11"/>
       <c r="CB75" s="11"/>
       <c r="CC75" s="11"/>
@@ -17052,57 +18192,57 @@
       <c r="CP75" s="11"/>
       <c r="CQ75" s="11"/>
       <c r="CR75" s="11"/>
-      <c r="CS75" s="63"/>
-      <c r="CT75" s="51"/>
-      <c r="CU75" s="51"/>
-      <c r="CV75" s="90"/>
-      <c r="CW75" s="51"/>
-      <c r="CX75" s="51"/>
-      <c r="CY75" s="64"/>
-      <c r="CZ75" s="51"/>
-      <c r="DA75" s="51"/>
-      <c r="DB75" s="51"/>
-      <c r="DC75" s="51"/>
-      <c r="DD75" s="51"/>
-      <c r="DE75" s="51"/>
-      <c r="DF75" s="51"/>
-      <c r="DG75" s="63"/>
-      <c r="DH75" s="51"/>
-      <c r="DI75" s="51"/>
-      <c r="DJ75" s="51"/>
-      <c r="DK75" s="51"/>
-      <c r="DL75" s="51"/>
-      <c r="DM75" s="64"/>
-      <c r="DN75" s="51"/>
-      <c r="DO75" s="51"/>
-      <c r="DP75" s="51"/>
-      <c r="DQ75" s="51"/>
-      <c r="DR75" s="51"/>
-      <c r="DS75" s="51"/>
-      <c r="DT75" s="51"/>
-      <c r="DU75" s="63"/>
-      <c r="DV75" s="51"/>
-      <c r="DW75" s="51"/>
-      <c r="DX75" s="51"/>
-      <c r="DY75" s="51"/>
-      <c r="DZ75" s="51"/>
-      <c r="EA75" s="64"/>
-      <c r="EB75" s="51"/>
-      <c r="EC75" s="51"/>
-      <c r="ED75" s="101"/>
-      <c r="EE75" s="51"/>
-      <c r="EF75" s="51"/>
-      <c r="EG75" s="51"/>
-      <c r="EH75" s="51"/>
-      <c r="EI75" s="63"/>
-      <c r="EJ75" s="51"/>
-      <c r="EK75" s="51"/>
-      <c r="EL75" s="51"/>
-      <c r="EM75" s="51"/>
-      <c r="EN75" s="51"/>
-      <c r="EO75" s="64"/>
-      <c r="EP75" s="51"/>
-      <c r="EQ75" s="51"/>
+      <c r="CS75" s="62"/>
+      <c r="CT75" s="50"/>
+      <c r="CU75" s="50"/>
+      <c r="CV75" s="89"/>
+      <c r="CW75" s="50"/>
+      <c r="CX75" s="50"/>
+      <c r="CY75" s="63"/>
+      <c r="CZ75" s="50"/>
+      <c r="DA75" s="50"/>
+      <c r="DB75" s="50"/>
+      <c r="DC75" s="50"/>
+      <c r="DD75" s="50"/>
+      <c r="DE75" s="50"/>
+      <c r="DF75" s="50"/>
+      <c r="DG75" s="62"/>
+      <c r="DH75" s="50"/>
+      <c r="DI75" s="50"/>
+      <c r="DJ75" s="50"/>
+      <c r="DK75" s="50"/>
+      <c r="DL75" s="50"/>
+      <c r="DM75" s="63"/>
+      <c r="DN75" s="50"/>
+      <c r="DO75" s="50"/>
+      <c r="DP75" s="50"/>
+      <c r="DQ75" s="50"/>
+      <c r="DR75" s="50"/>
+      <c r="DS75" s="50"/>
+      <c r="DT75" s="50"/>
+      <c r="DU75" s="62"/>
+      <c r="DV75" s="50"/>
+      <c r="DW75" s="50"/>
+      <c r="DX75" s="50"/>
+      <c r="DY75" s="50"/>
+      <c r="DZ75" s="50"/>
+      <c r="EA75" s="63"/>
+      <c r="EB75" s="50"/>
+      <c r="EC75" s="50"/>
+      <c r="ED75" s="100"/>
+      <c r="EE75" s="50"/>
+      <c r="EF75" s="50"/>
+      <c r="EG75" s="50"/>
+      <c r="EH75" s="50"/>
+      <c r="EI75" s="62"/>
+      <c r="EJ75" s="50"/>
+      <c r="EK75" s="50"/>
+      <c r="EL75" s="50"/>
+      <c r="EM75" s="50"/>
+      <c r="EN75" s="50"/>
+      <c r="EO75" s="63"/>
+      <c r="EP75" s="50"/>
+      <c r="EQ75" s="50"/>
       <c r="ER75" s="11"/>
       <c r="ES75" s="11"/>
       <c r="ET75" s="11"/>
@@ -17124,7 +18264,7 @@
       <c r="FJ75" s="11"/>
       <c r="FK75" s="23"/>
       <c r="FL75" s="11"/>
-      <c r="FM75" s="67"/>
+      <c r="FM75" s="66"/>
       <c r="FN75" s="11"/>
       <c r="FO75" s="11"/>
       <c r="FP75" s="11"/>
@@ -17182,7 +18322,7 @@
       <c r="AL76" s="11"/>
       <c r="AM76" s="11"/>
       <c r="AN76" s="11"/>
-      <c r="AO76" s="76"/>
+      <c r="AO76" s="75"/>
       <c r="AP76" s="11"/>
       <c r="AQ76" s="11"/>
       <c r="AR76" s="11"/>
@@ -17219,7 +18359,7 @@
       <c r="BW76" s="22"/>
       <c r="BX76" s="11"/>
       <c r="BY76" s="11"/>
-      <c r="BZ76" s="73"/>
+      <c r="BZ76" s="72"/>
       <c r="CA76" s="11"/>
       <c r="CB76" s="11"/>
       <c r="CC76" s="11"/>
@@ -17241,7 +18381,7 @@
       <c r="CS76" s="23"/>
       <c r="CT76" s="11"/>
       <c r="CU76" s="11"/>
-      <c r="CV76" s="67"/>
+      <c r="CV76" s="66"/>
       <c r="CW76" s="11"/>
       <c r="CX76" s="11"/>
       <c r="CY76" s="22"/>
@@ -17275,7 +18415,7 @@
       <c r="EA76" s="22"/>
       <c r="EB76" s="11"/>
       <c r="EC76" s="11"/>
-      <c r="ED76" s="73"/>
+      <c r="ED76" s="72"/>
       <c r="EE76" s="11"/>
       <c r="EF76" s="11"/>
       <c r="EG76" s="11"/>
@@ -17310,7 +18450,7 @@
       <c r="FJ76" s="11"/>
       <c r="FK76" s="23"/>
       <c r="FL76" s="11"/>
-      <c r="FM76" s="67"/>
+      <c r="FM76" s="66"/>
       <c r="FN76" s="11"/>
       <c r="FO76" s="11"/>
       <c r="FP76" s="11"/>
@@ -17370,7 +18510,7 @@
       <c r="AL77" s="11"/>
       <c r="AM77" s="11"/>
       <c r="AN77" s="11"/>
-      <c r="AO77" s="76"/>
+      <c r="AO77" s="75"/>
       <c r="AP77" s="11"/>
       <c r="AQ77" s="11"/>
       <c r="AR77" s="11"/>
@@ -17407,7 +18547,7 @@
       <c r="BW77" s="22"/>
       <c r="BX77" s="11"/>
       <c r="BY77" s="11"/>
-      <c r="BZ77" s="73"/>
+      <c r="BZ77" s="72"/>
       <c r="CA77" s="11"/>
       <c r="CB77" s="11"/>
       <c r="CC77" s="11"/>
@@ -17429,24 +18569,24 @@
       <c r="CS77" s="23"/>
       <c r="CT77" s="11"/>
       <c r="CU77" s="11"/>
-      <c r="CV77" s="67"/>
+      <c r="CV77" s="66"/>
       <c r="CW77" s="11"/>
       <c r="CX77" s="11"/>
       <c r="CY77" s="22"/>
-      <c r="CZ77" s="51"/>
-      <c r="DA77" s="51"/>
-      <c r="DB77" s="51"/>
-      <c r="DC77" s="51"/>
-      <c r="DD77" s="51"/>
-      <c r="DE77" s="51"/>
-      <c r="DF77" s="51"/>
-      <c r="DG77" s="63"/>
-      <c r="DH77" s="51"/>
-      <c r="DI77" s="51"/>
-      <c r="DJ77" s="51"/>
-      <c r="DK77" s="51"/>
-      <c r="DL77" s="51"/>
-      <c r="DM77" s="64"/>
+      <c r="CZ77" s="50"/>
+      <c r="DA77" s="50"/>
+      <c r="DB77" s="50"/>
+      <c r="DC77" s="50"/>
+      <c r="DD77" s="50"/>
+      <c r="DE77" s="50"/>
+      <c r="DF77" s="50"/>
+      <c r="DG77" s="62"/>
+      <c r="DH77" s="50"/>
+      <c r="DI77" s="50"/>
+      <c r="DJ77" s="50"/>
+      <c r="DK77" s="50"/>
+      <c r="DL77" s="50"/>
+      <c r="DM77" s="63"/>
       <c r="DN77" s="11"/>
       <c r="DO77" s="11"/>
       <c r="DP77" s="11"/>
@@ -17463,7 +18603,7 @@
       <c r="EA77" s="22"/>
       <c r="EB77" s="11"/>
       <c r="EC77" s="11"/>
-      <c r="ED77" s="73"/>
+      <c r="ED77" s="72"/>
       <c r="EE77" s="11"/>
       <c r="EF77" s="11"/>
       <c r="EG77" s="11"/>
@@ -17498,7 +18638,7 @@
       <c r="FJ77" s="11"/>
       <c r="FK77" s="23"/>
       <c r="FL77" s="11"/>
-      <c r="FM77" s="67"/>
+      <c r="FM77" s="66"/>
       <c r="FN77" s="11"/>
       <c r="FO77" s="11"/>
       <c r="FP77" s="11"/>
@@ -17556,7 +18696,7 @@
       <c r="AL78" s="11"/>
       <c r="AM78" s="11"/>
       <c r="AN78" s="11"/>
-      <c r="AO78" s="76"/>
+      <c r="AO78" s="75"/>
       <c r="AP78" s="11"/>
       <c r="AQ78" s="11"/>
       <c r="AR78" s="11"/>
@@ -17593,7 +18733,7 @@
       <c r="BW78" s="22"/>
       <c r="BX78" s="11"/>
       <c r="BY78" s="11"/>
-      <c r="BZ78" s="73"/>
+      <c r="BZ78" s="72"/>
       <c r="CA78" s="11"/>
       <c r="CB78" s="11"/>
       <c r="CC78" s="11"/>
@@ -17615,7 +18755,7 @@
       <c r="CS78" s="23"/>
       <c r="CT78" s="11"/>
       <c r="CU78" s="11"/>
-      <c r="CV78" s="67"/>
+      <c r="CV78" s="66"/>
       <c r="CW78" s="11"/>
       <c r="CX78" s="11"/>
       <c r="CY78" s="22"/>
@@ -17649,7 +18789,7 @@
       <c r="EA78" s="22"/>
       <c r="EB78" s="11"/>
       <c r="EC78" s="11"/>
-      <c r="ED78" s="73"/>
+      <c r="ED78" s="72"/>
       <c r="EE78" s="11"/>
       <c r="EF78" s="11"/>
       <c r="EG78" s="11"/>
@@ -17684,7 +18824,7 @@
       <c r="FJ78" s="11"/>
       <c r="FK78" s="23"/>
       <c r="FL78" s="11"/>
-      <c r="FM78" s="67"/>
+      <c r="FM78" s="66"/>
       <c r="FN78" s="11"/>
       <c r="FO78" s="11"/>
       <c r="FP78" s="11"/>
@@ -17744,7 +18884,7 @@
       <c r="AL79" s="11"/>
       <c r="AM79" s="11"/>
       <c r="AN79" s="11"/>
-      <c r="AO79" s="76"/>
+      <c r="AO79" s="75"/>
       <c r="AP79" s="11"/>
       <c r="AQ79" s="11"/>
       <c r="AR79" s="11"/>
@@ -17781,7 +18921,7 @@
       <c r="BW79" s="22"/>
       <c r="BX79" s="11"/>
       <c r="BY79" s="11"/>
-      <c r="BZ79" s="73"/>
+      <c r="BZ79" s="72"/>
       <c r="CA79" s="11"/>
       <c r="CB79" s="11"/>
       <c r="CC79" s="11"/>
@@ -17803,7 +18943,7 @@
       <c r="CS79" s="23"/>
       <c r="CT79" s="11"/>
       <c r="CU79" s="11"/>
-      <c r="CV79" s="67"/>
+      <c r="CV79" s="66"/>
       <c r="CW79" s="11"/>
       <c r="CX79" s="11"/>
       <c r="CY79" s="22"/>
@@ -17837,7 +18977,7 @@
       <c r="EA79" s="22"/>
       <c r="EB79" s="11"/>
       <c r="EC79" s="11"/>
-      <c r="ED79" s="73"/>
+      <c r="ED79" s="72"/>
       <c r="EE79" s="11"/>
       <c r="EF79" s="11"/>
       <c r="EG79" s="11"/>
@@ -17872,7 +19012,7 @@
       <c r="FJ79" s="11"/>
       <c r="FK79" s="23"/>
       <c r="FL79" s="11"/>
-      <c r="FM79" s="67"/>
+      <c r="FM79" s="66"/>
       <c r="FN79" s="11"/>
       <c r="FO79" s="11"/>
       <c r="FP79" s="11"/>
@@ -17930,7 +19070,7 @@
       <c r="AL80" s="11"/>
       <c r="AM80" s="11"/>
       <c r="AN80" s="11"/>
-      <c r="AO80" s="76"/>
+      <c r="AO80" s="75"/>
       <c r="AP80" s="11"/>
       <c r="AQ80" s="11"/>
       <c r="AR80" s="11"/>
@@ -17967,7 +19107,7 @@
       <c r="BW80" s="22"/>
       <c r="BX80" s="11"/>
       <c r="BY80" s="11"/>
-      <c r="BZ80" s="73"/>
+      <c r="BZ80" s="72"/>
       <c r="CA80" s="11"/>
       <c r="CB80" s="11"/>
       <c r="CC80" s="11"/>
@@ -17989,7 +19129,7 @@
       <c r="CS80" s="23"/>
       <c r="CT80" s="11"/>
       <c r="CU80" s="11"/>
-      <c r="CV80" s="67"/>
+      <c r="CV80" s="66"/>
       <c r="CW80" s="11"/>
       <c r="CX80" s="11"/>
       <c r="CY80" s="22"/>
@@ -18023,7 +19163,7 @@
       <c r="EA80" s="22"/>
       <c r="EB80" s="11"/>
       <c r="EC80" s="11"/>
-      <c r="ED80" s="73"/>
+      <c r="ED80" s="72"/>
       <c r="EE80" s="11"/>
       <c r="EF80" s="11"/>
       <c r="EG80" s="11"/>
@@ -18058,7 +19198,7 @@
       <c r="FJ80" s="11"/>
       <c r="FK80" s="23"/>
       <c r="FL80" s="11"/>
-      <c r="FM80" s="67"/>
+      <c r="FM80" s="66"/>
       <c r="FN80" s="11"/>
       <c r="FO80" s="11"/>
       <c r="FP80" s="11"/>
@@ -18076,7 +19216,7 @@
       <c r="GB80" s="11"/>
       <c r="GC80" s="24"/>
     </row>
-    <row r="81" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:187" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="9"/>
       <c r="C81" s="7"/>
@@ -18116,7 +19256,7 @@
       <c r="AL81" s="11"/>
       <c r="AM81" s="11"/>
       <c r="AN81" s="11"/>
-      <c r="AO81" s="76"/>
+      <c r="AO81" s="75"/>
       <c r="AP81" s="11"/>
       <c r="AQ81" s="11"/>
       <c r="AR81" s="11"/>
@@ -18153,7 +19293,7 @@
       <c r="BW81" s="22"/>
       <c r="BX81" s="11"/>
       <c r="BY81" s="11"/>
-      <c r="BZ81" s="73"/>
+      <c r="BZ81" s="72"/>
       <c r="CA81" s="11"/>
       <c r="CB81" s="11"/>
       <c r="CC81" s="11"/>
@@ -18175,7 +19315,7 @@
       <c r="CS81" s="23"/>
       <c r="CT81" s="11"/>
       <c r="CU81" s="11"/>
-      <c r="CV81" s="67"/>
+      <c r="CV81" s="66"/>
       <c r="CW81" s="11"/>
       <c r="CX81" s="11"/>
       <c r="CY81" s="22"/>
@@ -18209,7 +19349,7 @@
       <c r="EA81" s="22"/>
       <c r="EB81" s="11"/>
       <c r="EC81" s="11"/>
-      <c r="ED81" s="73"/>
+      <c r="ED81" s="72"/>
       <c r="EE81" s="11"/>
       <c r="EF81" s="11"/>
       <c r="EG81" s="11"/>
@@ -18244,7 +19384,7 @@
       <c r="FJ81" s="11"/>
       <c r="FK81" s="23"/>
       <c r="FL81" s="11"/>
-      <c r="FM81" s="67"/>
+      <c r="FM81" s="66"/>
       <c r="FN81" s="11"/>
       <c r="FO81" s="11"/>
       <c r="FP81" s="11"/>
@@ -18262,209 +19402,428 @@
       <c r="GB81" s="11"/>
       <c r="GC81" s="24"/>
     </row>
-    <row r="82" spans="1:185" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="107" t="s">
+    <row r="82" spans="1:187" s="116" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="119"/>
+      <c r="C82" s="120">
+        <f>720/166</f>
+        <v>4.3373493975903612</v>
+      </c>
+      <c r="D82" s="120">
+        <f>SUM(F82:GC82)</f>
+        <v>719.99999999999989</v>
+      </c>
+      <c r="E82" s="121"/>
+      <c r="F82" s="129">
+        <f>35*C82</f>
+        <v>151.80722891566265</v>
+      </c>
+      <c r="G82" s="126"/>
+      <c r="H82" s="126"/>
+      <c r="I82" s="126"/>
+      <c r="J82" s="126"/>
+      <c r="K82" s="126"/>
+      <c r="L82" s="126"/>
+      <c r="M82" s="126"/>
+      <c r="N82" s="126"/>
+      <c r="O82" s="126"/>
+      <c r="P82" s="126"/>
+      <c r="Q82" s="126"/>
+      <c r="R82" s="126"/>
+      <c r="S82" s="126"/>
+      <c r="T82" s="126"/>
+      <c r="U82" s="126"/>
+      <c r="V82" s="126"/>
+      <c r="W82" s="126"/>
+      <c r="X82" s="126"/>
+      <c r="Y82" s="126"/>
+      <c r="Z82" s="126"/>
+      <c r="AA82" s="126"/>
+      <c r="AB82" s="126"/>
+      <c r="AC82" s="126"/>
+      <c r="AD82" s="126"/>
+      <c r="AE82" s="126"/>
+      <c r="AF82" s="126"/>
+      <c r="AG82" s="126"/>
+      <c r="AH82" s="126"/>
+      <c r="AI82" s="126"/>
+      <c r="AJ82" s="126"/>
+      <c r="AK82" s="126"/>
+      <c r="AL82" s="126"/>
+      <c r="AM82" s="126"/>
+      <c r="AN82" s="130"/>
+      <c r="AO82" s="131">
+        <f>38*C82</f>
+        <v>164.81927710843374</v>
+      </c>
+      <c r="AP82" s="126"/>
+      <c r="AQ82" s="126"/>
+      <c r="AR82" s="126"/>
+      <c r="AS82" s="126"/>
+      <c r="AT82" s="126"/>
+      <c r="AU82" s="126"/>
+      <c r="AV82" s="126"/>
+      <c r="AW82" s="126"/>
+      <c r="AX82" s="126"/>
+      <c r="AY82" s="126"/>
+      <c r="AZ82" s="126"/>
+      <c r="BA82" s="126"/>
+      <c r="BB82" s="126"/>
+      <c r="BC82" s="126"/>
+      <c r="BD82" s="126"/>
+      <c r="BE82" s="126"/>
+      <c r="BF82" s="126"/>
+      <c r="BG82" s="126"/>
+      <c r="BH82" s="126"/>
+      <c r="BI82" s="126"/>
+      <c r="BJ82" s="126"/>
+      <c r="BK82" s="126"/>
+      <c r="BL82" s="126"/>
+      <c r="BM82" s="126"/>
+      <c r="BN82" s="126"/>
+      <c r="BO82" s="126"/>
+      <c r="BP82" s="126"/>
+      <c r="BQ82" s="126"/>
+      <c r="BR82" s="126"/>
+      <c r="BS82" s="126"/>
+      <c r="BT82" s="126"/>
+      <c r="BU82" s="126"/>
+      <c r="BV82" s="126"/>
+      <c r="BW82" s="126"/>
+      <c r="BX82" s="126"/>
+      <c r="BY82" s="126"/>
+      <c r="BZ82" s="127"/>
+      <c r="CA82" s="125">
+        <f>21*C82</f>
+        <v>91.084337349397586</v>
+      </c>
+      <c r="CB82" s="126"/>
+      <c r="CC82" s="126"/>
+      <c r="CD82" s="126"/>
+      <c r="CE82" s="126"/>
+      <c r="CF82" s="126"/>
+      <c r="CG82" s="126"/>
+      <c r="CH82" s="126"/>
+      <c r="CI82" s="126"/>
+      <c r="CJ82" s="126"/>
+      <c r="CK82" s="126"/>
+      <c r="CL82" s="126"/>
+      <c r="CM82" s="126"/>
+      <c r="CN82" s="126"/>
+      <c r="CO82" s="126"/>
+      <c r="CP82" s="126"/>
+      <c r="CQ82" s="126"/>
+      <c r="CR82" s="126"/>
+      <c r="CS82" s="126"/>
+      <c r="CT82" s="126"/>
+      <c r="CU82" s="127"/>
+      <c r="CV82" s="125">
+        <f>21*C82</f>
+        <v>91.084337349397586</v>
+      </c>
+      <c r="CW82" s="126"/>
+      <c r="CX82" s="126"/>
+      <c r="CY82" s="126"/>
+      <c r="CZ82" s="126"/>
+      <c r="DA82" s="126"/>
+      <c r="DB82" s="126"/>
+      <c r="DC82" s="126"/>
+      <c r="DD82" s="126"/>
+      <c r="DE82" s="126"/>
+      <c r="DF82" s="126"/>
+      <c r="DG82" s="126"/>
+      <c r="DH82" s="126"/>
+      <c r="DI82" s="126"/>
+      <c r="DJ82" s="126"/>
+      <c r="DK82" s="126"/>
+      <c r="DL82" s="126"/>
+      <c r="DM82" s="126"/>
+      <c r="DN82" s="126"/>
+      <c r="DO82" s="126"/>
+      <c r="DP82" s="126"/>
+      <c r="DQ82" s="126"/>
+      <c r="DR82" s="126"/>
+      <c r="DS82" s="126"/>
+      <c r="DT82" s="126"/>
+      <c r="DU82" s="126"/>
+      <c r="DV82" s="126"/>
+      <c r="DW82" s="126"/>
+      <c r="DX82" s="126"/>
+      <c r="DY82" s="126"/>
+      <c r="DZ82" s="126"/>
+      <c r="EA82" s="126"/>
+      <c r="EB82" s="126"/>
+      <c r="EC82" s="126"/>
+      <c r="ED82" s="127"/>
+      <c r="EE82" s="125">
+        <f>34*C82</f>
+        <v>147.46987951807228</v>
+      </c>
+      <c r="EF82" s="126"/>
+      <c r="EG82" s="126"/>
+      <c r="EH82" s="126"/>
+      <c r="EI82" s="126"/>
+      <c r="EJ82" s="126"/>
+      <c r="EK82" s="126"/>
+      <c r="EL82" s="126"/>
+      <c r="EM82" s="126"/>
+      <c r="EN82" s="126"/>
+      <c r="EO82" s="126"/>
+      <c r="EP82" s="126"/>
+      <c r="EQ82" s="126"/>
+      <c r="ER82" s="126"/>
+      <c r="ES82" s="126"/>
+      <c r="ET82" s="126"/>
+      <c r="EU82" s="126"/>
+      <c r="EV82" s="126"/>
+      <c r="EW82" s="126"/>
+      <c r="EX82" s="126"/>
+      <c r="EY82" s="126"/>
+      <c r="EZ82" s="126"/>
+      <c r="FA82" s="126"/>
+      <c r="FB82" s="126"/>
+      <c r="FC82" s="126"/>
+      <c r="FD82" s="126"/>
+      <c r="FE82" s="126"/>
+      <c r="FF82" s="126"/>
+      <c r="FG82" s="126"/>
+      <c r="FH82" s="126"/>
+      <c r="FI82" s="126"/>
+      <c r="FJ82" s="126"/>
+      <c r="FK82" s="126"/>
+      <c r="FL82" s="127"/>
+      <c r="FM82" s="125">
+        <f>17*C82</f>
+        <v>73.734939759036138</v>
+      </c>
+      <c r="FN82" s="126"/>
+      <c r="FO82" s="126"/>
+      <c r="FP82" s="126"/>
+      <c r="FQ82" s="126"/>
+      <c r="FR82" s="126"/>
+      <c r="FS82" s="126"/>
+      <c r="FT82" s="126"/>
+      <c r="FU82" s="126"/>
+      <c r="FV82" s="126"/>
+      <c r="FW82" s="126"/>
+      <c r="FX82" s="126"/>
+      <c r="FY82" s="126"/>
+      <c r="FZ82" s="126"/>
+      <c r="GA82" s="126"/>
+      <c r="GB82" s="126"/>
+      <c r="GC82" s="128"/>
+    </row>
+    <row r="83" spans="1:187" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="110" t="s">
+      <c r="B83" s="137"/>
+      <c r="C83" s="137"/>
+      <c r="D83" s="137"/>
+      <c r="E83" s="138"/>
+      <c r="F83" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="G82" s="104"/>
-      <c r="H82" s="104"/>
-      <c r="I82" s="104"/>
-      <c r="J82" s="104"/>
-      <c r="K82" s="104"/>
-      <c r="L82" s="104"/>
-      <c r="M82" s="104"/>
-      <c r="N82" s="104"/>
-      <c r="O82" s="104"/>
-      <c r="P82" s="104"/>
-      <c r="Q82" s="104"/>
-      <c r="R82" s="104"/>
-      <c r="S82" s="104"/>
-      <c r="T82" s="104"/>
-      <c r="U82" s="104"/>
-      <c r="V82" s="104"/>
-      <c r="W82" s="104"/>
-      <c r="X82" s="104"/>
-      <c r="Y82" s="104"/>
-      <c r="Z82" s="104"/>
-      <c r="AA82" s="104"/>
-      <c r="AB82" s="104"/>
-      <c r="AC82" s="104"/>
-      <c r="AD82" s="104"/>
-      <c r="AE82" s="104"/>
-      <c r="AF82" s="104"/>
-      <c r="AG82" s="104"/>
-      <c r="AH82" s="104"/>
-      <c r="AI82" s="104"/>
-      <c r="AJ82" s="104"/>
-      <c r="AK82" s="104"/>
-      <c r="AL82" s="104"/>
-      <c r="AM82" s="104"/>
-      <c r="AN82" s="111"/>
-      <c r="AO82" s="112" t="s">
+      <c r="G83" s="133"/>
+      <c r="H83" s="133"/>
+      <c r="I83" s="133"/>
+      <c r="J83" s="133"/>
+      <c r="K83" s="133"/>
+      <c r="L83" s="133"/>
+      <c r="M83" s="133"/>
+      <c r="N83" s="133"/>
+      <c r="O83" s="133"/>
+      <c r="P83" s="133"/>
+      <c r="Q83" s="133"/>
+      <c r="R83" s="133"/>
+      <c r="S83" s="133"/>
+      <c r="T83" s="133"/>
+      <c r="U83" s="133"/>
+      <c r="V83" s="133"/>
+      <c r="W83" s="133"/>
+      <c r="X83" s="133"/>
+      <c r="Y83" s="133"/>
+      <c r="Z83" s="133"/>
+      <c r="AA83" s="133"/>
+      <c r="AB83" s="133"/>
+      <c r="AC83" s="133"/>
+      <c r="AD83" s="133"/>
+      <c r="AE83" s="133"/>
+      <c r="AF83" s="133"/>
+      <c r="AG83" s="133"/>
+      <c r="AH83" s="133"/>
+      <c r="AI83" s="133"/>
+      <c r="AJ83" s="133"/>
+      <c r="AK83" s="133"/>
+      <c r="AL83" s="133"/>
+      <c r="AM83" s="133"/>
+      <c r="AN83" s="140"/>
+      <c r="AO83" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="AP82" s="104"/>
-      <c r="AQ82" s="104"/>
-      <c r="AR82" s="104"/>
-      <c r="AS82" s="104"/>
-      <c r="AT82" s="104"/>
-      <c r="AU82" s="104"/>
-      <c r="AV82" s="104"/>
-      <c r="AW82" s="104"/>
-      <c r="AX82" s="104"/>
-      <c r="AY82" s="104"/>
-      <c r="AZ82" s="104"/>
-      <c r="BA82" s="104"/>
-      <c r="BB82" s="104"/>
-      <c r="BC82" s="104"/>
-      <c r="BD82" s="104"/>
-      <c r="BE82" s="104"/>
-      <c r="BF82" s="104"/>
-      <c r="BG82" s="104"/>
-      <c r="BH82" s="104"/>
-      <c r="BI82" s="104"/>
-      <c r="BJ82" s="104"/>
-      <c r="BK82" s="104"/>
-      <c r="BL82" s="104"/>
-      <c r="BM82" s="104"/>
-      <c r="BN82" s="104"/>
-      <c r="BO82" s="104"/>
-      <c r="BP82" s="104"/>
-      <c r="BQ82" s="104"/>
-      <c r="BR82" s="104"/>
-      <c r="BS82" s="104"/>
-      <c r="BT82" s="104"/>
-      <c r="BU82" s="104"/>
-      <c r="BV82" s="104"/>
-      <c r="BW82" s="104"/>
-      <c r="BX82" s="104"/>
-      <c r="BY82" s="104"/>
-      <c r="BZ82" s="105"/>
-      <c r="CA82" s="103" t="s">
+      <c r="AP83" s="133"/>
+      <c r="AQ83" s="133"/>
+      <c r="AR83" s="133"/>
+      <c r="AS83" s="133"/>
+      <c r="AT83" s="133"/>
+      <c r="AU83" s="133"/>
+      <c r="AV83" s="133"/>
+      <c r="AW83" s="133"/>
+      <c r="AX83" s="133"/>
+      <c r="AY83" s="133"/>
+      <c r="AZ83" s="133"/>
+      <c r="BA83" s="133"/>
+      <c r="BB83" s="133"/>
+      <c r="BC83" s="133"/>
+      <c r="BD83" s="133"/>
+      <c r="BE83" s="133"/>
+      <c r="BF83" s="133"/>
+      <c r="BG83" s="133"/>
+      <c r="BH83" s="133"/>
+      <c r="BI83" s="133"/>
+      <c r="BJ83" s="133"/>
+      <c r="BK83" s="133"/>
+      <c r="BL83" s="133"/>
+      <c r="BM83" s="133"/>
+      <c r="BN83" s="133"/>
+      <c r="BO83" s="133"/>
+      <c r="BP83" s="133"/>
+      <c r="BQ83" s="133"/>
+      <c r="BR83" s="133"/>
+      <c r="BS83" s="133"/>
+      <c r="BT83" s="133"/>
+      <c r="BU83" s="133"/>
+      <c r="BV83" s="133"/>
+      <c r="BW83" s="133"/>
+      <c r="BX83" s="133"/>
+      <c r="BY83" s="133"/>
+      <c r="BZ83" s="134"/>
+      <c r="CA83" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="CB82" s="104"/>
-      <c r="CC82" s="104"/>
-      <c r="CD82" s="104"/>
-      <c r="CE82" s="104"/>
-      <c r="CF82" s="104"/>
-      <c r="CG82" s="104"/>
-      <c r="CH82" s="104"/>
-      <c r="CI82" s="104"/>
-      <c r="CJ82" s="104"/>
-      <c r="CK82" s="104"/>
-      <c r="CL82" s="104"/>
-      <c r="CM82" s="104"/>
-      <c r="CN82" s="104"/>
-      <c r="CO82" s="104"/>
-      <c r="CP82" s="104"/>
-      <c r="CQ82" s="104"/>
-      <c r="CR82" s="104"/>
-      <c r="CS82" s="104"/>
-      <c r="CT82" s="104"/>
-      <c r="CU82" s="105"/>
-      <c r="CV82" s="103" t="s">
+      <c r="CB83" s="133"/>
+      <c r="CC83" s="133"/>
+      <c r="CD83" s="133"/>
+      <c r="CE83" s="133"/>
+      <c r="CF83" s="133"/>
+      <c r="CG83" s="133"/>
+      <c r="CH83" s="133"/>
+      <c r="CI83" s="133"/>
+      <c r="CJ83" s="133"/>
+      <c r="CK83" s="133"/>
+      <c r="CL83" s="133"/>
+      <c r="CM83" s="133"/>
+      <c r="CN83" s="133"/>
+      <c r="CO83" s="133"/>
+      <c r="CP83" s="133"/>
+      <c r="CQ83" s="133"/>
+      <c r="CR83" s="133"/>
+      <c r="CS83" s="133"/>
+      <c r="CT83" s="133"/>
+      <c r="CU83" s="134"/>
+      <c r="CV83" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="CW82" s="104"/>
-      <c r="CX82" s="104"/>
-      <c r="CY82" s="104"/>
-      <c r="CZ82" s="104"/>
-      <c r="DA82" s="104"/>
-      <c r="DB82" s="104"/>
-      <c r="DC82" s="104"/>
-      <c r="DD82" s="104"/>
-      <c r="DE82" s="104"/>
-      <c r="DF82" s="104"/>
-      <c r="DG82" s="104"/>
-      <c r="DH82" s="104"/>
-      <c r="DI82" s="104"/>
-      <c r="DJ82" s="104"/>
-      <c r="DK82" s="104"/>
-      <c r="DL82" s="104"/>
-      <c r="DM82" s="104"/>
-      <c r="DN82" s="104"/>
-      <c r="DO82" s="104"/>
-      <c r="DP82" s="104"/>
-      <c r="DQ82" s="104"/>
-      <c r="DR82" s="104"/>
-      <c r="DS82" s="104"/>
-      <c r="DT82" s="104"/>
-      <c r="DU82" s="104"/>
-      <c r="DV82" s="104"/>
-      <c r="DW82" s="104"/>
-      <c r="DX82" s="104"/>
-      <c r="DY82" s="104"/>
-      <c r="DZ82" s="104"/>
-      <c r="EA82" s="104"/>
-      <c r="EB82" s="104"/>
-      <c r="EC82" s="104"/>
-      <c r="ED82" s="105"/>
-      <c r="EE82" s="103" t="s">
+      <c r="CW83" s="133"/>
+      <c r="CX83" s="133"/>
+      <c r="CY83" s="133"/>
+      <c r="CZ83" s="133"/>
+      <c r="DA83" s="133"/>
+      <c r="DB83" s="133"/>
+      <c r="DC83" s="133"/>
+      <c r="DD83" s="133"/>
+      <c r="DE83" s="133"/>
+      <c r="DF83" s="133"/>
+      <c r="DG83" s="133"/>
+      <c r="DH83" s="133"/>
+      <c r="DI83" s="133"/>
+      <c r="DJ83" s="133"/>
+      <c r="DK83" s="133"/>
+      <c r="DL83" s="133"/>
+      <c r="DM83" s="133"/>
+      <c r="DN83" s="133"/>
+      <c r="DO83" s="133"/>
+      <c r="DP83" s="133"/>
+      <c r="DQ83" s="133"/>
+      <c r="DR83" s="133"/>
+      <c r="DS83" s="133"/>
+      <c r="DT83" s="133"/>
+      <c r="DU83" s="133"/>
+      <c r="DV83" s="133"/>
+      <c r="DW83" s="133"/>
+      <c r="DX83" s="133"/>
+      <c r="DY83" s="133"/>
+      <c r="DZ83" s="133"/>
+      <c r="EA83" s="133"/>
+      <c r="EB83" s="133"/>
+      <c r="EC83" s="133"/>
+      <c r="ED83" s="134"/>
+      <c r="EE83" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="EF82" s="104"/>
-      <c r="EG82" s="104"/>
-      <c r="EH82" s="104"/>
-      <c r="EI82" s="104"/>
-      <c r="EJ82" s="104"/>
-      <c r="EK82" s="104"/>
-      <c r="EL82" s="104"/>
-      <c r="EM82" s="104"/>
-      <c r="EN82" s="104"/>
-      <c r="EO82" s="104"/>
-      <c r="EP82" s="104"/>
-      <c r="EQ82" s="104"/>
-      <c r="ER82" s="104"/>
-      <c r="ES82" s="104"/>
-      <c r="ET82" s="104"/>
-      <c r="EU82" s="104"/>
-      <c r="EV82" s="104"/>
-      <c r="EW82" s="104"/>
-      <c r="EX82" s="104"/>
-      <c r="EY82" s="104"/>
-      <c r="EZ82" s="104"/>
-      <c r="FA82" s="104"/>
-      <c r="FB82" s="104"/>
-      <c r="FC82" s="104"/>
-      <c r="FD82" s="104"/>
-      <c r="FE82" s="104"/>
-      <c r="FF82" s="104"/>
-      <c r="FG82" s="104"/>
-      <c r="FH82" s="104"/>
-      <c r="FI82" s="104"/>
-      <c r="FJ82" s="104"/>
-      <c r="FK82" s="104"/>
-      <c r="FL82" s="105"/>
-      <c r="FM82" s="103" t="s">
+      <c r="EF83" s="133"/>
+      <c r="EG83" s="133"/>
+      <c r="EH83" s="133"/>
+      <c r="EI83" s="133"/>
+      <c r="EJ83" s="133"/>
+      <c r="EK83" s="133"/>
+      <c r="EL83" s="133"/>
+      <c r="EM83" s="133"/>
+      <c r="EN83" s="133"/>
+      <c r="EO83" s="133"/>
+      <c r="EP83" s="133"/>
+      <c r="EQ83" s="133"/>
+      <c r="ER83" s="133"/>
+      <c r="ES83" s="133"/>
+      <c r="ET83" s="133"/>
+      <c r="EU83" s="133"/>
+      <c r="EV83" s="133"/>
+      <c r="EW83" s="133"/>
+      <c r="EX83" s="133"/>
+      <c r="EY83" s="133"/>
+      <c r="EZ83" s="133"/>
+      <c r="FA83" s="133"/>
+      <c r="FB83" s="133"/>
+      <c r="FC83" s="133"/>
+      <c r="FD83" s="133"/>
+      <c r="FE83" s="133"/>
+      <c r="FF83" s="133"/>
+      <c r="FG83" s="133"/>
+      <c r="FH83" s="133"/>
+      <c r="FI83" s="133"/>
+      <c r="FJ83" s="133"/>
+      <c r="FK83" s="133"/>
+      <c r="FL83" s="134"/>
+      <c r="FM83" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="FN82" s="104"/>
-      <c r="FO82" s="104"/>
-      <c r="FP82" s="104"/>
-      <c r="FQ82" s="104"/>
-      <c r="FR82" s="104"/>
-      <c r="FS82" s="104"/>
-      <c r="FT82" s="104"/>
-      <c r="FU82" s="104"/>
-      <c r="FV82" s="104"/>
-      <c r="FW82" s="104"/>
-      <c r="FX82" s="104"/>
-      <c r="FY82" s="104"/>
-      <c r="FZ82" s="104"/>
-      <c r="GA82" s="104"/>
-      <c r="GB82" s="104"/>
-      <c r="GC82" s="106"/>
+      <c r="FN83" s="133"/>
+      <c r="FO83" s="133"/>
+      <c r="FP83" s="133"/>
+      <c r="FQ83" s="133"/>
+      <c r="FR83" s="133"/>
+      <c r="FS83" s="133"/>
+      <c r="FT83" s="133"/>
+      <c r="FU83" s="133"/>
+      <c r="FV83" s="133"/>
+      <c r="FW83" s="133"/>
+      <c r="FX83" s="133"/>
+      <c r="FY83" s="133"/>
+      <c r="FZ83" s="133"/>
+      <c r="GA83" s="133"/>
+      <c r="GB83" s="133"/>
+      <c r="GC83" s="135"/>
+    </row>
+    <row r="85" spans="1:187" x14ac:dyDescent="0.2">
+      <c r="GE85" s="117"/>
+    </row>
+    <row r="86" spans="1:187" x14ac:dyDescent="0.2">
+      <c r="GE86" s="117"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="61">
     <mergeCell ref="EK6:FL6"/>
     <mergeCell ref="FM6:GC6"/>
     <mergeCell ref="DF5:GC5"/>
@@ -18513,9 +19872,15 @@
     <mergeCell ref="CA4:CU4"/>
     <mergeCell ref="CV4:ED4"/>
     <mergeCell ref="EE4:FL4"/>
+    <mergeCell ref="EE83:FL83"/>
+    <mergeCell ref="FM83:GC83"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="F83:AN83"/>
+    <mergeCell ref="AO83:BZ83"/>
+    <mergeCell ref="CA83:CU83"/>
+    <mergeCell ref="CV83:ED83"/>
     <mergeCell ref="EE82:FL82"/>
     <mergeCell ref="FM82:GC82"/>
-    <mergeCell ref="A82:E82"/>
     <mergeCell ref="F82:AN82"/>
     <mergeCell ref="AO82:BZ82"/>
     <mergeCell ref="CA82:CU82"/>
@@ -18528,6 +19893,147 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="124"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="122" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="123" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="123" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="122" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="124">
+        <v>151</v>
+      </c>
+      <c r="C2" s="124">
+        <f>D2+E2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="124">
+        <v>165</v>
+      </c>
+      <c r="C3" s="124">
+        <f t="shared" ref="C3:C7" si="0">D3+E3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="124">
+        <v>91</v>
+      </c>
+      <c r="C4" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="124">
+        <v>91</v>
+      </c>
+      <c r="C5" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="124">
+        <v>148</v>
+      </c>
+      <c r="C6" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="124">
+        <v>74</v>
+      </c>
+      <c r="C7" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="123">
+        <f>SUM(B2:B7)</f>
+        <v>720</v>
+      </c>
+      <c r="C8" s="123">
+        <f>SUM(C2:C7)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -18542,375 +20048,375 @@
     <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:4" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="93" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="99">
+      <c r="C4" s="98">
         <v>42654</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="95" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="100">
+      <c r="C5" s="99">
         <v>42654</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="95" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="99">
         <v>42661</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="95" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="99">
         <v>42666</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="95" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="99">
         <v>42688</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="95" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C9" s="99">
         <v>42698</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="95" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="100">
+      <c r="C10" s="99">
         <v>42704</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="95" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="100">
+      <c r="C11" s="99">
         <v>42694</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="95" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="100">
+      <c r="C12" s="99">
         <v>42701</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="95" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="99">
         <v>42704</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="95" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="100">
+      <c r="C14" s="99">
         <v>42725</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="95" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C15" s="99">
         <v>42725</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="95" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="100">
+      <c r="C16" s="99">
         <v>42760</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="95" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="100">
+      <c r="C17" s="99">
         <v>42760</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="95" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="100">
+      <c r="C18" s="99">
         <v>42795</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="D18" s="95" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="100">
+      <c r="C19" s="99">
         <v>42795</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="95" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="100">
+      <c r="C20" s="99">
         <v>42804</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="95" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="100">
+      <c r="C21" s="99">
         <v>42810</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="95" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="100">
+      <c r="C22" s="99">
         <v>42810</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="95" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="100" t="s">
+      <c r="C23" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="96" t="s">
+      <c r="D23" s="95" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="100">
+      <c r="C24" s="99">
         <v>42633</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="95" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="100">
+      <c r="C25" s="99">
         <v>42677</v>
       </c>
-      <c r="D25" s="96" t="s">
+      <c r="D25" s="95" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="100">
+      <c r="C26" s="99">
         <v>42691</v>
       </c>
-      <c r="D26" s="96" t="s">
+      <c r="D26" s="95" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="100">
+      <c r="C27" s="99">
         <v>42720</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D27" s="95" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="100">
+      <c r="C28" s="99">
         <v>42776</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="95" t="s">
         <v>100</v>
       </c>
     </row>
@@ -18919,7 +20425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -18935,198 +20441,198 @@
     <col min="5" max="5" width="128.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:5" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="94" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="144">
+      <c r="C4" s="105">
         <v>42666</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="107" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="148">
+      <c r="C5" s="109">
         <v>42704</v>
       </c>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="110" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="148">
+      <c r="C6" s="109">
         <v>42704</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="149" t="s">
+      <c r="E6" s="110" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="148">
+      <c r="C7" s="109">
         <v>42725</v>
       </c>
-      <c r="D7" s="145" t="s">
+      <c r="D7" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="149" t="s">
+      <c r="E7" s="110" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="148">
+      <c r="C8" s="109">
         <v>42760</v>
       </c>
-      <c r="D8" s="145" t="s">
+      <c r="D8" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="E8" s="107" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="148">
+      <c r="C9" s="109">
         <v>42795</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="146" t="s">
+      <c r="E9" s="107" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="152" t="s">
+      <c r="B10" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="148">
+      <c r="C10" s="109">
         <v>42810</v>
       </c>
-      <c r="D10" s="145" t="s">
+      <c r="D10" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="146" t="s">
+      <c r="E10" s="107" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="148">
+      <c r="C11" s="109">
         <v>42810</v>
       </c>
-      <c r="D11" s="145" t="s">
+      <c r="D11" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="146" t="s">
+      <c r="E11" s="107" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="148">
+      <c r="C12" s="109">
         <v>42843</v>
       </c>
-      <c r="D12" s="145" t="s">
+      <c r="D12" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="107" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="152" t="s">
+      <c r="B13" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="148">
+      <c r="C13" s="109">
         <v>42843</v>
       </c>
-      <c r="D13" s="145" t="s">
+      <c r="D13" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="146" t="s">
+      <c r="E13" s="107" t="s">
         <v>161</v>
       </c>
     </row>

--- a/doc/planning/Projektplanung_Spektrometer.xlsx
+++ b/doc/planning/Projektplanung_Spektrometer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" activeTab="1"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1672,7 +1672,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2044,25 +2044,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2095,91 +2161,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2462,6 +2468,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Zeitauswertung!$A$2:$A$7</c:f>
@@ -2542,6 +2606,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Zeitauswertung!$A$2:$A$7</c:f>
@@ -2575,22 +2697,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>148.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>207.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2606,11 +2728,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="873481120"/>
-        <c:axId val="873482896"/>
+        <c:axId val="407822752"/>
+        <c:axId val="407825072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="873481120"/>
+        <c:axId val="407822752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2653,7 +2775,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="873482896"/>
+        <c:crossAx val="407825072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2661,7 +2783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="873482896"/>
+        <c:axId val="407825072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,6 +2803,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2711,7 +2834,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="873481120"/>
+        <c:crossAx val="407822752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3663,13 +3786,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:185" s="12" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="159"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="133"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3852,11 +3975,11 @@
       <c r="GC1" s="6"/>
     </row>
     <row r="2" spans="1:185" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="168"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
       <c r="F2" s="102"/>
       <c r="G2" s="102"/>
       <c r="H2" s="102"/>
@@ -4238,851 +4361,851 @@
       <c r="GC3" s="18"/>
     </row>
     <row r="4" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="142" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="143"/>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="143"/>
-      <c r="AD4" s="143"/>
-      <c r="AE4" s="143"/>
-      <c r="AF4" s="143"/>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="143"/>
-      <c r="AI4" s="143"/>
-      <c r="AJ4" s="143"/>
-      <c r="AK4" s="143"/>
-      <c r="AL4" s="143"/>
-      <c r="AM4" s="143"/>
-      <c r="AN4" s="143"/>
-      <c r="AO4" s="143" t="s">
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
+      <c r="R4" s="152"/>
+      <c r="S4" s="152"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
+      <c r="W4" s="152"/>
+      <c r="X4" s="152"/>
+      <c r="Y4" s="152"/>
+      <c r="Z4" s="152"/>
+      <c r="AA4" s="152"/>
+      <c r="AB4" s="152"/>
+      <c r="AC4" s="152"/>
+      <c r="AD4" s="152"/>
+      <c r="AE4" s="152"/>
+      <c r="AF4" s="152"/>
+      <c r="AG4" s="152"/>
+      <c r="AH4" s="152"/>
+      <c r="AI4" s="152"/>
+      <c r="AJ4" s="152"/>
+      <c r="AK4" s="152"/>
+      <c r="AL4" s="152"/>
+      <c r="AM4" s="152"/>
+      <c r="AN4" s="152"/>
+      <c r="AO4" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="AP4" s="143"/>
-      <c r="AQ4" s="143"/>
-      <c r="AR4" s="143"/>
-      <c r="AS4" s="143"/>
-      <c r="AT4" s="143"/>
-      <c r="AU4" s="143"/>
-      <c r="AV4" s="143"/>
-      <c r="AW4" s="143"/>
-      <c r="AX4" s="143"/>
-      <c r="AY4" s="143"/>
-      <c r="AZ4" s="143"/>
-      <c r="BA4" s="143"/>
-      <c r="BB4" s="143"/>
-      <c r="BC4" s="143"/>
-      <c r="BD4" s="143"/>
-      <c r="BE4" s="143"/>
-      <c r="BF4" s="143"/>
-      <c r="BG4" s="143"/>
-      <c r="BH4" s="143"/>
-      <c r="BI4" s="143"/>
-      <c r="BJ4" s="143"/>
-      <c r="BK4" s="143"/>
-      <c r="BL4" s="143"/>
-      <c r="BM4" s="143"/>
-      <c r="BN4" s="143"/>
-      <c r="BO4" s="143"/>
-      <c r="BP4" s="143"/>
-      <c r="BQ4" s="143"/>
-      <c r="BR4" s="143"/>
-      <c r="BS4" s="143"/>
-      <c r="BT4" s="143"/>
-      <c r="BU4" s="143"/>
-      <c r="BV4" s="143"/>
-      <c r="BW4" s="143"/>
-      <c r="BX4" s="143"/>
-      <c r="BY4" s="143"/>
-      <c r="BZ4" s="143"/>
-      <c r="CA4" s="143" t="s">
+      <c r="AP4" s="152"/>
+      <c r="AQ4" s="152"/>
+      <c r="AR4" s="152"/>
+      <c r="AS4" s="152"/>
+      <c r="AT4" s="152"/>
+      <c r="AU4" s="152"/>
+      <c r="AV4" s="152"/>
+      <c r="AW4" s="152"/>
+      <c r="AX4" s="152"/>
+      <c r="AY4" s="152"/>
+      <c r="AZ4" s="152"/>
+      <c r="BA4" s="152"/>
+      <c r="BB4" s="152"/>
+      <c r="BC4" s="152"/>
+      <c r="BD4" s="152"/>
+      <c r="BE4" s="152"/>
+      <c r="BF4" s="152"/>
+      <c r="BG4" s="152"/>
+      <c r="BH4" s="152"/>
+      <c r="BI4" s="152"/>
+      <c r="BJ4" s="152"/>
+      <c r="BK4" s="152"/>
+      <c r="BL4" s="152"/>
+      <c r="BM4" s="152"/>
+      <c r="BN4" s="152"/>
+      <c r="BO4" s="152"/>
+      <c r="BP4" s="152"/>
+      <c r="BQ4" s="152"/>
+      <c r="BR4" s="152"/>
+      <c r="BS4" s="152"/>
+      <c r="BT4" s="152"/>
+      <c r="BU4" s="152"/>
+      <c r="BV4" s="152"/>
+      <c r="BW4" s="152"/>
+      <c r="BX4" s="152"/>
+      <c r="BY4" s="152"/>
+      <c r="BZ4" s="152"/>
+      <c r="CA4" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="CB4" s="143"/>
-      <c r="CC4" s="143"/>
-      <c r="CD4" s="143"/>
-      <c r="CE4" s="143"/>
-      <c r="CF4" s="143"/>
-      <c r="CG4" s="143"/>
-      <c r="CH4" s="143"/>
-      <c r="CI4" s="143"/>
-      <c r="CJ4" s="143"/>
-      <c r="CK4" s="143"/>
-      <c r="CL4" s="143"/>
-      <c r="CM4" s="143"/>
-      <c r="CN4" s="143"/>
-      <c r="CO4" s="143"/>
-      <c r="CP4" s="143"/>
-      <c r="CQ4" s="143"/>
-      <c r="CR4" s="143"/>
-      <c r="CS4" s="143"/>
-      <c r="CT4" s="143"/>
-      <c r="CU4" s="143"/>
-      <c r="CV4" s="143" t="s">
+      <c r="CB4" s="152"/>
+      <c r="CC4" s="152"/>
+      <c r="CD4" s="152"/>
+      <c r="CE4" s="152"/>
+      <c r="CF4" s="152"/>
+      <c r="CG4" s="152"/>
+      <c r="CH4" s="152"/>
+      <c r="CI4" s="152"/>
+      <c r="CJ4" s="152"/>
+      <c r="CK4" s="152"/>
+      <c r="CL4" s="152"/>
+      <c r="CM4" s="152"/>
+      <c r="CN4" s="152"/>
+      <c r="CO4" s="152"/>
+      <c r="CP4" s="152"/>
+      <c r="CQ4" s="152"/>
+      <c r="CR4" s="152"/>
+      <c r="CS4" s="152"/>
+      <c r="CT4" s="152"/>
+      <c r="CU4" s="152"/>
+      <c r="CV4" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="CW4" s="143"/>
-      <c r="CX4" s="143"/>
-      <c r="CY4" s="143"/>
-      <c r="CZ4" s="143"/>
-      <c r="DA4" s="143"/>
-      <c r="DB4" s="143"/>
-      <c r="DC4" s="143"/>
-      <c r="DD4" s="143"/>
-      <c r="DE4" s="143"/>
-      <c r="DF4" s="143"/>
-      <c r="DG4" s="143"/>
-      <c r="DH4" s="143"/>
-      <c r="DI4" s="143"/>
-      <c r="DJ4" s="143"/>
-      <c r="DK4" s="143"/>
-      <c r="DL4" s="143"/>
-      <c r="DM4" s="143"/>
-      <c r="DN4" s="143"/>
-      <c r="DO4" s="143"/>
-      <c r="DP4" s="143"/>
-      <c r="DQ4" s="143"/>
-      <c r="DR4" s="143"/>
-      <c r="DS4" s="143"/>
-      <c r="DT4" s="143"/>
-      <c r="DU4" s="143"/>
-      <c r="DV4" s="143"/>
-      <c r="DW4" s="143"/>
-      <c r="DX4" s="143"/>
-      <c r="DY4" s="143"/>
-      <c r="DZ4" s="143"/>
-      <c r="EA4" s="143"/>
-      <c r="EB4" s="143"/>
-      <c r="EC4" s="143"/>
-      <c r="ED4" s="143"/>
-      <c r="EE4" s="143" t="s">
+      <c r="CW4" s="152"/>
+      <c r="CX4" s="152"/>
+      <c r="CY4" s="152"/>
+      <c r="CZ4" s="152"/>
+      <c r="DA4" s="152"/>
+      <c r="DB4" s="152"/>
+      <c r="DC4" s="152"/>
+      <c r="DD4" s="152"/>
+      <c r="DE4" s="152"/>
+      <c r="DF4" s="152"/>
+      <c r="DG4" s="152"/>
+      <c r="DH4" s="152"/>
+      <c r="DI4" s="152"/>
+      <c r="DJ4" s="152"/>
+      <c r="DK4" s="152"/>
+      <c r="DL4" s="152"/>
+      <c r="DM4" s="152"/>
+      <c r="DN4" s="152"/>
+      <c r="DO4" s="152"/>
+      <c r="DP4" s="152"/>
+      <c r="DQ4" s="152"/>
+      <c r="DR4" s="152"/>
+      <c r="DS4" s="152"/>
+      <c r="DT4" s="152"/>
+      <c r="DU4" s="152"/>
+      <c r="DV4" s="152"/>
+      <c r="DW4" s="152"/>
+      <c r="DX4" s="152"/>
+      <c r="DY4" s="152"/>
+      <c r="DZ4" s="152"/>
+      <c r="EA4" s="152"/>
+      <c r="EB4" s="152"/>
+      <c r="EC4" s="152"/>
+      <c r="ED4" s="152"/>
+      <c r="EE4" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="EF4" s="143"/>
-      <c r="EG4" s="143"/>
-      <c r="EH4" s="143"/>
-      <c r="EI4" s="143"/>
-      <c r="EJ4" s="143"/>
-      <c r="EK4" s="143"/>
-      <c r="EL4" s="143"/>
-      <c r="EM4" s="143"/>
-      <c r="EN4" s="143"/>
-      <c r="EO4" s="143"/>
-      <c r="EP4" s="143"/>
-      <c r="EQ4" s="143"/>
-      <c r="ER4" s="143"/>
-      <c r="ES4" s="143"/>
-      <c r="ET4" s="143"/>
-      <c r="EU4" s="143"/>
-      <c r="EV4" s="143"/>
-      <c r="EW4" s="143"/>
-      <c r="EX4" s="143"/>
-      <c r="EY4" s="143"/>
-      <c r="EZ4" s="143"/>
-      <c r="FA4" s="143"/>
-      <c r="FB4" s="143"/>
-      <c r="FC4" s="143"/>
-      <c r="FD4" s="143"/>
-      <c r="FE4" s="143"/>
-      <c r="FF4" s="143"/>
-      <c r="FG4" s="143"/>
-      <c r="FH4" s="143"/>
-      <c r="FI4" s="143"/>
-      <c r="FJ4" s="143"/>
-      <c r="FK4" s="143"/>
-      <c r="FL4" s="143"/>
-      <c r="FM4" s="143" t="s">
+      <c r="EF4" s="152"/>
+      <c r="EG4" s="152"/>
+      <c r="EH4" s="152"/>
+      <c r="EI4" s="152"/>
+      <c r="EJ4" s="152"/>
+      <c r="EK4" s="152"/>
+      <c r="EL4" s="152"/>
+      <c r="EM4" s="152"/>
+      <c r="EN4" s="152"/>
+      <c r="EO4" s="152"/>
+      <c r="EP4" s="152"/>
+      <c r="EQ4" s="152"/>
+      <c r="ER4" s="152"/>
+      <c r="ES4" s="152"/>
+      <c r="ET4" s="152"/>
+      <c r="EU4" s="152"/>
+      <c r="EV4" s="152"/>
+      <c r="EW4" s="152"/>
+      <c r="EX4" s="152"/>
+      <c r="EY4" s="152"/>
+      <c r="EZ4" s="152"/>
+      <c r="FA4" s="152"/>
+      <c r="FB4" s="152"/>
+      <c r="FC4" s="152"/>
+      <c r="FD4" s="152"/>
+      <c r="FE4" s="152"/>
+      <c r="FF4" s="152"/>
+      <c r="FG4" s="152"/>
+      <c r="FH4" s="152"/>
+      <c r="FI4" s="152"/>
+      <c r="FJ4" s="152"/>
+      <c r="FK4" s="152"/>
+      <c r="FL4" s="152"/>
+      <c r="FM4" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="FN4" s="143"/>
-      <c r="FO4" s="143"/>
-      <c r="FP4" s="143"/>
-      <c r="FQ4" s="143"/>
-      <c r="FR4" s="143"/>
-      <c r="FS4" s="143"/>
-      <c r="FT4" s="143"/>
-      <c r="FU4" s="143"/>
-      <c r="FV4" s="143"/>
-      <c r="FW4" s="143"/>
-      <c r="FX4" s="143"/>
-      <c r="FY4" s="143"/>
-      <c r="FZ4" s="143"/>
-      <c r="GA4" s="143"/>
-      <c r="GB4" s="143"/>
-      <c r="GC4" s="144"/>
+      <c r="FN4" s="152"/>
+      <c r="FO4" s="152"/>
+      <c r="FP4" s="152"/>
+      <c r="FQ4" s="152"/>
+      <c r="FR4" s="152"/>
+      <c r="FS4" s="152"/>
+      <c r="FT4" s="152"/>
+      <c r="FU4" s="152"/>
+      <c r="FV4" s="152"/>
+      <c r="FW4" s="152"/>
+      <c r="FX4" s="152"/>
+      <c r="FY4" s="152"/>
+      <c r="FZ4" s="152"/>
+      <c r="GA4" s="152"/>
+      <c r="GB4" s="152"/>
+      <c r="GC4" s="153"/>
     </row>
     <row r="5" spans="1:185" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="147">
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="149">
         <v>2016</v>
       </c>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="148"/>
-      <c r="T5" s="148"/>
-      <c r="U5" s="148"/>
-      <c r="V5" s="148"/>
-      <c r="W5" s="148"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="148"/>
-      <c r="Z5" s="148"/>
-      <c r="AA5" s="148"/>
-      <c r="AB5" s="148"/>
-      <c r="AC5" s="148"/>
-      <c r="AD5" s="148"/>
-      <c r="AE5" s="148"/>
-      <c r="AF5" s="148"/>
-      <c r="AG5" s="148"/>
-      <c r="AH5" s="148"/>
-      <c r="AI5" s="148"/>
-      <c r="AJ5" s="148"/>
-      <c r="AK5" s="148"/>
-      <c r="AL5" s="148"/>
-      <c r="AM5" s="148"/>
-      <c r="AN5" s="148"/>
-      <c r="AO5" s="148"/>
-      <c r="AP5" s="148"/>
-      <c r="AQ5" s="148"/>
-      <c r="AR5" s="148"/>
-      <c r="AS5" s="148"/>
-      <c r="AT5" s="148"/>
-      <c r="AU5" s="148"/>
-      <c r="AV5" s="148"/>
-      <c r="AW5" s="148"/>
-      <c r="AX5" s="148"/>
-      <c r="AY5" s="148"/>
-      <c r="AZ5" s="148"/>
-      <c r="BA5" s="148"/>
-      <c r="BB5" s="148"/>
-      <c r="BC5" s="148"/>
-      <c r="BD5" s="148"/>
-      <c r="BE5" s="148"/>
-      <c r="BF5" s="148"/>
-      <c r="BG5" s="148"/>
-      <c r="BH5" s="148"/>
-      <c r="BI5" s="148"/>
-      <c r="BJ5" s="148"/>
-      <c r="BK5" s="148"/>
-      <c r="BL5" s="148"/>
-      <c r="BM5" s="148"/>
-      <c r="BN5" s="148"/>
-      <c r="BO5" s="148"/>
-      <c r="BP5" s="148"/>
-      <c r="BQ5" s="148"/>
-      <c r="BR5" s="148"/>
-      <c r="BS5" s="148"/>
-      <c r="BT5" s="148"/>
-      <c r="BU5" s="148"/>
-      <c r="BV5" s="148"/>
-      <c r="BW5" s="148"/>
-      <c r="BX5" s="148"/>
-      <c r="BY5" s="148"/>
-      <c r="BZ5" s="148"/>
-      <c r="CA5" s="148"/>
-      <c r="CB5" s="148"/>
-      <c r="CC5" s="148"/>
-      <c r="CD5" s="148"/>
-      <c r="CE5" s="148"/>
-      <c r="CF5" s="148"/>
-      <c r="CG5" s="148"/>
-      <c r="CH5" s="148"/>
-      <c r="CI5" s="148"/>
-      <c r="CJ5" s="148"/>
-      <c r="CK5" s="148"/>
-      <c r="CL5" s="148"/>
-      <c r="CM5" s="148"/>
-      <c r="CN5" s="148"/>
-      <c r="CO5" s="148"/>
-      <c r="CP5" s="148"/>
-      <c r="CQ5" s="148"/>
-      <c r="CR5" s="148"/>
-      <c r="CS5" s="148"/>
-      <c r="CT5" s="148"/>
-      <c r="CU5" s="148"/>
-      <c r="CV5" s="148"/>
-      <c r="CW5" s="148"/>
-      <c r="CX5" s="148"/>
-      <c r="CY5" s="148"/>
-      <c r="CZ5" s="148"/>
-      <c r="DA5" s="148"/>
-      <c r="DB5" s="148"/>
-      <c r="DC5" s="148"/>
-      <c r="DD5" s="148"/>
-      <c r="DE5" s="148"/>
-      <c r="DF5" s="148">
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="127"/>
+      <c r="AI5" s="127"/>
+      <c r="AJ5" s="127"/>
+      <c r="AK5" s="127"/>
+      <c r="AL5" s="127"/>
+      <c r="AM5" s="127"/>
+      <c r="AN5" s="127"/>
+      <c r="AO5" s="127"/>
+      <c r="AP5" s="127"/>
+      <c r="AQ5" s="127"/>
+      <c r="AR5" s="127"/>
+      <c r="AS5" s="127"/>
+      <c r="AT5" s="127"/>
+      <c r="AU5" s="127"/>
+      <c r="AV5" s="127"/>
+      <c r="AW5" s="127"/>
+      <c r="AX5" s="127"/>
+      <c r="AY5" s="127"/>
+      <c r="AZ5" s="127"/>
+      <c r="BA5" s="127"/>
+      <c r="BB5" s="127"/>
+      <c r="BC5" s="127"/>
+      <c r="BD5" s="127"/>
+      <c r="BE5" s="127"/>
+      <c r="BF5" s="127"/>
+      <c r="BG5" s="127"/>
+      <c r="BH5" s="127"/>
+      <c r="BI5" s="127"/>
+      <c r="BJ5" s="127"/>
+      <c r="BK5" s="127"/>
+      <c r="BL5" s="127"/>
+      <c r="BM5" s="127"/>
+      <c r="BN5" s="127"/>
+      <c r="BO5" s="127"/>
+      <c r="BP5" s="127"/>
+      <c r="BQ5" s="127"/>
+      <c r="BR5" s="127"/>
+      <c r="BS5" s="127"/>
+      <c r="BT5" s="127"/>
+      <c r="BU5" s="127"/>
+      <c r="BV5" s="127"/>
+      <c r="BW5" s="127"/>
+      <c r="BX5" s="127"/>
+      <c r="BY5" s="127"/>
+      <c r="BZ5" s="127"/>
+      <c r="CA5" s="127"/>
+      <c r="CB5" s="127"/>
+      <c r="CC5" s="127"/>
+      <c r="CD5" s="127"/>
+      <c r="CE5" s="127"/>
+      <c r="CF5" s="127"/>
+      <c r="CG5" s="127"/>
+      <c r="CH5" s="127"/>
+      <c r="CI5" s="127"/>
+      <c r="CJ5" s="127"/>
+      <c r="CK5" s="127"/>
+      <c r="CL5" s="127"/>
+      <c r="CM5" s="127"/>
+      <c r="CN5" s="127"/>
+      <c r="CO5" s="127"/>
+      <c r="CP5" s="127"/>
+      <c r="CQ5" s="127"/>
+      <c r="CR5" s="127"/>
+      <c r="CS5" s="127"/>
+      <c r="CT5" s="127"/>
+      <c r="CU5" s="127"/>
+      <c r="CV5" s="127"/>
+      <c r="CW5" s="127"/>
+      <c r="CX5" s="127"/>
+      <c r="CY5" s="127"/>
+      <c r="CZ5" s="127"/>
+      <c r="DA5" s="127"/>
+      <c r="DB5" s="127"/>
+      <c r="DC5" s="127"/>
+      <c r="DD5" s="127"/>
+      <c r="DE5" s="127"/>
+      <c r="DF5" s="127">
         <v>2017</v>
       </c>
-      <c r="DG5" s="148"/>
-      <c r="DH5" s="148"/>
-      <c r="DI5" s="148"/>
-      <c r="DJ5" s="148"/>
-      <c r="DK5" s="148"/>
-      <c r="DL5" s="148"/>
-      <c r="DM5" s="148"/>
-      <c r="DN5" s="148"/>
-      <c r="DO5" s="148"/>
-      <c r="DP5" s="148"/>
-      <c r="DQ5" s="148"/>
-      <c r="DR5" s="148"/>
-      <c r="DS5" s="148"/>
-      <c r="DT5" s="148"/>
-      <c r="DU5" s="148"/>
-      <c r="DV5" s="148"/>
-      <c r="DW5" s="148"/>
-      <c r="DX5" s="148"/>
-      <c r="DY5" s="148"/>
-      <c r="DZ5" s="148"/>
-      <c r="EA5" s="148"/>
-      <c r="EB5" s="148"/>
-      <c r="EC5" s="148"/>
-      <c r="ED5" s="148"/>
-      <c r="EE5" s="148"/>
-      <c r="EF5" s="148"/>
-      <c r="EG5" s="148"/>
-      <c r="EH5" s="148"/>
-      <c r="EI5" s="148"/>
-      <c r="EJ5" s="148"/>
-      <c r="EK5" s="148"/>
-      <c r="EL5" s="148"/>
-      <c r="EM5" s="148"/>
-      <c r="EN5" s="148"/>
-      <c r="EO5" s="148"/>
-      <c r="EP5" s="148"/>
-      <c r="EQ5" s="148"/>
-      <c r="ER5" s="148"/>
-      <c r="ES5" s="148"/>
-      <c r="ET5" s="148"/>
-      <c r="EU5" s="148"/>
-      <c r="EV5" s="148"/>
-      <c r="EW5" s="148"/>
-      <c r="EX5" s="148"/>
-      <c r="EY5" s="148"/>
-      <c r="EZ5" s="148"/>
-      <c r="FA5" s="148"/>
-      <c r="FB5" s="148"/>
-      <c r="FC5" s="148"/>
-      <c r="FD5" s="148"/>
-      <c r="FE5" s="148"/>
-      <c r="FF5" s="148"/>
-      <c r="FG5" s="148"/>
-      <c r="FH5" s="148"/>
-      <c r="FI5" s="148"/>
-      <c r="FJ5" s="148"/>
-      <c r="FK5" s="148"/>
-      <c r="FL5" s="148"/>
-      <c r="FM5" s="148"/>
-      <c r="FN5" s="148"/>
-      <c r="FO5" s="148"/>
-      <c r="FP5" s="148"/>
-      <c r="FQ5" s="148"/>
-      <c r="FR5" s="148"/>
-      <c r="FS5" s="148"/>
-      <c r="FT5" s="148"/>
-      <c r="FU5" s="148"/>
-      <c r="FV5" s="148"/>
-      <c r="FW5" s="148"/>
-      <c r="FX5" s="148"/>
-      <c r="FY5" s="148"/>
-      <c r="FZ5" s="148"/>
-      <c r="GA5" s="148"/>
-      <c r="GB5" s="148"/>
-      <c r="GC5" s="170"/>
+      <c r="DG5" s="127"/>
+      <c r="DH5" s="127"/>
+      <c r="DI5" s="127"/>
+      <c r="DJ5" s="127"/>
+      <c r="DK5" s="127"/>
+      <c r="DL5" s="127"/>
+      <c r="DM5" s="127"/>
+      <c r="DN5" s="127"/>
+      <c r="DO5" s="127"/>
+      <c r="DP5" s="127"/>
+      <c r="DQ5" s="127"/>
+      <c r="DR5" s="127"/>
+      <c r="DS5" s="127"/>
+      <c r="DT5" s="127"/>
+      <c r="DU5" s="127"/>
+      <c r="DV5" s="127"/>
+      <c r="DW5" s="127"/>
+      <c r="DX5" s="127"/>
+      <c r="DY5" s="127"/>
+      <c r="DZ5" s="127"/>
+      <c r="EA5" s="127"/>
+      <c r="EB5" s="127"/>
+      <c r="EC5" s="127"/>
+      <c r="ED5" s="127"/>
+      <c r="EE5" s="127"/>
+      <c r="EF5" s="127"/>
+      <c r="EG5" s="127"/>
+      <c r="EH5" s="127"/>
+      <c r="EI5" s="127"/>
+      <c r="EJ5" s="127"/>
+      <c r="EK5" s="127"/>
+      <c r="EL5" s="127"/>
+      <c r="EM5" s="127"/>
+      <c r="EN5" s="127"/>
+      <c r="EO5" s="127"/>
+      <c r="EP5" s="127"/>
+      <c r="EQ5" s="127"/>
+      <c r="ER5" s="127"/>
+      <c r="ES5" s="127"/>
+      <c r="ET5" s="127"/>
+      <c r="EU5" s="127"/>
+      <c r="EV5" s="127"/>
+      <c r="EW5" s="127"/>
+      <c r="EX5" s="127"/>
+      <c r="EY5" s="127"/>
+      <c r="EZ5" s="127"/>
+      <c r="FA5" s="127"/>
+      <c r="FB5" s="127"/>
+      <c r="FC5" s="127"/>
+      <c r="FD5" s="127"/>
+      <c r="FE5" s="127"/>
+      <c r="FF5" s="127"/>
+      <c r="FG5" s="127"/>
+      <c r="FH5" s="127"/>
+      <c r="FI5" s="127"/>
+      <c r="FJ5" s="127"/>
+      <c r="FK5" s="127"/>
+      <c r="FL5" s="127"/>
+      <c r="FM5" s="127"/>
+      <c r="FN5" s="127"/>
+      <c r="FO5" s="127"/>
+      <c r="FP5" s="127"/>
+      <c r="FQ5" s="127"/>
+      <c r="FR5" s="127"/>
+      <c r="FS5" s="127"/>
+      <c r="FT5" s="127"/>
+      <c r="FU5" s="127"/>
+      <c r="FV5" s="127"/>
+      <c r="FW5" s="127"/>
+      <c r="FX5" s="127"/>
+      <c r="FY5" s="127"/>
+      <c r="FZ5" s="127"/>
+      <c r="GA5" s="127"/>
+      <c r="GB5" s="127"/>
+      <c r="GC5" s="128"/>
     </row>
     <row r="6" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="145" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146" t="s">
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="146"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="146"/>
-      <c r="AE6" s="146"/>
-      <c r="AF6" s="146"/>
-      <c r="AG6" s="146"/>
-      <c r="AH6" s="146"/>
-      <c r="AI6" s="146"/>
-      <c r="AJ6" s="146"/>
-      <c r="AK6" s="146"/>
-      <c r="AL6" s="146"/>
-      <c r="AM6" s="146"/>
-      <c r="AN6" s="146"/>
-      <c r="AO6" s="146"/>
-      <c r="AP6" s="146"/>
-      <c r="AQ6" s="146"/>
-      <c r="AR6" s="146"/>
-      <c r="AS6" s="146"/>
-      <c r="AT6" s="146"/>
-      <c r="AU6" s="146"/>
-      <c r="AV6" s="146"/>
-      <c r="AW6" s="146" t="s">
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125"/>
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125"/>
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="125"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="125"/>
+      <c r="AJ6" s="125"/>
+      <c r="AK6" s="125"/>
+      <c r="AL6" s="125"/>
+      <c r="AM6" s="125"/>
+      <c r="AN6" s="125"/>
+      <c r="AO6" s="125"/>
+      <c r="AP6" s="125"/>
+      <c r="AQ6" s="125"/>
+      <c r="AR6" s="125"/>
+      <c r="AS6" s="125"/>
+      <c r="AT6" s="125"/>
+      <c r="AU6" s="125"/>
+      <c r="AV6" s="125"/>
+      <c r="AW6" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AX6" s="146"/>
-      <c r="AY6" s="146"/>
-      <c r="AZ6" s="146"/>
-      <c r="BA6" s="146"/>
-      <c r="BB6" s="146"/>
-      <c r="BC6" s="146"/>
-      <c r="BD6" s="146"/>
-      <c r="BE6" s="146"/>
-      <c r="BF6" s="146"/>
-      <c r="BG6" s="146"/>
-      <c r="BH6" s="146"/>
-      <c r="BI6" s="146"/>
-      <c r="BJ6" s="146"/>
-      <c r="BK6" s="146"/>
-      <c r="BL6" s="146"/>
-      <c r="BM6" s="146"/>
-      <c r="BN6" s="146"/>
-      <c r="BO6" s="146"/>
-      <c r="BP6" s="146"/>
-      <c r="BQ6" s="146"/>
-      <c r="BR6" s="146"/>
-      <c r="BS6" s="146"/>
-      <c r="BT6" s="146"/>
-      <c r="BU6" s="146"/>
-      <c r="BV6" s="146"/>
-      <c r="BW6" s="146"/>
-      <c r="BX6" s="146"/>
-      <c r="BY6" s="146"/>
-      <c r="BZ6" s="146"/>
-      <c r="CA6" s="146" t="s">
+      <c r="AX6" s="125"/>
+      <c r="AY6" s="125"/>
+      <c r="AZ6" s="125"/>
+      <c r="BA6" s="125"/>
+      <c r="BB6" s="125"/>
+      <c r="BC6" s="125"/>
+      <c r="BD6" s="125"/>
+      <c r="BE6" s="125"/>
+      <c r="BF6" s="125"/>
+      <c r="BG6" s="125"/>
+      <c r="BH6" s="125"/>
+      <c r="BI6" s="125"/>
+      <c r="BJ6" s="125"/>
+      <c r="BK6" s="125"/>
+      <c r="BL6" s="125"/>
+      <c r="BM6" s="125"/>
+      <c r="BN6" s="125"/>
+      <c r="BO6" s="125"/>
+      <c r="BP6" s="125"/>
+      <c r="BQ6" s="125"/>
+      <c r="BR6" s="125"/>
+      <c r="BS6" s="125"/>
+      <c r="BT6" s="125"/>
+      <c r="BU6" s="125"/>
+      <c r="BV6" s="125"/>
+      <c r="BW6" s="125"/>
+      <c r="BX6" s="125"/>
+      <c r="BY6" s="125"/>
+      <c r="BZ6" s="125"/>
+      <c r="CA6" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="CB6" s="146"/>
-      <c r="CC6" s="146"/>
-      <c r="CD6" s="146"/>
-      <c r="CE6" s="146"/>
-      <c r="CF6" s="146"/>
-      <c r="CG6" s="146"/>
-      <c r="CH6" s="146"/>
-      <c r="CI6" s="146"/>
-      <c r="CJ6" s="146"/>
-      <c r="CK6" s="146"/>
-      <c r="CL6" s="146"/>
-      <c r="CM6" s="146"/>
-      <c r="CN6" s="146"/>
-      <c r="CO6" s="146"/>
-      <c r="CP6" s="146"/>
-      <c r="CQ6" s="146"/>
-      <c r="CR6" s="146"/>
-      <c r="CS6" s="146"/>
-      <c r="CT6" s="146"/>
-      <c r="CU6" s="146"/>
-      <c r="CV6" s="146"/>
-      <c r="CW6" s="146"/>
-      <c r="CX6" s="146"/>
-      <c r="CY6" s="146"/>
-      <c r="CZ6" s="146"/>
-      <c r="DA6" s="146"/>
-      <c r="DB6" s="146"/>
-      <c r="DC6" s="146"/>
-      <c r="DD6" s="146"/>
-      <c r="DE6" s="146"/>
-      <c r="DF6" s="146" t="s">
+      <c r="CB6" s="125"/>
+      <c r="CC6" s="125"/>
+      <c r="CD6" s="125"/>
+      <c r="CE6" s="125"/>
+      <c r="CF6" s="125"/>
+      <c r="CG6" s="125"/>
+      <c r="CH6" s="125"/>
+      <c r="CI6" s="125"/>
+      <c r="CJ6" s="125"/>
+      <c r="CK6" s="125"/>
+      <c r="CL6" s="125"/>
+      <c r="CM6" s="125"/>
+      <c r="CN6" s="125"/>
+      <c r="CO6" s="125"/>
+      <c r="CP6" s="125"/>
+      <c r="CQ6" s="125"/>
+      <c r="CR6" s="125"/>
+      <c r="CS6" s="125"/>
+      <c r="CT6" s="125"/>
+      <c r="CU6" s="125"/>
+      <c r="CV6" s="125"/>
+      <c r="CW6" s="125"/>
+      <c r="CX6" s="125"/>
+      <c r="CY6" s="125"/>
+      <c r="CZ6" s="125"/>
+      <c r="DA6" s="125"/>
+      <c r="DB6" s="125"/>
+      <c r="DC6" s="125"/>
+      <c r="DD6" s="125"/>
+      <c r="DE6" s="125"/>
+      <c r="DF6" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="DG6" s="146"/>
-      <c r="DH6" s="146"/>
-      <c r="DI6" s="146"/>
-      <c r="DJ6" s="146"/>
-      <c r="DK6" s="146"/>
-      <c r="DL6" s="146"/>
-      <c r="DM6" s="146"/>
-      <c r="DN6" s="146"/>
-      <c r="DO6" s="146"/>
-      <c r="DP6" s="146"/>
-      <c r="DQ6" s="146"/>
-      <c r="DR6" s="146"/>
-      <c r="DS6" s="146"/>
-      <c r="DT6" s="146"/>
-      <c r="DU6" s="146"/>
-      <c r="DV6" s="146"/>
-      <c r="DW6" s="146"/>
-      <c r="DX6" s="146"/>
-      <c r="DY6" s="146"/>
-      <c r="DZ6" s="146"/>
-      <c r="EA6" s="146"/>
-      <c r="EB6" s="146"/>
-      <c r="EC6" s="146"/>
-      <c r="ED6" s="146"/>
-      <c r="EE6" s="146"/>
-      <c r="EF6" s="146"/>
-      <c r="EG6" s="146"/>
-      <c r="EH6" s="146"/>
-      <c r="EI6" s="146"/>
-      <c r="EJ6" s="146"/>
-      <c r="EK6" s="146" t="s">
+      <c r="DG6" s="125"/>
+      <c r="DH6" s="125"/>
+      <c r="DI6" s="125"/>
+      <c r="DJ6" s="125"/>
+      <c r="DK6" s="125"/>
+      <c r="DL6" s="125"/>
+      <c r="DM6" s="125"/>
+      <c r="DN6" s="125"/>
+      <c r="DO6" s="125"/>
+      <c r="DP6" s="125"/>
+      <c r="DQ6" s="125"/>
+      <c r="DR6" s="125"/>
+      <c r="DS6" s="125"/>
+      <c r="DT6" s="125"/>
+      <c r="DU6" s="125"/>
+      <c r="DV6" s="125"/>
+      <c r="DW6" s="125"/>
+      <c r="DX6" s="125"/>
+      <c r="DY6" s="125"/>
+      <c r="DZ6" s="125"/>
+      <c r="EA6" s="125"/>
+      <c r="EB6" s="125"/>
+      <c r="EC6" s="125"/>
+      <c r="ED6" s="125"/>
+      <c r="EE6" s="125"/>
+      <c r="EF6" s="125"/>
+      <c r="EG6" s="125"/>
+      <c r="EH6" s="125"/>
+      <c r="EI6" s="125"/>
+      <c r="EJ6" s="125"/>
+      <c r="EK6" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="EL6" s="146"/>
-      <c r="EM6" s="146"/>
-      <c r="EN6" s="146"/>
-      <c r="EO6" s="146"/>
-      <c r="EP6" s="146"/>
-      <c r="EQ6" s="146"/>
-      <c r="ER6" s="146"/>
-      <c r="ES6" s="146"/>
-      <c r="ET6" s="146"/>
-      <c r="EU6" s="146"/>
-      <c r="EV6" s="146"/>
-      <c r="EW6" s="146"/>
-      <c r="EX6" s="146"/>
-      <c r="EY6" s="146"/>
-      <c r="EZ6" s="146"/>
-      <c r="FA6" s="146"/>
-      <c r="FB6" s="146"/>
-      <c r="FC6" s="146"/>
-      <c r="FD6" s="146"/>
-      <c r="FE6" s="146"/>
-      <c r="FF6" s="146"/>
-      <c r="FG6" s="146"/>
-      <c r="FH6" s="146"/>
-      <c r="FI6" s="146"/>
-      <c r="FJ6" s="146"/>
-      <c r="FK6" s="146"/>
-      <c r="FL6" s="146"/>
-      <c r="FM6" s="146" t="s">
+      <c r="EL6" s="125"/>
+      <c r="EM6" s="125"/>
+      <c r="EN6" s="125"/>
+      <c r="EO6" s="125"/>
+      <c r="EP6" s="125"/>
+      <c r="EQ6" s="125"/>
+      <c r="ER6" s="125"/>
+      <c r="ES6" s="125"/>
+      <c r="ET6" s="125"/>
+      <c r="EU6" s="125"/>
+      <c r="EV6" s="125"/>
+      <c r="EW6" s="125"/>
+      <c r="EX6" s="125"/>
+      <c r="EY6" s="125"/>
+      <c r="EZ6" s="125"/>
+      <c r="FA6" s="125"/>
+      <c r="FB6" s="125"/>
+      <c r="FC6" s="125"/>
+      <c r="FD6" s="125"/>
+      <c r="FE6" s="125"/>
+      <c r="FF6" s="125"/>
+      <c r="FG6" s="125"/>
+      <c r="FH6" s="125"/>
+      <c r="FI6" s="125"/>
+      <c r="FJ6" s="125"/>
+      <c r="FK6" s="125"/>
+      <c r="FL6" s="125"/>
+      <c r="FM6" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="FN6" s="146"/>
-      <c r="FO6" s="146"/>
-      <c r="FP6" s="146"/>
-      <c r="FQ6" s="146"/>
-      <c r="FR6" s="146"/>
-      <c r="FS6" s="146"/>
-      <c r="FT6" s="146"/>
-      <c r="FU6" s="146"/>
-      <c r="FV6" s="146"/>
-      <c r="FW6" s="146"/>
-      <c r="FX6" s="146"/>
-      <c r="FY6" s="146"/>
-      <c r="FZ6" s="146"/>
-      <c r="GA6" s="146"/>
-      <c r="GB6" s="146"/>
-      <c r="GC6" s="169"/>
+      <c r="FN6" s="125"/>
+      <c r="FO6" s="125"/>
+      <c r="FP6" s="125"/>
+      <c r="FQ6" s="125"/>
+      <c r="FR6" s="125"/>
+      <c r="FS6" s="125"/>
+      <c r="FT6" s="125"/>
+      <c r="FU6" s="125"/>
+      <c r="FV6" s="125"/>
+      <c r="FW6" s="125"/>
+      <c r="FX6" s="125"/>
+      <c r="FY6" s="125"/>
+      <c r="FZ6" s="125"/>
+      <c r="GA6" s="125"/>
+      <c r="GB6" s="125"/>
+      <c r="GC6" s="126"/>
     </row>
     <row r="7" spans="1:185" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="147" t="s">
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="153"/>
-      <c r="M7" s="152" t="s">
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
-      <c r="R7" s="148"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="152" t="s">
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="148"/>
-      <c r="V7" s="148"/>
-      <c r="W7" s="148"/>
-      <c r="X7" s="148"/>
-      <c r="Y7" s="148"/>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="152" t="s">
+      <c r="U7" s="127"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="148"/>
-      <c r="AC7" s="148"/>
-      <c r="AD7" s="148"/>
-      <c r="AE7" s="148"/>
-      <c r="AF7" s="148"/>
-      <c r="AG7" s="153"/>
-      <c r="AH7" s="152" t="s">
+      <c r="AB7" s="127"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="127"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="AI7" s="148"/>
-      <c r="AJ7" s="148"/>
-      <c r="AK7" s="148"/>
-      <c r="AL7" s="148"/>
-      <c r="AM7" s="148"/>
-      <c r="AN7" s="153"/>
-      <c r="AO7" s="152" t="s">
+      <c r="AI7" s="127"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
+      <c r="AL7" s="127"/>
+      <c r="AM7" s="127"/>
+      <c r="AN7" s="130"/>
+      <c r="AO7" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="AP7" s="148"/>
-      <c r="AQ7" s="148"/>
-      <c r="AR7" s="148"/>
-      <c r="AS7" s="148"/>
-      <c r="AT7" s="148"/>
-      <c r="AU7" s="153"/>
-      <c r="AV7" s="152" t="s">
+      <c r="AP7" s="127"/>
+      <c r="AQ7" s="127"/>
+      <c r="AR7" s="127"/>
+      <c r="AS7" s="127"/>
+      <c r="AT7" s="127"/>
+      <c r="AU7" s="130"/>
+      <c r="AV7" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="AW7" s="148"/>
-      <c r="AX7" s="148"/>
-      <c r="AY7" s="148"/>
-      <c r="AZ7" s="148"/>
-      <c r="BA7" s="148"/>
-      <c r="BB7" s="153"/>
-      <c r="BC7" s="152" t="s">
+      <c r="AW7" s="127"/>
+      <c r="AX7" s="127"/>
+      <c r="AY7" s="127"/>
+      <c r="AZ7" s="127"/>
+      <c r="BA7" s="127"/>
+      <c r="BB7" s="130"/>
+      <c r="BC7" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="BD7" s="148"/>
-      <c r="BE7" s="148"/>
-      <c r="BF7" s="148"/>
-      <c r="BG7" s="148"/>
-      <c r="BH7" s="148"/>
-      <c r="BI7" s="153"/>
-      <c r="BJ7" s="152" t="s">
+      <c r="BD7" s="127"/>
+      <c r="BE7" s="127"/>
+      <c r="BF7" s="127"/>
+      <c r="BG7" s="127"/>
+      <c r="BH7" s="127"/>
+      <c r="BI7" s="130"/>
+      <c r="BJ7" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="BK7" s="148"/>
-      <c r="BL7" s="148"/>
-      <c r="BM7" s="148"/>
-      <c r="BN7" s="148"/>
-      <c r="BO7" s="148"/>
-      <c r="BP7" s="153"/>
-      <c r="BQ7" s="152" t="s">
+      <c r="BK7" s="127"/>
+      <c r="BL7" s="127"/>
+      <c r="BM7" s="127"/>
+      <c r="BN7" s="127"/>
+      <c r="BO7" s="127"/>
+      <c r="BP7" s="130"/>
+      <c r="BQ7" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="BR7" s="148"/>
-      <c r="BS7" s="148"/>
-      <c r="BT7" s="148"/>
-      <c r="BU7" s="148"/>
-      <c r="BV7" s="148"/>
-      <c r="BW7" s="153"/>
-      <c r="BX7" s="152" t="s">
+      <c r="BR7" s="127"/>
+      <c r="BS7" s="127"/>
+      <c r="BT7" s="127"/>
+      <c r="BU7" s="127"/>
+      <c r="BV7" s="127"/>
+      <c r="BW7" s="130"/>
+      <c r="BX7" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="BY7" s="148"/>
-      <c r="BZ7" s="148"/>
-      <c r="CA7" s="148"/>
-      <c r="CB7" s="148"/>
-      <c r="CC7" s="148"/>
-      <c r="CD7" s="153"/>
-      <c r="CE7" s="152" t="s">
+      <c r="BY7" s="127"/>
+      <c r="BZ7" s="127"/>
+      <c r="CA7" s="127"/>
+      <c r="CB7" s="127"/>
+      <c r="CC7" s="127"/>
+      <c r="CD7" s="130"/>
+      <c r="CE7" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="CF7" s="148"/>
-      <c r="CG7" s="148"/>
-      <c r="CH7" s="148"/>
-      <c r="CI7" s="148"/>
-      <c r="CJ7" s="148"/>
-      <c r="CK7" s="153"/>
-      <c r="CL7" s="152" t="s">
+      <c r="CF7" s="127"/>
+      <c r="CG7" s="127"/>
+      <c r="CH7" s="127"/>
+      <c r="CI7" s="127"/>
+      <c r="CJ7" s="127"/>
+      <c r="CK7" s="130"/>
+      <c r="CL7" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="CM7" s="148"/>
-      <c r="CN7" s="148"/>
-      <c r="CO7" s="148"/>
-      <c r="CP7" s="148"/>
-      <c r="CQ7" s="148"/>
-      <c r="CR7" s="153"/>
-      <c r="CS7" s="152" t="s">
+      <c r="CM7" s="127"/>
+      <c r="CN7" s="127"/>
+      <c r="CO7" s="127"/>
+      <c r="CP7" s="127"/>
+      <c r="CQ7" s="127"/>
+      <c r="CR7" s="130"/>
+      <c r="CS7" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="CT7" s="148"/>
-      <c r="CU7" s="148"/>
-      <c r="CV7" s="148"/>
-      <c r="CW7" s="148"/>
-      <c r="CX7" s="148"/>
-      <c r="CY7" s="153"/>
-      <c r="CZ7" s="152" t="s">
+      <c r="CT7" s="127"/>
+      <c r="CU7" s="127"/>
+      <c r="CV7" s="127"/>
+      <c r="CW7" s="127"/>
+      <c r="CX7" s="127"/>
+      <c r="CY7" s="130"/>
+      <c r="CZ7" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="DA7" s="148"/>
-      <c r="DB7" s="148"/>
-      <c r="DC7" s="148"/>
-      <c r="DD7" s="148"/>
-      <c r="DE7" s="148"/>
-      <c r="DF7" s="148"/>
-      <c r="DG7" s="152" t="s">
+      <c r="DA7" s="127"/>
+      <c r="DB7" s="127"/>
+      <c r="DC7" s="127"/>
+      <c r="DD7" s="127"/>
+      <c r="DE7" s="127"/>
+      <c r="DF7" s="127"/>
+      <c r="DG7" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="DH7" s="148"/>
-      <c r="DI7" s="148"/>
-      <c r="DJ7" s="148"/>
-      <c r="DK7" s="148"/>
-      <c r="DL7" s="148"/>
-      <c r="DM7" s="153"/>
-      <c r="DN7" s="148" t="s">
+      <c r="DH7" s="127"/>
+      <c r="DI7" s="127"/>
+      <c r="DJ7" s="127"/>
+      <c r="DK7" s="127"/>
+      <c r="DL7" s="127"/>
+      <c r="DM7" s="130"/>
+      <c r="DN7" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="DO7" s="148"/>
-      <c r="DP7" s="148"/>
-      <c r="DQ7" s="148"/>
-      <c r="DR7" s="148"/>
-      <c r="DS7" s="148"/>
-      <c r="DT7" s="148"/>
-      <c r="DU7" s="152" t="s">
+      <c r="DO7" s="127"/>
+      <c r="DP7" s="127"/>
+      <c r="DQ7" s="127"/>
+      <c r="DR7" s="127"/>
+      <c r="DS7" s="127"/>
+      <c r="DT7" s="127"/>
+      <c r="DU7" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="DV7" s="148"/>
-      <c r="DW7" s="148"/>
-      <c r="DX7" s="148"/>
-      <c r="DY7" s="148"/>
-      <c r="DZ7" s="148"/>
-      <c r="EA7" s="153"/>
-      <c r="EB7" s="148" t="s">
+      <c r="DV7" s="127"/>
+      <c r="DW7" s="127"/>
+      <c r="DX7" s="127"/>
+      <c r="DY7" s="127"/>
+      <c r="DZ7" s="127"/>
+      <c r="EA7" s="130"/>
+      <c r="EB7" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="EC7" s="148"/>
-      <c r="ED7" s="148"/>
-      <c r="EE7" s="148"/>
-      <c r="EF7" s="148"/>
-      <c r="EG7" s="148"/>
-      <c r="EH7" s="148"/>
-      <c r="EI7" s="152" t="s">
+      <c r="EC7" s="127"/>
+      <c r="ED7" s="127"/>
+      <c r="EE7" s="127"/>
+      <c r="EF7" s="127"/>
+      <c r="EG7" s="127"/>
+      <c r="EH7" s="127"/>
+      <c r="EI7" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="EJ7" s="148"/>
-      <c r="EK7" s="148"/>
-      <c r="EL7" s="148"/>
-      <c r="EM7" s="148"/>
-      <c r="EN7" s="148"/>
-      <c r="EO7" s="153"/>
-      <c r="EP7" s="148" t="s">
+      <c r="EJ7" s="127"/>
+      <c r="EK7" s="127"/>
+      <c r="EL7" s="127"/>
+      <c r="EM7" s="127"/>
+      <c r="EN7" s="127"/>
+      <c r="EO7" s="130"/>
+      <c r="EP7" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="EQ7" s="148"/>
-      <c r="ER7" s="148"/>
-      <c r="ES7" s="148"/>
-      <c r="ET7" s="148"/>
-      <c r="EU7" s="148"/>
-      <c r="EV7" s="148"/>
-      <c r="EW7" s="152" t="s">
+      <c r="EQ7" s="127"/>
+      <c r="ER7" s="127"/>
+      <c r="ES7" s="127"/>
+      <c r="ET7" s="127"/>
+      <c r="EU7" s="127"/>
+      <c r="EV7" s="127"/>
+      <c r="EW7" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="EX7" s="148"/>
-      <c r="EY7" s="148"/>
-      <c r="EZ7" s="148"/>
-      <c r="FA7" s="148"/>
-      <c r="FB7" s="148"/>
-      <c r="FC7" s="153"/>
-      <c r="FD7" s="148" t="s">
+      <c r="EX7" s="127"/>
+      <c r="EY7" s="127"/>
+      <c r="EZ7" s="127"/>
+      <c r="FA7" s="127"/>
+      <c r="FB7" s="127"/>
+      <c r="FC7" s="130"/>
+      <c r="FD7" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="FE7" s="148"/>
-      <c r="FF7" s="148"/>
-      <c r="FG7" s="148"/>
-      <c r="FH7" s="148"/>
-      <c r="FI7" s="148"/>
-      <c r="FJ7" s="148"/>
-      <c r="FK7" s="152" t="s">
+      <c r="FE7" s="127"/>
+      <c r="FF7" s="127"/>
+      <c r="FG7" s="127"/>
+      <c r="FH7" s="127"/>
+      <c r="FI7" s="127"/>
+      <c r="FJ7" s="127"/>
+      <c r="FK7" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="FL7" s="148"/>
-      <c r="FM7" s="148"/>
-      <c r="FN7" s="148"/>
-      <c r="FO7" s="148"/>
-      <c r="FP7" s="148"/>
-      <c r="FQ7" s="153"/>
-      <c r="FR7" s="148" t="s">
+      <c r="FL7" s="127"/>
+      <c r="FM7" s="127"/>
+      <c r="FN7" s="127"/>
+      <c r="FO7" s="127"/>
+      <c r="FP7" s="127"/>
+      <c r="FQ7" s="130"/>
+      <c r="FR7" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="FS7" s="148"/>
-      <c r="FT7" s="148"/>
-      <c r="FU7" s="148"/>
-      <c r="FV7" s="148"/>
-      <c r="FW7" s="148"/>
-      <c r="FX7" s="148"/>
-      <c r="FY7" s="152" t="s">
+      <c r="FS7" s="127"/>
+      <c r="FT7" s="127"/>
+      <c r="FU7" s="127"/>
+      <c r="FV7" s="127"/>
+      <c r="FW7" s="127"/>
+      <c r="FX7" s="127"/>
+      <c r="FY7" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="FZ7" s="148"/>
-      <c r="GA7" s="148"/>
-      <c r="GB7" s="148"/>
-      <c r="GC7" s="170"/>
+      <c r="FZ7" s="127"/>
+      <c r="GA7" s="127"/>
+      <c r="GB7" s="127"/>
+      <c r="GC7" s="128"/>
     </row>
     <row r="8" spans="1:185" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="151"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="148"/>
       <c r="F8" s="25">
         <v>19</v>
       </c>
@@ -19416,405 +19539,405 @@
         <v>719.99999999999989</v>
       </c>
       <c r="E82" s="121"/>
-      <c r="F82" s="129">
+      <c r="F82" s="168">
         <f>35*C82</f>
         <v>151.80722891566265</v>
       </c>
-      <c r="G82" s="126"/>
-      <c r="H82" s="126"/>
-      <c r="I82" s="126"/>
-      <c r="J82" s="126"/>
-      <c r="K82" s="126"/>
-      <c r="L82" s="126"/>
-      <c r="M82" s="126"/>
-      <c r="N82" s="126"/>
-      <c r="O82" s="126"/>
-      <c r="P82" s="126"/>
-      <c r="Q82" s="126"/>
-      <c r="R82" s="126"/>
-      <c r="S82" s="126"/>
-      <c r="T82" s="126"/>
-      <c r="U82" s="126"/>
-      <c r="V82" s="126"/>
-      <c r="W82" s="126"/>
-      <c r="X82" s="126"/>
-      <c r="Y82" s="126"/>
-      <c r="Z82" s="126"/>
-      <c r="AA82" s="126"/>
-      <c r="AB82" s="126"/>
-      <c r="AC82" s="126"/>
-      <c r="AD82" s="126"/>
-      <c r="AE82" s="126"/>
-      <c r="AF82" s="126"/>
-      <c r="AG82" s="126"/>
-      <c r="AH82" s="126"/>
-      <c r="AI82" s="126"/>
-      <c r="AJ82" s="126"/>
-      <c r="AK82" s="126"/>
-      <c r="AL82" s="126"/>
-      <c r="AM82" s="126"/>
-      <c r="AN82" s="130"/>
-      <c r="AO82" s="131">
+      <c r="G82" s="165"/>
+      <c r="H82" s="165"/>
+      <c r="I82" s="165"/>
+      <c r="J82" s="165"/>
+      <c r="K82" s="165"/>
+      <c r="L82" s="165"/>
+      <c r="M82" s="165"/>
+      <c r="N82" s="165"/>
+      <c r="O82" s="165"/>
+      <c r="P82" s="165"/>
+      <c r="Q82" s="165"/>
+      <c r="R82" s="165"/>
+      <c r="S82" s="165"/>
+      <c r="T82" s="165"/>
+      <c r="U82" s="165"/>
+      <c r="V82" s="165"/>
+      <c r="W82" s="165"/>
+      <c r="X82" s="165"/>
+      <c r="Y82" s="165"/>
+      <c r="Z82" s="165"/>
+      <c r="AA82" s="165"/>
+      <c r="AB82" s="165"/>
+      <c r="AC82" s="165"/>
+      <c r="AD82" s="165"/>
+      <c r="AE82" s="165"/>
+      <c r="AF82" s="165"/>
+      <c r="AG82" s="165"/>
+      <c r="AH82" s="165"/>
+      <c r="AI82" s="165"/>
+      <c r="AJ82" s="165"/>
+      <c r="AK82" s="165"/>
+      <c r="AL82" s="165"/>
+      <c r="AM82" s="165"/>
+      <c r="AN82" s="169"/>
+      <c r="AO82" s="170">
         <f>38*C82</f>
         <v>164.81927710843374</v>
       </c>
-      <c r="AP82" s="126"/>
-      <c r="AQ82" s="126"/>
-      <c r="AR82" s="126"/>
-      <c r="AS82" s="126"/>
-      <c r="AT82" s="126"/>
-      <c r="AU82" s="126"/>
-      <c r="AV82" s="126"/>
-      <c r="AW82" s="126"/>
-      <c r="AX82" s="126"/>
-      <c r="AY82" s="126"/>
-      <c r="AZ82" s="126"/>
-      <c r="BA82" s="126"/>
-      <c r="BB82" s="126"/>
-      <c r="BC82" s="126"/>
-      <c r="BD82" s="126"/>
-      <c r="BE82" s="126"/>
-      <c r="BF82" s="126"/>
-      <c r="BG82" s="126"/>
-      <c r="BH82" s="126"/>
-      <c r="BI82" s="126"/>
-      <c r="BJ82" s="126"/>
-      <c r="BK82" s="126"/>
-      <c r="BL82" s="126"/>
-      <c r="BM82" s="126"/>
-      <c r="BN82" s="126"/>
-      <c r="BO82" s="126"/>
-      <c r="BP82" s="126"/>
-      <c r="BQ82" s="126"/>
-      <c r="BR82" s="126"/>
-      <c r="BS82" s="126"/>
-      <c r="BT82" s="126"/>
-      <c r="BU82" s="126"/>
-      <c r="BV82" s="126"/>
-      <c r="BW82" s="126"/>
-      <c r="BX82" s="126"/>
-      <c r="BY82" s="126"/>
-      <c r="BZ82" s="127"/>
-      <c r="CA82" s="125">
+      <c r="AP82" s="165"/>
+      <c r="AQ82" s="165"/>
+      <c r="AR82" s="165"/>
+      <c r="AS82" s="165"/>
+      <c r="AT82" s="165"/>
+      <c r="AU82" s="165"/>
+      <c r="AV82" s="165"/>
+      <c r="AW82" s="165"/>
+      <c r="AX82" s="165"/>
+      <c r="AY82" s="165"/>
+      <c r="AZ82" s="165"/>
+      <c r="BA82" s="165"/>
+      <c r="BB82" s="165"/>
+      <c r="BC82" s="165"/>
+      <c r="BD82" s="165"/>
+      <c r="BE82" s="165"/>
+      <c r="BF82" s="165"/>
+      <c r="BG82" s="165"/>
+      <c r="BH82" s="165"/>
+      <c r="BI82" s="165"/>
+      <c r="BJ82" s="165"/>
+      <c r="BK82" s="165"/>
+      <c r="BL82" s="165"/>
+      <c r="BM82" s="165"/>
+      <c r="BN82" s="165"/>
+      <c r="BO82" s="165"/>
+      <c r="BP82" s="165"/>
+      <c r="BQ82" s="165"/>
+      <c r="BR82" s="165"/>
+      <c r="BS82" s="165"/>
+      <c r="BT82" s="165"/>
+      <c r="BU82" s="165"/>
+      <c r="BV82" s="165"/>
+      <c r="BW82" s="165"/>
+      <c r="BX82" s="165"/>
+      <c r="BY82" s="165"/>
+      <c r="BZ82" s="166"/>
+      <c r="CA82" s="164">
         <f>21*C82</f>
         <v>91.084337349397586</v>
       </c>
-      <c r="CB82" s="126"/>
-      <c r="CC82" s="126"/>
-      <c r="CD82" s="126"/>
-      <c r="CE82" s="126"/>
-      <c r="CF82" s="126"/>
-      <c r="CG82" s="126"/>
-      <c r="CH82" s="126"/>
-      <c r="CI82" s="126"/>
-      <c r="CJ82" s="126"/>
-      <c r="CK82" s="126"/>
-      <c r="CL82" s="126"/>
-      <c r="CM82" s="126"/>
-      <c r="CN82" s="126"/>
-      <c r="CO82" s="126"/>
-      <c r="CP82" s="126"/>
-      <c r="CQ82" s="126"/>
-      <c r="CR82" s="126"/>
-      <c r="CS82" s="126"/>
-      <c r="CT82" s="126"/>
-      <c r="CU82" s="127"/>
-      <c r="CV82" s="125">
+      <c r="CB82" s="165"/>
+      <c r="CC82" s="165"/>
+      <c r="CD82" s="165"/>
+      <c r="CE82" s="165"/>
+      <c r="CF82" s="165"/>
+      <c r="CG82" s="165"/>
+      <c r="CH82" s="165"/>
+      <c r="CI82" s="165"/>
+      <c r="CJ82" s="165"/>
+      <c r="CK82" s="165"/>
+      <c r="CL82" s="165"/>
+      <c r="CM82" s="165"/>
+      <c r="CN82" s="165"/>
+      <c r="CO82" s="165"/>
+      <c r="CP82" s="165"/>
+      <c r="CQ82" s="165"/>
+      <c r="CR82" s="165"/>
+      <c r="CS82" s="165"/>
+      <c r="CT82" s="165"/>
+      <c r="CU82" s="166"/>
+      <c r="CV82" s="164">
         <f>21*C82</f>
         <v>91.084337349397586</v>
       </c>
-      <c r="CW82" s="126"/>
-      <c r="CX82" s="126"/>
-      <c r="CY82" s="126"/>
-      <c r="CZ82" s="126"/>
-      <c r="DA82" s="126"/>
-      <c r="DB82" s="126"/>
-      <c r="DC82" s="126"/>
-      <c r="DD82" s="126"/>
-      <c r="DE82" s="126"/>
-      <c r="DF82" s="126"/>
-      <c r="DG82" s="126"/>
-      <c r="DH82" s="126"/>
-      <c r="DI82" s="126"/>
-      <c r="DJ82" s="126"/>
-      <c r="DK82" s="126"/>
-      <c r="DL82" s="126"/>
-      <c r="DM82" s="126"/>
-      <c r="DN82" s="126"/>
-      <c r="DO82" s="126"/>
-      <c r="DP82" s="126"/>
-      <c r="DQ82" s="126"/>
-      <c r="DR82" s="126"/>
-      <c r="DS82" s="126"/>
-      <c r="DT82" s="126"/>
-      <c r="DU82" s="126"/>
-      <c r="DV82" s="126"/>
-      <c r="DW82" s="126"/>
-      <c r="DX82" s="126"/>
-      <c r="DY82" s="126"/>
-      <c r="DZ82" s="126"/>
-      <c r="EA82" s="126"/>
-      <c r="EB82" s="126"/>
-      <c r="EC82" s="126"/>
-      <c r="ED82" s="127"/>
-      <c r="EE82" s="125">
+      <c r="CW82" s="165"/>
+      <c r="CX82" s="165"/>
+      <c r="CY82" s="165"/>
+      <c r="CZ82" s="165"/>
+      <c r="DA82" s="165"/>
+      <c r="DB82" s="165"/>
+      <c r="DC82" s="165"/>
+      <c r="DD82" s="165"/>
+      <c r="DE82" s="165"/>
+      <c r="DF82" s="165"/>
+      <c r="DG82" s="165"/>
+      <c r="DH82" s="165"/>
+      <c r="DI82" s="165"/>
+      <c r="DJ82" s="165"/>
+      <c r="DK82" s="165"/>
+      <c r="DL82" s="165"/>
+      <c r="DM82" s="165"/>
+      <c r="DN82" s="165"/>
+      <c r="DO82" s="165"/>
+      <c r="DP82" s="165"/>
+      <c r="DQ82" s="165"/>
+      <c r="DR82" s="165"/>
+      <c r="DS82" s="165"/>
+      <c r="DT82" s="165"/>
+      <c r="DU82" s="165"/>
+      <c r="DV82" s="165"/>
+      <c r="DW82" s="165"/>
+      <c r="DX82" s="165"/>
+      <c r="DY82" s="165"/>
+      <c r="DZ82" s="165"/>
+      <c r="EA82" s="165"/>
+      <c r="EB82" s="165"/>
+      <c r="EC82" s="165"/>
+      <c r="ED82" s="166"/>
+      <c r="EE82" s="164">
         <f>34*C82</f>
         <v>147.46987951807228</v>
       </c>
-      <c r="EF82" s="126"/>
-      <c r="EG82" s="126"/>
-      <c r="EH82" s="126"/>
-      <c r="EI82" s="126"/>
-      <c r="EJ82" s="126"/>
-      <c r="EK82" s="126"/>
-      <c r="EL82" s="126"/>
-      <c r="EM82" s="126"/>
-      <c r="EN82" s="126"/>
-      <c r="EO82" s="126"/>
-      <c r="EP82" s="126"/>
-      <c r="EQ82" s="126"/>
-      <c r="ER82" s="126"/>
-      <c r="ES82" s="126"/>
-      <c r="ET82" s="126"/>
-      <c r="EU82" s="126"/>
-      <c r="EV82" s="126"/>
-      <c r="EW82" s="126"/>
-      <c r="EX82" s="126"/>
-      <c r="EY82" s="126"/>
-      <c r="EZ82" s="126"/>
-      <c r="FA82" s="126"/>
-      <c r="FB82" s="126"/>
-      <c r="FC82" s="126"/>
-      <c r="FD82" s="126"/>
-      <c r="FE82" s="126"/>
-      <c r="FF82" s="126"/>
-      <c r="FG82" s="126"/>
-      <c r="FH82" s="126"/>
-      <c r="FI82" s="126"/>
-      <c r="FJ82" s="126"/>
-      <c r="FK82" s="126"/>
-      <c r="FL82" s="127"/>
-      <c r="FM82" s="125">
+      <c r="EF82" s="165"/>
+      <c r="EG82" s="165"/>
+      <c r="EH82" s="165"/>
+      <c r="EI82" s="165"/>
+      <c r="EJ82" s="165"/>
+      <c r="EK82" s="165"/>
+      <c r="EL82" s="165"/>
+      <c r="EM82" s="165"/>
+      <c r="EN82" s="165"/>
+      <c r="EO82" s="165"/>
+      <c r="EP82" s="165"/>
+      <c r="EQ82" s="165"/>
+      <c r="ER82" s="165"/>
+      <c r="ES82" s="165"/>
+      <c r="ET82" s="165"/>
+      <c r="EU82" s="165"/>
+      <c r="EV82" s="165"/>
+      <c r="EW82" s="165"/>
+      <c r="EX82" s="165"/>
+      <c r="EY82" s="165"/>
+      <c r="EZ82" s="165"/>
+      <c r="FA82" s="165"/>
+      <c r="FB82" s="165"/>
+      <c r="FC82" s="165"/>
+      <c r="FD82" s="165"/>
+      <c r="FE82" s="165"/>
+      <c r="FF82" s="165"/>
+      <c r="FG82" s="165"/>
+      <c r="FH82" s="165"/>
+      <c r="FI82" s="165"/>
+      <c r="FJ82" s="165"/>
+      <c r="FK82" s="165"/>
+      <c r="FL82" s="166"/>
+      <c r="FM82" s="164">
         <f>17*C82</f>
         <v>73.734939759036138</v>
       </c>
-      <c r="FN82" s="126"/>
-      <c r="FO82" s="126"/>
-      <c r="FP82" s="126"/>
-      <c r="FQ82" s="126"/>
-      <c r="FR82" s="126"/>
-      <c r="FS82" s="126"/>
-      <c r="FT82" s="126"/>
-      <c r="FU82" s="126"/>
-      <c r="FV82" s="126"/>
-      <c r="FW82" s="126"/>
-      <c r="FX82" s="126"/>
-      <c r="FY82" s="126"/>
-      <c r="FZ82" s="126"/>
-      <c r="GA82" s="126"/>
-      <c r="GB82" s="126"/>
-      <c r="GC82" s="128"/>
+      <c r="FN82" s="165"/>
+      <c r="FO82" s="165"/>
+      <c r="FP82" s="165"/>
+      <c r="FQ82" s="165"/>
+      <c r="FR82" s="165"/>
+      <c r="FS82" s="165"/>
+      <c r="FT82" s="165"/>
+      <c r="FU82" s="165"/>
+      <c r="FV82" s="165"/>
+      <c r="FW82" s="165"/>
+      <c r="FX82" s="165"/>
+      <c r="FY82" s="165"/>
+      <c r="FZ82" s="165"/>
+      <c r="GA82" s="165"/>
+      <c r="GB82" s="165"/>
+      <c r="GC82" s="167"/>
     </row>
     <row r="83" spans="1:187" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="136" t="s">
+      <c r="A83" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="137"/>
-      <c r="C83" s="137"/>
-      <c r="D83" s="137"/>
-      <c r="E83" s="138"/>
-      <c r="F83" s="139" t="s">
+      <c r="B83" s="159"/>
+      <c r="C83" s="159"/>
+      <c r="D83" s="159"/>
+      <c r="E83" s="160"/>
+      <c r="F83" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="G83" s="133"/>
-      <c r="H83" s="133"/>
-      <c r="I83" s="133"/>
-      <c r="J83" s="133"/>
-      <c r="K83" s="133"/>
-      <c r="L83" s="133"/>
-      <c r="M83" s="133"/>
-      <c r="N83" s="133"/>
-      <c r="O83" s="133"/>
-      <c r="P83" s="133"/>
-      <c r="Q83" s="133"/>
-      <c r="R83" s="133"/>
-      <c r="S83" s="133"/>
-      <c r="T83" s="133"/>
-      <c r="U83" s="133"/>
-      <c r="V83" s="133"/>
-      <c r="W83" s="133"/>
-      <c r="X83" s="133"/>
-      <c r="Y83" s="133"/>
-      <c r="Z83" s="133"/>
-      <c r="AA83" s="133"/>
-      <c r="AB83" s="133"/>
-      <c r="AC83" s="133"/>
-      <c r="AD83" s="133"/>
-      <c r="AE83" s="133"/>
-      <c r="AF83" s="133"/>
-      <c r="AG83" s="133"/>
-      <c r="AH83" s="133"/>
-      <c r="AI83" s="133"/>
-      <c r="AJ83" s="133"/>
-      <c r="AK83" s="133"/>
-      <c r="AL83" s="133"/>
-      <c r="AM83" s="133"/>
-      <c r="AN83" s="140"/>
-      <c r="AO83" s="141" t="s">
+      <c r="G83" s="155"/>
+      <c r="H83" s="155"/>
+      <c r="I83" s="155"/>
+      <c r="J83" s="155"/>
+      <c r="K83" s="155"/>
+      <c r="L83" s="155"/>
+      <c r="M83" s="155"/>
+      <c r="N83" s="155"/>
+      <c r="O83" s="155"/>
+      <c r="P83" s="155"/>
+      <c r="Q83" s="155"/>
+      <c r="R83" s="155"/>
+      <c r="S83" s="155"/>
+      <c r="T83" s="155"/>
+      <c r="U83" s="155"/>
+      <c r="V83" s="155"/>
+      <c r="W83" s="155"/>
+      <c r="X83" s="155"/>
+      <c r="Y83" s="155"/>
+      <c r="Z83" s="155"/>
+      <c r="AA83" s="155"/>
+      <c r="AB83" s="155"/>
+      <c r="AC83" s="155"/>
+      <c r="AD83" s="155"/>
+      <c r="AE83" s="155"/>
+      <c r="AF83" s="155"/>
+      <c r="AG83" s="155"/>
+      <c r="AH83" s="155"/>
+      <c r="AI83" s="155"/>
+      <c r="AJ83" s="155"/>
+      <c r="AK83" s="155"/>
+      <c r="AL83" s="155"/>
+      <c r="AM83" s="155"/>
+      <c r="AN83" s="162"/>
+      <c r="AO83" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="AP83" s="133"/>
-      <c r="AQ83" s="133"/>
-      <c r="AR83" s="133"/>
-      <c r="AS83" s="133"/>
-      <c r="AT83" s="133"/>
-      <c r="AU83" s="133"/>
-      <c r="AV83" s="133"/>
-      <c r="AW83" s="133"/>
-      <c r="AX83" s="133"/>
-      <c r="AY83" s="133"/>
-      <c r="AZ83" s="133"/>
-      <c r="BA83" s="133"/>
-      <c r="BB83" s="133"/>
-      <c r="BC83" s="133"/>
-      <c r="BD83" s="133"/>
-      <c r="BE83" s="133"/>
-      <c r="BF83" s="133"/>
-      <c r="BG83" s="133"/>
-      <c r="BH83" s="133"/>
-      <c r="BI83" s="133"/>
-      <c r="BJ83" s="133"/>
-      <c r="BK83" s="133"/>
-      <c r="BL83" s="133"/>
-      <c r="BM83" s="133"/>
-      <c r="BN83" s="133"/>
-      <c r="BO83" s="133"/>
-      <c r="BP83" s="133"/>
-      <c r="BQ83" s="133"/>
-      <c r="BR83" s="133"/>
-      <c r="BS83" s="133"/>
-      <c r="BT83" s="133"/>
-      <c r="BU83" s="133"/>
-      <c r="BV83" s="133"/>
-      <c r="BW83" s="133"/>
-      <c r="BX83" s="133"/>
-      <c r="BY83" s="133"/>
-      <c r="BZ83" s="134"/>
-      <c r="CA83" s="132" t="s">
+      <c r="AP83" s="155"/>
+      <c r="AQ83" s="155"/>
+      <c r="AR83" s="155"/>
+      <c r="AS83" s="155"/>
+      <c r="AT83" s="155"/>
+      <c r="AU83" s="155"/>
+      <c r="AV83" s="155"/>
+      <c r="AW83" s="155"/>
+      <c r="AX83" s="155"/>
+      <c r="AY83" s="155"/>
+      <c r="AZ83" s="155"/>
+      <c r="BA83" s="155"/>
+      <c r="BB83" s="155"/>
+      <c r="BC83" s="155"/>
+      <c r="BD83" s="155"/>
+      <c r="BE83" s="155"/>
+      <c r="BF83" s="155"/>
+      <c r="BG83" s="155"/>
+      <c r="BH83" s="155"/>
+      <c r="BI83" s="155"/>
+      <c r="BJ83" s="155"/>
+      <c r="BK83" s="155"/>
+      <c r="BL83" s="155"/>
+      <c r="BM83" s="155"/>
+      <c r="BN83" s="155"/>
+      <c r="BO83" s="155"/>
+      <c r="BP83" s="155"/>
+      <c r="BQ83" s="155"/>
+      <c r="BR83" s="155"/>
+      <c r="BS83" s="155"/>
+      <c r="BT83" s="155"/>
+      <c r="BU83" s="155"/>
+      <c r="BV83" s="155"/>
+      <c r="BW83" s="155"/>
+      <c r="BX83" s="155"/>
+      <c r="BY83" s="155"/>
+      <c r="BZ83" s="156"/>
+      <c r="CA83" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="CB83" s="133"/>
-      <c r="CC83" s="133"/>
-      <c r="CD83" s="133"/>
-      <c r="CE83" s="133"/>
-      <c r="CF83" s="133"/>
-      <c r="CG83" s="133"/>
-      <c r="CH83" s="133"/>
-      <c r="CI83" s="133"/>
-      <c r="CJ83" s="133"/>
-      <c r="CK83" s="133"/>
-      <c r="CL83" s="133"/>
-      <c r="CM83" s="133"/>
-      <c r="CN83" s="133"/>
-      <c r="CO83" s="133"/>
-      <c r="CP83" s="133"/>
-      <c r="CQ83" s="133"/>
-      <c r="CR83" s="133"/>
-      <c r="CS83" s="133"/>
-      <c r="CT83" s="133"/>
-      <c r="CU83" s="134"/>
-      <c r="CV83" s="132" t="s">
+      <c r="CB83" s="155"/>
+      <c r="CC83" s="155"/>
+      <c r="CD83" s="155"/>
+      <c r="CE83" s="155"/>
+      <c r="CF83" s="155"/>
+      <c r="CG83" s="155"/>
+      <c r="CH83" s="155"/>
+      <c r="CI83" s="155"/>
+      <c r="CJ83" s="155"/>
+      <c r="CK83" s="155"/>
+      <c r="CL83" s="155"/>
+      <c r="CM83" s="155"/>
+      <c r="CN83" s="155"/>
+      <c r="CO83" s="155"/>
+      <c r="CP83" s="155"/>
+      <c r="CQ83" s="155"/>
+      <c r="CR83" s="155"/>
+      <c r="CS83" s="155"/>
+      <c r="CT83" s="155"/>
+      <c r="CU83" s="156"/>
+      <c r="CV83" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="CW83" s="133"/>
-      <c r="CX83" s="133"/>
-      <c r="CY83" s="133"/>
-      <c r="CZ83" s="133"/>
-      <c r="DA83" s="133"/>
-      <c r="DB83" s="133"/>
-      <c r="DC83" s="133"/>
-      <c r="DD83" s="133"/>
-      <c r="DE83" s="133"/>
-      <c r="DF83" s="133"/>
-      <c r="DG83" s="133"/>
-      <c r="DH83" s="133"/>
-      <c r="DI83" s="133"/>
-      <c r="DJ83" s="133"/>
-      <c r="DK83" s="133"/>
-      <c r="DL83" s="133"/>
-      <c r="DM83" s="133"/>
-      <c r="DN83" s="133"/>
-      <c r="DO83" s="133"/>
-      <c r="DP83" s="133"/>
-      <c r="DQ83" s="133"/>
-      <c r="DR83" s="133"/>
-      <c r="DS83" s="133"/>
-      <c r="DT83" s="133"/>
-      <c r="DU83" s="133"/>
-      <c r="DV83" s="133"/>
-      <c r="DW83" s="133"/>
-      <c r="DX83" s="133"/>
-      <c r="DY83" s="133"/>
-      <c r="DZ83" s="133"/>
-      <c r="EA83" s="133"/>
-      <c r="EB83" s="133"/>
-      <c r="EC83" s="133"/>
-      <c r="ED83" s="134"/>
-      <c r="EE83" s="132" t="s">
+      <c r="CW83" s="155"/>
+      <c r="CX83" s="155"/>
+      <c r="CY83" s="155"/>
+      <c r="CZ83" s="155"/>
+      <c r="DA83" s="155"/>
+      <c r="DB83" s="155"/>
+      <c r="DC83" s="155"/>
+      <c r="DD83" s="155"/>
+      <c r="DE83" s="155"/>
+      <c r="DF83" s="155"/>
+      <c r="DG83" s="155"/>
+      <c r="DH83" s="155"/>
+      <c r="DI83" s="155"/>
+      <c r="DJ83" s="155"/>
+      <c r="DK83" s="155"/>
+      <c r="DL83" s="155"/>
+      <c r="DM83" s="155"/>
+      <c r="DN83" s="155"/>
+      <c r="DO83" s="155"/>
+      <c r="DP83" s="155"/>
+      <c r="DQ83" s="155"/>
+      <c r="DR83" s="155"/>
+      <c r="DS83" s="155"/>
+      <c r="DT83" s="155"/>
+      <c r="DU83" s="155"/>
+      <c r="DV83" s="155"/>
+      <c r="DW83" s="155"/>
+      <c r="DX83" s="155"/>
+      <c r="DY83" s="155"/>
+      <c r="DZ83" s="155"/>
+      <c r="EA83" s="155"/>
+      <c r="EB83" s="155"/>
+      <c r="EC83" s="155"/>
+      <c r="ED83" s="156"/>
+      <c r="EE83" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="EF83" s="133"/>
-      <c r="EG83" s="133"/>
-      <c r="EH83" s="133"/>
-      <c r="EI83" s="133"/>
-      <c r="EJ83" s="133"/>
-      <c r="EK83" s="133"/>
-      <c r="EL83" s="133"/>
-      <c r="EM83" s="133"/>
-      <c r="EN83" s="133"/>
-      <c r="EO83" s="133"/>
-      <c r="EP83" s="133"/>
-      <c r="EQ83" s="133"/>
-      <c r="ER83" s="133"/>
-      <c r="ES83" s="133"/>
-      <c r="ET83" s="133"/>
-      <c r="EU83" s="133"/>
-      <c r="EV83" s="133"/>
-      <c r="EW83" s="133"/>
-      <c r="EX83" s="133"/>
-      <c r="EY83" s="133"/>
-      <c r="EZ83" s="133"/>
-      <c r="FA83" s="133"/>
-      <c r="FB83" s="133"/>
-      <c r="FC83" s="133"/>
-      <c r="FD83" s="133"/>
-      <c r="FE83" s="133"/>
-      <c r="FF83" s="133"/>
-      <c r="FG83" s="133"/>
-      <c r="FH83" s="133"/>
-      <c r="FI83" s="133"/>
-      <c r="FJ83" s="133"/>
-      <c r="FK83" s="133"/>
-      <c r="FL83" s="134"/>
-      <c r="FM83" s="132" t="s">
+      <c r="EF83" s="155"/>
+      <c r="EG83" s="155"/>
+      <c r="EH83" s="155"/>
+      <c r="EI83" s="155"/>
+      <c r="EJ83" s="155"/>
+      <c r="EK83" s="155"/>
+      <c r="EL83" s="155"/>
+      <c r="EM83" s="155"/>
+      <c r="EN83" s="155"/>
+      <c r="EO83" s="155"/>
+      <c r="EP83" s="155"/>
+      <c r="EQ83" s="155"/>
+      <c r="ER83" s="155"/>
+      <c r="ES83" s="155"/>
+      <c r="ET83" s="155"/>
+      <c r="EU83" s="155"/>
+      <c r="EV83" s="155"/>
+      <c r="EW83" s="155"/>
+      <c r="EX83" s="155"/>
+      <c r="EY83" s="155"/>
+      <c r="EZ83" s="155"/>
+      <c r="FA83" s="155"/>
+      <c r="FB83" s="155"/>
+      <c r="FC83" s="155"/>
+      <c r="FD83" s="155"/>
+      <c r="FE83" s="155"/>
+      <c r="FF83" s="155"/>
+      <c r="FG83" s="155"/>
+      <c r="FH83" s="155"/>
+      <c r="FI83" s="155"/>
+      <c r="FJ83" s="155"/>
+      <c r="FK83" s="155"/>
+      <c r="FL83" s="156"/>
+      <c r="FM83" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="FN83" s="133"/>
-      <c r="FO83" s="133"/>
-      <c r="FP83" s="133"/>
-      <c r="FQ83" s="133"/>
-      <c r="FR83" s="133"/>
-      <c r="FS83" s="133"/>
-      <c r="FT83" s="133"/>
-      <c r="FU83" s="133"/>
-      <c r="FV83" s="133"/>
-      <c r="FW83" s="133"/>
-      <c r="FX83" s="133"/>
-      <c r="FY83" s="133"/>
-      <c r="FZ83" s="133"/>
-      <c r="GA83" s="133"/>
-      <c r="GB83" s="133"/>
-      <c r="GC83" s="135"/>
+      <c r="FN83" s="155"/>
+      <c r="FO83" s="155"/>
+      <c r="FP83" s="155"/>
+      <c r="FQ83" s="155"/>
+      <c r="FR83" s="155"/>
+      <c r="FS83" s="155"/>
+      <c r="FT83" s="155"/>
+      <c r="FU83" s="155"/>
+      <c r="FV83" s="155"/>
+      <c r="FW83" s="155"/>
+      <c r="FX83" s="155"/>
+      <c r="FY83" s="155"/>
+      <c r="FZ83" s="155"/>
+      <c r="GA83" s="155"/>
+      <c r="GB83" s="155"/>
+      <c r="GC83" s="157"/>
     </row>
     <row r="85" spans="1:187" x14ac:dyDescent="0.2">
       <c r="GE85" s="117"/>
@@ -19824,6 +19947,53 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="EE82:FL82"/>
+    <mergeCell ref="FM82:GC82"/>
+    <mergeCell ref="F82:AN82"/>
+    <mergeCell ref="AO82:BZ82"/>
+    <mergeCell ref="CA82:CU82"/>
+    <mergeCell ref="CV82:ED82"/>
+    <mergeCell ref="EE83:FL83"/>
+    <mergeCell ref="FM83:GC83"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="F83:AN83"/>
+    <mergeCell ref="AO83:BZ83"/>
+    <mergeCell ref="CA83:CU83"/>
+    <mergeCell ref="CV83:ED83"/>
+    <mergeCell ref="F4:AN4"/>
+    <mergeCell ref="AO4:BZ4"/>
+    <mergeCell ref="FM4:GC4"/>
+    <mergeCell ref="CA4:CU4"/>
+    <mergeCell ref="CV4:ED4"/>
+    <mergeCell ref="EE4:FL4"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="R6:AV6"/>
+    <mergeCell ref="AW6:BZ6"/>
+    <mergeCell ref="CA6:DE6"/>
+    <mergeCell ref="F5:DE5"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="BQ7:BW7"/>
+    <mergeCell ref="BX7:CD7"/>
+    <mergeCell ref="CE7:CK7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="T7:Z7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="CL7:CR7"/>
+    <mergeCell ref="CS7:CY7"/>
+    <mergeCell ref="CZ7:DF7"/>
+    <mergeCell ref="DG7:DM7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="AH7:AN7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BB7"/>
+    <mergeCell ref="BC7:BI7"/>
+    <mergeCell ref="BJ7:BP7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="EK6:FL6"/>
     <mergeCell ref="FM6:GC6"/>
     <mergeCell ref="DF5:GC5"/>
@@ -19838,53 +20008,6 @@
     <mergeCell ref="FY7:GC7"/>
     <mergeCell ref="DN7:DT7"/>
     <mergeCell ref="DF6:EJ6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="CL7:CR7"/>
-    <mergeCell ref="CS7:CY7"/>
-    <mergeCell ref="CZ7:DF7"/>
-    <mergeCell ref="DG7:DM7"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="AH7:AN7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BB7"/>
-    <mergeCell ref="BC7:BI7"/>
-    <mergeCell ref="BJ7:BP7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="BQ7:BW7"/>
-    <mergeCell ref="BX7:CD7"/>
-    <mergeCell ref="CE7:CK7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="T7:Z7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="R6:AV6"/>
-    <mergeCell ref="AW6:BZ6"/>
-    <mergeCell ref="CA6:DE6"/>
-    <mergeCell ref="F5:DE5"/>
-    <mergeCell ref="F4:AN4"/>
-    <mergeCell ref="AO4:BZ4"/>
-    <mergeCell ref="FM4:GC4"/>
-    <mergeCell ref="CA4:CU4"/>
-    <mergeCell ref="CV4:ED4"/>
-    <mergeCell ref="EE4:FL4"/>
-    <mergeCell ref="EE83:FL83"/>
-    <mergeCell ref="FM83:GC83"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="F83:AN83"/>
-    <mergeCell ref="AO83:BZ83"/>
-    <mergeCell ref="CA83:CU83"/>
-    <mergeCell ref="CV83:ED83"/>
-    <mergeCell ref="EE82:FL82"/>
-    <mergeCell ref="FM82:GC82"/>
-    <mergeCell ref="F82:AN82"/>
-    <mergeCell ref="AO82:BZ82"/>
-    <mergeCell ref="CA82:CU82"/>
-    <mergeCell ref="CV82:ED82"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -19897,13 +20020,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="124"/>
+    <col min="2" max="4" width="10.83203125" style="124"/>
+    <col min="5" max="5" width="10.83203125" style="172"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19920,7 +20044,7 @@
       <c r="D1" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="171" t="s">
         <v>166</v>
       </c>
       <c r="F1" s="122" t="s">
@@ -19936,7 +20060,13 @@
       </c>
       <c r="C2" s="124">
         <f>D2+E2</f>
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="D2" s="124">
+        <v>57</v>
+      </c>
+      <c r="E2" s="172">
+        <v>51</v>
       </c>
       <c r="F2" t="s">
         <v>169</v>
@@ -19951,7 +20081,13 @@
       </c>
       <c r="C3" s="124">
         <f t="shared" ref="C3:C7" si="0">D3+E3</f>
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="D3" s="124">
+        <v>71</v>
+      </c>
+      <c r="E3" s="172">
+        <v>77</v>
       </c>
       <c r="F3" t="s">
         <v>168</v>
@@ -19966,7 +20102,13 @@
       </c>
       <c r="C4" s="124">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="D4" s="124">
+        <v>45</v>
+      </c>
+      <c r="E4" s="172">
+        <v>52</v>
       </c>
       <c r="F4" t="s">
         <v>170</v>
@@ -19981,7 +20123,13 @@
       </c>
       <c r="C5" s="124">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="D5" s="124">
+        <v>54</v>
+      </c>
+      <c r="E5" s="172">
+        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>171</v>
@@ -19996,7 +20144,13 @@
       </c>
       <c r="C6" s="124">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>207</v>
+      </c>
+      <c r="D6" s="124">
+        <v>87</v>
+      </c>
+      <c r="E6" s="172">
+        <v>120</v>
       </c>
       <c r="F6" t="s">
         <v>172</v>
@@ -20011,7 +20165,13 @@
       </c>
       <c r="C7" s="124">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>139</v>
+      </c>
+      <c r="D7" s="124">
+        <v>71</v>
+      </c>
+      <c r="E7" s="172">
+        <v>68</v>
       </c>
       <c r="F7" t="s">
         <v>173</v>
@@ -20024,7 +20184,7 @@
       </c>
       <c r="C8" s="123">
         <f>SUM(C2:C7)</f>
-        <v>0</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>

--- a/doc/planning/Projektplanung_Spektrometer.xlsx
+++ b/doc/planning/Projektplanung_Spektrometer.xlsx
@@ -2044,91 +2044,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2161,31 +2101,91 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2389,7 +2389,7 @@
                 <a:ea typeface="Open Sans" charset="0"/>
                 <a:cs typeface="Open Sans" charset="0"/>
               </a:rPr>
-              <a:t>Ist</a:t>
+              <a:t>Vergleich</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" b="1" baseline="0">
@@ -2397,7 +2397,7 @@
                 <a:ea typeface="Open Sans" charset="0"/>
                 <a:cs typeface="Open Sans" charset="0"/>
               </a:rPr>
-              <a:t> / Soll Vergleich</a:t>
+              <a:t> der Soll- und Ist Zeiten</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE" b="1">
               <a:latin typeface="Open Sans" charset="0"/>
@@ -2728,11 +2728,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="407822752"/>
-        <c:axId val="407825072"/>
+        <c:axId val="1808184608"/>
+        <c:axId val="1766718256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="407822752"/>
+        <c:axId val="1808184608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2775,7 +2775,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407825072"/>
+        <c:crossAx val="1766718256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2783,7 +2783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="407825072"/>
+        <c:axId val="1766718256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,7 +2834,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407822752"/>
+        <c:crossAx val="1808184608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3786,13 +3786,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:185" s="12" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="133"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="161"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3975,11 +3975,11 @@
       <c r="GC1" s="6"/>
     </row>
     <row r="2" spans="1:185" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="170"/>
       <c r="F2" s="102"/>
       <c r="G2" s="102"/>
       <c r="H2" s="102"/>
@@ -4361,851 +4361,851 @@
       <c r="GC3" s="18"/>
     </row>
     <row r="4" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="151" t="s">
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="152"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="152"/>
-      <c r="X4" s="152"/>
-      <c r="Y4" s="152"/>
-      <c r="Z4" s="152"/>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="152"/>
-      <c r="AD4" s="152"/>
-      <c r="AE4" s="152"/>
-      <c r="AF4" s="152"/>
-      <c r="AG4" s="152"/>
-      <c r="AH4" s="152"/>
-      <c r="AI4" s="152"/>
-      <c r="AJ4" s="152"/>
-      <c r="AK4" s="152"/>
-      <c r="AL4" s="152"/>
-      <c r="AM4" s="152"/>
-      <c r="AN4" s="152"/>
-      <c r="AO4" s="152" t="s">
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="145"/>
+      <c r="V4" s="145"/>
+      <c r="W4" s="145"/>
+      <c r="X4" s="145"/>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
+      <c r="AG4" s="145"/>
+      <c r="AH4" s="145"/>
+      <c r="AI4" s="145"/>
+      <c r="AJ4" s="145"/>
+      <c r="AK4" s="145"/>
+      <c r="AL4" s="145"/>
+      <c r="AM4" s="145"/>
+      <c r="AN4" s="145"/>
+      <c r="AO4" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="AP4" s="152"/>
-      <c r="AQ4" s="152"/>
-      <c r="AR4" s="152"/>
-      <c r="AS4" s="152"/>
-      <c r="AT4" s="152"/>
-      <c r="AU4" s="152"/>
-      <c r="AV4" s="152"/>
-      <c r="AW4" s="152"/>
-      <c r="AX4" s="152"/>
-      <c r="AY4" s="152"/>
-      <c r="AZ4" s="152"/>
-      <c r="BA4" s="152"/>
-      <c r="BB4" s="152"/>
-      <c r="BC4" s="152"/>
-      <c r="BD4" s="152"/>
-      <c r="BE4" s="152"/>
-      <c r="BF4" s="152"/>
-      <c r="BG4" s="152"/>
-      <c r="BH4" s="152"/>
-      <c r="BI4" s="152"/>
-      <c r="BJ4" s="152"/>
-      <c r="BK4" s="152"/>
-      <c r="BL4" s="152"/>
-      <c r="BM4" s="152"/>
-      <c r="BN4" s="152"/>
-      <c r="BO4" s="152"/>
-      <c r="BP4" s="152"/>
-      <c r="BQ4" s="152"/>
-      <c r="BR4" s="152"/>
-      <c r="BS4" s="152"/>
-      <c r="BT4" s="152"/>
-      <c r="BU4" s="152"/>
-      <c r="BV4" s="152"/>
-      <c r="BW4" s="152"/>
-      <c r="BX4" s="152"/>
-      <c r="BY4" s="152"/>
-      <c r="BZ4" s="152"/>
-      <c r="CA4" s="152" t="s">
+      <c r="AP4" s="145"/>
+      <c r="AQ4" s="145"/>
+      <c r="AR4" s="145"/>
+      <c r="AS4" s="145"/>
+      <c r="AT4" s="145"/>
+      <c r="AU4" s="145"/>
+      <c r="AV4" s="145"/>
+      <c r="AW4" s="145"/>
+      <c r="AX4" s="145"/>
+      <c r="AY4" s="145"/>
+      <c r="AZ4" s="145"/>
+      <c r="BA4" s="145"/>
+      <c r="BB4" s="145"/>
+      <c r="BC4" s="145"/>
+      <c r="BD4" s="145"/>
+      <c r="BE4" s="145"/>
+      <c r="BF4" s="145"/>
+      <c r="BG4" s="145"/>
+      <c r="BH4" s="145"/>
+      <c r="BI4" s="145"/>
+      <c r="BJ4" s="145"/>
+      <c r="BK4" s="145"/>
+      <c r="BL4" s="145"/>
+      <c r="BM4" s="145"/>
+      <c r="BN4" s="145"/>
+      <c r="BO4" s="145"/>
+      <c r="BP4" s="145"/>
+      <c r="BQ4" s="145"/>
+      <c r="BR4" s="145"/>
+      <c r="BS4" s="145"/>
+      <c r="BT4" s="145"/>
+      <c r="BU4" s="145"/>
+      <c r="BV4" s="145"/>
+      <c r="BW4" s="145"/>
+      <c r="BX4" s="145"/>
+      <c r="BY4" s="145"/>
+      <c r="BZ4" s="145"/>
+      <c r="CA4" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="CB4" s="152"/>
-      <c r="CC4" s="152"/>
-      <c r="CD4" s="152"/>
-      <c r="CE4" s="152"/>
-      <c r="CF4" s="152"/>
-      <c r="CG4" s="152"/>
-      <c r="CH4" s="152"/>
-      <c r="CI4" s="152"/>
-      <c r="CJ4" s="152"/>
-      <c r="CK4" s="152"/>
-      <c r="CL4" s="152"/>
-      <c r="CM4" s="152"/>
-      <c r="CN4" s="152"/>
-      <c r="CO4" s="152"/>
-      <c r="CP4" s="152"/>
-      <c r="CQ4" s="152"/>
-      <c r="CR4" s="152"/>
-      <c r="CS4" s="152"/>
-      <c r="CT4" s="152"/>
-      <c r="CU4" s="152"/>
-      <c r="CV4" s="152" t="s">
+      <c r="CB4" s="145"/>
+      <c r="CC4" s="145"/>
+      <c r="CD4" s="145"/>
+      <c r="CE4" s="145"/>
+      <c r="CF4" s="145"/>
+      <c r="CG4" s="145"/>
+      <c r="CH4" s="145"/>
+      <c r="CI4" s="145"/>
+      <c r="CJ4" s="145"/>
+      <c r="CK4" s="145"/>
+      <c r="CL4" s="145"/>
+      <c r="CM4" s="145"/>
+      <c r="CN4" s="145"/>
+      <c r="CO4" s="145"/>
+      <c r="CP4" s="145"/>
+      <c r="CQ4" s="145"/>
+      <c r="CR4" s="145"/>
+      <c r="CS4" s="145"/>
+      <c r="CT4" s="145"/>
+      <c r="CU4" s="145"/>
+      <c r="CV4" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="CW4" s="152"/>
-      <c r="CX4" s="152"/>
-      <c r="CY4" s="152"/>
-      <c r="CZ4" s="152"/>
-      <c r="DA4" s="152"/>
-      <c r="DB4" s="152"/>
-      <c r="DC4" s="152"/>
-      <c r="DD4" s="152"/>
-      <c r="DE4" s="152"/>
-      <c r="DF4" s="152"/>
-      <c r="DG4" s="152"/>
-      <c r="DH4" s="152"/>
-      <c r="DI4" s="152"/>
-      <c r="DJ4" s="152"/>
-      <c r="DK4" s="152"/>
-      <c r="DL4" s="152"/>
-      <c r="DM4" s="152"/>
-      <c r="DN4" s="152"/>
-      <c r="DO4" s="152"/>
-      <c r="DP4" s="152"/>
-      <c r="DQ4" s="152"/>
-      <c r="DR4" s="152"/>
-      <c r="DS4" s="152"/>
-      <c r="DT4" s="152"/>
-      <c r="DU4" s="152"/>
-      <c r="DV4" s="152"/>
-      <c r="DW4" s="152"/>
-      <c r="DX4" s="152"/>
-      <c r="DY4" s="152"/>
-      <c r="DZ4" s="152"/>
-      <c r="EA4" s="152"/>
-      <c r="EB4" s="152"/>
-      <c r="EC4" s="152"/>
-      <c r="ED4" s="152"/>
-      <c r="EE4" s="152" t="s">
+      <c r="CW4" s="145"/>
+      <c r="CX4" s="145"/>
+      <c r="CY4" s="145"/>
+      <c r="CZ4" s="145"/>
+      <c r="DA4" s="145"/>
+      <c r="DB4" s="145"/>
+      <c r="DC4" s="145"/>
+      <c r="DD4" s="145"/>
+      <c r="DE4" s="145"/>
+      <c r="DF4" s="145"/>
+      <c r="DG4" s="145"/>
+      <c r="DH4" s="145"/>
+      <c r="DI4" s="145"/>
+      <c r="DJ4" s="145"/>
+      <c r="DK4" s="145"/>
+      <c r="DL4" s="145"/>
+      <c r="DM4" s="145"/>
+      <c r="DN4" s="145"/>
+      <c r="DO4" s="145"/>
+      <c r="DP4" s="145"/>
+      <c r="DQ4" s="145"/>
+      <c r="DR4" s="145"/>
+      <c r="DS4" s="145"/>
+      <c r="DT4" s="145"/>
+      <c r="DU4" s="145"/>
+      <c r="DV4" s="145"/>
+      <c r="DW4" s="145"/>
+      <c r="DX4" s="145"/>
+      <c r="DY4" s="145"/>
+      <c r="DZ4" s="145"/>
+      <c r="EA4" s="145"/>
+      <c r="EB4" s="145"/>
+      <c r="EC4" s="145"/>
+      <c r="ED4" s="145"/>
+      <c r="EE4" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="EF4" s="152"/>
-      <c r="EG4" s="152"/>
-      <c r="EH4" s="152"/>
-      <c r="EI4" s="152"/>
-      <c r="EJ4" s="152"/>
-      <c r="EK4" s="152"/>
-      <c r="EL4" s="152"/>
-      <c r="EM4" s="152"/>
-      <c r="EN4" s="152"/>
-      <c r="EO4" s="152"/>
-      <c r="EP4" s="152"/>
-      <c r="EQ4" s="152"/>
-      <c r="ER4" s="152"/>
-      <c r="ES4" s="152"/>
-      <c r="ET4" s="152"/>
-      <c r="EU4" s="152"/>
-      <c r="EV4" s="152"/>
-      <c r="EW4" s="152"/>
-      <c r="EX4" s="152"/>
-      <c r="EY4" s="152"/>
-      <c r="EZ4" s="152"/>
-      <c r="FA4" s="152"/>
-      <c r="FB4" s="152"/>
-      <c r="FC4" s="152"/>
-      <c r="FD4" s="152"/>
-      <c r="FE4" s="152"/>
-      <c r="FF4" s="152"/>
-      <c r="FG4" s="152"/>
-      <c r="FH4" s="152"/>
-      <c r="FI4" s="152"/>
-      <c r="FJ4" s="152"/>
-      <c r="FK4" s="152"/>
-      <c r="FL4" s="152"/>
-      <c r="FM4" s="152" t="s">
+      <c r="EF4" s="145"/>
+      <c r="EG4" s="145"/>
+      <c r="EH4" s="145"/>
+      <c r="EI4" s="145"/>
+      <c r="EJ4" s="145"/>
+      <c r="EK4" s="145"/>
+      <c r="EL4" s="145"/>
+      <c r="EM4" s="145"/>
+      <c r="EN4" s="145"/>
+      <c r="EO4" s="145"/>
+      <c r="EP4" s="145"/>
+      <c r="EQ4" s="145"/>
+      <c r="ER4" s="145"/>
+      <c r="ES4" s="145"/>
+      <c r="ET4" s="145"/>
+      <c r="EU4" s="145"/>
+      <c r="EV4" s="145"/>
+      <c r="EW4" s="145"/>
+      <c r="EX4" s="145"/>
+      <c r="EY4" s="145"/>
+      <c r="EZ4" s="145"/>
+      <c r="FA4" s="145"/>
+      <c r="FB4" s="145"/>
+      <c r="FC4" s="145"/>
+      <c r="FD4" s="145"/>
+      <c r="FE4" s="145"/>
+      <c r="FF4" s="145"/>
+      <c r="FG4" s="145"/>
+      <c r="FH4" s="145"/>
+      <c r="FI4" s="145"/>
+      <c r="FJ4" s="145"/>
+      <c r="FK4" s="145"/>
+      <c r="FL4" s="145"/>
+      <c r="FM4" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="FN4" s="152"/>
-      <c r="FO4" s="152"/>
-      <c r="FP4" s="152"/>
-      <c r="FQ4" s="152"/>
-      <c r="FR4" s="152"/>
-      <c r="FS4" s="152"/>
-      <c r="FT4" s="152"/>
-      <c r="FU4" s="152"/>
-      <c r="FV4" s="152"/>
-      <c r="FW4" s="152"/>
-      <c r="FX4" s="152"/>
-      <c r="FY4" s="152"/>
-      <c r="FZ4" s="152"/>
-      <c r="GA4" s="152"/>
-      <c r="GB4" s="152"/>
-      <c r="GC4" s="153"/>
+      <c r="FN4" s="145"/>
+      <c r="FO4" s="145"/>
+      <c r="FP4" s="145"/>
+      <c r="FQ4" s="145"/>
+      <c r="FR4" s="145"/>
+      <c r="FS4" s="145"/>
+      <c r="FT4" s="145"/>
+      <c r="FU4" s="145"/>
+      <c r="FV4" s="145"/>
+      <c r="FW4" s="145"/>
+      <c r="FX4" s="145"/>
+      <c r="FY4" s="145"/>
+      <c r="FZ4" s="145"/>
+      <c r="GA4" s="145"/>
+      <c r="GB4" s="145"/>
+      <c r="GC4" s="146"/>
     </row>
     <row r="5" spans="1:185" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="139"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="158"/>
       <c r="F5" s="149">
         <v>2016</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="127"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="127"/>
-      <c r="BO5" s="127"/>
-      <c r="BP5" s="127"/>
-      <c r="BQ5" s="127"/>
-      <c r="BR5" s="127"/>
-      <c r="BS5" s="127"/>
-      <c r="BT5" s="127"/>
-      <c r="BU5" s="127"/>
-      <c r="BV5" s="127"/>
-      <c r="BW5" s="127"/>
-      <c r="BX5" s="127"/>
-      <c r="BY5" s="127"/>
-      <c r="BZ5" s="127"/>
-      <c r="CA5" s="127"/>
-      <c r="CB5" s="127"/>
-      <c r="CC5" s="127"/>
-      <c r="CD5" s="127"/>
-      <c r="CE5" s="127"/>
-      <c r="CF5" s="127"/>
-      <c r="CG5" s="127"/>
-      <c r="CH5" s="127"/>
-      <c r="CI5" s="127"/>
-      <c r="CJ5" s="127"/>
-      <c r="CK5" s="127"/>
-      <c r="CL5" s="127"/>
-      <c r="CM5" s="127"/>
-      <c r="CN5" s="127"/>
-      <c r="CO5" s="127"/>
-      <c r="CP5" s="127"/>
-      <c r="CQ5" s="127"/>
-      <c r="CR5" s="127"/>
-      <c r="CS5" s="127"/>
-      <c r="CT5" s="127"/>
-      <c r="CU5" s="127"/>
-      <c r="CV5" s="127"/>
-      <c r="CW5" s="127"/>
-      <c r="CX5" s="127"/>
-      <c r="CY5" s="127"/>
-      <c r="CZ5" s="127"/>
-      <c r="DA5" s="127"/>
-      <c r="DB5" s="127"/>
-      <c r="DC5" s="127"/>
-      <c r="DD5" s="127"/>
-      <c r="DE5" s="127"/>
-      <c r="DF5" s="127">
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="150"/>
+      <c r="X5" s="150"/>
+      <c r="Y5" s="150"/>
+      <c r="Z5" s="150"/>
+      <c r="AA5" s="150"/>
+      <c r="AB5" s="150"/>
+      <c r="AC5" s="150"/>
+      <c r="AD5" s="150"/>
+      <c r="AE5" s="150"/>
+      <c r="AF5" s="150"/>
+      <c r="AG5" s="150"/>
+      <c r="AH5" s="150"/>
+      <c r="AI5" s="150"/>
+      <c r="AJ5" s="150"/>
+      <c r="AK5" s="150"/>
+      <c r="AL5" s="150"/>
+      <c r="AM5" s="150"/>
+      <c r="AN5" s="150"/>
+      <c r="AO5" s="150"/>
+      <c r="AP5" s="150"/>
+      <c r="AQ5" s="150"/>
+      <c r="AR5" s="150"/>
+      <c r="AS5" s="150"/>
+      <c r="AT5" s="150"/>
+      <c r="AU5" s="150"/>
+      <c r="AV5" s="150"/>
+      <c r="AW5" s="150"/>
+      <c r="AX5" s="150"/>
+      <c r="AY5" s="150"/>
+      <c r="AZ5" s="150"/>
+      <c r="BA5" s="150"/>
+      <c r="BB5" s="150"/>
+      <c r="BC5" s="150"/>
+      <c r="BD5" s="150"/>
+      <c r="BE5" s="150"/>
+      <c r="BF5" s="150"/>
+      <c r="BG5" s="150"/>
+      <c r="BH5" s="150"/>
+      <c r="BI5" s="150"/>
+      <c r="BJ5" s="150"/>
+      <c r="BK5" s="150"/>
+      <c r="BL5" s="150"/>
+      <c r="BM5" s="150"/>
+      <c r="BN5" s="150"/>
+      <c r="BO5" s="150"/>
+      <c r="BP5" s="150"/>
+      <c r="BQ5" s="150"/>
+      <c r="BR5" s="150"/>
+      <c r="BS5" s="150"/>
+      <c r="BT5" s="150"/>
+      <c r="BU5" s="150"/>
+      <c r="BV5" s="150"/>
+      <c r="BW5" s="150"/>
+      <c r="BX5" s="150"/>
+      <c r="BY5" s="150"/>
+      <c r="BZ5" s="150"/>
+      <c r="CA5" s="150"/>
+      <c r="CB5" s="150"/>
+      <c r="CC5" s="150"/>
+      <c r="CD5" s="150"/>
+      <c r="CE5" s="150"/>
+      <c r="CF5" s="150"/>
+      <c r="CG5" s="150"/>
+      <c r="CH5" s="150"/>
+      <c r="CI5" s="150"/>
+      <c r="CJ5" s="150"/>
+      <c r="CK5" s="150"/>
+      <c r="CL5" s="150"/>
+      <c r="CM5" s="150"/>
+      <c r="CN5" s="150"/>
+      <c r="CO5" s="150"/>
+      <c r="CP5" s="150"/>
+      <c r="CQ5" s="150"/>
+      <c r="CR5" s="150"/>
+      <c r="CS5" s="150"/>
+      <c r="CT5" s="150"/>
+      <c r="CU5" s="150"/>
+      <c r="CV5" s="150"/>
+      <c r="CW5" s="150"/>
+      <c r="CX5" s="150"/>
+      <c r="CY5" s="150"/>
+      <c r="CZ5" s="150"/>
+      <c r="DA5" s="150"/>
+      <c r="DB5" s="150"/>
+      <c r="DC5" s="150"/>
+      <c r="DD5" s="150"/>
+      <c r="DE5" s="150"/>
+      <c r="DF5" s="150">
         <v>2017</v>
       </c>
-      <c r="DG5" s="127"/>
-      <c r="DH5" s="127"/>
-      <c r="DI5" s="127"/>
-      <c r="DJ5" s="127"/>
-      <c r="DK5" s="127"/>
-      <c r="DL5" s="127"/>
-      <c r="DM5" s="127"/>
-      <c r="DN5" s="127"/>
-      <c r="DO5" s="127"/>
-      <c r="DP5" s="127"/>
-      <c r="DQ5" s="127"/>
-      <c r="DR5" s="127"/>
-      <c r="DS5" s="127"/>
-      <c r="DT5" s="127"/>
-      <c r="DU5" s="127"/>
-      <c r="DV5" s="127"/>
-      <c r="DW5" s="127"/>
-      <c r="DX5" s="127"/>
-      <c r="DY5" s="127"/>
-      <c r="DZ5" s="127"/>
-      <c r="EA5" s="127"/>
-      <c r="EB5" s="127"/>
-      <c r="EC5" s="127"/>
-      <c r="ED5" s="127"/>
-      <c r="EE5" s="127"/>
-      <c r="EF5" s="127"/>
-      <c r="EG5" s="127"/>
-      <c r="EH5" s="127"/>
-      <c r="EI5" s="127"/>
-      <c r="EJ5" s="127"/>
-      <c r="EK5" s="127"/>
-      <c r="EL5" s="127"/>
-      <c r="EM5" s="127"/>
-      <c r="EN5" s="127"/>
-      <c r="EO5" s="127"/>
-      <c r="EP5" s="127"/>
-      <c r="EQ5" s="127"/>
-      <c r="ER5" s="127"/>
-      <c r="ES5" s="127"/>
-      <c r="ET5" s="127"/>
-      <c r="EU5" s="127"/>
-      <c r="EV5" s="127"/>
-      <c r="EW5" s="127"/>
-      <c r="EX5" s="127"/>
-      <c r="EY5" s="127"/>
-      <c r="EZ5" s="127"/>
-      <c r="FA5" s="127"/>
-      <c r="FB5" s="127"/>
-      <c r="FC5" s="127"/>
-      <c r="FD5" s="127"/>
-      <c r="FE5" s="127"/>
-      <c r="FF5" s="127"/>
-      <c r="FG5" s="127"/>
-      <c r="FH5" s="127"/>
-      <c r="FI5" s="127"/>
-      <c r="FJ5" s="127"/>
-      <c r="FK5" s="127"/>
-      <c r="FL5" s="127"/>
-      <c r="FM5" s="127"/>
-      <c r="FN5" s="127"/>
-      <c r="FO5" s="127"/>
-      <c r="FP5" s="127"/>
-      <c r="FQ5" s="127"/>
-      <c r="FR5" s="127"/>
-      <c r="FS5" s="127"/>
-      <c r="FT5" s="127"/>
-      <c r="FU5" s="127"/>
-      <c r="FV5" s="127"/>
-      <c r="FW5" s="127"/>
-      <c r="FX5" s="127"/>
-      <c r="FY5" s="127"/>
-      <c r="FZ5" s="127"/>
-      <c r="GA5" s="127"/>
-      <c r="GB5" s="127"/>
-      <c r="GC5" s="128"/>
+      <c r="DG5" s="150"/>
+      <c r="DH5" s="150"/>
+      <c r="DI5" s="150"/>
+      <c r="DJ5" s="150"/>
+      <c r="DK5" s="150"/>
+      <c r="DL5" s="150"/>
+      <c r="DM5" s="150"/>
+      <c r="DN5" s="150"/>
+      <c r="DO5" s="150"/>
+      <c r="DP5" s="150"/>
+      <c r="DQ5" s="150"/>
+      <c r="DR5" s="150"/>
+      <c r="DS5" s="150"/>
+      <c r="DT5" s="150"/>
+      <c r="DU5" s="150"/>
+      <c r="DV5" s="150"/>
+      <c r="DW5" s="150"/>
+      <c r="DX5" s="150"/>
+      <c r="DY5" s="150"/>
+      <c r="DZ5" s="150"/>
+      <c r="EA5" s="150"/>
+      <c r="EB5" s="150"/>
+      <c r="EC5" s="150"/>
+      <c r="ED5" s="150"/>
+      <c r="EE5" s="150"/>
+      <c r="EF5" s="150"/>
+      <c r="EG5" s="150"/>
+      <c r="EH5" s="150"/>
+      <c r="EI5" s="150"/>
+      <c r="EJ5" s="150"/>
+      <c r="EK5" s="150"/>
+      <c r="EL5" s="150"/>
+      <c r="EM5" s="150"/>
+      <c r="EN5" s="150"/>
+      <c r="EO5" s="150"/>
+      <c r="EP5" s="150"/>
+      <c r="EQ5" s="150"/>
+      <c r="ER5" s="150"/>
+      <c r="ES5" s="150"/>
+      <c r="ET5" s="150"/>
+      <c r="EU5" s="150"/>
+      <c r="EV5" s="150"/>
+      <c r="EW5" s="150"/>
+      <c r="EX5" s="150"/>
+      <c r="EY5" s="150"/>
+      <c r="EZ5" s="150"/>
+      <c r="FA5" s="150"/>
+      <c r="FB5" s="150"/>
+      <c r="FC5" s="150"/>
+      <c r="FD5" s="150"/>
+      <c r="FE5" s="150"/>
+      <c r="FF5" s="150"/>
+      <c r="FG5" s="150"/>
+      <c r="FH5" s="150"/>
+      <c r="FI5" s="150"/>
+      <c r="FJ5" s="150"/>
+      <c r="FK5" s="150"/>
+      <c r="FL5" s="150"/>
+      <c r="FM5" s="150"/>
+      <c r="FN5" s="150"/>
+      <c r="FO5" s="150"/>
+      <c r="FP5" s="150"/>
+      <c r="FQ5" s="150"/>
+      <c r="FR5" s="150"/>
+      <c r="FS5" s="150"/>
+      <c r="FT5" s="150"/>
+      <c r="FU5" s="150"/>
+      <c r="FV5" s="150"/>
+      <c r="FW5" s="150"/>
+      <c r="FX5" s="150"/>
+      <c r="FY5" s="150"/>
+      <c r="FZ5" s="150"/>
+      <c r="GA5" s="150"/>
+      <c r="GB5" s="150"/>
+      <c r="GC5" s="172"/>
     </row>
     <row r="6" spans="1:185" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="150" t="s">
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125" t="s">
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="148"/>
+      <c r="Q6" s="148"/>
+      <c r="R6" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="125"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="125"/>
-      <c r="AJ6" s="125"/>
-      <c r="AK6" s="125"/>
-      <c r="AL6" s="125"/>
-      <c r="AM6" s="125"/>
-      <c r="AN6" s="125"/>
-      <c r="AO6" s="125"/>
-      <c r="AP6" s="125"/>
-      <c r="AQ6" s="125"/>
-      <c r="AR6" s="125"/>
-      <c r="AS6" s="125"/>
-      <c r="AT6" s="125"/>
-      <c r="AU6" s="125"/>
-      <c r="AV6" s="125"/>
-      <c r="AW6" s="125" t="s">
+      <c r="S6" s="148"/>
+      <c r="T6" s="148"/>
+      <c r="U6" s="148"/>
+      <c r="V6" s="148"/>
+      <c r="W6" s="148"/>
+      <c r="X6" s="148"/>
+      <c r="Y6" s="148"/>
+      <c r="Z6" s="148"/>
+      <c r="AA6" s="148"/>
+      <c r="AB6" s="148"/>
+      <c r="AC6" s="148"/>
+      <c r="AD6" s="148"/>
+      <c r="AE6" s="148"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="148"/>
+      <c r="AH6" s="148"/>
+      <c r="AI6" s="148"/>
+      <c r="AJ6" s="148"/>
+      <c r="AK6" s="148"/>
+      <c r="AL6" s="148"/>
+      <c r="AM6" s="148"/>
+      <c r="AN6" s="148"/>
+      <c r="AO6" s="148"/>
+      <c r="AP6" s="148"/>
+      <c r="AQ6" s="148"/>
+      <c r="AR6" s="148"/>
+      <c r="AS6" s="148"/>
+      <c r="AT6" s="148"/>
+      <c r="AU6" s="148"/>
+      <c r="AV6" s="148"/>
+      <c r="AW6" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="AX6" s="125"/>
-      <c r="AY6" s="125"/>
-      <c r="AZ6" s="125"/>
-      <c r="BA6" s="125"/>
-      <c r="BB6" s="125"/>
-      <c r="BC6" s="125"/>
-      <c r="BD6" s="125"/>
-      <c r="BE6" s="125"/>
-      <c r="BF6" s="125"/>
-      <c r="BG6" s="125"/>
-      <c r="BH6" s="125"/>
-      <c r="BI6" s="125"/>
-      <c r="BJ6" s="125"/>
-      <c r="BK6" s="125"/>
-      <c r="BL6" s="125"/>
-      <c r="BM6" s="125"/>
-      <c r="BN6" s="125"/>
-      <c r="BO6" s="125"/>
-      <c r="BP6" s="125"/>
-      <c r="BQ6" s="125"/>
-      <c r="BR6" s="125"/>
-      <c r="BS6" s="125"/>
-      <c r="BT6" s="125"/>
-      <c r="BU6" s="125"/>
-      <c r="BV6" s="125"/>
-      <c r="BW6" s="125"/>
-      <c r="BX6" s="125"/>
-      <c r="BY6" s="125"/>
-      <c r="BZ6" s="125"/>
-      <c r="CA6" s="125" t="s">
+      <c r="AX6" s="148"/>
+      <c r="AY6" s="148"/>
+      <c r="AZ6" s="148"/>
+      <c r="BA6" s="148"/>
+      <c r="BB6" s="148"/>
+      <c r="BC6" s="148"/>
+      <c r="BD6" s="148"/>
+      <c r="BE6" s="148"/>
+      <c r="BF6" s="148"/>
+      <c r="BG6" s="148"/>
+      <c r="BH6" s="148"/>
+      <c r="BI6" s="148"/>
+      <c r="BJ6" s="148"/>
+      <c r="BK6" s="148"/>
+      <c r="BL6" s="148"/>
+      <c r="BM6" s="148"/>
+      <c r="BN6" s="148"/>
+      <c r="BO6" s="148"/>
+      <c r="BP6" s="148"/>
+      <c r="BQ6" s="148"/>
+      <c r="BR6" s="148"/>
+      <c r="BS6" s="148"/>
+      <c r="BT6" s="148"/>
+      <c r="BU6" s="148"/>
+      <c r="BV6" s="148"/>
+      <c r="BW6" s="148"/>
+      <c r="BX6" s="148"/>
+      <c r="BY6" s="148"/>
+      <c r="BZ6" s="148"/>
+      <c r="CA6" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="CB6" s="125"/>
-      <c r="CC6" s="125"/>
-      <c r="CD6" s="125"/>
-      <c r="CE6" s="125"/>
-      <c r="CF6" s="125"/>
-      <c r="CG6" s="125"/>
-      <c r="CH6" s="125"/>
-      <c r="CI6" s="125"/>
-      <c r="CJ6" s="125"/>
-      <c r="CK6" s="125"/>
-      <c r="CL6" s="125"/>
-      <c r="CM6" s="125"/>
-      <c r="CN6" s="125"/>
-      <c r="CO6" s="125"/>
-      <c r="CP6" s="125"/>
-      <c r="CQ6" s="125"/>
-      <c r="CR6" s="125"/>
-      <c r="CS6" s="125"/>
-      <c r="CT6" s="125"/>
-      <c r="CU6" s="125"/>
-      <c r="CV6" s="125"/>
-      <c r="CW6" s="125"/>
-      <c r="CX6" s="125"/>
-      <c r="CY6" s="125"/>
-      <c r="CZ6" s="125"/>
-      <c r="DA6" s="125"/>
-      <c r="DB6" s="125"/>
-      <c r="DC6" s="125"/>
-      <c r="DD6" s="125"/>
-      <c r="DE6" s="125"/>
-      <c r="DF6" s="125" t="s">
+      <c r="CB6" s="148"/>
+      <c r="CC6" s="148"/>
+      <c r="CD6" s="148"/>
+      <c r="CE6" s="148"/>
+      <c r="CF6" s="148"/>
+      <c r="CG6" s="148"/>
+      <c r="CH6" s="148"/>
+      <c r="CI6" s="148"/>
+      <c r="CJ6" s="148"/>
+      <c r="CK6" s="148"/>
+      <c r="CL6" s="148"/>
+      <c r="CM6" s="148"/>
+      <c r="CN6" s="148"/>
+      <c r="CO6" s="148"/>
+      <c r="CP6" s="148"/>
+      <c r="CQ6" s="148"/>
+      <c r="CR6" s="148"/>
+      <c r="CS6" s="148"/>
+      <c r="CT6" s="148"/>
+      <c r="CU6" s="148"/>
+      <c r="CV6" s="148"/>
+      <c r="CW6" s="148"/>
+      <c r="CX6" s="148"/>
+      <c r="CY6" s="148"/>
+      <c r="CZ6" s="148"/>
+      <c r="DA6" s="148"/>
+      <c r="DB6" s="148"/>
+      <c r="DC6" s="148"/>
+      <c r="DD6" s="148"/>
+      <c r="DE6" s="148"/>
+      <c r="DF6" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="DG6" s="125"/>
-      <c r="DH6" s="125"/>
-      <c r="DI6" s="125"/>
-      <c r="DJ6" s="125"/>
-      <c r="DK6" s="125"/>
-      <c r="DL6" s="125"/>
-      <c r="DM6" s="125"/>
-      <c r="DN6" s="125"/>
-      <c r="DO6" s="125"/>
-      <c r="DP6" s="125"/>
-      <c r="DQ6" s="125"/>
-      <c r="DR6" s="125"/>
-      <c r="DS6" s="125"/>
-      <c r="DT6" s="125"/>
-      <c r="DU6" s="125"/>
-      <c r="DV6" s="125"/>
-      <c r="DW6" s="125"/>
-      <c r="DX6" s="125"/>
-      <c r="DY6" s="125"/>
-      <c r="DZ6" s="125"/>
-      <c r="EA6" s="125"/>
-      <c r="EB6" s="125"/>
-      <c r="EC6" s="125"/>
-      <c r="ED6" s="125"/>
-      <c r="EE6" s="125"/>
-      <c r="EF6" s="125"/>
-      <c r="EG6" s="125"/>
-      <c r="EH6" s="125"/>
-      <c r="EI6" s="125"/>
-      <c r="EJ6" s="125"/>
-      <c r="EK6" s="125" t="s">
+      <c r="DG6" s="148"/>
+      <c r="DH6" s="148"/>
+      <c r="DI6" s="148"/>
+      <c r="DJ6" s="148"/>
+      <c r="DK6" s="148"/>
+      <c r="DL6" s="148"/>
+      <c r="DM6" s="148"/>
+      <c r="DN6" s="148"/>
+      <c r="DO6" s="148"/>
+      <c r="DP6" s="148"/>
+      <c r="DQ6" s="148"/>
+      <c r="DR6" s="148"/>
+      <c r="DS6" s="148"/>
+      <c r="DT6" s="148"/>
+      <c r="DU6" s="148"/>
+      <c r="DV6" s="148"/>
+      <c r="DW6" s="148"/>
+      <c r="DX6" s="148"/>
+      <c r="DY6" s="148"/>
+      <c r="DZ6" s="148"/>
+      <c r="EA6" s="148"/>
+      <c r="EB6" s="148"/>
+      <c r="EC6" s="148"/>
+      <c r="ED6" s="148"/>
+      <c r="EE6" s="148"/>
+      <c r="EF6" s="148"/>
+      <c r="EG6" s="148"/>
+      <c r="EH6" s="148"/>
+      <c r="EI6" s="148"/>
+      <c r="EJ6" s="148"/>
+      <c r="EK6" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="EL6" s="125"/>
-      <c r="EM6" s="125"/>
-      <c r="EN6" s="125"/>
-      <c r="EO6" s="125"/>
-      <c r="EP6" s="125"/>
-      <c r="EQ6" s="125"/>
-      <c r="ER6" s="125"/>
-      <c r="ES6" s="125"/>
-      <c r="ET6" s="125"/>
-      <c r="EU6" s="125"/>
-      <c r="EV6" s="125"/>
-      <c r="EW6" s="125"/>
-      <c r="EX6" s="125"/>
-      <c r="EY6" s="125"/>
-      <c r="EZ6" s="125"/>
-      <c r="FA6" s="125"/>
-      <c r="FB6" s="125"/>
-      <c r="FC6" s="125"/>
-      <c r="FD6" s="125"/>
-      <c r="FE6" s="125"/>
-      <c r="FF6" s="125"/>
-      <c r="FG6" s="125"/>
-      <c r="FH6" s="125"/>
-      <c r="FI6" s="125"/>
-      <c r="FJ6" s="125"/>
-      <c r="FK6" s="125"/>
-      <c r="FL6" s="125"/>
-      <c r="FM6" s="125" t="s">
+      <c r="EL6" s="148"/>
+      <c r="EM6" s="148"/>
+      <c r="EN6" s="148"/>
+      <c r="EO6" s="148"/>
+      <c r="EP6" s="148"/>
+      <c r="EQ6" s="148"/>
+      <c r="ER6" s="148"/>
+      <c r="ES6" s="148"/>
+      <c r="ET6" s="148"/>
+      <c r="EU6" s="148"/>
+      <c r="EV6" s="148"/>
+      <c r="EW6" s="148"/>
+      <c r="EX6" s="148"/>
+      <c r="EY6" s="148"/>
+      <c r="EZ6" s="148"/>
+      <c r="FA6" s="148"/>
+      <c r="FB6" s="148"/>
+      <c r="FC6" s="148"/>
+      <c r="FD6" s="148"/>
+      <c r="FE6" s="148"/>
+      <c r="FF6" s="148"/>
+      <c r="FG6" s="148"/>
+      <c r="FH6" s="148"/>
+      <c r="FI6" s="148"/>
+      <c r="FJ6" s="148"/>
+      <c r="FK6" s="148"/>
+      <c r="FL6" s="148"/>
+      <c r="FM6" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="FN6" s="125"/>
-      <c r="FO6" s="125"/>
-      <c r="FP6" s="125"/>
-      <c r="FQ6" s="125"/>
-      <c r="FR6" s="125"/>
-      <c r="FS6" s="125"/>
-      <c r="FT6" s="125"/>
-      <c r="FU6" s="125"/>
-      <c r="FV6" s="125"/>
-      <c r="FW6" s="125"/>
-      <c r="FX6" s="125"/>
-      <c r="FY6" s="125"/>
-      <c r="FZ6" s="125"/>
-      <c r="GA6" s="125"/>
-      <c r="GB6" s="125"/>
-      <c r="GC6" s="126"/>
+      <c r="FN6" s="148"/>
+      <c r="FO6" s="148"/>
+      <c r="FP6" s="148"/>
+      <c r="FQ6" s="148"/>
+      <c r="FR6" s="148"/>
+      <c r="FS6" s="148"/>
+      <c r="FT6" s="148"/>
+      <c r="FU6" s="148"/>
+      <c r="FV6" s="148"/>
+      <c r="FW6" s="148"/>
+      <c r="FX6" s="148"/>
+      <c r="FY6" s="148"/>
+      <c r="FZ6" s="148"/>
+      <c r="GA6" s="148"/>
+      <c r="GB6" s="148"/>
+      <c r="GC6" s="171"/>
     </row>
     <row r="7" spans="1:185" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="139"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="158"/>
       <c r="F7" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="129" t="s">
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="129" t="s">
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="155"/>
+      <c r="T7" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="127"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="129" t="s">
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="155"/>
+      <c r="AA7" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="127"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="127"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="127"/>
-      <c r="AG7" s="130"/>
-      <c r="AH7" s="129" t="s">
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="150"/>
+      <c r="AF7" s="150"/>
+      <c r="AG7" s="155"/>
+      <c r="AH7" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="AI7" s="127"/>
-      <c r="AJ7" s="127"/>
-      <c r="AK7" s="127"/>
-      <c r="AL7" s="127"/>
-      <c r="AM7" s="127"/>
-      <c r="AN7" s="130"/>
-      <c r="AO7" s="129" t="s">
+      <c r="AI7" s="150"/>
+      <c r="AJ7" s="150"/>
+      <c r="AK7" s="150"/>
+      <c r="AL7" s="150"/>
+      <c r="AM7" s="150"/>
+      <c r="AN7" s="155"/>
+      <c r="AO7" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="AP7" s="127"/>
-      <c r="AQ7" s="127"/>
-      <c r="AR7" s="127"/>
-      <c r="AS7" s="127"/>
-      <c r="AT7" s="127"/>
-      <c r="AU7" s="130"/>
-      <c r="AV7" s="129" t="s">
+      <c r="AP7" s="150"/>
+      <c r="AQ7" s="150"/>
+      <c r="AR7" s="150"/>
+      <c r="AS7" s="150"/>
+      <c r="AT7" s="150"/>
+      <c r="AU7" s="155"/>
+      <c r="AV7" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="AW7" s="127"/>
-      <c r="AX7" s="127"/>
-      <c r="AY7" s="127"/>
-      <c r="AZ7" s="127"/>
-      <c r="BA7" s="127"/>
-      <c r="BB7" s="130"/>
-      <c r="BC7" s="129" t="s">
+      <c r="AW7" s="150"/>
+      <c r="AX7" s="150"/>
+      <c r="AY7" s="150"/>
+      <c r="AZ7" s="150"/>
+      <c r="BA7" s="150"/>
+      <c r="BB7" s="155"/>
+      <c r="BC7" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="BD7" s="127"/>
-      <c r="BE7" s="127"/>
-      <c r="BF7" s="127"/>
-      <c r="BG7" s="127"/>
-      <c r="BH7" s="127"/>
-      <c r="BI7" s="130"/>
-      <c r="BJ7" s="129" t="s">
+      <c r="BD7" s="150"/>
+      <c r="BE7" s="150"/>
+      <c r="BF7" s="150"/>
+      <c r="BG7" s="150"/>
+      <c r="BH7" s="150"/>
+      <c r="BI7" s="155"/>
+      <c r="BJ7" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="BK7" s="127"/>
-      <c r="BL7" s="127"/>
-      <c r="BM7" s="127"/>
-      <c r="BN7" s="127"/>
-      <c r="BO7" s="127"/>
-      <c r="BP7" s="130"/>
-      <c r="BQ7" s="129" t="s">
+      <c r="BK7" s="150"/>
+      <c r="BL7" s="150"/>
+      <c r="BM7" s="150"/>
+      <c r="BN7" s="150"/>
+      <c r="BO7" s="150"/>
+      <c r="BP7" s="155"/>
+      <c r="BQ7" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="BR7" s="127"/>
-      <c r="BS7" s="127"/>
-      <c r="BT7" s="127"/>
-      <c r="BU7" s="127"/>
-      <c r="BV7" s="127"/>
-      <c r="BW7" s="130"/>
-      <c r="BX7" s="129" t="s">
+      <c r="BR7" s="150"/>
+      <c r="BS7" s="150"/>
+      <c r="BT7" s="150"/>
+      <c r="BU7" s="150"/>
+      <c r="BV7" s="150"/>
+      <c r="BW7" s="155"/>
+      <c r="BX7" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="BY7" s="127"/>
-      <c r="BZ7" s="127"/>
-      <c r="CA7" s="127"/>
-      <c r="CB7" s="127"/>
-      <c r="CC7" s="127"/>
-      <c r="CD7" s="130"/>
-      <c r="CE7" s="129" t="s">
+      <c r="BY7" s="150"/>
+      <c r="BZ7" s="150"/>
+      <c r="CA7" s="150"/>
+      <c r="CB7" s="150"/>
+      <c r="CC7" s="150"/>
+      <c r="CD7" s="155"/>
+      <c r="CE7" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="CF7" s="127"/>
-      <c r="CG7" s="127"/>
-      <c r="CH7" s="127"/>
-      <c r="CI7" s="127"/>
-      <c r="CJ7" s="127"/>
-      <c r="CK7" s="130"/>
-      <c r="CL7" s="129" t="s">
+      <c r="CF7" s="150"/>
+      <c r="CG7" s="150"/>
+      <c r="CH7" s="150"/>
+      <c r="CI7" s="150"/>
+      <c r="CJ7" s="150"/>
+      <c r="CK7" s="155"/>
+      <c r="CL7" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="CM7" s="127"/>
-      <c r="CN7" s="127"/>
-      <c r="CO7" s="127"/>
-      <c r="CP7" s="127"/>
-      <c r="CQ7" s="127"/>
-      <c r="CR7" s="130"/>
-      <c r="CS7" s="129" t="s">
+      <c r="CM7" s="150"/>
+      <c r="CN7" s="150"/>
+      <c r="CO7" s="150"/>
+      <c r="CP7" s="150"/>
+      <c r="CQ7" s="150"/>
+      <c r="CR7" s="155"/>
+      <c r="CS7" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="CT7" s="127"/>
-      <c r="CU7" s="127"/>
-      <c r="CV7" s="127"/>
-      <c r="CW7" s="127"/>
-      <c r="CX7" s="127"/>
-      <c r="CY7" s="130"/>
-      <c r="CZ7" s="129" t="s">
+      <c r="CT7" s="150"/>
+      <c r="CU7" s="150"/>
+      <c r="CV7" s="150"/>
+      <c r="CW7" s="150"/>
+      <c r="CX7" s="150"/>
+      <c r="CY7" s="155"/>
+      <c r="CZ7" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="DA7" s="127"/>
-      <c r="DB7" s="127"/>
-      <c r="DC7" s="127"/>
-      <c r="DD7" s="127"/>
-      <c r="DE7" s="127"/>
-      <c r="DF7" s="127"/>
-      <c r="DG7" s="129" t="s">
+      <c r="DA7" s="150"/>
+      <c r="DB7" s="150"/>
+      <c r="DC7" s="150"/>
+      <c r="DD7" s="150"/>
+      <c r="DE7" s="150"/>
+      <c r="DF7" s="150"/>
+      <c r="DG7" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="DH7" s="127"/>
-      <c r="DI7" s="127"/>
-      <c r="DJ7" s="127"/>
-      <c r="DK7" s="127"/>
-      <c r="DL7" s="127"/>
-      <c r="DM7" s="130"/>
-      <c r="DN7" s="127" t="s">
+      <c r="DH7" s="150"/>
+      <c r="DI7" s="150"/>
+      <c r="DJ7" s="150"/>
+      <c r="DK7" s="150"/>
+      <c r="DL7" s="150"/>
+      <c r="DM7" s="155"/>
+      <c r="DN7" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="DO7" s="127"/>
-      <c r="DP7" s="127"/>
-      <c r="DQ7" s="127"/>
-      <c r="DR7" s="127"/>
-      <c r="DS7" s="127"/>
-      <c r="DT7" s="127"/>
-      <c r="DU7" s="129" t="s">
+      <c r="DO7" s="150"/>
+      <c r="DP7" s="150"/>
+      <c r="DQ7" s="150"/>
+      <c r="DR7" s="150"/>
+      <c r="DS7" s="150"/>
+      <c r="DT7" s="150"/>
+      <c r="DU7" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="DV7" s="127"/>
-      <c r="DW7" s="127"/>
-      <c r="DX7" s="127"/>
-      <c r="DY7" s="127"/>
-      <c r="DZ7" s="127"/>
-      <c r="EA7" s="130"/>
-      <c r="EB7" s="127" t="s">
+      <c r="DV7" s="150"/>
+      <c r="DW7" s="150"/>
+      <c r="DX7" s="150"/>
+      <c r="DY7" s="150"/>
+      <c r="DZ7" s="150"/>
+      <c r="EA7" s="155"/>
+      <c r="EB7" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="EC7" s="127"/>
-      <c r="ED7" s="127"/>
-      <c r="EE7" s="127"/>
-      <c r="EF7" s="127"/>
-      <c r="EG7" s="127"/>
-      <c r="EH7" s="127"/>
-      <c r="EI7" s="129" t="s">
+      <c r="EC7" s="150"/>
+      <c r="ED7" s="150"/>
+      <c r="EE7" s="150"/>
+      <c r="EF7" s="150"/>
+      <c r="EG7" s="150"/>
+      <c r="EH7" s="150"/>
+      <c r="EI7" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="EJ7" s="127"/>
-      <c r="EK7" s="127"/>
-      <c r="EL7" s="127"/>
-      <c r="EM7" s="127"/>
-      <c r="EN7" s="127"/>
-      <c r="EO7" s="130"/>
-      <c r="EP7" s="127" t="s">
+      <c r="EJ7" s="150"/>
+      <c r="EK7" s="150"/>
+      <c r="EL7" s="150"/>
+      <c r="EM7" s="150"/>
+      <c r="EN7" s="150"/>
+      <c r="EO7" s="155"/>
+      <c r="EP7" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="EQ7" s="127"/>
-      <c r="ER7" s="127"/>
-      <c r="ES7" s="127"/>
-      <c r="ET7" s="127"/>
-      <c r="EU7" s="127"/>
-      <c r="EV7" s="127"/>
-      <c r="EW7" s="129" t="s">
+      <c r="EQ7" s="150"/>
+      <c r="ER7" s="150"/>
+      <c r="ES7" s="150"/>
+      <c r="ET7" s="150"/>
+      <c r="EU7" s="150"/>
+      <c r="EV7" s="150"/>
+      <c r="EW7" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="EX7" s="127"/>
-      <c r="EY7" s="127"/>
-      <c r="EZ7" s="127"/>
-      <c r="FA7" s="127"/>
-      <c r="FB7" s="127"/>
-      <c r="FC7" s="130"/>
-      <c r="FD7" s="127" t="s">
+      <c r="EX7" s="150"/>
+      <c r="EY7" s="150"/>
+      <c r="EZ7" s="150"/>
+      <c r="FA7" s="150"/>
+      <c r="FB7" s="150"/>
+      <c r="FC7" s="155"/>
+      <c r="FD7" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="FE7" s="127"/>
-      <c r="FF7" s="127"/>
-      <c r="FG7" s="127"/>
-      <c r="FH7" s="127"/>
-      <c r="FI7" s="127"/>
-      <c r="FJ7" s="127"/>
-      <c r="FK7" s="129" t="s">
+      <c r="FE7" s="150"/>
+      <c r="FF7" s="150"/>
+      <c r="FG7" s="150"/>
+      <c r="FH7" s="150"/>
+      <c r="FI7" s="150"/>
+      <c r="FJ7" s="150"/>
+      <c r="FK7" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="FL7" s="127"/>
-      <c r="FM7" s="127"/>
-      <c r="FN7" s="127"/>
-      <c r="FO7" s="127"/>
-      <c r="FP7" s="127"/>
-      <c r="FQ7" s="130"/>
-      <c r="FR7" s="127" t="s">
+      <c r="FL7" s="150"/>
+      <c r="FM7" s="150"/>
+      <c r="FN7" s="150"/>
+      <c r="FO7" s="150"/>
+      <c r="FP7" s="150"/>
+      <c r="FQ7" s="155"/>
+      <c r="FR7" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="FS7" s="127"/>
-      <c r="FT7" s="127"/>
-      <c r="FU7" s="127"/>
-      <c r="FV7" s="127"/>
-      <c r="FW7" s="127"/>
-      <c r="FX7" s="127"/>
-      <c r="FY7" s="129" t="s">
+      <c r="FS7" s="150"/>
+      <c r="FT7" s="150"/>
+      <c r="FU7" s="150"/>
+      <c r="FV7" s="150"/>
+      <c r="FW7" s="150"/>
+      <c r="FX7" s="150"/>
+      <c r="FY7" s="154" t="s">
         <v>60</v>
       </c>
-      <c r="FZ7" s="127"/>
-      <c r="GA7" s="127"/>
-      <c r="GB7" s="127"/>
-      <c r="GC7" s="128"/>
+      <c r="FZ7" s="150"/>
+      <c r="GA7" s="150"/>
+      <c r="GB7" s="150"/>
+      <c r="GC7" s="172"/>
     </row>
     <row r="8" spans="1:185" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="148"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="153"/>
       <c r="F8" s="25">
         <v>19</v>
       </c>
@@ -19539,405 +19539,405 @@
         <v>719.99999999999989</v>
       </c>
       <c r="E82" s="121"/>
-      <c r="F82" s="168">
+      <c r="F82" s="131">
         <f>35*C82</f>
         <v>151.80722891566265</v>
       </c>
-      <c r="G82" s="165"/>
-      <c r="H82" s="165"/>
-      <c r="I82" s="165"/>
-      <c r="J82" s="165"/>
-      <c r="K82" s="165"/>
-      <c r="L82" s="165"/>
-      <c r="M82" s="165"/>
-      <c r="N82" s="165"/>
-      <c r="O82" s="165"/>
-      <c r="P82" s="165"/>
-      <c r="Q82" s="165"/>
-      <c r="R82" s="165"/>
-      <c r="S82" s="165"/>
-      <c r="T82" s="165"/>
-      <c r="U82" s="165"/>
-      <c r="V82" s="165"/>
-      <c r="W82" s="165"/>
-      <c r="X82" s="165"/>
-      <c r="Y82" s="165"/>
-      <c r="Z82" s="165"/>
-      <c r="AA82" s="165"/>
-      <c r="AB82" s="165"/>
-      <c r="AC82" s="165"/>
-      <c r="AD82" s="165"/>
-      <c r="AE82" s="165"/>
-      <c r="AF82" s="165"/>
-      <c r="AG82" s="165"/>
-      <c r="AH82" s="165"/>
-      <c r="AI82" s="165"/>
-      <c r="AJ82" s="165"/>
-      <c r="AK82" s="165"/>
-      <c r="AL82" s="165"/>
-      <c r="AM82" s="165"/>
-      <c r="AN82" s="169"/>
-      <c r="AO82" s="170">
+      <c r="G82" s="128"/>
+      <c r="H82" s="128"/>
+      <c r="I82" s="128"/>
+      <c r="J82" s="128"/>
+      <c r="K82" s="128"/>
+      <c r="L82" s="128"/>
+      <c r="M82" s="128"/>
+      <c r="N82" s="128"/>
+      <c r="O82" s="128"/>
+      <c r="P82" s="128"/>
+      <c r="Q82" s="128"/>
+      <c r="R82" s="128"/>
+      <c r="S82" s="128"/>
+      <c r="T82" s="128"/>
+      <c r="U82" s="128"/>
+      <c r="V82" s="128"/>
+      <c r="W82" s="128"/>
+      <c r="X82" s="128"/>
+      <c r="Y82" s="128"/>
+      <c r="Z82" s="128"/>
+      <c r="AA82" s="128"/>
+      <c r="AB82" s="128"/>
+      <c r="AC82" s="128"/>
+      <c r="AD82" s="128"/>
+      <c r="AE82" s="128"/>
+      <c r="AF82" s="128"/>
+      <c r="AG82" s="128"/>
+      <c r="AH82" s="128"/>
+      <c r="AI82" s="128"/>
+      <c r="AJ82" s="128"/>
+      <c r="AK82" s="128"/>
+      <c r="AL82" s="128"/>
+      <c r="AM82" s="128"/>
+      <c r="AN82" s="132"/>
+      <c r="AO82" s="133">
         <f>38*C82</f>
         <v>164.81927710843374</v>
       </c>
-      <c r="AP82" s="165"/>
-      <c r="AQ82" s="165"/>
-      <c r="AR82" s="165"/>
-      <c r="AS82" s="165"/>
-      <c r="AT82" s="165"/>
-      <c r="AU82" s="165"/>
-      <c r="AV82" s="165"/>
-      <c r="AW82" s="165"/>
-      <c r="AX82" s="165"/>
-      <c r="AY82" s="165"/>
-      <c r="AZ82" s="165"/>
-      <c r="BA82" s="165"/>
-      <c r="BB82" s="165"/>
-      <c r="BC82" s="165"/>
-      <c r="BD82" s="165"/>
-      <c r="BE82" s="165"/>
-      <c r="BF82" s="165"/>
-      <c r="BG82" s="165"/>
-      <c r="BH82" s="165"/>
-      <c r="BI82" s="165"/>
-      <c r="BJ82" s="165"/>
-      <c r="BK82" s="165"/>
-      <c r="BL82" s="165"/>
-      <c r="BM82" s="165"/>
-      <c r="BN82" s="165"/>
-      <c r="BO82" s="165"/>
-      <c r="BP82" s="165"/>
-      <c r="BQ82" s="165"/>
-      <c r="BR82" s="165"/>
-      <c r="BS82" s="165"/>
-      <c r="BT82" s="165"/>
-      <c r="BU82" s="165"/>
-      <c r="BV82" s="165"/>
-      <c r="BW82" s="165"/>
-      <c r="BX82" s="165"/>
-      <c r="BY82" s="165"/>
-      <c r="BZ82" s="166"/>
-      <c r="CA82" s="164">
+      <c r="AP82" s="128"/>
+      <c r="AQ82" s="128"/>
+      <c r="AR82" s="128"/>
+      <c r="AS82" s="128"/>
+      <c r="AT82" s="128"/>
+      <c r="AU82" s="128"/>
+      <c r="AV82" s="128"/>
+      <c r="AW82" s="128"/>
+      <c r="AX82" s="128"/>
+      <c r="AY82" s="128"/>
+      <c r="AZ82" s="128"/>
+      <c r="BA82" s="128"/>
+      <c r="BB82" s="128"/>
+      <c r="BC82" s="128"/>
+      <c r="BD82" s="128"/>
+      <c r="BE82" s="128"/>
+      <c r="BF82" s="128"/>
+      <c r="BG82" s="128"/>
+      <c r="BH82" s="128"/>
+      <c r="BI82" s="128"/>
+      <c r="BJ82" s="128"/>
+      <c r="BK82" s="128"/>
+      <c r="BL82" s="128"/>
+      <c r="BM82" s="128"/>
+      <c r="BN82" s="128"/>
+      <c r="BO82" s="128"/>
+      <c r="BP82" s="128"/>
+      <c r="BQ82" s="128"/>
+      <c r="BR82" s="128"/>
+      <c r="BS82" s="128"/>
+      <c r="BT82" s="128"/>
+      <c r="BU82" s="128"/>
+      <c r="BV82" s="128"/>
+      <c r="BW82" s="128"/>
+      <c r="BX82" s="128"/>
+      <c r="BY82" s="128"/>
+      <c r="BZ82" s="129"/>
+      <c r="CA82" s="127">
         <f>21*C82</f>
         <v>91.084337349397586</v>
       </c>
-      <c r="CB82" s="165"/>
-      <c r="CC82" s="165"/>
-      <c r="CD82" s="165"/>
-      <c r="CE82" s="165"/>
-      <c r="CF82" s="165"/>
-      <c r="CG82" s="165"/>
-      <c r="CH82" s="165"/>
-      <c r="CI82" s="165"/>
-      <c r="CJ82" s="165"/>
-      <c r="CK82" s="165"/>
-      <c r="CL82" s="165"/>
-      <c r="CM82" s="165"/>
-      <c r="CN82" s="165"/>
-      <c r="CO82" s="165"/>
-      <c r="CP82" s="165"/>
-      <c r="CQ82" s="165"/>
-      <c r="CR82" s="165"/>
-      <c r="CS82" s="165"/>
-      <c r="CT82" s="165"/>
-      <c r="CU82" s="166"/>
-      <c r="CV82" s="164">
+      <c r="CB82" s="128"/>
+      <c r="CC82" s="128"/>
+      <c r="CD82" s="128"/>
+      <c r="CE82" s="128"/>
+      <c r="CF82" s="128"/>
+      <c r="CG82" s="128"/>
+      <c r="CH82" s="128"/>
+      <c r="CI82" s="128"/>
+      <c r="CJ82" s="128"/>
+      <c r="CK82" s="128"/>
+      <c r="CL82" s="128"/>
+      <c r="CM82" s="128"/>
+      <c r="CN82" s="128"/>
+      <c r="CO82" s="128"/>
+      <c r="CP82" s="128"/>
+      <c r="CQ82" s="128"/>
+      <c r="CR82" s="128"/>
+      <c r="CS82" s="128"/>
+      <c r="CT82" s="128"/>
+      <c r="CU82" s="129"/>
+      <c r="CV82" s="127">
         <f>21*C82</f>
         <v>91.084337349397586</v>
       </c>
-      <c r="CW82" s="165"/>
-      <c r="CX82" s="165"/>
-      <c r="CY82" s="165"/>
-      <c r="CZ82" s="165"/>
-      <c r="DA82" s="165"/>
-      <c r="DB82" s="165"/>
-      <c r="DC82" s="165"/>
-      <c r="DD82" s="165"/>
-      <c r="DE82" s="165"/>
-      <c r="DF82" s="165"/>
-      <c r="DG82" s="165"/>
-      <c r="DH82" s="165"/>
-      <c r="DI82" s="165"/>
-      <c r="DJ82" s="165"/>
-      <c r="DK82" s="165"/>
-      <c r="DL82" s="165"/>
-      <c r="DM82" s="165"/>
-      <c r="DN82" s="165"/>
-      <c r="DO82" s="165"/>
-      <c r="DP82" s="165"/>
-      <c r="DQ82" s="165"/>
-      <c r="DR82" s="165"/>
-      <c r="DS82" s="165"/>
-      <c r="DT82" s="165"/>
-      <c r="DU82" s="165"/>
-      <c r="DV82" s="165"/>
-      <c r="DW82" s="165"/>
-      <c r="DX82" s="165"/>
-      <c r="DY82" s="165"/>
-      <c r="DZ82" s="165"/>
-      <c r="EA82" s="165"/>
-      <c r="EB82" s="165"/>
-      <c r="EC82" s="165"/>
-      <c r="ED82" s="166"/>
-      <c r="EE82" s="164">
+      <c r="CW82" s="128"/>
+      <c r="CX82" s="128"/>
+      <c r="CY82" s="128"/>
+      <c r="CZ82" s="128"/>
+      <c r="DA82" s="128"/>
+      <c r="DB82" s="128"/>
+      <c r="DC82" s="128"/>
+      <c r="DD82" s="128"/>
+      <c r="DE82" s="128"/>
+      <c r="DF82" s="128"/>
+      <c r="DG82" s="128"/>
+      <c r="DH82" s="128"/>
+      <c r="DI82" s="128"/>
+      <c r="DJ82" s="128"/>
+      <c r="DK82" s="128"/>
+      <c r="DL82" s="128"/>
+      <c r="DM82" s="128"/>
+      <c r="DN82" s="128"/>
+      <c r="DO82" s="128"/>
+      <c r="DP82" s="128"/>
+      <c r="DQ82" s="128"/>
+      <c r="DR82" s="128"/>
+      <c r="DS82" s="128"/>
+      <c r="DT82" s="128"/>
+      <c r="DU82" s="128"/>
+      <c r="DV82" s="128"/>
+      <c r="DW82" s="128"/>
+      <c r="DX82" s="128"/>
+      <c r="DY82" s="128"/>
+      <c r="DZ82" s="128"/>
+      <c r="EA82" s="128"/>
+      <c r="EB82" s="128"/>
+      <c r="EC82" s="128"/>
+      <c r="ED82" s="129"/>
+      <c r="EE82" s="127">
         <f>34*C82</f>
         <v>147.46987951807228</v>
       </c>
-      <c r="EF82" s="165"/>
-      <c r="EG82" s="165"/>
-      <c r="EH82" s="165"/>
-      <c r="EI82" s="165"/>
-      <c r="EJ82" s="165"/>
-      <c r="EK82" s="165"/>
-      <c r="EL82" s="165"/>
-      <c r="EM82" s="165"/>
-      <c r="EN82" s="165"/>
-      <c r="EO82" s="165"/>
-      <c r="EP82" s="165"/>
-      <c r="EQ82" s="165"/>
-      <c r="ER82" s="165"/>
-      <c r="ES82" s="165"/>
-      <c r="ET82" s="165"/>
-      <c r="EU82" s="165"/>
-      <c r="EV82" s="165"/>
-      <c r="EW82" s="165"/>
-      <c r="EX82" s="165"/>
-      <c r="EY82" s="165"/>
-      <c r="EZ82" s="165"/>
-      <c r="FA82" s="165"/>
-      <c r="FB82" s="165"/>
-      <c r="FC82" s="165"/>
-      <c r="FD82" s="165"/>
-      <c r="FE82" s="165"/>
-      <c r="FF82" s="165"/>
-      <c r="FG82" s="165"/>
-      <c r="FH82" s="165"/>
-      <c r="FI82" s="165"/>
-      <c r="FJ82" s="165"/>
-      <c r="FK82" s="165"/>
-      <c r="FL82" s="166"/>
-      <c r="FM82" s="164">
+      <c r="EF82" s="128"/>
+      <c r="EG82" s="128"/>
+      <c r="EH82" s="128"/>
+      <c r="EI82" s="128"/>
+      <c r="EJ82" s="128"/>
+      <c r="EK82" s="128"/>
+      <c r="EL82" s="128"/>
+      <c r="EM82" s="128"/>
+      <c r="EN82" s="128"/>
+      <c r="EO82" s="128"/>
+      <c r="EP82" s="128"/>
+      <c r="EQ82" s="128"/>
+      <c r="ER82" s="128"/>
+      <c r="ES82" s="128"/>
+      <c r="ET82" s="128"/>
+      <c r="EU82" s="128"/>
+      <c r="EV82" s="128"/>
+      <c r="EW82" s="128"/>
+      <c r="EX82" s="128"/>
+      <c r="EY82" s="128"/>
+      <c r="EZ82" s="128"/>
+      <c r="FA82" s="128"/>
+      <c r="FB82" s="128"/>
+      <c r="FC82" s="128"/>
+      <c r="FD82" s="128"/>
+      <c r="FE82" s="128"/>
+      <c r="FF82" s="128"/>
+      <c r="FG82" s="128"/>
+      <c r="FH82" s="128"/>
+      <c r="FI82" s="128"/>
+      <c r="FJ82" s="128"/>
+      <c r="FK82" s="128"/>
+      <c r="FL82" s="129"/>
+      <c r="FM82" s="127">
         <f>17*C82</f>
         <v>73.734939759036138</v>
       </c>
-      <c r="FN82" s="165"/>
-      <c r="FO82" s="165"/>
-      <c r="FP82" s="165"/>
-      <c r="FQ82" s="165"/>
-      <c r="FR82" s="165"/>
-      <c r="FS82" s="165"/>
-      <c r="FT82" s="165"/>
-      <c r="FU82" s="165"/>
-      <c r="FV82" s="165"/>
-      <c r="FW82" s="165"/>
-      <c r="FX82" s="165"/>
-      <c r="FY82" s="165"/>
-      <c r="FZ82" s="165"/>
-      <c r="GA82" s="165"/>
-      <c r="GB82" s="165"/>
-      <c r="GC82" s="167"/>
+      <c r="FN82" s="128"/>
+      <c r="FO82" s="128"/>
+      <c r="FP82" s="128"/>
+      <c r="FQ82" s="128"/>
+      <c r="FR82" s="128"/>
+      <c r="FS82" s="128"/>
+      <c r="FT82" s="128"/>
+      <c r="FU82" s="128"/>
+      <c r="FV82" s="128"/>
+      <c r="FW82" s="128"/>
+      <c r="FX82" s="128"/>
+      <c r="FY82" s="128"/>
+      <c r="FZ82" s="128"/>
+      <c r="GA82" s="128"/>
+      <c r="GB82" s="128"/>
+      <c r="GC82" s="130"/>
     </row>
     <row r="83" spans="1:187" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="158" t="s">
+      <c r="A83" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="159"/>
-      <c r="C83" s="159"/>
-      <c r="D83" s="159"/>
-      <c r="E83" s="160"/>
-      <c r="F83" s="161" t="s">
+      <c r="B83" s="139"/>
+      <c r="C83" s="139"/>
+      <c r="D83" s="139"/>
+      <c r="E83" s="140"/>
+      <c r="F83" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="G83" s="155"/>
-      <c r="H83" s="155"/>
-      <c r="I83" s="155"/>
-      <c r="J83" s="155"/>
-      <c r="K83" s="155"/>
-      <c r="L83" s="155"/>
-      <c r="M83" s="155"/>
-      <c r="N83" s="155"/>
-      <c r="O83" s="155"/>
-      <c r="P83" s="155"/>
-      <c r="Q83" s="155"/>
-      <c r="R83" s="155"/>
-      <c r="S83" s="155"/>
-      <c r="T83" s="155"/>
-      <c r="U83" s="155"/>
-      <c r="V83" s="155"/>
-      <c r="W83" s="155"/>
-      <c r="X83" s="155"/>
-      <c r="Y83" s="155"/>
-      <c r="Z83" s="155"/>
-      <c r="AA83" s="155"/>
-      <c r="AB83" s="155"/>
-      <c r="AC83" s="155"/>
-      <c r="AD83" s="155"/>
-      <c r="AE83" s="155"/>
-      <c r="AF83" s="155"/>
-      <c r="AG83" s="155"/>
-      <c r="AH83" s="155"/>
-      <c r="AI83" s="155"/>
-      <c r="AJ83" s="155"/>
-      <c r="AK83" s="155"/>
-      <c r="AL83" s="155"/>
-      <c r="AM83" s="155"/>
-      <c r="AN83" s="162"/>
-      <c r="AO83" s="163" t="s">
+      <c r="G83" s="135"/>
+      <c r="H83" s="135"/>
+      <c r="I83" s="135"/>
+      <c r="J83" s="135"/>
+      <c r="K83" s="135"/>
+      <c r="L83" s="135"/>
+      <c r="M83" s="135"/>
+      <c r="N83" s="135"/>
+      <c r="O83" s="135"/>
+      <c r="P83" s="135"/>
+      <c r="Q83" s="135"/>
+      <c r="R83" s="135"/>
+      <c r="S83" s="135"/>
+      <c r="T83" s="135"/>
+      <c r="U83" s="135"/>
+      <c r="V83" s="135"/>
+      <c r="W83" s="135"/>
+      <c r="X83" s="135"/>
+      <c r="Y83" s="135"/>
+      <c r="Z83" s="135"/>
+      <c r="AA83" s="135"/>
+      <c r="AB83" s="135"/>
+      <c r="AC83" s="135"/>
+      <c r="AD83" s="135"/>
+      <c r="AE83" s="135"/>
+      <c r="AF83" s="135"/>
+      <c r="AG83" s="135"/>
+      <c r="AH83" s="135"/>
+      <c r="AI83" s="135"/>
+      <c r="AJ83" s="135"/>
+      <c r="AK83" s="135"/>
+      <c r="AL83" s="135"/>
+      <c r="AM83" s="135"/>
+      <c r="AN83" s="142"/>
+      <c r="AO83" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="AP83" s="155"/>
-      <c r="AQ83" s="155"/>
-      <c r="AR83" s="155"/>
-      <c r="AS83" s="155"/>
-      <c r="AT83" s="155"/>
-      <c r="AU83" s="155"/>
-      <c r="AV83" s="155"/>
-      <c r="AW83" s="155"/>
-      <c r="AX83" s="155"/>
-      <c r="AY83" s="155"/>
-      <c r="AZ83" s="155"/>
-      <c r="BA83" s="155"/>
-      <c r="BB83" s="155"/>
-      <c r="BC83" s="155"/>
-      <c r="BD83" s="155"/>
-      <c r="BE83" s="155"/>
-      <c r="BF83" s="155"/>
-      <c r="BG83" s="155"/>
-      <c r="BH83" s="155"/>
-      <c r="BI83" s="155"/>
-      <c r="BJ83" s="155"/>
-      <c r="BK83" s="155"/>
-      <c r="BL83" s="155"/>
-      <c r="BM83" s="155"/>
-      <c r="BN83" s="155"/>
-      <c r="BO83" s="155"/>
-      <c r="BP83" s="155"/>
-      <c r="BQ83" s="155"/>
-      <c r="BR83" s="155"/>
-      <c r="BS83" s="155"/>
-      <c r="BT83" s="155"/>
-      <c r="BU83" s="155"/>
-      <c r="BV83" s="155"/>
-      <c r="BW83" s="155"/>
-      <c r="BX83" s="155"/>
-      <c r="BY83" s="155"/>
-      <c r="BZ83" s="156"/>
-      <c r="CA83" s="154" t="s">
+      <c r="AP83" s="135"/>
+      <c r="AQ83" s="135"/>
+      <c r="AR83" s="135"/>
+      <c r="AS83" s="135"/>
+      <c r="AT83" s="135"/>
+      <c r="AU83" s="135"/>
+      <c r="AV83" s="135"/>
+      <c r="AW83" s="135"/>
+      <c r="AX83" s="135"/>
+      <c r="AY83" s="135"/>
+      <c r="AZ83" s="135"/>
+      <c r="BA83" s="135"/>
+      <c r="BB83" s="135"/>
+      <c r="BC83" s="135"/>
+      <c r="BD83" s="135"/>
+      <c r="BE83" s="135"/>
+      <c r="BF83" s="135"/>
+      <c r="BG83" s="135"/>
+      <c r="BH83" s="135"/>
+      <c r="BI83" s="135"/>
+      <c r="BJ83" s="135"/>
+      <c r="BK83" s="135"/>
+      <c r="BL83" s="135"/>
+      <c r="BM83" s="135"/>
+      <c r="BN83" s="135"/>
+      <c r="BO83" s="135"/>
+      <c r="BP83" s="135"/>
+      <c r="BQ83" s="135"/>
+      <c r="BR83" s="135"/>
+      <c r="BS83" s="135"/>
+      <c r="BT83" s="135"/>
+      <c r="BU83" s="135"/>
+      <c r="BV83" s="135"/>
+      <c r="BW83" s="135"/>
+      <c r="BX83" s="135"/>
+      <c r="BY83" s="135"/>
+      <c r="BZ83" s="136"/>
+      <c r="CA83" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="CB83" s="155"/>
-      <c r="CC83" s="155"/>
-      <c r="CD83" s="155"/>
-      <c r="CE83" s="155"/>
-      <c r="CF83" s="155"/>
-      <c r="CG83" s="155"/>
-      <c r="CH83" s="155"/>
-      <c r="CI83" s="155"/>
-      <c r="CJ83" s="155"/>
-      <c r="CK83" s="155"/>
-      <c r="CL83" s="155"/>
-      <c r="CM83" s="155"/>
-      <c r="CN83" s="155"/>
-      <c r="CO83" s="155"/>
-      <c r="CP83" s="155"/>
-      <c r="CQ83" s="155"/>
-      <c r="CR83" s="155"/>
-      <c r="CS83" s="155"/>
-      <c r="CT83" s="155"/>
-      <c r="CU83" s="156"/>
-      <c r="CV83" s="154" t="s">
+      <c r="CB83" s="135"/>
+      <c r="CC83" s="135"/>
+      <c r="CD83" s="135"/>
+      <c r="CE83" s="135"/>
+      <c r="CF83" s="135"/>
+      <c r="CG83" s="135"/>
+      <c r="CH83" s="135"/>
+      <c r="CI83" s="135"/>
+      <c r="CJ83" s="135"/>
+      <c r="CK83" s="135"/>
+      <c r="CL83" s="135"/>
+      <c r="CM83" s="135"/>
+      <c r="CN83" s="135"/>
+      <c r="CO83" s="135"/>
+      <c r="CP83" s="135"/>
+      <c r="CQ83" s="135"/>
+      <c r="CR83" s="135"/>
+      <c r="CS83" s="135"/>
+      <c r="CT83" s="135"/>
+      <c r="CU83" s="136"/>
+      <c r="CV83" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="CW83" s="155"/>
-      <c r="CX83" s="155"/>
-      <c r="CY83" s="155"/>
-      <c r="CZ83" s="155"/>
-      <c r="DA83" s="155"/>
-      <c r="DB83" s="155"/>
-      <c r="DC83" s="155"/>
-      <c r="DD83" s="155"/>
-      <c r="DE83" s="155"/>
-      <c r="DF83" s="155"/>
-      <c r="DG83" s="155"/>
-      <c r="DH83" s="155"/>
-      <c r="DI83" s="155"/>
-      <c r="DJ83" s="155"/>
-      <c r="DK83" s="155"/>
-      <c r="DL83" s="155"/>
-      <c r="DM83" s="155"/>
-      <c r="DN83" s="155"/>
-      <c r="DO83" s="155"/>
-      <c r="DP83" s="155"/>
-      <c r="DQ83" s="155"/>
-      <c r="DR83" s="155"/>
-      <c r="DS83" s="155"/>
-      <c r="DT83" s="155"/>
-      <c r="DU83" s="155"/>
-      <c r="DV83" s="155"/>
-      <c r="DW83" s="155"/>
-      <c r="DX83" s="155"/>
-      <c r="DY83" s="155"/>
-      <c r="DZ83" s="155"/>
-      <c r="EA83" s="155"/>
-      <c r="EB83" s="155"/>
-      <c r="EC83" s="155"/>
-      <c r="ED83" s="156"/>
-      <c r="EE83" s="154" t="s">
+      <c r="CW83" s="135"/>
+      <c r="CX83" s="135"/>
+      <c r="CY83" s="135"/>
+      <c r="CZ83" s="135"/>
+      <c r="DA83" s="135"/>
+      <c r="DB83" s="135"/>
+      <c r="DC83" s="135"/>
+      <c r="DD83" s="135"/>
+      <c r="DE83" s="135"/>
+      <c r="DF83" s="135"/>
+      <c r="DG83" s="135"/>
+      <c r="DH83" s="135"/>
+      <c r="DI83" s="135"/>
+      <c r="DJ83" s="135"/>
+      <c r="DK83" s="135"/>
+      <c r="DL83" s="135"/>
+      <c r="DM83" s="135"/>
+      <c r="DN83" s="135"/>
+      <c r="DO83" s="135"/>
+      <c r="DP83" s="135"/>
+      <c r="DQ83" s="135"/>
+      <c r="DR83" s="135"/>
+      <c r="DS83" s="135"/>
+      <c r="DT83" s="135"/>
+      <c r="DU83" s="135"/>
+      <c r="DV83" s="135"/>
+      <c r="DW83" s="135"/>
+      <c r="DX83" s="135"/>
+      <c r="DY83" s="135"/>
+      <c r="DZ83" s="135"/>
+      <c r="EA83" s="135"/>
+      <c r="EB83" s="135"/>
+      <c r="EC83" s="135"/>
+      <c r="ED83" s="136"/>
+      <c r="EE83" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="EF83" s="155"/>
-      <c r="EG83" s="155"/>
-      <c r="EH83" s="155"/>
-      <c r="EI83" s="155"/>
-      <c r="EJ83" s="155"/>
-      <c r="EK83" s="155"/>
-      <c r="EL83" s="155"/>
-      <c r="EM83" s="155"/>
-      <c r="EN83" s="155"/>
-      <c r="EO83" s="155"/>
-      <c r="EP83" s="155"/>
-      <c r="EQ83" s="155"/>
-      <c r="ER83" s="155"/>
-      <c r="ES83" s="155"/>
-      <c r="ET83" s="155"/>
-      <c r="EU83" s="155"/>
-      <c r="EV83" s="155"/>
-      <c r="EW83" s="155"/>
-      <c r="EX83" s="155"/>
-      <c r="EY83" s="155"/>
-      <c r="EZ83" s="155"/>
-      <c r="FA83" s="155"/>
-      <c r="FB83" s="155"/>
-      <c r="FC83" s="155"/>
-      <c r="FD83" s="155"/>
-      <c r="FE83" s="155"/>
-      <c r="FF83" s="155"/>
-      <c r="FG83" s="155"/>
-      <c r="FH83" s="155"/>
-      <c r="FI83" s="155"/>
-      <c r="FJ83" s="155"/>
-      <c r="FK83" s="155"/>
-      <c r="FL83" s="156"/>
-      <c r="FM83" s="154" t="s">
+      <c r="EF83" s="135"/>
+      <c r="EG83" s="135"/>
+      <c r="EH83" s="135"/>
+      <c r="EI83" s="135"/>
+      <c r="EJ83" s="135"/>
+      <c r="EK83" s="135"/>
+      <c r="EL83" s="135"/>
+      <c r="EM83" s="135"/>
+      <c r="EN83" s="135"/>
+      <c r="EO83" s="135"/>
+      <c r="EP83" s="135"/>
+      <c r="EQ83" s="135"/>
+      <c r="ER83" s="135"/>
+      <c r="ES83" s="135"/>
+      <c r="ET83" s="135"/>
+      <c r="EU83" s="135"/>
+      <c r="EV83" s="135"/>
+      <c r="EW83" s="135"/>
+      <c r="EX83" s="135"/>
+      <c r="EY83" s="135"/>
+      <c r="EZ83" s="135"/>
+      <c r="FA83" s="135"/>
+      <c r="FB83" s="135"/>
+      <c r="FC83" s="135"/>
+      <c r="FD83" s="135"/>
+      <c r="FE83" s="135"/>
+      <c r="FF83" s="135"/>
+      <c r="FG83" s="135"/>
+      <c r="FH83" s="135"/>
+      <c r="FI83" s="135"/>
+      <c r="FJ83" s="135"/>
+      <c r="FK83" s="135"/>
+      <c r="FL83" s="136"/>
+      <c r="FM83" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="FN83" s="155"/>
-      <c r="FO83" s="155"/>
-      <c r="FP83" s="155"/>
-      <c r="FQ83" s="155"/>
-      <c r="FR83" s="155"/>
-      <c r="FS83" s="155"/>
-      <c r="FT83" s="155"/>
-      <c r="FU83" s="155"/>
-      <c r="FV83" s="155"/>
-      <c r="FW83" s="155"/>
-      <c r="FX83" s="155"/>
-      <c r="FY83" s="155"/>
-      <c r="FZ83" s="155"/>
-      <c r="GA83" s="155"/>
-      <c r="GB83" s="155"/>
-      <c r="GC83" s="157"/>
+      <c r="FN83" s="135"/>
+      <c r="FO83" s="135"/>
+      <c r="FP83" s="135"/>
+      <c r="FQ83" s="135"/>
+      <c r="FR83" s="135"/>
+      <c r="FS83" s="135"/>
+      <c r="FT83" s="135"/>
+      <c r="FU83" s="135"/>
+      <c r="FV83" s="135"/>
+      <c r="FW83" s="135"/>
+      <c r="FX83" s="135"/>
+      <c r="FY83" s="135"/>
+      <c r="FZ83" s="135"/>
+      <c r="GA83" s="135"/>
+      <c r="GB83" s="135"/>
+      <c r="GC83" s="137"/>
     </row>
     <row r="85" spans="1:187" x14ac:dyDescent="0.2">
       <c r="GE85" s="117"/>
@@ -19947,53 +19947,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="EE82:FL82"/>
-    <mergeCell ref="FM82:GC82"/>
-    <mergeCell ref="F82:AN82"/>
-    <mergeCell ref="AO82:BZ82"/>
-    <mergeCell ref="CA82:CU82"/>
-    <mergeCell ref="CV82:ED82"/>
-    <mergeCell ref="EE83:FL83"/>
-    <mergeCell ref="FM83:GC83"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="F83:AN83"/>
-    <mergeCell ref="AO83:BZ83"/>
-    <mergeCell ref="CA83:CU83"/>
-    <mergeCell ref="CV83:ED83"/>
-    <mergeCell ref="F4:AN4"/>
-    <mergeCell ref="AO4:BZ4"/>
-    <mergeCell ref="FM4:GC4"/>
-    <mergeCell ref="CA4:CU4"/>
-    <mergeCell ref="CV4:ED4"/>
-    <mergeCell ref="EE4:FL4"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="R6:AV6"/>
-    <mergeCell ref="AW6:BZ6"/>
-    <mergeCell ref="CA6:DE6"/>
-    <mergeCell ref="F5:DE5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="BQ7:BW7"/>
-    <mergeCell ref="BX7:CD7"/>
-    <mergeCell ref="CE7:CK7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="T7:Z7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="CL7:CR7"/>
-    <mergeCell ref="CS7:CY7"/>
-    <mergeCell ref="CZ7:DF7"/>
-    <mergeCell ref="DG7:DM7"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="AH7:AN7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BB7"/>
-    <mergeCell ref="BC7:BI7"/>
-    <mergeCell ref="BJ7:BP7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="EK6:FL6"/>
     <mergeCell ref="FM6:GC6"/>
     <mergeCell ref="DF5:GC5"/>
@@ -20008,6 +19961,53 @@
     <mergeCell ref="FY7:GC7"/>
     <mergeCell ref="DN7:DT7"/>
     <mergeCell ref="DF6:EJ6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="CL7:CR7"/>
+    <mergeCell ref="CS7:CY7"/>
+    <mergeCell ref="CZ7:DF7"/>
+    <mergeCell ref="DG7:DM7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="AH7:AN7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BB7"/>
+    <mergeCell ref="BC7:BI7"/>
+    <mergeCell ref="BJ7:BP7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="BQ7:BW7"/>
+    <mergeCell ref="BX7:CD7"/>
+    <mergeCell ref="CE7:CK7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="T7:Z7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="R6:AV6"/>
+    <mergeCell ref="AW6:BZ6"/>
+    <mergeCell ref="CA6:DE6"/>
+    <mergeCell ref="F5:DE5"/>
+    <mergeCell ref="F4:AN4"/>
+    <mergeCell ref="AO4:BZ4"/>
+    <mergeCell ref="FM4:GC4"/>
+    <mergeCell ref="CA4:CU4"/>
+    <mergeCell ref="CV4:ED4"/>
+    <mergeCell ref="EE4:FL4"/>
+    <mergeCell ref="EE83:FL83"/>
+    <mergeCell ref="FM83:GC83"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="F83:AN83"/>
+    <mergeCell ref="AO83:BZ83"/>
+    <mergeCell ref="CA83:CU83"/>
+    <mergeCell ref="CV83:ED83"/>
+    <mergeCell ref="EE82:FL82"/>
+    <mergeCell ref="FM82:GC82"/>
+    <mergeCell ref="F82:AN82"/>
+    <mergeCell ref="AO82:BZ82"/>
+    <mergeCell ref="CA82:CU82"/>
+    <mergeCell ref="CV82:ED82"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -20020,14 +20020,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="124"/>
-    <col min="5" max="5" width="10.83203125" style="172"/>
+    <col min="5" max="5" width="10.83203125" style="126"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20044,7 +20044,7 @@
       <c r="D1" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="125" t="s">
         <v>166</v>
       </c>
       <c r="F1" s="122" t="s">
@@ -20065,7 +20065,7 @@
       <c r="D2" s="124">
         <v>57</v>
       </c>
-      <c r="E2" s="172">
+      <c r="E2" s="126">
         <v>51</v>
       </c>
       <c r="F2" t="s">
@@ -20086,7 +20086,7 @@
       <c r="D3" s="124">
         <v>71</v>
       </c>
-      <c r="E3" s="172">
+      <c r="E3" s="126">
         <v>77</v>
       </c>
       <c r="F3" t="s">
@@ -20107,7 +20107,7 @@
       <c r="D4" s="124">
         <v>45</v>
       </c>
-      <c r="E4" s="172">
+      <c r="E4" s="126">
         <v>52</v>
       </c>
       <c r="F4" t="s">
@@ -20128,7 +20128,7 @@
       <c r="D5" s="124">
         <v>54</v>
       </c>
-      <c r="E5" s="172">
+      <c r="E5" s="126">
         <v>23</v>
       </c>
       <c r="F5" t="s">
@@ -20149,7 +20149,7 @@
       <c r="D6" s="124">
         <v>87</v>
       </c>
-      <c r="E6" s="172">
+      <c r="E6" s="126">
         <v>120</v>
       </c>
       <c r="F6" t="s">
@@ -20170,7 +20170,7 @@
       <c r="D7" s="124">
         <v>71</v>
       </c>
-      <c r="E7" s="172">
+      <c r="E7" s="126">
         <v>68</v>
       </c>
       <c r="F7" t="s">
